--- a/Documentation/Buglist.xlsx
+++ b/Documentation/Buglist.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="150">
   <si>
     <t>ID</t>
   </si>
@@ -493,6 +493,35 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
+    <t>1. 修改对话框中依然显示两条数据相同的字段
+2. 修改后两条数据都被修改了</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 修改对话框应该只显示未审核数据的信息
+2. 只有未审核的数据才能被修改</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>OS:Windows 7
+CPU: AMD
+Memory: 4GB 
+Resolution:1366X769</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>已经通过审核的数据被修改</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改生产日期时必须修改出厂编号和投产编号，否则弹出对话框不许修改</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>在计划页面对于一个已经计划的合同再次进行计划时，如果想修改生产日期，就必须修改投产编号和出厂编号，否则弹出对话框提示生产编号和出产编号已经使用</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve">1. 使用销售账号登陆
 2. 进入销售页面
 3. 选中一条已经审核过的数据和一条未审核的数据
@@ -503,49 +532,227 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>1. 修改对话框中依然显示两条数据相同的字段
-2. 修改后两条数据都被修改了</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 修改对话框应该只显示未审核数据的信息
-2. 只有未审核的数据才能被修改</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>OS:Windows 7
-CPU: AMD
-Memory: 4GB 
-Resolution:1366X769</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>已经通过审核的数据被修改</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>所有页面第一项遇到选取困难</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>由于每台设备的投产编号及出厂编号都不一样，导致在排产时直接填写过于繁琐，希望能在单据审核前集中填写，或者通过其他办法实现自动生成。</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>计划排产页面的筛选功能与销售页面不一样，希望能保存一致</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>计划排产页面中投产编号及出厂编号希望更改为直接录入项目</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>第一行合同前面的方框打“√”困难</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>计划排产页面无法实现任意筛选功能</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <t xml:space="preserve"> 弹出对话框“投产编号已使用”</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1. 使用计划账号登陆
+2. 进入计划页面
+3. 选中一条已经计划过的合同
+4. 点击计划按钮
+5. 在弹出的修改页面中更改生产日期
+6. 点击确定
+</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>不弹出对话框，可以修改成功</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>必须修改</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划页面使用“U”进行查询，弹出没有符合条件的记录对话框</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划页面存在一条已经计划过的合同</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划页面存在至少一条含有“U”的记录</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划页面使用“U”进行查询，弹出没有符合条件的记录对话框</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹出没有符合条件的记录对话框</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>应该将含有字母“U”的记录全部显示出来</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划页面左上角用于快速筛选订单状态的选项中，“生产日期未计划”失效</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1. 使用计划账号登陆
+2. 进入计划页面
+3. 在查询框中输入字母“U”
+4. 点击查询
+</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单列表没有变化，所有订单都被显示</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>只有生产日期未审核的订单被显示出来</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划页面左上角用于快速筛选订单状态的选项中，“包装日期未计划”筛选的结果是包装日期已计划的订单，正好与筛选结果相反</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划页面存在生产日期未计划的订单</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划页面左上角用于快速筛选订单状态的选项中，“包装日期未计划”筛选的结果是包装日期已计划的订单，正好与筛选结果相反</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1. 使用计划账号登陆
+2. 进入计划页面
+3. 在左上角的订单状态中选择生产日期未计划
+</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有包装日期计划的订单被显示</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有包装日期未计划的订单显示</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1. 使用计划账号登陆
+2. 进入计划页面
+3. 在左上角的订单状态中选择包装日期未计划
+</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划页面中反审核订单后，待办事项中的“未审核 业务-包装”中的没有数据显示，其它未审核的选项都正常。</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划页面中存在多条不同审核状态的信息，其中包含包装计划被审核的订单</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 使用计划账号登陆
+2. 进入计划页面
+3. 全选所有订单
+4. 依次点击反审核，经所有订单的中的审核全部去掉
+5. 进入待办事项中查看</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>在计划页面将所有包装被计划的数据全部反审核，然后到待办事项中查看，其中的“未审核 业务-包装”显示有多条数据，但点击审核后进入没有任何数据</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>待办事项中的“未审核 业务-包装”显示有多条数据，但点击审核后进入没有任何数据</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>待办事项中的“未审核 业务-包装”显示有多条数据，点击进入后的订单数与显示的订单数相符且符合真实情况</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划页面左上角用于快速筛选订单状态的选项中，“发货日期未计划”筛选的结果是发货日期已计划的订单，正好与筛选结果相反</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划页面中存在发货日期计划和未计划的订单</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划页面中存在包装日期计划和未计划的订单</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1. 使用计划账号登陆
+2. 进入计划页面
+3. 在左上角的订单状态中选择发货日期未计划
+</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有发货日期计划的订单被显示</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有发货日期未计划的订单显示</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售页面中的添加选项里没有对于优先级的设置</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划页面左上角用于快速筛选订单状态的选项中，“发货日期未计划”筛选的结果是发货日期已计划的订单，正好与筛选结果相反</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售页面中的添加选项里没有对于优先级的设置</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>选项中没有对于优先级设置</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>选项中应该有对于优先级设置</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售页面和计划页面中的订单状态筛选的下拉菜单在切换页面后没有被刷新，导致数据与选项不符</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售页面和计划页面中的订单状态筛选的下拉菜单在切换页面后没有被刷新，导致数据与选项不符</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售页面和计划页面中都存在多条数据</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1. 使用销售账号登陆
+2. 进入销售页面
+3. 在销售页面点击添加按钮
+4. 弹出添加的对话框
+5. 注意里面的所有选项
+</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 使用销售账号登陆
+2. 进入销售页面
+3. 在销售页面点击左上角的订单状态中选择任意一个能够筛选出数据的
+4. 筛选后的数据被显示出来
+5. 点击待办事项或任意其他页面进行切换
+6. 点击销售页面切换回来
+7. 观察数据的显示情况和左上角的订单筛选下拉框</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 下拉框中的内容还是之前筛选时的选项
+2. 数据未全部的订单，与筛选的结果不符</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 每次切换页面回来后订单状态筛选的下拉框变更为全部，不保留之前的筛选状态
+2.或者每次切换回来后，保留之前的筛选状态且数据为筛选后的数据</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>应该修改</t>
   </si>
 </sst>
 </file>
@@ -935,6 +1142,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -961,12 +1174,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1348,7 +1555,7 @@
   <sheetData>
     <row r="1" spans="2:14" ht="15.75" customHeight="1"/>
     <row r="2" spans="2:14" s="1" customFormat="1" ht="20.25" customHeight="1">
-      <c r="B2" s="38"/>
+      <c r="B2" s="40"/>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
@@ -1363,7 +1570,7 @@
       <c r="N2" s="2"/>
     </row>
     <row r="3" spans="2:14" s="1" customFormat="1" ht="20.25" customHeight="1" thickBot="1">
-      <c r="B3" s="39"/>
+      <c r="B3" s="41"/>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -1378,32 +1585,32 @@
       <c r="N3" s="2"/>
     </row>
     <row r="4" spans="2:14" s="5" customFormat="1" ht="14.25">
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="36" t="s">
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="43"/>
+      <c r="J4" s="43"/>
+      <c r="K4" s="43"/>
+      <c r="L4" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="M4" s="36" t="s">
+      <c r="M4" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="N4" s="36" t="s">
+      <c r="N4" s="38" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="5" spans="2:14" s="5" customFormat="1" ht="14.25">
-      <c r="B5" s="44"/>
+      <c r="B5" s="46"/>
       <c r="C5" s="17" t="s">
         <v>1</v>
       </c>
@@ -1431,9 +1638,9 @@
       <c r="K5" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="L5" s="42"/>
-      <c r="M5" s="37"/>
-      <c r="N5" s="37"/>
+      <c r="L5" s="44"/>
+      <c r="M5" s="39"/>
+      <c r="N5" s="39"/>
     </row>
     <row r="6" spans="2:14" s="11" customFormat="1" ht="90">
       <c r="B6" s="30" t="s">
@@ -1539,7 +1746,7 @@
       <c r="H8" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="I8" s="46">
+      <c r="I8" s="37">
         <v>1</v>
       </c>
       <c r="J8" s="13" t="s">
@@ -1551,7 +1758,7 @@
       <c r="L8" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="M8" s="45" t="s">
+      <c r="M8" s="36" t="s">
         <v>61</v>
       </c>
       <c r="N8" s="13" t="s">
@@ -1580,7 +1787,7 @@
       <c r="H9" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="I9" s="46">
+      <c r="I9" s="37">
         <v>1</v>
       </c>
       <c r="J9" s="13" t="s">
@@ -1592,7 +1799,7 @@
       <c r="L9" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="M9" s="45" t="s">
+      <c r="M9" s="36" t="s">
         <v>61</v>
       </c>
       <c r="N9" s="13" t="s">
@@ -1621,7 +1828,7 @@
       <c r="H10" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="I10" s="46">
+      <c r="I10" s="37">
         <v>1</v>
       </c>
       <c r="J10" s="13" t="s">
@@ -1633,7 +1840,7 @@
       <c r="L10" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="M10" s="45" t="s">
+      <c r="M10" s="36" t="s">
         <v>44</v>
       </c>
       <c r="N10" s="13"/>
@@ -1660,7 +1867,7 @@
       <c r="H11" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="I11" s="46">
+      <c r="I11" s="37">
         <v>1</v>
       </c>
       <c r="J11" s="13" t="s">
@@ -1672,7 +1879,7 @@
       <c r="L11" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="M11" s="45" t="s">
+      <c r="M11" s="36" t="s">
         <v>44</v>
       </c>
       <c r="N11" s="13"/>
@@ -1699,11 +1906,11 @@
       <c r="H12" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="I12" s="46">
+      <c r="I12" s="37">
         <v>1</v>
       </c>
       <c r="J12" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K12" s="13" t="s">
         <v>71</v>
@@ -1711,7 +1918,7 @@
       <c r="L12" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="M12" s="45" t="s">
+      <c r="M12" s="36" t="s">
         <v>93</v>
       </c>
       <c r="N12" s="13"/>
@@ -1721,7 +1928,7 @@
         <v>6</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D13" s="13" t="s">
         <v>94</v>
@@ -1730,19 +1937,19 @@
         <v>95</v>
       </c>
       <c r="F13" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="G13" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="G13" s="13" t="s">
+      <c r="H13" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="H13" s="13" t="s">
+      <c r="I13" s="37">
+        <v>1</v>
+      </c>
+      <c r="J13" s="13" t="s">
         <v>98</v>
-      </c>
-      <c r="I13" s="46">
-        <v>1</v>
-      </c>
-      <c r="J13" s="13" t="s">
-        <v>99</v>
       </c>
       <c r="K13" s="13" t="s">
         <v>71</v>
@@ -1750,7 +1957,7 @@
       <c r="L13" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="M13" s="45" t="s">
+      <c r="M13" s="36" t="s">
         <v>44</v>
       </c>
       <c r="N13" s="13"/>
@@ -1760,20 +1967,38 @@
         <v>7</v>
       </c>
       <c r="C14" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="D14" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="E14" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="G14" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="H14" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="46"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="45"/>
+      <c r="I14" s="37">
+        <v>1</v>
+      </c>
+      <c r="J14" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="K14" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="L14" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="M14" s="36" t="s">
+        <v>44</v>
+      </c>
       <c r="N14" s="13"/>
     </row>
     <row r="15" spans="2:14" ht="21" customHeight="1">
@@ -1781,20 +2006,38 @@
         <v>8</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="46"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="45"/>
+        <v>110</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="G15" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="I15" s="37">
+        <v>1</v>
+      </c>
+      <c r="J15" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="K15" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="L15" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="M15" s="36" t="s">
+        <v>44</v>
+      </c>
       <c r="N15" s="13"/>
     </row>
     <row r="16" spans="2:14" ht="21" customHeight="1">
@@ -1802,105 +2045,233 @@
         <v>9</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="46"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="45"/>
+        <v>113</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="G16" s="37" t="s">
+        <v>115</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="I16" s="37">
+        <v>1</v>
+      </c>
+      <c r="J16" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="K16" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="L16" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="M16" s="36" t="s">
+        <v>44</v>
+      </c>
       <c r="N16" s="13"/>
     </row>
     <row r="17" spans="2:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="B17" s="8">
         <v>10</v>
       </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="46"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="45"/>
+      <c r="C17" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="I17" s="37">
+        <v>1</v>
+      </c>
+      <c r="J17" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="K17" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="L17" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="M17" s="36" t="s">
+        <v>44</v>
+      </c>
       <c r="N17" s="13"/>
     </row>
     <row r="18" spans="2:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="B18" s="8">
         <v>11</v>
       </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="46"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="45"/>
+      <c r="C18" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="H18" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="I18" s="37">
+        <v>1</v>
+      </c>
+      <c r="J18" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="K18" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="L18" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="M18" s="36" t="s">
+        <v>44</v>
+      </c>
       <c r="N18" s="13"/>
     </row>
     <row r="19" spans="2:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="B19" s="8">
         <v>12</v>
       </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="46"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="45"/>
+      <c r="C19" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="H19" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="I19" s="37">
+        <v>1</v>
+      </c>
+      <c r="J19" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="K19" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="L19" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="M19" s="36" t="s">
+        <v>44</v>
+      </c>
       <c r="N19" s="13"/>
     </row>
     <row r="20" spans="2:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="B20" s="8">
         <v>13</v>
       </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="46"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="45"/>
+      <c r="C20" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="H20" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="I20" s="37">
+        <v>1</v>
+      </c>
+      <c r="J20" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="K20" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="L20" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="M20" s="36" t="s">
+        <v>44</v>
+      </c>
       <c r="N20" s="13"/>
     </row>
     <row r="21" spans="2:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="B21" s="8">
         <v>14</v>
       </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="46"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="45"/>
+      <c r="C21" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="H21" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="I21" s="37">
+        <v>1</v>
+      </c>
+      <c r="J21" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="K21" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="L21" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="M21" s="36" t="s">
+        <v>93</v>
+      </c>
       <c r="N21" s="13"/>
     </row>
     <row r="22" spans="2:14" s="14" customFormat="1" ht="19.5" customHeight="1">
@@ -1913,11 +2284,11 @@
       <c r="F22" s="13"/>
       <c r="G22" s="13"/>
       <c r="H22" s="13"/>
-      <c r="I22" s="46"/>
+      <c r="I22" s="37"/>
       <c r="J22" s="13"/>
       <c r="K22" s="13"/>
       <c r="L22" s="9"/>
-      <c r="M22" s="45"/>
+      <c r="M22" s="36"/>
       <c r="N22" s="13"/>
     </row>
     <row r="23" spans="2:14" s="10" customFormat="1" ht="19.5" customHeight="1">
@@ -1930,11 +2301,11 @@
       <c r="F23" s="13"/>
       <c r="G23" s="13"/>
       <c r="H23" s="13"/>
-      <c r="I23" s="46"/>
+      <c r="I23" s="37"/>
       <c r="J23" s="13"/>
       <c r="K23" s="13"/>
       <c r="L23" s="9"/>
-      <c r="M23" s="45"/>
+      <c r="M23" s="36"/>
       <c r="N23" s="13"/>
     </row>
     <row r="24" spans="2:14" s="10" customFormat="1" ht="19.5" customHeight="1">
@@ -1947,11 +2318,11 @@
       <c r="F24" s="13"/>
       <c r="G24" s="13"/>
       <c r="H24" s="13"/>
-      <c r="I24" s="46"/>
+      <c r="I24" s="37"/>
       <c r="J24" s="13"/>
       <c r="K24" s="13"/>
       <c r="L24" s="9"/>
-      <c r="M24" s="45"/>
+      <c r="M24" s="36"/>
       <c r="N24" s="13"/>
     </row>
     <row r="25" spans="2:14" ht="21.75" customHeight="1" thickBot="1">

--- a/Documentation/Buglist.xlsx
+++ b/Documentation/Buglist.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="156">
   <si>
     <t>ID</t>
   </si>
@@ -753,6 +753,30 @@
   </si>
   <si>
     <t>应该修改</t>
+  </si>
+  <si>
+    <t>销售页面添加订单的默认值希望为空，目前有默认值（蓝光建议）</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售页面添加希望支持键盘的回车键（蓝光建议）</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划页面反审核一条审核的已经计划审核的数据，反审核后生产日期没了</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划页面同时修改多个计划订单时，由于出厂编号和投产编号都不同，所以修改对话框中的投产编号和出产编号是空白的，修改后，选中订单的投产编号和出产编号都变成空白了</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售页面反审核一个已经审核过的订单后，修改和删除按钮没有刷新，需要再选择一次才能刷新出来，希望反审核后能够直接刷新出来以方便直接修改</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产日期审核后，投产日期就不可以修改了，同样包装日期审核后，出厂日期就不可以修改了</t>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1053,7 +1077,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1174,6 +1198,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1532,9 +1559,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:N25"/>
+  <dimension ref="B1:N56"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -2278,7 +2307,9 @@
       <c r="B22" s="8">
         <v>15</v>
       </c>
-      <c r="C22" s="13"/>
+      <c r="C22" s="13" t="s">
+        <v>150</v>
+      </c>
       <c r="D22" s="13"/>
       <c r="E22" s="13"/>
       <c r="F22" s="13"/>
@@ -2287,15 +2318,21 @@
       <c r="I22" s="37"/>
       <c r="J22" s="13"/>
       <c r="K22" s="13"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="36"/>
+      <c r="L22" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="M22" s="36" t="s">
+        <v>93</v>
+      </c>
       <c r="N22" s="13"/>
     </row>
     <row r="23" spans="2:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="B23" s="8">
         <v>16</v>
       </c>
-      <c r="C23" s="13"/>
+      <c r="C23" s="13" t="s">
+        <v>151</v>
+      </c>
       <c r="D23" s="13"/>
       <c r="E23" s="13"/>
       <c r="F23" s="13"/>
@@ -2304,15 +2341,21 @@
       <c r="I23" s="37"/>
       <c r="J23" s="13"/>
       <c r="K23" s="13"/>
-      <c r="L23" s="9"/>
-      <c r="M23" s="36"/>
+      <c r="L23" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="M23" s="36" t="s">
+        <v>93</v>
+      </c>
       <c r="N23" s="13"/>
     </row>
     <row r="24" spans="2:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="B24" s="8">
         <v>17</v>
       </c>
-      <c r="C24" s="13"/>
+      <c r="C24" s="13" t="s">
+        <v>154</v>
+      </c>
       <c r="D24" s="13"/>
       <c r="E24" s="13"/>
       <c r="F24" s="13"/>
@@ -2321,24 +2364,569 @@
       <c r="I24" s="37"/>
       <c r="J24" s="13"/>
       <c r="K24" s="13"/>
-      <c r="L24" s="9"/>
-      <c r="M24" s="36"/>
+      <c r="L24" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="M24" s="36" t="s">
+        <v>61</v>
+      </c>
       <c r="N24" s="13"/>
     </row>
-    <row r="25" spans="2:14" ht="21.75" customHeight="1" thickBot="1">
-      <c r="B25" s="7"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="15"/>
-      <c r="K25" s="15"/>
-      <c r="L25" s="16"/>
-      <c r="M25" s="16"/>
-      <c r="N25" s="16"/>
+    <row r="25" spans="2:14" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="B25" s="8">
+        <v>18</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="37"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="M25" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="N25" s="13"/>
+    </row>
+    <row r="26" spans="2:14" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="B26" s="8">
+        <v>19</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="37"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="M26" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="N26" s="13"/>
+    </row>
+    <row r="27" spans="2:14" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="B27" s="8">
+        <v>20</v>
+      </c>
+      <c r="C27" s="47" t="s">
+        <v>155</v>
+      </c>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="37"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="13"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="36"/>
+      <c r="N27" s="13"/>
+    </row>
+    <row r="28" spans="2:14" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="B28" s="8">
+        <v>21</v>
+      </c>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="37"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="36"/>
+      <c r="N28" s="13"/>
+    </row>
+    <row r="29" spans="2:14" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="B29" s="8">
+        <v>22</v>
+      </c>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="37"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="36"/>
+      <c r="N29" s="13"/>
+    </row>
+    <row r="30" spans="2:14" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="B30" s="8">
+        <v>23</v>
+      </c>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="37"/>
+      <c r="J30" s="13"/>
+      <c r="K30" s="13"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="36"/>
+      <c r="N30" s="13"/>
+    </row>
+    <row r="31" spans="2:14" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="B31" s="8">
+        <v>24</v>
+      </c>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="37"/>
+      <c r="J31" s="13"/>
+      <c r="K31" s="13"/>
+      <c r="L31" s="9"/>
+      <c r="M31" s="36"/>
+      <c r="N31" s="13"/>
+    </row>
+    <row r="32" spans="2:14" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="B32" s="8">
+        <v>25</v>
+      </c>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="37"/>
+      <c r="J32" s="13"/>
+      <c r="K32" s="13"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="36"/>
+      <c r="N32" s="13"/>
+    </row>
+    <row r="33" spans="2:14" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="B33" s="8">
+        <v>26</v>
+      </c>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="37"/>
+      <c r="J33" s="13"/>
+      <c r="K33" s="13"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="36"/>
+      <c r="N33" s="13"/>
+    </row>
+    <row r="34" spans="2:14" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="B34" s="8">
+        <v>27</v>
+      </c>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="37"/>
+      <c r="J34" s="13"/>
+      <c r="K34" s="13"/>
+      <c r="L34" s="9"/>
+      <c r="M34" s="36"/>
+      <c r="N34" s="13"/>
+    </row>
+    <row r="35" spans="2:14" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="B35" s="8">
+        <v>28</v>
+      </c>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="37"/>
+      <c r="J35" s="13"/>
+      <c r="K35" s="13"/>
+      <c r="L35" s="9"/>
+      <c r="M35" s="36"/>
+      <c r="N35" s="13"/>
+    </row>
+    <row r="36" spans="2:14" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="B36" s="8">
+        <v>29</v>
+      </c>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="37"/>
+      <c r="J36" s="13"/>
+      <c r="K36" s="13"/>
+      <c r="L36" s="9"/>
+      <c r="M36" s="36"/>
+      <c r="N36" s="13"/>
+    </row>
+    <row r="37" spans="2:14" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="B37" s="8">
+        <v>30</v>
+      </c>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="37"/>
+      <c r="J37" s="13"/>
+      <c r="K37" s="13"/>
+      <c r="L37" s="9"/>
+      <c r="M37" s="36"/>
+      <c r="N37" s="13"/>
+    </row>
+    <row r="38" spans="2:14" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="B38" s="8">
+        <v>31</v>
+      </c>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="37"/>
+      <c r="J38" s="13"/>
+      <c r="K38" s="13"/>
+      <c r="L38" s="9"/>
+      <c r="M38" s="36"/>
+      <c r="N38" s="13"/>
+    </row>
+    <row r="39" spans="2:14" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="B39" s="8">
+        <v>32</v>
+      </c>
+      <c r="C39" s="13"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="13"/>
+      <c r="I39" s="37"/>
+      <c r="J39" s="13"/>
+      <c r="K39" s="13"/>
+      <c r="L39" s="9"/>
+      <c r="M39" s="36"/>
+      <c r="N39" s="13"/>
+    </row>
+    <row r="40" spans="2:14" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="B40" s="8">
+        <v>33</v>
+      </c>
+      <c r="C40" s="13"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="13"/>
+      <c r="I40" s="37"/>
+      <c r="J40" s="13"/>
+      <c r="K40" s="13"/>
+      <c r="L40" s="9"/>
+      <c r="M40" s="36"/>
+      <c r="N40" s="13"/>
+    </row>
+    <row r="41" spans="2:14" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="B41" s="8">
+        <v>34</v>
+      </c>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="13"/>
+      <c r="I41" s="37"/>
+      <c r="J41" s="13"/>
+      <c r="K41" s="13"/>
+      <c r="L41" s="9"/>
+      <c r="M41" s="36"/>
+      <c r="N41" s="13"/>
+    </row>
+    <row r="42" spans="2:14" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="B42" s="8">
+        <v>35</v>
+      </c>
+      <c r="C42" s="13"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="13"/>
+      <c r="H42" s="13"/>
+      <c r="I42" s="37"/>
+      <c r="J42" s="13"/>
+      <c r="K42" s="13"/>
+      <c r="L42" s="9"/>
+      <c r="M42" s="36"/>
+      <c r="N42" s="13"/>
+    </row>
+    <row r="43" spans="2:14" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="B43" s="8">
+        <v>36</v>
+      </c>
+      <c r="C43" s="13"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="13"/>
+      <c r="H43" s="13"/>
+      <c r="I43" s="37"/>
+      <c r="J43" s="13"/>
+      <c r="K43" s="13"/>
+      <c r="L43" s="9"/>
+      <c r="M43" s="36"/>
+      <c r="N43" s="13"/>
+    </row>
+    <row r="44" spans="2:14" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="B44" s="8">
+        <v>37</v>
+      </c>
+      <c r="C44" s="13"/>
+      <c r="D44" s="13"/>
+      <c r="E44" s="13"/>
+      <c r="F44" s="13"/>
+      <c r="G44" s="13"/>
+      <c r="H44" s="13"/>
+      <c r="I44" s="37"/>
+      <c r="J44" s="13"/>
+      <c r="K44" s="13"/>
+      <c r="L44" s="9"/>
+      <c r="M44" s="36"/>
+      <c r="N44" s="13"/>
+    </row>
+    <row r="45" spans="2:14" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="B45" s="8">
+        <v>38</v>
+      </c>
+      <c r="C45" s="13"/>
+      <c r="D45" s="13"/>
+      <c r="E45" s="13"/>
+      <c r="F45" s="13"/>
+      <c r="G45" s="13"/>
+      <c r="H45" s="13"/>
+      <c r="I45" s="37"/>
+      <c r="J45" s="13"/>
+      <c r="K45" s="13"/>
+      <c r="L45" s="9"/>
+      <c r="M45" s="36"/>
+      <c r="N45" s="13"/>
+    </row>
+    <row r="46" spans="2:14" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="B46" s="8">
+        <v>39</v>
+      </c>
+      <c r="C46" s="13"/>
+      <c r="D46" s="13"/>
+      <c r="E46" s="13"/>
+      <c r="F46" s="13"/>
+      <c r="G46" s="13"/>
+      <c r="H46" s="13"/>
+      <c r="I46" s="37"/>
+      <c r="J46" s="13"/>
+      <c r="K46" s="13"/>
+      <c r="L46" s="9"/>
+      <c r="M46" s="36"/>
+      <c r="N46" s="13"/>
+    </row>
+    <row r="47" spans="2:14" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="B47" s="8">
+        <v>40</v>
+      </c>
+      <c r="C47" s="13"/>
+      <c r="D47" s="13"/>
+      <c r="E47" s="13"/>
+      <c r="F47" s="13"/>
+      <c r="G47" s="13"/>
+      <c r="H47" s="13"/>
+      <c r="I47" s="37"/>
+      <c r="J47" s="13"/>
+      <c r="K47" s="13"/>
+      <c r="L47" s="9"/>
+      <c r="M47" s="36"/>
+      <c r="N47" s="13"/>
+    </row>
+    <row r="48" spans="2:14" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="B48" s="8">
+        <v>41</v>
+      </c>
+      <c r="C48" s="13"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="13"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="13"/>
+      <c r="H48" s="13"/>
+      <c r="I48" s="37"/>
+      <c r="J48" s="13"/>
+      <c r="K48" s="13"/>
+      <c r="L48" s="9"/>
+      <c r="M48" s="36"/>
+      <c r="N48" s="13"/>
+    </row>
+    <row r="49" spans="2:14" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="B49" s="8">
+        <v>42</v>
+      </c>
+      <c r="C49" s="13"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="13"/>
+      <c r="H49" s="13"/>
+      <c r="I49" s="37"/>
+      <c r="J49" s="13"/>
+      <c r="K49" s="13"/>
+      <c r="L49" s="9"/>
+      <c r="M49" s="36"/>
+      <c r="N49" s="13"/>
+    </row>
+    <row r="50" spans="2:14" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="B50" s="8">
+        <v>43</v>
+      </c>
+      <c r="C50" s="13"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="13"/>
+      <c r="H50" s="13"/>
+      <c r="I50" s="37"/>
+      <c r="J50" s="13"/>
+      <c r="K50" s="13"/>
+      <c r="L50" s="9"/>
+      <c r="M50" s="36"/>
+      <c r="N50" s="13"/>
+    </row>
+    <row r="51" spans="2:14" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="B51" s="8">
+        <v>44</v>
+      </c>
+      <c r="C51" s="13"/>
+      <c r="D51" s="13"/>
+      <c r="E51" s="13"/>
+      <c r="F51" s="13"/>
+      <c r="G51" s="13"/>
+      <c r="H51" s="13"/>
+      <c r="I51" s="37"/>
+      <c r="J51" s="13"/>
+      <c r="K51" s="13"/>
+      <c r="L51" s="9"/>
+      <c r="M51" s="36"/>
+      <c r="N51" s="13"/>
+    </row>
+    <row r="52" spans="2:14" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="B52" s="8">
+        <v>45</v>
+      </c>
+      <c r="C52" s="13"/>
+      <c r="D52" s="13"/>
+      <c r="E52" s="13"/>
+      <c r="F52" s="13"/>
+      <c r="G52" s="13"/>
+      <c r="H52" s="13"/>
+      <c r="I52" s="37"/>
+      <c r="J52" s="13"/>
+      <c r="K52" s="13"/>
+      <c r="L52" s="9"/>
+      <c r="M52" s="36"/>
+      <c r="N52" s="13"/>
+    </row>
+    <row r="53" spans="2:14" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="B53" s="8">
+        <v>46</v>
+      </c>
+      <c r="C53" s="13"/>
+      <c r="D53" s="13"/>
+      <c r="E53" s="13"/>
+      <c r="F53" s="13"/>
+      <c r="G53" s="13"/>
+      <c r="H53" s="13"/>
+      <c r="I53" s="37"/>
+      <c r="J53" s="13"/>
+      <c r="K53" s="13"/>
+      <c r="L53" s="9"/>
+      <c r="M53" s="36"/>
+      <c r="N53" s="13"/>
+    </row>
+    <row r="54" spans="2:14" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="B54" s="8">
+        <v>47</v>
+      </c>
+      <c r="C54" s="13"/>
+      <c r="D54" s="13"/>
+      <c r="E54" s="13"/>
+      <c r="F54" s="13"/>
+      <c r="G54" s="13"/>
+      <c r="H54" s="13"/>
+      <c r="I54" s="37"/>
+      <c r="J54" s="13"/>
+      <c r="K54" s="13"/>
+      <c r="L54" s="9"/>
+      <c r="M54" s="36"/>
+      <c r="N54" s="13"/>
+    </row>
+    <row r="55" spans="2:14" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="B55" s="8">
+        <v>48</v>
+      </c>
+      <c r="C55" s="13"/>
+      <c r="D55" s="13"/>
+      <c r="E55" s="13"/>
+      <c r="F55" s="13"/>
+      <c r="G55" s="13"/>
+      <c r="H55" s="13"/>
+      <c r="I55" s="37"/>
+      <c r="J55" s="13"/>
+      <c r="K55" s="13"/>
+      <c r="L55" s="9"/>
+      <c r="M55" s="36"/>
+      <c r="N55" s="13"/>
+    </row>
+    <row r="56" spans="2:14" ht="21.75" customHeight="1" thickBot="1">
+      <c r="B56" s="7"/>
+      <c r="C56" s="15"/>
+      <c r="D56" s="15"/>
+      <c r="E56" s="15"/>
+      <c r="F56" s="15"/>
+      <c r="G56" s="15"/>
+      <c r="H56" s="15"/>
+      <c r="I56" s="15"/>
+      <c r="J56" s="15"/>
+      <c r="K56" s="15"/>
+      <c r="L56" s="16"/>
+      <c r="M56" s="16"/>
+      <c r="N56" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -2351,10 +2939,10 @@
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L7:L24">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L7:L55">
       <formula1>"严重错误,必须修改,应该修改,选择修改"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M7:M24">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M7:M55">
       <formula1>"高,中,低"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Documentation/Buglist.xlsx
+++ b/Documentation/Buglist.xlsx
@@ -289,10 +289,6 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>销售订单添加页面中的合同号Label显示为空白</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>无</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
@@ -334,10 +330,6 @@
   </si>
   <si>
     <t>合同号标签丢失.jpg</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>销售页面的数据显示中的合同号排序错误</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
@@ -776,6 +768,14 @@
   </si>
   <si>
     <t>生产日期审核后，投产日期就不可以修改了，同样包装日期审核后，出厂日期就不可以修改了</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售订单添加页面中的合同号Label显示为空白</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售页面的数据显示中的合同号排序错误</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -878,7 +878,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -915,6 +915,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="12">
     <border>
@@ -1077,7 +1089,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1112,7 +1124,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1172,6 +1183,9 @@
     <xf numFmtId="9" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1199,9 +1213,36 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="6" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Normal 8" xfId="2"/>
@@ -1559,10 +1600,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:N56"/>
+  <dimension ref="A2:N56"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1582,8 +1623,7 @@
     <col min="15" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="15.75" customHeight="1"/>
-    <row r="2" spans="2:14" s="1" customFormat="1" ht="20.25" customHeight="1">
+    <row r="2" spans="1:14" s="1" customFormat="1" ht="25.5">
       <c r="B2" s="40"/>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -1598,7 +1638,7 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
     </row>
-    <row r="3" spans="2:14" s="1" customFormat="1" ht="20.25" customHeight="1" thickBot="1">
+    <row r="3" spans="1:14" s="1" customFormat="1" ht="26.25" thickBot="1">
       <c r="B3" s="41"/>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
@@ -1613,7 +1653,7 @@
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
     </row>
-    <row r="4" spans="2:14" s="5" customFormat="1" ht="14.25">
+    <row r="4" spans="1:14" s="5" customFormat="1" ht="14.25">
       <c r="B4" s="45" t="s">
         <v>0</v>
       </c>
@@ -1638,806 +1678,808 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="2:14" s="5" customFormat="1" ht="14.25">
+    <row r="5" spans="1:14" s="5" customFormat="1" ht="14.25">
       <c r="B5" s="46"/>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="F5" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="G5" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="17" t="s">
+      <c r="H5" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="17" t="s">
+      <c r="I5" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="17" t="s">
+      <c r="J5" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="17" t="s">
+      <c r="K5" s="16" t="s">
         <v>7</v>
       </c>
       <c r="L5" s="44"/>
       <c r="M5" s="39"/>
       <c r="N5" s="39"/>
     </row>
-    <row r="6" spans="2:14" s="11" customFormat="1" ht="90">
-      <c r="B6" s="30" t="s">
+    <row r="6" spans="1:14" s="11" customFormat="1" ht="90">
+      <c r="B6" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="31" t="s">
+      <c r="C6" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="31" t="s">
+      <c r="D6" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="31" t="s">
+      <c r="E6" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="31" t="s">
+      <c r="F6" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="31" t="s">
+      <c r="G6" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="31" t="s">
+      <c r="H6" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="I6" s="31" t="s">
+      <c r="I6" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="J6" s="31" t="s">
+      <c r="J6" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="K6" s="31" t="s">
+      <c r="K6" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="L6" s="31" t="s">
+      <c r="L6" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="M6" s="31" t="s">
+      <c r="M6" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="N6" s="31" t="s">
+      <c r="N6" s="30" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="2:14" s="11" customFormat="1" ht="135">
-      <c r="B7" s="26" t="s">
+    <row r="7" spans="1:14" s="11" customFormat="1" ht="135">
+      <c r="B7" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="27" t="s">
+      <c r="D7" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="27" t="s">
+      <c r="E7" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="G7" s="27" t="s">
+      <c r="F7" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="G7" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="H7" s="27" t="s">
+      <c r="H7" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="I7" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="J7" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="K7" s="27" t="s">
+      <c r="I7" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="J7" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="K7" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="L7" s="29" t="s">
+      <c r="L7" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="M7" s="29" t="s">
+      <c r="M7" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="N7" s="32" t="s">
+      <c r="N7" s="31" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="2:14" s="11" customFormat="1" ht="14.25" customHeight="1">
+    <row r="8" spans="1:14" s="11" customFormat="1" ht="90">
       <c r="B8" s="8">
         <v>1</v>
       </c>
       <c r="C8" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="D8" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="E8" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="E8" s="13" t="s">
-        <v>55</v>
-      </c>
       <c r="F8" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="G8" s="13" t="s">
         <v>57</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>58</v>
       </c>
       <c r="H8" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="I8" s="37">
+      <c r="I8" s="36">
         <v>1</v>
       </c>
       <c r="J8" s="13" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K8" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="L8" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="M8" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="M8" s="36" t="s">
+      <c r="N8" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="N8" s="13" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="9" spans="2:14" s="10" customFormat="1" ht="14.25" customHeight="1">
+    </row>
+    <row r="9" spans="1:14" s="10" customFormat="1" ht="60">
       <c r="B9" s="8">
         <v>2</v>
       </c>
       <c r="C9" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="F9" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="G9" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="H9" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="I9" s="36">
+        <v>1</v>
+      </c>
+      <c r="J9" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="K9" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="M9" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="N9" s="13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" s="50" customFormat="1" ht="165">
+      <c r="A10" s="57"/>
+      <c r="B10" s="47">
+        <v>3</v>
+      </c>
+      <c r="C10" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="E10" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="F10" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="F9" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="H9" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="I9" s="37">
+      <c r="G10" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="H10" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="I10" s="48">
         <v>1</v>
       </c>
-      <c r="J9" s="13" t="s">
+      <c r="J10" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="K10" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="K9" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="L9" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="M9" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="N9" s="13" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="10" spans="2:14" s="11" customFormat="1" ht="14.25" customHeight="1">
-      <c r="B10" s="8">
-        <v>3</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="G10" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="H10" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="I10" s="37">
-        <v>1</v>
-      </c>
-      <c r="J10" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="K10" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="L10" s="9" t="s">
+      <c r="L10" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="M10" s="36" t="s">
+      <c r="M10" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="N10" s="13"/>
-    </row>
-    <row r="11" spans="2:14" s="12" customFormat="1" ht="14.25" customHeight="1">
+      <c r="N10" s="37"/>
+    </row>
+    <row r="11" spans="1:14" s="12" customFormat="1" ht="105">
       <c r="B11" s="8">
         <v>4</v>
       </c>
       <c r="C11" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="G11" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="H11" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="E11" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="H11" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="I11" s="37">
+      <c r="I11" s="36">
         <v>1</v>
       </c>
       <c r="J11" s="13" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K11" s="13" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L11" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="M11" s="36" t="s">
+      <c r="M11" s="35" t="s">
         <v>44</v>
       </c>
       <c r="N11" s="13"/>
     </row>
-    <row r="12" spans="2:14" s="10" customFormat="1" ht="14.25" customHeight="1">
+    <row r="12" spans="1:14" s="10" customFormat="1" ht="60">
       <c r="B12" s="8">
         <v>5</v>
       </c>
       <c r="C12" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="G12" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="D12" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="F12" s="13" t="s">
+      <c r="H12" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="G12" s="13" t="s">
+      <c r="I12" s="36">
+        <v>1</v>
+      </c>
+      <c r="J12" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="K12" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="L12" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="H12" s="13" t="s">
+      <c r="M12" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="I12" s="37">
+      <c r="N12" s="13"/>
+    </row>
+    <row r="13" spans="1:14" s="51" customFormat="1" ht="120">
+      <c r="B13" s="47">
+        <v>6</v>
+      </c>
+      <c r="C13" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="D13" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="E13" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="F13" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="G13" s="37" t="s">
+        <v>94</v>
+      </c>
+      <c r="H13" s="37" t="s">
+        <v>95</v>
+      </c>
+      <c r="I13" s="48">
         <v>1</v>
       </c>
-      <c r="J12" s="13" t="s">
+      <c r="J13" s="37" t="s">
+        <v>96</v>
+      </c>
+      <c r="K13" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="L13" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="M13" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="N13" s="37"/>
+    </row>
+    <row r="14" spans="1:14" s="51" customFormat="1" ht="120">
+      <c r="B14" s="47">
+        <v>7</v>
+      </c>
+      <c r="C14" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="K12" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="L12" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="M12" s="36" t="s">
-        <v>93</v>
-      </c>
-      <c r="N12" s="13"/>
-    </row>
-    <row r="13" spans="2:14" s="10" customFormat="1" ht="14.25" customHeight="1">
-      <c r="B13" s="8">
-        <v>6</v>
-      </c>
-      <c r="C13" s="13" t="s">
+      <c r="D14" s="37" t="s">
         <v>99</v>
       </c>
-      <c r="D13" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="F13" s="13" t="s">
+      <c r="E14" s="37" t="s">
+        <v>106</v>
+      </c>
+      <c r="F14" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="G13" s="13" t="s">
+      <c r="G14" s="48" t="s">
+        <v>101</v>
+      </c>
+      <c r="H14" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="I14" s="48">
+        <v>1</v>
+      </c>
+      <c r="J14" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="H13" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="I13" s="37">
+      <c r="K14" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="L14" s="49" t="s">
+        <v>104</v>
+      </c>
+      <c r="M14" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="N14" s="37"/>
+    </row>
+    <row r="15" spans="1:14" s="56" customFormat="1" ht="90">
+      <c r="B15" s="52">
+        <v>8</v>
+      </c>
+      <c r="C15" s="53" t="s">
+        <v>105</v>
+      </c>
+      <c r="D15" s="53" t="s">
+        <v>108</v>
+      </c>
+      <c r="E15" s="53" t="s">
+        <v>107</v>
+      </c>
+      <c r="F15" s="53" t="s">
+        <v>112</v>
+      </c>
+      <c r="G15" s="54" t="s">
+        <v>109</v>
+      </c>
+      <c r="H15" s="53" t="s">
+        <v>110</v>
+      </c>
+      <c r="I15" s="54">
         <v>1</v>
       </c>
-      <c r="J13" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="K13" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="L13" s="9" t="s">
+      <c r="J15" s="53" t="s">
+        <v>96</v>
+      </c>
+      <c r="K15" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="L15" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="M13" s="36" t="s">
+      <c r="M15" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="N13" s="13"/>
-    </row>
-    <row r="14" spans="2:14" s="10" customFormat="1" ht="19.5" customHeight="1">
-      <c r="B14" s="8">
-        <v>7</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="F14" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="G14" s="37" t="s">
-        <v>103</v>
-      </c>
-      <c r="H14" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="I14" s="37">
-        <v>1</v>
-      </c>
-      <c r="J14" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="K14" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="L14" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="M14" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="N14" s="13"/>
-    </row>
-    <row r="15" spans="2:14" ht="21" customHeight="1">
-      <c r="B15" s="8">
-        <v>8</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="F15" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="G15" s="37" t="s">
-        <v>111</v>
-      </c>
-      <c r="H15" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="I15" s="37">
-        <v>1</v>
-      </c>
-      <c r="J15" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="K15" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="L15" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="M15" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="N15" s="13"/>
-    </row>
-    <row r="16" spans="2:14" ht="21" customHeight="1">
+      <c r="N15" s="53"/>
+    </row>
+    <row r="16" spans="1:14" ht="90">
       <c r="B16" s="8">
         <v>9</v>
       </c>
       <c r="C16" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="G16" s="36" t="s">
         <v>113</v>
       </c>
-      <c r="D16" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="F16" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="G16" s="37" t="s">
-        <v>115</v>
-      </c>
       <c r="H16" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="I16" s="37">
+        <v>114</v>
+      </c>
+      <c r="I16" s="36">
         <v>1</v>
       </c>
       <c r="J16" s="13" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K16" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="L16" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="M16" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="M16" s="35" t="s">
         <v>44</v>
       </c>
       <c r="N16" s="13"/>
     </row>
-    <row r="17" spans="2:14" s="10" customFormat="1" ht="19.5" customHeight="1">
+    <row r="17" spans="1:14" s="10" customFormat="1" ht="75">
       <c r="B17" s="8">
         <v>10</v>
       </c>
       <c r="C17" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="D17" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="E17" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="G17" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="E17" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="F17" s="13" t="s">
+      <c r="H17" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="I17" s="36">
+        <v>1</v>
+      </c>
+      <c r="J17" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="K17" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="L17" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="M17" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="N17" s="13"/>
+    </row>
+    <row r="18" spans="1:14" s="51" customFormat="1" ht="90">
+      <c r="A18" s="58"/>
+      <c r="B18" s="47">
+        <v>11</v>
+      </c>
+      <c r="C18" s="37" t="s">
+        <v>122</v>
+      </c>
+      <c r="D18" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="E18" s="37" t="s">
         <v>123</v>
       </c>
-      <c r="G17" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="H17" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="I17" s="37">
+      <c r="F18" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="G18" s="37" t="s">
+        <v>126</v>
+      </c>
+      <c r="H18" s="37" t="s">
+        <v>127</v>
+      </c>
+      <c r="I18" s="48">
         <v>1</v>
       </c>
-      <c r="J17" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="K17" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="L17" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="M17" s="36" t="s">
+      <c r="J18" s="37" t="s">
+        <v>96</v>
+      </c>
+      <c r="K18" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="L18" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="M18" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="N17" s="13"/>
-    </row>
-    <row r="18" spans="2:14" s="10" customFormat="1" ht="19.5" customHeight="1">
-      <c r="B18" s="8">
-        <v>11</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="F18" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="G18" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="H18" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="I18" s="37">
-        <v>1</v>
-      </c>
-      <c r="J18" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="K18" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="L18" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="M18" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="N18" s="13"/>
-    </row>
-    <row r="19" spans="2:14" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="N18" s="37"/>
+    </row>
+    <row r="19" spans="1:14" s="10" customFormat="1" ht="75">
       <c r="B19" s="8">
         <v>12</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E19" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="F19" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="F19" s="13" t="s">
+      <c r="G19" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="H19" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="G19" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="H19" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="I19" s="37">
+      <c r="I19" s="36">
         <v>1</v>
       </c>
       <c r="J19" s="13" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K19" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="L19" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="M19" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="M19" s="35" t="s">
         <v>44</v>
       </c>
       <c r="N19" s="13"/>
     </row>
-    <row r="20" spans="2:14" s="10" customFormat="1" ht="19.5" customHeight="1">
+    <row r="20" spans="1:14" s="10" customFormat="1" ht="90">
       <c r="B20" s="8">
         <v>13</v>
       </c>
       <c r="C20" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="D20" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="D20" s="13" t="s">
+      <c r="E20" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="G20" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="E20" s="13" t="s">
+      <c r="H20" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="F20" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="G20" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="H20" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="I20" s="37">
+      <c r="I20" s="36">
         <v>1</v>
       </c>
       <c r="J20" s="13" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K20" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="L20" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="M20" s="36" t="s">
+      <c r="M20" s="35" t="s">
         <v>44</v>
       </c>
       <c r="N20" s="13"/>
     </row>
-    <row r="21" spans="2:14" s="10" customFormat="1" ht="19.5" customHeight="1">
-      <c r="B21" s="8">
+    <row r="21" spans="1:14" s="51" customFormat="1" ht="165">
+      <c r="B21" s="47">
         <v>14</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="37" t="s">
+        <v>140</v>
+      </c>
+      <c r="D21" s="37" t="s">
+        <v>141</v>
+      </c>
+      <c r="E21" s="37" t="s">
         <v>142</v>
       </c>
-      <c r="D21" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="E21" s="13" t="s">
+      <c r="F21" s="37" t="s">
         <v>144</v>
       </c>
-      <c r="F21" s="13" t="s">
+      <c r="G21" s="37" t="s">
+        <v>145</v>
+      </c>
+      <c r="H21" s="37" t="s">
         <v>146</v>
       </c>
-      <c r="G21" s="13" t="s">
+      <c r="I21" s="48">
+        <v>1</v>
+      </c>
+      <c r="J21" s="37" t="s">
+        <v>96</v>
+      </c>
+      <c r="K21" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="L21" s="49" t="s">
         <v>147</v>
       </c>
-      <c r="H21" s="13" t="s">
+      <c r="M21" s="49" t="s">
+        <v>91</v>
+      </c>
+      <c r="N21" s="37"/>
+    </row>
+    <row r="22" spans="1:14" s="51" customFormat="1" ht="45">
+      <c r="B22" s="47">
+        <v>15</v>
+      </c>
+      <c r="C22" s="37" t="s">
         <v>148</v>
       </c>
-      <c r="I21" s="37">
-        <v>1</v>
-      </c>
-      <c r="J21" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="K21" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="L21" s="9" t="s">
+      <c r="D22" s="37"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="48"/>
+      <c r="J22" s="37"/>
+      <c r="K22" s="37"/>
+      <c r="L22" s="49" t="s">
+        <v>147</v>
+      </c>
+      <c r="M22" s="49" t="s">
+        <v>91</v>
+      </c>
+      <c r="N22" s="37"/>
+    </row>
+    <row r="23" spans="1:14" s="51" customFormat="1" ht="30">
+      <c r="B23" s="47">
+        <v>16</v>
+      </c>
+      <c r="C23" s="37" t="s">
         <v>149</v>
       </c>
-      <c r="M21" s="36" t="s">
-        <v>93</v>
-      </c>
-      <c r="N21" s="13"/>
-    </row>
-    <row r="22" spans="2:14" s="14" customFormat="1" ht="19.5" customHeight="1">
-      <c r="B22" s="8">
-        <v>15</v>
-      </c>
-      <c r="C22" s="13" t="s">
+      <c r="D23" s="37"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="37"/>
+      <c r="I23" s="48"/>
+      <c r="J23" s="37"/>
+      <c r="K23" s="37"/>
+      <c r="L23" s="49" t="s">
+        <v>147</v>
+      </c>
+      <c r="M23" s="49" t="s">
+        <v>91</v>
+      </c>
+      <c r="N23" s="37"/>
+    </row>
+    <row r="24" spans="1:14" s="51" customFormat="1" ht="90">
+      <c r="B24" s="47">
+        <v>17</v>
+      </c>
+      <c r="C24" s="37" t="s">
+        <v>152</v>
+      </c>
+      <c r="D24" s="37"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="37"/>
+      <c r="I24" s="48"/>
+      <c r="J24" s="37"/>
+      <c r="K24" s="37"/>
+      <c r="L24" s="49" t="s">
+        <v>147</v>
+      </c>
+      <c r="M24" s="49" t="s">
+        <v>60</v>
+      </c>
+      <c r="N24" s="37"/>
+    </row>
+    <row r="25" spans="1:14" s="51" customFormat="1" ht="45">
+      <c r="B25" s="47">
+        <v>18</v>
+      </c>
+      <c r="C25" s="37" t="s">
         <v>150</v>
       </c>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="37"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="M22" s="36" t="s">
-        <v>93</v>
-      </c>
-      <c r="N22" s="13"/>
-    </row>
-    <row r="23" spans="2:14" s="10" customFormat="1" ht="19.5" customHeight="1">
-      <c r="B23" s="8">
-        <v>16</v>
-      </c>
-      <c r="C23" s="13" t="s">
+      <c r="D25" s="37"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="37"/>
+      <c r="I25" s="48"/>
+      <c r="J25" s="37"/>
+      <c r="K25" s="37"/>
+      <c r="L25" s="49" t="s">
+        <v>147</v>
+      </c>
+      <c r="M25" s="49" t="s">
+        <v>60</v>
+      </c>
+      <c r="N25" s="37"/>
+    </row>
+    <row r="26" spans="1:14" s="51" customFormat="1" ht="90">
+      <c r="B26" s="47">
+        <v>19</v>
+      </c>
+      <c r="C26" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="37"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="M23" s="36" t="s">
-        <v>93</v>
-      </c>
-      <c r="N23" s="13"/>
-    </row>
-    <row r="24" spans="2:14" s="10" customFormat="1" ht="19.5" customHeight="1">
-      <c r="B24" s="8">
-        <v>17</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="37"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="13"/>
-      <c r="L24" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="M24" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="N24" s="13"/>
-    </row>
-    <row r="25" spans="2:14" s="10" customFormat="1" ht="19.5" customHeight="1">
-      <c r="B25" s="8">
-        <v>18</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>152</v>
-      </c>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="37"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="13"/>
-      <c r="L25" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="M25" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="N25" s="13"/>
-    </row>
-    <row r="26" spans="2:14" s="10" customFormat="1" ht="19.5" customHeight="1">
-      <c r="B26" s="8">
-        <v>19</v>
-      </c>
-      <c r="C26" s="13" t="s">
+      <c r="D26" s="37"/>
+      <c r="E26" s="37"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="37"/>
+      <c r="I26" s="48"/>
+      <c r="J26" s="37"/>
+      <c r="K26" s="37"/>
+      <c r="L26" s="49" t="s">
+        <v>59</v>
+      </c>
+      <c r="M26" s="49" t="s">
+        <v>60</v>
+      </c>
+      <c r="N26" s="37"/>
+    </row>
+    <row r="27" spans="1:14" s="51" customFormat="1" ht="60">
+      <c r="B27" s="47">
+        <v>20</v>
+      </c>
+      <c r="C27" s="37" t="s">
         <v>153</v>
       </c>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="37"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="13"/>
-      <c r="L26" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="M26" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="N26" s="13"/>
-    </row>
-    <row r="27" spans="2:14" s="10" customFormat="1" ht="19.5" customHeight="1">
-      <c r="B27" s="8">
-        <v>20</v>
-      </c>
-      <c r="C27" s="47" t="s">
-        <v>155</v>
-      </c>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="37"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="13"/>
-      <c r="L27" s="9"/>
-      <c r="M27" s="36"/>
-      <c r="N27" s="13"/>
-    </row>
-    <row r="28" spans="2:14" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="D27" s="37"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="37"/>
+      <c r="I27" s="48"/>
+      <c r="J27" s="37"/>
+      <c r="K27" s="37"/>
+      <c r="L27" s="49"/>
+      <c r="M27" s="49"/>
+      <c r="N27" s="37"/>
+    </row>
+    <row r="28" spans="1:14" s="10" customFormat="1" ht="15">
       <c r="B28" s="8">
         <v>21</v>
       </c>
@@ -2447,14 +2489,14 @@
       <c r="F28" s="13"/>
       <c r="G28" s="13"/>
       <c r="H28" s="13"/>
-      <c r="I28" s="37"/>
+      <c r="I28" s="36"/>
       <c r="J28" s="13"/>
       <c r="K28" s="13"/>
       <c r="L28" s="9"/>
-      <c r="M28" s="36"/>
+      <c r="M28" s="35"/>
       <c r="N28" s="13"/>
     </row>
-    <row r="29" spans="2:14" s="10" customFormat="1" ht="19.5" customHeight="1">
+    <row r="29" spans="1:14" s="10" customFormat="1" ht="15">
       <c r="B29" s="8">
         <v>22</v>
       </c>
@@ -2464,14 +2506,14 @@
       <c r="F29" s="13"/>
       <c r="G29" s="13"/>
       <c r="H29" s="13"/>
-      <c r="I29" s="37"/>
+      <c r="I29" s="36"/>
       <c r="J29" s="13"/>
       <c r="K29" s="13"/>
       <c r="L29" s="9"/>
-      <c r="M29" s="36"/>
+      <c r="M29" s="35"/>
       <c r="N29" s="13"/>
     </row>
-    <row r="30" spans="2:14" s="10" customFormat="1" ht="19.5" customHeight="1">
+    <row r="30" spans="1:14" s="10" customFormat="1" ht="15">
       <c r="B30" s="8">
         <v>23</v>
       </c>
@@ -2481,14 +2523,14 @@
       <c r="F30" s="13"/>
       <c r="G30" s="13"/>
       <c r="H30" s="13"/>
-      <c r="I30" s="37"/>
+      <c r="I30" s="36"/>
       <c r="J30" s="13"/>
       <c r="K30" s="13"/>
       <c r="L30" s="9"/>
-      <c r="M30" s="36"/>
+      <c r="M30" s="35"/>
       <c r="N30" s="13"/>
     </row>
-    <row r="31" spans="2:14" s="10" customFormat="1" ht="19.5" customHeight="1">
+    <row r="31" spans="1:14" s="10" customFormat="1" ht="15">
       <c r="B31" s="8">
         <v>24</v>
       </c>
@@ -2498,14 +2540,14 @@
       <c r="F31" s="13"/>
       <c r="G31" s="13"/>
       <c r="H31" s="13"/>
-      <c r="I31" s="37"/>
+      <c r="I31" s="36"/>
       <c r="J31" s="13"/>
       <c r="K31" s="13"/>
       <c r="L31" s="9"/>
-      <c r="M31" s="36"/>
+      <c r="M31" s="35"/>
       <c r="N31" s="13"/>
     </row>
-    <row r="32" spans="2:14" s="10" customFormat="1" ht="19.5" customHeight="1">
+    <row r="32" spans="1:14" s="10" customFormat="1" ht="15">
       <c r="B32" s="8">
         <v>25</v>
       </c>
@@ -2515,14 +2557,14 @@
       <c r="F32" s="13"/>
       <c r="G32" s="13"/>
       <c r="H32" s="13"/>
-      <c r="I32" s="37"/>
+      <c r="I32" s="36"/>
       <c r="J32" s="13"/>
       <c r="K32" s="13"/>
       <c r="L32" s="9"/>
-      <c r="M32" s="36"/>
+      <c r="M32" s="35"/>
       <c r="N32" s="13"/>
     </row>
-    <row r="33" spans="2:14" s="10" customFormat="1" ht="19.5" customHeight="1">
+    <row r="33" spans="2:14" s="10" customFormat="1" ht="15">
       <c r="B33" s="8">
         <v>26</v>
       </c>
@@ -2532,14 +2574,14 @@
       <c r="F33" s="13"/>
       <c r="G33" s="13"/>
       <c r="H33" s="13"/>
-      <c r="I33" s="37"/>
+      <c r="I33" s="36"/>
       <c r="J33" s="13"/>
       <c r="K33" s="13"/>
       <c r="L33" s="9"/>
-      <c r="M33" s="36"/>
+      <c r="M33" s="35"/>
       <c r="N33" s="13"/>
     </row>
-    <row r="34" spans="2:14" s="10" customFormat="1" ht="19.5" customHeight="1">
+    <row r="34" spans="2:14" s="10" customFormat="1" ht="15">
       <c r="B34" s="8">
         <v>27</v>
       </c>
@@ -2549,14 +2591,14 @@
       <c r="F34" s="13"/>
       <c r="G34" s="13"/>
       <c r="H34" s="13"/>
-      <c r="I34" s="37"/>
+      <c r="I34" s="36"/>
       <c r="J34" s="13"/>
       <c r="K34" s="13"/>
       <c r="L34" s="9"/>
-      <c r="M34" s="36"/>
+      <c r="M34" s="35"/>
       <c r="N34" s="13"/>
     </row>
-    <row r="35" spans="2:14" s="10" customFormat="1" ht="19.5" customHeight="1">
+    <row r="35" spans="2:14" s="10" customFormat="1" ht="15">
       <c r="B35" s="8">
         <v>28</v>
       </c>
@@ -2566,14 +2608,14 @@
       <c r="F35" s="13"/>
       <c r="G35" s="13"/>
       <c r="H35" s="13"/>
-      <c r="I35" s="37"/>
+      <c r="I35" s="36"/>
       <c r="J35" s="13"/>
       <c r="K35" s="13"/>
       <c r="L35" s="9"/>
-      <c r="M35" s="36"/>
+      <c r="M35" s="35"/>
       <c r="N35" s="13"/>
     </row>
-    <row r="36" spans="2:14" s="10" customFormat="1" ht="19.5" customHeight="1">
+    <row r="36" spans="2:14" s="10" customFormat="1" ht="15">
       <c r="B36" s="8">
         <v>29</v>
       </c>
@@ -2583,14 +2625,14 @@
       <c r="F36" s="13"/>
       <c r="G36" s="13"/>
       <c r="H36" s="13"/>
-      <c r="I36" s="37"/>
+      <c r="I36" s="36"/>
       <c r="J36" s="13"/>
       <c r="K36" s="13"/>
       <c r="L36" s="9"/>
-      <c r="M36" s="36"/>
+      <c r="M36" s="35"/>
       <c r="N36" s="13"/>
     </row>
-    <row r="37" spans="2:14" s="10" customFormat="1" ht="19.5" customHeight="1">
+    <row r="37" spans="2:14" s="10" customFormat="1" ht="15">
       <c r="B37" s="8">
         <v>30</v>
       </c>
@@ -2600,14 +2642,14 @@
       <c r="F37" s="13"/>
       <c r="G37" s="13"/>
       <c r="H37" s="13"/>
-      <c r="I37" s="37"/>
+      <c r="I37" s="36"/>
       <c r="J37" s="13"/>
       <c r="K37" s="13"/>
       <c r="L37" s="9"/>
-      <c r="M37" s="36"/>
+      <c r="M37" s="35"/>
       <c r="N37" s="13"/>
     </row>
-    <row r="38" spans="2:14" s="10" customFormat="1" ht="19.5" customHeight="1">
+    <row r="38" spans="2:14" s="10" customFormat="1" ht="15">
       <c r="B38" s="8">
         <v>31</v>
       </c>
@@ -2617,14 +2659,14 @@
       <c r="F38" s="13"/>
       <c r="G38" s="13"/>
       <c r="H38" s="13"/>
-      <c r="I38" s="37"/>
+      <c r="I38" s="36"/>
       <c r="J38" s="13"/>
       <c r="K38" s="13"/>
       <c r="L38" s="9"/>
-      <c r="M38" s="36"/>
+      <c r="M38" s="35"/>
       <c r="N38" s="13"/>
     </row>
-    <row r="39" spans="2:14" s="10" customFormat="1" ht="19.5" customHeight="1">
+    <row r="39" spans="2:14" s="10" customFormat="1" ht="15">
       <c r="B39" s="8">
         <v>32</v>
       </c>
@@ -2634,14 +2676,14 @@
       <c r="F39" s="13"/>
       <c r="G39" s="13"/>
       <c r="H39" s="13"/>
-      <c r="I39" s="37"/>
+      <c r="I39" s="36"/>
       <c r="J39" s="13"/>
       <c r="K39" s="13"/>
       <c r="L39" s="9"/>
-      <c r="M39" s="36"/>
+      <c r="M39" s="35"/>
       <c r="N39" s="13"/>
     </row>
-    <row r="40" spans="2:14" s="10" customFormat="1" ht="19.5" customHeight="1">
+    <row r="40" spans="2:14" s="10" customFormat="1" ht="15">
       <c r="B40" s="8">
         <v>33</v>
       </c>
@@ -2651,14 +2693,14 @@
       <c r="F40" s="13"/>
       <c r="G40" s="13"/>
       <c r="H40" s="13"/>
-      <c r="I40" s="37"/>
+      <c r="I40" s="36"/>
       <c r="J40" s="13"/>
       <c r="K40" s="13"/>
       <c r="L40" s="9"/>
-      <c r="M40" s="36"/>
+      <c r="M40" s="35"/>
       <c r="N40" s="13"/>
     </row>
-    <row r="41" spans="2:14" s="10" customFormat="1" ht="19.5" customHeight="1">
+    <row r="41" spans="2:14" s="10" customFormat="1" ht="15">
       <c r="B41" s="8">
         <v>34</v>
       </c>
@@ -2668,14 +2710,14 @@
       <c r="F41" s="13"/>
       <c r="G41" s="13"/>
       <c r="H41" s="13"/>
-      <c r="I41" s="37"/>
+      <c r="I41" s="36"/>
       <c r="J41" s="13"/>
       <c r="K41" s="13"/>
       <c r="L41" s="9"/>
-      <c r="M41" s="36"/>
+      <c r="M41" s="35"/>
       <c r="N41" s="13"/>
     </row>
-    <row r="42" spans="2:14" s="10" customFormat="1" ht="19.5" customHeight="1">
+    <row r="42" spans="2:14" s="10" customFormat="1" ht="15">
       <c r="B42" s="8">
         <v>35</v>
       </c>
@@ -2685,14 +2727,14 @@
       <c r="F42" s="13"/>
       <c r="G42" s="13"/>
       <c r="H42" s="13"/>
-      <c r="I42" s="37"/>
+      <c r="I42" s="36"/>
       <c r="J42" s="13"/>
       <c r="K42" s="13"/>
       <c r="L42" s="9"/>
-      <c r="M42" s="36"/>
+      <c r="M42" s="35"/>
       <c r="N42" s="13"/>
     </row>
-    <row r="43" spans="2:14" s="10" customFormat="1" ht="19.5" customHeight="1">
+    <row r="43" spans="2:14" s="10" customFormat="1" ht="15">
       <c r="B43" s="8">
         <v>36</v>
       </c>
@@ -2702,14 +2744,14 @@
       <c r="F43" s="13"/>
       <c r="G43" s="13"/>
       <c r="H43" s="13"/>
-      <c r="I43" s="37"/>
+      <c r="I43" s="36"/>
       <c r="J43" s="13"/>
       <c r="K43" s="13"/>
       <c r="L43" s="9"/>
-      <c r="M43" s="36"/>
+      <c r="M43" s="35"/>
       <c r="N43" s="13"/>
     </row>
-    <row r="44" spans="2:14" s="10" customFormat="1" ht="19.5" customHeight="1">
+    <row r="44" spans="2:14" s="10" customFormat="1" ht="15">
       <c r="B44" s="8">
         <v>37</v>
       </c>
@@ -2719,14 +2761,14 @@
       <c r="F44" s="13"/>
       <c r="G44" s="13"/>
       <c r="H44" s="13"/>
-      <c r="I44" s="37"/>
+      <c r="I44" s="36"/>
       <c r="J44" s="13"/>
       <c r="K44" s="13"/>
       <c r="L44" s="9"/>
-      <c r="M44" s="36"/>
+      <c r="M44" s="35"/>
       <c r="N44" s="13"/>
     </row>
-    <row r="45" spans="2:14" s="10" customFormat="1" ht="19.5" customHeight="1">
+    <row r="45" spans="2:14" s="10" customFormat="1" ht="15">
       <c r="B45" s="8">
         <v>38</v>
       </c>
@@ -2736,14 +2778,14 @@
       <c r="F45" s="13"/>
       <c r="G45" s="13"/>
       <c r="H45" s="13"/>
-      <c r="I45" s="37"/>
+      <c r="I45" s="36"/>
       <c r="J45" s="13"/>
       <c r="K45" s="13"/>
       <c r="L45" s="9"/>
-      <c r="M45" s="36"/>
+      <c r="M45" s="35"/>
       <c r="N45" s="13"/>
     </row>
-    <row r="46" spans="2:14" s="10" customFormat="1" ht="19.5" customHeight="1">
+    <row r="46" spans="2:14" s="10" customFormat="1" ht="15">
       <c r="B46" s="8">
         <v>39</v>
       </c>
@@ -2753,14 +2795,14 @@
       <c r="F46" s="13"/>
       <c r="G46" s="13"/>
       <c r="H46" s="13"/>
-      <c r="I46" s="37"/>
+      <c r="I46" s="36"/>
       <c r="J46" s="13"/>
       <c r="K46" s="13"/>
       <c r="L46" s="9"/>
-      <c r="M46" s="36"/>
+      <c r="M46" s="35"/>
       <c r="N46" s="13"/>
     </row>
-    <row r="47" spans="2:14" s="10" customFormat="1" ht="19.5" customHeight="1">
+    <row r="47" spans="2:14" s="10" customFormat="1" ht="15">
       <c r="B47" s="8">
         <v>40</v>
       </c>
@@ -2770,14 +2812,14 @@
       <c r="F47" s="13"/>
       <c r="G47" s="13"/>
       <c r="H47" s="13"/>
-      <c r="I47" s="37"/>
+      <c r="I47" s="36"/>
       <c r="J47" s="13"/>
       <c r="K47" s="13"/>
       <c r="L47" s="9"/>
-      <c r="M47" s="36"/>
+      <c r="M47" s="35"/>
       <c r="N47" s="13"/>
     </row>
-    <row r="48" spans="2:14" s="10" customFormat="1" ht="19.5" customHeight="1">
+    <row r="48" spans="2:14" s="10" customFormat="1" ht="15">
       <c r="B48" s="8">
         <v>41</v>
       </c>
@@ -2787,14 +2829,14 @@
       <c r="F48" s="13"/>
       <c r="G48" s="13"/>
       <c r="H48" s="13"/>
-      <c r="I48" s="37"/>
+      <c r="I48" s="36"/>
       <c r="J48" s="13"/>
       <c r="K48" s="13"/>
       <c r="L48" s="9"/>
-      <c r="M48" s="36"/>
+      <c r="M48" s="35"/>
       <c r="N48" s="13"/>
     </row>
-    <row r="49" spans="2:14" s="10" customFormat="1" ht="19.5" customHeight="1">
+    <row r="49" spans="2:14" s="10" customFormat="1" ht="15">
       <c r="B49" s="8">
         <v>42</v>
       </c>
@@ -2804,14 +2846,14 @@
       <c r="F49" s="13"/>
       <c r="G49" s="13"/>
       <c r="H49" s="13"/>
-      <c r="I49" s="37"/>
+      <c r="I49" s="36"/>
       <c r="J49" s="13"/>
       <c r="K49" s="13"/>
       <c r="L49" s="9"/>
-      <c r="M49" s="36"/>
+      <c r="M49" s="35"/>
       <c r="N49" s="13"/>
     </row>
-    <row r="50" spans="2:14" s="10" customFormat="1" ht="19.5" customHeight="1">
+    <row r="50" spans="2:14" s="10" customFormat="1" ht="15">
       <c r="B50" s="8">
         <v>43</v>
       </c>
@@ -2821,14 +2863,14 @@
       <c r="F50" s="13"/>
       <c r="G50" s="13"/>
       <c r="H50" s="13"/>
-      <c r="I50" s="37"/>
+      <c r="I50" s="36"/>
       <c r="J50" s="13"/>
       <c r="K50" s="13"/>
       <c r="L50" s="9"/>
-      <c r="M50" s="36"/>
+      <c r="M50" s="35"/>
       <c r="N50" s="13"/>
     </row>
-    <row r="51" spans="2:14" s="10" customFormat="1" ht="19.5" customHeight="1">
+    <row r="51" spans="2:14" s="10" customFormat="1" ht="15">
       <c r="B51" s="8">
         <v>44</v>
       </c>
@@ -2838,14 +2880,14 @@
       <c r="F51" s="13"/>
       <c r="G51" s="13"/>
       <c r="H51" s="13"/>
-      <c r="I51" s="37"/>
+      <c r="I51" s="36"/>
       <c r="J51" s="13"/>
       <c r="K51" s="13"/>
       <c r="L51" s="9"/>
-      <c r="M51" s="36"/>
+      <c r="M51" s="35"/>
       <c r="N51" s="13"/>
     </row>
-    <row r="52" spans="2:14" s="10" customFormat="1" ht="19.5" customHeight="1">
+    <row r="52" spans="2:14" s="10" customFormat="1" ht="15">
       <c r="B52" s="8">
         <v>45</v>
       </c>
@@ -2855,14 +2897,14 @@
       <c r="F52" s="13"/>
       <c r="G52" s="13"/>
       <c r="H52" s="13"/>
-      <c r="I52" s="37"/>
+      <c r="I52" s="36"/>
       <c r="J52" s="13"/>
       <c r="K52" s="13"/>
       <c r="L52" s="9"/>
-      <c r="M52" s="36"/>
+      <c r="M52" s="35"/>
       <c r="N52" s="13"/>
     </row>
-    <row r="53" spans="2:14" s="10" customFormat="1" ht="19.5" customHeight="1">
+    <row r="53" spans="2:14" s="10" customFormat="1" ht="15">
       <c r="B53" s="8">
         <v>46</v>
       </c>
@@ -2872,14 +2914,14 @@
       <c r="F53" s="13"/>
       <c r="G53" s="13"/>
       <c r="H53" s="13"/>
-      <c r="I53" s="37"/>
+      <c r="I53" s="36"/>
       <c r="J53" s="13"/>
       <c r="K53" s="13"/>
       <c r="L53" s="9"/>
-      <c r="M53" s="36"/>
+      <c r="M53" s="35"/>
       <c r="N53" s="13"/>
     </row>
-    <row r="54" spans="2:14" s="10" customFormat="1" ht="19.5" customHeight="1">
+    <row r="54" spans="2:14" s="10" customFormat="1" ht="15">
       <c r="B54" s="8">
         <v>47</v>
       </c>
@@ -2889,14 +2931,14 @@
       <c r="F54" s="13"/>
       <c r="G54" s="13"/>
       <c r="H54" s="13"/>
-      <c r="I54" s="37"/>
+      <c r="I54" s="36"/>
       <c r="J54" s="13"/>
       <c r="K54" s="13"/>
       <c r="L54" s="9"/>
-      <c r="M54" s="36"/>
+      <c r="M54" s="35"/>
       <c r="N54" s="13"/>
     </row>
-    <row r="55" spans="2:14" s="10" customFormat="1" ht="19.5" customHeight="1">
+    <row r="55" spans="2:14" s="10" customFormat="1" ht="15">
       <c r="B55" s="8">
         <v>48</v>
       </c>
@@ -2906,27 +2948,27 @@
       <c r="F55" s="13"/>
       <c r="G55" s="13"/>
       <c r="H55" s="13"/>
-      <c r="I55" s="37"/>
+      <c r="I55" s="36"/>
       <c r="J55" s="13"/>
       <c r="K55" s="13"/>
       <c r="L55" s="9"/>
-      <c r="M55" s="36"/>
+      <c r="M55" s="35"/>
       <c r="N55" s="13"/>
     </row>
-    <row r="56" spans="2:14" ht="21.75" customHeight="1" thickBot="1">
+    <row r="56" spans="2:14" ht="15.75" thickBot="1">
       <c r="B56" s="7"/>
-      <c r="C56" s="15"/>
-      <c r="D56" s="15"/>
-      <c r="E56" s="15"/>
-      <c r="F56" s="15"/>
-      <c r="G56" s="15"/>
-      <c r="H56" s="15"/>
-      <c r="I56" s="15"/>
-      <c r="J56" s="15"/>
-      <c r="K56" s="15"/>
-      <c r="L56" s="16"/>
-      <c r="M56" s="16"/>
-      <c r="N56" s="16"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="14"/>
+      <c r="G56" s="14"/>
+      <c r="H56" s="14"/>
+      <c r="I56" s="14"/>
+      <c r="J56" s="14"/>
+      <c r="K56" s="14"/>
+      <c r="L56" s="15"/>
+      <c r="M56" s="15"/>
+      <c r="N56" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -2962,43 +3004,43 @@
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="32" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="34" customFormat="1">
-      <c r="A2" s="35" t="s">
+    <row r="2" spans="1:2" s="33" customFormat="1">
+      <c r="A2" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="34" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="34" customFormat="1"/>
-    <row r="4" spans="1:2" s="34" customFormat="1"/>
-    <row r="5" spans="1:2" s="34" customFormat="1"/>
-    <row r="6" spans="1:2" s="34" customFormat="1"/>
-    <row r="7" spans="1:2" s="34" customFormat="1"/>
-    <row r="8" spans="1:2" s="34" customFormat="1"/>
-    <row r="9" spans="1:2" s="34" customFormat="1"/>
-    <row r="10" spans="1:2" s="34" customFormat="1"/>
-    <row r="11" spans="1:2" s="34" customFormat="1"/>
-    <row r="12" spans="1:2" s="34" customFormat="1"/>
-    <row r="13" spans="1:2" s="34" customFormat="1"/>
-    <row r="14" spans="1:2" s="34" customFormat="1"/>
-    <row r="15" spans="1:2" s="34" customFormat="1"/>
-    <row r="16" spans="1:2" s="34" customFormat="1"/>
-    <row r="17" spans="1:1" s="34" customFormat="1"/>
-    <row r="18" spans="1:1" s="34" customFormat="1"/>
-    <row r="19" spans="1:1" s="34" customFormat="1"/>
-    <row r="20" spans="1:1" s="34" customFormat="1"/>
-    <row r="21" spans="1:1" s="34" customFormat="1"/>
-    <row r="22" spans="1:1" s="34" customFormat="1"/>
-    <row r="23" spans="1:1" s="34" customFormat="1"/>
-    <row r="24" spans="1:1" s="34" customFormat="1"/>
+    <row r="3" spans="1:2" s="33" customFormat="1"/>
+    <row r="4" spans="1:2" s="33" customFormat="1"/>
+    <row r="5" spans="1:2" s="33" customFormat="1"/>
+    <row r="6" spans="1:2" s="33" customFormat="1"/>
+    <row r="7" spans="1:2" s="33" customFormat="1"/>
+    <row r="8" spans="1:2" s="33" customFormat="1"/>
+    <row r="9" spans="1:2" s="33" customFormat="1"/>
+    <row r="10" spans="1:2" s="33" customFormat="1"/>
+    <row r="11" spans="1:2" s="33" customFormat="1"/>
+    <row r="12" spans="1:2" s="33" customFormat="1"/>
+    <row r="13" spans="1:2" s="33" customFormat="1"/>
+    <row r="14" spans="1:2" s="33" customFormat="1"/>
+    <row r="15" spans="1:2" s="33" customFormat="1"/>
+    <row r="16" spans="1:2" s="33" customFormat="1"/>
+    <row r="17" spans="1:1" s="33" customFormat="1"/>
+    <row r="18" spans="1:1" s="33" customFormat="1"/>
+    <row r="19" spans="1:1" s="33" customFormat="1"/>
+    <row r="20" spans="1:1" s="33" customFormat="1"/>
+    <row r="21" spans="1:1" s="33" customFormat="1"/>
+    <row r="22" spans="1:1" s="33" customFormat="1"/>
+    <row r="23" spans="1:1" s="33" customFormat="1"/>
+    <row r="24" spans="1:1" s="33" customFormat="1"/>
     <row r="25" spans="1:1">
       <c r="A25">
         <v>1</v>
@@ -3024,56 +3066,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:3">
-      <c r="B1" s="18"/>
+      <c r="B1" s="17"/>
     </row>
     <row r="2" spans="2:3">
-      <c r="B2" s="18"/>
+      <c r="B2" s="17"/>
     </row>
     <row r="3" spans="2:3" ht="25.5">
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="23" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="4" spans="2:3">
-      <c r="B4" s="18"/>
+      <c r="B4" s="17"/>
     </row>
     <row r="5" spans="2:3">
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="22" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="28.5">
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="20" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="7" spans="2:3">
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="19" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="8" spans="2:3" ht="28.5">
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="24" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="9" spans="2:3">
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="19" t="s">
         <v>34</v>
       </c>
     </row>

--- a/Documentation/Buglist.xlsx
+++ b/Documentation/Buglist.xlsx
@@ -878,7 +878,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -927,6 +927,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="12">
     <border>
@@ -1089,7 +1095,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1186,33 +1192,6 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1243,6 +1222,34 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Normal 8" xfId="2"/>
@@ -1603,7 +1610,7 @@
   <dimension ref="A2:N56"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1624,7 +1631,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:14" s="1" customFormat="1" ht="25.5">
-      <c r="B2" s="40"/>
+      <c r="B2" s="53"/>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
@@ -1639,7 +1646,7 @@
       <c r="N2" s="2"/>
     </row>
     <row r="3" spans="1:14" s="1" customFormat="1" ht="26.25" thickBot="1">
-      <c r="B3" s="41"/>
+      <c r="B3" s="54"/>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -1654,32 +1661,32 @@
       <c r="N3" s="2"/>
     </row>
     <row r="4" spans="1:14" s="5" customFormat="1" ht="14.25">
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
-      <c r="J4" s="43"/>
-      <c r="K4" s="43"/>
-      <c r="L4" s="38" t="s">
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="56"/>
+      <c r="L4" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="M4" s="38" t="s">
+      <c r="M4" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="N4" s="38" t="s">
+      <c r="N4" s="51" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:14" s="5" customFormat="1" ht="14.25">
-      <c r="B5" s="46"/>
+      <c r="B5" s="59"/>
       <c r="C5" s="16" t="s">
         <v>1</v>
       </c>
@@ -1707,9 +1714,9 @@
       <c r="K5" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="L5" s="44"/>
-      <c r="M5" s="39"/>
-      <c r="N5" s="39"/>
+      <c r="L5" s="57"/>
+      <c r="M5" s="52"/>
+      <c r="N5" s="52"/>
     </row>
     <row r="6" spans="1:14" s="11" customFormat="1" ht="90">
       <c r="B6" s="29" t="s">
@@ -1875,9 +1882,9 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:14" s="50" customFormat="1" ht="165">
-      <c r="A10" s="57"/>
-      <c r="B10" s="47">
+    <row r="10" spans="1:14" s="41" customFormat="1" ht="165">
+      <c r="A10" s="48"/>
+      <c r="B10" s="38">
         <v>3</v>
       </c>
       <c r="C10" s="37" t="s">
@@ -1898,7 +1905,7 @@
       <c r="H10" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="I10" s="48">
+      <c r="I10" s="39">
         <v>1</v>
       </c>
       <c r="J10" s="37" t="s">
@@ -1907,10 +1914,10 @@
       <c r="K10" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="L10" s="49" t="s">
+      <c r="L10" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="M10" s="49" t="s">
+      <c r="M10" s="40" t="s">
         <v>44</v>
       </c>
       <c r="N10" s="37"/>
@@ -1993,8 +2000,8 @@
       </c>
       <c r="N12" s="13"/>
     </row>
-    <row r="13" spans="1:14" s="51" customFormat="1" ht="120">
-      <c r="B13" s="47">
+    <row r="13" spans="1:14" s="42" customFormat="1" ht="120">
+      <c r="B13" s="38">
         <v>6</v>
       </c>
       <c r="C13" s="37" t="s">
@@ -2015,7 +2022,7 @@
       <c r="H13" s="37" t="s">
         <v>95</v>
       </c>
-      <c r="I13" s="48">
+      <c r="I13" s="39">
         <v>1</v>
       </c>
       <c r="J13" s="37" t="s">
@@ -2024,16 +2031,16 @@
       <c r="K13" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="L13" s="49" t="s">
+      <c r="L13" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="M13" s="49" t="s">
+      <c r="M13" s="40" t="s">
         <v>44</v>
       </c>
       <c r="N13" s="37"/>
     </row>
-    <row r="14" spans="1:14" s="51" customFormat="1" ht="120">
-      <c r="B14" s="47">
+    <row r="14" spans="1:14" s="42" customFormat="1" ht="120">
+      <c r="B14" s="38">
         <v>7</v>
       </c>
       <c r="C14" s="37" t="s">
@@ -2048,13 +2055,13 @@
       <c r="F14" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="G14" s="48" t="s">
+      <c r="G14" s="39" t="s">
         <v>101</v>
       </c>
       <c r="H14" s="37" t="s">
         <v>103</v>
       </c>
-      <c r="I14" s="48">
+      <c r="I14" s="39">
         <v>1</v>
       </c>
       <c r="J14" s="37" t="s">
@@ -2063,52 +2070,52 @@
       <c r="K14" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="L14" s="49" t="s">
+      <c r="L14" s="40" t="s">
         <v>104</v>
       </c>
-      <c r="M14" s="49" t="s">
+      <c r="M14" s="40" t="s">
         <v>44</v>
       </c>
       <c r="N14" s="37"/>
     </row>
-    <row r="15" spans="1:14" s="56" customFormat="1" ht="90">
-      <c r="B15" s="52">
+    <row r="15" spans="1:14" s="47" customFormat="1" ht="90">
+      <c r="B15" s="43">
         <v>8</v>
       </c>
-      <c r="C15" s="53" t="s">
+      <c r="C15" s="44" t="s">
         <v>105</v>
       </c>
-      <c r="D15" s="53" t="s">
+      <c r="D15" s="44" t="s">
         <v>108</v>
       </c>
-      <c r="E15" s="53" t="s">
+      <c r="E15" s="44" t="s">
         <v>107</v>
       </c>
-      <c r="F15" s="53" t="s">
+      <c r="F15" s="44" t="s">
         <v>112</v>
       </c>
-      <c r="G15" s="54" t="s">
+      <c r="G15" s="45" t="s">
         <v>109</v>
       </c>
-      <c r="H15" s="53" t="s">
+      <c r="H15" s="44" t="s">
         <v>110</v>
       </c>
-      <c r="I15" s="54">
+      <c r="I15" s="45">
         <v>1</v>
       </c>
-      <c r="J15" s="53" t="s">
+      <c r="J15" s="44" t="s">
         <v>96</v>
       </c>
-      <c r="K15" s="53" t="s">
+      <c r="K15" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="L15" s="55" t="s">
+      <c r="L15" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="M15" s="55" t="s">
+      <c r="M15" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="N15" s="53"/>
+      <c r="N15" s="44"/>
     </row>
     <row r="16" spans="1:14" ht="90">
       <c r="B16" s="8">
@@ -2188,9 +2195,9 @@
       </c>
       <c r="N17" s="13"/>
     </row>
-    <row r="18" spans="1:14" s="51" customFormat="1" ht="90">
-      <c r="A18" s="58"/>
-      <c r="B18" s="47">
+    <row r="18" spans="1:14" s="42" customFormat="1" ht="90">
+      <c r="A18" s="49"/>
+      <c r="B18" s="38">
         <v>11</v>
       </c>
       <c r="C18" s="37" t="s">
@@ -2211,7 +2218,7 @@
       <c r="H18" s="37" t="s">
         <v>127</v>
       </c>
-      <c r="I18" s="48">
+      <c r="I18" s="39">
         <v>1</v>
       </c>
       <c r="J18" s="37" t="s">
@@ -2220,10 +2227,10 @@
       <c r="K18" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="L18" s="49" t="s">
+      <c r="L18" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="M18" s="49" t="s">
+      <c r="M18" s="40" t="s">
         <v>44</v>
       </c>
       <c r="N18" s="37"/>
@@ -2306,8 +2313,9 @@
       </c>
       <c r="N20" s="13"/>
     </row>
-    <row r="21" spans="1:14" s="51" customFormat="1" ht="165">
-      <c r="B21" s="47">
+    <row r="21" spans="1:14" s="42" customFormat="1" ht="165">
+      <c r="A21" s="50"/>
+      <c r="B21" s="38">
         <v>14</v>
       </c>
       <c r="C21" s="37" t="s">
@@ -2328,7 +2336,7 @@
       <c r="H21" s="37" t="s">
         <v>146</v>
       </c>
-      <c r="I21" s="48">
+      <c r="I21" s="39">
         <v>1</v>
       </c>
       <c r="J21" s="37" t="s">
@@ -2337,16 +2345,17 @@
       <c r="K21" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="L21" s="49" t="s">
+      <c r="L21" s="40" t="s">
         <v>147</v>
       </c>
-      <c r="M21" s="49" t="s">
+      <c r="M21" s="40" t="s">
         <v>91</v>
       </c>
       <c r="N21" s="37"/>
     </row>
-    <row r="22" spans="1:14" s="51" customFormat="1" ht="45">
-      <c r="B22" s="47">
+    <row r="22" spans="1:14" s="42" customFormat="1" ht="45">
+      <c r="A22" s="50"/>
+      <c r="B22" s="38">
         <v>15</v>
       </c>
       <c r="C22" s="37" t="s">
@@ -2357,19 +2366,20 @@
       <c r="F22" s="37"/>
       <c r="G22" s="37"/>
       <c r="H22" s="37"/>
-      <c r="I22" s="48"/>
+      <c r="I22" s="39"/>
       <c r="J22" s="37"/>
       <c r="K22" s="37"/>
-      <c r="L22" s="49" t="s">
+      <c r="L22" s="40" t="s">
         <v>147</v>
       </c>
-      <c r="M22" s="49" t="s">
+      <c r="M22" s="40" t="s">
         <v>91</v>
       </c>
       <c r="N22" s="37"/>
     </row>
-    <row r="23" spans="1:14" s="51" customFormat="1" ht="30">
-      <c r="B23" s="47">
+    <row r="23" spans="1:14" s="42" customFormat="1" ht="30">
+      <c r="A23" s="50"/>
+      <c r="B23" s="38">
         <v>16</v>
       </c>
       <c r="C23" s="37" t="s">
@@ -2380,19 +2390,19 @@
       <c r="F23" s="37"/>
       <c r="G23" s="37"/>
       <c r="H23" s="37"/>
-      <c r="I23" s="48"/>
+      <c r="I23" s="39"/>
       <c r="J23" s="37"/>
       <c r="K23" s="37"/>
-      <c r="L23" s="49" t="s">
+      <c r="L23" s="40" t="s">
         <v>147</v>
       </c>
-      <c r="M23" s="49" t="s">
+      <c r="M23" s="40" t="s">
         <v>91</v>
       </c>
       <c r="N23" s="37"/>
     </row>
-    <row r="24" spans="1:14" s="51" customFormat="1" ht="90">
-      <c r="B24" s="47">
+    <row r="24" spans="1:14" s="42" customFormat="1" ht="90">
+      <c r="B24" s="38">
         <v>17</v>
       </c>
       <c r="C24" s="37" t="s">
@@ -2403,19 +2413,19 @@
       <c r="F24" s="37"/>
       <c r="G24" s="37"/>
       <c r="H24" s="37"/>
-      <c r="I24" s="48"/>
+      <c r="I24" s="39"/>
       <c r="J24" s="37"/>
       <c r="K24" s="37"/>
-      <c r="L24" s="49" t="s">
+      <c r="L24" s="40" t="s">
         <v>147</v>
       </c>
-      <c r="M24" s="49" t="s">
+      <c r="M24" s="40" t="s">
         <v>60</v>
       </c>
       <c r="N24" s="37"/>
     </row>
-    <row r="25" spans="1:14" s="51" customFormat="1" ht="45">
-      <c r="B25" s="47">
+    <row r="25" spans="1:14" s="42" customFormat="1" ht="45">
+      <c r="B25" s="38">
         <v>18</v>
       </c>
       <c r="C25" s="37" t="s">
@@ -2426,19 +2436,19 @@
       <c r="F25" s="37"/>
       <c r="G25" s="37"/>
       <c r="H25" s="37"/>
-      <c r="I25" s="48"/>
+      <c r="I25" s="39"/>
       <c r="J25" s="37"/>
       <c r="K25" s="37"/>
-      <c r="L25" s="49" t="s">
+      <c r="L25" s="40" t="s">
         <v>147</v>
       </c>
-      <c r="M25" s="49" t="s">
+      <c r="M25" s="40" t="s">
         <v>60</v>
       </c>
       <c r="N25" s="37"/>
     </row>
-    <row r="26" spans="1:14" s="51" customFormat="1" ht="90">
-      <c r="B26" s="47">
+    <row r="26" spans="1:14" s="42" customFormat="1" ht="90">
+      <c r="B26" s="38">
         <v>19</v>
       </c>
       <c r="C26" s="37" t="s">
@@ -2449,19 +2459,19 @@
       <c r="F26" s="37"/>
       <c r="G26" s="37"/>
       <c r="H26" s="37"/>
-      <c r="I26" s="48"/>
+      <c r="I26" s="39"/>
       <c r="J26" s="37"/>
       <c r="K26" s="37"/>
-      <c r="L26" s="49" t="s">
+      <c r="L26" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="M26" s="49" t="s">
+      <c r="M26" s="40" t="s">
         <v>60</v>
       </c>
       <c r="N26" s="37"/>
     </row>
-    <row r="27" spans="1:14" s="51" customFormat="1" ht="60">
-      <c r="B27" s="47">
+    <row r="27" spans="1:14" s="42" customFormat="1" ht="60">
+      <c r="B27" s="38">
         <v>20</v>
       </c>
       <c r="C27" s="37" t="s">
@@ -2472,11 +2482,11 @@
       <c r="F27" s="37"/>
       <c r="G27" s="37"/>
       <c r="H27" s="37"/>
-      <c r="I27" s="48"/>
+      <c r="I27" s="39"/>
       <c r="J27" s="37"/>
       <c r="K27" s="37"/>
-      <c r="L27" s="49"/>
-      <c r="M27" s="49"/>
+      <c r="L27" s="40"/>
+      <c r="M27" s="40"/>
       <c r="N27" s="37"/>
     </row>
     <row r="28" spans="1:14" s="10" customFormat="1" ht="15">

--- a/Documentation/Buglist.xlsx
+++ b/Documentation/Buglist.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="159">
   <si>
     <t>ID</t>
   </si>
@@ -329,10 +329,6 @@
     <t>中</t>
   </si>
   <si>
-    <t>合同号标签丢失.jpg</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>通过点击数据表合同列的表头按照合同号进行排序，排序混乱</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
@@ -368,10 +364,6 @@
   </si>
   <si>
     <t>Release0119</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>排序问题.jpg</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
@@ -777,6 +769,27 @@
   <si>
     <t>销售页面的数据显示中的合同号排序错误</t>
     <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前状态</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bug目前的状态
+Active：Bug依然存在
+Resolve：开发已经发版本修复，等待验证
+Close：Bug修复后验证通过，关闭问题</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>Active</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Close</t>
   </si>
 </sst>
 </file>
@@ -1095,7 +1108,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1249,6 +1262,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1607,10 +1623,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:N56"/>
+  <dimension ref="A2:O56"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1626,11 +1642,11 @@
     <col min="10" max="10" width="23.125" style="3" customWidth="1"/>
     <col min="11" max="11" width="22.5" style="3" customWidth="1"/>
     <col min="12" max="12" width="20.375" style="4" customWidth="1"/>
-    <col min="13" max="14" width="29.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="3"/>
+    <col min="13" max="15" width="29.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" s="1" customFormat="1" ht="25.5">
+    <row r="2" spans="1:15" s="1" customFormat="1" ht="25.5">
       <c r="B2" s="53"/>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -1644,8 +1660,9 @@
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
-    </row>
-    <row r="3" spans="1:14" s="1" customFormat="1" ht="26.25" thickBot="1">
+      <c r="O2" s="2"/>
+    </row>
+    <row r="3" spans="1:15" s="1" customFormat="1" ht="26.25" thickBot="1">
       <c r="B3" s="54"/>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
@@ -1659,8 +1676,9 @@
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
-    </row>
-    <row r="4" spans="1:14" s="5" customFormat="1" ht="14.25">
+      <c r="O3" s="2"/>
+    </row>
+    <row r="4" spans="1:15" s="5" customFormat="1" ht="14.25">
       <c r="B4" s="58" t="s">
         <v>0</v>
       </c>
@@ -1684,8 +1702,11 @@
       <c r="N4" s="51" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" s="5" customFormat="1" ht="14.25">
+      <c r="O4" s="51" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" s="5" customFormat="1" ht="14.25">
       <c r="B5" s="59"/>
       <c r="C5" s="16" t="s">
         <v>1</v>
@@ -1717,8 +1738,9 @@
       <c r="L5" s="57"/>
       <c r="M5" s="52"/>
       <c r="N5" s="52"/>
-    </row>
-    <row r="6" spans="1:14" s="11" customFormat="1" ht="90">
+      <c r="O5" s="52"/>
+    </row>
+    <row r="6" spans="1:15" s="11" customFormat="1" ht="90">
       <c r="B6" s="29" t="s">
         <v>11</v>
       </c>
@@ -1758,8 +1780,11 @@
       <c r="N6" s="30" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" s="11" customFormat="1" ht="135">
+      <c r="O6" s="30" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" s="11" customFormat="1" ht="135" hidden="1">
       <c r="B7" s="25" t="s">
         <v>12</v>
       </c>
@@ -1782,7 +1807,7 @@
         <v>40</v>
       </c>
       <c r="I7" s="27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J7" s="26" t="s">
         <v>58</v>
@@ -1799,13 +1824,16 @@
       <c r="N7" s="31" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" s="11" customFormat="1" ht="90">
+      <c r="O7" s="31" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" s="11" customFormat="1" ht="90">
       <c r="B8" s="8">
         <v>1</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D8" s="13" t="s">
         <v>53</v>
@@ -1826,10 +1854,10 @@
         <v>1</v>
       </c>
       <c r="J8" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="K8" s="13" t="s">
         <v>67</v>
-      </c>
-      <c r="K8" s="13" t="s">
-        <v>68</v>
       </c>
       <c r="L8" s="9" t="s">
         <v>59</v>
@@ -1837,40 +1865,41 @@
       <c r="M8" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="N8" s="13" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" s="10" customFormat="1" ht="60">
+      <c r="N8" s="13"/>
+      <c r="O8" s="35" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="10" customFormat="1" ht="60">
       <c r="B9" s="8">
         <v>2</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D9" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="F9" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="E9" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="F9" s="13" t="s">
+      <c r="G9" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="G9" s="13" t="s">
+      <c r="H9" s="13" t="s">
         <v>64</v>
-      </c>
-      <c r="H9" s="13" t="s">
-        <v>65</v>
       </c>
       <c r="I9" s="36">
         <v>1</v>
       </c>
       <c r="J9" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K9" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L9" s="9" t="s">
         <v>59</v>
@@ -1878,41 +1907,42 @@
       <c r="M9" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="N9" s="13" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" s="41" customFormat="1" ht="165">
+      <c r="N9" s="13"/>
+      <c r="O9" s="35" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" s="41" customFormat="1" ht="165">
       <c r="A10" s="48"/>
       <c r="B10" s="38">
         <v>3</v>
       </c>
       <c r="C10" s="37" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D10" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="E10" s="37" t="s">
         <v>72</v>
       </c>
-      <c r="E10" s="37" t="s">
+      <c r="F10" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="G10" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="F10" s="37" t="s">
+      <c r="H10" s="37" t="s">
         <v>75</v>
-      </c>
-      <c r="G10" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="H10" s="37" t="s">
-        <v>77</v>
       </c>
       <c r="I10" s="39">
         <v>1</v>
       </c>
       <c r="J10" s="37" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K10" s="37" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L10" s="40" t="s">
         <v>43</v>
@@ -1921,115 +1951,124 @@
         <v>44</v>
       </c>
       <c r="N10" s="37"/>
-    </row>
-    <row r="11" spans="1:14" s="12" customFormat="1" ht="105">
-      <c r="B11" s="8">
+      <c r="O10" s="35" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" s="12" customFormat="1" ht="105">
+      <c r="B11" s="25">
         <v>4</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="E11" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="G11" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="H11" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="E11" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="H11" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="I11" s="36">
+      <c r="I11" s="60">
         <v>1</v>
       </c>
-      <c r="J11" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="K11" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="L11" s="9" t="s">
+      <c r="J11" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="K11" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="L11" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="M11" s="35" t="s">
+      <c r="M11" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="N11" s="13"/>
-    </row>
-    <row r="12" spans="1:14" s="10" customFormat="1" ht="60">
+      <c r="N11" s="26"/>
+      <c r="O11" s="28" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" s="10" customFormat="1" ht="60">
       <c r="B12" s="8">
         <v>5</v>
       </c>
       <c r="C12" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="G12" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="D12" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="F12" s="13" t="s">
+      <c r="H12" s="13" t="s">
         <v>87</v>
-      </c>
-      <c r="G12" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="H12" s="13" t="s">
-        <v>89</v>
       </c>
       <c r="I12" s="36">
         <v>1</v>
       </c>
       <c r="J12" s="13" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K12" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L12" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="M12" s="35" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="N12" s="13"/>
-    </row>
-    <row r="13" spans="1:14" s="42" customFormat="1" ht="120">
+      <c r="O12" s="35" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" s="42" customFormat="1" ht="120">
       <c r="B13" s="38">
         <v>6</v>
       </c>
       <c r="C13" s="37" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D13" s="37" t="s">
+        <v>90</v>
+      </c>
+      <c r="E13" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="F13" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="G13" s="37" t="s">
         <v>92</v>
       </c>
-      <c r="E13" s="37" t="s">
+      <c r="H13" s="37" t="s">
         <v>93</v>
-      </c>
-      <c r="F13" s="37" t="s">
-        <v>100</v>
-      </c>
-      <c r="G13" s="37" t="s">
-        <v>94</v>
-      </c>
-      <c r="H13" s="37" t="s">
-        <v>95</v>
       </c>
       <c r="I13" s="39">
         <v>1</v>
       </c>
       <c r="J13" s="37" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K13" s="37" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L13" s="40" t="s">
         <v>43</v>
@@ -2038,76 +2077,82 @@
         <v>44</v>
       </c>
       <c r="N13" s="37"/>
-    </row>
-    <row r="14" spans="1:14" s="42" customFormat="1" ht="120">
+      <c r="O13" s="35" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" s="42" customFormat="1" ht="120">
       <c r="B14" s="38">
         <v>7</v>
       </c>
       <c r="C14" s="37" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D14" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="E14" s="37" t="s">
+        <v>104</v>
+      </c>
+      <c r="F14" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="G14" s="39" t="s">
         <v>99</v>
       </c>
-      <c r="E14" s="37" t="s">
-        <v>106</v>
-      </c>
-      <c r="F14" s="37" t="s">
-        <v>102</v>
-      </c>
-      <c r="G14" s="39" t="s">
+      <c r="H14" s="37" t="s">
         <v>101</v>
-      </c>
-      <c r="H14" s="37" t="s">
-        <v>103</v>
       </c>
       <c r="I14" s="39">
         <v>1</v>
       </c>
       <c r="J14" s="37" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K14" s="37" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L14" s="40" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="M14" s="40" t="s">
         <v>44</v>
       </c>
       <c r="N14" s="37"/>
-    </row>
-    <row r="15" spans="1:14" s="47" customFormat="1" ht="90">
+      <c r="O14" s="35" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" s="47" customFormat="1" ht="90">
       <c r="B15" s="43">
         <v>8</v>
       </c>
       <c r="C15" s="44" t="s">
+        <v>103</v>
+      </c>
+      <c r="D15" s="44" t="s">
+        <v>106</v>
+      </c>
+      <c r="E15" s="44" t="s">
         <v>105</v>
       </c>
-      <c r="D15" s="44" t="s">
+      <c r="F15" s="44" t="s">
+        <v>110</v>
+      </c>
+      <c r="G15" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="H15" s="44" t="s">
         <v>108</v>
-      </c>
-      <c r="E15" s="44" t="s">
-        <v>107</v>
-      </c>
-      <c r="F15" s="44" t="s">
-        <v>112</v>
-      </c>
-      <c r="G15" s="45" t="s">
-        <v>109</v>
-      </c>
-      <c r="H15" s="44" t="s">
-        <v>110</v>
       </c>
       <c r="I15" s="45">
         <v>1</v>
       </c>
       <c r="J15" s="44" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K15" s="44" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L15" s="46" t="s">
         <v>43</v>
@@ -2116,116 +2161,125 @@
         <v>44</v>
       </c>
       <c r="N15" s="44"/>
-    </row>
-    <row r="16" spans="1:14" ht="90">
-      <c r="B16" s="8">
+      <c r="O15" s="35" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="90">
+      <c r="B16" s="25">
         <v>9</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="D16" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="E16" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="F16" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="G16" s="60" t="s">
         <v>111</v>
       </c>
-      <c r="D16" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="F16" s="13" t="s">
+      <c r="H16" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="I16" s="60">
+        <v>1</v>
+      </c>
+      <c r="J16" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="K16" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="L16" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="M16" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="N16" s="26"/>
+      <c r="O16" s="28" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" s="10" customFormat="1" ht="75">
+      <c r="B17" s="25">
+        <v>10</v>
+      </c>
+      <c r="C17" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="D17" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="E17" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="F17" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="G17" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="H17" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="G16" s="36" t="s">
-        <v>113</v>
-      </c>
-      <c r="H16" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="I16" s="36">
+      <c r="I17" s="60">
         <v>1</v>
       </c>
-      <c r="J16" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="K16" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="L16" s="9" t="s">
+      <c r="J17" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="K17" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="L17" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="M16" s="35" t="s">
+      <c r="M17" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="N16" s="13"/>
-    </row>
-    <row r="17" spans="1:14" s="10" customFormat="1" ht="75">
-      <c r="B17" s="8">
-        <v>10</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="F17" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="G17" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="H17" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="I17" s="36">
-        <v>1</v>
-      </c>
-      <c r="J17" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="K17" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="L17" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="M17" s="35" t="s">
-        <v>44</v>
-      </c>
-      <c r="N17" s="13"/>
-    </row>
-    <row r="18" spans="1:14" s="42" customFormat="1" ht="90">
+      <c r="N17" s="26"/>
+      <c r="O17" s="28" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" s="42" customFormat="1" ht="90">
       <c r="A18" s="49"/>
       <c r="B18" s="38">
         <v>11</v>
       </c>
       <c r="C18" s="37" t="s">
+        <v>120</v>
+      </c>
+      <c r="D18" s="37" t="s">
+        <v>123</v>
+      </c>
+      <c r="E18" s="37" t="s">
+        <v>121</v>
+      </c>
+      <c r="F18" s="37" t="s">
         <v>122</v>
       </c>
-      <c r="D18" s="37" t="s">
+      <c r="G18" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="H18" s="37" t="s">
         <v>125</v>
-      </c>
-      <c r="E18" s="37" t="s">
-        <v>123</v>
-      </c>
-      <c r="F18" s="37" t="s">
-        <v>124</v>
-      </c>
-      <c r="G18" s="37" t="s">
-        <v>126</v>
-      </c>
-      <c r="H18" s="37" t="s">
-        <v>127</v>
       </c>
       <c r="I18" s="39">
         <v>1</v>
       </c>
       <c r="J18" s="37" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K18" s="37" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L18" s="40" t="s">
         <v>43</v>
@@ -2234,132 +2288,144 @@
         <v>44</v>
       </c>
       <c r="N18" s="37"/>
-    </row>
-    <row r="19" spans="1:14" s="10" customFormat="1" ht="75">
-      <c r="B19" s="8">
+      <c r="O18" s="35" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" s="10" customFormat="1" ht="75">
+      <c r="B19" s="25">
         <v>12</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="D19" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="E19" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="F19" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="G19" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="H19" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="I19" s="60">
+        <v>1</v>
+      </c>
+      <c r="J19" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="K19" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="L19" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="M19" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="N19" s="26"/>
+      <c r="O19" s="28" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" s="10" customFormat="1" ht="90">
+      <c r="B20" s="25">
+        <v>13</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="D20" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="E20" s="26" t="s">
         <v>135</v>
       </c>
-      <c r="D19" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="E19" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="F19" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="G19" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="H19" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="I19" s="36">
+      <c r="F20" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="G20" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="H20" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="I20" s="60">
         <v>1</v>
       </c>
-      <c r="J19" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="K19" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="L19" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="M19" s="35" t="s">
+      <c r="J20" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="K20" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="L20" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="M20" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="N19" s="13"/>
-    </row>
-    <row r="20" spans="1:14" s="10" customFormat="1" ht="90">
-      <c r="B20" s="8">
-        <v>13</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="F20" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="G20" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="H20" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="I20" s="36">
-        <v>1</v>
-      </c>
-      <c r="J20" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="K20" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="L20" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="M20" s="35" t="s">
-        <v>44</v>
-      </c>
-      <c r="N20" s="13"/>
-    </row>
-    <row r="21" spans="1:14" s="42" customFormat="1" ht="165">
+      <c r="N20" s="26"/>
+      <c r="O20" s="28" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" s="42" customFormat="1" ht="165">
       <c r="A21" s="50"/>
       <c r="B21" s="38">
         <v>14</v>
       </c>
       <c r="C21" s="37" t="s">
+        <v>138</v>
+      </c>
+      <c r="D21" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="E21" s="37" t="s">
         <v>140</v>
       </c>
-      <c r="D21" s="37" t="s">
-        <v>141</v>
-      </c>
-      <c r="E21" s="37" t="s">
+      <c r="F21" s="37" t="s">
         <v>142</v>
       </c>
-      <c r="F21" s="37" t="s">
+      <c r="G21" s="37" t="s">
+        <v>143</v>
+      </c>
+      <c r="H21" s="37" t="s">
         <v>144</v>
-      </c>
-      <c r="G21" s="37" t="s">
-        <v>145</v>
-      </c>
-      <c r="H21" s="37" t="s">
-        <v>146</v>
       </c>
       <c r="I21" s="39">
         <v>1</v>
       </c>
       <c r="J21" s="37" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K21" s="37" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L21" s="40" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="M21" s="40" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="N21" s="37"/>
-    </row>
-    <row r="22" spans="1:14" s="42" customFormat="1" ht="45">
+      <c r="O21" s="35" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" s="42" customFormat="1" ht="45">
       <c r="A22" s="50"/>
       <c r="B22" s="38">
         <v>15</v>
       </c>
       <c r="C22" s="37" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D22" s="37"/>
       <c r="E22" s="37"/>
@@ -2370,20 +2436,23 @@
       <c r="J22" s="37"/>
       <c r="K22" s="37"/>
       <c r="L22" s="40" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="M22" s="40" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="N22" s="37"/>
-    </row>
-    <row r="23" spans="1:14" s="42" customFormat="1" ht="30">
+      <c r="O22" s="35" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" s="42" customFormat="1" ht="30">
       <c r="A23" s="50"/>
       <c r="B23" s="38">
         <v>16</v>
       </c>
       <c r="C23" s="37" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D23" s="37"/>
       <c r="E23" s="37"/>
@@ -2394,19 +2463,22 @@
       <c r="J23" s="37"/>
       <c r="K23" s="37"/>
       <c r="L23" s="40" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="M23" s="40" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="N23" s="37"/>
-    </row>
-    <row r="24" spans="1:14" s="42" customFormat="1" ht="90">
+      <c r="O23" s="35" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" s="42" customFormat="1" ht="90">
       <c r="B24" s="38">
         <v>17</v>
       </c>
       <c r="C24" s="37" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D24" s="37"/>
       <c r="E24" s="37"/>
@@ -2417,19 +2489,22 @@
       <c r="J24" s="37"/>
       <c r="K24" s="37"/>
       <c r="L24" s="40" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="M24" s="40" t="s">
         <v>60</v>
       </c>
       <c r="N24" s="37"/>
-    </row>
-    <row r="25" spans="1:14" s="42" customFormat="1" ht="45">
+      <c r="O24" s="35" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" s="42" customFormat="1" ht="45">
       <c r="B25" s="38">
         <v>18</v>
       </c>
       <c r="C25" s="37" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D25" s="37"/>
       <c r="E25" s="37"/>
@@ -2440,19 +2515,22 @@
       <c r="J25" s="37"/>
       <c r="K25" s="37"/>
       <c r="L25" s="40" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="M25" s="40" t="s">
         <v>60</v>
       </c>
       <c r="N25" s="37"/>
-    </row>
-    <row r="26" spans="1:14" s="42" customFormat="1" ht="90">
+      <c r="O25" s="35" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" s="42" customFormat="1" ht="90">
       <c r="B26" s="38">
         <v>19</v>
       </c>
       <c r="C26" s="37" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D26" s="37"/>
       <c r="E26" s="37"/>
@@ -2469,13 +2547,16 @@
         <v>60</v>
       </c>
       <c r="N26" s="37"/>
-    </row>
-    <row r="27" spans="1:14" s="42" customFormat="1" ht="60">
+      <c r="O26" s="35" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" s="42" customFormat="1" ht="60">
       <c r="B27" s="38">
         <v>20</v>
       </c>
       <c r="C27" s="37" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D27" s="37"/>
       <c r="E27" s="37"/>
@@ -2488,8 +2569,9 @@
       <c r="L27" s="40"/>
       <c r="M27" s="40"/>
       <c r="N27" s="37"/>
-    </row>
-    <row r="28" spans="1:14" s="10" customFormat="1" ht="15">
+      <c r="O27" s="37"/>
+    </row>
+    <row r="28" spans="1:15" s="10" customFormat="1" ht="15">
       <c r="B28" s="8">
         <v>21</v>
       </c>
@@ -2505,8 +2587,9 @@
       <c r="L28" s="9"/>
       <c r="M28" s="35"/>
       <c r="N28" s="13"/>
-    </row>
-    <row r="29" spans="1:14" s="10" customFormat="1" ht="15">
+      <c r="O28" s="13"/>
+    </row>
+    <row r="29" spans="1:15" s="10" customFormat="1" ht="15">
       <c r="B29" s="8">
         <v>22</v>
       </c>
@@ -2522,8 +2605,9 @@
       <c r="L29" s="9"/>
       <c r="M29" s="35"/>
       <c r="N29" s="13"/>
-    </row>
-    <row r="30" spans="1:14" s="10" customFormat="1" ht="15">
+      <c r="O29" s="13"/>
+    </row>
+    <row r="30" spans="1:15" s="10" customFormat="1" ht="15">
       <c r="B30" s="8">
         <v>23</v>
       </c>
@@ -2539,8 +2623,9 @@
       <c r="L30" s="9"/>
       <c r="M30" s="35"/>
       <c r="N30" s="13"/>
-    </row>
-    <row r="31" spans="1:14" s="10" customFormat="1" ht="15">
+      <c r="O30" s="13"/>
+    </row>
+    <row r="31" spans="1:15" s="10" customFormat="1" ht="15">
       <c r="B31" s="8">
         <v>24</v>
       </c>
@@ -2556,8 +2641,9 @@
       <c r="L31" s="9"/>
       <c r="M31" s="35"/>
       <c r="N31" s="13"/>
-    </row>
-    <row r="32" spans="1:14" s="10" customFormat="1" ht="15">
+      <c r="O31" s="13"/>
+    </row>
+    <row r="32" spans="1:15" s="10" customFormat="1" ht="15">
       <c r="B32" s="8">
         <v>25</v>
       </c>
@@ -2573,8 +2659,9 @@
       <c r="L32" s="9"/>
       <c r="M32" s="35"/>
       <c r="N32" s="13"/>
-    </row>
-    <row r="33" spans="2:14" s="10" customFormat="1" ht="15">
+      <c r="O32" s="13"/>
+    </row>
+    <row r="33" spans="2:15" s="10" customFormat="1" ht="15">
       <c r="B33" s="8">
         <v>26</v>
       </c>
@@ -2590,8 +2677,9 @@
       <c r="L33" s="9"/>
       <c r="M33" s="35"/>
       <c r="N33" s="13"/>
-    </row>
-    <row r="34" spans="2:14" s="10" customFormat="1" ht="15">
+      <c r="O33" s="13"/>
+    </row>
+    <row r="34" spans="2:15" s="10" customFormat="1" ht="15">
       <c r="B34" s="8">
         <v>27</v>
       </c>
@@ -2607,8 +2695,9 @@
       <c r="L34" s="9"/>
       <c r="M34" s="35"/>
       <c r="N34" s="13"/>
-    </row>
-    <row r="35" spans="2:14" s="10" customFormat="1" ht="15">
+      <c r="O34" s="13"/>
+    </row>
+    <row r="35" spans="2:15" s="10" customFormat="1" ht="15">
       <c r="B35" s="8">
         <v>28</v>
       </c>
@@ -2624,8 +2713,9 @@
       <c r="L35" s="9"/>
       <c r="M35" s="35"/>
       <c r="N35" s="13"/>
-    </row>
-    <row r="36" spans="2:14" s="10" customFormat="1" ht="15">
+      <c r="O35" s="13"/>
+    </row>
+    <row r="36" spans="2:15" s="10" customFormat="1" ht="15">
       <c r="B36" s="8">
         <v>29</v>
       </c>
@@ -2641,8 +2731,9 @@
       <c r="L36" s="9"/>
       <c r="M36" s="35"/>
       <c r="N36" s="13"/>
-    </row>
-    <row r="37" spans="2:14" s="10" customFormat="1" ht="15">
+      <c r="O36" s="13"/>
+    </row>
+    <row r="37" spans="2:15" s="10" customFormat="1" ht="15">
       <c r="B37" s="8">
         <v>30</v>
       </c>
@@ -2658,8 +2749,9 @@
       <c r="L37" s="9"/>
       <c r="M37" s="35"/>
       <c r="N37" s="13"/>
-    </row>
-    <row r="38" spans="2:14" s="10" customFormat="1" ht="15">
+      <c r="O37" s="13"/>
+    </row>
+    <row r="38" spans="2:15" s="10" customFormat="1" ht="15">
       <c r="B38" s="8">
         <v>31</v>
       </c>
@@ -2675,8 +2767,9 @@
       <c r="L38" s="9"/>
       <c r="M38" s="35"/>
       <c r="N38" s="13"/>
-    </row>
-    <row r="39" spans="2:14" s="10" customFormat="1" ht="15">
+      <c r="O38" s="13"/>
+    </row>
+    <row r="39" spans="2:15" s="10" customFormat="1" ht="15">
       <c r="B39" s="8">
         <v>32</v>
       </c>
@@ -2692,8 +2785,9 @@
       <c r="L39" s="9"/>
       <c r="M39" s="35"/>
       <c r="N39" s="13"/>
-    </row>
-    <row r="40" spans="2:14" s="10" customFormat="1" ht="15">
+      <c r="O39" s="13"/>
+    </row>
+    <row r="40" spans="2:15" s="10" customFormat="1" ht="15">
       <c r="B40" s="8">
         <v>33</v>
       </c>
@@ -2709,8 +2803,9 @@
       <c r="L40" s="9"/>
       <c r="M40" s="35"/>
       <c r="N40" s="13"/>
-    </row>
-    <row r="41" spans="2:14" s="10" customFormat="1" ht="15">
+      <c r="O40" s="13"/>
+    </row>
+    <row r="41" spans="2:15" s="10" customFormat="1" ht="15">
       <c r="B41" s="8">
         <v>34</v>
       </c>
@@ -2726,8 +2821,9 @@
       <c r="L41" s="9"/>
       <c r="M41" s="35"/>
       <c r="N41" s="13"/>
-    </row>
-    <row r="42" spans="2:14" s="10" customFormat="1" ht="15">
+      <c r="O41" s="13"/>
+    </row>
+    <row r="42" spans="2:15" s="10" customFormat="1" ht="15">
       <c r="B42" s="8">
         <v>35</v>
       </c>
@@ -2743,8 +2839,9 @@
       <c r="L42" s="9"/>
       <c r="M42" s="35"/>
       <c r="N42" s="13"/>
-    </row>
-    <row r="43" spans="2:14" s="10" customFormat="1" ht="15">
+      <c r="O42" s="13"/>
+    </row>
+    <row r="43" spans="2:15" s="10" customFormat="1" ht="15">
       <c r="B43" s="8">
         <v>36</v>
       </c>
@@ -2760,8 +2857,9 @@
       <c r="L43" s="9"/>
       <c r="M43" s="35"/>
       <c r="N43" s="13"/>
-    </row>
-    <row r="44" spans="2:14" s="10" customFormat="1" ht="15">
+      <c r="O43" s="13"/>
+    </row>
+    <row r="44" spans="2:15" s="10" customFormat="1" ht="15">
       <c r="B44" s="8">
         <v>37</v>
       </c>
@@ -2777,8 +2875,9 @@
       <c r="L44" s="9"/>
       <c r="M44" s="35"/>
       <c r="N44" s="13"/>
-    </row>
-    <row r="45" spans="2:14" s="10" customFormat="1" ht="15">
+      <c r="O44" s="13"/>
+    </row>
+    <row r="45" spans="2:15" s="10" customFormat="1" ht="15">
       <c r="B45" s="8">
         <v>38</v>
       </c>
@@ -2794,8 +2893,9 @@
       <c r="L45" s="9"/>
       <c r="M45" s="35"/>
       <c r="N45" s="13"/>
-    </row>
-    <row r="46" spans="2:14" s="10" customFormat="1" ht="15">
+      <c r="O45" s="13"/>
+    </row>
+    <row r="46" spans="2:15" s="10" customFormat="1" ht="15">
       <c r="B46" s="8">
         <v>39</v>
       </c>
@@ -2811,8 +2911,9 @@
       <c r="L46" s="9"/>
       <c r="M46" s="35"/>
       <c r="N46" s="13"/>
-    </row>
-    <row r="47" spans="2:14" s="10" customFormat="1" ht="15">
+      <c r="O46" s="13"/>
+    </row>
+    <row r="47" spans="2:15" s="10" customFormat="1" ht="15">
       <c r="B47" s="8">
         <v>40</v>
       </c>
@@ -2828,8 +2929,9 @@
       <c r="L47" s="9"/>
       <c r="M47" s="35"/>
       <c r="N47" s="13"/>
-    </row>
-    <row r="48" spans="2:14" s="10" customFormat="1" ht="15">
+      <c r="O47" s="13"/>
+    </row>
+    <row r="48" spans="2:15" s="10" customFormat="1" ht="15">
       <c r="B48" s="8">
         <v>41</v>
       </c>
@@ -2845,8 +2947,9 @@
       <c r="L48" s="9"/>
       <c r="M48" s="35"/>
       <c r="N48" s="13"/>
-    </row>
-    <row r="49" spans="2:14" s="10" customFormat="1" ht="15">
+      <c r="O48" s="13"/>
+    </row>
+    <row r="49" spans="2:15" s="10" customFormat="1" ht="15">
       <c r="B49" s="8">
         <v>42</v>
       </c>
@@ -2862,8 +2965,9 @@
       <c r="L49" s="9"/>
       <c r="M49" s="35"/>
       <c r="N49" s="13"/>
-    </row>
-    <row r="50" spans="2:14" s="10" customFormat="1" ht="15">
+      <c r="O49" s="13"/>
+    </row>
+    <row r="50" spans="2:15" s="10" customFormat="1" ht="15">
       <c r="B50" s="8">
         <v>43</v>
       </c>
@@ -2879,8 +2983,9 @@
       <c r="L50" s="9"/>
       <c r="M50" s="35"/>
       <c r="N50" s="13"/>
-    </row>
-    <row r="51" spans="2:14" s="10" customFormat="1" ht="15">
+      <c r="O50" s="13"/>
+    </row>
+    <row r="51" spans="2:15" s="10" customFormat="1" ht="15">
       <c r="B51" s="8">
         <v>44</v>
       </c>
@@ -2896,8 +3001,9 @@
       <c r="L51" s="9"/>
       <c r="M51" s="35"/>
       <c r="N51" s="13"/>
-    </row>
-    <row r="52" spans="2:14" s="10" customFormat="1" ht="15">
+      <c r="O51" s="13"/>
+    </row>
+    <row r="52" spans="2:15" s="10" customFormat="1" ht="15">
       <c r="B52" s="8">
         <v>45</v>
       </c>
@@ -2913,8 +3019,9 @@
       <c r="L52" s="9"/>
       <c r="M52" s="35"/>
       <c r="N52" s="13"/>
-    </row>
-    <row r="53" spans="2:14" s="10" customFormat="1" ht="15">
+      <c r="O52" s="13"/>
+    </row>
+    <row r="53" spans="2:15" s="10" customFormat="1" ht="15">
       <c r="B53" s="8">
         <v>46</v>
       </c>
@@ -2930,8 +3037,9 @@
       <c r="L53" s="9"/>
       <c r="M53" s="35"/>
       <c r="N53" s="13"/>
-    </row>
-    <row r="54" spans="2:14" s="10" customFormat="1" ht="15">
+      <c r="O53" s="13"/>
+    </row>
+    <row r="54" spans="2:15" s="10" customFormat="1" ht="15">
       <c r="B54" s="8">
         <v>47</v>
       </c>
@@ -2947,8 +3055,9 @@
       <c r="L54" s="9"/>
       <c r="M54" s="35"/>
       <c r="N54" s="13"/>
-    </row>
-    <row r="55" spans="2:14" s="10" customFormat="1" ht="15">
+      <c r="O54" s="13"/>
+    </row>
+    <row r="55" spans="2:15" s="10" customFormat="1" ht="15">
       <c r="B55" s="8">
         <v>48</v>
       </c>
@@ -2964,8 +3073,9 @@
       <c r="L55" s="9"/>
       <c r="M55" s="35"/>
       <c r="N55" s="13"/>
-    </row>
-    <row r="56" spans="2:14" ht="15.75" thickBot="1">
+      <c r="O55" s="13"/>
+    </row>
+    <row r="56" spans="2:15" ht="15.75" thickBot="1">
       <c r="B56" s="7"/>
       <c r="C56" s="14"/>
       <c r="D56" s="14"/>
@@ -2979,9 +3089,11 @@
       <c r="L56" s="15"/>
       <c r="M56" s="15"/>
       <c r="N56" s="15"/>
+      <c r="O56" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="O4:O5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C4:K4"/>
@@ -2990,12 +3102,15 @@
     <mergeCell ref="B4:B5"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
-  <dataValidations count="2">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L7:L55">
       <formula1>"严重错误,必须修改,应该修改,选择修改"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M7:M55">
       <formula1>"高,中,低"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O8:O26">
+      <formula1>"Active,Resolve,Close"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documentation/Buglist.xlsx
+++ b/Documentation/Buglist.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="161">
   <si>
     <t>ID</t>
   </si>
@@ -469,10 +469,6 @@
     <t>低</t>
   </si>
   <si>
-    <t>选中一个审核过的和一个未审核过的信息,点击修改按钮时,修改页面没有特殊处理,应该显示未审核过的信息,而且如果此时修改,审核过的也会被修改</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>表中存在审核过于未审核过的信息</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
@@ -790,6 +786,18 @@
   </si>
   <si>
     <t>Close</t>
+  </si>
+  <si>
+    <t>选中一个审核过的和一个未审核过的信息,点击修改按钮时,修改页面没有特殊处理,应该显示未审核过的信息,而且如果此时修改,审核过的也会被修改</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个是之前定的需求，如果需要可以修改</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有再现</t>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -891,7 +899,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -936,13 +944,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC00000"/>
+        <fgColor theme="1" tint="4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1" tint="4.9989318521683403E-2"/>
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1108,7 +1128,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1231,11 +1251,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1263,8 +1282,23 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1626,7 +1660,7 @@
   <dimension ref="A2:O56"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1647,7 +1681,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" s="1" customFormat="1" ht="25.5">
-      <c r="B2" s="53"/>
+      <c r="B2" s="52"/>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
@@ -1663,7 +1697,7 @@
       <c r="O2" s="2"/>
     </row>
     <row r="3" spans="1:15" s="1" customFormat="1" ht="26.25" thickBot="1">
-      <c r="B3" s="54"/>
+      <c r="B3" s="53"/>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -1679,35 +1713,35 @@
       <c r="O3" s="2"/>
     </row>
     <row r="4" spans="1:15" s="5" customFormat="1" ht="14.25">
-      <c r="B4" s="58" t="s">
+      <c r="B4" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="55" t="s">
+      <c r="C4" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="56"/>
-      <c r="L4" s="51" t="s">
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="55"/>
+      <c r="L4" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="M4" s="51" t="s">
+      <c r="M4" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="N4" s="51" t="s">
+      <c r="N4" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="O4" s="51" t="s">
-        <v>154</v>
+      <c r="O4" s="50" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:15" s="5" customFormat="1" ht="14.25">
-      <c r="B5" s="59"/>
+      <c r="B5" s="58"/>
       <c r="C5" s="16" t="s">
         <v>1</v>
       </c>
@@ -1735,10 +1769,10 @@
       <c r="K5" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="L5" s="57"/>
-      <c r="M5" s="52"/>
-      <c r="N5" s="52"/>
-      <c r="O5" s="52"/>
+      <c r="L5" s="56"/>
+      <c r="M5" s="51"/>
+      <c r="N5" s="51"/>
+      <c r="O5" s="51"/>
     </row>
     <row r="6" spans="1:15" s="11" customFormat="1" ht="90">
       <c r="B6" s="29" t="s">
@@ -1781,7 +1815,7 @@
         <v>46</v>
       </c>
       <c r="O6" s="30" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7" spans="1:15" s="11" customFormat="1" ht="135" hidden="1">
@@ -1825,7 +1859,7 @@
         <v>51</v>
       </c>
       <c r="O7" s="31" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:15" s="11" customFormat="1" ht="90">
@@ -1833,7 +1867,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D8" s="13" t="s">
         <v>53</v>
@@ -1867,7 +1901,7 @@
       </c>
       <c r="N8" s="13"/>
       <c r="O8" s="35" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="9" spans="1:15" s="10" customFormat="1" ht="60">
@@ -1875,7 +1909,7 @@
         <v>2</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D9" s="13" t="s">
         <v>61</v>
@@ -1909,11 +1943,11 @@
       </c>
       <c r="N9" s="13"/>
       <c r="O9" s="35" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="10" spans="1:15" s="41" customFormat="1" ht="165">
-      <c r="A10" s="48"/>
+      <c r="A10" s="61"/>
       <c r="B10" s="38">
         <v>3</v>
       </c>
@@ -1952,7 +1986,7 @@
       </c>
       <c r="N10" s="37"/>
       <c r="O10" s="35" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="11" spans="1:15" s="12" customFormat="1" ht="105">
@@ -1977,7 +2011,7 @@
       <c r="H11" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="I11" s="60">
+      <c r="I11" s="49">
         <v>1</v>
       </c>
       <c r="J11" s="26" t="s">
@@ -1994,7 +2028,7 @@
       </c>
       <c r="N11" s="26"/>
       <c r="O11" s="28" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:15" s="10" customFormat="1" ht="60">
@@ -2023,7 +2057,7 @@
         <v>1</v>
       </c>
       <c r="J12" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K12" s="13" t="s">
         <v>68</v>
@@ -2036,36 +2070,37 @@
       </c>
       <c r="N12" s="13"/>
       <c r="O12" s="35" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="13" spans="1:15" s="42" customFormat="1" ht="120">
+      <c r="A13" s="59"/>
       <c r="B13" s="38">
         <v>6</v>
       </c>
       <c r="C13" s="37" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D13" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="E13" s="37" t="s">
         <v>90</v>
       </c>
-      <c r="E13" s="37" t="s">
+      <c r="F13" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="G13" s="37" t="s">
         <v>91</v>
       </c>
-      <c r="F13" s="37" t="s">
-        <v>98</v>
-      </c>
-      <c r="G13" s="37" t="s">
+      <c r="H13" s="37" t="s">
         <v>92</v>
-      </c>
-      <c r="H13" s="37" t="s">
-        <v>93</v>
       </c>
       <c r="I13" s="39">
         <v>1</v>
       </c>
       <c r="J13" s="37" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K13" s="37" t="s">
         <v>68</v>
@@ -2078,49 +2113,50 @@
       </c>
       <c r="N13" s="37"/>
       <c r="O13" s="35" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="14" spans="1:15" s="42" customFormat="1" ht="120">
+      <c r="A14" s="60"/>
       <c r="B14" s="38">
         <v>7</v>
       </c>
       <c r="C14" s="37" t="s">
+        <v>95</v>
+      </c>
+      <c r="D14" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="D14" s="37" t="s">
-        <v>97</v>
-      </c>
       <c r="E14" s="37" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F14" s="37" t="s">
+        <v>99</v>
+      </c>
+      <c r="G14" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="H14" s="37" t="s">
         <v>100</v>
-      </c>
-      <c r="G14" s="39" t="s">
-        <v>99</v>
-      </c>
-      <c r="H14" s="37" t="s">
-        <v>101</v>
       </c>
       <c r="I14" s="39">
         <v>1</v>
       </c>
       <c r="J14" s="37" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K14" s="37" t="s">
         <v>67</v>
       </c>
       <c r="L14" s="40" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M14" s="40" t="s">
         <v>44</v>
       </c>
       <c r="N14" s="37"/>
       <c r="O14" s="35" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="15" spans="1:15" s="47" customFormat="1" ht="90">
@@ -2128,28 +2164,28 @@
         <v>8</v>
       </c>
       <c r="C15" s="44" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D15" s="44" t="s">
+        <v>105</v>
+      </c>
+      <c r="E15" s="44" t="s">
+        <v>104</v>
+      </c>
+      <c r="F15" s="44" t="s">
+        <v>109</v>
+      </c>
+      <c r="G15" s="45" t="s">
         <v>106</v>
       </c>
-      <c r="E15" s="44" t="s">
-        <v>105</v>
-      </c>
-      <c r="F15" s="44" t="s">
-        <v>110</v>
-      </c>
-      <c r="G15" s="45" t="s">
+      <c r="H15" s="44" t="s">
         <v>107</v>
-      </c>
-      <c r="H15" s="44" t="s">
-        <v>108</v>
       </c>
       <c r="I15" s="45">
         <v>1</v>
       </c>
       <c r="J15" s="44" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K15" s="44" t="s">
         <v>67</v>
@@ -2162,7 +2198,7 @@
       </c>
       <c r="N15" s="44"/>
       <c r="O15" s="35" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="90">
@@ -2170,28 +2206,28 @@
         <v>9</v>
       </c>
       <c r="C16" s="26" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D16" s="26" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E16" s="26" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F16" s="26" t="s">
-        <v>116</v>
-      </c>
-      <c r="G16" s="60" t="s">
+        <v>115</v>
+      </c>
+      <c r="G16" s="49" t="s">
+        <v>110</v>
+      </c>
+      <c r="H16" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="H16" s="26" t="s">
-        <v>112</v>
-      </c>
-      <c r="I16" s="60">
+      <c r="I16" s="49">
         <v>1</v>
       </c>
       <c r="J16" s="26" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K16" s="26" t="s">
         <v>67</v>
@@ -2204,7 +2240,7 @@
       </c>
       <c r="N16" s="26"/>
       <c r="O16" s="28" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="17" spans="1:15" s="10" customFormat="1" ht="75">
@@ -2212,28 +2248,28 @@
         <v>10</v>
       </c>
       <c r="C17" s="26" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D17" s="26" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E17" s="26" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F17" s="26" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G17" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="H17" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="H17" s="26" t="s">
-        <v>118</v>
-      </c>
-      <c r="I17" s="60">
+      <c r="I17" s="49">
         <v>1</v>
       </c>
       <c r="J17" s="26" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K17" s="26" t="s">
         <v>67</v>
@@ -2246,37 +2282,37 @@
       </c>
       <c r="N17" s="26"/>
       <c r="O17" s="28" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="18" spans="1:15" s="42" customFormat="1" ht="90">
-      <c r="A18" s="49"/>
+      <c r="A18" s="60"/>
       <c r="B18" s="38">
         <v>11</v>
       </c>
       <c r="C18" s="37" t="s">
+        <v>119</v>
+      </c>
+      <c r="D18" s="37" t="s">
+        <v>122</v>
+      </c>
+      <c r="E18" s="37" t="s">
         <v>120</v>
       </c>
-      <c r="D18" s="37" t="s">
+      <c r="F18" s="37" t="s">
+        <v>121</v>
+      </c>
+      <c r="G18" s="37" t="s">
         <v>123</v>
       </c>
-      <c r="E18" s="37" t="s">
-        <v>121</v>
-      </c>
-      <c r="F18" s="37" t="s">
-        <v>122</v>
-      </c>
-      <c r="G18" s="37" t="s">
+      <c r="H18" s="37" t="s">
         <v>124</v>
-      </c>
-      <c r="H18" s="37" t="s">
-        <v>125</v>
       </c>
       <c r="I18" s="39">
         <v>1</v>
       </c>
       <c r="J18" s="37" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K18" s="37" t="s">
         <v>67</v>
@@ -2289,7 +2325,7 @@
       </c>
       <c r="N18" s="37"/>
       <c r="O18" s="35" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="19" spans="1:15" s="10" customFormat="1" ht="75">
@@ -2297,28 +2333,28 @@
         <v>12</v>
       </c>
       <c r="C19" s="26" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D19" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="E19" s="26" t="s">
         <v>126</v>
       </c>
-      <c r="E19" s="26" t="s">
-        <v>127</v>
-      </c>
       <c r="F19" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="G19" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="G19" s="26" t="s">
+      <c r="H19" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="H19" s="26" t="s">
-        <v>131</v>
-      </c>
-      <c r="I19" s="60">
+      <c r="I19" s="49">
         <v>1</v>
       </c>
       <c r="J19" s="26" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K19" s="26" t="s">
         <v>67</v>
@@ -2331,7 +2367,7 @@
       </c>
       <c r="N19" s="26"/>
       <c r="O19" s="28" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="20" spans="1:15" s="10" customFormat="1" ht="90">
@@ -2339,28 +2375,28 @@
         <v>13</v>
       </c>
       <c r="C20" s="26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D20" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="E20" s="26" t="s">
         <v>134</v>
       </c>
-      <c r="E20" s="26" t="s">
+      <c r="F20" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="G20" s="26" t="s">
         <v>135</v>
       </c>
-      <c r="F20" s="26" t="s">
-        <v>141</v>
-      </c>
-      <c r="G20" s="26" t="s">
+      <c r="H20" s="26" t="s">
         <v>136</v>
       </c>
-      <c r="H20" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="I20" s="60">
+      <c r="I20" s="49">
         <v>1</v>
       </c>
       <c r="J20" s="26" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K20" s="26" t="s">
         <v>67</v>
@@ -2373,59 +2409,59 @@
       </c>
       <c r="N20" s="26"/>
       <c r="O20" s="28" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="21" spans="1:15" s="42" customFormat="1" ht="165">
-      <c r="A21" s="50"/>
+      <c r="A21" s="48"/>
       <c r="B21" s="38">
         <v>14</v>
       </c>
       <c r="C21" s="37" t="s">
+        <v>137</v>
+      </c>
+      <c r="D21" s="37" t="s">
         <v>138</v>
       </c>
-      <c r="D21" s="37" t="s">
+      <c r="E21" s="37" t="s">
         <v>139</v>
       </c>
-      <c r="E21" s="37" t="s">
-        <v>140</v>
-      </c>
       <c r="F21" s="37" t="s">
+        <v>141</v>
+      </c>
+      <c r="G21" s="37" t="s">
         <v>142</v>
       </c>
-      <c r="G21" s="37" t="s">
+      <c r="H21" s="37" t="s">
         <v>143</v>
-      </c>
-      <c r="H21" s="37" t="s">
-        <v>144</v>
       </c>
       <c r="I21" s="39">
         <v>1</v>
       </c>
       <c r="J21" s="37" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K21" s="37" t="s">
         <v>67</v>
       </c>
       <c r="L21" s="40" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M21" s="40" t="s">
         <v>89</v>
       </c>
       <c r="N21" s="37"/>
       <c r="O21" s="35" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="22" spans="1:15" s="42" customFormat="1" ht="45">
-      <c r="A22" s="50"/>
+      <c r="A22" s="48"/>
       <c r="B22" s="38">
         <v>15</v>
       </c>
       <c r="C22" s="37" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D22" s="37"/>
       <c r="E22" s="37"/>
@@ -2436,23 +2472,23 @@
       <c r="J22" s="37"/>
       <c r="K22" s="37"/>
       <c r="L22" s="40" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M22" s="40" t="s">
         <v>89</v>
       </c>
       <c r="N22" s="37"/>
       <c r="O22" s="35" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="23" spans="1:15" s="42" customFormat="1" ht="30">
-      <c r="A23" s="50"/>
+      <c r="A23" s="48"/>
       <c r="B23" s="38">
         <v>16</v>
       </c>
       <c r="C23" s="37" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D23" s="37"/>
       <c r="E23" s="37"/>
@@ -2463,14 +2499,14 @@
       <c r="J23" s="37"/>
       <c r="K23" s="37"/>
       <c r="L23" s="40" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M23" s="40" t="s">
         <v>89</v>
       </c>
       <c r="N23" s="37"/>
       <c r="O23" s="35" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="24" spans="1:15" s="42" customFormat="1" ht="90">
@@ -2478,7 +2514,7 @@
         <v>17</v>
       </c>
       <c r="C24" s="37" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D24" s="37"/>
       <c r="E24" s="37"/>
@@ -2489,40 +2525,42 @@
       <c r="J24" s="37"/>
       <c r="K24" s="37"/>
       <c r="L24" s="40" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M24" s="40" t="s">
         <v>60</v>
       </c>
       <c r="N24" s="37"/>
       <c r="O24" s="35" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" s="42" customFormat="1" ht="45">
-      <c r="B25" s="38">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" s="62" customFormat="1" ht="45">
+      <c r="B25" s="63">
         <v>18</v>
       </c>
-      <c r="C25" s="37" t="s">
-        <v>148</v>
-      </c>
-      <c r="D25" s="37"/>
-      <c r="E25" s="37"/>
-      <c r="F25" s="37"/>
-      <c r="G25" s="37"/>
-      <c r="H25" s="37"/>
-      <c r="I25" s="39"/>
-      <c r="J25" s="37"/>
-      <c r="K25" s="37"/>
-      <c r="L25" s="40" t="s">
-        <v>145</v>
-      </c>
-      <c r="M25" s="40" t="s">
+      <c r="C25" s="64" t="s">
+        <v>147</v>
+      </c>
+      <c r="D25" s="64"/>
+      <c r="E25" s="64" t="s">
+        <v>159</v>
+      </c>
+      <c r="F25" s="64"/>
+      <c r="G25" s="64"/>
+      <c r="H25" s="64"/>
+      <c r="I25" s="65"/>
+      <c r="J25" s="64"/>
+      <c r="K25" s="64"/>
+      <c r="L25" s="66" t="s">
+        <v>144</v>
+      </c>
+      <c r="M25" s="66" t="s">
         <v>60</v>
       </c>
-      <c r="N25" s="37"/>
-      <c r="O25" s="35" t="s">
-        <v>156</v>
+      <c r="N25" s="64"/>
+      <c r="O25" s="66" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="26" spans="1:15" s="42" customFormat="1" ht="90">
@@ -2530,7 +2568,7 @@
         <v>19</v>
       </c>
       <c r="C26" s="37" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D26" s="37"/>
       <c r="E26" s="37"/>
@@ -2548,28 +2586,30 @@
       </c>
       <c r="N26" s="37"/>
       <c r="O26" s="35" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" s="42" customFormat="1" ht="60">
-      <c r="B27" s="38">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" s="62" customFormat="1" ht="60">
+      <c r="B27" s="63">
         <v>20</v>
       </c>
-      <c r="C27" s="37" t="s">
-        <v>151</v>
-      </c>
-      <c r="D27" s="37"/>
-      <c r="E27" s="37"/>
-      <c r="F27" s="37"/>
-      <c r="G27" s="37"/>
-      <c r="H27" s="37"/>
-      <c r="I27" s="39"/>
-      <c r="J27" s="37"/>
-      <c r="K27" s="37"/>
-      <c r="L27" s="40"/>
-      <c r="M27" s="40"/>
-      <c r="N27" s="37"/>
-      <c r="O27" s="37"/>
+      <c r="C27" s="64" t="s">
+        <v>150</v>
+      </c>
+      <c r="D27" s="64"/>
+      <c r="E27" s="64" t="s">
+        <v>160</v>
+      </c>
+      <c r="F27" s="64"/>
+      <c r="G27" s="64"/>
+      <c r="H27" s="64"/>
+      <c r="I27" s="65"/>
+      <c r="J27" s="64"/>
+      <c r="K27" s="64"/>
+      <c r="L27" s="66"/>
+      <c r="M27" s="66"/>
+      <c r="N27" s="64"/>
+      <c r="O27" s="64"/>
     </row>
     <row r="28" spans="1:15" s="10" customFormat="1" ht="15">
       <c r="B28" s="8">

--- a/Documentation/Buglist.xlsx
+++ b/Documentation/Buglist.xlsx
@@ -1255,33 +1255,6 @@
     <xf numFmtId="9" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1299,6 +1272,33 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1659,8 +1659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:O56"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A23" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1681,7 +1681,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" s="1" customFormat="1" ht="25.5">
-      <c r="B2" s="52"/>
+      <c r="B2" s="60"/>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
@@ -1697,7 +1697,7 @@
       <c r="O2" s="2"/>
     </row>
     <row r="3" spans="1:15" s="1" customFormat="1" ht="26.25" thickBot="1">
-      <c r="B3" s="53"/>
+      <c r="B3" s="61"/>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -1713,35 +1713,35 @@
       <c r="O3" s="2"/>
     </row>
     <row r="4" spans="1:15" s="5" customFormat="1" ht="14.25">
-      <c r="B4" s="57" t="s">
+      <c r="B4" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="54" t="s">
+      <c r="C4" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="55"/>
-      <c r="L4" s="50" t="s">
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="63"/>
+      <c r="K4" s="63"/>
+      <c r="L4" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="M4" s="50" t="s">
+      <c r="M4" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="N4" s="50" t="s">
+      <c r="N4" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="O4" s="50" t="s">
+      <c r="O4" s="58" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:15" s="5" customFormat="1" ht="14.25">
-      <c r="B5" s="58"/>
+      <c r="B5" s="66"/>
       <c r="C5" s="16" t="s">
         <v>1</v>
       </c>
@@ -1769,10 +1769,10 @@
       <c r="K5" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="L5" s="56"/>
-      <c r="M5" s="51"/>
-      <c r="N5" s="51"/>
-      <c r="O5" s="51"/>
+      <c r="L5" s="64"/>
+      <c r="M5" s="59"/>
+      <c r="N5" s="59"/>
+      <c r="O5" s="59"/>
     </row>
     <row r="6" spans="1:15" s="11" customFormat="1" ht="90">
       <c r="B6" s="29" t="s">
@@ -1947,7 +1947,7 @@
       </c>
     </row>
     <row r="10" spans="1:15" s="41" customFormat="1" ht="165">
-      <c r="A10" s="61"/>
+      <c r="A10" s="52"/>
       <c r="B10" s="38">
         <v>3</v>
       </c>
@@ -2074,7 +2074,7 @@
       </c>
     </row>
     <row r="13" spans="1:15" s="42" customFormat="1" ht="120">
-      <c r="A13" s="59"/>
+      <c r="A13" s="50"/>
       <c r="B13" s="38">
         <v>6</v>
       </c>
@@ -2117,7 +2117,7 @@
       </c>
     </row>
     <row r="14" spans="1:15" s="42" customFormat="1" ht="120">
-      <c r="A14" s="60"/>
+      <c r="A14" s="51"/>
       <c r="B14" s="38">
         <v>7</v>
       </c>
@@ -2286,7 +2286,7 @@
       </c>
     </row>
     <row r="18" spans="1:15" s="42" customFormat="1" ht="90">
-      <c r="A18" s="60"/>
+      <c r="A18" s="51"/>
       <c r="B18" s="38">
         <v>11</v>
       </c>
@@ -2510,6 +2510,7 @@
       </c>
     </row>
     <row r="24" spans="1:15" s="42" customFormat="1" ht="90">
+      <c r="A24" s="50"/>
       <c r="B24" s="38">
         <v>17</v>
       </c>
@@ -2535,31 +2536,31 @@
         <v>155</v>
       </c>
     </row>
-    <row r="25" spans="1:15" s="62" customFormat="1" ht="45">
-      <c r="B25" s="63">
+    <row r="25" spans="1:15" s="53" customFormat="1" ht="45">
+      <c r="B25" s="54">
         <v>18</v>
       </c>
-      <c r="C25" s="64" t="s">
+      <c r="C25" s="55" t="s">
         <v>147</v>
       </c>
-      <c r="D25" s="64"/>
-      <c r="E25" s="64" t="s">
+      <c r="D25" s="55"/>
+      <c r="E25" s="55" t="s">
         <v>159</v>
       </c>
-      <c r="F25" s="64"/>
-      <c r="G25" s="64"/>
-      <c r="H25" s="64"/>
-      <c r="I25" s="65"/>
-      <c r="J25" s="64"/>
-      <c r="K25" s="64"/>
-      <c r="L25" s="66" t="s">
+      <c r="F25" s="55"/>
+      <c r="G25" s="55"/>
+      <c r="H25" s="55"/>
+      <c r="I25" s="56"/>
+      <c r="J25" s="55"/>
+      <c r="K25" s="55"/>
+      <c r="L25" s="57" t="s">
         <v>144</v>
       </c>
-      <c r="M25" s="66" t="s">
+      <c r="M25" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="N25" s="64"/>
-      <c r="O25" s="66" t="s">
+      <c r="N25" s="55"/>
+      <c r="O25" s="57" t="s">
         <v>155</v>
       </c>
     </row>
@@ -2589,27 +2590,27 @@
         <v>155</v>
       </c>
     </row>
-    <row r="27" spans="1:15" s="62" customFormat="1" ht="60">
-      <c r="B27" s="63">
+    <row r="27" spans="1:15" s="53" customFormat="1" ht="60">
+      <c r="B27" s="54">
         <v>20</v>
       </c>
-      <c r="C27" s="64" t="s">
+      <c r="C27" s="55" t="s">
         <v>150</v>
       </c>
-      <c r="D27" s="64"/>
-      <c r="E27" s="64" t="s">
+      <c r="D27" s="55"/>
+      <c r="E27" s="55" t="s">
         <v>160</v>
       </c>
-      <c r="F27" s="64"/>
-      <c r="G27" s="64"/>
-      <c r="H27" s="64"/>
-      <c r="I27" s="65"/>
-      <c r="J27" s="64"/>
-      <c r="K27" s="64"/>
-      <c r="L27" s="66"/>
-      <c r="M27" s="66"/>
-      <c r="N27" s="64"/>
-      <c r="O27" s="64"/>
+      <c r="F27" s="55"/>
+      <c r="G27" s="55"/>
+      <c r="H27" s="55"/>
+      <c r="I27" s="56"/>
+      <c r="J27" s="55"/>
+      <c r="K27" s="55"/>
+      <c r="L27" s="57"/>
+      <c r="M27" s="57"/>
+      <c r="N27" s="55"/>
+      <c r="O27" s="55"/>
     </row>
     <row r="28" spans="1:15" s="10" customFormat="1" ht="15">
       <c r="B28" s="8">

--- a/Documentation/Buglist.xlsx
+++ b/Documentation/Buglist.xlsx
@@ -755,10 +755,6 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>生产日期审核后，投产日期就不可以修改了，同样包装日期审核后，出厂日期就不可以修改了</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>销售订单添加页面中的合同号Label显示为空白</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
@@ -797,6 +793,10 @@
   </si>
   <si>
     <t>没有再现</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产日期审核后，投产日期就不可以修改了，同样包装日期审核后，出厂日期就不可以修改了</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -938,12 +938,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="1" tint="4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -963,6 +957,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1128,7 +1128,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1238,39 +1238,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="6" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1300,6 +1284,11 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Normal 8" xfId="2"/>
@@ -1659,9 +1648,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:O56"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A23" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -1681,7 +1668,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" s="1" customFormat="1" ht="25.5">
-      <c r="B2" s="60"/>
+      <c r="B2" s="54"/>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
@@ -1697,7 +1684,7 @@
       <c r="O2" s="2"/>
     </row>
     <row r="3" spans="1:15" s="1" customFormat="1" ht="26.25" thickBot="1">
-      <c r="B3" s="61"/>
+      <c r="B3" s="55"/>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -1713,35 +1700,35 @@
       <c r="O3" s="2"/>
     </row>
     <row r="4" spans="1:15" s="5" customFormat="1" ht="14.25">
-      <c r="B4" s="65" t="s">
+      <c r="B4" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="62" t="s">
+      <c r="C4" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
-      <c r="J4" s="63"/>
-      <c r="K4" s="63"/>
-      <c r="L4" s="58" t="s">
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="M4" s="58" t="s">
+      <c r="M4" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="N4" s="58" t="s">
+      <c r="N4" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="O4" s="58" t="s">
-        <v>153</v>
+      <c r="O4" s="52" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:15" s="5" customFormat="1" ht="14.25">
-      <c r="B5" s="66"/>
+      <c r="B5" s="60"/>
       <c r="C5" s="16" t="s">
         <v>1</v>
       </c>
@@ -1769,10 +1756,10 @@
       <c r="K5" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="L5" s="64"/>
-      <c r="M5" s="59"/>
-      <c r="N5" s="59"/>
-      <c r="O5" s="59"/>
+      <c r="L5" s="58"/>
+      <c r="M5" s="53"/>
+      <c r="N5" s="53"/>
+      <c r="O5" s="53"/>
     </row>
     <row r="6" spans="1:15" s="11" customFormat="1" ht="90">
       <c r="B6" s="29" t="s">
@@ -1815,7 +1802,7 @@
         <v>46</v>
       </c>
       <c r="O6" s="30" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="7" spans="1:15" s="11" customFormat="1" ht="135" hidden="1">
@@ -1859,7 +1846,7 @@
         <v>51</v>
       </c>
       <c r="O7" s="31" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="8" spans="1:15" s="11" customFormat="1" ht="90">
@@ -1867,7 +1854,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D8" s="13" t="s">
         <v>53</v>
@@ -1901,7 +1888,7 @@
       </c>
       <c r="N8" s="13"/>
       <c r="O8" s="35" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" spans="1:15" s="10" customFormat="1" ht="60">
@@ -1909,7 +1896,7 @@
         <v>2</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D9" s="13" t="s">
         <v>61</v>
@@ -1943,11 +1930,11 @@
       </c>
       <c r="N9" s="13"/>
       <c r="O9" s="35" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="10" spans="1:15" s="41" customFormat="1" ht="165">
-      <c r="A10" s="52"/>
+      <c r="A10" s="61"/>
       <c r="B10" s="38">
         <v>3</v>
       </c>
@@ -1986,7 +1973,7 @@
       </c>
       <c r="N10" s="37"/>
       <c r="O10" s="35" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11" spans="1:15" s="12" customFormat="1" ht="105">
@@ -2011,7 +1998,7 @@
       <c r="H11" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="I11" s="49">
+      <c r="I11" s="44">
         <v>1</v>
       </c>
       <c r="J11" s="26" t="s">
@@ -2028,7 +2015,7 @@
       </c>
       <c r="N11" s="26"/>
       <c r="O11" s="28" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12" spans="1:15" s="10" customFormat="1" ht="60">
@@ -2070,11 +2057,11 @@
       </c>
       <c r="N12" s="13"/>
       <c r="O12" s="35" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="13" spans="1:15" s="42" customFormat="1" ht="120">
-      <c r="A13" s="50"/>
+      <c r="A13" s="45"/>
       <c r="B13" s="38">
         <v>6</v>
       </c>
@@ -2082,7 +2069,7 @@
         <v>94</v>
       </c>
       <c r="D13" s="37" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E13" s="37" t="s">
         <v>90</v>
@@ -2113,11 +2100,11 @@
       </c>
       <c r="N13" s="37"/>
       <c r="O13" s="35" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="14" spans="1:15" s="42" customFormat="1" ht="120">
-      <c r="A14" s="51"/>
+      <c r="A14" s="45"/>
       <c r="B14" s="38">
         <v>7</v>
       </c>
@@ -2156,49 +2143,50 @@
       </c>
       <c r="N14" s="37"/>
       <c r="O14" s="35" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" s="47" customFormat="1" ht="90">
-      <c r="B15" s="43">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" s="63" customFormat="1" ht="90">
+      <c r="A15" s="62"/>
+      <c r="B15" s="38">
         <v>8</v>
       </c>
-      <c r="C15" s="44" t="s">
+      <c r="C15" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="D15" s="44" t="s">
+      <c r="D15" s="37" t="s">
         <v>105</v>
       </c>
-      <c r="E15" s="44" t="s">
+      <c r="E15" s="37" t="s">
         <v>104</v>
       </c>
-      <c r="F15" s="44" t="s">
+      <c r="F15" s="37" t="s">
         <v>109</v>
       </c>
-      <c r="G15" s="45" t="s">
+      <c r="G15" s="39" t="s">
         <v>106</v>
       </c>
-      <c r="H15" s="44" t="s">
+      <c r="H15" s="37" t="s">
         <v>107</v>
       </c>
-      <c r="I15" s="45">
+      <c r="I15" s="39">
         <v>1</v>
       </c>
-      <c r="J15" s="44" t="s">
+      <c r="J15" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="K15" s="44" t="s">
+      <c r="K15" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="L15" s="46" t="s">
+      <c r="L15" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="M15" s="46" t="s">
+      <c r="M15" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="N15" s="44"/>
-      <c r="O15" s="35" t="s">
-        <v>155</v>
+      <c r="N15" s="37"/>
+      <c r="O15" s="40" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="90">
@@ -2217,13 +2205,13 @@
       <c r="F16" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="G16" s="49" t="s">
+      <c r="G16" s="44" t="s">
         <v>110</v>
       </c>
       <c r="H16" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="I16" s="49">
+      <c r="I16" s="44">
         <v>1</v>
       </c>
       <c r="J16" s="26" t="s">
@@ -2240,7 +2228,7 @@
       </c>
       <c r="N16" s="26"/>
       <c r="O16" s="28" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="17" spans="1:15" s="10" customFormat="1" ht="75">
@@ -2265,7 +2253,7 @@
       <c r="H17" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="I17" s="49">
+      <c r="I17" s="44">
         <v>1</v>
       </c>
       <c r="J17" s="26" t="s">
@@ -2282,11 +2270,11 @@
       </c>
       <c r="N17" s="26"/>
       <c r="O17" s="28" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="18" spans="1:15" s="42" customFormat="1" ht="90">
-      <c r="A18" s="51"/>
+      <c r="A18" s="46"/>
       <c r="B18" s="38">
         <v>11</v>
       </c>
@@ -2325,7 +2313,7 @@
       </c>
       <c r="N18" s="37"/>
       <c r="O18" s="35" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="19" spans="1:15" s="10" customFormat="1" ht="75">
@@ -2350,7 +2338,7 @@
       <c r="H19" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="I19" s="49">
+      <c r="I19" s="44">
         <v>1</v>
       </c>
       <c r="J19" s="26" t="s">
@@ -2367,7 +2355,7 @@
       </c>
       <c r="N19" s="26"/>
       <c r="O19" s="28" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="20" spans="1:15" s="10" customFormat="1" ht="90">
@@ -2392,7 +2380,7 @@
       <c r="H20" s="26" t="s">
         <v>136</v>
       </c>
-      <c r="I20" s="49">
+      <c r="I20" s="44">
         <v>1</v>
       </c>
       <c r="J20" s="26" t="s">
@@ -2409,11 +2397,11 @@
       </c>
       <c r="N20" s="26"/>
       <c r="O20" s="28" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="21" spans="1:15" s="42" customFormat="1" ht="165">
-      <c r="A21" s="48"/>
+      <c r="A21" s="43"/>
       <c r="B21" s="38">
         <v>14</v>
       </c>
@@ -2452,11 +2440,11 @@
       </c>
       <c r="N21" s="37"/>
       <c r="O21" s="35" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="22" spans="1:15" s="42" customFormat="1" ht="45">
-      <c r="A22" s="48"/>
+      <c r="A22" s="43"/>
       <c r="B22" s="38">
         <v>15</v>
       </c>
@@ -2479,11 +2467,11 @@
       </c>
       <c r="N22" s="37"/>
       <c r="O22" s="35" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="23" spans="1:15" s="42" customFormat="1" ht="30">
-      <c r="A23" s="48"/>
+      <c r="A23" s="43"/>
       <c r="B23" s="38">
         <v>16</v>
       </c>
@@ -2506,11 +2494,11 @@
       </c>
       <c r="N23" s="37"/>
       <c r="O23" s="35" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="24" spans="1:15" s="42" customFormat="1" ht="90">
-      <c r="A24" s="50"/>
+      <c r="A24" s="45"/>
       <c r="B24" s="38">
         <v>17</v>
       </c>
@@ -2533,38 +2521,39 @@
       </c>
       <c r="N24" s="37"/>
       <c r="O24" s="35" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" s="53" customFormat="1" ht="45">
-      <c r="B25" s="54">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" s="47" customFormat="1" ht="45">
+      <c r="B25" s="48">
         <v>18</v>
       </c>
-      <c r="C25" s="55" t="s">
+      <c r="C25" s="49" t="s">
         <v>147</v>
       </c>
-      <c r="D25" s="55"/>
-      <c r="E25" s="55" t="s">
-        <v>159</v>
-      </c>
-      <c r="F25" s="55"/>
-      <c r="G25" s="55"/>
-      <c r="H25" s="55"/>
-      <c r="I25" s="56"/>
-      <c r="J25" s="55"/>
-      <c r="K25" s="55"/>
-      <c r="L25" s="57" t="s">
+      <c r="D25" s="49"/>
+      <c r="E25" s="49" t="s">
+        <v>158</v>
+      </c>
+      <c r="F25" s="49"/>
+      <c r="G25" s="49"/>
+      <c r="H25" s="49"/>
+      <c r="I25" s="50"/>
+      <c r="J25" s="49"/>
+      <c r="K25" s="49"/>
+      <c r="L25" s="51" t="s">
         <v>144</v>
       </c>
-      <c r="M25" s="57" t="s">
+      <c r="M25" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="N25" s="55"/>
-      <c r="O25" s="57" t="s">
-        <v>155</v>
+      <c r="N25" s="49"/>
+      <c r="O25" s="51" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="26" spans="1:15" s="42" customFormat="1" ht="90">
+      <c r="A26" s="45"/>
       <c r="B26" s="38">
         <v>19</v>
       </c>
@@ -2587,30 +2576,30 @@
       </c>
       <c r="N26" s="37"/>
       <c r="O26" s="35" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" s="53" customFormat="1" ht="60">
-      <c r="B27" s="54">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" s="47" customFormat="1" ht="60">
+      <c r="B27" s="48">
         <v>20</v>
       </c>
-      <c r="C27" s="55" t="s">
-        <v>150</v>
-      </c>
-      <c r="D27" s="55"/>
-      <c r="E27" s="55" t="s">
+      <c r="C27" s="49" t="s">
         <v>160</v>
       </c>
-      <c r="F27" s="55"/>
-      <c r="G27" s="55"/>
-      <c r="H27" s="55"/>
-      <c r="I27" s="56"/>
-      <c r="J27" s="55"/>
-      <c r="K27" s="55"/>
-      <c r="L27" s="57"/>
-      <c r="M27" s="57"/>
-      <c r="N27" s="55"/>
-      <c r="O27" s="55"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="49" t="s">
+        <v>159</v>
+      </c>
+      <c r="F27" s="49"/>
+      <c r="G27" s="49"/>
+      <c r="H27" s="49"/>
+      <c r="I27" s="50"/>
+      <c r="J27" s="49"/>
+      <c r="K27" s="49"/>
+      <c r="L27" s="51"/>
+      <c r="M27" s="51"/>
+      <c r="N27" s="49"/>
+      <c r="O27" s="49"/>
     </row>
     <row r="28" spans="1:15" s="10" customFormat="1" ht="15">
       <c r="B28" s="8">

--- a/Documentation/Buglist.xlsx
+++ b/Documentation/Buglist.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="234">
   <si>
     <t>ID</t>
   </si>
@@ -799,12 +799,304 @@
     <t>生产日期审核后，投产日期就不可以修改了，同样包装日期审核后，出厂日期就不可以修改了</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
+  <si>
+    <t>销售订单页面表格设置点击合同号后，程序崩溃</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用管理员身份登入，在销售订单页面表格设置中点击合同号前“√”，再点下方确定后，程序崩溃</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>用其他账户登入效果一样</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序崩溃</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常进行表格设置</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序崩溃</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用业务部人员身份登入，点击生产排产后，再点击销售订单页面，程序崩溃</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用业务部人员身份登入崩溃，管理员身份正常</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序崩溃</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序正常</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用计划科人员身份登入，点击销售订单后，再点击生产排产，程序崩溃</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用计划科人员身份登入崩溃，管理员身份正常</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序崩溃</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序正常</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>无法查看</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以查看</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售订单界面添加新合同时，单复绕位置现在是或否的选择，需要变更为在单绕、复绕和空白中选择</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售订单界面添加新合同时，机房位置选项现在是是和否，应该为有和无</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>在业务部人员录入订单并审核后，计划科人员，在待办事项中并没有审核的提示，故判断计划科人员无审核销售订单的权限。</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>由于具体生产日期是由业务部制定，所以在排产界面，需要填写相关日期</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前业务人员无法查看排产计划</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以对排产日期进行编辑</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前在计划排产界面，点击“计划”，其中只能修改3个日期和2个编号，在实际工作的流程中，在排产的同时，需要根据轴承的库存，修改起供应商。</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划排产界面计划时，无法修改除现在参数外的其他参数</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>可对轴承的数据进行修改</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>录入销售订单过于繁琐</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>由于现在还没有实现，通过2个数据定位默认信息，现在录入一个合同需要大量时间。</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>录入较为繁琐</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>在保留现在定位2数据随后自动填写默认信息的基础上，实现添加后，保存上一个录入合同的信息，即在我入了一个后，再次点击“添加”时，其中的数据保留上一个录入合同的信息。</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>不涉及</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>代办事项中一直显示一条需要审核的信息，点击审核后，无数据</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常显示待办事项</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>关于投产编号的自动生成</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>寻求自动生成办法</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>可完美实现自动生成</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前正常填写帐号密码，提示密码错误</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前正常填写帐号密码，提示密码错误</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>反审核的订单没有退回到原来的状态</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>反审核没有达到正常作用</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>反审核后，订单将退回到前一个状态，即等待计划审核</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>希望在导出模版中增加导出保证箱单，以提高工作效率</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有软件均正常运行后</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>同标题</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改排产计划时，如修改时间，那么必须修改投产编号</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>在排产计划中，修改投产时间保存时，提示投产编号必须修改，投产编号不能重复的含义在于不同条目不能重复，并不是本身不能一样</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Active</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划科人员需要查看销售订单</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划科人员目前只有生产排产的权限，需要有查看销售订单的权限，但不能更改销售订单。</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售订单界面添加新合同时，单复绕位置选择应该是，单绕、复绕和空白三种</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划科人员无审核销售订单权限</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作流断裂，无法进行后续工作</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认每一位用户的操作权限，后实现完整工作流</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售订单界面添加新合同时，机房位置选项应该为有和无</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务部人员需要修改排产日期</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划科人员需要在计划排产输入投产编号的同时，修改轴承参数</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>代办事项中，一直显示一条需要审核的数据，但点击审核却没有数据</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>关于投产编号的自动生成，最好是保留现在的编号规则，即S和T型机，为字母+顺序号，其他机型为产号。</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售页面已经通过2次审核，进入排产的订单，在计划反审核后，订单仍然处于可排产状态</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售页面，业务和计划均对订单做了审核</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单审核后，出现在排产页面，随后在销售页面反审核一个订单，排产页面此合同仍然纯在</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>导出模版增加包装箱单</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售订单界面添加新合同时，左右置选项是“是”和“否”，涵义不清楚,选项应该为“左置”和“右置”</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售订单界面添加新合同时，制动器型号选择后，在添加合同后不显示</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>在计划界面选择左上角筛选功能，其中选择“生产日期未计划”时，软件崩溃</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>批量增加包装日期时，投产编号和出厂编号变为空白</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期可以增加，但原来录入的“投产编号”和“出厂编号”都没有了，变成空白</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>出厂编号遇到和投产编号一样不能重复的问题</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14">
+  <fonts count="17">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -898,8 +1190,26 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -966,8 +1276,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1118,6 +1440,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1128,7 +1463,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1257,6 +1592,11 @@
     <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1284,11 +1624,72 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="15" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Normal 8" xfId="2"/>
@@ -1311,6 +1712,66 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>1755396</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1" descr="C:\Users\SHL501\AppData\Roaming\Tencent\Users\2389576227\QQ\WinTemp\RichOle\QVYCGC19X`B021H4STXF}AB.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="20945475" y="3771900"/>
+          <a:ext cx="1669671" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1646,9 +2107,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:O56"/>
+  <dimension ref="A2:O55"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -1668,7 +2131,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" s="1" customFormat="1" ht="25.5">
-      <c r="B2" s="54"/>
+      <c r="B2" s="57"/>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
@@ -1684,7 +2147,7 @@
       <c r="O2" s="2"/>
     </row>
     <row r="3" spans="1:15" s="1" customFormat="1" ht="26.25" thickBot="1">
-      <c r="B3" s="55"/>
+      <c r="B3" s="58"/>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -1700,35 +2163,35 @@
       <c r="O3" s="2"/>
     </row>
     <row r="4" spans="1:15" s="5" customFormat="1" ht="14.25">
-      <c r="B4" s="59" t="s">
+      <c r="B4" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="56" t="s">
+      <c r="C4" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="57"/>
-      <c r="K4" s="57"/>
-      <c r="L4" s="52" t="s">
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="60"/>
+      <c r="J4" s="60"/>
+      <c r="K4" s="60"/>
+      <c r="L4" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="M4" s="52" t="s">
+      <c r="M4" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="N4" s="52" t="s">
+      <c r="N4" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="O4" s="52" t="s">
+      <c r="O4" s="55" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:15" s="5" customFormat="1" ht="14.25">
-      <c r="B5" s="60"/>
+      <c r="B5" s="63"/>
       <c r="C5" s="16" t="s">
         <v>1</v>
       </c>
@@ -1756,10 +2219,10 @@
       <c r="K5" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="L5" s="58"/>
-      <c r="M5" s="53"/>
-      <c r="N5" s="53"/>
-      <c r="O5" s="53"/>
+      <c r="L5" s="61"/>
+      <c r="M5" s="56"/>
+      <c r="N5" s="56"/>
+      <c r="O5" s="56"/>
     </row>
     <row r="6" spans="1:15" s="11" customFormat="1" ht="90">
       <c r="B6" s="29" t="s">
@@ -1934,7 +2397,7 @@
       </c>
     </row>
     <row r="10" spans="1:15" s="41" customFormat="1" ht="165">
-      <c r="A10" s="61"/>
+      <c r="A10" s="52"/>
       <c r="B10" s="38">
         <v>3</v>
       </c>
@@ -2146,8 +2609,8 @@
         <v>154</v>
       </c>
     </row>
-    <row r="15" spans="1:15" s="63" customFormat="1" ht="90">
-      <c r="A15" s="62"/>
+    <row r="15" spans="1:15" s="54" customFormat="1" ht="90">
+      <c r="A15" s="53"/>
       <c r="B15" s="38">
         <v>8</v>
       </c>
@@ -2601,387 +3064,711 @@
       <c r="N27" s="49"/>
       <c r="O27" s="49"/>
     </row>
-    <row r="28" spans="1:15" s="10" customFormat="1" ht="15">
-      <c r="B28" s="8">
+    <row r="28" spans="1:15" s="64" customFormat="1" ht="30" customHeight="1">
+      <c r="B28" s="65">
         <v>21</v>
       </c>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="36"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="13"/>
-      <c r="L28" s="9"/>
-      <c r="M28" s="35"/>
-      <c r="N28" s="13"/>
-      <c r="O28" s="13"/>
-    </row>
-    <row r="29" spans="1:15" s="10" customFormat="1" ht="15">
-      <c r="B29" s="8">
+      <c r="C28" s="66" t="s">
+        <v>161</v>
+      </c>
+      <c r="D28" s="66" t="s">
+        <v>162</v>
+      </c>
+      <c r="E28" s="66" t="s">
+        <v>163</v>
+      </c>
+      <c r="F28" s="66" t="s">
+        <v>164</v>
+      </c>
+      <c r="G28" s="66" t="s">
+        <v>165</v>
+      </c>
+      <c r="H28" s="66" t="s">
+        <v>166</v>
+      </c>
+      <c r="I28" s="67">
+        <v>0.3</v>
+      </c>
+      <c r="J28" s="66"/>
+      <c r="K28" s="66"/>
+      <c r="L28" s="68" t="s">
+        <v>59</v>
+      </c>
+      <c r="M28" s="68"/>
+      <c r="N28" s="66"/>
+      <c r="O28" s="35" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" s="64" customFormat="1" ht="30" customHeight="1">
+      <c r="B29" s="65">
         <v>22</v>
       </c>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="36"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="13"/>
-      <c r="L29" s="9"/>
-      <c r="M29" s="35"/>
-      <c r="N29" s="13"/>
-      <c r="O29" s="13"/>
-    </row>
-    <row r="30" spans="1:15" s="10" customFormat="1" ht="15">
-      <c r="B30" s="8">
+      <c r="C29" s="66" t="s">
+        <v>167</v>
+      </c>
+      <c r="D29" s="69" t="s">
+        <v>168</v>
+      </c>
+      <c r="E29" s="66" t="s">
+        <v>169</v>
+      </c>
+      <c r="F29" s="66" t="s">
+        <v>170</v>
+      </c>
+      <c r="G29" s="66" t="s">
+        <v>171</v>
+      </c>
+      <c r="H29" s="66" t="s">
+        <v>172</v>
+      </c>
+      <c r="I29" s="67">
+        <v>1</v>
+      </c>
+      <c r="J29" s="66"/>
+      <c r="K29" s="66"/>
+      <c r="L29" s="68" t="s">
+        <v>59</v>
+      </c>
+      <c r="M29" s="68"/>
+      <c r="N29" s="66"/>
+      <c r="O29" s="35" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" s="64" customFormat="1" ht="30" customHeight="1">
+      <c r="B30" s="65">
         <v>23</v>
       </c>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="36"/>
-      <c r="J30" s="13"/>
-      <c r="K30" s="13"/>
-      <c r="L30" s="9"/>
-      <c r="M30" s="35"/>
-      <c r="N30" s="13"/>
-      <c r="O30" s="13"/>
-    </row>
-    <row r="31" spans="1:15" s="10" customFormat="1" ht="15">
-      <c r="B31" s="8">
+      <c r="C30" s="66" t="s">
+        <v>171</v>
+      </c>
+      <c r="D30" s="66" t="s">
+        <v>173</v>
+      </c>
+      <c r="E30" s="66" t="s">
+        <v>163</v>
+      </c>
+      <c r="F30" s="66" t="s">
+        <v>174</v>
+      </c>
+      <c r="G30" s="66" t="s">
+        <v>175</v>
+      </c>
+      <c r="H30" s="66" t="s">
+        <v>176</v>
+      </c>
+      <c r="I30" s="67">
+        <v>1</v>
+      </c>
+      <c r="J30" s="66"/>
+      <c r="K30" s="66"/>
+      <c r="L30" s="68" t="s">
+        <v>59</v>
+      </c>
+      <c r="M30" s="68"/>
+      <c r="N30" s="66"/>
+      <c r="O30" s="35" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" s="70" customFormat="1" ht="30" customHeight="1">
+      <c r="B31" s="65">
         <v>24</v>
       </c>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="13"/>
-      <c r="K31" s="13"/>
-      <c r="L31" s="9"/>
-      <c r="M31" s="35"/>
-      <c r="N31" s="13"/>
-      <c r="O31" s="13"/>
-    </row>
-    <row r="32" spans="1:15" s="10" customFormat="1" ht="15">
-      <c r="B32" s="8">
+      <c r="C31" s="66" t="s">
+        <v>213</v>
+      </c>
+      <c r="D31" s="69" t="s">
+        <v>214</v>
+      </c>
+      <c r="E31" s="66" t="s">
+        <v>169</v>
+      </c>
+      <c r="F31" s="66" t="s">
+        <v>169</v>
+      </c>
+      <c r="G31" s="66" t="s">
+        <v>177</v>
+      </c>
+      <c r="H31" s="66" t="s">
+        <v>178</v>
+      </c>
+      <c r="I31" s="67">
+        <v>1</v>
+      </c>
+      <c r="J31" s="66"/>
+      <c r="K31" s="66"/>
+      <c r="L31" s="68" t="s">
+        <v>59</v>
+      </c>
+      <c r="M31" s="68"/>
+      <c r="N31" s="69"/>
+      <c r="O31" s="35" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" s="71" customFormat="1" ht="30" customHeight="1">
+      <c r="B32" s="65">
         <v>25</v>
       </c>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="36"/>
-      <c r="J32" s="13"/>
-      <c r="K32" s="13"/>
-      <c r="L32" s="9"/>
-      <c r="M32" s="35"/>
-      <c r="N32" s="13"/>
-      <c r="O32" s="13"/>
-    </row>
-    <row r="33" spans="2:15" s="10" customFormat="1" ht="15">
-      <c r="B33" s="8">
+      <c r="C32" s="66" t="s">
+        <v>215</v>
+      </c>
+      <c r="D32" s="69" t="s">
+        <v>179</v>
+      </c>
+      <c r="E32" s="66" t="s">
+        <v>180</v>
+      </c>
+      <c r="F32" s="66" t="s">
+        <v>181</v>
+      </c>
+      <c r="G32" s="69"/>
+      <c r="H32" s="69"/>
+      <c r="I32" s="67">
+        <v>1</v>
+      </c>
+      <c r="J32" s="69"/>
+      <c r="K32" s="69"/>
+      <c r="L32" s="68" t="s">
+        <v>59</v>
+      </c>
+      <c r="M32" s="68"/>
+      <c r="N32" s="69"/>
+      <c r="O32" s="35" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" s="71" customFormat="1" ht="30" customHeight="1">
+      <c r="B33" s="65">
         <v>26</v>
       </c>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="36"/>
-      <c r="J33" s="13"/>
-      <c r="K33" s="13"/>
-      <c r="L33" s="9"/>
-      <c r="M33" s="35"/>
-      <c r="N33" s="13"/>
-      <c r="O33" s="13"/>
-    </row>
-    <row r="34" spans="2:15" s="10" customFormat="1" ht="15">
-      <c r="B34" s="8">
+      <c r="C33" s="69" t="s">
+        <v>219</v>
+      </c>
+      <c r="D33" s="69" t="s">
+        <v>182</v>
+      </c>
+      <c r="E33" s="66" t="s">
+        <v>163</v>
+      </c>
+      <c r="F33" s="66" t="s">
+        <v>169</v>
+      </c>
+      <c r="G33" s="69"/>
+      <c r="H33" s="69"/>
+      <c r="I33" s="67">
+        <v>1</v>
+      </c>
+      <c r="J33" s="69"/>
+      <c r="K33" s="69"/>
+      <c r="L33" s="68" t="s">
+        <v>59</v>
+      </c>
+      <c r="M33" s="68"/>
+      <c r="N33" s="69"/>
+      <c r="O33" s="35" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" s="72" customFormat="1" ht="30" customHeight="1">
+      <c r="B34" s="65">
         <v>27</v>
       </c>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="36"/>
-      <c r="J34" s="13"/>
-      <c r="K34" s="13"/>
-      <c r="L34" s="9"/>
-      <c r="M34" s="35"/>
-      <c r="N34" s="13"/>
-      <c r="O34" s="13"/>
-    </row>
-    <row r="35" spans="2:15" s="10" customFormat="1" ht="15">
-      <c r="B35" s="8">
+      <c r="C34" s="73" t="s">
+        <v>216</v>
+      </c>
+      <c r="D34" s="77" t="s">
+        <v>183</v>
+      </c>
+      <c r="E34" s="76" t="s">
+        <v>184</v>
+      </c>
+      <c r="F34" s="76" t="s">
+        <v>163</v>
+      </c>
+      <c r="G34" s="76" t="s">
+        <v>217</v>
+      </c>
+      <c r="H34" s="76" t="s">
+        <v>218</v>
+      </c>
+      <c r="I34" s="78">
+        <v>1</v>
+      </c>
+      <c r="J34" s="77"/>
+      <c r="K34" s="77"/>
+      <c r="L34" s="79" t="s">
+        <v>59</v>
+      </c>
+      <c r="M34" s="79"/>
+      <c r="N34" s="77"/>
+      <c r="O34" s="35" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" s="72" customFormat="1" ht="30" customHeight="1">
+      <c r="B35" s="65">
         <v>28</v>
       </c>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="13"/>
-      <c r="I35" s="36"/>
-      <c r="J35" s="13"/>
-      <c r="K35" s="13"/>
-      <c r="L35" s="9"/>
-      <c r="M35" s="35"/>
-      <c r="N35" s="13"/>
-      <c r="O35" s="13"/>
-    </row>
-    <row r="36" spans="2:15" s="10" customFormat="1" ht="15">
-      <c r="B36" s="8">
+      <c r="C35" s="73" t="s">
+        <v>220</v>
+      </c>
+      <c r="D35" s="77" t="s">
+        <v>185</v>
+      </c>
+      <c r="E35" s="76" t="s">
+        <v>180</v>
+      </c>
+      <c r="F35" s="76" t="s">
+        <v>163</v>
+      </c>
+      <c r="G35" s="76" t="s">
+        <v>186</v>
+      </c>
+      <c r="H35" s="76" t="s">
+        <v>187</v>
+      </c>
+      <c r="I35" s="78">
+        <v>1</v>
+      </c>
+      <c r="J35" s="77"/>
+      <c r="K35" s="77"/>
+      <c r="L35" s="79" t="s">
+        <v>59</v>
+      </c>
+      <c r="M35" s="79"/>
+      <c r="N35" s="77"/>
+      <c r="O35" s="35" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="36" spans="2:15" s="71" customFormat="1" ht="30" customHeight="1">
+      <c r="B36" s="65">
         <v>29</v>
       </c>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="13"/>
-      <c r="I36" s="36"/>
-      <c r="J36" s="13"/>
-      <c r="K36" s="13"/>
-      <c r="L36" s="9"/>
-      <c r="M36" s="35"/>
-      <c r="N36" s="13"/>
-      <c r="O36" s="13"/>
-    </row>
-    <row r="37" spans="2:15" s="10" customFormat="1" ht="15">
-      <c r="B37" s="8">
+      <c r="C36" s="74" t="s">
+        <v>221</v>
+      </c>
+      <c r="D36" s="77" t="s">
+        <v>188</v>
+      </c>
+      <c r="E36" s="76" t="s">
+        <v>180</v>
+      </c>
+      <c r="F36" s="76" t="s">
+        <v>163</v>
+      </c>
+      <c r="G36" s="77" t="s">
+        <v>189</v>
+      </c>
+      <c r="H36" s="76" t="s">
+        <v>190</v>
+      </c>
+      <c r="I36" s="78">
+        <v>1</v>
+      </c>
+      <c r="J36" s="77"/>
+      <c r="K36" s="77"/>
+      <c r="L36" s="79" t="s">
+        <v>59</v>
+      </c>
+      <c r="M36" s="79"/>
+      <c r="N36" s="77"/>
+      <c r="O36" s="35" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" s="71" customFormat="1" ht="30" customHeight="1">
+      <c r="B37" s="65">
         <v>30</v>
       </c>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
-      <c r="H37" s="13"/>
-      <c r="I37" s="36"/>
-      <c r="J37" s="13"/>
-      <c r="K37" s="13"/>
-      <c r="L37" s="9"/>
-      <c r="M37" s="35"/>
-      <c r="N37" s="13"/>
-      <c r="O37" s="13"/>
-    </row>
-    <row r="38" spans="2:15" s="10" customFormat="1" ht="15">
-      <c r="B38" s="8">
+      <c r="C37" s="73" t="s">
+        <v>191</v>
+      </c>
+      <c r="D37" s="77" t="s">
+        <v>192</v>
+      </c>
+      <c r="E37" s="76" t="s">
+        <v>180</v>
+      </c>
+      <c r="F37" s="76" t="s">
+        <v>180</v>
+      </c>
+      <c r="G37" s="76" t="s">
+        <v>193</v>
+      </c>
+      <c r="H37" s="77" t="s">
+        <v>194</v>
+      </c>
+      <c r="I37" s="76" t="s">
+        <v>195</v>
+      </c>
+      <c r="J37" s="77"/>
+      <c r="K37" s="77"/>
+      <c r="L37" s="79" t="s">
+        <v>144</v>
+      </c>
+      <c r="M37" s="79"/>
+      <c r="N37" s="77"/>
+      <c r="O37" s="35" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="38" spans="2:15" s="71" customFormat="1" ht="30" customHeight="1">
+      <c r="B38" s="65">
         <v>31</v>
       </c>
-      <c r="C38" s="13"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="13"/>
-      <c r="H38" s="13"/>
-      <c r="I38" s="36"/>
-      <c r="J38" s="13"/>
-      <c r="K38" s="13"/>
-      <c r="L38" s="9"/>
-      <c r="M38" s="35"/>
-      <c r="N38" s="13"/>
-      <c r="O38" s="13"/>
-    </row>
-    <row r="39" spans="2:15" s="10" customFormat="1" ht="15">
-      <c r="B39" s="8">
+      <c r="C38" s="83" t="s">
+        <v>222</v>
+      </c>
+      <c r="D38" s="77" t="s">
+        <v>196</v>
+      </c>
+      <c r="E38" s="76" t="s">
+        <v>163</v>
+      </c>
+      <c r="F38" s="76" t="s">
+        <v>180</v>
+      </c>
+      <c r="G38" s="77"/>
+      <c r="H38" s="76" t="s">
+        <v>197</v>
+      </c>
+      <c r="I38" s="78">
+        <v>1</v>
+      </c>
+      <c r="J38" s="77"/>
+      <c r="K38" s="77"/>
+      <c r="L38" s="79" t="s">
+        <v>144</v>
+      </c>
+      <c r="M38" s="79"/>
+      <c r="N38" s="77"/>
+      <c r="O38" s="35" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" s="71" customFormat="1" ht="30" customHeight="1">
+      <c r="B39" s="65">
         <v>32</v>
       </c>
-      <c r="C39" s="13"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="13"/>
-      <c r="G39" s="13"/>
-      <c r="H39" s="13"/>
-      <c r="I39" s="36"/>
-      <c r="J39" s="13"/>
-      <c r="K39" s="13"/>
-      <c r="L39" s="9"/>
-      <c r="M39" s="35"/>
-      <c r="N39" s="13"/>
-      <c r="O39" s="13"/>
-    </row>
-    <row r="40" spans="2:15" s="10" customFormat="1" ht="15">
-      <c r="B40" s="8">
+      <c r="C39" s="73" t="s">
+        <v>198</v>
+      </c>
+      <c r="D39" s="77" t="s">
+        <v>223</v>
+      </c>
+      <c r="E39" s="76" t="s">
+        <v>163</v>
+      </c>
+      <c r="F39" s="76" t="s">
+        <v>163</v>
+      </c>
+      <c r="G39" s="76" t="s">
+        <v>199</v>
+      </c>
+      <c r="H39" s="76" t="s">
+        <v>200</v>
+      </c>
+      <c r="I39" s="76" t="s">
+        <v>195</v>
+      </c>
+      <c r="J39" s="77"/>
+      <c r="K39" s="77"/>
+      <c r="L39" s="79" t="s">
+        <v>144</v>
+      </c>
+      <c r="M39" s="79"/>
+      <c r="N39" s="77"/>
+      <c r="O39" s="35" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="40" spans="2:15" s="71" customFormat="1" ht="30" customHeight="1">
+      <c r="B40" s="65">
         <v>33</v>
       </c>
-      <c r="C40" s="13"/>
-      <c r="D40" s="13"/>
-      <c r="E40" s="13"/>
-      <c r="F40" s="13"/>
-      <c r="G40" s="13"/>
-      <c r="H40" s="13"/>
-      <c r="I40" s="36"/>
-      <c r="J40" s="13"/>
-      <c r="K40" s="13"/>
-      <c r="L40" s="9"/>
-      <c r="M40" s="35"/>
-      <c r="N40" s="13"/>
-      <c r="O40" s="13"/>
-    </row>
-    <row r="41" spans="2:15" s="10" customFormat="1" ht="15">
-      <c r="B41" s="8">
+      <c r="C40" s="76" t="s">
+        <v>201</v>
+      </c>
+      <c r="D40" s="76" t="s">
+        <v>202</v>
+      </c>
+      <c r="E40" s="76" t="s">
+        <v>180</v>
+      </c>
+      <c r="F40" s="76" t="s">
+        <v>180</v>
+      </c>
+      <c r="G40" s="77"/>
+      <c r="H40" s="77"/>
+      <c r="I40" s="77"/>
+      <c r="J40" s="77"/>
+      <c r="K40" s="77"/>
+      <c r="L40" s="79" t="s">
+        <v>59</v>
+      </c>
+      <c r="M40" s="79"/>
+      <c r="N40" s="77"/>
+      <c r="O40" s="35" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="41" spans="2:15" s="75" customFormat="1" ht="30" customHeight="1">
+      <c r="B41" s="65">
         <v>34</v>
       </c>
-      <c r="C41" s="13"/>
-      <c r="D41" s="13"/>
-      <c r="E41" s="13"/>
-      <c r="F41" s="13"/>
-      <c r="G41" s="13"/>
-      <c r="H41" s="13"/>
-      <c r="I41" s="36"/>
-      <c r="J41" s="13"/>
-      <c r="K41" s="13"/>
-      <c r="L41" s="9"/>
-      <c r="M41" s="35"/>
-      <c r="N41" s="13"/>
-      <c r="O41" s="13"/>
-    </row>
-    <row r="42" spans="2:15" s="10" customFormat="1" ht="15">
-      <c r="B42" s="8">
+      <c r="C41" s="77" t="s">
+        <v>203</v>
+      </c>
+      <c r="D41" s="77" t="s">
+        <v>224</v>
+      </c>
+      <c r="E41" s="77" t="s">
+        <v>225</v>
+      </c>
+      <c r="F41" s="77" t="s">
+        <v>226</v>
+      </c>
+      <c r="G41" s="76" t="s">
+        <v>204</v>
+      </c>
+      <c r="H41" s="77" t="s">
+        <v>205</v>
+      </c>
+      <c r="I41" s="78">
+        <v>1</v>
+      </c>
+      <c r="J41" s="77"/>
+      <c r="K41" s="77"/>
+      <c r="L41" s="79" t="s">
+        <v>59</v>
+      </c>
+      <c r="M41" s="79"/>
+      <c r="N41" s="77"/>
+      <c r="O41" s="35" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" s="71" customFormat="1" ht="30" customHeight="1">
+      <c r="B42" s="65">
         <v>35</v>
       </c>
-      <c r="C42" s="13"/>
-      <c r="D42" s="13"/>
-      <c r="E42" s="13"/>
-      <c r="F42" s="13"/>
-      <c r="G42" s="13"/>
-      <c r="H42" s="13"/>
-      <c r="I42" s="36"/>
-      <c r="J42" s="13"/>
-      <c r="K42" s="13"/>
-      <c r="L42" s="9"/>
-      <c r="M42" s="35"/>
-      <c r="N42" s="13"/>
-      <c r="O42" s="13"/>
-    </row>
-    <row r="43" spans="2:15" s="10" customFormat="1" ht="15">
-      <c r="B43" s="8">
+      <c r="C42" s="73" t="s">
+        <v>227</v>
+      </c>
+      <c r="D42" s="77" t="s">
+        <v>206</v>
+      </c>
+      <c r="E42" s="76" t="s">
+        <v>207</v>
+      </c>
+      <c r="F42" s="76" t="s">
+        <v>163</v>
+      </c>
+      <c r="G42" s="77" t="s">
+        <v>208</v>
+      </c>
+      <c r="H42" s="77"/>
+      <c r="I42" s="78">
+        <v>1</v>
+      </c>
+      <c r="J42" s="77"/>
+      <c r="K42" s="77"/>
+      <c r="L42" s="79" t="s">
+        <v>59</v>
+      </c>
+      <c r="M42" s="79"/>
+      <c r="N42" s="77"/>
+      <c r="O42" s="35" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" s="71" customFormat="1" ht="30" customHeight="1">
+      <c r="B43" s="65">
         <v>36</v>
       </c>
-      <c r="C43" s="13"/>
-      <c r="D43" s="13"/>
-      <c r="E43" s="13"/>
-      <c r="F43" s="13"/>
-      <c r="G43" s="13"/>
-      <c r="H43" s="13"/>
-      <c r="I43" s="36"/>
-      <c r="J43" s="13"/>
-      <c r="K43" s="13"/>
-      <c r="L43" s="9"/>
-      <c r="M43" s="35"/>
-      <c r="N43" s="13"/>
-      <c r="O43" s="13"/>
-    </row>
-    <row r="44" spans="2:15" s="10" customFormat="1" ht="15">
-      <c r="B44" s="8">
+      <c r="C43" s="77" t="s">
+        <v>228</v>
+      </c>
+      <c r="D43" s="77" t="s">
+        <v>209</v>
+      </c>
+      <c r="E43" s="80" t="s">
+        <v>180</v>
+      </c>
+      <c r="F43" s="77"/>
+      <c r="G43" s="77"/>
+      <c r="H43" s="77"/>
+      <c r="I43" s="78">
+        <v>1</v>
+      </c>
+      <c r="J43" s="77"/>
+      <c r="K43" s="77"/>
+      <c r="L43" s="79" t="s">
+        <v>59</v>
+      </c>
+      <c r="M43" s="79"/>
+      <c r="N43" s="77"/>
+      <c r="O43" s="35" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" s="71" customFormat="1" ht="30" customHeight="1">
+      <c r="B44" s="65">
         <v>37</v>
       </c>
-      <c r="C44" s="13"/>
-      <c r="D44" s="13"/>
-      <c r="E44" s="13"/>
-      <c r="F44" s="13"/>
-      <c r="G44" s="13"/>
-      <c r="H44" s="13"/>
-      <c r="I44" s="36"/>
-      <c r="J44" s="13"/>
-      <c r="K44" s="13"/>
-      <c r="L44" s="9"/>
-      <c r="M44" s="35"/>
-      <c r="N44" s="13"/>
-      <c r="O44" s="13"/>
-    </row>
-    <row r="45" spans="2:15" s="10" customFormat="1" ht="15">
-      <c r="B45" s="8">
+      <c r="C44" s="80" t="s">
+        <v>229</v>
+      </c>
+      <c r="D44" s="76" t="s">
+        <v>209</v>
+      </c>
+      <c r="E44" s="81" t="s">
+        <v>180</v>
+      </c>
+      <c r="F44" s="80"/>
+      <c r="G44" s="80"/>
+      <c r="H44" s="80"/>
+      <c r="I44" s="78">
+        <v>1</v>
+      </c>
+      <c r="J44" s="80"/>
+      <c r="K44" s="80"/>
+      <c r="L44" s="82" t="s">
+        <v>59</v>
+      </c>
+      <c r="M44" s="82"/>
+      <c r="N44" s="80"/>
+      <c r="O44" s="35" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" s="71" customFormat="1" ht="30" customHeight="1">
+      <c r="B45" s="65">
         <v>38</v>
       </c>
-      <c r="C45" s="13"/>
-      <c r="D45" s="13"/>
-      <c r="E45" s="13"/>
-      <c r="F45" s="13"/>
-      <c r="G45" s="13"/>
-      <c r="H45" s="13"/>
-      <c r="I45" s="36"/>
-      <c r="J45" s="13"/>
-      <c r="K45" s="13"/>
-      <c r="L45" s="9"/>
-      <c r="M45" s="35"/>
-      <c r="N45" s="13"/>
-      <c r="O45" s="13"/>
-    </row>
-    <row r="46" spans="2:15" s="10" customFormat="1" ht="15">
-      <c r="B46" s="8">
+      <c r="C45" s="81" t="s">
+        <v>165</v>
+      </c>
+      <c r="D45" s="81" t="s">
+        <v>230</v>
+      </c>
+      <c r="E45" s="81" t="s">
+        <v>180</v>
+      </c>
+      <c r="F45" s="80"/>
+      <c r="G45" s="80"/>
+      <c r="H45" s="80"/>
+      <c r="I45" s="78">
+        <v>1</v>
+      </c>
+      <c r="J45" s="80"/>
+      <c r="K45" s="80"/>
+      <c r="L45" s="82" t="s">
+        <v>59</v>
+      </c>
+      <c r="M45" s="82"/>
+      <c r="N45" s="80"/>
+      <c r="O45" s="35" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" s="71" customFormat="1" ht="30" customHeight="1">
+      <c r="B46" s="65">
         <v>39</v>
       </c>
-      <c r="C46" s="13"/>
-      <c r="D46" s="13"/>
-      <c r="E46" s="13"/>
-      <c r="F46" s="13"/>
-      <c r="G46" s="13"/>
-      <c r="H46" s="13"/>
-      <c r="I46" s="36"/>
-      <c r="J46" s="13"/>
-      <c r="K46" s="13"/>
-      <c r="L46" s="9"/>
-      <c r="M46" s="35"/>
-      <c r="N46" s="13"/>
-      <c r="O46" s="13"/>
-    </row>
-    <row r="47" spans="2:15" s="10" customFormat="1" ht="15">
-      <c r="B47" s="8">
+      <c r="C46" s="85" t="s">
+        <v>210</v>
+      </c>
+      <c r="D46" s="81" t="s">
+        <v>211</v>
+      </c>
+      <c r="E46" s="81" t="s">
+        <v>163</v>
+      </c>
+      <c r="F46" s="80"/>
+      <c r="G46" s="80"/>
+      <c r="H46" s="80"/>
+      <c r="I46" s="78">
+        <v>1</v>
+      </c>
+      <c r="J46" s="80"/>
+      <c r="K46" s="80"/>
+      <c r="L46" s="82" t="s">
+        <v>59</v>
+      </c>
+      <c r="M46" s="82"/>
+      <c r="N46" s="80"/>
+      <c r="O46" s="35" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" s="71" customFormat="1" ht="30" customHeight="1">
+      <c r="B47" s="65">
         <v>40</v>
       </c>
-      <c r="C47" s="13"/>
-      <c r="D47" s="13"/>
-      <c r="E47" s="13"/>
-      <c r="F47" s="13"/>
-      <c r="G47" s="13"/>
-      <c r="H47" s="13"/>
-      <c r="I47" s="36"/>
-      <c r="J47" s="13"/>
-      <c r="K47" s="13"/>
-      <c r="L47" s="9"/>
-      <c r="M47" s="35"/>
-      <c r="N47" s="13"/>
-      <c r="O47" s="13"/>
-    </row>
-    <row r="48" spans="2:15" s="10" customFormat="1" ht="15">
-      <c r="B48" s="8">
+      <c r="C47" s="85" t="s">
+        <v>231</v>
+      </c>
+      <c r="D47" s="81" t="s">
+        <v>232</v>
+      </c>
+      <c r="E47" s="81" t="s">
+        <v>163</v>
+      </c>
+      <c r="F47" s="80"/>
+      <c r="G47" s="80"/>
+      <c r="H47" s="80"/>
+      <c r="I47" s="78">
+        <v>1</v>
+      </c>
+      <c r="J47" s="80"/>
+      <c r="K47" s="80"/>
+      <c r="L47" s="82" t="s">
+        <v>59</v>
+      </c>
+      <c r="M47" s="82"/>
+      <c r="N47" s="80"/>
+      <c r="O47" s="35" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" s="71" customFormat="1" ht="30" customHeight="1">
+      <c r="B48" s="65">
         <v>41</v>
       </c>
-      <c r="C48" s="13"/>
-      <c r="D48" s="13"/>
-      <c r="E48" s="13"/>
-      <c r="F48" s="13"/>
-      <c r="G48" s="13"/>
-      <c r="H48" s="13"/>
-      <c r="I48" s="36"/>
-      <c r="J48" s="13"/>
-      <c r="K48" s="13"/>
-      <c r="L48" s="9"/>
-      <c r="M48" s="35"/>
-      <c r="N48" s="13"/>
-      <c r="O48" s="13"/>
+      <c r="C48" s="84" t="s">
+        <v>233</v>
+      </c>
+      <c r="D48" s="76" t="s">
+        <v>209</v>
+      </c>
+      <c r="E48" s="81" t="s">
+        <v>163</v>
+      </c>
+      <c r="F48" s="80"/>
+      <c r="G48" s="80"/>
+      <c r="H48" s="80"/>
+      <c r="I48" s="78">
+        <v>1</v>
+      </c>
+      <c r="J48" s="80"/>
+      <c r="K48" s="80"/>
+      <c r="L48" s="82" t="s">
+        <v>59</v>
+      </c>
+      <c r="M48" s="82"/>
+      <c r="N48" s="80"/>
+      <c r="O48" s="35" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="49" spans="2:15" s="10" customFormat="1" ht="15">
       <c r="B49" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C49" s="13"/>
       <c r="D49" s="13"/>
@@ -2999,7 +3786,7 @@
     </row>
     <row r="50" spans="2:15" s="10" customFormat="1" ht="15">
       <c r="B50" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C50" s="13"/>
       <c r="D50" s="13"/>
@@ -3017,7 +3804,7 @@
     </row>
     <row r="51" spans="2:15" s="10" customFormat="1" ht="15">
       <c r="B51" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C51" s="13"/>
       <c r="D51" s="13"/>
@@ -3035,7 +3822,7 @@
     </row>
     <row r="52" spans="2:15" s="10" customFormat="1" ht="15">
       <c r="B52" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C52" s="13"/>
       <c r="D52" s="13"/>
@@ -3053,7 +3840,7 @@
     </row>
     <row r="53" spans="2:15" s="10" customFormat="1" ht="15">
       <c r="B53" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C53" s="13"/>
       <c r="D53" s="13"/>
@@ -3071,7 +3858,7 @@
     </row>
     <row r="54" spans="2:15" s="10" customFormat="1" ht="15">
       <c r="B54" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C54" s="13"/>
       <c r="D54" s="13"/>
@@ -3087,39 +3874,21 @@
       <c r="N54" s="13"/>
       <c r="O54" s="13"/>
     </row>
-    <row r="55" spans="2:15" s="10" customFormat="1" ht="15">
-      <c r="B55" s="8">
-        <v>48</v>
-      </c>
-      <c r="C55" s="13"/>
-      <c r="D55" s="13"/>
-      <c r="E55" s="13"/>
-      <c r="F55" s="13"/>
-      <c r="G55" s="13"/>
-      <c r="H55" s="13"/>
-      <c r="I55" s="36"/>
-      <c r="J55" s="13"/>
-      <c r="K55" s="13"/>
-      <c r="L55" s="9"/>
-      <c r="M55" s="35"/>
-      <c r="N55" s="13"/>
-      <c r="O55" s="13"/>
-    </row>
-    <row r="56" spans="2:15" ht="15.75" thickBot="1">
-      <c r="B56" s="7"/>
-      <c r="C56" s="14"/>
-      <c r="D56" s="14"/>
-      <c r="E56" s="14"/>
-      <c r="F56" s="14"/>
-      <c r="G56" s="14"/>
-      <c r="H56" s="14"/>
-      <c r="I56" s="14"/>
-      <c r="J56" s="14"/>
-      <c r="K56" s="14"/>
-      <c r="L56" s="15"/>
-      <c r="M56" s="15"/>
-      <c r="N56" s="15"/>
-      <c r="O56" s="15"/>
+    <row r="55" spans="2:15" ht="15.75" thickBot="1">
+      <c r="B55" s="7"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="14"/>
+      <c r="G55" s="14"/>
+      <c r="H55" s="14"/>
+      <c r="I55" s="14"/>
+      <c r="J55" s="14"/>
+      <c r="K55" s="14"/>
+      <c r="L55" s="15"/>
+      <c r="M55" s="15"/>
+      <c r="N55" s="15"/>
+      <c r="O55" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3132,19 +3901,23 @@
     <mergeCell ref="B4:B5"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L7:L55">
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M7:M27 M49:M54">
+      <formula1>"高,中,低"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O8:O26 O28:O48">
+      <formula1>"Active,Resolve,Close"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L7:L54">
       <formula1>"严重错误,必须修改,应该修改,选择修改"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M7:M55">
-      <formula1>"高,中,低"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O8:O26">
-      <formula1>"Active,Resolve,Close"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M28:M48">
+      <formula1>"MustFix,ShouldFix,OptionalFix,ShowStopper"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/Documentation/Buglist.xlsx
+++ b/Documentation/Buglist.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="242">
   <si>
     <t>ID</t>
   </si>
@@ -792,10 +792,6 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>没有再现</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>生产日期审核后，投产日期就不可以修改了，同样包装日期审核后，出厂日期就不可以修改了</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
@@ -1090,6 +1086,41 @@
   <si>
     <t>出厂编号遇到和投产编号一样不能重复的问题</t>
     <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Resolve</t>
+  </si>
+  <si>
+    <t>后续确认</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>后需确认</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>在新版本确认</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前需要客户确认所有常用信息的客户名称+规格型号，需要和正式的名称型号对应上</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Duplicate</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动生成的规则需要确认</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要确认</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要提供新模板</t>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1209,7 +1240,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1248,18 +1279,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1" tint="4.9989318521683403E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1267,24 +1286,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1463,13 +1464,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1488,21 +1487,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1531,19 +1520,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1554,61 +1534,60 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="15" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1624,71 +1603,143 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="15" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="15" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1712,66 +1763,6 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>1755396</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1" descr="C:\Users\SHL501\AppData\Roaming\Tencent\Users\2389576227\QQ\WinTemp\RichOle\QVYCGC19X`B021H4STXF}AB.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="20945475" y="3771900"/>
-          <a:ext cx="1669671" cy="323850"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2107,1788 +2098,1864 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:O55"/>
+  <dimension ref="A2:P55"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="1.875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="3.875" style="4" customWidth="1"/>
-    <col min="3" max="4" width="22.5" style="3" customWidth="1"/>
-    <col min="5" max="5" width="28" style="3" customWidth="1"/>
-    <col min="6" max="6" width="22.5" style="3" customWidth="1"/>
-    <col min="7" max="7" width="26.25" style="3" customWidth="1"/>
-    <col min="8" max="8" width="28.375" style="3" customWidth="1"/>
-    <col min="9" max="9" width="22.5" style="3" customWidth="1"/>
-    <col min="10" max="10" width="23.125" style="3" customWidth="1"/>
-    <col min="11" max="11" width="22.5" style="3" customWidth="1"/>
-    <col min="12" max="12" width="20.375" style="4" customWidth="1"/>
-    <col min="13" max="15" width="29.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="1.875" style="60" customWidth="1"/>
+    <col min="2" max="2" width="3.875" style="2" customWidth="1"/>
+    <col min="3" max="4" width="22.5" style="60" customWidth="1"/>
+    <col min="5" max="5" width="28" style="60" customWidth="1"/>
+    <col min="6" max="6" width="22.5" style="60" customWidth="1"/>
+    <col min="7" max="7" width="26.25" style="60" customWidth="1"/>
+    <col min="8" max="8" width="28.375" style="60" customWidth="1"/>
+    <col min="9" max="9" width="22.5" style="60" customWidth="1"/>
+    <col min="10" max="10" width="23.125" style="60" customWidth="1"/>
+    <col min="11" max="11" width="22.5" style="60" customWidth="1"/>
+    <col min="12" max="12" width="20.375" style="2" customWidth="1"/>
+    <col min="13" max="14" width="29.375" style="2" customWidth="1"/>
+    <col min="15" max="15" width="29.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.375" style="89" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="60"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:15" s="1" customFormat="1" ht="25.5">
-      <c r="B2" s="57"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-    </row>
-    <row r="3" spans="1:15" s="1" customFormat="1" ht="26.25" thickBot="1">
-      <c r="B3" s="58"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-    </row>
-    <row r="4" spans="1:15" s="5" customFormat="1" ht="14.25">
-      <c r="B4" s="62" t="s">
+    <row r="2" spans="1:16" s="56" customFormat="1" ht="25.5">
+      <c r="B2" s="65"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="83"/>
+    </row>
+    <row r="3" spans="1:16" s="56" customFormat="1" ht="26.25" thickBot="1">
+      <c r="B3" s="66"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="83"/>
+    </row>
+    <row r="4" spans="1:16" s="3" customFormat="1" ht="14.25">
+      <c r="B4" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="59" t="s">
+      <c r="C4" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="60"/>
-      <c r="J4" s="60"/>
-      <c r="K4" s="60"/>
-      <c r="L4" s="55" t="s">
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="M4" s="55" t="s">
+      <c r="M4" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="N4" s="55" t="s">
+      <c r="N4" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="O4" s="55" t="s">
+      <c r="O4" s="43" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" s="5" customFormat="1" ht="14.25">
-      <c r="B5" s="63"/>
-      <c r="C5" s="16" t="s">
+      <c r="P4" s="84"/>
+    </row>
+    <row r="5" spans="1:16" s="3" customFormat="1" ht="14.25">
+      <c r="B5" s="49"/>
+      <c r="C5" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F5" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="G5" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="16" t="s">
+      <c r="H5" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="16" t="s">
+      <c r="I5" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="16" t="s">
+      <c r="J5" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="16" t="s">
+      <c r="K5" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="L5" s="61"/>
-      <c r="M5" s="56"/>
-      <c r="N5" s="56"/>
-      <c r="O5" s="56"/>
-    </row>
-    <row r="6" spans="1:15" s="11" customFormat="1" ht="90">
-      <c r="B6" s="29" t="s">
+      <c r="L5" s="47"/>
+      <c r="M5" s="44"/>
+      <c r="N5" s="44"/>
+      <c r="O5" s="44"/>
+      <c r="P5" s="84"/>
+    </row>
+    <row r="6" spans="1:16" s="8" customFormat="1" ht="90">
+      <c r="B6" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="30" t="s">
+      <c r="D6" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="30" t="s">
+      <c r="E6" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="30" t="s">
+      <c r="F6" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="30" t="s">
+      <c r="G6" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="30" t="s">
+      <c r="H6" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="I6" s="30" t="s">
+      <c r="I6" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="J6" s="30" t="s">
+      <c r="J6" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="K6" s="30" t="s">
+      <c r="K6" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="L6" s="30" t="s">
+      <c r="L6" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="M6" s="30" t="s">
+      <c r="M6" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="N6" s="30" t="s">
+      <c r="N6" s="67" t="s">
         <v>46</v>
       </c>
-      <c r="O6" s="30" t="s">
+      <c r="O6" s="67" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" s="11" customFormat="1" ht="135" hidden="1">
-      <c r="B7" s="25" t="s">
+      <c r="P6" s="85"/>
+    </row>
+    <row r="7" spans="1:16" s="8" customFormat="1" ht="135" hidden="1">
+      <c r="B7" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="26" t="s">
+      <c r="D7" s="68" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="26" t="s">
+      <c r="E7" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="26" t="s">
+      <c r="F7" s="68" t="s">
         <v>55</v>
       </c>
-      <c r="G7" s="26" t="s">
+      <c r="G7" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="H7" s="26" t="s">
+      <c r="H7" s="68" t="s">
         <v>40</v>
       </c>
-      <c r="I7" s="27" t="s">
+      <c r="I7" s="69" t="s">
         <v>65</v>
       </c>
-      <c r="J7" s="26" t="s">
+      <c r="J7" s="68" t="s">
         <v>58</v>
       </c>
-      <c r="K7" s="26" t="s">
+      <c r="K7" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="L7" s="28" t="s">
+      <c r="L7" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="M7" s="28" t="s">
+      <c r="M7" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="N7" s="31" t="s">
+      <c r="N7" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="O7" s="31" t="s">
+      <c r="O7" s="22" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" s="11" customFormat="1" ht="90">
-      <c r="B8" s="8">
+      <c r="P7" s="85"/>
+    </row>
+    <row r="8" spans="1:16" s="8" customFormat="1" ht="90">
+      <c r="B8" s="6">
         <v>1</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="70" t="s">
         <v>150</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="70" t="s">
         <v>54</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="70" t="s">
         <v>56</v>
       </c>
-      <c r="G8" s="13" t="s">
+      <c r="G8" s="70" t="s">
         <v>57</v>
       </c>
-      <c r="H8" s="13" t="s">
+      <c r="H8" s="70" t="s">
         <v>52</v>
       </c>
-      <c r="I8" s="36">
+      <c r="I8" s="71">
         <v>1</v>
       </c>
-      <c r="J8" s="13" t="s">
+      <c r="J8" s="70" t="s">
         <v>66</v>
       </c>
-      <c r="K8" s="13" t="s">
+      <c r="K8" s="70" t="s">
         <v>67</v>
       </c>
-      <c r="L8" s="9" t="s">
+      <c r="L8" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="M8" s="35" t="s">
+      <c r="M8" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="N8" s="13"/>
-      <c r="O8" s="35" t="s">
+      <c r="N8" s="70"/>
+      <c r="O8" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="P8" s="85"/>
+    </row>
+    <row r="9" spans="1:16" s="57" customFormat="1" ht="60">
+      <c r="B9" s="6">
+        <v>2</v>
+      </c>
+      <c r="C9" s="70" t="s">
+        <v>151</v>
+      </c>
+      <c r="D9" s="70" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" s="70" t="s">
+        <v>71</v>
+      </c>
+      <c r="F9" s="70" t="s">
+        <v>62</v>
+      </c>
+      <c r="G9" s="70" t="s">
+        <v>63</v>
+      </c>
+      <c r="H9" s="70" t="s">
+        <v>64</v>
+      </c>
+      <c r="I9" s="71">
+        <v>1</v>
+      </c>
+      <c r="J9" s="70" t="s">
+        <v>66</v>
+      </c>
+      <c r="K9" s="70" t="s">
+        <v>68</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="M9" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="N9" s="70"/>
+      <c r="O9" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="P9" s="85"/>
+    </row>
+    <row r="10" spans="1:16" s="29" customFormat="1" ht="165">
+      <c r="A10" s="50"/>
+      <c r="B10" s="27">
+        <v>3</v>
+      </c>
+      <c r="C10" s="72" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" s="72" t="s">
+        <v>70</v>
+      </c>
+      <c r="E10" s="72" t="s">
+        <v>72</v>
+      </c>
+      <c r="F10" s="72" t="s">
+        <v>73</v>
+      </c>
+      <c r="G10" s="72" t="s">
+        <v>74</v>
+      </c>
+      <c r="H10" s="72" t="s">
+        <v>75</v>
+      </c>
+      <c r="I10" s="73">
+        <v>1</v>
+      </c>
+      <c r="J10" s="72" t="s">
+        <v>76</v>
+      </c>
+      <c r="K10" s="72" t="s">
+        <v>68</v>
+      </c>
+      <c r="L10" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="M10" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="N10" s="72"/>
+      <c r="O10" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="P10" s="86"/>
+    </row>
+    <row r="11" spans="1:16" s="9" customFormat="1" ht="105">
+      <c r="B11" s="19">
+        <v>4</v>
+      </c>
+      <c r="C11" s="68" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" s="68" t="s">
+        <v>78</v>
+      </c>
+      <c r="E11" s="68" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" s="68" t="s">
+        <v>81</v>
+      </c>
+      <c r="G11" s="68" t="s">
+        <v>79</v>
+      </c>
+      <c r="H11" s="68" t="s">
+        <v>80</v>
+      </c>
+      <c r="I11" s="74">
+        <v>1</v>
+      </c>
+      <c r="J11" s="68" t="s">
+        <v>76</v>
+      </c>
+      <c r="K11" s="68" t="s">
+        <v>68</v>
+      </c>
+      <c r="L11" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="M11" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="N11" s="68"/>
+      <c r="O11" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="P11" s="87"/>
+    </row>
+    <row r="12" spans="1:16" s="57" customFormat="1" ht="60">
+      <c r="B12" s="6">
+        <v>5</v>
+      </c>
+      <c r="C12" s="70" t="s">
+        <v>84</v>
+      </c>
+      <c r="D12" s="70" t="s">
+        <v>82</v>
+      </c>
+      <c r="E12" s="70" t="s">
+        <v>83</v>
+      </c>
+      <c r="F12" s="70" t="s">
+        <v>85</v>
+      </c>
+      <c r="G12" s="70" t="s">
+        <v>86</v>
+      </c>
+      <c r="H12" s="70" t="s">
+        <v>87</v>
+      </c>
+      <c r="I12" s="71">
+        <v>1</v>
+      </c>
+      <c r="J12" s="70" t="s">
+        <v>93</v>
+      </c>
+      <c r="K12" s="70" t="s">
+        <v>68</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="M12" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="N12" s="70"/>
+      <c r="O12" s="26" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" s="10" customFormat="1" ht="60">
-      <c r="B9" s="8">
-        <v>2</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="H9" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="I9" s="36">
+      <c r="P12" s="85"/>
+    </row>
+    <row r="13" spans="1:16" s="58" customFormat="1" ht="120">
+      <c r="A13" s="75"/>
+      <c r="B13" s="27">
+        <v>6</v>
+      </c>
+      <c r="C13" s="72" t="s">
+        <v>94</v>
+      </c>
+      <c r="D13" s="72" t="s">
+        <v>157</v>
+      </c>
+      <c r="E13" s="72" t="s">
+        <v>90</v>
+      </c>
+      <c r="F13" s="72" t="s">
+        <v>97</v>
+      </c>
+      <c r="G13" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="H13" s="72" t="s">
+        <v>92</v>
+      </c>
+      <c r="I13" s="73">
         <v>1</v>
       </c>
-      <c r="J9" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="K9" s="13" t="s">
+      <c r="J13" s="72" t="s">
+        <v>93</v>
+      </c>
+      <c r="K13" s="72" t="s">
         <v>68</v>
       </c>
-      <c r="L9" s="9" t="s">
+      <c r="L13" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="M13" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="N13" s="72"/>
+      <c r="O13" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="P13" s="86"/>
+    </row>
+    <row r="14" spans="1:16" s="58" customFormat="1" ht="120">
+      <c r="A14" s="75"/>
+      <c r="B14" s="27">
+        <v>7</v>
+      </c>
+      <c r="C14" s="72" t="s">
+        <v>95</v>
+      </c>
+      <c r="D14" s="72" t="s">
+        <v>96</v>
+      </c>
+      <c r="E14" s="72" t="s">
+        <v>103</v>
+      </c>
+      <c r="F14" s="72" t="s">
+        <v>99</v>
+      </c>
+      <c r="G14" s="73" t="s">
+        <v>98</v>
+      </c>
+      <c r="H14" s="72" t="s">
+        <v>100</v>
+      </c>
+      <c r="I14" s="73">
+        <v>1</v>
+      </c>
+      <c r="J14" s="72" t="s">
+        <v>93</v>
+      </c>
+      <c r="K14" s="72" t="s">
+        <v>67</v>
+      </c>
+      <c r="L14" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="M14" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="N14" s="72"/>
+      <c r="O14" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="P14" s="86"/>
+    </row>
+    <row r="15" spans="1:16" s="59" customFormat="1" ht="90">
+      <c r="A15" s="76"/>
+      <c r="B15" s="27">
+        <v>8</v>
+      </c>
+      <c r="C15" s="72" t="s">
+        <v>102</v>
+      </c>
+      <c r="D15" s="72" t="s">
+        <v>105</v>
+      </c>
+      <c r="E15" s="72" t="s">
+        <v>104</v>
+      </c>
+      <c r="F15" s="72" t="s">
+        <v>109</v>
+      </c>
+      <c r="G15" s="73" t="s">
+        <v>106</v>
+      </c>
+      <c r="H15" s="72" t="s">
+        <v>107</v>
+      </c>
+      <c r="I15" s="73">
+        <v>1</v>
+      </c>
+      <c r="J15" s="72" t="s">
+        <v>93</v>
+      </c>
+      <c r="K15" s="72" t="s">
+        <v>67</v>
+      </c>
+      <c r="L15" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="M15" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="N15" s="72"/>
+      <c r="O15" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="P15" s="88"/>
+    </row>
+    <row r="16" spans="1:16" ht="90">
+      <c r="B16" s="19">
+        <v>9</v>
+      </c>
+      <c r="C16" s="68" t="s">
+        <v>108</v>
+      </c>
+      <c r="D16" s="68" t="s">
+        <v>108</v>
+      </c>
+      <c r="E16" s="68" t="s">
+        <v>113</v>
+      </c>
+      <c r="F16" s="68" t="s">
+        <v>115</v>
+      </c>
+      <c r="G16" s="74" t="s">
+        <v>110</v>
+      </c>
+      <c r="H16" s="68" t="s">
+        <v>111</v>
+      </c>
+      <c r="I16" s="74">
+        <v>1</v>
+      </c>
+      <c r="J16" s="68" t="s">
+        <v>93</v>
+      </c>
+      <c r="K16" s="68" t="s">
+        <v>67</v>
+      </c>
+      <c r="L16" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="M9" s="35" t="s">
+      <c r="M16" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="N16" s="68"/>
+      <c r="O16" s="20" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" s="57" customFormat="1" ht="75">
+      <c r="B17" s="19">
+        <v>10</v>
+      </c>
+      <c r="C17" s="68" t="s">
+        <v>112</v>
+      </c>
+      <c r="D17" s="68" t="s">
+        <v>114</v>
+      </c>
+      <c r="E17" s="68" t="s">
+        <v>127</v>
+      </c>
+      <c r="F17" s="68" t="s">
+        <v>118</v>
+      </c>
+      <c r="G17" s="68" t="s">
+        <v>116</v>
+      </c>
+      <c r="H17" s="68" t="s">
+        <v>117</v>
+      </c>
+      <c r="I17" s="74">
+        <v>1</v>
+      </c>
+      <c r="J17" s="68" t="s">
+        <v>93</v>
+      </c>
+      <c r="K17" s="68" t="s">
+        <v>67</v>
+      </c>
+      <c r="L17" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="M17" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="N17" s="68"/>
+      <c r="O17" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="P17" s="85"/>
+    </row>
+    <row r="18" spans="1:16" s="58" customFormat="1" ht="90">
+      <c r="A18" s="77"/>
+      <c r="B18" s="27">
+        <v>11</v>
+      </c>
+      <c r="C18" s="72" t="s">
+        <v>119</v>
+      </c>
+      <c r="D18" s="72" t="s">
+        <v>122</v>
+      </c>
+      <c r="E18" s="72" t="s">
+        <v>120</v>
+      </c>
+      <c r="F18" s="72" t="s">
+        <v>121</v>
+      </c>
+      <c r="G18" s="72" t="s">
+        <v>123</v>
+      </c>
+      <c r="H18" s="72" t="s">
+        <v>124</v>
+      </c>
+      <c r="I18" s="73">
+        <v>1</v>
+      </c>
+      <c r="J18" s="72" t="s">
+        <v>93</v>
+      </c>
+      <c r="K18" s="72" t="s">
+        <v>67</v>
+      </c>
+      <c r="L18" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="M18" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="N18" s="72"/>
+      <c r="O18" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="P18" s="86"/>
+    </row>
+    <row r="19" spans="1:16" s="57" customFormat="1" ht="75">
+      <c r="B19" s="19">
+        <v>12</v>
+      </c>
+      <c r="C19" s="68" t="s">
+        <v>132</v>
+      </c>
+      <c r="D19" s="68" t="s">
+        <v>125</v>
+      </c>
+      <c r="E19" s="68" t="s">
+        <v>126</v>
+      </c>
+      <c r="F19" s="68" t="s">
+        <v>128</v>
+      </c>
+      <c r="G19" s="68" t="s">
+        <v>129</v>
+      </c>
+      <c r="H19" s="68" t="s">
+        <v>130</v>
+      </c>
+      <c r="I19" s="74">
+        <v>1</v>
+      </c>
+      <c r="J19" s="68" t="s">
+        <v>93</v>
+      </c>
+      <c r="K19" s="68" t="s">
+        <v>67</v>
+      </c>
+      <c r="L19" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="M19" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="N19" s="68"/>
+      <c r="O19" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="P19" s="85"/>
+    </row>
+    <row r="20" spans="1:16" s="57" customFormat="1" ht="90">
+      <c r="B20" s="19">
+        <v>13</v>
+      </c>
+      <c r="C20" s="68" t="s">
+        <v>131</v>
+      </c>
+      <c r="D20" s="68" t="s">
+        <v>133</v>
+      </c>
+      <c r="E20" s="68" t="s">
+        <v>134</v>
+      </c>
+      <c r="F20" s="68" t="s">
+        <v>140</v>
+      </c>
+      <c r="G20" s="68" t="s">
+        <v>135</v>
+      </c>
+      <c r="H20" s="68" t="s">
+        <v>136</v>
+      </c>
+      <c r="I20" s="74">
+        <v>1</v>
+      </c>
+      <c r="J20" s="68" t="s">
+        <v>93</v>
+      </c>
+      <c r="K20" s="68" t="s">
+        <v>67</v>
+      </c>
+      <c r="L20" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="M20" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="N20" s="68"/>
+      <c r="O20" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="P20" s="85"/>
+    </row>
+    <row r="21" spans="1:16" s="58" customFormat="1" ht="165">
+      <c r="A21" s="78"/>
+      <c r="B21" s="27">
+        <v>14</v>
+      </c>
+      <c r="C21" s="72" t="s">
+        <v>137</v>
+      </c>
+      <c r="D21" s="72" t="s">
+        <v>138</v>
+      </c>
+      <c r="E21" s="72" t="s">
+        <v>139</v>
+      </c>
+      <c r="F21" s="72" t="s">
+        <v>141</v>
+      </c>
+      <c r="G21" s="72" t="s">
+        <v>142</v>
+      </c>
+      <c r="H21" s="72" t="s">
+        <v>143</v>
+      </c>
+      <c r="I21" s="73">
+        <v>1</v>
+      </c>
+      <c r="J21" s="72" t="s">
+        <v>93</v>
+      </c>
+      <c r="K21" s="72" t="s">
+        <v>67</v>
+      </c>
+      <c r="L21" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="M21" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="N21" s="72"/>
+      <c r="O21" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="P21" s="86"/>
+    </row>
+    <row r="22" spans="1:16" s="58" customFormat="1" ht="45">
+      <c r="A22" s="78"/>
+      <c r="B22" s="27">
+        <v>15</v>
+      </c>
+      <c r="C22" s="72" t="s">
+        <v>145</v>
+      </c>
+      <c r="D22" s="72"/>
+      <c r="E22" s="72"/>
+      <c r="F22" s="72"/>
+      <c r="G22" s="72"/>
+      <c r="H22" s="72"/>
+      <c r="I22" s="73"/>
+      <c r="J22" s="72"/>
+      <c r="K22" s="72"/>
+      <c r="L22" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="M22" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="N22" s="72"/>
+      <c r="O22" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="P22" s="86"/>
+    </row>
+    <row r="23" spans="1:16" s="58" customFormat="1" ht="30">
+      <c r="A23" s="78"/>
+      <c r="B23" s="27">
+        <v>16</v>
+      </c>
+      <c r="C23" s="72" t="s">
+        <v>146</v>
+      </c>
+      <c r="D23" s="72"/>
+      <c r="E23" s="72"/>
+      <c r="F23" s="72"/>
+      <c r="G23" s="72"/>
+      <c r="H23" s="72"/>
+      <c r="I23" s="73"/>
+      <c r="J23" s="72"/>
+      <c r="K23" s="72"/>
+      <c r="L23" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="M23" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="N23" s="72"/>
+      <c r="O23" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="P23" s="86"/>
+    </row>
+    <row r="24" spans="1:16" s="58" customFormat="1" ht="90">
+      <c r="A24" s="78"/>
+      <c r="B24" s="27">
+        <v>17</v>
+      </c>
+      <c r="C24" s="72" t="s">
+        <v>149</v>
+      </c>
+      <c r="D24" s="72"/>
+      <c r="E24" s="72"/>
+      <c r="F24" s="72"/>
+      <c r="G24" s="72"/>
+      <c r="H24" s="72"/>
+      <c r="I24" s="73"/>
+      <c r="J24" s="72"/>
+      <c r="K24" s="72"/>
+      <c r="L24" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="M24" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="N9" s="13"/>
-      <c r="O9" s="35" t="s">
+      <c r="N24" s="72"/>
+      <c r="O24" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="P24" s="86"/>
+    </row>
+    <row r="25" spans="1:16" s="61" customFormat="1" ht="45">
+      <c r="B25" s="30">
+        <v>18</v>
+      </c>
+      <c r="C25" s="79" t="s">
+        <v>147</v>
+      </c>
+      <c r="D25" s="79"/>
+      <c r="E25" s="79" t="s">
+        <v>158</v>
+      </c>
+      <c r="F25" s="79"/>
+      <c r="G25" s="79"/>
+      <c r="H25" s="79"/>
+      <c r="I25" s="80"/>
+      <c r="J25" s="79"/>
+      <c r="K25" s="79"/>
+      <c r="L25" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="M25" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="N25" s="79"/>
+      <c r="O25" s="31" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" s="41" customFormat="1" ht="165">
-      <c r="A10" s="52"/>
-      <c r="B10" s="38">
-        <v>3</v>
-      </c>
-      <c r="C10" s="37" t="s">
-        <v>69</v>
-      </c>
-      <c r="D10" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="E10" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="F10" s="37" t="s">
-        <v>73</v>
-      </c>
-      <c r="G10" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="H10" s="37" t="s">
-        <v>75</v>
-      </c>
-      <c r="I10" s="39">
+      <c r="P25" s="63" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" s="58" customFormat="1" ht="90">
+      <c r="A26" s="78"/>
+      <c r="B26" s="27">
+        <v>19</v>
+      </c>
+      <c r="C26" s="72" t="s">
+        <v>148</v>
+      </c>
+      <c r="D26" s="72"/>
+      <c r="E26" s="72"/>
+      <c r="F26" s="72"/>
+      <c r="G26" s="72"/>
+      <c r="H26" s="72"/>
+      <c r="I26" s="73"/>
+      <c r="J26" s="72"/>
+      <c r="K26" s="72"/>
+      <c r="L26" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="M26" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="N26" s="72"/>
+      <c r="O26" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="P26" s="86"/>
+    </row>
+    <row r="27" spans="1:16" s="61" customFormat="1" ht="60">
+      <c r="B27" s="30">
+        <v>20</v>
+      </c>
+      <c r="C27" s="79" t="s">
+        <v>159</v>
+      </c>
+      <c r="D27" s="79"/>
+      <c r="E27" s="79"/>
+      <c r="F27" s="79"/>
+      <c r="G27" s="79"/>
+      <c r="H27" s="79"/>
+      <c r="I27" s="80"/>
+      <c r="J27" s="79"/>
+      <c r="K27" s="79"/>
+      <c r="L27" s="31"/>
+      <c r="M27" s="31"/>
+      <c r="N27" s="79"/>
+      <c r="O27" s="31" t="s">
+        <v>155</v>
+      </c>
+      <c r="P27" s="63" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" s="51" customFormat="1" ht="30" customHeight="1">
+      <c r="B28" s="52">
+        <v>21</v>
+      </c>
+      <c r="C28" s="53" t="s">
+        <v>160</v>
+      </c>
+      <c r="D28" s="53" t="s">
+        <v>161</v>
+      </c>
+      <c r="E28" s="53" t="s">
+        <v>162</v>
+      </c>
+      <c r="F28" s="53" t="s">
+        <v>163</v>
+      </c>
+      <c r="G28" s="53" t="s">
+        <v>164</v>
+      </c>
+      <c r="H28" s="53" t="s">
+        <v>165</v>
+      </c>
+      <c r="I28" s="54">
+        <v>0.3</v>
+      </c>
+      <c r="J28" s="53"/>
+      <c r="K28" s="53"/>
+      <c r="L28" s="55" t="s">
+        <v>59</v>
+      </c>
+      <c r="M28" s="55"/>
+      <c r="N28" s="53"/>
+      <c r="O28" s="31" t="s">
+        <v>211</v>
+      </c>
+      <c r="P28" s="63" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" s="51" customFormat="1" ht="30" customHeight="1">
+      <c r="B29" s="52">
+        <v>22</v>
+      </c>
+      <c r="C29" s="53" t="s">
+        <v>166</v>
+      </c>
+      <c r="D29" s="53" t="s">
+        <v>167</v>
+      </c>
+      <c r="E29" s="53" t="s">
+        <v>168</v>
+      </c>
+      <c r="F29" s="53" t="s">
+        <v>169</v>
+      </c>
+      <c r="G29" s="53" t="s">
+        <v>170</v>
+      </c>
+      <c r="H29" s="53" t="s">
+        <v>171</v>
+      </c>
+      <c r="I29" s="54">
         <v>1</v>
       </c>
-      <c r="J10" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="K10" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="L10" s="40" t="s">
+      <c r="J29" s="53"/>
+      <c r="K29" s="53"/>
+      <c r="L29" s="55" t="s">
+        <v>59</v>
+      </c>
+      <c r="M29" s="55"/>
+      <c r="N29" s="53"/>
+      <c r="O29" s="31" t="s">
+        <v>211</v>
+      </c>
+      <c r="P29" s="63" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" s="51" customFormat="1" ht="30" customHeight="1">
+      <c r="B30" s="52">
+        <v>23</v>
+      </c>
+      <c r="C30" s="53" t="s">
+        <v>170</v>
+      </c>
+      <c r="D30" s="53" t="s">
+        <v>172</v>
+      </c>
+      <c r="E30" s="53" t="s">
+        <v>162</v>
+      </c>
+      <c r="F30" s="53" t="s">
+        <v>173</v>
+      </c>
+      <c r="G30" s="53" t="s">
+        <v>174</v>
+      </c>
+      <c r="H30" s="53" t="s">
+        <v>175</v>
+      </c>
+      <c r="I30" s="54">
+        <v>1</v>
+      </c>
+      <c r="J30" s="53"/>
+      <c r="K30" s="53"/>
+      <c r="L30" s="55" t="s">
+        <v>59</v>
+      </c>
+      <c r="M30" s="55"/>
+      <c r="N30" s="53"/>
+      <c r="O30" s="31" t="s">
+        <v>211</v>
+      </c>
+      <c r="P30" s="63" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" s="37" customFormat="1" ht="30" customHeight="1">
+      <c r="B31" s="33">
+        <v>24</v>
+      </c>
+      <c r="C31" s="34" t="s">
+        <v>212</v>
+      </c>
+      <c r="D31" s="34" t="s">
+        <v>213</v>
+      </c>
+      <c r="E31" s="34" t="s">
+        <v>168</v>
+      </c>
+      <c r="F31" s="34" t="s">
+        <v>168</v>
+      </c>
+      <c r="G31" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="H31" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="I31" s="35">
+        <v>1</v>
+      </c>
+      <c r="J31" s="34"/>
+      <c r="K31" s="34"/>
+      <c r="L31" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="M31" s="36"/>
+      <c r="N31" s="34"/>
+      <c r="O31" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="P31" s="90"/>
+    </row>
+    <row r="32" spans="1:16" s="32" customFormat="1" ht="30" customHeight="1">
+      <c r="B32" s="33">
+        <v>25</v>
+      </c>
+      <c r="C32" s="34" t="s">
+        <v>214</v>
+      </c>
+      <c r="D32" s="34" t="s">
+        <v>178</v>
+      </c>
+      <c r="E32" s="34" t="s">
+        <v>179</v>
+      </c>
+      <c r="F32" s="34" t="s">
+        <v>180</v>
+      </c>
+      <c r="G32" s="34"/>
+      <c r="H32" s="34"/>
+      <c r="I32" s="35">
+        <v>1</v>
+      </c>
+      <c r="J32" s="34"/>
+      <c r="K32" s="34"/>
+      <c r="L32" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="M32" s="36"/>
+      <c r="N32" s="34"/>
+      <c r="O32" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="P32" s="91"/>
+    </row>
+    <row r="33" spans="2:16" s="32" customFormat="1" ht="30" customHeight="1">
+      <c r="B33" s="33">
+        <v>26</v>
+      </c>
+      <c r="C33" s="34" t="s">
+        <v>218</v>
+      </c>
+      <c r="D33" s="34" t="s">
+        <v>181</v>
+      </c>
+      <c r="E33" s="34" t="s">
+        <v>162</v>
+      </c>
+      <c r="F33" s="34" t="s">
+        <v>168</v>
+      </c>
+      <c r="G33" s="34"/>
+      <c r="H33" s="34"/>
+      <c r="I33" s="35">
+        <v>1</v>
+      </c>
+      <c r="J33" s="34"/>
+      <c r="K33" s="34"/>
+      <c r="L33" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="M33" s="36"/>
+      <c r="N33" s="34"/>
+      <c r="O33" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="P33" s="91"/>
+    </row>
+    <row r="34" spans="2:16" s="62" customFormat="1" ht="30" customHeight="1">
+      <c r="B34" s="33">
+        <v>27</v>
+      </c>
+      <c r="C34" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="D34" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="E34" s="38" t="s">
+        <v>183</v>
+      </c>
+      <c r="F34" s="38" t="s">
+        <v>162</v>
+      </c>
+      <c r="G34" s="38" t="s">
+        <v>216</v>
+      </c>
+      <c r="H34" s="38" t="s">
+        <v>217</v>
+      </c>
+      <c r="I34" s="39">
+        <v>1</v>
+      </c>
+      <c r="J34" s="38"/>
+      <c r="K34" s="38"/>
+      <c r="L34" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="M34" s="40"/>
+      <c r="N34" s="38"/>
+      <c r="O34" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="P34" s="92"/>
+    </row>
+    <row r="35" spans="2:16" s="62" customFormat="1" ht="30" customHeight="1">
+      <c r="B35" s="33">
+        <v>28</v>
+      </c>
+      <c r="C35" s="38" t="s">
+        <v>219</v>
+      </c>
+      <c r="D35" s="38" t="s">
+        <v>184</v>
+      </c>
+      <c r="E35" s="38" t="s">
+        <v>179</v>
+      </c>
+      <c r="F35" s="38" t="s">
+        <v>162</v>
+      </c>
+      <c r="G35" s="38" t="s">
+        <v>185</v>
+      </c>
+      <c r="H35" s="38" t="s">
+        <v>186</v>
+      </c>
+      <c r="I35" s="39">
+        <v>1</v>
+      </c>
+      <c r="J35" s="38"/>
+      <c r="K35" s="38"/>
+      <c r="L35" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="M35" s="40"/>
+      <c r="N35" s="38"/>
+      <c r="O35" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="P35" s="92"/>
+    </row>
+    <row r="36" spans="2:16" s="51" customFormat="1" ht="30" customHeight="1">
+      <c r="B36" s="52">
+        <v>29</v>
+      </c>
+      <c r="C36" s="53" t="s">
+        <v>220</v>
+      </c>
+      <c r="D36" s="53" t="s">
+        <v>187</v>
+      </c>
+      <c r="E36" s="53" t="s">
+        <v>179</v>
+      </c>
+      <c r="F36" s="53" t="s">
+        <v>162</v>
+      </c>
+      <c r="G36" s="53" t="s">
+        <v>188</v>
+      </c>
+      <c r="H36" s="53" t="s">
+        <v>189</v>
+      </c>
+      <c r="I36" s="54">
+        <v>1</v>
+      </c>
+      <c r="J36" s="53"/>
+      <c r="K36" s="53"/>
+      <c r="L36" s="55" t="s">
+        <v>59</v>
+      </c>
+      <c r="M36" s="55"/>
+      <c r="N36" s="53"/>
+      <c r="O36" s="31" t="s">
+        <v>211</v>
+      </c>
+      <c r="P36" s="63" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" s="51" customFormat="1" ht="30" customHeight="1">
+      <c r="B37" s="52">
+        <v>30</v>
+      </c>
+      <c r="C37" s="53" t="s">
+        <v>190</v>
+      </c>
+      <c r="D37" s="53" t="s">
+        <v>191</v>
+      </c>
+      <c r="E37" s="53" t="s">
+        <v>179</v>
+      </c>
+      <c r="F37" s="53" t="s">
+        <v>179</v>
+      </c>
+      <c r="G37" s="53" t="s">
+        <v>192</v>
+      </c>
+      <c r="H37" s="53" t="s">
+        <v>193</v>
+      </c>
+      <c r="I37" s="53" t="s">
+        <v>194</v>
+      </c>
+      <c r="J37" s="53"/>
+      <c r="K37" s="53"/>
+      <c r="L37" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="M37" s="55"/>
+      <c r="N37" s="53"/>
+      <c r="O37" s="31" t="s">
+        <v>233</v>
+      </c>
+      <c r="P37" s="63" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="38" spans="2:16" s="32" customFormat="1" ht="30" customHeight="1">
+      <c r="B38" s="33">
+        <v>31</v>
+      </c>
+      <c r="C38" s="34" t="s">
+        <v>221</v>
+      </c>
+      <c r="D38" s="38" t="s">
+        <v>195</v>
+      </c>
+      <c r="E38" s="38" t="s">
+        <v>162</v>
+      </c>
+      <c r="F38" s="38" t="s">
+        <v>179</v>
+      </c>
+      <c r="G38" s="38"/>
+      <c r="H38" s="38" t="s">
+        <v>196</v>
+      </c>
+      <c r="I38" s="39">
+        <v>1</v>
+      </c>
+      <c r="J38" s="38"/>
+      <c r="K38" s="38"/>
+      <c r="L38" s="40" t="s">
+        <v>144</v>
+      </c>
+      <c r="M38" s="40"/>
+      <c r="N38" s="38"/>
+      <c r="O38" s="64" t="s">
+        <v>238</v>
+      </c>
+      <c r="P38" s="91"/>
+    </row>
+    <row r="39" spans="2:16" s="51" customFormat="1" ht="30" customHeight="1">
+      <c r="B39" s="52">
+        <v>32</v>
+      </c>
+      <c r="C39" s="53" t="s">
+        <v>197</v>
+      </c>
+      <c r="D39" s="53" t="s">
+        <v>222</v>
+      </c>
+      <c r="E39" s="53" t="s">
+        <v>162</v>
+      </c>
+      <c r="F39" s="53" t="s">
+        <v>162</v>
+      </c>
+      <c r="G39" s="53" t="s">
+        <v>198</v>
+      </c>
+      <c r="H39" s="53" t="s">
+        <v>199</v>
+      </c>
+      <c r="I39" s="53" t="s">
+        <v>194</v>
+      </c>
+      <c r="J39" s="53"/>
+      <c r="K39" s="53"/>
+      <c r="L39" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="M39" s="55"/>
+      <c r="N39" s="53"/>
+      <c r="O39" s="31" t="s">
+        <v>211</v>
+      </c>
+      <c r="P39" s="63" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="40" spans="2:16" s="32" customFormat="1" ht="30" customHeight="1">
+      <c r="B40" s="33">
+        <v>33</v>
+      </c>
+      <c r="C40" s="38" t="s">
+        <v>200</v>
+      </c>
+      <c r="D40" s="38" t="s">
+        <v>201</v>
+      </c>
+      <c r="E40" s="38" t="s">
+        <v>179</v>
+      </c>
+      <c r="F40" s="38" t="s">
+        <v>179</v>
+      </c>
+      <c r="G40" s="38"/>
+      <c r="H40" s="38"/>
+      <c r="I40" s="38"/>
+      <c r="J40" s="38"/>
+      <c r="K40" s="38"/>
+      <c r="L40" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="M40" s="40"/>
+      <c r="N40" s="38"/>
+      <c r="O40" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="P40" s="91"/>
+    </row>
+    <row r="41" spans="2:16" s="51" customFormat="1" ht="30" customHeight="1">
+      <c r="B41" s="52">
+        <v>34</v>
+      </c>
+      <c r="C41" s="53" t="s">
+        <v>202</v>
+      </c>
+      <c r="D41" s="53" t="s">
+        <v>223</v>
+      </c>
+      <c r="E41" s="53" t="s">
+        <v>224</v>
+      </c>
+      <c r="F41" s="53" t="s">
+        <v>225</v>
+      </c>
+      <c r="G41" s="53" t="s">
+        <v>203</v>
+      </c>
+      <c r="H41" s="53" t="s">
+        <v>204</v>
+      </c>
+      <c r="I41" s="54">
+        <v>1</v>
+      </c>
+      <c r="J41" s="53"/>
+      <c r="K41" s="53"/>
+      <c r="L41" s="55" t="s">
+        <v>59</v>
+      </c>
+      <c r="M41" s="55"/>
+      <c r="N41" s="53"/>
+      <c r="O41" s="31" t="s">
+        <v>211</v>
+      </c>
+      <c r="P41" s="63" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" s="51" customFormat="1" ht="30" customHeight="1">
+      <c r="B42" s="52">
+        <v>35</v>
+      </c>
+      <c r="C42" s="53" t="s">
+        <v>226</v>
+      </c>
+      <c r="D42" s="53" t="s">
+        <v>205</v>
+      </c>
+      <c r="E42" s="53" t="s">
+        <v>206</v>
+      </c>
+      <c r="F42" s="53" t="s">
+        <v>162</v>
+      </c>
+      <c r="G42" s="53" t="s">
+        <v>207</v>
+      </c>
+      <c r="H42" s="53"/>
+      <c r="I42" s="54">
+        <v>1</v>
+      </c>
+      <c r="J42" s="53"/>
+      <c r="K42" s="53"/>
+      <c r="L42" s="55" t="s">
+        <v>59</v>
+      </c>
+      <c r="M42" s="55"/>
+      <c r="N42" s="53"/>
+      <c r="O42" s="31" t="s">
+        <v>211</v>
+      </c>
+      <c r="P42" s="63" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" s="32" customFormat="1" ht="30" customHeight="1">
+      <c r="B43" s="33">
+        <v>36</v>
+      </c>
+      <c r="C43" s="38" t="s">
+        <v>227</v>
+      </c>
+      <c r="D43" s="38" t="s">
+        <v>208</v>
+      </c>
+      <c r="E43" s="41" t="s">
+        <v>179</v>
+      </c>
+      <c r="F43" s="38"/>
+      <c r="G43" s="38"/>
+      <c r="H43" s="38"/>
+      <c r="I43" s="39">
+        <v>1</v>
+      </c>
+      <c r="J43" s="38"/>
+      <c r="K43" s="38"/>
+      <c r="L43" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="M43" s="40"/>
+      <c r="N43" s="38"/>
+      <c r="O43" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="P43" s="91"/>
+    </row>
+    <row r="44" spans="2:16" s="32" customFormat="1" ht="30" customHeight="1">
+      <c r="B44" s="33">
+        <v>37</v>
+      </c>
+      <c r="C44" s="41" t="s">
+        <v>228</v>
+      </c>
+      <c r="D44" s="38" t="s">
+        <v>208</v>
+      </c>
+      <c r="E44" s="41" t="s">
+        <v>179</v>
+      </c>
+      <c r="F44" s="41"/>
+      <c r="G44" s="41"/>
+      <c r="H44" s="41"/>
+      <c r="I44" s="39">
+        <v>1</v>
+      </c>
+      <c r="J44" s="41"/>
+      <c r="K44" s="41"/>
+      <c r="L44" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="M44" s="42"/>
+      <c r="N44" s="41"/>
+      <c r="O44" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="P44" s="91"/>
+    </row>
+    <row r="45" spans="2:16" s="51" customFormat="1" ht="30" customHeight="1">
+      <c r="B45" s="52">
+        <v>38</v>
+      </c>
+      <c r="C45" s="93" t="s">
+        <v>164</v>
+      </c>
+      <c r="D45" s="93" t="s">
+        <v>229</v>
+      </c>
+      <c r="E45" s="93" t="s">
+        <v>179</v>
+      </c>
+      <c r="F45" s="93"/>
+      <c r="G45" s="93"/>
+      <c r="H45" s="93"/>
+      <c r="I45" s="54">
+        <v>1</v>
+      </c>
+      <c r="J45" s="93"/>
+      <c r="K45" s="93"/>
+      <c r="L45" s="94" t="s">
+        <v>59</v>
+      </c>
+      <c r="M45" s="94"/>
+      <c r="N45" s="93"/>
+      <c r="O45" s="31" t="s">
+        <v>211</v>
+      </c>
+      <c r="P45" s="63" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" s="32" customFormat="1" ht="30" customHeight="1">
+      <c r="B46" s="33">
+        <v>39</v>
+      </c>
+      <c r="C46" s="95" t="s">
+        <v>209</v>
+      </c>
+      <c r="D46" s="41" t="s">
+        <v>210</v>
+      </c>
+      <c r="E46" s="41" t="s">
+        <v>162</v>
+      </c>
+      <c r="F46" s="41"/>
+      <c r="G46" s="41"/>
+      <c r="H46" s="41"/>
+      <c r="I46" s="39">
+        <v>1</v>
+      </c>
+      <c r="J46" s="41"/>
+      <c r="K46" s="41"/>
+      <c r="L46" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="M46" s="42"/>
+      <c r="N46" s="41"/>
+      <c r="O46" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="P46" s="91"/>
+    </row>
+    <row r="47" spans="2:16" s="32" customFormat="1" ht="30" customHeight="1">
+      <c r="B47" s="33">
+        <v>40</v>
+      </c>
+      <c r="C47" s="95" t="s">
+        <v>230</v>
+      </c>
+      <c r="D47" s="41" t="s">
+        <v>231</v>
+      </c>
+      <c r="E47" s="41" t="s">
+        <v>162</v>
+      </c>
+      <c r="F47" s="41"/>
+      <c r="G47" s="41"/>
+      <c r="H47" s="41"/>
+      <c r="I47" s="39">
+        <v>1</v>
+      </c>
+      <c r="J47" s="41"/>
+      <c r="K47" s="41"/>
+      <c r="L47" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="M47" s="42"/>
+      <c r="N47" s="41"/>
+      <c r="O47" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="P47" s="91"/>
+    </row>
+    <row r="48" spans="2:16" s="51" customFormat="1" ht="30" customHeight="1">
+      <c r="B48" s="52">
+        <v>41</v>
+      </c>
+      <c r="C48" s="93" t="s">
+        <v>232</v>
+      </c>
+      <c r="D48" s="53" t="s">
+        <v>208</v>
+      </c>
+      <c r="E48" s="93" t="s">
+        <v>162</v>
+      </c>
+      <c r="F48" s="93"/>
+      <c r="G48" s="93"/>
+      <c r="H48" s="93"/>
+      <c r="I48" s="54">
+        <v>1</v>
+      </c>
+      <c r="J48" s="93"/>
+      <c r="K48" s="93"/>
+      <c r="L48" s="94" t="s">
+        <v>59</v>
+      </c>
+      <c r="M48" s="94"/>
+      <c r="N48" s="93"/>
+      <c r="O48" s="31" t="s">
+        <v>211</v>
+      </c>
+      <c r="P48" s="63" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="49" spans="2:16" s="57" customFormat="1" ht="15">
+      <c r="B49" s="6">
         <v>43</v>
       </c>
-      <c r="M10" s="40" t="s">
+      <c r="C49" s="70"/>
+      <c r="D49" s="70"/>
+      <c r="E49" s="70"/>
+      <c r="F49" s="70"/>
+      <c r="G49" s="70"/>
+      <c r="H49" s="70"/>
+      <c r="I49" s="71"/>
+      <c r="J49" s="70"/>
+      <c r="K49" s="70"/>
+      <c r="L49" s="7"/>
+      <c r="M49" s="26"/>
+      <c r="N49" s="70"/>
+      <c r="O49" s="70"/>
+      <c r="P49" s="85"/>
+    </row>
+    <row r="50" spans="2:16" s="57" customFormat="1" ht="15">
+      <c r="B50" s="6">
         <v>44</v>
       </c>
-      <c r="N10" s="37"/>
-      <c r="O10" s="35" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" s="12" customFormat="1" ht="105">
-      <c r="B11" s="25">
-        <v>4</v>
-      </c>
-      <c r="C11" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="D11" s="26" t="s">
-        <v>78</v>
-      </c>
-      <c r="E11" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="F11" s="26" t="s">
-        <v>81</v>
-      </c>
-      <c r="G11" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="H11" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="I11" s="44">
-        <v>1</v>
-      </c>
-      <c r="J11" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="K11" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="L11" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="M11" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="N11" s="26"/>
-      <c r="O11" s="28" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" s="10" customFormat="1" ht="60">
-      <c r="B12" s="8">
-        <v>5</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="G12" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="H12" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="I12" s="36">
-        <v>1</v>
-      </c>
-      <c r="J12" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="K12" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="L12" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="M12" s="35" t="s">
-        <v>89</v>
-      </c>
-      <c r="N12" s="13"/>
-      <c r="O12" s="35" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" s="42" customFormat="1" ht="120">
-      <c r="A13" s="45"/>
-      <c r="B13" s="38">
-        <v>6</v>
-      </c>
-      <c r="C13" s="37" t="s">
-        <v>94</v>
-      </c>
-      <c r="D13" s="37" t="s">
-        <v>157</v>
-      </c>
-      <c r="E13" s="37" t="s">
-        <v>90</v>
-      </c>
-      <c r="F13" s="37" t="s">
-        <v>97</v>
-      </c>
-      <c r="G13" s="37" t="s">
-        <v>91</v>
-      </c>
-      <c r="H13" s="37" t="s">
-        <v>92</v>
-      </c>
-      <c r="I13" s="39">
-        <v>1</v>
-      </c>
-      <c r="J13" s="37" t="s">
-        <v>93</v>
-      </c>
-      <c r="K13" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="L13" s="40" t="s">
-        <v>43</v>
-      </c>
-      <c r="M13" s="40" t="s">
-        <v>44</v>
-      </c>
-      <c r="N13" s="37"/>
-      <c r="O13" s="35" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" s="42" customFormat="1" ht="120">
-      <c r="A14" s="45"/>
-      <c r="B14" s="38">
-        <v>7</v>
-      </c>
-      <c r="C14" s="37" t="s">
-        <v>95</v>
-      </c>
-      <c r="D14" s="37" t="s">
-        <v>96</v>
-      </c>
-      <c r="E14" s="37" t="s">
-        <v>103</v>
-      </c>
-      <c r="F14" s="37" t="s">
-        <v>99</v>
-      </c>
-      <c r="G14" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="H14" s="37" t="s">
-        <v>100</v>
-      </c>
-      <c r="I14" s="39">
-        <v>1</v>
-      </c>
-      <c r="J14" s="37" t="s">
-        <v>93</v>
-      </c>
-      <c r="K14" s="37" t="s">
-        <v>67</v>
-      </c>
-      <c r="L14" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="M14" s="40" t="s">
-        <v>44</v>
-      </c>
-      <c r="N14" s="37"/>
-      <c r="O14" s="35" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" s="54" customFormat="1" ht="90">
-      <c r="A15" s="53"/>
-      <c r="B15" s="38">
-        <v>8</v>
-      </c>
-      <c r="C15" s="37" t="s">
-        <v>102</v>
-      </c>
-      <c r="D15" s="37" t="s">
-        <v>105</v>
-      </c>
-      <c r="E15" s="37" t="s">
-        <v>104</v>
-      </c>
-      <c r="F15" s="37" t="s">
-        <v>109</v>
-      </c>
-      <c r="G15" s="39" t="s">
-        <v>106</v>
-      </c>
-      <c r="H15" s="37" t="s">
-        <v>107</v>
-      </c>
-      <c r="I15" s="39">
-        <v>1</v>
-      </c>
-      <c r="J15" s="37" t="s">
-        <v>93</v>
-      </c>
-      <c r="K15" s="37" t="s">
-        <v>67</v>
-      </c>
-      <c r="L15" s="40" t="s">
-        <v>43</v>
-      </c>
-      <c r="M15" s="40" t="s">
-        <v>44</v>
-      </c>
-      <c r="N15" s="37"/>
-      <c r="O15" s="40" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="90">
-      <c r="B16" s="25">
-        <v>9</v>
-      </c>
-      <c r="C16" s="26" t="s">
-        <v>108</v>
-      </c>
-      <c r="D16" s="26" t="s">
-        <v>108</v>
-      </c>
-      <c r="E16" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="F16" s="26" t="s">
-        <v>115</v>
-      </c>
-      <c r="G16" s="44" t="s">
-        <v>110</v>
-      </c>
-      <c r="H16" s="26" t="s">
-        <v>111</v>
-      </c>
-      <c r="I16" s="44">
-        <v>1</v>
-      </c>
-      <c r="J16" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="K16" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="L16" s="28" t="s">
-        <v>59</v>
-      </c>
-      <c r="M16" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="N16" s="26"/>
-      <c r="O16" s="28" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" s="10" customFormat="1" ht="75">
-      <c r="B17" s="25">
-        <v>10</v>
-      </c>
-      <c r="C17" s="26" t="s">
-        <v>112</v>
-      </c>
-      <c r="D17" s="26" t="s">
-        <v>114</v>
-      </c>
-      <c r="E17" s="26" t="s">
-        <v>127</v>
-      </c>
-      <c r="F17" s="26" t="s">
-        <v>118</v>
-      </c>
-      <c r="G17" s="26" t="s">
-        <v>116</v>
-      </c>
-      <c r="H17" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="I17" s="44">
-        <v>1</v>
-      </c>
-      <c r="J17" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="K17" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="L17" s="28" t="s">
-        <v>59</v>
-      </c>
-      <c r="M17" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="N17" s="26"/>
-      <c r="O17" s="28" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" s="42" customFormat="1" ht="90">
-      <c r="A18" s="46"/>
-      <c r="B18" s="38">
-        <v>11</v>
-      </c>
-      <c r="C18" s="37" t="s">
-        <v>119</v>
-      </c>
-      <c r="D18" s="37" t="s">
-        <v>122</v>
-      </c>
-      <c r="E18" s="37" t="s">
-        <v>120</v>
-      </c>
-      <c r="F18" s="37" t="s">
-        <v>121</v>
-      </c>
-      <c r="G18" s="37" t="s">
-        <v>123</v>
-      </c>
-      <c r="H18" s="37" t="s">
-        <v>124</v>
-      </c>
-      <c r="I18" s="39">
-        <v>1</v>
-      </c>
-      <c r="J18" s="37" t="s">
-        <v>93</v>
-      </c>
-      <c r="K18" s="37" t="s">
-        <v>67</v>
-      </c>
-      <c r="L18" s="40" t="s">
-        <v>43</v>
-      </c>
-      <c r="M18" s="40" t="s">
-        <v>44</v>
-      </c>
-      <c r="N18" s="37"/>
-      <c r="O18" s="35" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" s="10" customFormat="1" ht="75">
-      <c r="B19" s="25">
-        <v>12</v>
-      </c>
-      <c r="C19" s="26" t="s">
-        <v>132</v>
-      </c>
-      <c r="D19" s="26" t="s">
-        <v>125</v>
-      </c>
-      <c r="E19" s="26" t="s">
-        <v>126</v>
-      </c>
-      <c r="F19" s="26" t="s">
-        <v>128</v>
-      </c>
-      <c r="G19" s="26" t="s">
-        <v>129</v>
-      </c>
-      <c r="H19" s="26" t="s">
-        <v>130</v>
-      </c>
-      <c r="I19" s="44">
-        <v>1</v>
-      </c>
-      <c r="J19" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="K19" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="L19" s="28" t="s">
-        <v>59</v>
-      </c>
-      <c r="M19" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="N19" s="26"/>
-      <c r="O19" s="28" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" s="10" customFormat="1" ht="90">
-      <c r="B20" s="25">
-        <v>13</v>
-      </c>
-      <c r="C20" s="26" t="s">
-        <v>131</v>
-      </c>
-      <c r="D20" s="26" t="s">
-        <v>133</v>
-      </c>
-      <c r="E20" s="26" t="s">
-        <v>134</v>
-      </c>
-      <c r="F20" s="26" t="s">
-        <v>140</v>
-      </c>
-      <c r="G20" s="26" t="s">
-        <v>135</v>
-      </c>
-      <c r="H20" s="26" t="s">
-        <v>136</v>
-      </c>
-      <c r="I20" s="44">
-        <v>1</v>
-      </c>
-      <c r="J20" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="K20" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="L20" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="M20" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="N20" s="26"/>
-      <c r="O20" s="28" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" s="42" customFormat="1" ht="165">
-      <c r="A21" s="43"/>
-      <c r="B21" s="38">
-        <v>14</v>
-      </c>
-      <c r="C21" s="37" t="s">
-        <v>137</v>
-      </c>
-      <c r="D21" s="37" t="s">
-        <v>138</v>
-      </c>
-      <c r="E21" s="37" t="s">
-        <v>139</v>
-      </c>
-      <c r="F21" s="37" t="s">
-        <v>141</v>
-      </c>
-      <c r="G21" s="37" t="s">
-        <v>142</v>
-      </c>
-      <c r="H21" s="37" t="s">
-        <v>143</v>
-      </c>
-      <c r="I21" s="39">
-        <v>1</v>
-      </c>
-      <c r="J21" s="37" t="s">
-        <v>93</v>
-      </c>
-      <c r="K21" s="37" t="s">
-        <v>67</v>
-      </c>
-      <c r="L21" s="40" t="s">
-        <v>144</v>
-      </c>
-      <c r="M21" s="40" t="s">
-        <v>89</v>
-      </c>
-      <c r="N21" s="37"/>
-      <c r="O21" s="35" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" s="42" customFormat="1" ht="45">
-      <c r="A22" s="43"/>
-      <c r="B22" s="38">
-        <v>15</v>
-      </c>
-      <c r="C22" s="37" t="s">
-        <v>145</v>
-      </c>
-      <c r="D22" s="37"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="37"/>
-      <c r="H22" s="37"/>
-      <c r="I22" s="39"/>
-      <c r="J22" s="37"/>
-      <c r="K22" s="37"/>
-      <c r="L22" s="40" t="s">
-        <v>144</v>
-      </c>
-      <c r="M22" s="40" t="s">
-        <v>89</v>
-      </c>
-      <c r="N22" s="37"/>
-      <c r="O22" s="35" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" s="42" customFormat="1" ht="30">
-      <c r="A23" s="43"/>
-      <c r="B23" s="38">
-        <v>16</v>
-      </c>
-      <c r="C23" s="37" t="s">
-        <v>146</v>
-      </c>
-      <c r="D23" s="37"/>
-      <c r="E23" s="37"/>
-      <c r="F23" s="37"/>
-      <c r="G23" s="37"/>
-      <c r="H23" s="37"/>
-      <c r="I23" s="39"/>
-      <c r="J23" s="37"/>
-      <c r="K23" s="37"/>
-      <c r="L23" s="40" t="s">
-        <v>144</v>
-      </c>
-      <c r="M23" s="40" t="s">
-        <v>89</v>
-      </c>
-      <c r="N23" s="37"/>
-      <c r="O23" s="35" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" s="42" customFormat="1" ht="90">
-      <c r="A24" s="45"/>
-      <c r="B24" s="38">
-        <v>17</v>
-      </c>
-      <c r="C24" s="37" t="s">
-        <v>149</v>
-      </c>
-      <c r="D24" s="37"/>
-      <c r="E24" s="37"/>
-      <c r="F24" s="37"/>
-      <c r="G24" s="37"/>
-      <c r="H24" s="37"/>
-      <c r="I24" s="39"/>
-      <c r="J24" s="37"/>
-      <c r="K24" s="37"/>
-      <c r="L24" s="40" t="s">
-        <v>144</v>
-      </c>
-      <c r="M24" s="40" t="s">
-        <v>60</v>
-      </c>
-      <c r="N24" s="37"/>
-      <c r="O24" s="35" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" s="47" customFormat="1" ht="45">
-      <c r="B25" s="48">
-        <v>18</v>
-      </c>
-      <c r="C25" s="49" t="s">
-        <v>147</v>
-      </c>
-      <c r="D25" s="49"/>
-      <c r="E25" s="49" t="s">
-        <v>158</v>
-      </c>
-      <c r="F25" s="49"/>
-      <c r="G25" s="49"/>
-      <c r="H25" s="49"/>
-      <c r="I25" s="50"/>
-      <c r="J25" s="49"/>
-      <c r="K25" s="49"/>
-      <c r="L25" s="51" t="s">
-        <v>144</v>
-      </c>
-      <c r="M25" s="51" t="s">
-        <v>60</v>
-      </c>
-      <c r="N25" s="49"/>
-      <c r="O25" s="51" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" s="42" customFormat="1" ht="90">
-      <c r="A26" s="45"/>
-      <c r="B26" s="38">
-        <v>19</v>
-      </c>
-      <c r="C26" s="37" t="s">
-        <v>148</v>
-      </c>
-      <c r="D26" s="37"/>
-      <c r="E26" s="37"/>
-      <c r="F26" s="37"/>
-      <c r="G26" s="37"/>
-      <c r="H26" s="37"/>
-      <c r="I26" s="39"/>
-      <c r="J26" s="37"/>
-      <c r="K26" s="37"/>
-      <c r="L26" s="40" t="s">
-        <v>59</v>
-      </c>
-      <c r="M26" s="40" t="s">
-        <v>60</v>
-      </c>
-      <c r="N26" s="37"/>
-      <c r="O26" s="35" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" s="47" customFormat="1" ht="60">
-      <c r="B27" s="48">
-        <v>20</v>
-      </c>
-      <c r="C27" s="49" t="s">
-        <v>160</v>
-      </c>
-      <c r="D27" s="49"/>
-      <c r="E27" s="49" t="s">
-        <v>159</v>
-      </c>
-      <c r="F27" s="49"/>
-      <c r="G27" s="49"/>
-      <c r="H27" s="49"/>
-      <c r="I27" s="50"/>
-      <c r="J27" s="49"/>
-      <c r="K27" s="49"/>
-      <c r="L27" s="51"/>
-      <c r="M27" s="51"/>
-      <c r="N27" s="49"/>
-      <c r="O27" s="49"/>
-    </row>
-    <row r="28" spans="1:15" s="64" customFormat="1" ht="30" customHeight="1">
-      <c r="B28" s="65">
-        <v>21</v>
-      </c>
-      <c r="C28" s="66" t="s">
-        <v>161</v>
-      </c>
-      <c r="D28" s="66" t="s">
-        <v>162</v>
-      </c>
-      <c r="E28" s="66" t="s">
-        <v>163</v>
-      </c>
-      <c r="F28" s="66" t="s">
-        <v>164</v>
-      </c>
-      <c r="G28" s="66" t="s">
-        <v>165</v>
-      </c>
-      <c r="H28" s="66" t="s">
-        <v>166</v>
-      </c>
-      <c r="I28" s="67">
-        <v>0.3</v>
-      </c>
-      <c r="J28" s="66"/>
-      <c r="K28" s="66"/>
-      <c r="L28" s="68" t="s">
-        <v>59</v>
-      </c>
-      <c r="M28" s="68"/>
-      <c r="N28" s="66"/>
-      <c r="O28" s="35" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" s="64" customFormat="1" ht="30" customHeight="1">
-      <c r="B29" s="65">
-        <v>22</v>
-      </c>
-      <c r="C29" s="66" t="s">
-        <v>167</v>
-      </c>
-      <c r="D29" s="69" t="s">
-        <v>168</v>
-      </c>
-      <c r="E29" s="66" t="s">
-        <v>169</v>
-      </c>
-      <c r="F29" s="66" t="s">
-        <v>170</v>
-      </c>
-      <c r="G29" s="66" t="s">
-        <v>171</v>
-      </c>
-      <c r="H29" s="66" t="s">
-        <v>172</v>
-      </c>
-      <c r="I29" s="67">
-        <v>1</v>
-      </c>
-      <c r="J29" s="66"/>
-      <c r="K29" s="66"/>
-      <c r="L29" s="68" t="s">
-        <v>59</v>
-      </c>
-      <c r="M29" s="68"/>
-      <c r="N29" s="66"/>
-      <c r="O29" s="35" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" s="64" customFormat="1" ht="30" customHeight="1">
-      <c r="B30" s="65">
-        <v>23</v>
-      </c>
-      <c r="C30" s="66" t="s">
-        <v>171</v>
-      </c>
-      <c r="D30" s="66" t="s">
-        <v>173</v>
-      </c>
-      <c r="E30" s="66" t="s">
-        <v>163</v>
-      </c>
-      <c r="F30" s="66" t="s">
-        <v>174</v>
-      </c>
-      <c r="G30" s="66" t="s">
-        <v>175</v>
-      </c>
-      <c r="H30" s="66" t="s">
-        <v>176</v>
-      </c>
-      <c r="I30" s="67">
-        <v>1</v>
-      </c>
-      <c r="J30" s="66"/>
-      <c r="K30" s="66"/>
-      <c r="L30" s="68" t="s">
-        <v>59</v>
-      </c>
-      <c r="M30" s="68"/>
-      <c r="N30" s="66"/>
-      <c r="O30" s="35" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" s="70" customFormat="1" ht="30" customHeight="1">
-      <c r="B31" s="65">
-        <v>24</v>
-      </c>
-      <c r="C31" s="66" t="s">
-        <v>213</v>
-      </c>
-      <c r="D31" s="69" t="s">
-        <v>214</v>
-      </c>
-      <c r="E31" s="66" t="s">
-        <v>169</v>
-      </c>
-      <c r="F31" s="66" t="s">
-        <v>169</v>
-      </c>
-      <c r="G31" s="66" t="s">
-        <v>177</v>
-      </c>
-      <c r="H31" s="66" t="s">
-        <v>178</v>
-      </c>
-      <c r="I31" s="67">
-        <v>1</v>
-      </c>
-      <c r="J31" s="66"/>
-      <c r="K31" s="66"/>
-      <c r="L31" s="68" t="s">
-        <v>59</v>
-      </c>
-      <c r="M31" s="68"/>
-      <c r="N31" s="69"/>
-      <c r="O31" s="35" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" s="71" customFormat="1" ht="30" customHeight="1">
-      <c r="B32" s="65">
-        <v>25</v>
-      </c>
-      <c r="C32" s="66" t="s">
-        <v>215</v>
-      </c>
-      <c r="D32" s="69" t="s">
-        <v>179</v>
-      </c>
-      <c r="E32" s="66" t="s">
-        <v>180</v>
-      </c>
-      <c r="F32" s="66" t="s">
-        <v>181</v>
-      </c>
-      <c r="G32" s="69"/>
-      <c r="H32" s="69"/>
-      <c r="I32" s="67">
-        <v>1</v>
-      </c>
-      <c r="J32" s="69"/>
-      <c r="K32" s="69"/>
-      <c r="L32" s="68" t="s">
-        <v>59</v>
-      </c>
-      <c r="M32" s="68"/>
-      <c r="N32" s="69"/>
-      <c r="O32" s="35" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="33" spans="2:15" s="71" customFormat="1" ht="30" customHeight="1">
-      <c r="B33" s="65">
-        <v>26</v>
-      </c>
-      <c r="C33" s="69" t="s">
-        <v>219</v>
-      </c>
-      <c r="D33" s="69" t="s">
-        <v>182</v>
-      </c>
-      <c r="E33" s="66" t="s">
-        <v>163</v>
-      </c>
-      <c r="F33" s="66" t="s">
-        <v>169</v>
-      </c>
-      <c r="G33" s="69"/>
-      <c r="H33" s="69"/>
-      <c r="I33" s="67">
-        <v>1</v>
-      </c>
-      <c r="J33" s="69"/>
-      <c r="K33" s="69"/>
-      <c r="L33" s="68" t="s">
-        <v>59</v>
-      </c>
-      <c r="M33" s="68"/>
-      <c r="N33" s="69"/>
-      <c r="O33" s="35" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="34" spans="2:15" s="72" customFormat="1" ht="30" customHeight="1">
-      <c r="B34" s="65">
-        <v>27</v>
-      </c>
-      <c r="C34" s="73" t="s">
-        <v>216</v>
-      </c>
-      <c r="D34" s="77" t="s">
-        <v>183</v>
-      </c>
-      <c r="E34" s="76" t="s">
-        <v>184</v>
-      </c>
-      <c r="F34" s="76" t="s">
-        <v>163</v>
-      </c>
-      <c r="G34" s="76" t="s">
-        <v>217</v>
-      </c>
-      <c r="H34" s="76" t="s">
-        <v>218</v>
-      </c>
-      <c r="I34" s="78">
-        <v>1</v>
-      </c>
-      <c r="J34" s="77"/>
-      <c r="K34" s="77"/>
-      <c r="L34" s="79" t="s">
-        <v>59</v>
-      </c>
-      <c r="M34" s="79"/>
-      <c r="N34" s="77"/>
-      <c r="O34" s="35" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="35" spans="2:15" s="72" customFormat="1" ht="30" customHeight="1">
-      <c r="B35" s="65">
-        <v>28</v>
-      </c>
-      <c r="C35" s="73" t="s">
-        <v>220</v>
-      </c>
-      <c r="D35" s="77" t="s">
-        <v>185</v>
-      </c>
-      <c r="E35" s="76" t="s">
-        <v>180</v>
-      </c>
-      <c r="F35" s="76" t="s">
-        <v>163</v>
-      </c>
-      <c r="G35" s="76" t="s">
-        <v>186</v>
-      </c>
-      <c r="H35" s="76" t="s">
-        <v>187</v>
-      </c>
-      <c r="I35" s="78">
-        <v>1</v>
-      </c>
-      <c r="J35" s="77"/>
-      <c r="K35" s="77"/>
-      <c r="L35" s="79" t="s">
-        <v>59</v>
-      </c>
-      <c r="M35" s="79"/>
-      <c r="N35" s="77"/>
-      <c r="O35" s="35" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="36" spans="2:15" s="71" customFormat="1" ht="30" customHeight="1">
-      <c r="B36" s="65">
-        <v>29</v>
-      </c>
-      <c r="C36" s="74" t="s">
-        <v>221</v>
-      </c>
-      <c r="D36" s="77" t="s">
-        <v>188</v>
-      </c>
-      <c r="E36" s="76" t="s">
-        <v>180</v>
-      </c>
-      <c r="F36" s="76" t="s">
-        <v>163</v>
-      </c>
-      <c r="G36" s="77" t="s">
-        <v>189</v>
-      </c>
-      <c r="H36" s="76" t="s">
-        <v>190</v>
-      </c>
-      <c r="I36" s="78">
-        <v>1</v>
-      </c>
-      <c r="J36" s="77"/>
-      <c r="K36" s="77"/>
-      <c r="L36" s="79" t="s">
-        <v>59</v>
-      </c>
-      <c r="M36" s="79"/>
-      <c r="N36" s="77"/>
-      <c r="O36" s="35" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="37" spans="2:15" s="71" customFormat="1" ht="30" customHeight="1">
-      <c r="B37" s="65">
-        <v>30</v>
-      </c>
-      <c r="C37" s="73" t="s">
-        <v>191</v>
-      </c>
-      <c r="D37" s="77" t="s">
-        <v>192</v>
-      </c>
-      <c r="E37" s="76" t="s">
-        <v>180</v>
-      </c>
-      <c r="F37" s="76" t="s">
-        <v>180</v>
-      </c>
-      <c r="G37" s="76" t="s">
-        <v>193</v>
-      </c>
-      <c r="H37" s="77" t="s">
-        <v>194</v>
-      </c>
-      <c r="I37" s="76" t="s">
-        <v>195</v>
-      </c>
-      <c r="J37" s="77"/>
-      <c r="K37" s="77"/>
-      <c r="L37" s="79" t="s">
-        <v>144</v>
-      </c>
-      <c r="M37" s="79"/>
-      <c r="N37" s="77"/>
-      <c r="O37" s="35" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="38" spans="2:15" s="71" customFormat="1" ht="30" customHeight="1">
-      <c r="B38" s="65">
-        <v>31</v>
-      </c>
-      <c r="C38" s="83" t="s">
-        <v>222</v>
-      </c>
-      <c r="D38" s="77" t="s">
-        <v>196</v>
-      </c>
-      <c r="E38" s="76" t="s">
-        <v>163</v>
-      </c>
-      <c r="F38" s="76" t="s">
-        <v>180</v>
-      </c>
-      <c r="G38" s="77"/>
-      <c r="H38" s="76" t="s">
-        <v>197</v>
-      </c>
-      <c r="I38" s="78">
-        <v>1</v>
-      </c>
-      <c r="J38" s="77"/>
-      <c r="K38" s="77"/>
-      <c r="L38" s="79" t="s">
-        <v>144</v>
-      </c>
-      <c r="M38" s="79"/>
-      <c r="N38" s="77"/>
-      <c r="O38" s="35" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="39" spans="2:15" s="71" customFormat="1" ht="30" customHeight="1">
-      <c r="B39" s="65">
-        <v>32</v>
-      </c>
-      <c r="C39" s="73" t="s">
-        <v>198</v>
-      </c>
-      <c r="D39" s="77" t="s">
-        <v>223</v>
-      </c>
-      <c r="E39" s="76" t="s">
-        <v>163</v>
-      </c>
-      <c r="F39" s="76" t="s">
-        <v>163</v>
-      </c>
-      <c r="G39" s="76" t="s">
-        <v>199</v>
-      </c>
-      <c r="H39" s="76" t="s">
-        <v>200</v>
-      </c>
-      <c r="I39" s="76" t="s">
-        <v>195</v>
-      </c>
-      <c r="J39" s="77"/>
-      <c r="K39" s="77"/>
-      <c r="L39" s="79" t="s">
-        <v>144</v>
-      </c>
-      <c r="M39" s="79"/>
-      <c r="N39" s="77"/>
-      <c r="O39" s="35" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="40" spans="2:15" s="71" customFormat="1" ht="30" customHeight="1">
-      <c r="B40" s="65">
-        <v>33</v>
-      </c>
-      <c r="C40" s="76" t="s">
-        <v>201</v>
-      </c>
-      <c r="D40" s="76" t="s">
-        <v>202</v>
-      </c>
-      <c r="E40" s="76" t="s">
-        <v>180</v>
-      </c>
-      <c r="F40" s="76" t="s">
-        <v>180</v>
-      </c>
-      <c r="G40" s="77"/>
-      <c r="H40" s="77"/>
-      <c r="I40" s="77"/>
-      <c r="J40" s="77"/>
-      <c r="K40" s="77"/>
-      <c r="L40" s="79" t="s">
-        <v>59</v>
-      </c>
-      <c r="M40" s="79"/>
-      <c r="N40" s="77"/>
-      <c r="O40" s="35" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="41" spans="2:15" s="75" customFormat="1" ht="30" customHeight="1">
-      <c r="B41" s="65">
-        <v>34</v>
-      </c>
-      <c r="C41" s="77" t="s">
-        <v>203</v>
-      </c>
-      <c r="D41" s="77" t="s">
-        <v>224</v>
-      </c>
-      <c r="E41" s="77" t="s">
-        <v>225</v>
-      </c>
-      <c r="F41" s="77" t="s">
-        <v>226</v>
-      </c>
-      <c r="G41" s="76" t="s">
-        <v>204</v>
-      </c>
-      <c r="H41" s="77" t="s">
-        <v>205</v>
-      </c>
-      <c r="I41" s="78">
-        <v>1</v>
-      </c>
-      <c r="J41" s="77"/>
-      <c r="K41" s="77"/>
-      <c r="L41" s="79" t="s">
-        <v>59</v>
-      </c>
-      <c r="M41" s="79"/>
-      <c r="N41" s="77"/>
-      <c r="O41" s="35" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="42" spans="2:15" s="71" customFormat="1" ht="30" customHeight="1">
-      <c r="B42" s="65">
-        <v>35</v>
-      </c>
-      <c r="C42" s="73" t="s">
-        <v>227</v>
-      </c>
-      <c r="D42" s="77" t="s">
-        <v>206</v>
-      </c>
-      <c r="E42" s="76" t="s">
-        <v>207</v>
-      </c>
-      <c r="F42" s="76" t="s">
-        <v>163</v>
-      </c>
-      <c r="G42" s="77" t="s">
-        <v>208</v>
-      </c>
-      <c r="H42" s="77"/>
-      <c r="I42" s="78">
-        <v>1</v>
-      </c>
-      <c r="J42" s="77"/>
-      <c r="K42" s="77"/>
-      <c r="L42" s="79" t="s">
-        <v>59</v>
-      </c>
-      <c r="M42" s="79"/>
-      <c r="N42" s="77"/>
-      <c r="O42" s="35" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="43" spans="2:15" s="71" customFormat="1" ht="30" customHeight="1">
-      <c r="B43" s="65">
-        <v>36</v>
-      </c>
-      <c r="C43" s="77" t="s">
-        <v>228</v>
-      </c>
-      <c r="D43" s="77" t="s">
-        <v>209</v>
-      </c>
-      <c r="E43" s="80" t="s">
-        <v>180</v>
-      </c>
-      <c r="F43" s="77"/>
-      <c r="G43" s="77"/>
-      <c r="H43" s="77"/>
-      <c r="I43" s="78">
-        <v>1</v>
-      </c>
-      <c r="J43" s="77"/>
-      <c r="K43" s="77"/>
-      <c r="L43" s="79" t="s">
-        <v>59</v>
-      </c>
-      <c r="M43" s="79"/>
-      <c r="N43" s="77"/>
-      <c r="O43" s="35" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="44" spans="2:15" s="71" customFormat="1" ht="30" customHeight="1">
-      <c r="B44" s="65">
-        <v>37</v>
-      </c>
-      <c r="C44" s="80" t="s">
-        <v>229</v>
-      </c>
-      <c r="D44" s="76" t="s">
-        <v>209</v>
-      </c>
-      <c r="E44" s="81" t="s">
-        <v>180</v>
-      </c>
-      <c r="F44" s="80"/>
-      <c r="G44" s="80"/>
-      <c r="H44" s="80"/>
-      <c r="I44" s="78">
-        <v>1</v>
-      </c>
-      <c r="J44" s="80"/>
-      <c r="K44" s="80"/>
-      <c r="L44" s="82" t="s">
-        <v>59</v>
-      </c>
-      <c r="M44" s="82"/>
-      <c r="N44" s="80"/>
-      <c r="O44" s="35" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="45" spans="2:15" s="71" customFormat="1" ht="30" customHeight="1">
-      <c r="B45" s="65">
-        <v>38</v>
-      </c>
-      <c r="C45" s="81" t="s">
-        <v>165</v>
-      </c>
-      <c r="D45" s="81" t="s">
-        <v>230</v>
-      </c>
-      <c r="E45" s="81" t="s">
-        <v>180</v>
-      </c>
-      <c r="F45" s="80"/>
-      <c r="G45" s="80"/>
-      <c r="H45" s="80"/>
-      <c r="I45" s="78">
-        <v>1</v>
-      </c>
-      <c r="J45" s="80"/>
-      <c r="K45" s="80"/>
-      <c r="L45" s="82" t="s">
-        <v>59</v>
-      </c>
-      <c r="M45" s="82"/>
-      <c r="N45" s="80"/>
-      <c r="O45" s="35" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="46" spans="2:15" s="71" customFormat="1" ht="30" customHeight="1">
-      <c r="B46" s="65">
-        <v>39</v>
-      </c>
-      <c r="C46" s="85" t="s">
-        <v>210</v>
-      </c>
-      <c r="D46" s="81" t="s">
-        <v>211</v>
-      </c>
-      <c r="E46" s="81" t="s">
-        <v>163</v>
-      </c>
-      <c r="F46" s="80"/>
-      <c r="G46" s="80"/>
-      <c r="H46" s="80"/>
-      <c r="I46" s="78">
-        <v>1</v>
-      </c>
-      <c r="J46" s="80"/>
-      <c r="K46" s="80"/>
-      <c r="L46" s="82" t="s">
-        <v>59</v>
-      </c>
-      <c r="M46" s="82"/>
-      <c r="N46" s="80"/>
-      <c r="O46" s="35" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="47" spans="2:15" s="71" customFormat="1" ht="30" customHeight="1">
-      <c r="B47" s="65">
-        <v>40</v>
-      </c>
-      <c r="C47" s="85" t="s">
-        <v>231</v>
-      </c>
-      <c r="D47" s="81" t="s">
-        <v>232</v>
-      </c>
-      <c r="E47" s="81" t="s">
-        <v>163</v>
-      </c>
-      <c r="F47" s="80"/>
-      <c r="G47" s="80"/>
-      <c r="H47" s="80"/>
-      <c r="I47" s="78">
-        <v>1</v>
-      </c>
-      <c r="J47" s="80"/>
-      <c r="K47" s="80"/>
-      <c r="L47" s="82" t="s">
-        <v>59</v>
-      </c>
-      <c r="M47" s="82"/>
-      <c r="N47" s="80"/>
-      <c r="O47" s="35" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="48" spans="2:15" s="71" customFormat="1" ht="30" customHeight="1">
-      <c r="B48" s="65">
-        <v>41</v>
-      </c>
-      <c r="C48" s="84" t="s">
-        <v>233</v>
-      </c>
-      <c r="D48" s="76" t="s">
-        <v>209</v>
-      </c>
-      <c r="E48" s="81" t="s">
-        <v>163</v>
-      </c>
-      <c r="F48" s="80"/>
-      <c r="G48" s="80"/>
-      <c r="H48" s="80"/>
-      <c r="I48" s="78">
-        <v>1</v>
-      </c>
-      <c r="J48" s="80"/>
-      <c r="K48" s="80"/>
-      <c r="L48" s="82" t="s">
-        <v>59</v>
-      </c>
-      <c r="M48" s="82"/>
-      <c r="N48" s="80"/>
-      <c r="O48" s="35" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="49" spans="2:15" s="10" customFormat="1" ht="15">
-      <c r="B49" s="8">
-        <v>43</v>
-      </c>
-      <c r="C49" s="13"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="13"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="13"/>
-      <c r="H49" s="13"/>
-      <c r="I49" s="36"/>
-      <c r="J49" s="13"/>
-      <c r="K49" s="13"/>
-      <c r="L49" s="9"/>
-      <c r="M49" s="35"/>
-      <c r="N49" s="13"/>
-      <c r="O49" s="13"/>
-    </row>
-    <row r="50" spans="2:15" s="10" customFormat="1" ht="15">
-      <c r="B50" s="8">
-        <v>44</v>
-      </c>
-      <c r="C50" s="13"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="13"/>
-      <c r="F50" s="13"/>
-      <c r="G50" s="13"/>
-      <c r="H50" s="13"/>
-      <c r="I50" s="36"/>
-      <c r="J50" s="13"/>
-      <c r="K50" s="13"/>
-      <c r="L50" s="9"/>
-      <c r="M50" s="35"/>
-      <c r="N50" s="13"/>
-      <c r="O50" s="13"/>
-    </row>
-    <row r="51" spans="2:15" s="10" customFormat="1" ht="15">
-      <c r="B51" s="8">
+      <c r="C50" s="70"/>
+      <c r="D50" s="70"/>
+      <c r="E50" s="70"/>
+      <c r="F50" s="70"/>
+      <c r="G50" s="70"/>
+      <c r="H50" s="70"/>
+      <c r="I50" s="71"/>
+      <c r="J50" s="70"/>
+      <c r="K50" s="70"/>
+      <c r="L50" s="7"/>
+      <c r="M50" s="26"/>
+      <c r="N50" s="70"/>
+      <c r="O50" s="70"/>
+      <c r="P50" s="85"/>
+    </row>
+    <row r="51" spans="2:16" s="57" customFormat="1" ht="15">
+      <c r="B51" s="6">
         <v>45</v>
       </c>
-      <c r="C51" s="13"/>
-      <c r="D51" s="13"/>
-      <c r="E51" s="13"/>
-      <c r="F51" s="13"/>
-      <c r="G51" s="13"/>
-      <c r="H51" s="13"/>
-      <c r="I51" s="36"/>
-      <c r="J51" s="13"/>
-      <c r="K51" s="13"/>
-      <c r="L51" s="9"/>
-      <c r="M51" s="35"/>
-      <c r="N51" s="13"/>
-      <c r="O51" s="13"/>
-    </row>
-    <row r="52" spans="2:15" s="10" customFormat="1" ht="15">
-      <c r="B52" s="8">
+      <c r="C51" s="70"/>
+      <c r="D51" s="70"/>
+      <c r="E51" s="70"/>
+      <c r="F51" s="70"/>
+      <c r="G51" s="70"/>
+      <c r="H51" s="70"/>
+      <c r="I51" s="71"/>
+      <c r="J51" s="70"/>
+      <c r="K51" s="70"/>
+      <c r="L51" s="7"/>
+      <c r="M51" s="26"/>
+      <c r="N51" s="70"/>
+      <c r="O51" s="70"/>
+      <c r="P51" s="85"/>
+    </row>
+    <row r="52" spans="2:16" s="57" customFormat="1" ht="15">
+      <c r="B52" s="6">
         <v>46</v>
       </c>
-      <c r="C52" s="13"/>
-      <c r="D52" s="13"/>
-      <c r="E52" s="13"/>
-      <c r="F52" s="13"/>
-      <c r="G52" s="13"/>
-      <c r="H52" s="13"/>
-      <c r="I52" s="36"/>
-      <c r="J52" s="13"/>
-      <c r="K52" s="13"/>
-      <c r="L52" s="9"/>
-      <c r="M52" s="35"/>
-      <c r="N52" s="13"/>
-      <c r="O52" s="13"/>
-    </row>
-    <row r="53" spans="2:15" s="10" customFormat="1" ht="15">
-      <c r="B53" s="8">
+      <c r="C52" s="70"/>
+      <c r="D52" s="70"/>
+      <c r="E52" s="70"/>
+      <c r="F52" s="70"/>
+      <c r="G52" s="70"/>
+      <c r="H52" s="70"/>
+      <c r="I52" s="71"/>
+      <c r="J52" s="70"/>
+      <c r="K52" s="70"/>
+      <c r="L52" s="7"/>
+      <c r="M52" s="26"/>
+      <c r="N52" s="70"/>
+      <c r="O52" s="70"/>
+      <c r="P52" s="85"/>
+    </row>
+    <row r="53" spans="2:16" s="57" customFormat="1" ht="15">
+      <c r="B53" s="6">
         <v>47</v>
       </c>
-      <c r="C53" s="13"/>
-      <c r="D53" s="13"/>
-      <c r="E53" s="13"/>
-      <c r="F53" s="13"/>
-      <c r="G53" s="13"/>
-      <c r="H53" s="13"/>
-      <c r="I53" s="36"/>
-      <c r="J53" s="13"/>
-      <c r="K53" s="13"/>
-      <c r="L53" s="9"/>
-      <c r="M53" s="35"/>
-      <c r="N53" s="13"/>
-      <c r="O53" s="13"/>
-    </row>
-    <row r="54" spans="2:15" s="10" customFormat="1" ht="15">
-      <c r="B54" s="8">
+      <c r="C53" s="70"/>
+      <c r="D53" s="70"/>
+      <c r="E53" s="70"/>
+      <c r="F53" s="70"/>
+      <c r="G53" s="70"/>
+      <c r="H53" s="70"/>
+      <c r="I53" s="71"/>
+      <c r="J53" s="70"/>
+      <c r="K53" s="70"/>
+      <c r="L53" s="7"/>
+      <c r="M53" s="26"/>
+      <c r="N53" s="70"/>
+      <c r="O53" s="70"/>
+      <c r="P53" s="85"/>
+    </row>
+    <row r="54" spans="2:16" s="57" customFormat="1" ht="15">
+      <c r="B54" s="6">
         <v>48</v>
       </c>
-      <c r="C54" s="13"/>
-      <c r="D54" s="13"/>
-      <c r="E54" s="13"/>
-      <c r="F54" s="13"/>
-      <c r="G54" s="13"/>
-      <c r="H54" s="13"/>
-      <c r="I54" s="36"/>
-      <c r="J54" s="13"/>
-      <c r="K54" s="13"/>
-      <c r="L54" s="9"/>
-      <c r="M54" s="35"/>
-      <c r="N54" s="13"/>
-      <c r="O54" s="13"/>
-    </row>
-    <row r="55" spans="2:15" ht="15.75" thickBot="1">
-      <c r="B55" s="7"/>
-      <c r="C55" s="14"/>
-      <c r="D55" s="14"/>
-      <c r="E55" s="14"/>
-      <c r="F55" s="14"/>
-      <c r="G55" s="14"/>
-      <c r="H55" s="14"/>
-      <c r="I55" s="14"/>
-      <c r="J55" s="14"/>
-      <c r="K55" s="14"/>
-      <c r="L55" s="15"/>
-      <c r="M55" s="15"/>
-      <c r="N55" s="15"/>
-      <c r="O55" s="15"/>
+      <c r="C54" s="70"/>
+      <c r="D54" s="70"/>
+      <c r="E54" s="70"/>
+      <c r="F54" s="70"/>
+      <c r="G54" s="70"/>
+      <c r="H54" s="70"/>
+      <c r="I54" s="71"/>
+      <c r="J54" s="70"/>
+      <c r="K54" s="70"/>
+      <c r="L54" s="7"/>
+      <c r="M54" s="26"/>
+      <c r="N54" s="70"/>
+      <c r="O54" s="70"/>
+      <c r="P54" s="85"/>
+    </row>
+    <row r="55" spans="2:16" ht="15.75" thickBot="1">
+      <c r="B55" s="5"/>
+      <c r="C55" s="81"/>
+      <c r="D55" s="81"/>
+      <c r="E55" s="81"/>
+      <c r="F55" s="81"/>
+      <c r="G55" s="81"/>
+      <c r="H55" s="81"/>
+      <c r="I55" s="81"/>
+      <c r="J55" s="81"/>
+      <c r="K55" s="81"/>
+      <c r="L55" s="82"/>
+      <c r="M55" s="82"/>
+      <c r="N55" s="82"/>
+      <c r="O55" s="82"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3905,7 +3972,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M7:M27 M49:M54">
       <formula1>"高,中,低"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O8:O26 O28:O48">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O8:O37 O39:O48">
       <formula1>"Active,Resolve,Close"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L7:L54">
@@ -3917,7 +3984,6 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3932,43 +3998,43 @@
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="23" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="33" customFormat="1">
-      <c r="A2" s="34" t="s">
+    <row r="2" spans="1:2" s="24" customFormat="1">
+      <c r="A2" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="25" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="33" customFormat="1"/>
-    <row r="4" spans="1:2" s="33" customFormat="1"/>
-    <row r="5" spans="1:2" s="33" customFormat="1"/>
-    <row r="6" spans="1:2" s="33" customFormat="1"/>
-    <row r="7" spans="1:2" s="33" customFormat="1"/>
-    <row r="8" spans="1:2" s="33" customFormat="1"/>
-    <row r="9" spans="1:2" s="33" customFormat="1"/>
-    <row r="10" spans="1:2" s="33" customFormat="1"/>
-    <row r="11" spans="1:2" s="33" customFormat="1"/>
-    <row r="12" spans="1:2" s="33" customFormat="1"/>
-    <row r="13" spans="1:2" s="33" customFormat="1"/>
-    <row r="14" spans="1:2" s="33" customFormat="1"/>
-    <row r="15" spans="1:2" s="33" customFormat="1"/>
-    <row r="16" spans="1:2" s="33" customFormat="1"/>
-    <row r="17" spans="1:1" s="33" customFormat="1"/>
-    <row r="18" spans="1:1" s="33" customFormat="1"/>
-    <row r="19" spans="1:1" s="33" customFormat="1"/>
-    <row r="20" spans="1:1" s="33" customFormat="1"/>
-    <row r="21" spans="1:1" s="33" customFormat="1"/>
-    <row r="22" spans="1:1" s="33" customFormat="1"/>
-    <row r="23" spans="1:1" s="33" customFormat="1"/>
-    <row r="24" spans="1:1" s="33" customFormat="1"/>
+    <row r="3" spans="1:2" s="24" customFormat="1"/>
+    <row r="4" spans="1:2" s="24" customFormat="1"/>
+    <row r="5" spans="1:2" s="24" customFormat="1"/>
+    <row r="6" spans="1:2" s="24" customFormat="1"/>
+    <row r="7" spans="1:2" s="24" customFormat="1"/>
+    <row r="8" spans="1:2" s="24" customFormat="1"/>
+    <row r="9" spans="1:2" s="24" customFormat="1"/>
+    <row r="10" spans="1:2" s="24" customFormat="1"/>
+    <row r="11" spans="1:2" s="24" customFormat="1"/>
+    <row r="12" spans="1:2" s="24" customFormat="1"/>
+    <row r="13" spans="1:2" s="24" customFormat="1"/>
+    <row r="14" spans="1:2" s="24" customFormat="1"/>
+    <row r="15" spans="1:2" s="24" customFormat="1"/>
+    <row r="16" spans="1:2" s="24" customFormat="1"/>
+    <row r="17" spans="1:1" s="24" customFormat="1"/>
+    <row r="18" spans="1:1" s="24" customFormat="1"/>
+    <row r="19" spans="1:1" s="24" customFormat="1"/>
+    <row r="20" spans="1:1" s="24" customFormat="1"/>
+    <row r="21" spans="1:1" s="24" customFormat="1"/>
+    <row r="22" spans="1:1" s="24" customFormat="1"/>
+    <row r="23" spans="1:1" s="24" customFormat="1"/>
+    <row r="24" spans="1:1" s="24" customFormat="1"/>
     <row r="25" spans="1:1">
       <c r="A25">
         <v>1</v>
@@ -3994,56 +4060,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:3">
-      <c r="B1" s="17"/>
+      <c r="B1" s="11"/>
     </row>
     <row r="2" spans="2:3">
-      <c r="B2" s="17"/>
+      <c r="B2" s="11"/>
     </row>
     <row r="3" spans="2:3" ht="25.5">
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="17" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="4" spans="2:3">
-      <c r="B4" s="17"/>
+      <c r="B4" s="11"/>
     </row>
     <row r="5" spans="2:3">
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="16" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="28.5">
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="14" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="7" spans="2:3">
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="13" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="8" spans="2:3" ht="28.5">
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="18" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="9" spans="2:3">
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="13" t="s">
         <v>34</v>
       </c>
     </row>

--- a/Documentation/Buglist.xlsx
+++ b/Documentation/Buglist.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="254">
   <si>
     <t>ID</t>
   </si>
@@ -788,275 +788,334 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>这个是之前定的需求，如果需要可以修改</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>生产日期审核后，投产日期就不可以修改了，同样包装日期审核后，出厂日期就不可以修改了</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
+    <t>使用管理员身份登入，在销售订单页面表格设置中点击合同号前“√”，再点下方确定后，程序崩溃</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>用其他账户登入效果一样</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序崩溃</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常进行表格设置</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序崩溃</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用业务部人员身份登入，点击生产排产后，再点击销售订单页面，程序崩溃</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用业务部人员身份登入崩溃，管理员身份正常</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序崩溃</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序正常</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用计划科人员身份登入，点击销售订单后，再点击生产排产，程序崩溃</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用计划科人员身份登入崩溃，管理员身份正常</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序崩溃</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序正常</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>无法查看</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以查看</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售订单界面添加新合同时，单复绕位置现在是或否的选择，需要变更为在单绕、复绕和空白中选择</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售订单界面添加新合同时，机房位置选项现在是是和否，应该为有和无</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>在业务部人员录入订单并审核后，计划科人员，在待办事项中并没有审核的提示，故判断计划科人员无审核销售订单的权限。</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>由于具体生产日期是由业务部制定，所以在排产界面，需要填写相关日期</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前业务人员无法查看排产计划</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以对排产日期进行编辑</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划排产界面计划时，无法修改除现在参数外的其他参数</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>可对轴承的数据进行修改</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>录入销售订单过于繁琐</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>由于现在还没有实现，通过2个数据定位默认信息，现在录入一个合同需要大量时间。</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>录入较为繁琐</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>在保留现在定位2数据随后自动填写默认信息的基础上，实现添加后，保存上一个录入合同的信息，即在我入了一个后，再次点击“添加”时，其中的数据保留上一个录入合同的信息。</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>不涉及</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>代办事项中一直显示一条需要审核的信息，点击审核后，无数据</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常显示待办事项</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>关于投产编号的自动生成</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>寻求自动生成办法</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>可完美实现自动生成</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前正常填写帐号密码，提示密码错误</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前正常填写帐号密码，提示密码错误</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>反审核的订单没有退回到原来的状态</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>反审核没有达到正常作用</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>反审核后，订单将退回到前一个状态，即等待计划审核</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>希望在导出模版中增加导出保证箱单，以提高工作效率</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>同标题</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改排产计划时，如修改时间，那么必须修改投产编号</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>在排产计划中，修改投产时间保存时，提示投产编号必须修改，投产编号不能重复的含义在于不同条目不能重复，并不是本身不能一样</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Active</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划科人员需要查看销售订单</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划科人员目前只有生产排产的权限，需要有查看销售订单的权限，但不能更改销售订单。</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售订单界面添加新合同时，单复绕位置选择应该是，单绕、复绕和空白三种</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划科人员无审核销售订单权限</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作流断裂，无法进行后续工作</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认每一位用户的操作权限，后实现完整工作流</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售订单界面添加新合同时，机房位置选项应该为有和无</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务部人员需要修改排产日期</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划科人员需要在计划排产输入投产编号的同时，修改轴承参数</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>代办事项中，一直显示一条需要审核的数据，但点击审核却没有数据</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>关于投产编号的自动生成，最好是保留现在的编号规则，即S和T型机，为字母+顺序号，其他机型为产号。</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单审核后，出现在排产页面，随后在销售页面反审核一个订单，排产页面此合同仍然纯在</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售订单界面添加新合同时，左右置选项是“是”和“否”，涵义不清楚,选项应该为“左置”和“右置”</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售订单界面添加新合同时，制动器型号选择后，在添加合同后不显示</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>批量增加包装日期时，投产编号和出厂编号变为空白</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期可以增加，但原来录入的“投产编号”和“出厂编号”都没有了，变成空白</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>出厂编号遇到和投产编号一样不能重复的问题</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Resolve</t>
+  </si>
+  <si>
+    <t>后续确认</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>后需确认</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>在新版本确认</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前需要客户确认所有常用信息的客户名称+规格型号，需要和正式的名称型号对应上</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Duplicate</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动生成的规则需要确认</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要确认</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要提供新模板</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
     <t>销售订单页面表格设置点击合同号后，程序崩溃</t>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
-    <t>使用管理员身份登入，在销售订单页面表格设置中点击合同号前“√”，再点下方确定后，程序崩溃</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>用其他账户登入效果一样</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>程序崩溃</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>正常进行表格设置</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>程序崩溃</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用业务部人员身份登入，点击生产排产后，再点击销售订单页面，程序崩溃</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用业务部人员身份登入崩溃，管理员身份正常</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>程序崩溃</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>程序正常</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用计划科人员身份登入，点击销售订单后，再点击生产排产，程序崩溃</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用计划科人员身份登入崩溃，管理员身份正常</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>程序崩溃</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>程序正常</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>无法查看</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>可以查看</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>销售订单界面添加新合同时，单复绕位置现在是或否的选择，需要变更为在单绕、复绕和空白中选择</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>销售订单界面添加新合同时，机房位置选项现在是是和否，应该为有和无</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>在业务部人员录入订单并审核后，计划科人员，在待办事项中并没有审核的提示，故判断计划科人员无审核销售订单的权限。</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>由于具体生产日期是由业务部制定，所以在排产界面，需要填写相关日期</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>目前业务人员无法查看排产计划</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>可以对排产日期进行编辑</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
     <t>目前在计划排产界面，点击“计划”，其中只能修改3个日期和2个编号，在实际工作的流程中，在排产的同时，需要根据轴承的库存，修改起供应商。</t>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
-    <t>计划排产界面计划时，无法修改除现在参数外的其他参数</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>可对轴承的数据进行修改</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>录入销售订单过于繁琐</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>由于现在还没有实现，通过2个数据定位默认信息，现在录入一个合同需要大量时间。</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>录入较为繁琐</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>在保留现在定位2数据随后自动填写默认信息的基础上，实现添加后，保存上一个录入合同的信息，即在我入了一个后，再次点击“添加”时，其中的数据保留上一个录入合同的信息。</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>不涉及</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>代办事项中一直显示一条需要审核的信息，点击审核后，无数据</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>正常显示待办事项</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>关于投产编号的自动生成</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>寻求自动生成办法</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>可完美实现自动生成</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>目前正常填写帐号密码，提示密码错误</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>目前正常填写帐号密码，提示密码错误</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>反审核的订单没有退回到原来的状态</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>反审核没有达到正常作用</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>反审核后，订单将退回到前一个状态，即等待计划审核</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>希望在导出模版中增加导出保证箱单，以提高工作效率</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>所有软件均正常运行后</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>同标题</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改排产计划时，如修改时间，那么必须修改投产编号</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>在排产计划中，修改投产时间保存时，提示投产编号必须修改，投产编号不能重复的含义在于不同条目不能重复，并不是本身不能一样</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>Active</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>计划科人员需要查看销售订单</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>计划科人员目前只有生产排产的权限，需要有查看销售订单的权限，但不能更改销售订单。</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>销售订单界面添加新合同时，单复绕位置选择应该是，单绕、复绕和空白三种</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>计划科人员无审核销售订单权限</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>工作流断裂，无法进行后续工作</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>确认每一位用户的操作权限，后实现完整工作流</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>销售订单界面添加新合同时，机房位置选项应该为有和无</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>业务部人员需要修改排产日期</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>计划科人员需要在计划排产输入投产编号的同时，修改轴承参数</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>代办事项中，一直显示一条需要审核的数据，但点击审核却没有数据</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>关于投产编号的自动生成，最好是保留现在的编号规则，即S和T型机，为字母+顺序号，其他机型为产号。</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <t>轴承必须要有计划人员填写</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝光把表定一下</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售添加订单的时候需要保留上一次的订单信息</t>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>销售页面已经通过2次审核，进入排产的订单，在计划反审核后，订单仍然处于可排产状态</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>销售页面，业务和计划均对订单做了审核</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单审核后，出现在排产页面，随后在销售页面反审核一个订单，排产页面此合同仍然纯在</t>
+    <t>销售反审核一个，就不应该在排产里显示了。前提条件是排产里 没有任何审核，如果排产里已经有审核了，需要排产人员反审核后，销售才能反审核</t>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
@@ -1064,11 +1123,7 @@
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
-    <t>销售订单界面添加新合同时，左右置选项是“是”和“否”，涵义不清楚,选项应该为“左置”和“右置”</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>销售订单界面添加新合同时，制动器型号选择后，在添加合同后不显示</t>
+    <t>提供模板和对应表</t>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
@@ -1076,50 +1131,43 @@
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
-    <t>批量增加包装日期时，投产编号和出厂编号变为空白</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期可以增加，但原来录入的“投产编号”和“出厂编号”都没有了，变成空白</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>出厂编号遇到和投产编号一样不能重复的问题</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>Resolve</t>
-  </si>
-  <si>
-    <t>后续确认</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>后需确认</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>在新版本确认</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>目前需要客户确认所有常用信息的客户名称+规格型号，需要和正式的名称型号对应上</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>Duplicate</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>自动生成的规则需要确认</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要确认</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要提供新模板</t>
+    <t>需要调查一下影响范围</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>调查一下影响范围，如果影响不大就改成保留，如果打，就暂时保持现状</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发继续再现，如果再现不出来，提供一个Log版本调查</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝光把格式定一下</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>在待办事项中，进入任意审核页面，使用其中的表格设置，系统崩溃</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>名牌和被备注需要能够输入多个字，目前只能输入7个</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加筛选空值的选项</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认需要将同样合同号的显示在一起</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>按模板导出的数量与选中的数量不一致</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划页面选中5条记录，然后安模板导出，最终只出来3条</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -1127,7 +1175,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="17">
+  <fonts count="18">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -1239,8 +1287,14 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1286,6 +1340,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1464,7 +1524,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1582,12 +1642,150 @@
     <xf numFmtId="0" fontId="15" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="15" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1603,143 +1801,29 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="15" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2098,31 +2182,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:P55"/>
+  <dimension ref="A2:P60"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="1.875" style="60" customWidth="1"/>
+    <col min="1" max="1" width="1.875" style="53" customWidth="1"/>
     <col min="2" max="2" width="3.875" style="2" customWidth="1"/>
-    <col min="3" max="4" width="22.5" style="60" customWidth="1"/>
-    <col min="5" max="5" width="28" style="60" customWidth="1"/>
-    <col min="6" max="6" width="22.5" style="60" customWidth="1"/>
-    <col min="7" max="7" width="26.25" style="60" customWidth="1"/>
-    <col min="8" max="8" width="28.375" style="60" customWidth="1"/>
-    <col min="9" max="9" width="22.5" style="60" customWidth="1"/>
-    <col min="10" max="10" width="23.125" style="60" customWidth="1"/>
-    <col min="11" max="11" width="22.5" style="60" customWidth="1"/>
+    <col min="3" max="4" width="22.5" style="53" customWidth="1"/>
+    <col min="5" max="5" width="28" style="53" customWidth="1"/>
+    <col min="6" max="6" width="22.5" style="53" customWidth="1"/>
+    <col min="7" max="7" width="26.25" style="53" customWidth="1"/>
+    <col min="8" max="8" width="28.375" style="53" customWidth="1"/>
+    <col min="9" max="9" width="22.5" style="53" customWidth="1"/>
+    <col min="10" max="10" width="23.125" style="53" customWidth="1"/>
+    <col min="11" max="11" width="22.5" style="53" customWidth="1"/>
     <col min="12" max="12" width="20.375" style="2" customWidth="1"/>
     <col min="13" max="14" width="29.375" style="2" customWidth="1"/>
     <col min="15" max="15" width="29.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.375" style="89" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9" style="60"/>
+    <col min="16" max="16" width="13.375" style="80" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="53"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:16" s="56" customFormat="1" ht="25.5">
-      <c r="B2" s="65"/>
+    <row r="2" spans="1:16" s="49" customFormat="1" ht="25.5">
+      <c r="B2" s="89"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -2136,10 +2220,10 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
-      <c r="P2" s="83"/>
-    </row>
-    <row r="3" spans="1:16" s="56" customFormat="1" ht="26.25" thickBot="1">
-      <c r="B3" s="66"/>
+      <c r="P2" s="74"/>
+    </row>
+    <row r="3" spans="1:16" s="49" customFormat="1" ht="26.25" thickBot="1">
+      <c r="B3" s="90"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
@@ -2153,39 +2237,39 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
-      <c r="P3" s="83"/>
+      <c r="P3" s="74"/>
     </row>
     <row r="4" spans="1:16" s="3" customFormat="1" ht="14.25">
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="45" t="s">
+      <c r="C4" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="43" t="s">
+      <c r="D4" s="92"/>
+      <c r="E4" s="92"/>
+      <c r="F4" s="92"/>
+      <c r="G4" s="92"/>
+      <c r="H4" s="92"/>
+      <c r="I4" s="92"/>
+      <c r="J4" s="92"/>
+      <c r="K4" s="92"/>
+      <c r="L4" s="87" t="s">
         <v>22</v>
       </c>
-      <c r="M4" s="43" t="s">
+      <c r="M4" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="N4" s="43" t="s">
+      <c r="N4" s="87" t="s">
         <v>45</v>
       </c>
-      <c r="O4" s="43" t="s">
+      <c r="O4" s="87" t="s">
         <v>152</v>
       </c>
-      <c r="P4" s="84"/>
+      <c r="P4" s="75"/>
     </row>
     <row r="5" spans="1:16" s="3" customFormat="1" ht="14.25">
-      <c r="B5" s="49"/>
+      <c r="B5" s="95"/>
       <c r="C5" s="10" t="s">
         <v>1</v>
       </c>
@@ -2213,86 +2297,86 @@
       <c r="K5" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="L5" s="47"/>
-      <c r="M5" s="44"/>
-      <c r="N5" s="44"/>
-      <c r="O5" s="44"/>
-      <c r="P5" s="84"/>
+      <c r="L5" s="93"/>
+      <c r="M5" s="88"/>
+      <c r="N5" s="88"/>
+      <c r="O5" s="88"/>
+      <c r="P5" s="75"/>
     </row>
     <row r="6" spans="1:16" s="8" customFormat="1" ht="90">
       <c r="B6" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="67" t="s">
+      <c r="C6" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="67" t="s">
+      <c r="D6" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="67" t="s">
+      <c r="E6" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="67" t="s">
+      <c r="F6" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="67" t="s">
+      <c r="G6" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="67" t="s">
+      <c r="H6" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="I6" s="67" t="s">
+      <c r="I6" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="J6" s="67" t="s">
+      <c r="J6" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="K6" s="67" t="s">
+      <c r="K6" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="L6" s="67" t="s">
+      <c r="L6" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="M6" s="67" t="s">
+      <c r="M6" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="N6" s="67" t="s">
+      <c r="N6" s="58" t="s">
         <v>46</v>
       </c>
-      <c r="O6" s="67" t="s">
+      <c r="O6" s="58" t="s">
         <v>153</v>
       </c>
-      <c r="P6" s="85"/>
+      <c r="P6" s="76"/>
     </row>
     <row r="7" spans="1:16" s="8" customFormat="1" ht="135" hidden="1">
       <c r="B7" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="68" t="s">
+      <c r="C7" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="68" t="s">
+      <c r="D7" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="68" t="s">
+      <c r="E7" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="68" t="s">
+      <c r="F7" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="G7" s="68" t="s">
+      <c r="G7" s="59" t="s">
         <v>41</v>
       </c>
-      <c r="H7" s="68" t="s">
+      <c r="H7" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="I7" s="69" t="s">
+      <c r="I7" s="60" t="s">
         <v>65</v>
       </c>
-      <c r="J7" s="68" t="s">
+      <c r="J7" s="59" t="s">
         <v>58</v>
       </c>
-      <c r="K7" s="68" t="s">
+      <c r="K7" s="59" t="s">
         <v>42</v>
       </c>
       <c r="L7" s="20" t="s">
@@ -2307,37 +2391,37 @@
       <c r="O7" s="22" t="s">
         <v>155</v>
       </c>
-      <c r="P7" s="85"/>
+      <c r="P7" s="76"/>
     </row>
     <row r="8" spans="1:16" s="8" customFormat="1" ht="90">
       <c r="B8" s="6">
         <v>1</v>
       </c>
-      <c r="C8" s="70" t="s">
+      <c r="C8" s="61" t="s">
         <v>150</v>
       </c>
-      <c r="D8" s="70" t="s">
+      <c r="D8" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="E8" s="70" t="s">
+      <c r="E8" s="61" t="s">
         <v>54</v>
       </c>
-      <c r="F8" s="70" t="s">
+      <c r="F8" s="61" t="s">
         <v>56</v>
       </c>
-      <c r="G8" s="70" t="s">
+      <c r="G8" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="H8" s="70" t="s">
+      <c r="H8" s="61" t="s">
         <v>52</v>
       </c>
-      <c r="I8" s="71">
+      <c r="I8" s="62">
         <v>1</v>
       </c>
-      <c r="J8" s="70" t="s">
+      <c r="J8" s="61" t="s">
         <v>66</v>
       </c>
-      <c r="K8" s="70" t="s">
+      <c r="K8" s="61" t="s">
         <v>67</v>
       </c>
       <c r="L8" s="7" t="s">
@@ -2346,41 +2430,41 @@
       <c r="M8" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="N8" s="70"/>
+      <c r="N8" s="61"/>
       <c r="O8" s="26" t="s">
-        <v>233</v>
-      </c>
-      <c r="P8" s="85"/>
-    </row>
-    <row r="9" spans="1:16" s="57" customFormat="1" ht="60">
+        <v>225</v>
+      </c>
+      <c r="P8" s="76"/>
+    </row>
+    <row r="9" spans="1:16" s="50" customFormat="1" ht="60">
       <c r="B9" s="6">
         <v>2</v>
       </c>
-      <c r="C9" s="70" t="s">
+      <c r="C9" s="61" t="s">
         <v>151</v>
       </c>
-      <c r="D9" s="70" t="s">
+      <c r="D9" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="E9" s="70" t="s">
+      <c r="E9" s="61" t="s">
         <v>71</v>
       </c>
-      <c r="F9" s="70" t="s">
+      <c r="F9" s="61" t="s">
         <v>62</v>
       </c>
-      <c r="G9" s="70" t="s">
+      <c r="G9" s="61" t="s">
         <v>63</v>
       </c>
-      <c r="H9" s="70" t="s">
+      <c r="H9" s="61" t="s">
         <v>64</v>
       </c>
-      <c r="I9" s="71">
+      <c r="I9" s="62">
         <v>1</v>
       </c>
-      <c r="J9" s="70" t="s">
+      <c r="J9" s="61" t="s">
         <v>66</v>
       </c>
-      <c r="K9" s="70" t="s">
+      <c r="K9" s="61" t="s">
         <v>68</v>
       </c>
       <c r="L9" s="7" t="s">
@@ -2389,42 +2473,42 @@
       <c r="M9" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="N9" s="70"/>
+      <c r="N9" s="61"/>
       <c r="O9" s="26" t="s">
-        <v>233</v>
-      </c>
-      <c r="P9" s="85"/>
+        <v>225</v>
+      </c>
+      <c r="P9" s="76"/>
     </row>
     <row r="10" spans="1:16" s="29" customFormat="1" ht="165">
-      <c r="A10" s="50"/>
+      <c r="A10" s="43"/>
       <c r="B10" s="27">
         <v>3</v>
       </c>
-      <c r="C10" s="72" t="s">
+      <c r="C10" s="63" t="s">
         <v>69</v>
       </c>
-      <c r="D10" s="72" t="s">
+      <c r="D10" s="63" t="s">
         <v>70</v>
       </c>
-      <c r="E10" s="72" t="s">
+      <c r="E10" s="63" t="s">
         <v>72</v>
       </c>
-      <c r="F10" s="72" t="s">
+      <c r="F10" s="63" t="s">
         <v>73</v>
       </c>
-      <c r="G10" s="72" t="s">
+      <c r="G10" s="63" t="s">
         <v>74</v>
       </c>
-      <c r="H10" s="72" t="s">
+      <c r="H10" s="63" t="s">
         <v>75</v>
       </c>
-      <c r="I10" s="73">
+      <c r="I10" s="64">
         <v>1</v>
       </c>
-      <c r="J10" s="72" t="s">
+      <c r="J10" s="63" t="s">
         <v>76</v>
       </c>
-      <c r="K10" s="72" t="s">
+      <c r="K10" s="63" t="s">
         <v>68</v>
       </c>
       <c r="L10" s="28" t="s">
@@ -2433,41 +2517,41 @@
       <c r="M10" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="N10" s="72"/>
+      <c r="N10" s="63"/>
       <c r="O10" s="26" t="s">
-        <v>233</v>
-      </c>
-      <c r="P10" s="86"/>
+        <v>225</v>
+      </c>
+      <c r="P10" s="77"/>
     </row>
     <row r="11" spans="1:16" s="9" customFormat="1" ht="105">
       <c r="B11" s="19">
         <v>4</v>
       </c>
-      <c r="C11" s="68" t="s">
+      <c r="C11" s="59" t="s">
         <v>77</v>
       </c>
-      <c r="D11" s="68" t="s">
+      <c r="D11" s="59" t="s">
         <v>78</v>
       </c>
-      <c r="E11" s="68" t="s">
+      <c r="E11" s="59" t="s">
         <v>54</v>
       </c>
-      <c r="F11" s="68" t="s">
+      <c r="F11" s="59" t="s">
         <v>81</v>
       </c>
-      <c r="G11" s="68" t="s">
+      <c r="G11" s="59" t="s">
         <v>79</v>
       </c>
-      <c r="H11" s="68" t="s">
+      <c r="H11" s="59" t="s">
         <v>80</v>
       </c>
-      <c r="I11" s="74">
+      <c r="I11" s="65">
         <v>1</v>
       </c>
-      <c r="J11" s="68" t="s">
+      <c r="J11" s="59" t="s">
         <v>76</v>
       </c>
-      <c r="K11" s="68" t="s">
+      <c r="K11" s="59" t="s">
         <v>68</v>
       </c>
       <c r="L11" s="20" t="s">
@@ -2476,41 +2560,41 @@
       <c r="M11" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="N11" s="68"/>
+      <c r="N11" s="59"/>
       <c r="O11" s="20" t="s">
         <v>156</v>
       </c>
-      <c r="P11" s="87"/>
-    </row>
-    <row r="12" spans="1:16" s="57" customFormat="1" ht="60">
+      <c r="P11" s="78"/>
+    </row>
+    <row r="12" spans="1:16" s="50" customFormat="1" ht="60">
       <c r="B12" s="6">
         <v>5</v>
       </c>
-      <c r="C12" s="70" t="s">
+      <c r="C12" s="61" t="s">
         <v>84</v>
       </c>
-      <c r="D12" s="70" t="s">
+      <c r="D12" s="61" t="s">
         <v>82</v>
       </c>
-      <c r="E12" s="70" t="s">
+      <c r="E12" s="61" t="s">
         <v>83</v>
       </c>
-      <c r="F12" s="70" t="s">
+      <c r="F12" s="61" t="s">
         <v>85</v>
       </c>
-      <c r="G12" s="70" t="s">
+      <c r="G12" s="61" t="s">
         <v>86</v>
       </c>
-      <c r="H12" s="70" t="s">
+      <c r="H12" s="61" t="s">
         <v>87</v>
       </c>
-      <c r="I12" s="71">
+      <c r="I12" s="62">
         <v>1</v>
       </c>
-      <c r="J12" s="70" t="s">
+      <c r="J12" s="61" t="s">
         <v>93</v>
       </c>
-      <c r="K12" s="70" t="s">
+      <c r="K12" s="61" t="s">
         <v>68</v>
       </c>
       <c r="L12" s="7" t="s">
@@ -2519,42 +2603,42 @@
       <c r="M12" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="N12" s="70"/>
+      <c r="N12" s="61"/>
       <c r="O12" s="26" t="s">
         <v>154</v>
       </c>
-      <c r="P12" s="85"/>
-    </row>
-    <row r="13" spans="1:16" s="58" customFormat="1" ht="120">
-      <c r="A13" s="75"/>
+      <c r="P12" s="76"/>
+    </row>
+    <row r="13" spans="1:16" s="51" customFormat="1" ht="120">
+      <c r="A13" s="66"/>
       <c r="B13" s="27">
         <v>6</v>
       </c>
-      <c r="C13" s="72" t="s">
+      <c r="C13" s="63" t="s">
         <v>94</v>
       </c>
-      <c r="D13" s="72" t="s">
+      <c r="D13" s="63" t="s">
         <v>157</v>
       </c>
-      <c r="E13" s="72" t="s">
+      <c r="E13" s="63" t="s">
         <v>90</v>
       </c>
-      <c r="F13" s="72" t="s">
+      <c r="F13" s="63" t="s">
         <v>97</v>
       </c>
-      <c r="G13" s="72" t="s">
+      <c r="G13" s="63" t="s">
         <v>91</v>
       </c>
-      <c r="H13" s="72" t="s">
+      <c r="H13" s="63" t="s">
         <v>92</v>
       </c>
-      <c r="I13" s="73">
+      <c r="I13" s="64">
         <v>1</v>
       </c>
-      <c r="J13" s="72" t="s">
+      <c r="J13" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="K13" s="72" t="s">
+      <c r="K13" s="63" t="s">
         <v>68</v>
       </c>
       <c r="L13" s="28" t="s">
@@ -2563,42 +2647,42 @@
       <c r="M13" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="N13" s="72"/>
+      <c r="N13" s="63"/>
       <c r="O13" s="26" t="s">
-        <v>233</v>
-      </c>
-      <c r="P13" s="86"/>
-    </row>
-    <row r="14" spans="1:16" s="58" customFormat="1" ht="120">
-      <c r="A14" s="75"/>
+        <v>225</v>
+      </c>
+      <c r="P13" s="77"/>
+    </row>
+    <row r="14" spans="1:16" s="51" customFormat="1" ht="120">
+      <c r="A14" s="66"/>
       <c r="B14" s="27">
         <v>7</v>
       </c>
-      <c r="C14" s="72" t="s">
+      <c r="C14" s="63" t="s">
         <v>95</v>
       </c>
-      <c r="D14" s="72" t="s">
+      <c r="D14" s="63" t="s">
         <v>96</v>
       </c>
-      <c r="E14" s="72" t="s">
+      <c r="E14" s="63" t="s">
         <v>103</v>
       </c>
-      <c r="F14" s="72" t="s">
+      <c r="F14" s="63" t="s">
         <v>99</v>
       </c>
-      <c r="G14" s="73" t="s">
+      <c r="G14" s="64" t="s">
         <v>98</v>
       </c>
-      <c r="H14" s="72" t="s">
+      <c r="H14" s="63" t="s">
         <v>100</v>
       </c>
-      <c r="I14" s="73">
+      <c r="I14" s="64">
         <v>1</v>
       </c>
-      <c r="J14" s="72" t="s">
+      <c r="J14" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="K14" s="72" t="s">
+      <c r="K14" s="63" t="s">
         <v>67</v>
       </c>
       <c r="L14" s="28" t="s">
@@ -2607,42 +2691,42 @@
       <c r="M14" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="N14" s="72"/>
+      <c r="N14" s="63"/>
       <c r="O14" s="26" t="s">
-        <v>233</v>
-      </c>
-      <c r="P14" s="86"/>
-    </row>
-    <row r="15" spans="1:16" s="59" customFormat="1" ht="90">
-      <c r="A15" s="76"/>
+        <v>225</v>
+      </c>
+      <c r="P14" s="77"/>
+    </row>
+    <row r="15" spans="1:16" s="52" customFormat="1" ht="90">
+      <c r="A15" s="67"/>
       <c r="B15" s="27">
         <v>8</v>
       </c>
-      <c r="C15" s="72" t="s">
+      <c r="C15" s="63" t="s">
         <v>102</v>
       </c>
-      <c r="D15" s="72" t="s">
+      <c r="D15" s="63" t="s">
         <v>105</v>
       </c>
-      <c r="E15" s="72" t="s">
+      <c r="E15" s="63" t="s">
         <v>104</v>
       </c>
-      <c r="F15" s="72" t="s">
+      <c r="F15" s="63" t="s">
         <v>109</v>
       </c>
-      <c r="G15" s="73" t="s">
+      <c r="G15" s="64" t="s">
         <v>106</v>
       </c>
-      <c r="H15" s="72" t="s">
+      <c r="H15" s="63" t="s">
         <v>107</v>
       </c>
-      <c r="I15" s="73">
+      <c r="I15" s="64">
         <v>1</v>
       </c>
-      <c r="J15" s="72" t="s">
+      <c r="J15" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="K15" s="72" t="s">
+      <c r="K15" s="63" t="s">
         <v>67</v>
       </c>
       <c r="L15" s="28" t="s">
@@ -2651,41 +2735,41 @@
       <c r="M15" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="N15" s="72"/>
+      <c r="N15" s="63"/>
       <c r="O15" s="28" t="s">
         <v>154</v>
       </c>
-      <c r="P15" s="88"/>
+      <c r="P15" s="79"/>
     </row>
     <row r="16" spans="1:16" ht="90">
       <c r="B16" s="19">
         <v>9</v>
       </c>
-      <c r="C16" s="68" t="s">
+      <c r="C16" s="59" t="s">
         <v>108</v>
       </c>
-      <c r="D16" s="68" t="s">
+      <c r="D16" s="59" t="s">
         <v>108</v>
       </c>
-      <c r="E16" s="68" t="s">
+      <c r="E16" s="59" t="s">
         <v>113</v>
       </c>
-      <c r="F16" s="68" t="s">
+      <c r="F16" s="59" t="s">
         <v>115</v>
       </c>
-      <c r="G16" s="74" t="s">
+      <c r="G16" s="65" t="s">
         <v>110</v>
       </c>
-      <c r="H16" s="68" t="s">
+      <c r="H16" s="59" t="s">
         <v>111</v>
       </c>
-      <c r="I16" s="74">
+      <c r="I16" s="65">
         <v>1</v>
       </c>
-      <c r="J16" s="68" t="s">
+      <c r="J16" s="59" t="s">
         <v>93</v>
       </c>
-      <c r="K16" s="68" t="s">
+      <c r="K16" s="59" t="s">
         <v>67</v>
       </c>
       <c r="L16" s="20" t="s">
@@ -2694,40 +2778,40 @@
       <c r="M16" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="N16" s="68"/>
+      <c r="N16" s="59"/>
       <c r="O16" s="20" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="17" spans="1:16" s="57" customFormat="1" ht="75">
+    <row r="17" spans="1:16" s="50" customFormat="1" ht="75">
       <c r="B17" s="19">
         <v>10</v>
       </c>
-      <c r="C17" s="68" t="s">
+      <c r="C17" s="59" t="s">
         <v>112</v>
       </c>
-      <c r="D17" s="68" t="s">
+      <c r="D17" s="59" t="s">
         <v>114</v>
       </c>
-      <c r="E17" s="68" t="s">
+      <c r="E17" s="59" t="s">
         <v>127</v>
       </c>
-      <c r="F17" s="68" t="s">
+      <c r="F17" s="59" t="s">
         <v>118</v>
       </c>
-      <c r="G17" s="68" t="s">
+      <c r="G17" s="59" t="s">
         <v>116</v>
       </c>
-      <c r="H17" s="68" t="s">
+      <c r="H17" s="59" t="s">
         <v>117</v>
       </c>
-      <c r="I17" s="74">
+      <c r="I17" s="65">
         <v>1</v>
       </c>
-      <c r="J17" s="68" t="s">
+      <c r="J17" s="59" t="s">
         <v>93</v>
       </c>
-      <c r="K17" s="68" t="s">
+      <c r="K17" s="59" t="s">
         <v>67</v>
       </c>
       <c r="L17" s="20" t="s">
@@ -2736,42 +2820,42 @@
       <c r="M17" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="N17" s="68"/>
+      <c r="N17" s="59"/>
       <c r="O17" s="20" t="s">
         <v>156</v>
       </c>
-      <c r="P17" s="85"/>
-    </row>
-    <row r="18" spans="1:16" s="58" customFormat="1" ht="90">
-      <c r="A18" s="77"/>
+      <c r="P17" s="76"/>
+    </row>
+    <row r="18" spans="1:16" s="51" customFormat="1" ht="90">
+      <c r="A18" s="68"/>
       <c r="B18" s="27">
         <v>11</v>
       </c>
-      <c r="C18" s="72" t="s">
+      <c r="C18" s="63" t="s">
         <v>119</v>
       </c>
-      <c r="D18" s="72" t="s">
+      <c r="D18" s="63" t="s">
         <v>122</v>
       </c>
-      <c r="E18" s="72" t="s">
+      <c r="E18" s="63" t="s">
         <v>120</v>
       </c>
-      <c r="F18" s="72" t="s">
+      <c r="F18" s="63" t="s">
         <v>121</v>
       </c>
-      <c r="G18" s="72" t="s">
+      <c r="G18" s="63" t="s">
         <v>123</v>
       </c>
-      <c r="H18" s="72" t="s">
+      <c r="H18" s="63" t="s">
         <v>124</v>
       </c>
-      <c r="I18" s="73">
+      <c r="I18" s="64">
         <v>1</v>
       </c>
-      <c r="J18" s="72" t="s">
+      <c r="J18" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="K18" s="72" t="s">
+      <c r="K18" s="63" t="s">
         <v>67</v>
       </c>
       <c r="L18" s="28" t="s">
@@ -2780,41 +2864,41 @@
       <c r="M18" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="N18" s="72"/>
+      <c r="N18" s="63"/>
       <c r="O18" s="26" t="s">
         <v>154</v>
       </c>
-      <c r="P18" s="86"/>
-    </row>
-    <row r="19" spans="1:16" s="57" customFormat="1" ht="75">
+      <c r="P18" s="77"/>
+    </row>
+    <row r="19" spans="1:16" s="50" customFormat="1" ht="75">
       <c r="B19" s="19">
         <v>12</v>
       </c>
-      <c r="C19" s="68" t="s">
+      <c r="C19" s="59" t="s">
         <v>132</v>
       </c>
-      <c r="D19" s="68" t="s">
+      <c r="D19" s="59" t="s">
         <v>125</v>
       </c>
-      <c r="E19" s="68" t="s">
+      <c r="E19" s="59" t="s">
         <v>126</v>
       </c>
-      <c r="F19" s="68" t="s">
+      <c r="F19" s="59" t="s">
         <v>128</v>
       </c>
-      <c r="G19" s="68" t="s">
+      <c r="G19" s="59" t="s">
         <v>129</v>
       </c>
-      <c r="H19" s="68" t="s">
+      <c r="H19" s="59" t="s">
         <v>130</v>
       </c>
-      <c r="I19" s="74">
+      <c r="I19" s="65">
         <v>1</v>
       </c>
-      <c r="J19" s="68" t="s">
+      <c r="J19" s="59" t="s">
         <v>93</v>
       </c>
-      <c r="K19" s="68" t="s">
+      <c r="K19" s="59" t="s">
         <v>67</v>
       </c>
       <c r="L19" s="20" t="s">
@@ -2823,41 +2907,41 @@
       <c r="M19" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="N19" s="68"/>
+      <c r="N19" s="59"/>
       <c r="O19" s="20" t="s">
         <v>156</v>
       </c>
-      <c r="P19" s="85"/>
-    </row>
-    <row r="20" spans="1:16" s="57" customFormat="1" ht="90">
+      <c r="P19" s="76"/>
+    </row>
+    <row r="20" spans="1:16" s="50" customFormat="1" ht="90">
       <c r="B20" s="19">
         <v>13</v>
       </c>
-      <c r="C20" s="68" t="s">
+      <c r="C20" s="59" t="s">
         <v>131</v>
       </c>
-      <c r="D20" s="68" t="s">
+      <c r="D20" s="59" t="s">
         <v>133</v>
       </c>
-      <c r="E20" s="68" t="s">
+      <c r="E20" s="59" t="s">
         <v>134</v>
       </c>
-      <c r="F20" s="68" t="s">
+      <c r="F20" s="59" t="s">
         <v>140</v>
       </c>
-      <c r="G20" s="68" t="s">
+      <c r="G20" s="59" t="s">
         <v>135</v>
       </c>
-      <c r="H20" s="68" t="s">
+      <c r="H20" s="59" t="s">
         <v>136</v>
       </c>
-      <c r="I20" s="74">
+      <c r="I20" s="65">
         <v>1</v>
       </c>
-      <c r="J20" s="68" t="s">
+      <c r="J20" s="59" t="s">
         <v>93</v>
       </c>
-      <c r="K20" s="68" t="s">
+      <c r="K20" s="59" t="s">
         <v>67</v>
       </c>
       <c r="L20" s="20" t="s">
@@ -2866,42 +2950,42 @@
       <c r="M20" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="N20" s="68"/>
+      <c r="N20" s="59"/>
       <c r="O20" s="20" t="s">
         <v>156</v>
       </c>
-      <c r="P20" s="85"/>
-    </row>
-    <row r="21" spans="1:16" s="58" customFormat="1" ht="165">
-      <c r="A21" s="78"/>
+      <c r="P20" s="76"/>
+    </row>
+    <row r="21" spans="1:16" s="51" customFormat="1" ht="165">
+      <c r="A21" s="69"/>
       <c r="B21" s="27">
         <v>14</v>
       </c>
-      <c r="C21" s="72" t="s">
+      <c r="C21" s="63" t="s">
         <v>137</v>
       </c>
-      <c r="D21" s="72" t="s">
+      <c r="D21" s="63" t="s">
         <v>138</v>
       </c>
-      <c r="E21" s="72" t="s">
+      <c r="E21" s="63" t="s">
         <v>139</v>
       </c>
-      <c r="F21" s="72" t="s">
+      <c r="F21" s="63" t="s">
         <v>141</v>
       </c>
-      <c r="G21" s="72" t="s">
+      <c r="G21" s="63" t="s">
         <v>142</v>
       </c>
-      <c r="H21" s="72" t="s">
+      <c r="H21" s="63" t="s">
         <v>143</v>
       </c>
-      <c r="I21" s="73">
+      <c r="I21" s="64">
         <v>1</v>
       </c>
-      <c r="J21" s="72" t="s">
+      <c r="J21" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="K21" s="72" t="s">
+      <c r="K21" s="63" t="s">
         <v>67</v>
       </c>
       <c r="L21" s="28" t="s">
@@ -2910,295 +2994,297 @@
       <c r="M21" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="N21" s="72"/>
+      <c r="N21" s="63"/>
       <c r="O21" s="26" t="s">
-        <v>233</v>
-      </c>
-      <c r="P21" s="86"/>
-    </row>
-    <row r="22" spans="1:16" s="58" customFormat="1" ht="45">
-      <c r="A22" s="78"/>
+        <v>225</v>
+      </c>
+      <c r="P21" s="77"/>
+    </row>
+    <row r="22" spans="1:16" s="51" customFormat="1" ht="45">
+      <c r="A22" s="69"/>
       <c r="B22" s="27">
         <v>15</v>
       </c>
-      <c r="C22" s="72" t="s">
+      <c r="C22" s="63" t="s">
         <v>145</v>
       </c>
-      <c r="D22" s="72"/>
-      <c r="E22" s="72"/>
-      <c r="F22" s="72"/>
-      <c r="G22" s="72"/>
-      <c r="H22" s="72"/>
-      <c r="I22" s="73"/>
-      <c r="J22" s="72"/>
-      <c r="K22" s="72"/>
+      <c r="D22" s="63"/>
+      <c r="E22" s="63"/>
+      <c r="F22" s="63"/>
+      <c r="G22" s="63"/>
+      <c r="H22" s="63"/>
+      <c r="I22" s="64"/>
+      <c r="J22" s="63"/>
+      <c r="K22" s="63"/>
       <c r="L22" s="28" t="s">
         <v>144</v>
       </c>
       <c r="M22" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="N22" s="72"/>
+      <c r="N22" s="63"/>
       <c r="O22" s="26" t="s">
-        <v>233</v>
-      </c>
-      <c r="P22" s="86"/>
-    </row>
-    <row r="23" spans="1:16" s="58" customFormat="1" ht="30">
-      <c r="A23" s="78"/>
+        <v>225</v>
+      </c>
+      <c r="P22" s="77"/>
+    </row>
+    <row r="23" spans="1:16" s="51" customFormat="1" ht="30">
+      <c r="A23" s="69"/>
       <c r="B23" s="27">
         <v>16</v>
       </c>
-      <c r="C23" s="72" t="s">
+      <c r="C23" s="63" t="s">
         <v>146</v>
       </c>
-      <c r="D23" s="72"/>
-      <c r="E23" s="72"/>
-      <c r="F23" s="72"/>
-      <c r="G23" s="72"/>
-      <c r="H23" s="72"/>
-      <c r="I23" s="73"/>
-      <c r="J23" s="72"/>
-      <c r="K23" s="72"/>
+      <c r="D23" s="63"/>
+      <c r="E23" s="63"/>
+      <c r="F23" s="63"/>
+      <c r="G23" s="63"/>
+      <c r="H23" s="63"/>
+      <c r="I23" s="64"/>
+      <c r="J23" s="63"/>
+      <c r="K23" s="63"/>
       <c r="L23" s="28" t="s">
         <v>144</v>
       </c>
       <c r="M23" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="N23" s="72"/>
+      <c r="N23" s="63"/>
       <c r="O23" s="26" t="s">
-        <v>233</v>
-      </c>
-      <c r="P23" s="86"/>
-    </row>
-    <row r="24" spans="1:16" s="58" customFormat="1" ht="90">
-      <c r="A24" s="78"/>
+        <v>225</v>
+      </c>
+      <c r="P23" s="77"/>
+    </row>
+    <row r="24" spans="1:16" s="51" customFormat="1" ht="90">
+      <c r="A24" s="69"/>
       <c r="B24" s="27">
         <v>17</v>
       </c>
-      <c r="C24" s="72" t="s">
+      <c r="C24" s="63" t="s">
         <v>149</v>
       </c>
-      <c r="D24" s="72"/>
-      <c r="E24" s="72"/>
-      <c r="F24" s="72"/>
-      <c r="G24" s="72"/>
-      <c r="H24" s="72"/>
-      <c r="I24" s="73"/>
-      <c r="J24" s="72"/>
-      <c r="K24" s="72"/>
+      <c r="D24" s="63"/>
+      <c r="E24" s="63"/>
+      <c r="F24" s="63"/>
+      <c r="G24" s="63"/>
+      <c r="H24" s="63"/>
+      <c r="I24" s="64"/>
+      <c r="J24" s="63"/>
+      <c r="K24" s="63"/>
       <c r="L24" s="28" t="s">
         <v>144</v>
       </c>
       <c r="M24" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="N24" s="72"/>
+      <c r="N24" s="63"/>
       <c r="O24" s="26" t="s">
-        <v>233</v>
-      </c>
-      <c r="P24" s="86"/>
-    </row>
-    <row r="25" spans="1:16" s="61" customFormat="1" ht="45">
+        <v>225</v>
+      </c>
+      <c r="P24" s="77"/>
+    </row>
+    <row r="25" spans="1:16" s="54" customFormat="1" ht="45">
       <c r="B25" s="30">
         <v>18</v>
       </c>
-      <c r="C25" s="79" t="s">
+      <c r="C25" s="70" t="s">
         <v>147</v>
       </c>
-      <c r="D25" s="79"/>
-      <c r="E25" s="79" t="s">
-        <v>158</v>
-      </c>
-      <c r="F25" s="79"/>
-      <c r="G25" s="79"/>
-      <c r="H25" s="79"/>
-      <c r="I25" s="80"/>
-      <c r="J25" s="79"/>
-      <c r="K25" s="79"/>
+      <c r="D25" s="70"/>
+      <c r="E25" s="96" t="s">
+        <v>245</v>
+      </c>
+      <c r="F25" s="70"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="70"/>
+      <c r="I25" s="71"/>
+      <c r="J25" s="70"/>
+      <c r="K25" s="70"/>
       <c r="L25" s="31" t="s">
         <v>144</v>
       </c>
       <c r="M25" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="N25" s="79"/>
+      <c r="N25" s="70"/>
       <c r="O25" s="31" t="s">
         <v>154</v>
       </c>
-      <c r="P25" s="63" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" s="58" customFormat="1" ht="90">
-      <c r="A26" s="78"/>
+      <c r="P25" s="56" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" s="51" customFormat="1" ht="90">
+      <c r="A26" s="69"/>
       <c r="B26" s="27">
         <v>19</v>
       </c>
-      <c r="C26" s="72" t="s">
+      <c r="C26" s="63" t="s">
         <v>148</v>
       </c>
-      <c r="D26" s="72"/>
-      <c r="E26" s="72"/>
-      <c r="F26" s="72"/>
-      <c r="G26" s="72"/>
-      <c r="H26" s="72"/>
-      <c r="I26" s="73"/>
-      <c r="J26" s="72"/>
-      <c r="K26" s="72"/>
+      <c r="D26" s="63"/>
+      <c r="E26" s="63"/>
+      <c r="F26" s="63"/>
+      <c r="G26" s="63"/>
+      <c r="H26" s="63"/>
+      <c r="I26" s="64"/>
+      <c r="J26" s="63"/>
+      <c r="K26" s="63"/>
       <c r="L26" s="28" t="s">
         <v>59</v>
       </c>
       <c r="M26" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="N26" s="72"/>
+      <c r="N26" s="63"/>
       <c r="O26" s="26" t="s">
-        <v>233</v>
-      </c>
-      <c r="P26" s="86"/>
-    </row>
-    <row r="27" spans="1:16" s="61" customFormat="1" ht="60">
+        <v>225</v>
+      </c>
+      <c r="P26" s="77"/>
+    </row>
+    <row r="27" spans="1:16" s="54" customFormat="1" ht="60">
       <c r="B27" s="30">
         <v>20</v>
       </c>
-      <c r="C27" s="79" t="s">
-        <v>159</v>
-      </c>
-      <c r="D27" s="79"/>
-      <c r="E27" s="79"/>
-      <c r="F27" s="79"/>
-      <c r="G27" s="79"/>
-      <c r="H27" s="79"/>
-      <c r="I27" s="80"/>
-      <c r="J27" s="79"/>
-      <c r="K27" s="79"/>
+      <c r="C27" s="70" t="s">
+        <v>158</v>
+      </c>
+      <c r="D27" s="70"/>
+      <c r="E27" s="98" t="s">
+        <v>244</v>
+      </c>
+      <c r="F27" s="70"/>
+      <c r="G27" s="70"/>
+      <c r="H27" s="70"/>
+      <c r="I27" s="71"/>
+      <c r="J27" s="70"/>
+      <c r="K27" s="70"/>
       <c r="L27" s="31"/>
       <c r="M27" s="31"/>
-      <c r="N27" s="79"/>
+      <c r="N27" s="70"/>
       <c r="O27" s="31" t="s">
         <v>155</v>
       </c>
-      <c r="P27" s="63" t="s">
+      <c r="P27" s="56" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" s="44" customFormat="1" ht="30" customHeight="1">
+      <c r="B28" s="45">
+        <v>21</v>
+      </c>
+      <c r="C28" s="46" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="28" spans="1:16" s="51" customFormat="1" ht="30" customHeight="1">
-      <c r="B28" s="52">
-        <v>21</v>
-      </c>
-      <c r="C28" s="53" t="s">
+      <c r="D28" s="46" t="s">
+        <v>159</v>
+      </c>
+      <c r="E28" s="96" t="s">
+        <v>246</v>
+      </c>
+      <c r="F28" s="46" t="s">
+        <v>161</v>
+      </c>
+      <c r="G28" s="46" t="s">
+        <v>162</v>
+      </c>
+      <c r="H28" s="46" t="s">
+        <v>163</v>
+      </c>
+      <c r="I28" s="47">
+        <v>0.3</v>
+      </c>
+      <c r="J28" s="46"/>
+      <c r="K28" s="46"/>
+      <c r="L28" s="48" t="s">
+        <v>59</v>
+      </c>
+      <c r="M28" s="48"/>
+      <c r="N28" s="46"/>
+      <c r="O28" s="31" t="s">
+        <v>207</v>
+      </c>
+      <c r="P28" s="56" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" s="44" customFormat="1" ht="30" customHeight="1">
+      <c r="B29" s="45">
+        <v>22</v>
+      </c>
+      <c r="C29" s="38" t="s">
+        <v>164</v>
+      </c>
+      <c r="D29" s="46" t="s">
+        <v>165</v>
+      </c>
+      <c r="E29" s="46" t="s">
+        <v>166</v>
+      </c>
+      <c r="F29" s="46" t="s">
+        <v>167</v>
+      </c>
+      <c r="G29" s="46" t="s">
+        <v>168</v>
+      </c>
+      <c r="H29" s="46" t="s">
+        <v>169</v>
+      </c>
+      <c r="I29" s="47">
+        <v>1</v>
+      </c>
+      <c r="J29" s="46"/>
+      <c r="K29" s="46"/>
+      <c r="L29" s="48" t="s">
+        <v>59</v>
+      </c>
+      <c r="M29" s="48"/>
+      <c r="N29" s="46"/>
+      <c r="O29" s="31" t="s">
+        <v>207</v>
+      </c>
+      <c r="P29" s="56" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" s="44" customFormat="1" ht="30" customHeight="1">
+      <c r="B30" s="45">
+        <v>23</v>
+      </c>
+      <c r="C30" s="38" t="s">
+        <v>168</v>
+      </c>
+      <c r="D30" s="46" t="s">
+        <v>170</v>
+      </c>
+      <c r="E30" s="46" t="s">
         <v>160</v>
       </c>
-      <c r="D28" s="53" t="s">
-        <v>161</v>
-      </c>
-      <c r="E28" s="53" t="s">
-        <v>162</v>
-      </c>
-      <c r="F28" s="53" t="s">
-        <v>163</v>
-      </c>
-      <c r="G28" s="53" t="s">
-        <v>164</v>
-      </c>
-      <c r="H28" s="53" t="s">
-        <v>165</v>
-      </c>
-      <c r="I28" s="54">
-        <v>0.3</v>
-      </c>
-      <c r="J28" s="53"/>
-      <c r="K28" s="53"/>
-      <c r="L28" s="55" t="s">
+      <c r="F30" s="46" t="s">
+        <v>171</v>
+      </c>
+      <c r="G30" s="46" t="s">
+        <v>172</v>
+      </c>
+      <c r="H30" s="46" t="s">
+        <v>173</v>
+      </c>
+      <c r="I30" s="47">
+        <v>1</v>
+      </c>
+      <c r="J30" s="46"/>
+      <c r="K30" s="46"/>
+      <c r="L30" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="M28" s="55"/>
-      <c r="N28" s="53"/>
-      <c r="O28" s="31" t="s">
-        <v>211</v>
-      </c>
-      <c r="P28" s="63" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" s="51" customFormat="1" ht="30" customHeight="1">
-      <c r="B29" s="52">
-        <v>22</v>
-      </c>
-      <c r="C29" s="53" t="s">
-        <v>166</v>
-      </c>
-      <c r="D29" s="53" t="s">
-        <v>167</v>
-      </c>
-      <c r="E29" s="53" t="s">
-        <v>168</v>
-      </c>
-      <c r="F29" s="53" t="s">
-        <v>169</v>
-      </c>
-      <c r="G29" s="53" t="s">
-        <v>170</v>
-      </c>
-      <c r="H29" s="53" t="s">
-        <v>171</v>
-      </c>
-      <c r="I29" s="54">
-        <v>1</v>
-      </c>
-      <c r="J29" s="53"/>
-      <c r="K29" s="53"/>
-      <c r="L29" s="55" t="s">
-        <v>59</v>
-      </c>
-      <c r="M29" s="55"/>
-      <c r="N29" s="53"/>
-      <c r="O29" s="31" t="s">
-        <v>211</v>
-      </c>
-      <c r="P29" s="63" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" s="51" customFormat="1" ht="30" customHeight="1">
-      <c r="B30" s="52">
-        <v>23</v>
-      </c>
-      <c r="C30" s="53" t="s">
-        <v>170</v>
-      </c>
-      <c r="D30" s="53" t="s">
-        <v>172</v>
-      </c>
-      <c r="E30" s="53" t="s">
-        <v>162</v>
-      </c>
-      <c r="F30" s="53" t="s">
-        <v>173</v>
-      </c>
-      <c r="G30" s="53" t="s">
-        <v>174</v>
-      </c>
-      <c r="H30" s="53" t="s">
-        <v>175</v>
-      </c>
-      <c r="I30" s="54">
-        <v>1</v>
-      </c>
-      <c r="J30" s="53"/>
-      <c r="K30" s="53"/>
-      <c r="L30" s="55" t="s">
-        <v>59</v>
-      </c>
-      <c r="M30" s="55"/>
-      <c r="N30" s="53"/>
+      <c r="M30" s="48"/>
+      <c r="N30" s="46"/>
       <c r="O30" s="31" t="s">
-        <v>211</v>
-      </c>
-      <c r="P30" s="63" t="s">
-        <v>236</v>
+        <v>207</v>
+      </c>
+      <c r="P30" s="56" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="31" spans="1:16" s="37" customFormat="1" ht="30" customHeight="1">
@@ -3206,22 +3292,22 @@
         <v>24</v>
       </c>
       <c r="C31" s="34" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D31" s="34" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="E31" s="34" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F31" s="34" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G31" s="34" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H31" s="34" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I31" s="35">
         <v>1</v>
@@ -3234,25 +3320,25 @@
       <c r="M31" s="36"/>
       <c r="N31" s="34"/>
       <c r="O31" s="26" t="s">
-        <v>233</v>
-      </c>
-      <c r="P31" s="90"/>
+        <v>225</v>
+      </c>
+      <c r="P31" s="81"/>
     </row>
     <row r="32" spans="1:16" s="32" customFormat="1" ht="30" customHeight="1">
       <c r="B32" s="33">
         <v>25</v>
       </c>
       <c r="C32" s="34" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="D32" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="E32" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="F32" s="34" t="s">
         <v>178</v>
-      </c>
-      <c r="E32" s="34" t="s">
-        <v>179</v>
-      </c>
-      <c r="F32" s="34" t="s">
-        <v>180</v>
       </c>
       <c r="G32" s="34"/>
       <c r="H32" s="34"/>
@@ -3267,25 +3353,25 @@
       <c r="M32" s="36"/>
       <c r="N32" s="34"/>
       <c r="O32" s="26" t="s">
-        <v>233</v>
-      </c>
-      <c r="P32" s="91"/>
+        <v>225</v>
+      </c>
+      <c r="P32" s="82"/>
     </row>
     <row r="33" spans="2:16" s="32" customFormat="1" ht="30" customHeight="1">
       <c r="B33" s="33">
         <v>26</v>
       </c>
       <c r="C33" s="34" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D33" s="34" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E33" s="34" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F33" s="34" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G33" s="34"/>
       <c r="H33" s="34"/>
@@ -3300,31 +3386,31 @@
       <c r="M33" s="36"/>
       <c r="N33" s="34"/>
       <c r="O33" s="26" t="s">
-        <v>233</v>
-      </c>
-      <c r="P33" s="91"/>
-    </row>
-    <row r="34" spans="2:16" s="62" customFormat="1" ht="30" customHeight="1">
+        <v>225</v>
+      </c>
+      <c r="P33" s="82"/>
+    </row>
+    <row r="34" spans="2:16" s="55" customFormat="1" ht="30" customHeight="1">
       <c r="B34" s="33">
         <v>27</v>
       </c>
       <c r="C34" s="38" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D34" s="38" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E34" s="38" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F34" s="38" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G34" s="38" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="H34" s="38" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="I34" s="39">
         <v>1</v>
@@ -3337,31 +3423,31 @@
       <c r="M34" s="40"/>
       <c r="N34" s="38"/>
       <c r="O34" s="26" t="s">
-        <v>233</v>
-      </c>
-      <c r="P34" s="92"/>
-    </row>
-    <row r="35" spans="2:16" s="62" customFormat="1" ht="30" customHeight="1">
+        <v>225</v>
+      </c>
+      <c r="P34" s="83"/>
+    </row>
+    <row r="35" spans="2:16" s="55" customFormat="1" ht="30" customHeight="1">
       <c r="B35" s="33">
         <v>28</v>
       </c>
       <c r="C35" s="38" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D35" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="E35" s="38" t="s">
+        <v>177</v>
+      </c>
+      <c r="F35" s="38" t="s">
+        <v>160</v>
+      </c>
+      <c r="G35" s="38" t="s">
+        <v>183</v>
+      </c>
+      <c r="H35" s="38" t="s">
         <v>184</v>
-      </c>
-      <c r="E35" s="38" t="s">
-        <v>179</v>
-      </c>
-      <c r="F35" s="38" t="s">
-        <v>162</v>
-      </c>
-      <c r="G35" s="38" t="s">
-        <v>185</v>
-      </c>
-      <c r="H35" s="38" t="s">
-        <v>186</v>
       </c>
       <c r="I35" s="39">
         <v>1</v>
@@ -3374,86 +3460,86 @@
       <c r="M35" s="40"/>
       <c r="N35" s="38"/>
       <c r="O35" s="26" t="s">
-        <v>233</v>
-      </c>
-      <c r="P35" s="92"/>
-    </row>
-    <row r="36" spans="2:16" s="51" customFormat="1" ht="30" customHeight="1">
-      <c r="B36" s="52">
+        <v>225</v>
+      </c>
+      <c r="P35" s="83"/>
+    </row>
+    <row r="36" spans="2:16" s="44" customFormat="1" ht="30" customHeight="1">
+      <c r="B36" s="45">
         <v>29</v>
       </c>
-      <c r="C36" s="53" t="s">
-        <v>220</v>
-      </c>
-      <c r="D36" s="53" t="s">
+      <c r="C36" s="46" t="s">
+        <v>216</v>
+      </c>
+      <c r="D36" s="46" t="s">
+        <v>235</v>
+      </c>
+      <c r="E36" s="97" t="s">
+        <v>236</v>
+      </c>
+      <c r="F36" s="46" t="s">
+        <v>160</v>
+      </c>
+      <c r="G36" s="46" t="s">
+        <v>185</v>
+      </c>
+      <c r="H36" s="46" t="s">
+        <v>186</v>
+      </c>
+      <c r="I36" s="47">
+        <v>1</v>
+      </c>
+      <c r="J36" s="46"/>
+      <c r="K36" s="46"/>
+      <c r="L36" s="48" t="s">
+        <v>59</v>
+      </c>
+      <c r="M36" s="48"/>
+      <c r="N36" s="46"/>
+      <c r="O36" s="31" t="s">
+        <v>207</v>
+      </c>
+      <c r="P36" s="56" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" s="44" customFormat="1" ht="30" customHeight="1">
+      <c r="B37" s="45">
+        <v>30</v>
+      </c>
+      <c r="C37" s="46" t="s">
         <v>187</v>
       </c>
-      <c r="E36" s="53" t="s">
-        <v>179</v>
-      </c>
-      <c r="F36" s="53" t="s">
-        <v>162</v>
-      </c>
-      <c r="G36" s="53" t="s">
+      <c r="D37" s="46" t="s">
         <v>188</v>
       </c>
-      <c r="H36" s="53" t="s">
+      <c r="E37" s="96" t="s">
+        <v>237</v>
+      </c>
+      <c r="F37" s="46" t="s">
+        <v>177</v>
+      </c>
+      <c r="G37" s="46" t="s">
         <v>189</v>
       </c>
-      <c r="I36" s="54">
-        <v>1</v>
-      </c>
-      <c r="J36" s="53"/>
-      <c r="K36" s="53"/>
-      <c r="L36" s="55" t="s">
-        <v>59</v>
-      </c>
-      <c r="M36" s="55"/>
-      <c r="N36" s="53"/>
-      <c r="O36" s="31" t="s">
-        <v>211</v>
-      </c>
-      <c r="P36" s="63" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="37" spans="2:16" s="51" customFormat="1" ht="30" customHeight="1">
-      <c r="B37" s="52">
-        <v>30</v>
-      </c>
-      <c r="C37" s="53" t="s">
+      <c r="H37" s="46" t="s">
         <v>190</v>
       </c>
-      <c r="D37" s="53" t="s">
+      <c r="I37" s="46" t="s">
         <v>191</v>
       </c>
-      <c r="E37" s="53" t="s">
-        <v>179</v>
-      </c>
-      <c r="F37" s="53" t="s">
-        <v>179</v>
-      </c>
-      <c r="G37" s="53" t="s">
-        <v>192</v>
-      </c>
-      <c r="H37" s="53" t="s">
-        <v>193</v>
-      </c>
-      <c r="I37" s="53" t="s">
-        <v>194</v>
-      </c>
-      <c r="J37" s="53"/>
-      <c r="K37" s="53"/>
-      <c r="L37" s="55" t="s">
+      <c r="J37" s="46"/>
+      <c r="K37" s="46"/>
+      <c r="L37" s="48" t="s">
         <v>144</v>
       </c>
-      <c r="M37" s="55"/>
-      <c r="N37" s="53"/>
+      <c r="M37" s="48"/>
+      <c r="N37" s="46"/>
       <c r="O37" s="31" t="s">
-        <v>233</v>
-      </c>
-      <c r="P37" s="63" t="s">
-        <v>237</v>
+        <v>225</v>
+      </c>
+      <c r="P37" s="56" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="38" spans="2:16" s="32" customFormat="1" ht="30" customHeight="1">
@@ -3461,20 +3547,20 @@
         <v>31</v>
       </c>
       <c r="C38" s="34" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D38" s="38" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E38" s="38" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F38" s="38" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G38" s="38"/>
       <c r="H38" s="38" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="I38" s="39">
         <v>1</v>
@@ -3486,48 +3572,48 @@
       </c>
       <c r="M38" s="40"/>
       <c r="N38" s="38"/>
-      <c r="O38" s="64" t="s">
-        <v>238</v>
-      </c>
-      <c r="P38" s="91"/>
-    </row>
-    <row r="39" spans="2:16" s="51" customFormat="1" ht="30" customHeight="1">
-      <c r="B39" s="52">
+      <c r="O38" s="57" t="s">
+        <v>230</v>
+      </c>
+      <c r="P38" s="82"/>
+    </row>
+    <row r="39" spans="2:16" s="44" customFormat="1" ht="30" customHeight="1">
+      <c r="B39" s="45">
         <v>32</v>
       </c>
-      <c r="C39" s="53" t="s">
-        <v>197</v>
-      </c>
-      <c r="D39" s="53" t="s">
-        <v>222</v>
-      </c>
-      <c r="E39" s="53" t="s">
-        <v>162</v>
-      </c>
-      <c r="F39" s="53" t="s">
-        <v>162</v>
-      </c>
-      <c r="G39" s="53" t="s">
-        <v>198</v>
-      </c>
-      <c r="H39" s="53" t="s">
-        <v>199</v>
-      </c>
-      <c r="I39" s="53" t="s">
+      <c r="C39" s="46" t="s">
         <v>194</v>
       </c>
-      <c r="J39" s="53"/>
-      <c r="K39" s="53"/>
-      <c r="L39" s="55" t="s">
+      <c r="D39" s="46" t="s">
+        <v>218</v>
+      </c>
+      <c r="E39" s="96" t="s">
+        <v>247</v>
+      </c>
+      <c r="F39" s="46" t="s">
+        <v>160</v>
+      </c>
+      <c r="G39" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="H39" s="46" t="s">
+        <v>196</v>
+      </c>
+      <c r="I39" s="46" t="s">
+        <v>191</v>
+      </c>
+      <c r="J39" s="46"/>
+      <c r="K39" s="46"/>
+      <c r="L39" s="48" t="s">
         <v>144</v>
       </c>
-      <c r="M39" s="55"/>
-      <c r="N39" s="53"/>
+      <c r="M39" s="48"/>
+      <c r="N39" s="46"/>
       <c r="O39" s="31" t="s">
-        <v>211</v>
-      </c>
-      <c r="P39" s="63" t="s">
-        <v>239</v>
+        <v>207</v>
+      </c>
+      <c r="P39" s="56" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="40" spans="2:16" s="32" customFormat="1" ht="30" customHeight="1">
@@ -3535,16 +3621,16 @@
         <v>33</v>
       </c>
       <c r="C40" s="38" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D40" s="38" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E40" s="38" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F40" s="38" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G40" s="38"/>
       <c r="H40" s="38"/>
@@ -3559,82 +3645,82 @@
       <c r="O40" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="P40" s="91"/>
-    </row>
-    <row r="41" spans="2:16" s="51" customFormat="1" ht="30" customHeight="1">
-      <c r="B41" s="52">
+      <c r="P40" s="82"/>
+    </row>
+    <row r="41" spans="2:16" s="44" customFormat="1" ht="30" customHeight="1">
+      <c r="B41" s="45">
         <v>34</v>
       </c>
-      <c r="C41" s="53" t="s">
+      <c r="C41" s="46" t="s">
+        <v>199</v>
+      </c>
+      <c r="D41" s="46" t="s">
+        <v>239</v>
+      </c>
+      <c r="E41" s="96" t="s">
+        <v>240</v>
+      </c>
+      <c r="F41" s="46" t="s">
+        <v>219</v>
+      </c>
+      <c r="G41" s="46" t="s">
+        <v>200</v>
+      </c>
+      <c r="H41" s="46" t="s">
+        <v>201</v>
+      </c>
+      <c r="I41" s="47">
+        <v>1</v>
+      </c>
+      <c r="J41" s="46"/>
+      <c r="K41" s="46"/>
+      <c r="L41" s="48" t="s">
+        <v>59</v>
+      </c>
+      <c r="M41" s="48"/>
+      <c r="N41" s="46"/>
+      <c r="O41" s="31" t="s">
+        <v>207</v>
+      </c>
+      <c r="P41" s="56" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" s="44" customFormat="1" ht="30" customHeight="1">
+      <c r="B42" s="45">
+        <v>35</v>
+      </c>
+      <c r="C42" s="46" t="s">
+        <v>241</v>
+      </c>
+      <c r="D42" s="46" t="s">
         <v>202</v>
       </c>
-      <c r="D41" s="53" t="s">
-        <v>223</v>
-      </c>
-      <c r="E41" s="53" t="s">
-        <v>224</v>
-      </c>
-      <c r="F41" s="53" t="s">
-        <v>225</v>
-      </c>
-      <c r="G41" s="53" t="s">
+      <c r="E42" s="96" t="s">
+        <v>242</v>
+      </c>
+      <c r="F42" s="46" t="s">
+        <v>160</v>
+      </c>
+      <c r="G42" s="46" t="s">
         <v>203</v>
       </c>
-      <c r="H41" s="53" t="s">
-        <v>204</v>
-      </c>
-      <c r="I41" s="54">
+      <c r="H42" s="46"/>
+      <c r="I42" s="47">
         <v>1</v>
       </c>
-      <c r="J41" s="53"/>
-      <c r="K41" s="53"/>
-      <c r="L41" s="55" t="s">
+      <c r="J42" s="46"/>
+      <c r="K42" s="46"/>
+      <c r="L42" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="M41" s="55"/>
-      <c r="N41" s="53"/>
-      <c r="O41" s="31" t="s">
-        <v>211</v>
-      </c>
-      <c r="P41" s="63" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="42" spans="2:16" s="51" customFormat="1" ht="30" customHeight="1">
-      <c r="B42" s="52">
-        <v>35</v>
-      </c>
-      <c r="C42" s="53" t="s">
-        <v>226</v>
-      </c>
-      <c r="D42" s="53" t="s">
-        <v>205</v>
-      </c>
-      <c r="E42" s="53" t="s">
-        <v>206</v>
-      </c>
-      <c r="F42" s="53" t="s">
-        <v>162</v>
-      </c>
-      <c r="G42" s="53" t="s">
+      <c r="M42" s="48"/>
+      <c r="N42" s="46"/>
+      <c r="O42" s="31" t="s">
         <v>207</v>
       </c>
-      <c r="H42" s="53"/>
-      <c r="I42" s="54">
-        <v>1</v>
-      </c>
-      <c r="J42" s="53"/>
-      <c r="K42" s="53"/>
-      <c r="L42" s="55" t="s">
-        <v>59</v>
-      </c>
-      <c r="M42" s="55"/>
-      <c r="N42" s="53"/>
-      <c r="O42" s="31" t="s">
-        <v>211</v>
-      </c>
-      <c r="P42" s="63" t="s">
-        <v>241</v>
+      <c r="P42" s="56" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="43" spans="2:16" s="32" customFormat="1" ht="30" customHeight="1">
@@ -3642,13 +3728,13 @@
         <v>36</v>
       </c>
       <c r="C43" s="38" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="D43" s="38" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="E43" s="41" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F43" s="38"/>
       <c r="G43" s="38"/>
@@ -3664,22 +3750,22 @@
       <c r="M43" s="40"/>
       <c r="N43" s="38"/>
       <c r="O43" s="26" t="s">
-        <v>233</v>
-      </c>
-      <c r="P43" s="91"/>
+        <v>225</v>
+      </c>
+      <c r="P43" s="82"/>
     </row>
     <row r="44" spans="2:16" s="32" customFormat="1" ht="30" customHeight="1">
       <c r="B44" s="33">
         <v>37</v>
       </c>
       <c r="C44" s="41" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="D44" s="38" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="E44" s="41" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F44" s="41"/>
       <c r="G44" s="41"/>
@@ -3695,55 +3781,55 @@
       <c r="M44" s="42"/>
       <c r="N44" s="41"/>
       <c r="O44" s="26" t="s">
-        <v>233</v>
-      </c>
-      <c r="P44" s="91"/>
-    </row>
-    <row r="45" spans="2:16" s="51" customFormat="1" ht="30" customHeight="1">
-      <c r="B45" s="52">
+        <v>225</v>
+      </c>
+      <c r="P44" s="82"/>
+    </row>
+    <row r="45" spans="2:16" s="44" customFormat="1" ht="30" customHeight="1">
+      <c r="B45" s="45">
         <v>38</v>
       </c>
-      <c r="C45" s="93" t="s">
-        <v>164</v>
-      </c>
-      <c r="D45" s="93" t="s">
-        <v>229</v>
-      </c>
-      <c r="E45" s="93" t="s">
-        <v>179</v>
-      </c>
-      <c r="F45" s="93"/>
-      <c r="G45" s="93"/>
-      <c r="H45" s="93"/>
-      <c r="I45" s="54">
+      <c r="C45" s="41" t="s">
+        <v>162</v>
+      </c>
+      <c r="D45" s="84" t="s">
+        <v>243</v>
+      </c>
+      <c r="E45" s="84" t="s">
+        <v>177</v>
+      </c>
+      <c r="F45" s="84"/>
+      <c r="G45" s="84"/>
+      <c r="H45" s="84"/>
+      <c r="I45" s="47">
         <v>1</v>
       </c>
-      <c r="J45" s="93"/>
-      <c r="K45" s="93"/>
-      <c r="L45" s="94" t="s">
+      <c r="J45" s="84"/>
+      <c r="K45" s="84"/>
+      <c r="L45" s="85" t="s">
         <v>59</v>
       </c>
-      <c r="M45" s="94"/>
-      <c r="N45" s="93"/>
+      <c r="M45" s="85"/>
+      <c r="N45" s="84"/>
       <c r="O45" s="31" t="s">
-        <v>211</v>
-      </c>
-      <c r="P45" s="63" t="s">
-        <v>236</v>
+        <v>207</v>
+      </c>
+      <c r="P45" s="56" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="46" spans="2:16" s="32" customFormat="1" ht="30" customHeight="1">
       <c r="B46" s="33">
         <v>39</v>
       </c>
-      <c r="C46" s="95" t="s">
-        <v>209</v>
+      <c r="C46" s="86" t="s">
+        <v>205</v>
       </c>
       <c r="D46" s="41" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="E46" s="41" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F46" s="41"/>
       <c r="G46" s="41"/>
@@ -3759,22 +3845,22 @@
       <c r="M46" s="42"/>
       <c r="N46" s="41"/>
       <c r="O46" s="26" t="s">
-        <v>233</v>
-      </c>
-      <c r="P46" s="91"/>
+        <v>225</v>
+      </c>
+      <c r="P46" s="82"/>
     </row>
     <row r="47" spans="2:16" s="32" customFormat="1" ht="30" customHeight="1">
       <c r="B47" s="33">
         <v>40</v>
       </c>
-      <c r="C47" s="95" t="s">
-        <v>230</v>
+      <c r="C47" s="86" t="s">
+        <v>222</v>
       </c>
       <c r="D47" s="41" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="E47" s="41" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F47" s="41"/>
       <c r="G47" s="41"/>
@@ -3790,172 +3876,271 @@
       <c r="M47" s="42"/>
       <c r="N47" s="41"/>
       <c r="O47" s="26" t="s">
-        <v>233</v>
-      </c>
-      <c r="P47" s="91"/>
-    </row>
-    <row r="48" spans="2:16" s="51" customFormat="1" ht="30" customHeight="1">
-      <c r="B48" s="52">
+        <v>225</v>
+      </c>
+      <c r="P47" s="82"/>
+    </row>
+    <row r="48" spans="2:16" s="44" customFormat="1" ht="30" customHeight="1">
+      <c r="B48" s="45">
         <v>41</v>
       </c>
-      <c r="C48" s="93" t="s">
+      <c r="C48" s="41" t="s">
+        <v>224</v>
+      </c>
+      <c r="D48" s="46" t="s">
+        <v>204</v>
+      </c>
+      <c r="E48" s="84" t="s">
+        <v>160</v>
+      </c>
+      <c r="F48" s="84"/>
+      <c r="G48" s="84"/>
+      <c r="H48" s="84"/>
+      <c r="I48" s="47">
+        <v>1</v>
+      </c>
+      <c r="J48" s="84"/>
+      <c r="K48" s="84"/>
+      <c r="L48" s="85" t="s">
+        <v>59</v>
+      </c>
+      <c r="M48" s="85"/>
+      <c r="N48" s="84"/>
+      <c r="O48" s="31" t="s">
+        <v>207</v>
+      </c>
+      <c r="P48" s="56" t="s">
         <v>232</v>
       </c>
-      <c r="D48" s="53" t="s">
-        <v>208</v>
-      </c>
-      <c r="E48" s="93" t="s">
-        <v>162</v>
-      </c>
-      <c r="F48" s="93"/>
-      <c r="G48" s="93"/>
-      <c r="H48" s="93"/>
-      <c r="I48" s="54">
-        <v>1</v>
-      </c>
-      <c r="J48" s="93"/>
-      <c r="K48" s="93"/>
-      <c r="L48" s="94" t="s">
-        <v>59</v>
-      </c>
-      <c r="M48" s="94"/>
-      <c r="N48" s="93"/>
-      <c r="O48" s="31" t="s">
-        <v>211</v>
-      </c>
-      <c r="P48" s="63" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="49" spans="2:16" s="57" customFormat="1" ht="15">
+    </row>
+    <row r="49" spans="2:16" s="50" customFormat="1" ht="30">
       <c r="B49" s="6">
         <v>43</v>
       </c>
-      <c r="C49" s="70"/>
-      <c r="D49" s="70"/>
-      <c r="E49" s="70"/>
-      <c r="F49" s="70"/>
-      <c r="G49" s="70"/>
-      <c r="H49" s="70"/>
-      <c r="I49" s="71"/>
-      <c r="J49" s="70"/>
-      <c r="K49" s="70"/>
+      <c r="C49" s="98" t="s">
+        <v>238</v>
+      </c>
+      <c r="D49" s="61"/>
+      <c r="E49" s="61"/>
+      <c r="F49" s="61"/>
+      <c r="G49" s="61"/>
+      <c r="H49" s="61"/>
+      <c r="I49" s="62"/>
+      <c r="J49" s="61"/>
+      <c r="K49" s="61"/>
       <c r="L49" s="7"/>
       <c r="M49" s="26"/>
-      <c r="N49" s="70"/>
-      <c r="O49" s="70"/>
-      <c r="P49" s="85"/>
-    </row>
-    <row r="50" spans="2:16" s="57" customFormat="1" ht="15">
+      <c r="N49" s="61"/>
+      <c r="O49" s="61"/>
+      <c r="P49" s="76"/>
+    </row>
+    <row r="50" spans="2:16" s="50" customFormat="1" ht="45">
       <c r="B50" s="6">
         <v>44</v>
       </c>
-      <c r="C50" s="70"/>
-      <c r="D50" s="70"/>
-      <c r="E50" s="70"/>
-      <c r="F50" s="70"/>
-      <c r="G50" s="70"/>
-      <c r="H50" s="70"/>
-      <c r="I50" s="71"/>
-      <c r="J50" s="70"/>
-      <c r="K50" s="70"/>
+      <c r="C50" s="98" t="s">
+        <v>248</v>
+      </c>
+      <c r="D50" s="61"/>
+      <c r="E50" s="61"/>
+      <c r="F50" s="61"/>
+      <c r="G50" s="61"/>
+      <c r="H50" s="61"/>
+      <c r="I50" s="62"/>
+      <c r="J50" s="61"/>
+      <c r="K50" s="61"/>
       <c r="L50" s="7"/>
       <c r="M50" s="26"/>
-      <c r="N50" s="70"/>
-      <c r="O50" s="70"/>
-      <c r="P50" s="85"/>
-    </row>
-    <row r="51" spans="2:16" s="57" customFormat="1" ht="15">
+      <c r="N50" s="61"/>
+      <c r="O50" s="61"/>
+      <c r="P50" s="76"/>
+    </row>
+    <row r="51" spans="2:16" s="50" customFormat="1" ht="30">
       <c r="B51" s="6">
         <v>45</v>
       </c>
-      <c r="C51" s="70"/>
-      <c r="D51" s="70"/>
-      <c r="E51" s="70"/>
-      <c r="F51" s="70"/>
-      <c r="G51" s="70"/>
-      <c r="H51" s="70"/>
-      <c r="I51" s="71"/>
-      <c r="J51" s="70"/>
-      <c r="K51" s="70"/>
+      <c r="C51" s="98" t="s">
+        <v>249</v>
+      </c>
+      <c r="D51" s="61"/>
+      <c r="E51" s="61"/>
+      <c r="F51" s="61"/>
+      <c r="G51" s="61"/>
+      <c r="H51" s="61"/>
+      <c r="I51" s="62"/>
+      <c r="J51" s="61"/>
+      <c r="K51" s="61"/>
       <c r="L51" s="7"/>
       <c r="M51" s="26"/>
-      <c r="N51" s="70"/>
-      <c r="O51" s="70"/>
-      <c r="P51" s="85"/>
-    </row>
-    <row r="52" spans="2:16" s="57" customFormat="1" ht="15">
+      <c r="N51" s="61"/>
+      <c r="O51" s="61"/>
+      <c r="P51" s="76"/>
+    </row>
+    <row r="52" spans="2:16" s="50" customFormat="1" ht="30">
       <c r="B52" s="6">
         <v>46</v>
       </c>
-      <c r="C52" s="70"/>
-      <c r="D52" s="70"/>
-      <c r="E52" s="70"/>
-      <c r="F52" s="70"/>
-      <c r="G52" s="70"/>
-      <c r="H52" s="70"/>
-      <c r="I52" s="71"/>
-      <c r="J52" s="70"/>
-      <c r="K52" s="70"/>
+      <c r="C52" s="98" t="s">
+        <v>251</v>
+      </c>
+      <c r="D52" s="61"/>
+      <c r="E52" s="61"/>
+      <c r="F52" s="61"/>
+      <c r="G52" s="61"/>
+      <c r="H52" s="61"/>
+      <c r="I52" s="62"/>
+      <c r="J52" s="61"/>
+      <c r="K52" s="61"/>
       <c r="L52" s="7"/>
       <c r="M52" s="26"/>
-      <c r="N52" s="70"/>
-      <c r="O52" s="70"/>
-      <c r="P52" s="85"/>
-    </row>
-    <row r="53" spans="2:16" s="57" customFormat="1" ht="15">
+      <c r="N52" s="61"/>
+      <c r="O52" s="61"/>
+      <c r="P52" s="76"/>
+    </row>
+    <row r="53" spans="2:16" s="50" customFormat="1" ht="15">
       <c r="B53" s="6">
         <v>47</v>
       </c>
-      <c r="C53" s="70"/>
-      <c r="D53" s="70"/>
-      <c r="E53" s="70"/>
-      <c r="F53" s="70"/>
-      <c r="G53" s="70"/>
-      <c r="H53" s="70"/>
-      <c r="I53" s="71"/>
-      <c r="J53" s="70"/>
-      <c r="K53" s="70"/>
+      <c r="C53" s="98" t="s">
+        <v>250</v>
+      </c>
+      <c r="D53" s="61"/>
+      <c r="E53" s="61"/>
+      <c r="F53" s="61"/>
+      <c r="G53" s="61"/>
+      <c r="H53" s="61"/>
+      <c r="I53" s="62"/>
+      <c r="J53" s="61"/>
+      <c r="K53" s="61"/>
       <c r="L53" s="7"/>
       <c r="M53" s="26"/>
-      <c r="N53" s="70"/>
-      <c r="O53" s="70"/>
-      <c r="P53" s="85"/>
-    </row>
-    <row r="54" spans="2:16" s="57" customFormat="1" ht="15">
+      <c r="N53" s="61"/>
+      <c r="O53" s="61"/>
+      <c r="P53" s="76"/>
+    </row>
+    <row r="54" spans="2:16" s="50" customFormat="1" ht="30">
       <c r="B54" s="6">
         <v>48</v>
       </c>
-      <c r="C54" s="70"/>
-      <c r="D54" s="70"/>
-      <c r="E54" s="70"/>
-      <c r="F54" s="70"/>
-      <c r="G54" s="70"/>
-      <c r="H54" s="70"/>
-      <c r="I54" s="71"/>
-      <c r="J54" s="70"/>
-      <c r="K54" s="70"/>
+      <c r="C54" s="98" t="s">
+        <v>252</v>
+      </c>
+      <c r="D54" s="98" t="s">
+        <v>253</v>
+      </c>
+      <c r="E54" s="61"/>
+      <c r="F54" s="61"/>
+      <c r="G54" s="61"/>
+      <c r="H54" s="61"/>
+      <c r="I54" s="62"/>
+      <c r="J54" s="61"/>
+      <c r="K54" s="61"/>
       <c r="L54" s="7"/>
       <c r="M54" s="26"/>
-      <c r="N54" s="70"/>
-      <c r="O54" s="70"/>
-      <c r="P54" s="85"/>
-    </row>
-    <row r="55" spans="2:16" ht="15.75" thickBot="1">
-      <c r="B55" s="5"/>
-      <c r="C55" s="81"/>
-      <c r="D55" s="81"/>
-      <c r="E55" s="81"/>
-      <c r="F55" s="81"/>
-      <c r="G55" s="81"/>
-      <c r="H55" s="81"/>
-      <c r="I55" s="81"/>
-      <c r="J55" s="81"/>
-      <c r="K55" s="81"/>
-      <c r="L55" s="82"/>
-      <c r="M55" s="82"/>
-      <c r="N55" s="82"/>
-      <c r="O55" s="82"/>
+      <c r="N54" s="61"/>
+      <c r="O54" s="61"/>
+      <c r="P54" s="76"/>
+    </row>
+    <row r="55" spans="2:16" s="50" customFormat="1" ht="15">
+      <c r="B55" s="6"/>
+      <c r="C55" s="103"/>
+      <c r="D55" s="103"/>
+      <c r="E55" s="99"/>
+      <c r="F55" s="99"/>
+      <c r="G55" s="99"/>
+      <c r="H55" s="99"/>
+      <c r="I55" s="100"/>
+      <c r="J55" s="99"/>
+      <c r="K55" s="99"/>
+      <c r="L55" s="101"/>
+      <c r="M55" s="102"/>
+      <c r="N55" s="99"/>
+      <c r="O55" s="99"/>
+      <c r="P55" s="76"/>
+    </row>
+    <row r="56" spans="2:16" s="50" customFormat="1" ht="15">
+      <c r="B56" s="6"/>
+      <c r="C56" s="103"/>
+      <c r="D56" s="103"/>
+      <c r="E56" s="99"/>
+      <c r="F56" s="99"/>
+      <c r="G56" s="99"/>
+      <c r="H56" s="99"/>
+      <c r="I56" s="100"/>
+      <c r="J56" s="99"/>
+      <c r="K56" s="99"/>
+      <c r="L56" s="101"/>
+      <c r="M56" s="102"/>
+      <c r="N56" s="99"/>
+      <c r="O56" s="99"/>
+      <c r="P56" s="76"/>
+    </row>
+    <row r="57" spans="2:16" s="50" customFormat="1" ht="15">
+      <c r="B57" s="6"/>
+      <c r="C57" s="103"/>
+      <c r="D57" s="103"/>
+      <c r="E57" s="99"/>
+      <c r="F57" s="99"/>
+      <c r="G57" s="99"/>
+      <c r="H57" s="99"/>
+      <c r="I57" s="100"/>
+      <c r="J57" s="99"/>
+      <c r="K57" s="99"/>
+      <c r="L57" s="101"/>
+      <c r="M57" s="102"/>
+      <c r="N57" s="99"/>
+      <c r="O57" s="99"/>
+      <c r="P57" s="76"/>
+    </row>
+    <row r="58" spans="2:16" s="50" customFormat="1" ht="15">
+      <c r="B58" s="6"/>
+      <c r="C58" s="103"/>
+      <c r="D58" s="103"/>
+      <c r="E58" s="99"/>
+      <c r="F58" s="99"/>
+      <c r="G58" s="99"/>
+      <c r="H58" s="99"/>
+      <c r="I58" s="100"/>
+      <c r="J58" s="99"/>
+      <c r="K58" s="99"/>
+      <c r="L58" s="101"/>
+      <c r="M58" s="102"/>
+      <c r="N58" s="99"/>
+      <c r="O58" s="99"/>
+      <c r="P58" s="76"/>
+    </row>
+    <row r="59" spans="2:16" s="50" customFormat="1" ht="15">
+      <c r="B59" s="6"/>
+      <c r="C59" s="103"/>
+      <c r="D59" s="103"/>
+      <c r="E59" s="99"/>
+      <c r="F59" s="99"/>
+      <c r="G59" s="99"/>
+      <c r="H59" s="99"/>
+      <c r="I59" s="100"/>
+      <c r="J59" s="99"/>
+      <c r="K59" s="99"/>
+      <c r="L59" s="101"/>
+      <c r="M59" s="102"/>
+      <c r="N59" s="99"/>
+      <c r="O59" s="99"/>
+      <c r="P59" s="76"/>
+    </row>
+    <row r="60" spans="2:16" ht="15.75" thickBot="1">
+      <c r="B60" s="5"/>
+      <c r="C60" s="72"/>
+      <c r="D60" s="72"/>
+      <c r="E60" s="72"/>
+      <c r="F60" s="72"/>
+      <c r="G60" s="72"/>
+      <c r="H60" s="72"/>
+      <c r="I60" s="72"/>
+      <c r="J60" s="72"/>
+      <c r="K60" s="72"/>
+      <c r="L60" s="73"/>
+      <c r="M60" s="73"/>
+      <c r="N60" s="73"/>
+      <c r="O60" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3969,13 +4154,13 @@
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M7:M27 M49:M54">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M7:M27 M49:M59">
       <formula1>"高,中,低"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O8:O37 O39:O48">
       <formula1>"Active,Resolve,Close"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L7:L54">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L7:L59">
       <formula1>"严重错误,必须修改,应该修改,选择修改"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M28:M48">

--- a/Documentation/Buglist.xlsx
+++ b/Documentation/Buglist.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="252">
   <si>
     <t>ID</t>
   </si>
@@ -1059,22 +1059,6 @@
     <t>Resolve</t>
   </si>
   <si>
-    <t>后续确认</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>后需确认</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>在新版本确认</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>目前需要客户确认所有常用信息的客户名称+规格型号，需要和正式的名称型号对应上</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>Duplicate</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
@@ -1083,10 +1067,6 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>需要确认</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>需要提供新模板</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
@@ -1099,10 +1079,6 @@
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
-    <t>轴承必须要有计划人员填写</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
     <t>蓝光把表定一下</t>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
@@ -1131,14 +1107,6 @@
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
-    <t>需要调查一下影响范围</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>调查一下影响范围，如果影响不大就改成保留，如果打，就暂时保持现状</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
     <t>开发继续再现，如果再现不出来，提供一个Log版本调查</t>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
@@ -1155,10 +1123,6 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>增加筛选空值的选项</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>默认需要将同样合同号的显示在一起</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
@@ -1168,6 +1132,36 @@
   </si>
   <si>
     <t>计划页面选中5条记录，然后安模板导出，最终只出来3条</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>不删除日期</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产日期-投产编号
+包装日期-出厂编号
+如果审核了，对应的编号不可编辑</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>在计划页面加一个选轴承的入口</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>具体流程还需要确认</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>都需要加什么需要确认</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>在Add对话框中，各下拉列表和输入框保留上次输入的信息。</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>在计划页面，增加一种排序，按照合同号排序</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -1175,7 +1169,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18">
+  <fonts count="19">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -1293,8 +1287,15 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1333,19 +1334,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="3" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1524,7 +1519,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1600,170 +1595,239 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="15" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="15" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="15" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="15" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="15" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="15" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1771,59 +1835,8 @@
     <xf numFmtId="0" fontId="15" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2182,31 +2195,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:P60"/>
+  <dimension ref="B2:P60"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A23" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="1.875" style="53" customWidth="1"/>
+    <col min="1" max="1" width="1.875" style="50" customWidth="1"/>
     <col min="2" max="2" width="3.875" style="2" customWidth="1"/>
-    <col min="3" max="4" width="22.5" style="53" customWidth="1"/>
-    <col min="5" max="5" width="28" style="53" customWidth="1"/>
-    <col min="6" max="6" width="22.5" style="53" customWidth="1"/>
-    <col min="7" max="7" width="26.25" style="53" customWidth="1"/>
-    <col min="8" max="8" width="28.375" style="53" customWidth="1"/>
-    <col min="9" max="9" width="22.5" style="53" customWidth="1"/>
-    <col min="10" max="10" width="23.125" style="53" customWidth="1"/>
-    <col min="11" max="11" width="22.5" style="53" customWidth="1"/>
-    <col min="12" max="12" width="20.375" style="2" customWidth="1"/>
-    <col min="13" max="14" width="29.375" style="2" customWidth="1"/>
+    <col min="3" max="4" width="22.5" style="50" customWidth="1"/>
+    <col min="5" max="5" width="28" style="50" customWidth="1"/>
+    <col min="6" max="6" width="22.5" style="50" customWidth="1"/>
+    <col min="7" max="7" width="26.25" style="50" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="28.375" style="50" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="22.5" style="50" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="23.125" style="50" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="22.5" style="50" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="20.375" style="2" hidden="1" customWidth="1"/>
+    <col min="13" max="14" width="29.375" style="2" hidden="1" customWidth="1"/>
     <col min="15" max="15" width="29.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.375" style="80" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9" style="53"/>
+    <col min="16" max="16" width="13.375" style="71" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="50"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:16" s="49" customFormat="1" ht="25.5">
-      <c r="B2" s="89"/>
+    <row r="2" spans="2:16" s="47" customFormat="1" ht="25.5">
+      <c r="B2" s="83"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -2220,10 +2235,10 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
-      <c r="P2" s="74"/>
-    </row>
-    <row r="3" spans="1:16" s="49" customFormat="1" ht="26.25" thickBot="1">
-      <c r="B3" s="90"/>
+      <c r="P2" s="66"/>
+    </row>
+    <row r="3" spans="2:16" s="47" customFormat="1" ht="26.25" thickBot="1">
+      <c r="B3" s="84"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
@@ -2237,39 +2252,39 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
-      <c r="P3" s="74"/>
-    </row>
-    <row r="4" spans="1:16" s="3" customFormat="1" ht="14.25">
-      <c r="B4" s="94" t="s">
+      <c r="P3" s="66"/>
+    </row>
+    <row r="4" spans="2:16" s="3" customFormat="1" ht="14.25">
+      <c r="B4" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="91" t="s">
+      <c r="C4" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="92"/>
-      <c r="E4" s="92"/>
-      <c r="F4" s="92"/>
-      <c r="G4" s="92"/>
-      <c r="H4" s="92"/>
-      <c r="I4" s="92"/>
-      <c r="J4" s="92"/>
-      <c r="K4" s="92"/>
-      <c r="L4" s="87" t="s">
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86"/>
+      <c r="K4" s="86"/>
+      <c r="L4" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="M4" s="87" t="s">
+      <c r="M4" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="N4" s="87" t="s">
+      <c r="N4" s="81" t="s">
         <v>45</v>
       </c>
-      <c r="O4" s="87" t="s">
+      <c r="O4" s="81" t="s">
         <v>152</v>
       </c>
-      <c r="P4" s="75"/>
-    </row>
-    <row r="5" spans="1:16" s="3" customFormat="1" ht="14.25">
-      <c r="B5" s="95"/>
+      <c r="P4" s="67"/>
+    </row>
+    <row r="5" spans="2:16" s="3" customFormat="1" ht="14.25">
+      <c r="B5" s="89"/>
       <c r="C5" s="10" t="s">
         <v>1</v>
       </c>
@@ -2297,86 +2312,86 @@
       <c r="K5" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="L5" s="93"/>
-      <c r="M5" s="88"/>
-      <c r="N5" s="88"/>
-      <c r="O5" s="88"/>
-      <c r="P5" s="75"/>
-    </row>
-    <row r="6" spans="1:16" s="8" customFormat="1" ht="90">
+      <c r="L5" s="87"/>
+      <c r="M5" s="82"/>
+      <c r="N5" s="82"/>
+      <c r="O5" s="82"/>
+      <c r="P5" s="67"/>
+    </row>
+    <row r="6" spans="2:16" s="8" customFormat="1" ht="90">
       <c r="B6" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="58" t="s">
+      <c r="C6" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="58" t="s">
+      <c r="D6" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="58" t="s">
+      <c r="E6" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="58" t="s">
+      <c r="F6" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="58" t="s">
+      <c r="G6" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="58" t="s">
+      <c r="H6" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="I6" s="58" t="s">
+      <c r="I6" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="J6" s="58" t="s">
+      <c r="J6" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="K6" s="58" t="s">
+      <c r="K6" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="L6" s="58" t="s">
+      <c r="L6" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="M6" s="58" t="s">
+      <c r="M6" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="N6" s="58" t="s">
+      <c r="N6" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="O6" s="58" t="s">
+      <c r="O6" s="54" t="s">
         <v>153</v>
       </c>
-      <c r="P6" s="76"/>
-    </row>
-    <row r="7" spans="1:16" s="8" customFormat="1" ht="135" hidden="1">
+      <c r="P6" s="68"/>
+    </row>
+    <row r="7" spans="2:16" s="8" customFormat="1" ht="135" hidden="1">
       <c r="B7" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="59" t="s">
+      <c r="D7" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="59" t="s">
+      <c r="E7" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="59" t="s">
+      <c r="F7" s="55" t="s">
         <v>55</v>
       </c>
-      <c r="G7" s="59" t="s">
+      <c r="G7" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="H7" s="59" t="s">
+      <c r="H7" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="I7" s="60" t="s">
+      <c r="I7" s="56" t="s">
         <v>65</v>
       </c>
-      <c r="J7" s="59" t="s">
+      <c r="J7" s="55" t="s">
         <v>58</v>
       </c>
-      <c r="K7" s="59" t="s">
+      <c r="K7" s="55" t="s">
         <v>42</v>
       </c>
       <c r="L7" s="20" t="s">
@@ -2391,37 +2406,37 @@
       <c r="O7" s="22" t="s">
         <v>155</v>
       </c>
-      <c r="P7" s="76"/>
-    </row>
-    <row r="8" spans="1:16" s="8" customFormat="1" ht="90">
+      <c r="P7" s="68"/>
+    </row>
+    <row r="8" spans="2:16" s="8" customFormat="1" ht="90">
       <c r="B8" s="6">
         <v>1</v>
       </c>
-      <c r="C8" s="61" t="s">
+      <c r="C8" s="57" t="s">
         <v>150</v>
       </c>
-      <c r="D8" s="61" t="s">
+      <c r="D8" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="E8" s="61" t="s">
+      <c r="E8" s="57" t="s">
         <v>54</v>
       </c>
-      <c r="F8" s="61" t="s">
+      <c r="F8" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="G8" s="61" t="s">
+      <c r="G8" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="H8" s="61" t="s">
+      <c r="H8" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="I8" s="62">
+      <c r="I8" s="58">
         <v>1</v>
       </c>
-      <c r="J8" s="61" t="s">
+      <c r="J8" s="57" t="s">
         <v>66</v>
       </c>
-      <c r="K8" s="61" t="s">
+      <c r="K8" s="57" t="s">
         <v>67</v>
       </c>
       <c r="L8" s="7" t="s">
@@ -2430,41 +2445,41 @@
       <c r="M8" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="N8" s="61"/>
+      <c r="N8" s="57"/>
       <c r="O8" s="26" t="s">
         <v>225</v>
       </c>
-      <c r="P8" s="76"/>
-    </row>
-    <row r="9" spans="1:16" s="50" customFormat="1" ht="60">
+      <c r="P8" s="68"/>
+    </row>
+    <row r="9" spans="2:16" s="48" customFormat="1" ht="60">
       <c r="B9" s="6">
         <v>2</v>
       </c>
-      <c r="C9" s="61" t="s">
+      <c r="C9" s="57" t="s">
         <v>151</v>
       </c>
-      <c r="D9" s="61" t="s">
+      <c r="D9" s="57" t="s">
         <v>61</v>
       </c>
-      <c r="E9" s="61" t="s">
+      <c r="E9" s="57" t="s">
         <v>71</v>
       </c>
-      <c r="F9" s="61" t="s">
+      <c r="F9" s="57" t="s">
         <v>62</v>
       </c>
-      <c r="G9" s="61" t="s">
+      <c r="G9" s="57" t="s">
         <v>63</v>
       </c>
-      <c r="H9" s="61" t="s">
+      <c r="H9" s="57" t="s">
         <v>64</v>
       </c>
-      <c r="I9" s="62">
+      <c r="I9" s="58">
         <v>1</v>
       </c>
-      <c r="J9" s="61" t="s">
+      <c r="J9" s="57" t="s">
         <v>66</v>
       </c>
-      <c r="K9" s="61" t="s">
+      <c r="K9" s="57" t="s">
         <v>68</v>
       </c>
       <c r="L9" s="7" t="s">
@@ -2473,85 +2488,84 @@
       <c r="M9" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="N9" s="61"/>
+      <c r="N9" s="57"/>
       <c r="O9" s="26" t="s">
         <v>225</v>
       </c>
-      <c r="P9" s="76"/>
-    </row>
-    <row r="10" spans="1:16" s="29" customFormat="1" ht="165">
-      <c r="A10" s="43"/>
-      <c r="B10" s="27">
+      <c r="P9" s="68"/>
+    </row>
+    <row r="10" spans="2:16" s="41" customFormat="1" ht="165">
+      <c r="B10" s="6">
         <v>3</v>
       </c>
-      <c r="C10" s="63" t="s">
+      <c r="C10" s="57" t="s">
         <v>69</v>
       </c>
-      <c r="D10" s="63" t="s">
+      <c r="D10" s="57" t="s">
         <v>70</v>
       </c>
-      <c r="E10" s="63" t="s">
+      <c r="E10" s="57" t="s">
         <v>72</v>
       </c>
-      <c r="F10" s="63" t="s">
+      <c r="F10" s="57" t="s">
         <v>73</v>
       </c>
-      <c r="G10" s="63" t="s">
+      <c r="G10" s="57" t="s">
         <v>74</v>
       </c>
-      <c r="H10" s="63" t="s">
+      <c r="H10" s="57" t="s">
         <v>75</v>
       </c>
-      <c r="I10" s="64">
+      <c r="I10" s="58">
         <v>1</v>
       </c>
-      <c r="J10" s="63" t="s">
+      <c r="J10" s="57" t="s">
         <v>76</v>
       </c>
-      <c r="K10" s="63" t="s">
+      <c r="K10" s="57" t="s">
         <v>68</v>
       </c>
-      <c r="L10" s="28" t="s">
+      <c r="L10" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="M10" s="28" t="s">
+      <c r="M10" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="N10" s="63"/>
-      <c r="O10" s="26" t="s">
+      <c r="N10" s="57"/>
+      <c r="O10" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="P10" s="77"/>
-    </row>
-    <row r="11" spans="1:16" s="9" customFormat="1" ht="105">
+      <c r="P10" s="90"/>
+    </row>
+    <row r="11" spans="2:16" s="9" customFormat="1" ht="105">
       <c r="B11" s="19">
         <v>4</v>
       </c>
-      <c r="C11" s="59" t="s">
+      <c r="C11" s="55" t="s">
         <v>77</v>
       </c>
-      <c r="D11" s="59" t="s">
+      <c r="D11" s="55" t="s">
         <v>78</v>
       </c>
-      <c r="E11" s="59" t="s">
+      <c r="E11" s="55" t="s">
         <v>54</v>
       </c>
-      <c r="F11" s="59" t="s">
+      <c r="F11" s="55" t="s">
         <v>81</v>
       </c>
-      <c r="G11" s="59" t="s">
+      <c r="G11" s="55" t="s">
         <v>79</v>
       </c>
-      <c r="H11" s="59" t="s">
+      <c r="H11" s="55" t="s">
         <v>80</v>
       </c>
-      <c r="I11" s="65">
+      <c r="I11" s="61">
         <v>1</v>
       </c>
-      <c r="J11" s="59" t="s">
+      <c r="J11" s="55" t="s">
         <v>76</v>
       </c>
-      <c r="K11" s="59" t="s">
+      <c r="K11" s="55" t="s">
         <v>68</v>
       </c>
       <c r="L11" s="20" t="s">
@@ -2560,41 +2574,41 @@
       <c r="M11" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="N11" s="59"/>
+      <c r="N11" s="55"/>
       <c r="O11" s="20" t="s">
         <v>156</v>
       </c>
-      <c r="P11" s="78"/>
-    </row>
-    <row r="12" spans="1:16" s="50" customFormat="1" ht="60">
+      <c r="P11" s="70"/>
+    </row>
+    <row r="12" spans="2:16" s="48" customFormat="1" ht="60">
       <c r="B12" s="6">
         <v>5</v>
       </c>
-      <c r="C12" s="61" t="s">
+      <c r="C12" s="57" t="s">
         <v>84</v>
       </c>
-      <c r="D12" s="61" t="s">
+      <c r="D12" s="57" t="s">
         <v>82</v>
       </c>
-      <c r="E12" s="61" t="s">
+      <c r="E12" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="F12" s="61" t="s">
+      <c r="F12" s="57" t="s">
         <v>85</v>
       </c>
-      <c r="G12" s="61" t="s">
+      <c r="G12" s="57" t="s">
         <v>86</v>
       </c>
-      <c r="H12" s="61" t="s">
+      <c r="H12" s="57" t="s">
         <v>87</v>
       </c>
-      <c r="I12" s="62">
+      <c r="I12" s="58">
         <v>1</v>
       </c>
-      <c r="J12" s="61" t="s">
+      <c r="J12" s="57" t="s">
         <v>93</v>
       </c>
-      <c r="K12" s="61" t="s">
+      <c r="K12" s="57" t="s">
         <v>68</v>
       </c>
       <c r="L12" s="7" t="s">
@@ -2603,173 +2617,170 @@
       <c r="M12" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="N12" s="61"/>
+      <c r="N12" s="57"/>
       <c r="O12" s="26" t="s">
         <v>154</v>
       </c>
-      <c r="P12" s="76"/>
-    </row>
-    <row r="13" spans="1:16" s="51" customFormat="1" ht="120">
-      <c r="A13" s="66"/>
-      <c r="B13" s="27">
+      <c r="P12" s="68"/>
+    </row>
+    <row r="13" spans="2:16" s="62" customFormat="1" ht="120">
+      <c r="B13" s="6">
         <v>6</v>
       </c>
-      <c r="C13" s="63" t="s">
+      <c r="C13" s="57" t="s">
         <v>94</v>
       </c>
-      <c r="D13" s="63" t="s">
+      <c r="D13" s="57" t="s">
         <v>157</v>
       </c>
-      <c r="E13" s="63" t="s">
+      <c r="E13" s="57" t="s">
         <v>90</v>
       </c>
-      <c r="F13" s="63" t="s">
+      <c r="F13" s="57" t="s">
         <v>97</v>
       </c>
-      <c r="G13" s="63" t="s">
+      <c r="G13" s="57" t="s">
         <v>91</v>
       </c>
-      <c r="H13" s="63" t="s">
+      <c r="H13" s="57" t="s">
         <v>92</v>
       </c>
-      <c r="I13" s="64">
+      <c r="I13" s="58">
         <v>1</v>
       </c>
-      <c r="J13" s="63" t="s">
+      <c r="J13" s="57" t="s">
         <v>93</v>
       </c>
-      <c r="K13" s="63" t="s">
+      <c r="K13" s="57" t="s">
         <v>68</v>
       </c>
-      <c r="L13" s="28" t="s">
+      <c r="L13" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="M13" s="28" t="s">
+      <c r="M13" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="N13" s="63"/>
-      <c r="O13" s="26" t="s">
+      <c r="N13" s="57"/>
+      <c r="O13" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="P13" s="77"/>
-    </row>
-    <row r="14" spans="1:16" s="51" customFormat="1" ht="120">
-      <c r="A14" s="66"/>
-      <c r="B14" s="27">
+      <c r="P13" s="90"/>
+    </row>
+    <row r="14" spans="2:16" s="62" customFormat="1" ht="120">
+      <c r="B14" s="6">
         <v>7</v>
       </c>
-      <c r="C14" s="63" t="s">
+      <c r="C14" s="57" t="s">
         <v>95</v>
       </c>
-      <c r="D14" s="63" t="s">
+      <c r="D14" s="57" t="s">
         <v>96</v>
       </c>
-      <c r="E14" s="63" t="s">
+      <c r="E14" s="57" t="s">
         <v>103</v>
       </c>
-      <c r="F14" s="63" t="s">
+      <c r="F14" s="57" t="s">
         <v>99</v>
       </c>
-      <c r="G14" s="64" t="s">
+      <c r="G14" s="58" t="s">
         <v>98</v>
       </c>
-      <c r="H14" s="63" t="s">
+      <c r="H14" s="57" t="s">
         <v>100</v>
       </c>
-      <c r="I14" s="64">
+      <c r="I14" s="58">
         <v>1</v>
       </c>
-      <c r="J14" s="63" t="s">
+      <c r="J14" s="57" t="s">
         <v>93</v>
       </c>
-      <c r="K14" s="63" t="s">
+      <c r="K14" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="L14" s="28" t="s">
+      <c r="L14" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="M14" s="28" t="s">
+      <c r="M14" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="N14" s="63"/>
-      <c r="O14" s="26" t="s">
+      <c r="N14" s="57"/>
+      <c r="O14" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="P14" s="77"/>
-    </row>
-    <row r="15" spans="1:16" s="52" customFormat="1" ht="90">
-      <c r="A15" s="67"/>
-      <c r="B15" s="27">
+      <c r="P14" s="90"/>
+    </row>
+    <row r="15" spans="2:16" s="63" customFormat="1" ht="90">
+      <c r="B15" s="6">
         <v>8</v>
       </c>
-      <c r="C15" s="63" t="s">
+      <c r="C15" s="57" t="s">
         <v>102</v>
       </c>
-      <c r="D15" s="63" t="s">
+      <c r="D15" s="57" t="s">
         <v>105</v>
       </c>
-      <c r="E15" s="63" t="s">
+      <c r="E15" s="57" t="s">
         <v>104</v>
       </c>
-      <c r="F15" s="63" t="s">
+      <c r="F15" s="57" t="s">
         <v>109</v>
       </c>
-      <c r="G15" s="64" t="s">
+      <c r="G15" s="58" t="s">
         <v>106</v>
       </c>
-      <c r="H15" s="63" t="s">
+      <c r="H15" s="57" t="s">
         <v>107</v>
       </c>
-      <c r="I15" s="64">
+      <c r="I15" s="58">
         <v>1</v>
       </c>
-      <c r="J15" s="63" t="s">
+      <c r="J15" s="57" t="s">
         <v>93</v>
       </c>
-      <c r="K15" s="63" t="s">
+      <c r="K15" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="L15" s="28" t="s">
+      <c r="L15" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="M15" s="28" t="s">
+      <c r="M15" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="N15" s="63"/>
-      <c r="O15" s="28" t="s">
-        <v>154</v>
-      </c>
-      <c r="P15" s="79"/>
-    </row>
-    <row r="16" spans="1:16" ht="90">
+      <c r="N15" s="57"/>
+      <c r="O15" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="P15" s="91"/>
+    </row>
+    <row r="16" spans="2:16" ht="90">
       <c r="B16" s="19">
         <v>9</v>
       </c>
-      <c r="C16" s="59" t="s">
+      <c r="C16" s="55" t="s">
         <v>108</v>
       </c>
-      <c r="D16" s="59" t="s">
+      <c r="D16" s="55" t="s">
         <v>108</v>
       </c>
-      <c r="E16" s="59" t="s">
+      <c r="E16" s="55" t="s">
         <v>113</v>
       </c>
-      <c r="F16" s="59" t="s">
+      <c r="F16" s="55" t="s">
         <v>115</v>
       </c>
-      <c r="G16" s="65" t="s">
+      <c r="G16" s="61" t="s">
         <v>110</v>
       </c>
-      <c r="H16" s="59" t="s">
+      <c r="H16" s="55" t="s">
         <v>111</v>
       </c>
-      <c r="I16" s="65">
+      <c r="I16" s="61">
         <v>1</v>
       </c>
-      <c r="J16" s="59" t="s">
+      <c r="J16" s="55" t="s">
         <v>93</v>
       </c>
-      <c r="K16" s="59" t="s">
+      <c r="K16" s="55" t="s">
         <v>67</v>
       </c>
       <c r="L16" s="20" t="s">
@@ -2778,40 +2789,40 @@
       <c r="M16" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="N16" s="59"/>
+      <c r="N16" s="55"/>
       <c r="O16" s="20" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="17" spans="1:16" s="50" customFormat="1" ht="75">
+    <row r="17" spans="2:16" s="48" customFormat="1" ht="75">
       <c r="B17" s="19">
         <v>10</v>
       </c>
-      <c r="C17" s="59" t="s">
+      <c r="C17" s="55" t="s">
         <v>112</v>
       </c>
-      <c r="D17" s="59" t="s">
+      <c r="D17" s="55" t="s">
         <v>114</v>
       </c>
-      <c r="E17" s="59" t="s">
+      <c r="E17" s="55" t="s">
         <v>127</v>
       </c>
-      <c r="F17" s="59" t="s">
+      <c r="F17" s="55" t="s">
         <v>118</v>
       </c>
-      <c r="G17" s="59" t="s">
+      <c r="G17" s="55" t="s">
         <v>116</v>
       </c>
-      <c r="H17" s="59" t="s">
+      <c r="H17" s="55" t="s">
         <v>117</v>
       </c>
-      <c r="I17" s="65">
+      <c r="I17" s="61">
         <v>1</v>
       </c>
-      <c r="J17" s="59" t="s">
+      <c r="J17" s="55" t="s">
         <v>93</v>
       </c>
-      <c r="K17" s="59" t="s">
+      <c r="K17" s="55" t="s">
         <v>67</v>
       </c>
       <c r="L17" s="20" t="s">
@@ -2820,85 +2831,84 @@
       <c r="M17" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="N17" s="59"/>
+      <c r="N17" s="55"/>
       <c r="O17" s="20" t="s">
         <v>156</v>
       </c>
-      <c r="P17" s="76"/>
-    </row>
-    <row r="18" spans="1:16" s="51" customFormat="1" ht="90">
-      <c r="A18" s="68"/>
-      <c r="B18" s="27">
+      <c r="P17" s="68"/>
+    </row>
+    <row r="18" spans="2:16" s="62" customFormat="1" ht="90">
+      <c r="B18" s="6">
         <v>11</v>
       </c>
-      <c r="C18" s="63" t="s">
+      <c r="C18" s="57" t="s">
         <v>119</v>
       </c>
-      <c r="D18" s="63" t="s">
+      <c r="D18" s="57" t="s">
         <v>122</v>
       </c>
-      <c r="E18" s="63" t="s">
+      <c r="E18" s="57" t="s">
         <v>120</v>
       </c>
-      <c r="F18" s="63" t="s">
+      <c r="F18" s="57" t="s">
         <v>121</v>
       </c>
-      <c r="G18" s="63" t="s">
+      <c r="G18" s="57" t="s">
         <v>123</v>
       </c>
-      <c r="H18" s="63" t="s">
+      <c r="H18" s="57" t="s">
         <v>124</v>
       </c>
-      <c r="I18" s="64">
+      <c r="I18" s="58">
         <v>1</v>
       </c>
-      <c r="J18" s="63" t="s">
+      <c r="J18" s="57" t="s">
         <v>93</v>
       </c>
-      <c r="K18" s="63" t="s">
+      <c r="K18" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="L18" s="28" t="s">
+      <c r="L18" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="M18" s="28" t="s">
+      <c r="M18" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="N18" s="63"/>
-      <c r="O18" s="26" t="s">
-        <v>154</v>
-      </c>
-      <c r="P18" s="77"/>
-    </row>
-    <row r="19" spans="1:16" s="50" customFormat="1" ht="75">
+      <c r="N18" s="57"/>
+      <c r="O18" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="P18" s="90"/>
+    </row>
+    <row r="19" spans="2:16" s="48" customFormat="1" ht="75">
       <c r="B19" s="19">
         <v>12</v>
       </c>
-      <c r="C19" s="59" t="s">
+      <c r="C19" s="55" t="s">
         <v>132</v>
       </c>
-      <c r="D19" s="59" t="s">
+      <c r="D19" s="55" t="s">
         <v>125</v>
       </c>
-      <c r="E19" s="59" t="s">
+      <c r="E19" s="55" t="s">
         <v>126</v>
       </c>
-      <c r="F19" s="59" t="s">
+      <c r="F19" s="55" t="s">
         <v>128</v>
       </c>
-      <c r="G19" s="59" t="s">
+      <c r="G19" s="55" t="s">
         <v>129</v>
       </c>
-      <c r="H19" s="59" t="s">
+      <c r="H19" s="55" t="s">
         <v>130</v>
       </c>
-      <c r="I19" s="65">
+      <c r="I19" s="61">
         <v>1</v>
       </c>
-      <c r="J19" s="59" t="s">
+      <c r="J19" s="55" t="s">
         <v>93</v>
       </c>
-      <c r="K19" s="59" t="s">
+      <c r="K19" s="55" t="s">
         <v>67</v>
       </c>
       <c r="L19" s="20" t="s">
@@ -2907,41 +2917,41 @@
       <c r="M19" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="N19" s="59"/>
+      <c r="N19" s="55"/>
       <c r="O19" s="20" t="s">
         <v>156</v>
       </c>
-      <c r="P19" s="76"/>
-    </row>
-    <row r="20" spans="1:16" s="50" customFormat="1" ht="90">
+      <c r="P19" s="68"/>
+    </row>
+    <row r="20" spans="2:16" s="48" customFormat="1" ht="90">
       <c r="B20" s="19">
         <v>13</v>
       </c>
-      <c r="C20" s="59" t="s">
+      <c r="C20" s="55" t="s">
         <v>131</v>
       </c>
-      <c r="D20" s="59" t="s">
+      <c r="D20" s="55" t="s">
         <v>133</v>
       </c>
-      <c r="E20" s="59" t="s">
+      <c r="E20" s="55" t="s">
         <v>134</v>
       </c>
-      <c r="F20" s="59" t="s">
+      <c r="F20" s="55" t="s">
         <v>140</v>
       </c>
-      <c r="G20" s="59" t="s">
+      <c r="G20" s="55" t="s">
         <v>135</v>
       </c>
-      <c r="H20" s="59" t="s">
+      <c r="H20" s="55" t="s">
         <v>136</v>
       </c>
-      <c r="I20" s="65">
+      <c r="I20" s="61">
         <v>1</v>
       </c>
-      <c r="J20" s="59" t="s">
+      <c r="J20" s="55" t="s">
         <v>93</v>
       </c>
-      <c r="K20" s="59" t="s">
+      <c r="K20" s="55" t="s">
         <v>67</v>
       </c>
       <c r="L20" s="20" t="s">
@@ -2950,1197 +2960,1188 @@
       <c r="M20" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="N20" s="59"/>
+      <c r="N20" s="55"/>
       <c r="O20" s="20" t="s">
         <v>156</v>
       </c>
-      <c r="P20" s="76"/>
-    </row>
-    <row r="21" spans="1:16" s="51" customFormat="1" ht="165">
-      <c r="A21" s="69"/>
-      <c r="B21" s="27">
+      <c r="P20" s="68"/>
+    </row>
+    <row r="21" spans="2:16" s="62" customFormat="1" ht="165">
+      <c r="B21" s="6">
         <v>14</v>
       </c>
-      <c r="C21" s="63" t="s">
+      <c r="C21" s="57" t="s">
         <v>137</v>
       </c>
-      <c r="D21" s="63" t="s">
+      <c r="D21" s="57" t="s">
         <v>138</v>
       </c>
-      <c r="E21" s="63" t="s">
+      <c r="E21" s="57" t="s">
         <v>139</v>
       </c>
-      <c r="F21" s="63" t="s">
+      <c r="F21" s="57" t="s">
         <v>141</v>
       </c>
-      <c r="G21" s="63" t="s">
+      <c r="G21" s="57" t="s">
         <v>142</v>
       </c>
-      <c r="H21" s="63" t="s">
+      <c r="H21" s="57" t="s">
         <v>143</v>
       </c>
-      <c r="I21" s="64">
+      <c r="I21" s="58">
         <v>1</v>
       </c>
-      <c r="J21" s="63" t="s">
+      <c r="J21" s="57" t="s">
         <v>93</v>
       </c>
-      <c r="K21" s="63" t="s">
+      <c r="K21" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="L21" s="28" t="s">
+      <c r="L21" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="M21" s="28" t="s">
+      <c r="M21" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="N21" s="63"/>
-      <c r="O21" s="26" t="s">
+      <c r="N21" s="57"/>
+      <c r="O21" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="P21" s="77"/>
-    </row>
-    <row r="22" spans="1:16" s="51" customFormat="1" ht="45">
-      <c r="A22" s="69"/>
-      <c r="B22" s="27">
+      <c r="P21" s="90"/>
+    </row>
+    <row r="22" spans="2:16" s="62" customFormat="1" ht="45">
+      <c r="B22" s="6">
         <v>15</v>
       </c>
-      <c r="C22" s="63" t="s">
+      <c r="C22" s="57" t="s">
         <v>145</v>
       </c>
-      <c r="D22" s="63"/>
-      <c r="E22" s="63"/>
-      <c r="F22" s="63"/>
-      <c r="G22" s="63"/>
-      <c r="H22" s="63"/>
-      <c r="I22" s="64"/>
-      <c r="J22" s="63"/>
-      <c r="K22" s="63"/>
-      <c r="L22" s="28" t="s">
+      <c r="D22" s="57"/>
+      <c r="E22" s="57"/>
+      <c r="F22" s="57"/>
+      <c r="G22" s="57"/>
+      <c r="H22" s="57"/>
+      <c r="I22" s="58"/>
+      <c r="J22" s="57"/>
+      <c r="K22" s="57"/>
+      <c r="L22" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="M22" s="28" t="s">
+      <c r="M22" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="N22" s="63"/>
-      <c r="O22" s="26" t="s">
+      <c r="N22" s="57"/>
+      <c r="O22" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="P22" s="77"/>
-    </row>
-    <row r="23" spans="1:16" s="51" customFormat="1" ht="30">
-      <c r="A23" s="69"/>
-      <c r="B23" s="27">
+      <c r="P22" s="90"/>
+    </row>
+    <row r="23" spans="2:16" s="62" customFormat="1" ht="30">
+      <c r="B23" s="6">
         <v>16</v>
       </c>
-      <c r="C23" s="63" t="s">
+      <c r="C23" s="57" t="s">
         <v>146</v>
       </c>
-      <c r="D23" s="63"/>
-      <c r="E23" s="63"/>
-      <c r="F23" s="63"/>
-      <c r="G23" s="63"/>
-      <c r="H23" s="63"/>
-      <c r="I23" s="64"/>
-      <c r="J23" s="63"/>
-      <c r="K23" s="63"/>
-      <c r="L23" s="28" t="s">
+      <c r="D23" s="57"/>
+      <c r="E23" s="57"/>
+      <c r="F23" s="57"/>
+      <c r="G23" s="57"/>
+      <c r="H23" s="57"/>
+      <c r="I23" s="58"/>
+      <c r="J23" s="57"/>
+      <c r="K23" s="57"/>
+      <c r="L23" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="M23" s="28" t="s">
+      <c r="M23" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="N23" s="63"/>
-      <c r="O23" s="26" t="s">
+      <c r="N23" s="57"/>
+      <c r="O23" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="P23" s="77"/>
-    </row>
-    <row r="24" spans="1:16" s="51" customFormat="1" ht="90">
-      <c r="A24" s="69"/>
-      <c r="B24" s="27">
+      <c r="P23" s="90"/>
+    </row>
+    <row r="24" spans="2:16" s="62" customFormat="1" ht="90">
+      <c r="B24" s="6">
         <v>17</v>
       </c>
-      <c r="C24" s="63" t="s">
+      <c r="C24" s="57" t="s">
         <v>149</v>
       </c>
-      <c r="D24" s="63"/>
-      <c r="E24" s="63"/>
-      <c r="F24" s="63"/>
-      <c r="G24" s="63"/>
-      <c r="H24" s="63"/>
-      <c r="I24" s="64"/>
-      <c r="J24" s="63"/>
-      <c r="K24" s="63"/>
-      <c r="L24" s="28" t="s">
+      <c r="D24" s="57"/>
+      <c r="E24" s="57"/>
+      <c r="F24" s="57"/>
+      <c r="G24" s="57"/>
+      <c r="H24" s="57"/>
+      <c r="I24" s="58"/>
+      <c r="J24" s="57"/>
+      <c r="K24" s="57"/>
+      <c r="L24" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="M24" s="28" t="s">
+      <c r="M24" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="N24" s="63"/>
-      <c r="O24" s="26" t="s">
+      <c r="N24" s="57"/>
+      <c r="O24" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="P24" s="77"/>
-    </row>
-    <row r="25" spans="1:16" s="54" customFormat="1" ht="45">
-      <c r="B25" s="30">
+      <c r="P24" s="90"/>
+    </row>
+    <row r="25" spans="2:16" s="49" customFormat="1" ht="45">
+      <c r="B25" s="27">
         <v>18</v>
       </c>
-      <c r="C25" s="70" t="s">
+      <c r="C25" s="59" t="s">
         <v>147</v>
       </c>
-      <c r="D25" s="70"/>
-      <c r="E25" s="96" t="s">
+      <c r="D25" s="59"/>
+      <c r="E25" s="93" t="s">
         <v>245</v>
       </c>
-      <c r="F25" s="70"/>
-      <c r="G25" s="70"/>
-      <c r="H25" s="70"/>
-      <c r="I25" s="71"/>
-      <c r="J25" s="70"/>
-      <c r="K25" s="70"/>
-      <c r="L25" s="31" t="s">
+      <c r="F25" s="59"/>
+      <c r="G25" s="59"/>
+      <c r="H25" s="59"/>
+      <c r="I25" s="60"/>
+      <c r="J25" s="59"/>
+      <c r="K25" s="59"/>
+      <c r="L25" s="28" t="s">
         <v>144</v>
       </c>
-      <c r="M25" s="31" t="s">
+      <c r="M25" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="N25" s="70"/>
-      <c r="O25" s="31" t="s">
+      <c r="N25" s="59"/>
+      <c r="O25" s="28" t="s">
         <v>154</v>
       </c>
-      <c r="P25" s="56" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" s="51" customFormat="1" ht="90">
-      <c r="A26" s="69"/>
-      <c r="B26" s="27">
+      <c r="P25" s="69"/>
+    </row>
+    <row r="26" spans="2:16" s="62" customFormat="1" ht="90">
+      <c r="B26" s="6">
         <v>19</v>
       </c>
-      <c r="C26" s="63" t="s">
+      <c r="C26" s="57" t="s">
         <v>148</v>
       </c>
-      <c r="D26" s="63"/>
-      <c r="E26" s="63"/>
-      <c r="F26" s="63"/>
-      <c r="G26" s="63"/>
-      <c r="H26" s="63"/>
-      <c r="I26" s="64"/>
-      <c r="J26" s="63"/>
-      <c r="K26" s="63"/>
-      <c r="L26" s="28" t="s">
+      <c r="D26" s="57"/>
+      <c r="E26" s="57"/>
+      <c r="F26" s="57"/>
+      <c r="G26" s="57"/>
+      <c r="H26" s="57"/>
+      <c r="I26" s="58"/>
+      <c r="J26" s="57"/>
+      <c r="K26" s="57"/>
+      <c r="L26" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="M26" s="28" t="s">
+      <c r="M26" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="N26" s="63"/>
-      <c r="O26" s="26" t="s">
+      <c r="N26" s="57"/>
+      <c r="O26" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="P26" s="77"/>
-    </row>
-    <row r="27" spans="1:16" s="54" customFormat="1" ht="60">
-      <c r="B27" s="30">
+      <c r="P26" s="90"/>
+    </row>
+    <row r="27" spans="2:16" s="49" customFormat="1" ht="60">
+      <c r="B27" s="27">
         <v>20</v>
       </c>
-      <c r="C27" s="70" t="s">
+      <c r="C27" s="59" t="s">
         <v>158</v>
       </c>
-      <c r="D27" s="70"/>
-      <c r="E27" s="98" t="s">
-        <v>244</v>
-      </c>
-      <c r="F27" s="70"/>
-      <c r="G27" s="70"/>
-      <c r="H27" s="70"/>
-      <c r="I27" s="71"/>
-      <c r="J27" s="70"/>
-      <c r="K27" s="70"/>
-      <c r="L27" s="31"/>
-      <c r="M27" s="31"/>
-      <c r="N27" s="70"/>
-      <c r="O27" s="31" t="s">
+      <c r="D27" s="59"/>
+      <c r="E27" s="59" t="s">
+        <v>246</v>
+      </c>
+      <c r="F27" s="59"/>
+      <c r="G27" s="59"/>
+      <c r="H27" s="59"/>
+      <c r="I27" s="60"/>
+      <c r="J27" s="59"/>
+      <c r="K27" s="59"/>
+      <c r="L27" s="28"/>
+      <c r="M27" s="28"/>
+      <c r="N27" s="59"/>
+      <c r="O27" s="28" t="s">
         <v>155</v>
       </c>
-      <c r="P27" s="56" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" s="44" customFormat="1" ht="30" customHeight="1">
-      <c r="B28" s="45">
+      <c r="P27" s="69"/>
+    </row>
+    <row r="28" spans="2:16" s="97" customFormat="1" ht="30" customHeight="1">
+      <c r="B28" s="94">
         <v>21</v>
       </c>
-      <c r="C28" s="46" t="s">
-        <v>234</v>
-      </c>
-      <c r="D28" s="46" t="s">
+      <c r="C28" s="92" t="s">
+        <v>229</v>
+      </c>
+      <c r="D28" s="92" t="s">
         <v>159</v>
       </c>
-      <c r="E28" s="96" t="s">
-        <v>246</v>
-      </c>
-      <c r="F28" s="46" t="s">
+      <c r="E28" s="98" t="s">
+        <v>238</v>
+      </c>
+      <c r="F28" s="92" t="s">
         <v>161</v>
       </c>
-      <c r="G28" s="46" t="s">
+      <c r="G28" s="92" t="s">
         <v>162</v>
       </c>
-      <c r="H28" s="46" t="s">
+      <c r="H28" s="92" t="s">
         <v>163</v>
       </c>
-      <c r="I28" s="47">
+      <c r="I28" s="95">
         <v>0.3</v>
       </c>
-      <c r="J28" s="46"/>
-      <c r="K28" s="46"/>
-      <c r="L28" s="48" t="s">
+      <c r="J28" s="92"/>
+      <c r="K28" s="92"/>
+      <c r="L28" s="96" t="s">
         <v>59</v>
       </c>
-      <c r="M28" s="48"/>
-      <c r="N28" s="46"/>
-      <c r="O28" s="31" t="s">
+      <c r="M28" s="96"/>
+      <c r="N28" s="92"/>
+      <c r="O28" s="28" t="s">
         <v>207</v>
       </c>
-      <c r="P28" s="56" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" s="44" customFormat="1" ht="30" customHeight="1">
-      <c r="B29" s="45">
+      <c r="P28" s="69"/>
+    </row>
+    <row r="29" spans="2:16" s="99" customFormat="1" ht="30" customHeight="1">
+      <c r="B29" s="100">
         <v>22</v>
       </c>
-      <c r="C29" s="38" t="s">
+      <c r="C29" s="101" t="s">
         <v>164</v>
       </c>
-      <c r="D29" s="46" t="s">
+      <c r="D29" s="101" t="s">
         <v>165</v>
       </c>
-      <c r="E29" s="46" t="s">
+      <c r="E29" s="101" t="s">
         <v>166</v>
       </c>
-      <c r="F29" s="46" t="s">
+      <c r="F29" s="101" t="s">
         <v>167</v>
       </c>
-      <c r="G29" s="46" t="s">
+      <c r="G29" s="101" t="s">
         <v>168</v>
       </c>
-      <c r="H29" s="46" t="s">
+      <c r="H29" s="101" t="s">
         <v>169</v>
       </c>
-      <c r="I29" s="47">
+      <c r="I29" s="102">
         <v>1</v>
       </c>
-      <c r="J29" s="46"/>
-      <c r="K29" s="46"/>
-      <c r="L29" s="48" t="s">
+      <c r="J29" s="101"/>
+      <c r="K29" s="101"/>
+      <c r="L29" s="103" t="s">
         <v>59</v>
       </c>
-      <c r="M29" s="48"/>
-      <c r="N29" s="46"/>
-      <c r="O29" s="31" t="s">
-        <v>207</v>
-      </c>
-      <c r="P29" s="56" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" s="44" customFormat="1" ht="30" customHeight="1">
-      <c r="B30" s="45">
+      <c r="M29" s="103"/>
+      <c r="N29" s="101"/>
+      <c r="O29" s="104" t="s">
+        <v>156</v>
+      </c>
+      <c r="P29" s="90"/>
+    </row>
+    <row r="30" spans="2:16" s="99" customFormat="1" ht="30" customHeight="1">
+      <c r="B30" s="100">
         <v>23</v>
       </c>
-      <c r="C30" s="38" t="s">
+      <c r="C30" s="101" t="s">
         <v>168</v>
       </c>
-      <c r="D30" s="46" t="s">
+      <c r="D30" s="101" t="s">
         <v>170</v>
       </c>
-      <c r="E30" s="46" t="s">
+      <c r="E30" s="101" t="s">
         <v>160</v>
       </c>
-      <c r="F30" s="46" t="s">
+      <c r="F30" s="101" t="s">
         <v>171</v>
       </c>
-      <c r="G30" s="46" t="s">
+      <c r="G30" s="101" t="s">
         <v>172</v>
       </c>
-      <c r="H30" s="46" t="s">
+      <c r="H30" s="101" t="s">
         <v>173</v>
       </c>
-      <c r="I30" s="47">
+      <c r="I30" s="102">
         <v>1</v>
       </c>
-      <c r="J30" s="46"/>
-      <c r="K30" s="46"/>
-      <c r="L30" s="48" t="s">
+      <c r="J30" s="101"/>
+      <c r="K30" s="101"/>
+      <c r="L30" s="103" t="s">
         <v>59</v>
       </c>
-      <c r="M30" s="48"/>
-      <c r="N30" s="46"/>
-      <c r="O30" s="31" t="s">
-        <v>207</v>
-      </c>
-      <c r="P30" s="56" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" s="37" customFormat="1" ht="30" customHeight="1">
-      <c r="B31" s="33">
+      <c r="M30" s="103"/>
+      <c r="N30" s="101"/>
+      <c r="O30" s="104" t="s">
+        <v>156</v>
+      </c>
+      <c r="P30" s="90"/>
+    </row>
+    <row r="31" spans="2:16" s="35" customFormat="1" ht="30" customHeight="1">
+      <c r="B31" s="31">
         <v>24</v>
       </c>
-      <c r="C31" s="34" t="s">
+      <c r="C31" s="32" t="s">
         <v>208</v>
       </c>
-      <c r="D31" s="34" t="s">
+      <c r="D31" s="32" t="s">
         <v>209</v>
       </c>
-      <c r="E31" s="34" t="s">
+      <c r="E31" s="32" t="s">
         <v>166</v>
       </c>
-      <c r="F31" s="34" t="s">
+      <c r="F31" s="32" t="s">
         <v>166</v>
       </c>
-      <c r="G31" s="34" t="s">
+      <c r="G31" s="32" t="s">
         <v>174</v>
       </c>
-      <c r="H31" s="34" t="s">
+      <c r="H31" s="32" t="s">
         <v>175</v>
       </c>
-      <c r="I31" s="35">
+      <c r="I31" s="33">
         <v>1</v>
       </c>
-      <c r="J31" s="34"/>
-      <c r="K31" s="34"/>
-      <c r="L31" s="36" t="s">
+      <c r="J31" s="32"/>
+      <c r="K31" s="32"/>
+      <c r="L31" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="M31" s="36"/>
-      <c r="N31" s="34"/>
+      <c r="M31" s="34"/>
+      <c r="N31" s="32"/>
       <c r="O31" s="26" t="s">
         <v>225</v>
       </c>
-      <c r="P31" s="81"/>
-    </row>
-    <row r="32" spans="1:16" s="32" customFormat="1" ht="30" customHeight="1">
-      <c r="B32" s="33">
+      <c r="P31" s="72"/>
+    </row>
+    <row r="32" spans="2:16" s="30" customFormat="1" ht="30" customHeight="1">
+      <c r="B32" s="31">
         <v>25</v>
       </c>
-      <c r="C32" s="34" t="s">
+      <c r="C32" s="32" t="s">
         <v>210</v>
       </c>
-      <c r="D32" s="34" t="s">
+      <c r="D32" s="32" t="s">
         <v>176</v>
       </c>
-      <c r="E32" s="34" t="s">
+      <c r="E32" s="32" t="s">
         <v>177</v>
       </c>
-      <c r="F32" s="34" t="s">
+      <c r="F32" s="32" t="s">
         <v>178</v>
       </c>
-      <c r="G32" s="34"/>
-      <c r="H32" s="34"/>
-      <c r="I32" s="35">
+      <c r="G32" s="32"/>
+      <c r="H32" s="32"/>
+      <c r="I32" s="33">
         <v>1</v>
       </c>
-      <c r="J32" s="34"/>
-      <c r="K32" s="34"/>
-      <c r="L32" s="36" t="s">
+      <c r="J32" s="32"/>
+      <c r="K32" s="32"/>
+      <c r="L32" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="M32" s="36"/>
-      <c r="N32" s="34"/>
+      <c r="M32" s="34"/>
+      <c r="N32" s="32"/>
       <c r="O32" s="26" t="s">
         <v>225</v>
       </c>
-      <c r="P32" s="82"/>
-    </row>
-    <row r="33" spans="2:16" s="32" customFormat="1" ht="30" customHeight="1">
-      <c r="B33" s="33">
+      <c r="P32" s="73"/>
+    </row>
+    <row r="33" spans="2:16" s="30" customFormat="1" ht="30" customHeight="1">
+      <c r="B33" s="31">
         <v>26</v>
       </c>
-      <c r="C33" s="34" t="s">
+      <c r="C33" s="32" t="s">
         <v>214</v>
       </c>
-      <c r="D33" s="34" t="s">
+      <c r="D33" s="32" t="s">
         <v>179</v>
       </c>
-      <c r="E33" s="34" t="s">
+      <c r="E33" s="32" t="s">
         <v>160</v>
       </c>
-      <c r="F33" s="34" t="s">
+      <c r="F33" s="32" t="s">
         <v>166</v>
       </c>
-      <c r="G33" s="34"/>
-      <c r="H33" s="34"/>
-      <c r="I33" s="35">
+      <c r="G33" s="32"/>
+      <c r="H33" s="32"/>
+      <c r="I33" s="33">
         <v>1</v>
       </c>
-      <c r="J33" s="34"/>
-      <c r="K33" s="34"/>
-      <c r="L33" s="36" t="s">
+      <c r="J33" s="32"/>
+      <c r="K33" s="32"/>
+      <c r="L33" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="M33" s="36"/>
-      <c r="N33" s="34"/>
+      <c r="M33" s="34"/>
+      <c r="N33" s="32"/>
       <c r="O33" s="26" t="s">
         <v>225</v>
       </c>
-      <c r="P33" s="82"/>
-    </row>
-    <row r="34" spans="2:16" s="55" customFormat="1" ht="30" customHeight="1">
-      <c r="B34" s="33">
+      <c r="P33" s="73"/>
+    </row>
+    <row r="34" spans="2:16" s="51" customFormat="1" ht="30" customHeight="1">
+      <c r="B34" s="31">
         <v>27</v>
       </c>
-      <c r="C34" s="38" t="s">
+      <c r="C34" s="36" t="s">
         <v>211</v>
       </c>
-      <c r="D34" s="38" t="s">
+      <c r="D34" s="36" t="s">
         <v>180</v>
       </c>
-      <c r="E34" s="38" t="s">
+      <c r="E34" s="36" t="s">
         <v>181</v>
       </c>
-      <c r="F34" s="38" t="s">
+      <c r="F34" s="36" t="s">
         <v>160</v>
       </c>
-      <c r="G34" s="38" t="s">
+      <c r="G34" s="36" t="s">
         <v>212</v>
       </c>
-      <c r="H34" s="38" t="s">
+      <c r="H34" s="36" t="s">
         <v>213</v>
       </c>
-      <c r="I34" s="39">
+      <c r="I34" s="37">
         <v>1</v>
       </c>
-      <c r="J34" s="38"/>
-      <c r="K34" s="38"/>
-      <c r="L34" s="40" t="s">
+      <c r="J34" s="36"/>
+      <c r="K34" s="36"/>
+      <c r="L34" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="M34" s="40"/>
-      <c r="N34" s="38"/>
+      <c r="M34" s="38"/>
+      <c r="N34" s="36"/>
       <c r="O34" s="26" t="s">
         <v>225</v>
       </c>
-      <c r="P34" s="83"/>
-    </row>
-    <row r="35" spans="2:16" s="55" customFormat="1" ht="30" customHeight="1">
-      <c r="B35" s="33">
+      <c r="P34" s="74"/>
+    </row>
+    <row r="35" spans="2:16" s="51" customFormat="1" ht="30" customHeight="1">
+      <c r="B35" s="31">
         <v>28</v>
       </c>
-      <c r="C35" s="38" t="s">
+      <c r="C35" s="36" t="s">
         <v>215</v>
       </c>
-      <c r="D35" s="38" t="s">
+      <c r="D35" s="36" t="s">
         <v>182</v>
       </c>
-      <c r="E35" s="38" t="s">
+      <c r="E35" s="36" t="s">
         <v>177</v>
       </c>
-      <c r="F35" s="38" t="s">
+      <c r="F35" s="36" t="s">
         <v>160</v>
       </c>
-      <c r="G35" s="38" t="s">
+      <c r="G35" s="36" t="s">
         <v>183</v>
       </c>
-      <c r="H35" s="38" t="s">
+      <c r="H35" s="36" t="s">
         <v>184</v>
       </c>
-      <c r="I35" s="39">
+      <c r="I35" s="37">
         <v>1</v>
       </c>
-      <c r="J35" s="38"/>
-      <c r="K35" s="38"/>
-      <c r="L35" s="40" t="s">
+      <c r="J35" s="36"/>
+      <c r="K35" s="36"/>
+      <c r="L35" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="M35" s="40"/>
-      <c r="N35" s="38"/>
+      <c r="M35" s="38"/>
+      <c r="N35" s="36"/>
       <c r="O35" s="26" t="s">
         <v>225</v>
       </c>
-      <c r="P35" s="83"/>
-    </row>
-    <row r="36" spans="2:16" s="44" customFormat="1" ht="30" customHeight="1">
-      <c r="B36" s="45">
+      <c r="P35" s="74"/>
+    </row>
+    <row r="36" spans="2:16" s="42" customFormat="1" ht="30" customHeight="1">
+      <c r="B36" s="43">
         <v>29</v>
       </c>
-      <c r="C36" s="46" t="s">
+      <c r="C36" s="44" t="s">
         <v>216</v>
       </c>
-      <c r="D36" s="46" t="s">
-        <v>235</v>
-      </c>
-      <c r="E36" s="97" t="s">
-        <v>236</v>
-      </c>
-      <c r="F36" s="46" t="s">
+      <c r="D36" s="44" t="s">
+        <v>230</v>
+      </c>
+      <c r="E36" s="105" t="s">
+        <v>247</v>
+      </c>
+      <c r="F36" s="44" t="s">
         <v>160</v>
       </c>
-      <c r="G36" s="46" t="s">
+      <c r="G36" s="44" t="s">
         <v>185</v>
       </c>
-      <c r="H36" s="46" t="s">
+      <c r="H36" s="44" t="s">
         <v>186</v>
       </c>
-      <c r="I36" s="47">
+      <c r="I36" s="45">
         <v>1</v>
       </c>
-      <c r="J36" s="46"/>
-      <c r="K36" s="46"/>
-      <c r="L36" s="48" t="s">
+      <c r="J36" s="44"/>
+      <c r="K36" s="44"/>
+      <c r="L36" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="M36" s="48"/>
-      <c r="N36" s="46"/>
-      <c r="O36" s="31" t="s">
+      <c r="M36" s="46"/>
+      <c r="N36" s="44"/>
+      <c r="O36" s="29" t="s">
         <v>207</v>
       </c>
-      <c r="P36" s="56" t="s">
+      <c r="P36" s="52" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" s="42" customFormat="1" ht="30" customHeight="1">
+      <c r="B37" s="43">
+        <v>30</v>
+      </c>
+      <c r="C37" s="44" t="s">
+        <v>187</v>
+      </c>
+      <c r="D37" s="44" t="s">
+        <v>188</v>
+      </c>
+      <c r="E37" s="106" t="s">
+        <v>231</v>
+      </c>
+      <c r="F37" s="44" t="s">
+        <v>177</v>
+      </c>
+      <c r="G37" s="44" t="s">
+        <v>189</v>
+      </c>
+      <c r="H37" s="44" t="s">
+        <v>190</v>
+      </c>
+      <c r="I37" s="44" t="s">
+        <v>191</v>
+      </c>
+      <c r="J37" s="44"/>
+      <c r="K37" s="44"/>
+      <c r="L37" s="46" t="s">
+        <v>144</v>
+      </c>
+      <c r="M37" s="46"/>
+      <c r="N37" s="44"/>
+      <c r="O37" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="P37" s="52"/>
+    </row>
+    <row r="38" spans="2:16" s="30" customFormat="1" ht="30" customHeight="1">
+      <c r="B38" s="31">
+        <v>31</v>
+      </c>
+      <c r="C38" s="32" t="s">
+        <v>217</v>
+      </c>
+      <c r="D38" s="36" t="s">
+        <v>192</v>
+      </c>
+      <c r="E38" s="36" t="s">
+        <v>160</v>
+      </c>
+      <c r="F38" s="36" t="s">
+        <v>177</v>
+      </c>
+      <c r="G38" s="36"/>
+      <c r="H38" s="36" t="s">
+        <v>193</v>
+      </c>
+      <c r="I38" s="37">
+        <v>1</v>
+      </c>
+      <c r="J38" s="36"/>
+      <c r="K38" s="36"/>
+      <c r="L38" s="38" t="s">
+        <v>144</v>
+      </c>
+      <c r="M38" s="38"/>
+      <c r="N38" s="36"/>
+      <c r="O38" s="53" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" s="44" customFormat="1" ht="30" customHeight="1">
-      <c r="B37" s="45">
-        <v>30</v>
-      </c>
-      <c r="C37" s="46" t="s">
-        <v>187</v>
-      </c>
-      <c r="D37" s="46" t="s">
-        <v>188</v>
-      </c>
-      <c r="E37" s="96" t="s">
-        <v>237</v>
-      </c>
-      <c r="F37" s="46" t="s">
+      <c r="P38" s="73"/>
+    </row>
+    <row r="39" spans="2:16" s="42" customFormat="1" ht="30" customHeight="1">
+      <c r="B39" s="43">
+        <v>32</v>
+      </c>
+      <c r="C39" s="44" t="s">
+        <v>194</v>
+      </c>
+      <c r="D39" s="44" t="s">
+        <v>218</v>
+      </c>
+      <c r="E39" s="106" t="s">
+        <v>239</v>
+      </c>
+      <c r="F39" s="44" t="s">
+        <v>160</v>
+      </c>
+      <c r="G39" s="44" t="s">
+        <v>195</v>
+      </c>
+      <c r="H39" s="44" t="s">
+        <v>196</v>
+      </c>
+      <c r="I39" s="44" t="s">
+        <v>191</v>
+      </c>
+      <c r="J39" s="44"/>
+      <c r="K39" s="44"/>
+      <c r="L39" s="46" t="s">
+        <v>144</v>
+      </c>
+      <c r="M39" s="46"/>
+      <c r="N39" s="44"/>
+      <c r="O39" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="P39" s="52" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="40" spans="2:16" s="30" customFormat="1" ht="30" customHeight="1">
+      <c r="B40" s="31">
+        <v>33</v>
+      </c>
+      <c r="C40" s="36" t="s">
+        <v>197</v>
+      </c>
+      <c r="D40" s="36" t="s">
+        <v>198</v>
+      </c>
+      <c r="E40" s="36" t="s">
         <v>177</v>
       </c>
-      <c r="G37" s="46" t="s">
-        <v>189</v>
-      </c>
-      <c r="H37" s="46" t="s">
-        <v>190</v>
-      </c>
-      <c r="I37" s="46" t="s">
-        <v>191</v>
-      </c>
-      <c r="J37" s="46"/>
-      <c r="K37" s="46"/>
-      <c r="L37" s="48" t="s">
-        <v>144</v>
-      </c>
-      <c r="M37" s="48"/>
-      <c r="N37" s="46"/>
-      <c r="O37" s="31" t="s">
-        <v>225</v>
-      </c>
-      <c r="P37" s="56" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="38" spans="2:16" s="32" customFormat="1" ht="30" customHeight="1">
-      <c r="B38" s="33">
-        <v>31</v>
-      </c>
-      <c r="C38" s="34" t="s">
-        <v>217</v>
-      </c>
-      <c r="D38" s="38" t="s">
-        <v>192</v>
-      </c>
-      <c r="E38" s="38" t="s">
-        <v>160</v>
-      </c>
-      <c r="F38" s="38" t="s">
+      <c r="F40" s="36" t="s">
         <v>177</v>
       </c>
-      <c r="G38" s="38"/>
-      <c r="H38" s="38" t="s">
-        <v>193</v>
-      </c>
-      <c r="I38" s="39">
-        <v>1</v>
-      </c>
-      <c r="J38" s="38"/>
-      <c r="K38" s="38"/>
-      <c r="L38" s="40" t="s">
-        <v>144</v>
-      </c>
-      <c r="M38" s="40"/>
-      <c r="N38" s="38"/>
-      <c r="O38" s="57" t="s">
-        <v>230</v>
-      </c>
-      <c r="P38" s="82"/>
-    </row>
-    <row r="39" spans="2:16" s="44" customFormat="1" ht="30" customHeight="1">
-      <c r="B39" s="45">
-        <v>32</v>
-      </c>
-      <c r="C39" s="46" t="s">
-        <v>194</v>
-      </c>
-      <c r="D39" s="46" t="s">
-        <v>218</v>
-      </c>
-      <c r="E39" s="96" t="s">
-        <v>247</v>
-      </c>
-      <c r="F39" s="46" t="s">
-        <v>160</v>
-      </c>
-      <c r="G39" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="H39" s="46" t="s">
-        <v>196</v>
-      </c>
-      <c r="I39" s="46" t="s">
-        <v>191</v>
-      </c>
-      <c r="J39" s="46"/>
-      <c r="K39" s="46"/>
-      <c r="L39" s="48" t="s">
-        <v>144</v>
-      </c>
-      <c r="M39" s="48"/>
-      <c r="N39" s="46"/>
-      <c r="O39" s="31" t="s">
-        <v>207</v>
-      </c>
-      <c r="P39" s="56" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="40" spans="2:16" s="32" customFormat="1" ht="30" customHeight="1">
-      <c r="B40" s="33">
-        <v>33</v>
-      </c>
-      <c r="C40" s="38" t="s">
-        <v>197</v>
-      </c>
-      <c r="D40" s="38" t="s">
-        <v>198</v>
-      </c>
-      <c r="E40" s="38" t="s">
-        <v>177</v>
-      </c>
-      <c r="F40" s="38" t="s">
-        <v>177</v>
-      </c>
-      <c r="G40" s="38"/>
-      <c r="H40" s="38"/>
-      <c r="I40" s="38"/>
-      <c r="J40" s="38"/>
-      <c r="K40" s="38"/>
-      <c r="L40" s="40" t="s">
+      <c r="G40" s="36"/>
+      <c r="H40" s="36"/>
+      <c r="I40" s="36"/>
+      <c r="J40" s="36"/>
+      <c r="K40" s="36"/>
+      <c r="L40" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="M40" s="40"/>
-      <c r="N40" s="38"/>
+      <c r="M40" s="38"/>
+      <c r="N40" s="36"/>
       <c r="O40" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="P40" s="82"/>
-    </row>
-    <row r="41" spans="2:16" s="44" customFormat="1" ht="30" customHeight="1">
-      <c r="B41" s="45">
+      <c r="P40" s="73"/>
+    </row>
+    <row r="41" spans="2:16" s="42" customFormat="1" ht="30" customHeight="1">
+      <c r="B41" s="43">
         <v>34</v>
       </c>
-      <c r="C41" s="46" t="s">
+      <c r="C41" s="44" t="s">
         <v>199</v>
       </c>
-      <c r="D41" s="46" t="s">
-        <v>239</v>
-      </c>
-      <c r="E41" s="96" t="s">
-        <v>240</v>
-      </c>
-      <c r="F41" s="46" t="s">
+      <c r="D41" s="44" t="s">
+        <v>233</v>
+      </c>
+      <c r="E41" s="44" t="s">
+        <v>234</v>
+      </c>
+      <c r="F41" s="44" t="s">
         <v>219</v>
       </c>
-      <c r="G41" s="46" t="s">
+      <c r="G41" s="44" t="s">
         <v>200</v>
       </c>
-      <c r="H41" s="46" t="s">
+      <c r="H41" s="44" t="s">
         <v>201</v>
       </c>
-      <c r="I41" s="47">
+      <c r="I41" s="45">
         <v>1</v>
       </c>
-      <c r="J41" s="46"/>
-      <c r="K41" s="46"/>
-      <c r="L41" s="48" t="s">
+      <c r="J41" s="44"/>
+      <c r="K41" s="44"/>
+      <c r="L41" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="M41" s="48"/>
-      <c r="N41" s="46"/>
-      <c r="O41" s="31" t="s">
+      <c r="M41" s="46"/>
+      <c r="N41" s="44"/>
+      <c r="O41" s="29" t="s">
         <v>207</v>
       </c>
-      <c r="P41" s="56" t="s">
+      <c r="P41" s="52" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" s="42" customFormat="1" ht="30" customHeight="1">
+      <c r="B42" s="43">
+        <v>35</v>
+      </c>
+      <c r="C42" s="44" t="s">
+        <v>235</v>
+      </c>
+      <c r="D42" s="44" t="s">
+        <v>202</v>
+      </c>
+      <c r="E42" s="44" t="s">
+        <v>236</v>
+      </c>
+      <c r="F42" s="44" t="s">
+        <v>160</v>
+      </c>
+      <c r="G42" s="44" t="s">
+        <v>203</v>
+      </c>
+      <c r="H42" s="44"/>
+      <c r="I42" s="45">
+        <v>1</v>
+      </c>
+      <c r="J42" s="44"/>
+      <c r="K42" s="44"/>
+      <c r="L42" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="M42" s="46"/>
+      <c r="N42" s="44"/>
+      <c r="O42" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="P42" s="52" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="42" spans="2:16" s="44" customFormat="1" ht="30" customHeight="1">
-      <c r="B42" s="45">
-        <v>35</v>
-      </c>
-      <c r="C42" s="46" t="s">
-        <v>241</v>
-      </c>
-      <c r="D42" s="46" t="s">
-        <v>202</v>
-      </c>
-      <c r="E42" s="96" t="s">
-        <v>242</v>
-      </c>
-      <c r="F42" s="46" t="s">
-        <v>160</v>
-      </c>
-      <c r="G42" s="46" t="s">
-        <v>203</v>
-      </c>
-      <c r="H42" s="46"/>
-      <c r="I42" s="47">
+    <row r="43" spans="2:16" s="30" customFormat="1" ht="30" customHeight="1">
+      <c r="B43" s="31">
+        <v>36</v>
+      </c>
+      <c r="C43" s="36" t="s">
+        <v>220</v>
+      </c>
+      <c r="D43" s="36" t="s">
+        <v>204</v>
+      </c>
+      <c r="E43" s="39" t="s">
+        <v>177</v>
+      </c>
+      <c r="F43" s="36"/>
+      <c r="G43" s="36"/>
+      <c r="H43" s="36"/>
+      <c r="I43" s="37">
         <v>1</v>
       </c>
-      <c r="J42" s="46"/>
-      <c r="K42" s="46"/>
-      <c r="L42" s="48" t="s">
+      <c r="J43" s="36"/>
+      <c r="K43" s="36"/>
+      <c r="L43" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="M42" s="48"/>
-      <c r="N42" s="46"/>
-      <c r="O42" s="31" t="s">
-        <v>207</v>
-      </c>
-      <c r="P42" s="56" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="43" spans="2:16" s="32" customFormat="1" ht="30" customHeight="1">
-      <c r="B43" s="33">
-        <v>36</v>
-      </c>
-      <c r="C43" s="38" t="s">
-        <v>220</v>
-      </c>
-      <c r="D43" s="38" t="s">
-        <v>204</v>
-      </c>
-      <c r="E43" s="41" t="s">
-        <v>177</v>
-      </c>
-      <c r="F43" s="38"/>
-      <c r="G43" s="38"/>
-      <c r="H43" s="38"/>
-      <c r="I43" s="39">
-        <v>1</v>
-      </c>
-      <c r="J43" s="38"/>
-      <c r="K43" s="38"/>
-      <c r="L43" s="40" t="s">
-        <v>59</v>
-      </c>
-      <c r="M43" s="40"/>
-      <c r="N43" s="38"/>
+      <c r="M43" s="38"/>
+      <c r="N43" s="36"/>
       <c r="O43" s="26" t="s">
         <v>225</v>
       </c>
-      <c r="P43" s="82"/>
-    </row>
-    <row r="44" spans="2:16" s="32" customFormat="1" ht="30" customHeight="1">
-      <c r="B44" s="33">
+      <c r="P43" s="73"/>
+    </row>
+    <row r="44" spans="2:16" s="30" customFormat="1" ht="30" customHeight="1">
+      <c r="B44" s="31">
         <v>37</v>
       </c>
-      <c r="C44" s="41" t="s">
+      <c r="C44" s="39" t="s">
         <v>221</v>
       </c>
-      <c r="D44" s="38" t="s">
+      <c r="D44" s="36" t="s">
         <v>204</v>
       </c>
-      <c r="E44" s="41" t="s">
+      <c r="E44" s="39" t="s">
         <v>177</v>
       </c>
-      <c r="F44" s="41"/>
-      <c r="G44" s="41"/>
-      <c r="H44" s="41"/>
-      <c r="I44" s="39">
+      <c r="F44" s="39"/>
+      <c r="G44" s="39"/>
+      <c r="H44" s="39"/>
+      <c r="I44" s="37">
         <v>1</v>
       </c>
-      <c r="J44" s="41"/>
-      <c r="K44" s="41"/>
-      <c r="L44" s="42" t="s">
+      <c r="J44" s="39"/>
+      <c r="K44" s="39"/>
+      <c r="L44" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="M44" s="42"/>
-      <c r="N44" s="41"/>
+      <c r="M44" s="40"/>
+      <c r="N44" s="39"/>
       <c r="O44" s="26" t="s">
         <v>225</v>
       </c>
-      <c r="P44" s="82"/>
-    </row>
-    <row r="45" spans="2:16" s="44" customFormat="1" ht="30" customHeight="1">
-      <c r="B45" s="45">
+      <c r="P44" s="73"/>
+    </row>
+    <row r="45" spans="2:16" s="99" customFormat="1" ht="30" customHeight="1">
+      <c r="B45" s="100">
         <v>38</v>
       </c>
-      <c r="C45" s="41" t="s">
+      <c r="C45" s="107" t="s">
         <v>162</v>
       </c>
-      <c r="D45" s="84" t="s">
-        <v>243</v>
-      </c>
-      <c r="E45" s="84" t="s">
+      <c r="D45" s="107" t="s">
+        <v>237</v>
+      </c>
+      <c r="E45" s="107" t="s">
         <v>177</v>
       </c>
-      <c r="F45" s="84"/>
-      <c r="G45" s="84"/>
-      <c r="H45" s="84"/>
-      <c r="I45" s="47">
+      <c r="F45" s="107"/>
+      <c r="G45" s="107"/>
+      <c r="H45" s="107"/>
+      <c r="I45" s="102">
         <v>1</v>
       </c>
-      <c r="J45" s="84"/>
-      <c r="K45" s="84"/>
-      <c r="L45" s="85" t="s">
+      <c r="J45" s="107"/>
+      <c r="K45" s="107"/>
+      <c r="L45" s="108" t="s">
         <v>59</v>
       </c>
-      <c r="M45" s="85"/>
-      <c r="N45" s="84"/>
-      <c r="O45" s="31" t="s">
-        <v>207</v>
-      </c>
-      <c r="P45" s="56" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="46" spans="2:16" s="32" customFormat="1" ht="30" customHeight="1">
-      <c r="B46" s="33">
+      <c r="M45" s="108"/>
+      <c r="N45" s="107"/>
+      <c r="O45" s="104" t="s">
+        <v>156</v>
+      </c>
+      <c r="P45" s="90"/>
+    </row>
+    <row r="46" spans="2:16" s="30" customFormat="1" ht="30" customHeight="1">
+      <c r="B46" s="31">
         <v>39</v>
       </c>
-      <c r="C46" s="86" t="s">
+      <c r="C46" s="75" t="s">
         <v>205</v>
       </c>
-      <c r="D46" s="41" t="s">
+      <c r="D46" s="39" t="s">
         <v>206</v>
       </c>
-      <c r="E46" s="41" t="s">
+      <c r="E46" s="39" t="s">
         <v>160</v>
       </c>
-      <c r="F46" s="41"/>
-      <c r="G46" s="41"/>
-      <c r="H46" s="41"/>
-      <c r="I46" s="39">
+      <c r="F46" s="39"/>
+      <c r="G46" s="39"/>
+      <c r="H46" s="39"/>
+      <c r="I46" s="37">
         <v>1</v>
       </c>
-      <c r="J46" s="41"/>
-      <c r="K46" s="41"/>
-      <c r="L46" s="42" t="s">
+      <c r="J46" s="39"/>
+      <c r="K46" s="39"/>
+      <c r="L46" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="M46" s="42"/>
-      <c r="N46" s="41"/>
+      <c r="M46" s="40"/>
+      <c r="N46" s="39"/>
       <c r="O46" s="26" t="s">
         <v>225</v>
       </c>
-      <c r="P46" s="82"/>
-    </row>
-    <row r="47" spans="2:16" s="32" customFormat="1" ht="30" customHeight="1">
-      <c r="B47" s="33">
+      <c r="P46" s="73"/>
+    </row>
+    <row r="47" spans="2:16" s="30" customFormat="1" ht="30" customHeight="1">
+      <c r="B47" s="31">
         <v>40</v>
       </c>
-      <c r="C47" s="86" t="s">
+      <c r="C47" s="75" t="s">
         <v>222</v>
       </c>
-      <c r="D47" s="41" t="s">
+      <c r="D47" s="39" t="s">
         <v>223</v>
       </c>
-      <c r="E47" s="41" t="s">
+      <c r="E47" s="39" t="s">
         <v>160</v>
       </c>
-      <c r="F47" s="41"/>
-      <c r="G47" s="41"/>
-      <c r="H47" s="41"/>
-      <c r="I47" s="39">
+      <c r="F47" s="39"/>
+      <c r="G47" s="39"/>
+      <c r="H47" s="39"/>
+      <c r="I47" s="37">
         <v>1</v>
       </c>
-      <c r="J47" s="41"/>
-      <c r="K47" s="41"/>
-      <c r="L47" s="42" t="s">
+      <c r="J47" s="39"/>
+      <c r="K47" s="39"/>
+      <c r="L47" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="M47" s="42"/>
-      <c r="N47" s="41"/>
+      <c r="M47" s="40"/>
+      <c r="N47" s="39"/>
       <c r="O47" s="26" t="s">
         <v>225</v>
       </c>
-      <c r="P47" s="82"/>
-    </row>
-    <row r="48" spans="2:16" s="44" customFormat="1" ht="30" customHeight="1">
-      <c r="B48" s="45">
+      <c r="P47" s="73"/>
+    </row>
+    <row r="48" spans="2:16" s="99" customFormat="1" ht="30" customHeight="1">
+      <c r="B48" s="100">
         <v>41</v>
       </c>
-      <c r="C48" s="41" t="s">
+      <c r="C48" s="107" t="s">
         <v>224</v>
       </c>
-      <c r="D48" s="46" t="s">
+      <c r="D48" s="101" t="s">
         <v>204</v>
       </c>
-      <c r="E48" s="84" t="s">
+      <c r="E48" s="107" t="s">
         <v>160</v>
       </c>
-      <c r="F48" s="84"/>
-      <c r="G48" s="84"/>
-      <c r="H48" s="84"/>
-      <c r="I48" s="47">
+      <c r="F48" s="107"/>
+      <c r="G48" s="107"/>
+      <c r="H48" s="107"/>
+      <c r="I48" s="102">
         <v>1</v>
       </c>
-      <c r="J48" s="84"/>
-      <c r="K48" s="84"/>
-      <c r="L48" s="85" t="s">
+      <c r="J48" s="107"/>
+      <c r="K48" s="107"/>
+      <c r="L48" s="108" t="s">
         <v>59</v>
       </c>
-      <c r="M48" s="85"/>
-      <c r="N48" s="84"/>
-      <c r="O48" s="31" t="s">
-        <v>207</v>
-      </c>
-      <c r="P48" s="56" t="s">
+      <c r="M48" s="108"/>
+      <c r="N48" s="107"/>
+      <c r="O48" s="104" t="s">
+        <v>156</v>
+      </c>
+      <c r="P48" s="90"/>
+    </row>
+    <row r="49" spans="2:16" s="49" customFormat="1" ht="30">
+      <c r="B49" s="27">
+        <v>43</v>
+      </c>
+      <c r="C49" s="59" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="49" spans="2:16" s="50" customFormat="1" ht="30">
-      <c r="B49" s="6">
-        <v>43</v>
-      </c>
-      <c r="C49" s="98" t="s">
-        <v>238</v>
-      </c>
-      <c r="D49" s="61"/>
-      <c r="E49" s="61"/>
-      <c r="F49" s="61"/>
-      <c r="G49" s="61"/>
-      <c r="H49" s="61"/>
-      <c r="I49" s="62"/>
-      <c r="J49" s="61"/>
-      <c r="K49" s="61"/>
-      <c r="L49" s="7"/>
-      <c r="M49" s="26"/>
-      <c r="N49" s="61"/>
-      <c r="O49" s="61"/>
-      <c r="P49" s="76"/>
-    </row>
-    <row r="50" spans="2:16" s="50" customFormat="1" ht="45">
-      <c r="B50" s="6">
+      <c r="D49" s="59"/>
+      <c r="E49" s="59" t="s">
+        <v>250</v>
+      </c>
+      <c r="F49" s="59"/>
+      <c r="G49" s="59"/>
+      <c r="H49" s="59"/>
+      <c r="I49" s="60"/>
+      <c r="J49" s="59"/>
+      <c r="K49" s="59"/>
+      <c r="L49" s="28"/>
+      <c r="M49" s="28"/>
+      <c r="N49" s="59"/>
+      <c r="O49" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="P49" s="69"/>
+    </row>
+    <row r="50" spans="2:16" s="49" customFormat="1" ht="45">
+      <c r="B50" s="27">
         <v>44</v>
       </c>
-      <c r="C50" s="98" t="s">
-        <v>248</v>
-      </c>
-      <c r="D50" s="61"/>
-      <c r="E50" s="61"/>
-      <c r="F50" s="61"/>
-      <c r="G50" s="61"/>
-      <c r="H50" s="61"/>
-      <c r="I50" s="62"/>
-      <c r="J50" s="61"/>
-      <c r="K50" s="61"/>
-      <c r="L50" s="7"/>
-      <c r="M50" s="26"/>
-      <c r="N50" s="61"/>
-      <c r="O50" s="61"/>
-      <c r="P50" s="76"/>
-    </row>
-    <row r="51" spans="2:16" s="50" customFormat="1" ht="30">
-      <c r="B51" s="6">
+      <c r="C50" s="59" t="s">
+        <v>240</v>
+      </c>
+      <c r="D50" s="59"/>
+      <c r="E50" s="59"/>
+      <c r="F50" s="59"/>
+      <c r="G50" s="59"/>
+      <c r="H50" s="59"/>
+      <c r="I50" s="60"/>
+      <c r="J50" s="59"/>
+      <c r="K50" s="59"/>
+      <c r="L50" s="28"/>
+      <c r="M50" s="28"/>
+      <c r="N50" s="59"/>
+      <c r="O50" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="P50" s="69"/>
+    </row>
+    <row r="51" spans="2:16" s="49" customFormat="1" ht="30">
+      <c r="B51" s="27">
         <v>45</v>
       </c>
-      <c r="C51" s="98" t="s">
-        <v>249</v>
-      </c>
-      <c r="D51" s="61"/>
-      <c r="E51" s="61"/>
-      <c r="F51" s="61"/>
-      <c r="G51" s="61"/>
-      <c r="H51" s="61"/>
-      <c r="I51" s="62"/>
-      <c r="J51" s="61"/>
-      <c r="K51" s="61"/>
-      <c r="L51" s="7"/>
-      <c r="M51" s="26"/>
-      <c r="N51" s="61"/>
-      <c r="O51" s="61"/>
-      <c r="P51" s="76"/>
-    </row>
-    <row r="52" spans="2:16" s="50" customFormat="1" ht="30">
-      <c r="B52" s="6">
+      <c r="C51" s="59" t="s">
+        <v>241</v>
+      </c>
+      <c r="D51" s="59"/>
+      <c r="E51" s="59"/>
+      <c r="F51" s="59"/>
+      <c r="G51" s="59"/>
+      <c r="H51" s="59"/>
+      <c r="I51" s="60"/>
+      <c r="J51" s="59"/>
+      <c r="K51" s="59"/>
+      <c r="L51" s="28"/>
+      <c r="M51" s="28"/>
+      <c r="N51" s="59"/>
+      <c r="O51" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="P51" s="69"/>
+    </row>
+    <row r="52" spans="2:16" s="49" customFormat="1" ht="30">
+      <c r="B52" s="27">
         <v>46</v>
       </c>
-      <c r="C52" s="98" t="s">
+      <c r="C52" s="59" t="s">
+        <v>242</v>
+      </c>
+      <c r="D52" s="59"/>
+      <c r="E52" s="59" t="s">
         <v>251</v>
       </c>
-      <c r="D52" s="61"/>
-      <c r="E52" s="61"/>
-      <c r="F52" s="61"/>
-      <c r="G52" s="61"/>
-      <c r="H52" s="61"/>
-      <c r="I52" s="62"/>
-      <c r="J52" s="61"/>
-      <c r="K52" s="61"/>
-      <c r="L52" s="7"/>
-      <c r="M52" s="26"/>
-      <c r="N52" s="61"/>
-      <c r="O52" s="61"/>
-      <c r="P52" s="76"/>
-    </row>
-    <row r="53" spans="2:16" s="50" customFormat="1" ht="15">
-      <c r="B53" s="6">
+      <c r="F52" s="59"/>
+      <c r="G52" s="59"/>
+      <c r="H52" s="59"/>
+      <c r="I52" s="60"/>
+      <c r="J52" s="59"/>
+      <c r="K52" s="59"/>
+      <c r="L52" s="28"/>
+      <c r="M52" s="28"/>
+      <c r="N52" s="59"/>
+      <c r="O52" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="P52" s="69"/>
+    </row>
+    <row r="53" spans="2:16" s="49" customFormat="1" ht="30">
+      <c r="B53" s="27">
         <v>47</v>
       </c>
-      <c r="C53" s="98" t="s">
-        <v>250</v>
-      </c>
-      <c r="D53" s="61"/>
-      <c r="E53" s="61"/>
-      <c r="F53" s="61"/>
-      <c r="G53" s="61"/>
-      <c r="H53" s="61"/>
-      <c r="I53" s="62"/>
-      <c r="J53" s="61"/>
-      <c r="K53" s="61"/>
-      <c r="L53" s="7"/>
-      <c r="M53" s="26"/>
-      <c r="N53" s="61"/>
-      <c r="O53" s="61"/>
-      <c r="P53" s="76"/>
-    </row>
-    <row r="54" spans="2:16" s="50" customFormat="1" ht="30">
+      <c r="C53" s="59" t="s">
+        <v>243</v>
+      </c>
+      <c r="D53" s="59" t="s">
+        <v>244</v>
+      </c>
+      <c r="E53" s="59"/>
+      <c r="F53" s="59"/>
+      <c r="G53" s="59"/>
+      <c r="H53" s="59"/>
+      <c r="I53" s="60"/>
+      <c r="J53" s="59"/>
+      <c r="K53" s="59"/>
+      <c r="L53" s="28"/>
+      <c r="M53" s="28"/>
+      <c r="N53" s="59"/>
+      <c r="O53" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="P53" s="69"/>
+    </row>
+    <row r="54" spans="2:16" s="48" customFormat="1" ht="15">
       <c r="B54" s="6">
         <v>48</v>
       </c>
-      <c r="C54" s="98" t="s">
-        <v>252</v>
-      </c>
-      <c r="D54" s="98" t="s">
-        <v>253</v>
-      </c>
-      <c r="E54" s="61"/>
-      <c r="F54" s="61"/>
-      <c r="G54" s="61"/>
-      <c r="H54" s="61"/>
-      <c r="I54" s="62"/>
-      <c r="J54" s="61"/>
-      <c r="K54" s="61"/>
-      <c r="L54" s="7"/>
-      <c r="M54" s="26"/>
-      <c r="N54" s="61"/>
-      <c r="O54" s="61"/>
-      <c r="P54" s="76"/>
-    </row>
-    <row r="55" spans="2:16" s="50" customFormat="1" ht="15">
+      <c r="C54" s="109"/>
+      <c r="D54" s="109"/>
+      <c r="E54" s="109"/>
+      <c r="F54" s="109"/>
+      <c r="G54" s="109"/>
+      <c r="H54" s="109"/>
+      <c r="I54" s="109"/>
+      <c r="J54" s="109"/>
+      <c r="K54" s="109"/>
+      <c r="L54" s="109"/>
+      <c r="M54" s="109"/>
+      <c r="N54" s="109"/>
+      <c r="O54" s="109"/>
+      <c r="P54" s="68"/>
+    </row>
+    <row r="55" spans="2:16" s="48" customFormat="1" ht="15">
       <c r="B55" s="6"/>
-      <c r="C55" s="103"/>
-      <c r="D55" s="103"/>
-      <c r="E55" s="99"/>
-      <c r="F55" s="99"/>
-      <c r="G55" s="99"/>
-      <c r="H55" s="99"/>
-      <c r="I55" s="100"/>
-      <c r="J55" s="99"/>
-      <c r="K55" s="99"/>
-      <c r="L55" s="101"/>
-      <c r="M55" s="102"/>
-      <c r="N55" s="99"/>
-      <c r="O55" s="99"/>
-      <c r="P55" s="76"/>
-    </row>
-    <row r="56" spans="2:16" s="50" customFormat="1" ht="15">
+      <c r="C55" s="80"/>
+      <c r="D55" s="80"/>
+      <c r="E55" s="76"/>
+      <c r="F55" s="76"/>
+      <c r="G55" s="76"/>
+      <c r="H55" s="76"/>
+      <c r="I55" s="77"/>
+      <c r="J55" s="76"/>
+      <c r="K55" s="76"/>
+      <c r="L55" s="78"/>
+      <c r="M55" s="79"/>
+      <c r="N55" s="76"/>
+      <c r="O55" s="76"/>
+      <c r="P55" s="68"/>
+    </row>
+    <row r="56" spans="2:16" s="48" customFormat="1" ht="15">
       <c r="B56" s="6"/>
-      <c r="C56" s="103"/>
-      <c r="D56" s="103"/>
-      <c r="E56" s="99"/>
-      <c r="F56" s="99"/>
-      <c r="G56" s="99"/>
-      <c r="H56" s="99"/>
-      <c r="I56" s="100"/>
-      <c r="J56" s="99"/>
-      <c r="K56" s="99"/>
-      <c r="L56" s="101"/>
-      <c r="M56" s="102"/>
-      <c r="N56" s="99"/>
-      <c r="O56" s="99"/>
-      <c r="P56" s="76"/>
-    </row>
-    <row r="57" spans="2:16" s="50" customFormat="1" ht="15">
+      <c r="C56" s="80"/>
+      <c r="D56" s="80"/>
+      <c r="E56" s="76"/>
+      <c r="F56" s="76"/>
+      <c r="G56" s="76"/>
+      <c r="H56" s="76"/>
+      <c r="I56" s="77"/>
+      <c r="J56" s="76"/>
+      <c r="K56" s="76"/>
+      <c r="L56" s="78"/>
+      <c r="M56" s="79"/>
+      <c r="N56" s="76"/>
+      <c r="O56" s="76"/>
+      <c r="P56" s="68"/>
+    </row>
+    <row r="57" spans="2:16" s="48" customFormat="1" ht="15">
       <c r="B57" s="6"/>
-      <c r="C57" s="103"/>
-      <c r="D57" s="103"/>
-      <c r="E57" s="99"/>
-      <c r="F57" s="99"/>
-      <c r="G57" s="99"/>
-      <c r="H57" s="99"/>
-      <c r="I57" s="100"/>
-      <c r="J57" s="99"/>
-      <c r="K57" s="99"/>
-      <c r="L57" s="101"/>
-      <c r="M57" s="102"/>
-      <c r="N57" s="99"/>
-      <c r="O57" s="99"/>
-      <c r="P57" s="76"/>
-    </row>
-    <row r="58" spans="2:16" s="50" customFormat="1" ht="15">
+      <c r="C57" s="80"/>
+      <c r="D57" s="80"/>
+      <c r="E57" s="76"/>
+      <c r="F57" s="76"/>
+      <c r="G57" s="76"/>
+      <c r="H57" s="76"/>
+      <c r="I57" s="77"/>
+      <c r="J57" s="76"/>
+      <c r="K57" s="76"/>
+      <c r="L57" s="78"/>
+      <c r="M57" s="79"/>
+      <c r="N57" s="76"/>
+      <c r="O57" s="76"/>
+      <c r="P57" s="68"/>
+    </row>
+    <row r="58" spans="2:16" s="48" customFormat="1" ht="15">
       <c r="B58" s="6"/>
-      <c r="C58" s="103"/>
-      <c r="D58" s="103"/>
-      <c r="E58" s="99"/>
-      <c r="F58" s="99"/>
-      <c r="G58" s="99"/>
-      <c r="H58" s="99"/>
-      <c r="I58" s="100"/>
-      <c r="J58" s="99"/>
-      <c r="K58" s="99"/>
-      <c r="L58" s="101"/>
-      <c r="M58" s="102"/>
-      <c r="N58" s="99"/>
-      <c r="O58" s="99"/>
-      <c r="P58" s="76"/>
-    </row>
-    <row r="59" spans="2:16" s="50" customFormat="1" ht="15">
+      <c r="C58" s="80"/>
+      <c r="D58" s="80"/>
+      <c r="E58" s="76"/>
+      <c r="F58" s="76"/>
+      <c r="G58" s="76"/>
+      <c r="H58" s="76"/>
+      <c r="I58" s="77"/>
+      <c r="J58" s="76"/>
+      <c r="K58" s="76"/>
+      <c r="L58" s="78"/>
+      <c r="M58" s="79"/>
+      <c r="N58" s="76"/>
+      <c r="O58" s="76"/>
+      <c r="P58" s="68"/>
+    </row>
+    <row r="59" spans="2:16" s="48" customFormat="1" ht="15">
       <c r="B59" s="6"/>
-      <c r="C59" s="103"/>
-      <c r="D59" s="103"/>
-      <c r="E59" s="99"/>
-      <c r="F59" s="99"/>
-      <c r="G59" s="99"/>
-      <c r="H59" s="99"/>
-      <c r="I59" s="100"/>
-      <c r="J59" s="99"/>
-      <c r="K59" s="99"/>
-      <c r="L59" s="101"/>
-      <c r="M59" s="102"/>
-      <c r="N59" s="99"/>
-      <c r="O59" s="99"/>
-      <c r="P59" s="76"/>
+      <c r="C59" s="80"/>
+      <c r="D59" s="80"/>
+      <c r="E59" s="76"/>
+      <c r="F59" s="76"/>
+      <c r="G59" s="76"/>
+      <c r="H59" s="76"/>
+      <c r="I59" s="77"/>
+      <c r="J59" s="76"/>
+      <c r="K59" s="76"/>
+      <c r="L59" s="78"/>
+      <c r="M59" s="79"/>
+      <c r="N59" s="76"/>
+      <c r="O59" s="76"/>
+      <c r="P59" s="68"/>
     </row>
     <row r="60" spans="2:16" ht="15.75" thickBot="1">
       <c r="B60" s="5"/>
-      <c r="C60" s="72"/>
-      <c r="D60" s="72"/>
-      <c r="E60" s="72"/>
-      <c r="F60" s="72"/>
-      <c r="G60" s="72"/>
-      <c r="H60" s="72"/>
-      <c r="I60" s="72"/>
-      <c r="J60" s="72"/>
-      <c r="K60" s="72"/>
-      <c r="L60" s="73"/>
-      <c r="M60" s="73"/>
-      <c r="N60" s="73"/>
-      <c r="O60" s="73"/>
+      <c r="C60" s="64"/>
+      <c r="D60" s="64"/>
+      <c r="E60" s="64"/>
+      <c r="F60" s="64"/>
+      <c r="G60" s="64"/>
+      <c r="H60" s="64"/>
+      <c r="I60" s="64"/>
+      <c r="J60" s="64"/>
+      <c r="K60" s="64"/>
+      <c r="L60" s="65"/>
+      <c r="M60" s="65"/>
+      <c r="N60" s="65"/>
+      <c r="O60" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -4154,13 +4155,13 @@
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M7:M27 M49:M59">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M7:M27 M49:M53 M55:M59">
       <formula1>"高,中,低"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O8:O37 O39:O48">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O8:O37 O39:O52 O53">
       <formula1>"Active,Resolve,Close"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L7:L59">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L7:L53 L55:L59">
       <formula1>"严重错误,必须修改,应该修改,选择修改"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M28:M48">

--- a/Documentation/Buglist.xlsx
+++ b/Documentation/Buglist.xlsx
@@ -11,12 +11,15 @@
     <sheet name="截图" sheetId="11" r:id="rId2"/>
     <sheet name="附录" sheetId="10" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Buglist!$R$2:$R$60</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="254">
   <si>
     <t>ID</t>
   </si>
@@ -743,10 +746,6 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>计划页面反审核一条审核的已经计划审核的数据，反审核后生产日期没了</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>计划页面同时修改多个计划订单时，由于出厂编号和投产编号都不同，所以修改对话框中的投产编号和出产编号是空白的，修改后，选中订单的投产编号和出产编号都变成空白了</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
@@ -952,10 +951,6 @@
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
-    <t>反审核的订单没有退回到原来的状态</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
     <t>反审核没有达到正常作用</t>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
@@ -1162,6 +1157,22 @@
   </si>
   <si>
     <t>在计划页面，增加一种排序，按照合同号排序</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售反审核 删除这个合同号对应的未审核的计划订单，如果对应的部分计划订单已经审核，则提示反审核失败</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划页面反审核一条审核的已经计划审核的数据，反审核后生产日期没了</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>反审核的订单没有退回到原来的状态</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>不再现</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -1519,7 +1530,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1751,6 +1762,78 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="15" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="15" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1777,66 +1860,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="15" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="15" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2195,11 +2218,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:P60"/>
+  <dimension ref="B2:S60"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A23" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -2221,7 +2242,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" s="47" customFormat="1" ht="25.5">
-      <c r="B2" s="83"/>
+      <c r="B2" s="107"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -2238,7 +2259,7 @@
       <c r="P2" s="66"/>
     </row>
     <row r="3" spans="2:16" s="47" customFormat="1" ht="26.25" thickBot="1">
-      <c r="B3" s="84"/>
+      <c r="B3" s="108"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
@@ -2255,36 +2276,36 @@
       <c r="P3" s="66"/>
     </row>
     <row r="4" spans="2:16" s="3" customFormat="1" ht="14.25">
-      <c r="B4" s="88" t="s">
+      <c r="B4" s="112" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="85" t="s">
+      <c r="C4" s="109" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86"/>
-      <c r="K4" s="86"/>
-      <c r="L4" s="81" t="s">
+      <c r="D4" s="110"/>
+      <c r="E4" s="110"/>
+      <c r="F4" s="110"/>
+      <c r="G4" s="110"/>
+      <c r="H4" s="110"/>
+      <c r="I4" s="110"/>
+      <c r="J4" s="110"/>
+      <c r="K4" s="110"/>
+      <c r="L4" s="105" t="s">
         <v>22</v>
       </c>
-      <c r="M4" s="81" t="s">
+      <c r="M4" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="N4" s="81" t="s">
+      <c r="N4" s="105" t="s">
         <v>45</v>
       </c>
-      <c r="O4" s="81" t="s">
-        <v>152</v>
+      <c r="O4" s="105" t="s">
+        <v>151</v>
       </c>
       <c r="P4" s="67"/>
     </row>
     <row r="5" spans="2:16" s="3" customFormat="1" ht="14.25">
-      <c r="B5" s="89"/>
+      <c r="B5" s="113"/>
       <c r="C5" s="10" t="s">
         <v>1</v>
       </c>
@@ -2312,10 +2333,10 @@
       <c r="K5" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="L5" s="87"/>
-      <c r="M5" s="82"/>
-      <c r="N5" s="82"/>
-      <c r="O5" s="82"/>
+      <c r="L5" s="111"/>
+      <c r="M5" s="106"/>
+      <c r="N5" s="106"/>
+      <c r="O5" s="106"/>
       <c r="P5" s="67"/>
     </row>
     <row r="6" spans="2:16" s="8" customFormat="1" ht="90">
@@ -2359,11 +2380,11 @@
         <v>46</v>
       </c>
       <c r="O6" s="54" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="P6" s="68"/>
     </row>
-    <row r="7" spans="2:16" s="8" customFormat="1" ht="135" hidden="1">
+    <row r="7" spans="2:16" s="8" customFormat="1" ht="135">
       <c r="B7" s="19" t="s">
         <v>12</v>
       </c>
@@ -2404,7 +2425,7 @@
         <v>51</v>
       </c>
       <c r="O7" s="22" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="P7" s="68"/>
     </row>
@@ -2413,7 +2434,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="57" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D8" s="57" t="s">
         <v>53</v>
@@ -2447,7 +2468,7 @@
       </c>
       <c r="N8" s="57"/>
       <c r="O8" s="26" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="P8" s="68"/>
     </row>
@@ -2456,7 +2477,7 @@
         <v>2</v>
       </c>
       <c r="C9" s="57" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D9" s="57" t="s">
         <v>61</v>
@@ -2490,7 +2511,7 @@
       </c>
       <c r="N9" s="57"/>
       <c r="O9" s="26" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="P9" s="68"/>
     </row>
@@ -2533,9 +2554,9 @@
       </c>
       <c r="N10" s="57"/>
       <c r="O10" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="P10" s="90"/>
+        <v>223</v>
+      </c>
+      <c r="P10" s="81"/>
     </row>
     <row r="11" spans="2:16" s="9" customFormat="1" ht="105">
       <c r="B11" s="19">
@@ -2576,7 +2597,7 @@
       </c>
       <c r="N11" s="55"/>
       <c r="O11" s="20" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="P11" s="70"/>
     </row>
@@ -2619,7 +2640,7 @@
       </c>
       <c r="N12" s="57"/>
       <c r="O12" s="26" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="P12" s="68"/>
     </row>
@@ -2631,7 +2652,7 @@
         <v>94</v>
       </c>
       <c r="D13" s="57" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E13" s="57" t="s">
         <v>90</v>
@@ -2662,9 +2683,9 @@
       </c>
       <c r="N13" s="57"/>
       <c r="O13" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="P13" s="90"/>
+        <v>223</v>
+      </c>
+      <c r="P13" s="81"/>
     </row>
     <row r="14" spans="2:16" s="62" customFormat="1" ht="120">
       <c r="B14" s="6">
@@ -2705,9 +2726,9 @@
       </c>
       <c r="N14" s="57"/>
       <c r="O14" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="P14" s="90"/>
+        <v>223</v>
+      </c>
+      <c r="P14" s="81"/>
     </row>
     <row r="15" spans="2:16" s="63" customFormat="1" ht="90">
       <c r="B15" s="6">
@@ -2748,9 +2769,9 @@
       </c>
       <c r="N15" s="57"/>
       <c r="O15" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="P15" s="91"/>
+        <v>223</v>
+      </c>
+      <c r="P15" s="82"/>
     </row>
     <row r="16" spans="2:16" ht="90">
       <c r="B16" s="19">
@@ -2791,10 +2812,10 @@
       </c>
       <c r="N16" s="55"/>
       <c r="O16" s="20" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="17" spans="2:16" s="48" customFormat="1" ht="75">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="17" spans="2:18" s="48" customFormat="1" ht="75">
       <c r="B17" s="19">
         <v>10</v>
       </c>
@@ -2833,11 +2854,11 @@
       </c>
       <c r="N17" s="55"/>
       <c r="O17" s="20" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="P17" s="68"/>
     </row>
-    <row r="18" spans="2:16" s="62" customFormat="1" ht="90">
+    <row r="18" spans="2:18" s="62" customFormat="1" ht="90">
       <c r="B18" s="6">
         <v>11</v>
       </c>
@@ -2876,11 +2897,11 @@
       </c>
       <c r="N18" s="57"/>
       <c r="O18" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="P18" s="90"/>
-    </row>
-    <row r="19" spans="2:16" s="48" customFormat="1" ht="75">
+        <v>223</v>
+      </c>
+      <c r="P18" s="81"/>
+    </row>
+    <row r="19" spans="2:18" s="48" customFormat="1" ht="75">
       <c r="B19" s="19">
         <v>12</v>
       </c>
@@ -2919,11 +2940,11 @@
       </c>
       <c r="N19" s="55"/>
       <c r="O19" s="20" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="P19" s="68"/>
     </row>
-    <row r="20" spans="2:16" s="48" customFormat="1" ht="90">
+    <row r="20" spans="2:18" s="48" customFormat="1" ht="90">
       <c r="B20" s="19">
         <v>13</v>
       </c>
@@ -2962,11 +2983,11 @@
       </c>
       <c r="N20" s="55"/>
       <c r="O20" s="20" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="P20" s="68"/>
     </row>
-    <row r="21" spans="2:16" s="62" customFormat="1" ht="165">
+    <row r="21" spans="2:18" s="62" customFormat="1" ht="165">
       <c r="B21" s="6">
         <v>14</v>
       </c>
@@ -3005,11 +3026,11 @@
       </c>
       <c r="N21" s="57"/>
       <c r="O21" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="P21" s="90"/>
-    </row>
-    <row r="22" spans="2:16" s="62" customFormat="1" ht="45">
+        <v>223</v>
+      </c>
+      <c r="P21" s="81"/>
+    </row>
+    <row r="22" spans="2:18" s="62" customFormat="1" ht="45">
       <c r="B22" s="6">
         <v>15</v>
       </c>
@@ -3032,11 +3053,11 @@
       </c>
       <c r="N22" s="57"/>
       <c r="O22" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="P22" s="90"/>
-    </row>
-    <row r="23" spans="2:16" s="62" customFormat="1" ht="30">
+        <v>223</v>
+      </c>
+      <c r="P22" s="81"/>
+    </row>
+    <row r="23" spans="2:18" s="62" customFormat="1" ht="30">
       <c r="B23" s="6">
         <v>16</v>
       </c>
@@ -3059,16 +3080,16 @@
       </c>
       <c r="N23" s="57"/>
       <c r="O23" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="P23" s="90"/>
-    </row>
-    <row r="24" spans="2:16" s="62" customFormat="1" ht="90">
+        <v>223</v>
+      </c>
+      <c r="P23" s="81"/>
+    </row>
+    <row r="24" spans="2:18" s="62" customFormat="1" ht="90">
       <c r="B24" s="6">
         <v>17</v>
       </c>
       <c r="C24" s="57" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D24" s="57"/>
       <c r="E24" s="57"/>
@@ -3086,20 +3107,20 @@
       </c>
       <c r="N24" s="57"/>
       <c r="O24" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="P24" s="90"/>
-    </row>
-    <row r="25" spans="2:16" s="49" customFormat="1" ht="45">
+        <v>223</v>
+      </c>
+      <c r="P24" s="81"/>
+    </row>
+    <row r="25" spans="2:18" s="49" customFormat="1" ht="45">
       <c r="B25" s="27">
         <v>18</v>
       </c>
       <c r="C25" s="59" t="s">
-        <v>147</v>
+        <v>251</v>
       </c>
       <c r="D25" s="59"/>
-      <c r="E25" s="93" t="s">
-        <v>245</v>
+      <c r="E25" s="84" t="s">
+        <v>243</v>
       </c>
       <c r="F25" s="59"/>
       <c r="G25" s="59"/>
@@ -3115,16 +3136,19 @@
       </c>
       <c r="N25" s="59"/>
       <c r="O25" s="28" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="P25" s="69"/>
-    </row>
-    <row r="26" spans="2:16" s="62" customFormat="1" ht="90">
+      <c r="R25" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:18" s="62" customFormat="1" ht="90">
       <c r="B26" s="6">
         <v>19</v>
       </c>
       <c r="C26" s="57" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D26" s="57"/>
       <c r="E26" s="57"/>
@@ -3142,20 +3166,20 @@
       </c>
       <c r="N26" s="57"/>
       <c r="O26" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="P26" s="90"/>
-    </row>
-    <row r="27" spans="2:16" s="49" customFormat="1" ht="60">
+        <v>223</v>
+      </c>
+      <c r="P26" s="81"/>
+    </row>
+    <row r="27" spans="2:18" s="49" customFormat="1" ht="60">
       <c r="B27" s="27">
         <v>20</v>
       </c>
       <c r="C27" s="59" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D27" s="59"/>
       <c r="E27" s="59" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F27" s="59"/>
       <c r="G27" s="59"/>
@@ -3167,142 +3191,148 @@
       <c r="M27" s="28"/>
       <c r="N27" s="59"/>
       <c r="O27" s="28" t="s">
+        <v>223</v>
+      </c>
+      <c r="P27" s="69"/>
+      <c r="R27" s="49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="2:18" s="88" customFormat="1" ht="30" customHeight="1">
+      <c r="B28" s="85">
+        <v>21</v>
+      </c>
+      <c r="C28" s="83" t="s">
+        <v>227</v>
+      </c>
+      <c r="D28" s="83" t="s">
+        <v>158</v>
+      </c>
+      <c r="E28" s="89" t="s">
+        <v>236</v>
+      </c>
+      <c r="F28" s="83" t="s">
+        <v>160</v>
+      </c>
+      <c r="G28" s="83" t="s">
+        <v>161</v>
+      </c>
+      <c r="H28" s="83" t="s">
+        <v>162</v>
+      </c>
+      <c r="I28" s="86">
+        <v>0.3</v>
+      </c>
+      <c r="J28" s="83"/>
+      <c r="K28" s="83"/>
+      <c r="L28" s="87" t="s">
+        <v>59</v>
+      </c>
+      <c r="M28" s="87"/>
+      <c r="N28" s="83"/>
+      <c r="O28" s="28" t="s">
+        <v>205</v>
+      </c>
+      <c r="P28" s="69"/>
+      <c r="R28" s="102">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:18" s="90" customFormat="1" ht="30" customHeight="1">
+      <c r="B29" s="91">
+        <v>22</v>
+      </c>
+      <c r="C29" s="92" t="s">
+        <v>163</v>
+      </c>
+      <c r="D29" s="92" t="s">
+        <v>164</v>
+      </c>
+      <c r="E29" s="92" t="s">
+        <v>165</v>
+      </c>
+      <c r="F29" s="92" t="s">
+        <v>166</v>
+      </c>
+      <c r="G29" s="92" t="s">
+        <v>167</v>
+      </c>
+      <c r="H29" s="92" t="s">
+        <v>168</v>
+      </c>
+      <c r="I29" s="93">
+        <v>1</v>
+      </c>
+      <c r="J29" s="92"/>
+      <c r="K29" s="92"/>
+      <c r="L29" s="94" t="s">
+        <v>59</v>
+      </c>
+      <c r="M29" s="94"/>
+      <c r="N29" s="92"/>
+      <c r="O29" s="95" t="s">
         <v>155</v>
       </c>
-      <c r="P27" s="69"/>
-    </row>
-    <row r="28" spans="2:16" s="97" customFormat="1" ht="30" customHeight="1">
-      <c r="B28" s="94">
-        <v>21</v>
-      </c>
-      <c r="C28" s="92" t="s">
-        <v>229</v>
-      </c>
-      <c r="D28" s="92" t="s">
+      <c r="P29" s="81"/>
+    </row>
+    <row r="30" spans="2:18" s="90" customFormat="1" ht="30" customHeight="1">
+      <c r="B30" s="91">
+        <v>23</v>
+      </c>
+      <c r="C30" s="92" t="s">
+        <v>167</v>
+      </c>
+      <c r="D30" s="92" t="s">
+        <v>169</v>
+      </c>
+      <c r="E30" s="92" t="s">
         <v>159</v>
       </c>
-      <c r="E28" s="98" t="s">
-        <v>238</v>
-      </c>
-      <c r="F28" s="92" t="s">
-        <v>161</v>
-      </c>
-      <c r="G28" s="92" t="s">
-        <v>162</v>
-      </c>
-      <c r="H28" s="92" t="s">
-        <v>163</v>
-      </c>
-      <c r="I28" s="95">
-        <v>0.3</v>
-      </c>
-      <c r="J28" s="92"/>
-      <c r="K28" s="92"/>
-      <c r="L28" s="96" t="s">
+      <c r="F30" s="92" t="s">
+        <v>170</v>
+      </c>
+      <c r="G30" s="92" t="s">
+        <v>171</v>
+      </c>
+      <c r="H30" s="92" t="s">
+        <v>172</v>
+      </c>
+      <c r="I30" s="93">
+        <v>1</v>
+      </c>
+      <c r="J30" s="92"/>
+      <c r="K30" s="92"/>
+      <c r="L30" s="94" t="s">
         <v>59</v>
       </c>
-      <c r="M28" s="96"/>
-      <c r="N28" s="92"/>
-      <c r="O28" s="28" t="s">
-        <v>207</v>
-      </c>
-      <c r="P28" s="69"/>
-    </row>
-    <row r="29" spans="2:16" s="99" customFormat="1" ht="30" customHeight="1">
-      <c r="B29" s="100">
-        <v>22</v>
-      </c>
-      <c r="C29" s="101" t="s">
-        <v>164</v>
-      </c>
-      <c r="D29" s="101" t="s">
-        <v>165</v>
-      </c>
-      <c r="E29" s="101" t="s">
-        <v>166</v>
-      </c>
-      <c r="F29" s="101" t="s">
-        <v>167</v>
-      </c>
-      <c r="G29" s="101" t="s">
-        <v>168</v>
-      </c>
-      <c r="H29" s="101" t="s">
-        <v>169</v>
-      </c>
-      <c r="I29" s="102">
-        <v>1</v>
-      </c>
-      <c r="J29" s="101"/>
-      <c r="K29" s="101"/>
-      <c r="L29" s="103" t="s">
-        <v>59</v>
-      </c>
-      <c r="M29" s="103"/>
-      <c r="N29" s="101"/>
-      <c r="O29" s="104" t="s">
-        <v>156</v>
-      </c>
-      <c r="P29" s="90"/>
-    </row>
-    <row r="30" spans="2:16" s="99" customFormat="1" ht="30" customHeight="1">
-      <c r="B30" s="100">
-        <v>23</v>
-      </c>
-      <c r="C30" s="101" t="s">
-        <v>168</v>
-      </c>
-      <c r="D30" s="101" t="s">
-        <v>170</v>
-      </c>
-      <c r="E30" s="101" t="s">
-        <v>160</v>
-      </c>
-      <c r="F30" s="101" t="s">
-        <v>171</v>
-      </c>
-      <c r="G30" s="101" t="s">
-        <v>172</v>
-      </c>
-      <c r="H30" s="101" t="s">
-        <v>173</v>
-      </c>
-      <c r="I30" s="102">
-        <v>1</v>
-      </c>
-      <c r="J30" s="101"/>
-      <c r="K30" s="101"/>
-      <c r="L30" s="103" t="s">
-        <v>59</v>
-      </c>
-      <c r="M30" s="103"/>
-      <c r="N30" s="101"/>
-      <c r="O30" s="104" t="s">
-        <v>156</v>
-      </c>
-      <c r="P30" s="90"/>
-    </row>
-    <row r="31" spans="2:16" s="35" customFormat="1" ht="30" customHeight="1">
+      <c r="M30" s="94"/>
+      <c r="N30" s="92"/>
+      <c r="O30" s="95" t="s">
+        <v>155</v>
+      </c>
+      <c r="P30" s="81"/>
+    </row>
+    <row r="31" spans="2:18" s="35" customFormat="1" ht="30" customHeight="1">
       <c r="B31" s="31">
         <v>24</v>
       </c>
       <c r="C31" s="32" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D31" s="32" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E31" s="32" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F31" s="32" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G31" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="H31" s="32" t="s">
         <v>174</v>
-      </c>
-      <c r="H31" s="32" t="s">
-        <v>175</v>
       </c>
       <c r="I31" s="33">
         <v>1</v>
@@ -3315,25 +3345,25 @@
       <c r="M31" s="34"/>
       <c r="N31" s="32"/>
       <c r="O31" s="26" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="P31" s="72"/>
     </row>
-    <row r="32" spans="2:16" s="30" customFormat="1" ht="30" customHeight="1">
+    <row r="32" spans="2:18" s="30" customFormat="1" ht="30" customHeight="1">
       <c r="B32" s="31">
         <v>25</v>
       </c>
       <c r="C32" s="32" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D32" s="32" t="s">
+        <v>175</v>
+      </c>
+      <c r="E32" s="32" t="s">
         <v>176</v>
       </c>
-      <c r="E32" s="32" t="s">
+      <c r="F32" s="32" t="s">
         <v>177</v>
-      </c>
-      <c r="F32" s="32" t="s">
-        <v>178</v>
       </c>
       <c r="G32" s="32"/>
       <c r="H32" s="32"/>
@@ -3348,25 +3378,25 @@
       <c r="M32" s="34"/>
       <c r="N32" s="32"/>
       <c r="O32" s="26" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="P32" s="73"/>
     </row>
-    <row r="33" spans="2:16" s="30" customFormat="1" ht="30" customHeight="1">
+    <row r="33" spans="2:19" s="30" customFormat="1" ht="30" customHeight="1">
       <c r="B33" s="31">
         <v>26</v>
       </c>
       <c r="C33" s="32" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D33" s="32" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E33" s="32" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F33" s="32" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G33" s="32"/>
       <c r="H33" s="32"/>
@@ -3381,31 +3411,31 @@
       <c r="M33" s="34"/>
       <c r="N33" s="32"/>
       <c r="O33" s="26" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="P33" s="73"/>
     </row>
-    <row r="34" spans="2:16" s="51" customFormat="1" ht="30" customHeight="1">
+    <row r="34" spans="2:19" s="51" customFormat="1" ht="30" customHeight="1">
       <c r="B34" s="31">
         <v>27</v>
       </c>
       <c r="C34" s="36" t="s">
+        <v>209</v>
+      </c>
+      <c r="D34" s="36" t="s">
+        <v>179</v>
+      </c>
+      <c r="E34" s="36" t="s">
+        <v>180</v>
+      </c>
+      <c r="F34" s="36" t="s">
+        <v>159</v>
+      </c>
+      <c r="G34" s="36" t="s">
+        <v>210</v>
+      </c>
+      <c r="H34" s="36" t="s">
         <v>211</v>
-      </c>
-      <c r="D34" s="36" t="s">
-        <v>180</v>
-      </c>
-      <c r="E34" s="36" t="s">
-        <v>181</v>
-      </c>
-      <c r="F34" s="36" t="s">
-        <v>160</v>
-      </c>
-      <c r="G34" s="36" t="s">
-        <v>212</v>
-      </c>
-      <c r="H34" s="36" t="s">
-        <v>213</v>
       </c>
       <c r="I34" s="37">
         <v>1</v>
@@ -3418,31 +3448,31 @@
       <c r="M34" s="38"/>
       <c r="N34" s="36"/>
       <c r="O34" s="26" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="P34" s="74"/>
     </row>
-    <row r="35" spans="2:16" s="51" customFormat="1" ht="30" customHeight="1">
+    <row r="35" spans="2:19" s="51" customFormat="1" ht="30" customHeight="1">
       <c r="B35" s="31">
         <v>28</v>
       </c>
       <c r="C35" s="36" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D35" s="36" t="s">
+        <v>181</v>
+      </c>
+      <c r="E35" s="36" t="s">
+        <v>176</v>
+      </c>
+      <c r="F35" s="36" t="s">
+        <v>159</v>
+      </c>
+      <c r="G35" s="36" t="s">
         <v>182</v>
       </c>
-      <c r="E35" s="36" t="s">
-        <v>177</v>
-      </c>
-      <c r="F35" s="36" t="s">
-        <v>160</v>
-      </c>
-      <c r="G35" s="36" t="s">
+      <c r="H35" s="36" t="s">
         <v>183</v>
-      </c>
-      <c r="H35" s="36" t="s">
-        <v>184</v>
       </c>
       <c r="I35" s="37">
         <v>1</v>
@@ -3455,31 +3485,31 @@
       <c r="M35" s="38"/>
       <c r="N35" s="36"/>
       <c r="O35" s="26" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="P35" s="74"/>
     </row>
-    <row r="36" spans="2:16" s="42" customFormat="1" ht="30" customHeight="1">
+    <row r="36" spans="2:19" s="42" customFormat="1" ht="30" customHeight="1">
       <c r="B36" s="43">
         <v>29</v>
       </c>
       <c r="C36" s="44" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D36" s="44" t="s">
-        <v>230</v>
-      </c>
-      <c r="E36" s="105" t="s">
-        <v>247</v>
+        <v>228</v>
+      </c>
+      <c r="E36" s="96" t="s">
+        <v>245</v>
       </c>
       <c r="F36" s="44" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G36" s="44" t="s">
+        <v>184</v>
+      </c>
+      <c r="H36" s="44" t="s">
         <v>185</v>
-      </c>
-      <c r="H36" s="44" t="s">
-        <v>186</v>
       </c>
       <c r="I36" s="45">
         <v>1</v>
@@ -3492,36 +3522,39 @@
       <c r="M36" s="46"/>
       <c r="N36" s="44"/>
       <c r="O36" s="29" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="P36" s="52" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="37" spans="2:16" s="42" customFormat="1" ht="30" customHeight="1">
+        <v>247</v>
+      </c>
+      <c r="R36" s="103">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" s="42" customFormat="1" ht="30" customHeight="1">
       <c r="B37" s="43">
         <v>30</v>
       </c>
       <c r="C37" s="44" t="s">
+        <v>186</v>
+      </c>
+      <c r="D37" s="44" t="s">
         <v>187</v>
       </c>
-      <c r="D37" s="44" t="s">
+      <c r="E37" s="97" t="s">
+        <v>229</v>
+      </c>
+      <c r="F37" s="44" t="s">
+        <v>176</v>
+      </c>
+      <c r="G37" s="44" t="s">
         <v>188</v>
       </c>
-      <c r="E37" s="106" t="s">
-        <v>231</v>
-      </c>
-      <c r="F37" s="44" t="s">
-        <v>177</v>
-      </c>
-      <c r="G37" s="44" t="s">
+      <c r="H37" s="44" t="s">
         <v>189</v>
       </c>
-      <c r="H37" s="44" t="s">
+      <c r="I37" s="44" t="s">
         <v>190</v>
-      </c>
-      <c r="I37" s="44" t="s">
-        <v>191</v>
       </c>
       <c r="J37" s="44"/>
       <c r="K37" s="44"/>
@@ -3531,29 +3564,32 @@
       <c r="M37" s="46"/>
       <c r="N37" s="44"/>
       <c r="O37" s="29" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="P37" s="52"/>
-    </row>
-    <row r="38" spans="2:16" s="30" customFormat="1" ht="30" customHeight="1">
+      <c r="R37" s="103">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="2:19" s="30" customFormat="1" ht="30" customHeight="1">
       <c r="B38" s="31">
         <v>31</v>
       </c>
       <c r="C38" s="32" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D38" s="36" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E38" s="36" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F38" s="36" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G38" s="36"/>
       <c r="H38" s="36" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I38" s="37">
         <v>1</v>
@@ -3566,34 +3602,34 @@
       <c r="M38" s="38"/>
       <c r="N38" s="36"/>
       <c r="O38" s="53" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="P38" s="73"/>
     </row>
-    <row r="39" spans="2:16" s="42" customFormat="1" ht="30" customHeight="1">
+    <row r="39" spans="2:19" s="42" customFormat="1" ht="30" customHeight="1">
       <c r="B39" s="43">
         <v>32</v>
       </c>
       <c r="C39" s="44" t="s">
+        <v>193</v>
+      </c>
+      <c r="D39" s="44" t="s">
+        <v>216</v>
+      </c>
+      <c r="E39" s="97" t="s">
+        <v>237</v>
+      </c>
+      <c r="F39" s="44" t="s">
+        <v>159</v>
+      </c>
+      <c r="G39" s="44" t="s">
         <v>194</v>
       </c>
-      <c r="D39" s="44" t="s">
-        <v>218</v>
-      </c>
-      <c r="E39" s="106" t="s">
-        <v>239</v>
-      </c>
-      <c r="F39" s="44" t="s">
-        <v>160</v>
-      </c>
-      <c r="G39" s="44" t="s">
+      <c r="H39" s="44" t="s">
         <v>195</v>
       </c>
-      <c r="H39" s="44" t="s">
-        <v>196</v>
-      </c>
       <c r="I39" s="44" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J39" s="44"/>
       <c r="K39" s="44"/>
@@ -3603,27 +3639,30 @@
       <c r="M39" s="46"/>
       <c r="N39" s="44"/>
       <c r="O39" s="29" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="P39" s="52" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="40" spans="2:16" s="30" customFormat="1" ht="30" customHeight="1">
+        <v>225</v>
+      </c>
+      <c r="R39" s="103">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="2:19" s="30" customFormat="1" ht="30" customHeight="1">
       <c r="B40" s="31">
         <v>33</v>
       </c>
       <c r="C40" s="36" t="s">
+        <v>196</v>
+      </c>
+      <c r="D40" s="36" t="s">
         <v>197</v>
       </c>
-      <c r="D40" s="36" t="s">
-        <v>198</v>
-      </c>
       <c r="E40" s="36" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F40" s="36" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G40" s="36"/>
       <c r="H40" s="36"/>
@@ -3636,31 +3675,31 @@
       <c r="M40" s="38"/>
       <c r="N40" s="36"/>
       <c r="O40" s="26" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="P40" s="73"/>
     </row>
-    <row r="41" spans="2:16" s="42" customFormat="1" ht="30" customHeight="1">
+    <row r="41" spans="2:19" s="42" customFormat="1" ht="30" customHeight="1">
       <c r="B41" s="43">
         <v>34</v>
       </c>
       <c r="C41" s="44" t="s">
+        <v>252</v>
+      </c>
+      <c r="D41" s="44" t="s">
+        <v>231</v>
+      </c>
+      <c r="E41" s="44" t="s">
+        <v>232</v>
+      </c>
+      <c r="F41" s="44" t="s">
+        <v>217</v>
+      </c>
+      <c r="G41" s="44" t="s">
+        <v>198</v>
+      </c>
+      <c r="H41" s="44" t="s">
         <v>199</v>
-      </c>
-      <c r="D41" s="44" t="s">
-        <v>233</v>
-      </c>
-      <c r="E41" s="44" t="s">
-        <v>234</v>
-      </c>
-      <c r="F41" s="44" t="s">
-        <v>219</v>
-      </c>
-      <c r="G41" s="44" t="s">
-        <v>200</v>
-      </c>
-      <c r="H41" s="44" t="s">
-        <v>201</v>
       </c>
       <c r="I41" s="45">
         <v>1</v>
@@ -3673,30 +3712,36 @@
       <c r="M41" s="46"/>
       <c r="N41" s="44"/>
       <c r="O41" s="29" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="P41" s="52" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="42" spans="2:16" s="42" customFormat="1" ht="30" customHeight="1">
+        <v>246</v>
+      </c>
+      <c r="R41" s="103">
+        <v>1</v>
+      </c>
+      <c r="S41" s="101" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" s="42" customFormat="1" ht="30" customHeight="1">
       <c r="B42" s="43">
         <v>35</v>
       </c>
       <c r="C42" s="44" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D42" s="44" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E42" s="44" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F42" s="44" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G42" s="44" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H42" s="44"/>
       <c r="I42" s="45">
@@ -3710,24 +3755,27 @@
       <c r="M42" s="46"/>
       <c r="N42" s="44"/>
       <c r="O42" s="29" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="P42" s="52" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="43" spans="2:16" s="30" customFormat="1" ht="30" customHeight="1">
+        <v>226</v>
+      </c>
+      <c r="R42" s="103">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" s="30" customFormat="1" ht="30" customHeight="1">
       <c r="B43" s="31">
         <v>36</v>
       </c>
       <c r="C43" s="36" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D43" s="36" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E43" s="39" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F43" s="36"/>
       <c r="G43" s="36"/>
@@ -3743,22 +3791,22 @@
       <c r="M43" s="38"/>
       <c r="N43" s="36"/>
       <c r="O43" s="26" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="P43" s="73"/>
     </row>
-    <row r="44" spans="2:16" s="30" customFormat="1" ht="30" customHeight="1">
+    <row r="44" spans="2:19" s="30" customFormat="1" ht="30" customHeight="1">
       <c r="B44" s="31">
         <v>37</v>
       </c>
       <c r="C44" s="39" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D44" s="36" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E44" s="39" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F44" s="39"/>
       <c r="G44" s="39"/>
@@ -3774,53 +3822,53 @@
       <c r="M44" s="40"/>
       <c r="N44" s="39"/>
       <c r="O44" s="26" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="P44" s="73"/>
     </row>
-    <row r="45" spans="2:16" s="99" customFormat="1" ht="30" customHeight="1">
-      <c r="B45" s="100">
+    <row r="45" spans="2:19" s="90" customFormat="1" ht="30" customHeight="1">
+      <c r="B45" s="91">
         <v>38</v>
       </c>
-      <c r="C45" s="107" t="s">
-        <v>162</v>
-      </c>
-      <c r="D45" s="107" t="s">
-        <v>237</v>
-      </c>
-      <c r="E45" s="107" t="s">
-        <v>177</v>
-      </c>
-      <c r="F45" s="107"/>
-      <c r="G45" s="107"/>
-      <c r="H45" s="107"/>
-      <c r="I45" s="102">
+      <c r="C45" s="98" t="s">
+        <v>161</v>
+      </c>
+      <c r="D45" s="98" t="s">
+        <v>235</v>
+      </c>
+      <c r="E45" s="98" t="s">
+        <v>176</v>
+      </c>
+      <c r="F45" s="98"/>
+      <c r="G45" s="98"/>
+      <c r="H45" s="98"/>
+      <c r="I45" s="93">
         <v>1</v>
       </c>
-      <c r="J45" s="107"/>
-      <c r="K45" s="107"/>
-      <c r="L45" s="108" t="s">
+      <c r="J45" s="98"/>
+      <c r="K45" s="98"/>
+      <c r="L45" s="99" t="s">
         <v>59</v>
       </c>
-      <c r="M45" s="108"/>
-      <c r="N45" s="107"/>
-      <c r="O45" s="104" t="s">
-        <v>156</v>
-      </c>
-      <c r="P45" s="90"/>
-    </row>
-    <row r="46" spans="2:16" s="30" customFormat="1" ht="30" customHeight="1">
+      <c r="M45" s="99"/>
+      <c r="N45" s="98"/>
+      <c r="O45" s="95" t="s">
+        <v>155</v>
+      </c>
+      <c r="P45" s="81"/>
+    </row>
+    <row r="46" spans="2:19" s="30" customFormat="1" ht="30" customHeight="1">
       <c r="B46" s="31">
         <v>39</v>
       </c>
       <c r="C46" s="75" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D46" s="39" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E46" s="39" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F46" s="39"/>
       <c r="G46" s="39"/>
@@ -3836,22 +3884,22 @@
       <c r="M46" s="40"/>
       <c r="N46" s="39"/>
       <c r="O46" s="26" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="P46" s="73"/>
     </row>
-    <row r="47" spans="2:16" s="30" customFormat="1" ht="30" customHeight="1">
+    <row r="47" spans="2:19" s="30" customFormat="1" ht="30" customHeight="1">
       <c r="B47" s="31">
         <v>40</v>
       </c>
       <c r="C47" s="75" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D47" s="39" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E47" s="39" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F47" s="39"/>
       <c r="G47" s="39"/>
@@ -3867,51 +3915,51 @@
       <c r="M47" s="40"/>
       <c r="N47" s="39"/>
       <c r="O47" s="26" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="P47" s="73"/>
     </row>
-    <row r="48" spans="2:16" s="99" customFormat="1" ht="30" customHeight="1">
-      <c r="B48" s="100">
+    <row r="48" spans="2:19" s="90" customFormat="1" ht="30" customHeight="1">
+      <c r="B48" s="91">
         <v>41</v>
       </c>
-      <c r="C48" s="107" t="s">
-        <v>224</v>
-      </c>
-      <c r="D48" s="101" t="s">
-        <v>204</v>
-      </c>
-      <c r="E48" s="107" t="s">
-        <v>160</v>
-      </c>
-      <c r="F48" s="107"/>
-      <c r="G48" s="107"/>
-      <c r="H48" s="107"/>
-      <c r="I48" s="102">
+      <c r="C48" s="98" t="s">
+        <v>222</v>
+      </c>
+      <c r="D48" s="92" t="s">
+        <v>202</v>
+      </c>
+      <c r="E48" s="98" t="s">
+        <v>159</v>
+      </c>
+      <c r="F48" s="98"/>
+      <c r="G48" s="98"/>
+      <c r="H48" s="98"/>
+      <c r="I48" s="93">
         <v>1</v>
       </c>
-      <c r="J48" s="107"/>
-      <c r="K48" s="107"/>
-      <c r="L48" s="108" t="s">
+      <c r="J48" s="98"/>
+      <c r="K48" s="98"/>
+      <c r="L48" s="99" t="s">
         <v>59</v>
       </c>
-      <c r="M48" s="108"/>
-      <c r="N48" s="107"/>
-      <c r="O48" s="104" t="s">
-        <v>156</v>
-      </c>
-      <c r="P48" s="90"/>
-    </row>
-    <row r="49" spans="2:16" s="49" customFormat="1" ht="30">
+      <c r="M48" s="99"/>
+      <c r="N48" s="98"/>
+      <c r="O48" s="95" t="s">
+        <v>155</v>
+      </c>
+      <c r="P48" s="81"/>
+    </row>
+    <row r="49" spans="2:18" s="49" customFormat="1" ht="30">
       <c r="B49" s="27">
         <v>43</v>
       </c>
       <c r="C49" s="59" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D49" s="59"/>
       <c r="E49" s="59" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F49" s="59"/>
       <c r="G49" s="59"/>
@@ -3923,16 +3971,19 @@
       <c r="M49" s="28"/>
       <c r="N49" s="59"/>
       <c r="O49" s="28" t="s">
-        <v>154</v>
+        <v>223</v>
       </c>
       <c r="P49" s="69"/>
-    </row>
-    <row r="50" spans="2:16" s="49" customFormat="1" ht="45">
+      <c r="R49" s="104">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="2:18" s="49" customFormat="1" ht="45">
       <c r="B50" s="27">
         <v>44</v>
       </c>
       <c r="C50" s="59" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D50" s="59"/>
       <c r="E50" s="59"/>
@@ -3946,16 +3997,21 @@
       <c r="M50" s="28"/>
       <c r="N50" s="59"/>
       <c r="O50" s="28" t="s">
-        <v>154</v>
-      </c>
-      <c r="P50" s="69"/>
-    </row>
-    <row r="51" spans="2:16" s="49" customFormat="1" ht="30">
+        <v>153</v>
+      </c>
+      <c r="P50" s="69" t="s">
+        <v>253</v>
+      </c>
+      <c r="R50" s="104">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="2:18" s="49" customFormat="1" ht="30">
       <c r="B51" s="27">
         <v>45</v>
       </c>
       <c r="C51" s="59" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D51" s="59"/>
       <c r="E51" s="59"/>
@@ -3969,20 +4025,23 @@
       <c r="M51" s="28"/>
       <c r="N51" s="59"/>
       <c r="O51" s="28" t="s">
-        <v>154</v>
+        <v>223</v>
       </c>
       <c r="P51" s="69"/>
-    </row>
-    <row r="52" spans="2:16" s="49" customFormat="1" ht="30">
+      <c r="R51" s="104">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="2:18" s="49" customFormat="1" ht="30">
       <c r="B52" s="27">
         <v>46</v>
       </c>
       <c r="C52" s="59" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D52" s="59"/>
       <c r="E52" s="59" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F52" s="59"/>
       <c r="G52" s="59"/>
@@ -3994,19 +4053,22 @@
       <c r="M52" s="28"/>
       <c r="N52" s="59"/>
       <c r="O52" s="28" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="P52" s="69"/>
-    </row>
-    <row r="53" spans="2:16" s="49" customFormat="1" ht="30">
+      <c r="R52" s="104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="2:18" s="49" customFormat="1" ht="30">
       <c r="B53" s="27">
         <v>47</v>
       </c>
       <c r="C53" s="59" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D53" s="59" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E53" s="59"/>
       <c r="F53" s="59"/>
@@ -4019,30 +4081,33 @@
       <c r="M53" s="28"/>
       <c r="N53" s="59"/>
       <c r="O53" s="28" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="P53" s="69"/>
-    </row>
-    <row r="54" spans="2:16" s="48" customFormat="1" ht="15">
+      <c r="R53" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="2:18" s="48" customFormat="1" ht="15">
       <c r="B54" s="6">
         <v>48</v>
       </c>
-      <c r="C54" s="109"/>
-      <c r="D54" s="109"/>
-      <c r="E54" s="109"/>
-      <c r="F54" s="109"/>
-      <c r="G54" s="109"/>
-      <c r="H54" s="109"/>
-      <c r="I54" s="109"/>
-      <c r="J54" s="109"/>
-      <c r="K54" s="109"/>
-      <c r="L54" s="109"/>
-      <c r="M54" s="109"/>
-      <c r="N54" s="109"/>
-      <c r="O54" s="109"/>
+      <c r="C54" s="100"/>
+      <c r="D54" s="100"/>
+      <c r="E54" s="100"/>
+      <c r="F54" s="100"/>
+      <c r="G54" s="100"/>
+      <c r="H54" s="100"/>
+      <c r="I54" s="100"/>
+      <c r="J54" s="100"/>
+      <c r="K54" s="100"/>
+      <c r="L54" s="100"/>
+      <c r="M54" s="100"/>
+      <c r="N54" s="100"/>
+      <c r="O54" s="100"/>
       <c r="P54" s="68"/>
     </row>
-    <row r="55" spans="2:16" s="48" customFormat="1" ht="15">
+    <row r="55" spans="2:18" s="48" customFormat="1" ht="15">
       <c r="B55" s="6"/>
       <c r="C55" s="80"/>
       <c r="D55" s="80"/>
@@ -4059,7 +4124,7 @@
       <c r="O55" s="76"/>
       <c r="P55" s="68"/>
     </row>
-    <row r="56" spans="2:16" s="48" customFormat="1" ht="15">
+    <row r="56" spans="2:18" s="48" customFormat="1" ht="15">
       <c r="B56" s="6"/>
       <c r="C56" s="80"/>
       <c r="D56" s="80"/>
@@ -4076,7 +4141,7 @@
       <c r="O56" s="76"/>
       <c r="P56" s="68"/>
     </row>
-    <row r="57" spans="2:16" s="48" customFormat="1" ht="15">
+    <row r="57" spans="2:18" s="48" customFormat="1" ht="15">
       <c r="B57" s="6"/>
       <c r="C57" s="80"/>
       <c r="D57" s="80"/>
@@ -4093,7 +4158,7 @@
       <c r="O57" s="76"/>
       <c r="P57" s="68"/>
     </row>
-    <row r="58" spans="2:16" s="48" customFormat="1" ht="15">
+    <row r="58" spans="2:18" s="48" customFormat="1" ht="15">
       <c r="B58" s="6"/>
       <c r="C58" s="80"/>
       <c r="D58" s="80"/>
@@ -4110,7 +4175,7 @@
       <c r="O58" s="76"/>
       <c r="P58" s="68"/>
     </row>
-    <row r="59" spans="2:16" s="48" customFormat="1" ht="15">
+    <row r="59" spans="2:18" s="48" customFormat="1" ht="15">
       <c r="B59" s="6"/>
       <c r="C59" s="80"/>
       <c r="D59" s="80"/>
@@ -4127,7 +4192,7 @@
       <c r="O59" s="76"/>
       <c r="P59" s="68"/>
     </row>
-    <row r="60" spans="2:16" ht="15.75" thickBot="1">
+    <row r="60" spans="2:18" ht="15.75" thickBot="1">
       <c r="B60" s="5"/>
       <c r="C60" s="64"/>
       <c r="D60" s="64"/>
@@ -4144,6 +4209,7 @@
       <c r="O60" s="65"/>
     </row>
   </sheetData>
+  <autoFilter ref="R2:R60"/>
   <mergeCells count="7">
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="N4:N5"/>

--- a/Documentation/Buglist.xlsx
+++ b/Documentation/Buglist.xlsx
@@ -12,7 +12,7 @@
     <sheet name="附录" sheetId="10" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Buglist!$R$2:$R$60</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Buglist!$O$2:$O$60</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -1144,10 +1144,6 @@
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
-    <t>具体流程还需要确认</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>都需要加什么需要确认</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
@@ -1173,6 +1169,10 @@
   </si>
   <si>
     <t>不再现</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要提供再现方式</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -2602,45 +2602,45 @@
       <c r="P11" s="70"/>
     </row>
     <row r="12" spans="2:16" s="48" customFormat="1" ht="60">
-      <c r="B12" s="6">
+      <c r="B12" s="19">
         <v>5</v>
       </c>
-      <c r="C12" s="57" t="s">
+      <c r="C12" s="55" t="s">
         <v>84</v>
       </c>
-      <c r="D12" s="57" t="s">
+      <c r="D12" s="55" t="s">
         <v>82</v>
       </c>
-      <c r="E12" s="57" t="s">
+      <c r="E12" s="55" t="s">
         <v>83</v>
       </c>
-      <c r="F12" s="57" t="s">
+      <c r="F12" s="55" t="s">
         <v>85</v>
       </c>
-      <c r="G12" s="57" t="s">
+      <c r="G12" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="H12" s="57" t="s">
+      <c r="H12" s="55" t="s">
         <v>87</v>
       </c>
-      <c r="I12" s="58">
+      <c r="I12" s="61">
         <v>1</v>
       </c>
-      <c r="J12" s="57" t="s">
+      <c r="J12" s="55" t="s">
         <v>93</v>
       </c>
-      <c r="K12" s="57" t="s">
+      <c r="K12" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="L12" s="7" t="s">
+      <c r="L12" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="M12" s="26" t="s">
+      <c r="M12" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="N12" s="57"/>
-      <c r="O12" s="26" t="s">
-        <v>153</v>
+      <c r="N12" s="55"/>
+      <c r="O12" s="20" t="s">
+        <v>155</v>
       </c>
       <c r="P12" s="68"/>
     </row>
@@ -3116,7 +3116,7 @@
         <v>18</v>
       </c>
       <c r="C25" s="59" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D25" s="59"/>
       <c r="E25" s="84" t="s">
@@ -3136,12 +3136,9 @@
       </c>
       <c r="N25" s="59"/>
       <c r="O25" s="28" t="s">
-        <v>153</v>
+        <v>223</v>
       </c>
       <c r="P25" s="69"/>
-      <c r="R25" s="49">
-        <v>1</v>
-      </c>
     </row>
     <row r="26" spans="2:18" s="62" customFormat="1" ht="90">
       <c r="B26" s="6">
@@ -3194,9 +3191,6 @@
         <v>223</v>
       </c>
       <c r="P27" s="69"/>
-      <c r="R27" s="49">
-        <v>2</v>
-      </c>
     </row>
     <row r="28" spans="2:18" s="88" customFormat="1" ht="30" customHeight="1">
       <c r="B28" s="85">
@@ -3234,9 +3228,7 @@
         <v>205</v>
       </c>
       <c r="P28" s="69"/>
-      <c r="R28" s="102">
-        <v>2</v>
-      </c>
+      <c r="R28" s="102"/>
     </row>
     <row r="29" spans="2:18" s="90" customFormat="1" ht="30" customHeight="1">
       <c r="B29" s="91">
@@ -3525,7 +3517,7 @@
         <v>205</v>
       </c>
       <c r="P36" s="52" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="R36" s="103">
         <v>2</v>
@@ -3684,7 +3676,7 @@
         <v>34</v>
       </c>
       <c r="C41" s="44" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D41" s="44" t="s">
         <v>231</v>
@@ -3712,17 +3704,13 @@
       <c r="M41" s="46"/>
       <c r="N41" s="44"/>
       <c r="O41" s="29" t="s">
-        <v>205</v>
-      </c>
-      <c r="P41" s="52" t="s">
-        <v>246</v>
-      </c>
-      <c r="R41" s="103">
-        <v>1</v>
-      </c>
-      <c r="S41" s="101" t="s">
-        <v>250</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="P41" s="101" t="s">
+        <v>249</v>
+      </c>
+      <c r="R41" s="103"/>
+      <c r="S41" s="101"/>
     </row>
     <row r="42" spans="2:19" s="42" customFormat="1" ht="30" customHeight="1">
       <c r="B42" s="43">
@@ -3959,7 +3947,7 @@
       </c>
       <c r="D49" s="59"/>
       <c r="E49" s="59" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F49" s="59"/>
       <c r="G49" s="59"/>
@@ -3974,9 +3962,7 @@
         <v>223</v>
       </c>
       <c r="P49" s="69"/>
-      <c r="R49" s="104">
-        <v>2</v>
-      </c>
+      <c r="R49" s="104"/>
     </row>
     <row r="50" spans="2:18" s="49" customFormat="1" ht="45">
       <c r="B50" s="27">
@@ -4000,11 +3986,9 @@
         <v>153</v>
       </c>
       <c r="P50" s="69" t="s">
-        <v>253</v>
-      </c>
-      <c r="R50" s="104">
-        <v>2</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="R50" s="104"/>
     </row>
     <row r="51" spans="2:18" s="49" customFormat="1" ht="30">
       <c r="B51" s="27">
@@ -4028,9 +4012,7 @@
         <v>223</v>
       </c>
       <c r="P51" s="69"/>
-      <c r="R51" s="104">
-        <v>2</v>
-      </c>
+      <c r="R51" s="104"/>
     </row>
     <row r="52" spans="2:18" s="49" customFormat="1" ht="30">
       <c r="B52" s="27">
@@ -4041,7 +4023,7 @@
       </c>
       <c r="D52" s="59"/>
       <c r="E52" s="59" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F52" s="59"/>
       <c r="G52" s="59"/>
@@ -4053,12 +4035,10 @@
       <c r="M52" s="28"/>
       <c r="N52" s="59"/>
       <c r="O52" s="28" t="s">
-        <v>153</v>
+        <v>223</v>
       </c>
       <c r="P52" s="69"/>
-      <c r="R52" s="104">
-        <v>1</v>
-      </c>
+      <c r="R52" s="104"/>
     </row>
     <row r="53" spans="2:18" s="49" customFormat="1" ht="30">
       <c r="B53" s="27">
@@ -4083,9 +4063,8 @@
       <c r="O53" s="28" t="s">
         <v>153</v>
       </c>
-      <c r="P53" s="69"/>
-      <c r="R53" s="49">
-        <v>1</v>
+      <c r="P53" s="69" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="54" spans="2:18" s="48" customFormat="1" ht="15">
@@ -4209,7 +4188,7 @@
       <c r="O60" s="65"/>
     </row>
   </sheetData>
-  <autoFilter ref="R2:R60"/>
+  <autoFilter ref="O2:O60"/>
   <mergeCells count="7">
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="N4:N5"/>
@@ -4224,7 +4203,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M7:M27 M49:M53 M55:M59">
       <formula1>"高,中,低"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O8:O37 O39:O52 O53">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O8:O37 O39:O53">
       <formula1>"Active,Resolve,Close"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L7:L53 L55:L59">

--- a/Documentation/Buglist.xlsx
+++ b/Documentation/Buglist.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="253">
   <si>
     <t>ID</t>
   </si>
@@ -1058,23 +1058,11 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>自动生成的规则需要确认</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要提供新模板</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>销售订单页面表格设置点击合同号后，程序崩溃</t>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>目前在计划排产界面，点击“计划”，其中只能修改3个日期和2个编号，在实际工作的流程中，在排产的同时，需要根据轴承的库存，修改起供应商。</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>蓝光把表定一下</t>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
@@ -1144,10 +1132,6 @@
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
-    <t>都需要加什么需要确认</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>在Add对话框中，各下拉列表和输入框保留上次输入的信息。</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
@@ -1172,8 +1156,61 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>需要提供再现方式</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <t>轴承</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前仅支持Y U S TA</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&amp;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">目前能够支持的：
+北京航天金羊;
+北京首都电梯厂;
+天津奥富特；
+沈阳博林特；
+苏州铃木
+台州富士
+台州浙奥
+沃克斯电梯
+浙江西尼
+浙江喜来登
+成都康力
+大连得利
+大众电梯
+德尔法电梯
+德森克
+东莞快意
+佛山住友富士
+江苏广日
+康力
+</t>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1356,7 +1393,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -1520,6 +1557,19 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1530,7 +1580,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1807,9 +1857,6 @@
     <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1860,6 +1907,12 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2218,9 +2271,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="B2:S60"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="O36" sqref="O36"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -2242,7 +2298,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" s="47" customFormat="1" ht="25.5">
-      <c r="B2" s="107"/>
+      <c r="B2" s="106"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -2258,8 +2314,8 @@
       <c r="O2" s="1"/>
       <c r="P2" s="66"/>
     </row>
-    <row r="3" spans="2:16" s="47" customFormat="1" ht="26.25" thickBot="1">
-      <c r="B3" s="108"/>
+    <row r="3" spans="2:16" s="47" customFormat="1" ht="26.25" hidden="1" thickBot="1">
+      <c r="B3" s="107"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
@@ -2275,37 +2331,37 @@
       <c r="O3" s="1"/>
       <c r="P3" s="66"/>
     </row>
-    <row r="4" spans="2:16" s="3" customFormat="1" ht="14.25">
-      <c r="B4" s="112" t="s">
+    <row r="4" spans="2:16" s="3" customFormat="1" ht="14.25" hidden="1">
+      <c r="B4" s="111" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="109" t="s">
+      <c r="C4" s="108" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="110"/>
-      <c r="E4" s="110"/>
-      <c r="F4" s="110"/>
-      <c r="G4" s="110"/>
-      <c r="H4" s="110"/>
-      <c r="I4" s="110"/>
-      <c r="J4" s="110"/>
-      <c r="K4" s="110"/>
-      <c r="L4" s="105" t="s">
+      <c r="D4" s="109"/>
+      <c r="E4" s="109"/>
+      <c r="F4" s="109"/>
+      <c r="G4" s="109"/>
+      <c r="H4" s="109"/>
+      <c r="I4" s="109"/>
+      <c r="J4" s="109"/>
+      <c r="K4" s="109"/>
+      <c r="L4" s="104" t="s">
         <v>22</v>
       </c>
-      <c r="M4" s="105" t="s">
+      <c r="M4" s="104" t="s">
         <v>10</v>
       </c>
-      <c r="N4" s="105" t="s">
+      <c r="N4" s="104" t="s">
         <v>45</v>
       </c>
-      <c r="O4" s="105" t="s">
+      <c r="O4" s="104" t="s">
         <v>151</v>
       </c>
       <c r="P4" s="67"/>
     </row>
-    <row r="5" spans="2:16" s="3" customFormat="1" ht="14.25">
-      <c r="B5" s="113"/>
+    <row r="5" spans="2:16" s="3" customFormat="1" ht="14.25" hidden="1">
+      <c r="B5" s="112"/>
       <c r="C5" s="10" t="s">
         <v>1</v>
       </c>
@@ -2333,13 +2389,13 @@
       <c r="K5" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="L5" s="111"/>
-      <c r="M5" s="106"/>
-      <c r="N5" s="106"/>
-      <c r="O5" s="106"/>
+      <c r="L5" s="110"/>
+      <c r="M5" s="105"/>
+      <c r="N5" s="105"/>
+      <c r="O5" s="105"/>
       <c r="P5" s="67"/>
     </row>
-    <row r="6" spans="2:16" s="8" customFormat="1" ht="90">
+    <row r="6" spans="2:16" s="8" customFormat="1" ht="90" hidden="1">
       <c r="B6" s="21" t="s">
         <v>11</v>
       </c>
@@ -2429,7 +2485,7 @@
       </c>
       <c r="P7" s="68"/>
     </row>
-    <row r="8" spans="2:16" s="8" customFormat="1" ht="90">
+    <row r="8" spans="2:16" s="8" customFormat="1" ht="90" hidden="1">
       <c r="B8" s="6">
         <v>1</v>
       </c>
@@ -2472,7 +2528,7 @@
       </c>
       <c r="P8" s="68"/>
     </row>
-    <row r="9" spans="2:16" s="48" customFormat="1" ht="60">
+    <row r="9" spans="2:16" s="48" customFormat="1" ht="60" hidden="1">
       <c r="B9" s="6">
         <v>2</v>
       </c>
@@ -2515,7 +2571,7 @@
       </c>
       <c r="P9" s="68"/>
     </row>
-    <row r="10" spans="2:16" s="41" customFormat="1" ht="165">
+    <row r="10" spans="2:16" s="41" customFormat="1" ht="165" hidden="1">
       <c r="B10" s="6">
         <v>3</v>
       </c>
@@ -2558,7 +2614,7 @@
       </c>
       <c r="P10" s="81"/>
     </row>
-    <row r="11" spans="2:16" s="9" customFormat="1" ht="105">
+    <row r="11" spans="2:16" s="9" customFormat="1" ht="105" hidden="1">
       <c r="B11" s="19">
         <v>4</v>
       </c>
@@ -2601,7 +2657,7 @@
       </c>
       <c r="P11" s="70"/>
     </row>
-    <row r="12" spans="2:16" s="48" customFormat="1" ht="60">
+    <row r="12" spans="2:16" s="48" customFormat="1" ht="60" hidden="1">
       <c r="B12" s="19">
         <v>5</v>
       </c>
@@ -2644,7 +2700,7 @@
       </c>
       <c r="P12" s="68"/>
     </row>
-    <row r="13" spans="2:16" s="62" customFormat="1" ht="120">
+    <row r="13" spans="2:16" s="62" customFormat="1" ht="120" hidden="1">
       <c r="B13" s="6">
         <v>6</v>
       </c>
@@ -2687,7 +2743,7 @@
       </c>
       <c r="P13" s="81"/>
     </row>
-    <row r="14" spans="2:16" s="62" customFormat="1" ht="120">
+    <row r="14" spans="2:16" s="62" customFormat="1" ht="120" hidden="1">
       <c r="B14" s="6">
         <v>7</v>
       </c>
@@ -2730,7 +2786,7 @@
       </c>
       <c r="P14" s="81"/>
     </row>
-    <row r="15" spans="2:16" s="63" customFormat="1" ht="90">
+    <row r="15" spans="2:16" s="63" customFormat="1" ht="90" hidden="1">
       <c r="B15" s="6">
         <v>8</v>
       </c>
@@ -2773,7 +2829,7 @@
       </c>
       <c r="P15" s="82"/>
     </row>
-    <row r="16" spans="2:16" ht="90">
+    <row r="16" spans="2:16" ht="90" hidden="1">
       <c r="B16" s="19">
         <v>9</v>
       </c>
@@ -2815,7 +2871,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="17" spans="2:18" s="48" customFormat="1" ht="75">
+    <row r="17" spans="2:18" s="48" customFormat="1" ht="75" hidden="1">
       <c r="B17" s="19">
         <v>10</v>
       </c>
@@ -2858,7 +2914,7 @@
       </c>
       <c r="P17" s="68"/>
     </row>
-    <row r="18" spans="2:18" s="62" customFormat="1" ht="90">
+    <row r="18" spans="2:18" s="62" customFormat="1" ht="90" hidden="1">
       <c r="B18" s="6">
         <v>11</v>
       </c>
@@ -2901,7 +2957,7 @@
       </c>
       <c r="P18" s="81"/>
     </row>
-    <row r="19" spans="2:18" s="48" customFormat="1" ht="75">
+    <row r="19" spans="2:18" s="48" customFormat="1" ht="75" hidden="1">
       <c r="B19" s="19">
         <v>12</v>
       </c>
@@ -2944,7 +3000,7 @@
       </c>
       <c r="P19" s="68"/>
     </row>
-    <row r="20" spans="2:18" s="48" customFormat="1" ht="90">
+    <row r="20" spans="2:18" s="48" customFormat="1" ht="90" hidden="1">
       <c r="B20" s="19">
         <v>13</v>
       </c>
@@ -2987,7 +3043,7 @@
       </c>
       <c r="P20" s="68"/>
     </row>
-    <row r="21" spans="2:18" s="62" customFormat="1" ht="165">
+    <row r="21" spans="2:18" s="62" customFormat="1" ht="165" hidden="1">
       <c r="B21" s="6">
         <v>14</v>
       </c>
@@ -3030,7 +3086,7 @@
       </c>
       <c r="P21" s="81"/>
     </row>
-    <row r="22" spans="2:18" s="62" customFormat="1" ht="45">
+    <row r="22" spans="2:18" s="62" customFormat="1" ht="45" hidden="1">
       <c r="B22" s="6">
         <v>15</v>
       </c>
@@ -3057,7 +3113,7 @@
       </c>
       <c r="P22" s="81"/>
     </row>
-    <row r="23" spans="2:18" s="62" customFormat="1" ht="30">
+    <row r="23" spans="2:18" s="62" customFormat="1" ht="30" hidden="1">
       <c r="B23" s="6">
         <v>16</v>
       </c>
@@ -3084,7 +3140,7 @@
       </c>
       <c r="P23" s="81"/>
     </row>
-    <row r="24" spans="2:18" s="62" customFormat="1" ht="90">
+    <row r="24" spans="2:18" s="62" customFormat="1" ht="90" hidden="1">
       <c r="B24" s="6">
         <v>17</v>
       </c>
@@ -3111,16 +3167,16 @@
       </c>
       <c r="P24" s="81"/>
     </row>
-    <row r="25" spans="2:18" s="49" customFormat="1" ht="45">
+    <row r="25" spans="2:18" s="49" customFormat="1" ht="45" hidden="1">
       <c r="B25" s="27">
         <v>18</v>
       </c>
       <c r="C25" s="59" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="D25" s="59"/>
       <c r="E25" s="84" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F25" s="59"/>
       <c r="G25" s="59"/>
@@ -3140,7 +3196,7 @@
       </c>
       <c r="P25" s="69"/>
     </row>
-    <row r="26" spans="2:18" s="62" customFormat="1" ht="90">
+    <row r="26" spans="2:18" s="62" customFormat="1" ht="90" hidden="1">
       <c r="B26" s="6">
         <v>19</v>
       </c>
@@ -3167,7 +3223,7 @@
       </c>
       <c r="P26" s="81"/>
     </row>
-    <row r="27" spans="2:18" s="49" customFormat="1" ht="60">
+    <row r="27" spans="2:18" s="49" customFormat="1" ht="60" hidden="1">
       <c r="B27" s="27">
         <v>20</v>
       </c>
@@ -3176,7 +3232,7 @@
       </c>
       <c r="D27" s="59"/>
       <c r="E27" s="59" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F27" s="59"/>
       <c r="G27" s="59"/>
@@ -3197,13 +3253,13 @@
         <v>21</v>
       </c>
       <c r="C28" s="83" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D28" s="83" t="s">
         <v>158</v>
       </c>
       <c r="E28" s="89" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="F28" s="83" t="s">
         <v>160</v>
@@ -3227,10 +3283,12 @@
       <c r="O28" s="28" t="s">
         <v>205</v>
       </c>
-      <c r="P28" s="69"/>
-      <c r="R28" s="102"/>
-    </row>
-    <row r="29" spans="2:18" s="90" customFormat="1" ht="30" customHeight="1">
+      <c r="P28" s="69" t="s">
+        <v>248</v>
+      </c>
+      <c r="R28" s="101"/>
+    </row>
+    <row r="29" spans="2:18" s="90" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="B29" s="91">
         <v>22</v>
       </c>
@@ -3267,7 +3325,7 @@
       </c>
       <c r="P29" s="81"/>
     </row>
-    <row r="30" spans="2:18" s="90" customFormat="1" ht="30" customHeight="1">
+    <row r="30" spans="2:18" s="90" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="B30" s="91">
         <v>23</v>
       </c>
@@ -3304,7 +3362,7 @@
       </c>
       <c r="P30" s="81"/>
     </row>
-    <row r="31" spans="2:18" s="35" customFormat="1" ht="30" customHeight="1">
+    <row r="31" spans="2:18" s="35" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="B31" s="31">
         <v>24</v>
       </c>
@@ -3341,7 +3399,7 @@
       </c>
       <c r="P31" s="72"/>
     </row>
-    <row r="32" spans="2:18" s="30" customFormat="1" ht="30" customHeight="1">
+    <row r="32" spans="2:18" s="30" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="B32" s="31">
         <v>25</v>
       </c>
@@ -3374,7 +3432,7 @@
       </c>
       <c r="P32" s="73"/>
     </row>
-    <row r="33" spans="2:19" s="30" customFormat="1" ht="30" customHeight="1">
+    <row r="33" spans="2:19" s="30" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="B33" s="31">
         <v>26</v>
       </c>
@@ -3407,7 +3465,7 @@
       </c>
       <c r="P33" s="73"/>
     </row>
-    <row r="34" spans="2:19" s="51" customFormat="1" ht="30" customHeight="1">
+    <row r="34" spans="2:19" s="51" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="B34" s="31">
         <v>27</v>
       </c>
@@ -3444,7 +3502,7 @@
       </c>
       <c r="P34" s="74"/>
     </row>
-    <row r="35" spans="2:19" s="51" customFormat="1" ht="30" customHeight="1">
+    <row r="35" spans="2:19" s="51" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="B35" s="31">
         <v>28</v>
       </c>
@@ -3481,20 +3539,20 @@
       </c>
       <c r="P35" s="74"/>
     </row>
-    <row r="36" spans="2:19" s="42" customFormat="1" ht="30" customHeight="1">
-      <c r="B36" s="43">
+    <row r="36" spans="2:19" s="88" customFormat="1" ht="30" customHeight="1">
+      <c r="B36" s="85">
         <v>29</v>
       </c>
-      <c r="C36" s="44" t="s">
+      <c r="C36" s="83" t="s">
         <v>214</v>
       </c>
-      <c r="D36" s="44" t="s">
-        <v>228</v>
-      </c>
-      <c r="E36" s="96" t="s">
-        <v>245</v>
-      </c>
-      <c r="F36" s="44" t="s">
+      <c r="D36" s="83" t="s">
+        <v>226</v>
+      </c>
+      <c r="E36" s="113" t="s">
+        <v>242</v>
+      </c>
+      <c r="F36" s="83" t="s">
         <v>159</v>
       </c>
       <c r="G36" s="44" t="s">
@@ -3513,30 +3571,30 @@
       </c>
       <c r="M36" s="46"/>
       <c r="N36" s="44"/>
-      <c r="O36" s="29" t="s">
+      <c r="O36" s="28" t="s">
         <v>205</v>
       </c>
-      <c r="P36" s="52" t="s">
-        <v>246</v>
-      </c>
-      <c r="R36" s="103">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="2:19" s="42" customFormat="1" ht="30" customHeight="1">
-      <c r="B37" s="43">
+      <c r="P36" s="69" t="s">
+        <v>249</v>
+      </c>
+      <c r="R36" s="103" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" s="88" customFormat="1" ht="30" customHeight="1">
+      <c r="B37" s="85">
         <v>30</v>
       </c>
-      <c r="C37" s="44" t="s">
+      <c r="C37" s="83" t="s">
         <v>186</v>
       </c>
-      <c r="D37" s="44" t="s">
+      <c r="D37" s="83" t="s">
         <v>187</v>
       </c>
-      <c r="E37" s="97" t="s">
-        <v>229</v>
-      </c>
-      <c r="F37" s="44" t="s">
+      <c r="E37" s="89" t="s">
+        <v>252</v>
+      </c>
+      <c r="F37" s="83" t="s">
         <v>176</v>
       </c>
       <c r="G37" s="44" t="s">
@@ -3555,15 +3613,15 @@
       </c>
       <c r="M37" s="46"/>
       <c r="N37" s="44"/>
-      <c r="O37" s="29" t="s">
-        <v>153</v>
-      </c>
-      <c r="P37" s="52"/>
-      <c r="R37" s="103">
+      <c r="O37" s="28" t="s">
+        <v>223</v>
+      </c>
+      <c r="P37" s="69"/>
+      <c r="R37" s="101">
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="2:19" s="30" customFormat="1" ht="30" customHeight="1">
+    <row r="38" spans="2:19" s="30" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="B38" s="31">
         <v>31</v>
       </c>
@@ -3608,8 +3666,8 @@
       <c r="D39" s="44" t="s">
         <v>216</v>
       </c>
-      <c r="E39" s="97" t="s">
-        <v>237</v>
+      <c r="E39" s="96" t="s">
+        <v>234</v>
       </c>
       <c r="F39" s="44" t="s">
         <v>159</v>
@@ -3630,17 +3688,11 @@
       </c>
       <c r="M39" s="46"/>
       <c r="N39" s="44"/>
-      <c r="O39" s="29" t="s">
-        <v>205</v>
-      </c>
-      <c r="P39" s="52" t="s">
-        <v>225</v>
-      </c>
-      <c r="R39" s="103">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="2:19" s="30" customFormat="1" ht="30" customHeight="1">
+      <c r="O39" s="29"/>
+      <c r="P39" s="52"/>
+      <c r="R39" s="102"/>
+    </row>
+    <row r="40" spans="2:19" s="30" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="B40" s="31">
         <v>33</v>
       </c>
@@ -3671,18 +3723,18 @@
       </c>
       <c r="P40" s="73"/>
     </row>
-    <row r="41" spans="2:19" s="42" customFormat="1" ht="30" customHeight="1">
+    <row r="41" spans="2:19" s="42" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="B41" s="43">
         <v>34</v>
       </c>
       <c r="C41" s="44" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="D41" s="44" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E41" s="44" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F41" s="44" t="s">
         <v>217</v>
@@ -3706,24 +3758,24 @@
       <c r="O41" s="29" t="s">
         <v>223</v>
       </c>
-      <c r="P41" s="101" t="s">
-        <v>249</v>
-      </c>
-      <c r="R41" s="103"/>
-      <c r="S41" s="101"/>
+      <c r="P41" s="100" t="s">
+        <v>245</v>
+      </c>
+      <c r="R41" s="102"/>
+      <c r="S41" s="100"/>
     </row>
     <row r="42" spans="2:19" s="42" customFormat="1" ht="30" customHeight="1">
       <c r="B42" s="43">
         <v>35</v>
       </c>
       <c r="C42" s="44" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D42" s="44" t="s">
         <v>200</v>
       </c>
       <c r="E42" s="44" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F42" s="44" t="s">
         <v>159</v>
@@ -3742,17 +3794,11 @@
       </c>
       <c r="M42" s="46"/>
       <c r="N42" s="44"/>
-      <c r="O42" s="29" t="s">
-        <v>205</v>
-      </c>
-      <c r="P42" s="52" t="s">
-        <v>226</v>
-      </c>
-      <c r="R42" s="103">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="2:19" s="30" customFormat="1" ht="30" customHeight="1">
+      <c r="O42" s="29"/>
+      <c r="P42" s="52"/>
+      <c r="R42" s="102"/>
+    </row>
+    <row r="43" spans="2:19" s="30" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="B43" s="31">
         <v>36</v>
       </c>
@@ -3783,7 +3829,7 @@
       </c>
       <c r="P43" s="73"/>
     </row>
-    <row r="44" spans="2:19" s="30" customFormat="1" ht="30" customHeight="1">
+    <row r="44" spans="2:19" s="30" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="B44" s="31">
         <v>37</v>
       </c>
@@ -3814,38 +3860,38 @@
       </c>
       <c r="P44" s="73"/>
     </row>
-    <row r="45" spans="2:19" s="90" customFormat="1" ht="30" customHeight="1">
+    <row r="45" spans="2:19" s="90" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="B45" s="91">
         <v>38</v>
       </c>
-      <c r="C45" s="98" t="s">
+      <c r="C45" s="97" t="s">
         <v>161</v>
       </c>
-      <c r="D45" s="98" t="s">
-        <v>235</v>
-      </c>
-      <c r="E45" s="98" t="s">
+      <c r="D45" s="97" t="s">
+        <v>232</v>
+      </c>
+      <c r="E45" s="97" t="s">
         <v>176</v>
       </c>
-      <c r="F45" s="98"/>
-      <c r="G45" s="98"/>
-      <c r="H45" s="98"/>
+      <c r="F45" s="97"/>
+      <c r="G45" s="97"/>
+      <c r="H45" s="97"/>
       <c r="I45" s="93">
         <v>1</v>
       </c>
-      <c r="J45" s="98"/>
-      <c r="K45" s="98"/>
-      <c r="L45" s="99" t="s">
+      <c r="J45" s="97"/>
+      <c r="K45" s="97"/>
+      <c r="L45" s="98" t="s">
         <v>59</v>
       </c>
-      <c r="M45" s="99"/>
-      <c r="N45" s="98"/>
+      <c r="M45" s="98"/>
+      <c r="N45" s="97"/>
       <c r="O45" s="95" t="s">
         <v>155</v>
       </c>
       <c r="P45" s="81"/>
     </row>
-    <row r="46" spans="2:19" s="30" customFormat="1" ht="30" customHeight="1">
+    <row r="46" spans="2:19" s="30" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="B46" s="31">
         <v>39</v>
       </c>
@@ -3876,7 +3922,7 @@
       </c>
       <c r="P46" s="73"/>
     </row>
-    <row r="47" spans="2:19" s="30" customFormat="1" ht="30" customHeight="1">
+    <row r="47" spans="2:19" s="30" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="B47" s="31">
         <v>40</v>
       </c>
@@ -3907,47 +3953,47 @@
       </c>
       <c r="P47" s="73"/>
     </row>
-    <row r="48" spans="2:19" s="90" customFormat="1" ht="30" customHeight="1">
+    <row r="48" spans="2:19" s="90" customFormat="1" ht="30" hidden="1" customHeight="1">
       <c r="B48" s="91">
         <v>41</v>
       </c>
-      <c r="C48" s="98" t="s">
+      <c r="C48" s="97" t="s">
         <v>222</v>
       </c>
       <c r="D48" s="92" t="s">
         <v>202</v>
       </c>
-      <c r="E48" s="98" t="s">
+      <c r="E48" s="97" t="s">
         <v>159</v>
       </c>
-      <c r="F48" s="98"/>
-      <c r="G48" s="98"/>
-      <c r="H48" s="98"/>
+      <c r="F48" s="97"/>
+      <c r="G48" s="97"/>
+      <c r="H48" s="97"/>
       <c r="I48" s="93">
         <v>1</v>
       </c>
-      <c r="J48" s="98"/>
-      <c r="K48" s="98"/>
-      <c r="L48" s="99" t="s">
+      <c r="J48" s="97"/>
+      <c r="K48" s="97"/>
+      <c r="L48" s="98" t="s">
         <v>59</v>
       </c>
-      <c r="M48" s="99"/>
-      <c r="N48" s="98"/>
+      <c r="M48" s="98"/>
+      <c r="N48" s="97"/>
       <c r="O48" s="95" t="s">
         <v>155</v>
       </c>
       <c r="P48" s="81"/>
     </row>
-    <row r="49" spans="2:18" s="49" customFormat="1" ht="30">
+    <row r="49" spans="2:18" s="49" customFormat="1" ht="30" hidden="1">
       <c r="B49" s="27">
         <v>43</v>
       </c>
       <c r="C49" s="59" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D49" s="59"/>
       <c r="E49" s="59" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="F49" s="59"/>
       <c r="G49" s="59"/>
@@ -3962,14 +4008,14 @@
         <v>223</v>
       </c>
       <c r="P49" s="69"/>
-      <c r="R49" s="104"/>
+      <c r="R49" s="103"/>
     </row>
     <row r="50" spans="2:18" s="49" customFormat="1" ht="45">
       <c r="B50" s="27">
         <v>44</v>
       </c>
       <c r="C50" s="59" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D50" s="59"/>
       <c r="E50" s="59"/>
@@ -3986,16 +4032,16 @@
         <v>153</v>
       </c>
       <c r="P50" s="69" t="s">
-        <v>252</v>
-      </c>
-      <c r="R50" s="104"/>
-    </row>
-    <row r="51" spans="2:18" s="49" customFormat="1" ht="30">
+        <v>248</v>
+      </c>
+      <c r="R50" s="103"/>
+    </row>
+    <row r="51" spans="2:18" s="49" customFormat="1" ht="30" hidden="1">
       <c r="B51" s="27">
         <v>45</v>
       </c>
       <c r="C51" s="59" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D51" s="59"/>
       <c r="E51" s="59"/>
@@ -4012,18 +4058,18 @@
         <v>223</v>
       </c>
       <c r="P51" s="69"/>
-      <c r="R51" s="104"/>
-    </row>
-    <row r="52" spans="2:18" s="49" customFormat="1" ht="30">
+      <c r="R51" s="103"/>
+    </row>
+    <row r="52" spans="2:18" s="49" customFormat="1" ht="30" hidden="1">
       <c r="B52" s="27">
         <v>46</v>
       </c>
       <c r="C52" s="59" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D52" s="59"/>
       <c r="E52" s="59" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="F52" s="59"/>
       <c r="G52" s="59"/>
@@ -4038,20 +4084,22 @@
         <v>223</v>
       </c>
       <c r="P52" s="69"/>
-      <c r="R52" s="104"/>
-    </row>
-    <row r="53" spans="2:18" s="49" customFormat="1" ht="30">
-      <c r="B53" s="27">
+      <c r="R52" s="103"/>
+    </row>
+    <row r="53" spans="2:18" s="62" customFormat="1" ht="30">
+      <c r="B53" s="7">
         <v>47</v>
       </c>
-      <c r="C53" s="59" t="s">
-        <v>241</v>
-      </c>
-      <c r="D53" s="59" t="s">
-        <v>242</v>
-      </c>
-      <c r="E53" s="59"/>
-      <c r="F53" s="59"/>
+      <c r="C53" s="57" t="s">
+        <v>238</v>
+      </c>
+      <c r="D53" s="57" t="s">
+        <v>239</v>
+      </c>
+      <c r="E53" s="57" t="s">
+        <v>250</v>
+      </c>
+      <c r="F53" s="57"/>
       <c r="G53" s="59"/>
       <c r="H53" s="59"/>
       <c r="I53" s="60"/>
@@ -4059,34 +4107,32 @@
       <c r="K53" s="59"/>
       <c r="L53" s="28"/>
       <c r="M53" s="28"/>
-      <c r="N53" s="59"/>
-      <c r="O53" s="28" t="s">
-        <v>153</v>
-      </c>
-      <c r="P53" s="69" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="54" spans="2:18" s="48" customFormat="1" ht="15">
+      <c r="N53" s="114"/>
+      <c r="O53" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="P53" s="81"/>
+    </row>
+    <row r="54" spans="2:18" s="48" customFormat="1" ht="15" hidden="1">
       <c r="B54" s="6">
         <v>48</v>
       </c>
-      <c r="C54" s="100"/>
-      <c r="D54" s="100"/>
-      <c r="E54" s="100"/>
-      <c r="F54" s="100"/>
-      <c r="G54" s="100"/>
-      <c r="H54" s="100"/>
-      <c r="I54" s="100"/>
-      <c r="J54" s="100"/>
-      <c r="K54" s="100"/>
-      <c r="L54" s="100"/>
-      <c r="M54" s="100"/>
-      <c r="N54" s="100"/>
-      <c r="O54" s="100"/>
+      <c r="C54" s="99"/>
+      <c r="D54" s="99"/>
+      <c r="E54" s="99"/>
+      <c r="F54" s="99"/>
+      <c r="G54" s="99"/>
+      <c r="H54" s="99"/>
+      <c r="I54" s="99"/>
+      <c r="J54" s="99"/>
+      <c r="K54" s="99"/>
+      <c r="L54" s="99"/>
+      <c r="M54" s="99"/>
+      <c r="N54" s="99"/>
+      <c r="O54" s="99"/>
       <c r="P54" s="68"/>
     </row>
-    <row r="55" spans="2:18" s="48" customFormat="1" ht="15">
+    <row r="55" spans="2:18" s="48" customFormat="1" ht="15" hidden="1">
       <c r="B55" s="6"/>
       <c r="C55" s="80"/>
       <c r="D55" s="80"/>
@@ -4103,7 +4149,7 @@
       <c r="O55" s="76"/>
       <c r="P55" s="68"/>
     </row>
-    <row r="56" spans="2:18" s="48" customFormat="1" ht="15">
+    <row r="56" spans="2:18" s="48" customFormat="1" ht="15" hidden="1">
       <c r="B56" s="6"/>
       <c r="C56" s="80"/>
       <c r="D56" s="80"/>
@@ -4120,7 +4166,7 @@
       <c r="O56" s="76"/>
       <c r="P56" s="68"/>
     </row>
-    <row r="57" spans="2:18" s="48" customFormat="1" ht="15">
+    <row r="57" spans="2:18" s="48" customFormat="1" ht="15" hidden="1">
       <c r="B57" s="6"/>
       <c r="C57" s="80"/>
       <c r="D57" s="80"/>
@@ -4137,7 +4183,7 @@
       <c r="O57" s="76"/>
       <c r="P57" s="68"/>
     </row>
-    <row r="58" spans="2:18" s="48" customFormat="1" ht="15">
+    <row r="58" spans="2:18" s="48" customFormat="1" ht="15" hidden="1">
       <c r="B58" s="6"/>
       <c r="C58" s="80"/>
       <c r="D58" s="80"/>
@@ -4154,7 +4200,7 @@
       <c r="O58" s="76"/>
       <c r="P58" s="68"/>
     </row>
-    <row r="59" spans="2:18" s="48" customFormat="1" ht="15">
+    <row r="59" spans="2:18" s="48" customFormat="1" ht="15" hidden="1">
       <c r="B59" s="6"/>
       <c r="C59" s="80"/>
       <c r="D59" s="80"/>
@@ -4171,7 +4217,7 @@
       <c r="O59" s="76"/>
       <c r="P59" s="68"/>
     </row>
-    <row r="60" spans="2:18" ht="15.75" thickBot="1">
+    <row r="60" spans="2:18" ht="15.75" hidden="1" thickBot="1">
       <c r="B60" s="5"/>
       <c r="C60" s="64"/>
       <c r="D60" s="64"/>
@@ -4188,7 +4234,13 @@
       <c r="O60" s="65"/>
     </row>
   </sheetData>
-  <autoFilter ref="O2:O60"/>
+  <autoFilter ref="O2:O60">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Active"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="7">
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="N4:N5"/>

--- a/Documentation/Buglist.xlsx
+++ b/Documentation/Buglist.xlsx
@@ -1881,6 +1881,12 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1907,12 +1913,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2271,12 +2271,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="B2:S60"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="O36" sqref="O36"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -2298,7 +2295,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" s="47" customFormat="1" ht="25.5">
-      <c r="B2" s="106"/>
+      <c r="B2" s="108"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -2314,8 +2311,8 @@
       <c r="O2" s="1"/>
       <c r="P2" s="66"/>
     </row>
-    <row r="3" spans="2:16" s="47" customFormat="1" ht="26.25" hidden="1" thickBot="1">
-      <c r="B3" s="107"/>
+    <row r="3" spans="2:16" s="47" customFormat="1" ht="26.25" thickBot="1">
+      <c r="B3" s="109"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
@@ -2331,37 +2328,37 @@
       <c r="O3" s="1"/>
       <c r="P3" s="66"/>
     </row>
-    <row r="4" spans="2:16" s="3" customFormat="1" ht="14.25" hidden="1">
-      <c r="B4" s="111" t="s">
+    <row r="4" spans="2:16" s="3" customFormat="1" ht="14.25">
+      <c r="B4" s="113" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="108" t="s">
+      <c r="C4" s="110" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="109"/>
-      <c r="E4" s="109"/>
-      <c r="F4" s="109"/>
-      <c r="G4" s="109"/>
-      <c r="H4" s="109"/>
-      <c r="I4" s="109"/>
-      <c r="J4" s="109"/>
-      <c r="K4" s="109"/>
-      <c r="L4" s="104" t="s">
+      <c r="D4" s="111"/>
+      <c r="E4" s="111"/>
+      <c r="F4" s="111"/>
+      <c r="G4" s="111"/>
+      <c r="H4" s="111"/>
+      <c r="I4" s="111"/>
+      <c r="J4" s="111"/>
+      <c r="K4" s="111"/>
+      <c r="L4" s="106" t="s">
         <v>22</v>
       </c>
-      <c r="M4" s="104" t="s">
+      <c r="M4" s="106" t="s">
         <v>10</v>
       </c>
-      <c r="N4" s="104" t="s">
+      <c r="N4" s="106" t="s">
         <v>45</v>
       </c>
-      <c r="O4" s="104" t="s">
+      <c r="O4" s="106" t="s">
         <v>151</v>
       </c>
       <c r="P4" s="67"/>
     </row>
-    <row r="5" spans="2:16" s="3" customFormat="1" ht="14.25" hidden="1">
-      <c r="B5" s="112"/>
+    <row r="5" spans="2:16" s="3" customFormat="1" ht="14.25">
+      <c r="B5" s="114"/>
       <c r="C5" s="10" t="s">
         <v>1</v>
       </c>
@@ -2389,13 +2386,13 @@
       <c r="K5" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="L5" s="110"/>
-      <c r="M5" s="105"/>
-      <c r="N5" s="105"/>
-      <c r="O5" s="105"/>
+      <c r="L5" s="112"/>
+      <c r="M5" s="107"/>
+      <c r="N5" s="107"/>
+      <c r="O5" s="107"/>
       <c r="P5" s="67"/>
     </row>
-    <row r="6" spans="2:16" s="8" customFormat="1" ht="90" hidden="1">
+    <row r="6" spans="2:16" s="8" customFormat="1" ht="90">
       <c r="B6" s="21" t="s">
         <v>11</v>
       </c>
@@ -2485,7 +2482,7 @@
       </c>
       <c r="P7" s="68"/>
     </row>
-    <row r="8" spans="2:16" s="8" customFormat="1" ht="90" hidden="1">
+    <row r="8" spans="2:16" s="8" customFormat="1" ht="90">
       <c r="B8" s="6">
         <v>1</v>
       </c>
@@ -2528,7 +2525,7 @@
       </c>
       <c r="P8" s="68"/>
     </row>
-    <row r="9" spans="2:16" s="48" customFormat="1" ht="60" hidden="1">
+    <row r="9" spans="2:16" s="48" customFormat="1" ht="60">
       <c r="B9" s="6">
         <v>2</v>
       </c>
@@ -2571,7 +2568,7 @@
       </c>
       <c r="P9" s="68"/>
     </row>
-    <row r="10" spans="2:16" s="41" customFormat="1" ht="165" hidden="1">
+    <row r="10" spans="2:16" s="41" customFormat="1" ht="165">
       <c r="B10" s="6">
         <v>3</v>
       </c>
@@ -2614,7 +2611,7 @@
       </c>
       <c r="P10" s="81"/>
     </row>
-    <row r="11" spans="2:16" s="9" customFormat="1" ht="105" hidden="1">
+    <row r="11" spans="2:16" s="9" customFormat="1" ht="105">
       <c r="B11" s="19">
         <v>4</v>
       </c>
@@ -2657,7 +2654,7 @@
       </c>
       <c r="P11" s="70"/>
     </row>
-    <row r="12" spans="2:16" s="48" customFormat="1" ht="60" hidden="1">
+    <row r="12" spans="2:16" s="48" customFormat="1" ht="60">
       <c r="B12" s="19">
         <v>5</v>
       </c>
@@ -2700,7 +2697,7 @@
       </c>
       <c r="P12" s="68"/>
     </row>
-    <row r="13" spans="2:16" s="62" customFormat="1" ht="120" hidden="1">
+    <row r="13" spans="2:16" s="62" customFormat="1" ht="120">
       <c r="B13" s="6">
         <v>6</v>
       </c>
@@ -2743,7 +2740,7 @@
       </c>
       <c r="P13" s="81"/>
     </row>
-    <row r="14" spans="2:16" s="62" customFormat="1" ht="120" hidden="1">
+    <row r="14" spans="2:16" s="62" customFormat="1" ht="120">
       <c r="B14" s="6">
         <v>7</v>
       </c>
@@ -2786,7 +2783,7 @@
       </c>
       <c r="P14" s="81"/>
     </row>
-    <row r="15" spans="2:16" s="63" customFormat="1" ht="90" hidden="1">
+    <row r="15" spans="2:16" s="63" customFormat="1" ht="90">
       <c r="B15" s="6">
         <v>8</v>
       </c>
@@ -2829,7 +2826,7 @@
       </c>
       <c r="P15" s="82"/>
     </row>
-    <row r="16" spans="2:16" ht="90" hidden="1">
+    <row r="16" spans="2:16" ht="90">
       <c r="B16" s="19">
         <v>9</v>
       </c>
@@ -2871,7 +2868,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="17" spans="2:18" s="48" customFormat="1" ht="75" hidden="1">
+    <row r="17" spans="2:18" s="48" customFormat="1" ht="75">
       <c r="B17" s="19">
         <v>10</v>
       </c>
@@ -2914,7 +2911,7 @@
       </c>
       <c r="P17" s="68"/>
     </row>
-    <row r="18" spans="2:18" s="62" customFormat="1" ht="90" hidden="1">
+    <row r="18" spans="2:18" s="62" customFormat="1" ht="90">
       <c r="B18" s="6">
         <v>11</v>
       </c>
@@ -2957,7 +2954,7 @@
       </c>
       <c r="P18" s="81"/>
     </row>
-    <row r="19" spans="2:18" s="48" customFormat="1" ht="75" hidden="1">
+    <row r="19" spans="2:18" s="48" customFormat="1" ht="75">
       <c r="B19" s="19">
         <v>12</v>
       </c>
@@ -3000,7 +2997,7 @@
       </c>
       <c r="P19" s="68"/>
     </row>
-    <row r="20" spans="2:18" s="48" customFormat="1" ht="90" hidden="1">
+    <row r="20" spans="2:18" s="48" customFormat="1" ht="90">
       <c r="B20" s="19">
         <v>13</v>
       </c>
@@ -3043,7 +3040,7 @@
       </c>
       <c r="P20" s="68"/>
     </row>
-    <row r="21" spans="2:18" s="62" customFormat="1" ht="165" hidden="1">
+    <row r="21" spans="2:18" s="62" customFormat="1" ht="165">
       <c r="B21" s="6">
         <v>14</v>
       </c>
@@ -3086,7 +3083,7 @@
       </c>
       <c r="P21" s="81"/>
     </row>
-    <row r="22" spans="2:18" s="62" customFormat="1" ht="45" hidden="1">
+    <row r="22" spans="2:18" s="62" customFormat="1" ht="45">
       <c r="B22" s="6">
         <v>15</v>
       </c>
@@ -3113,7 +3110,7 @@
       </c>
       <c r="P22" s="81"/>
     </row>
-    <row r="23" spans="2:18" s="62" customFormat="1" ht="30" hidden="1">
+    <row r="23" spans="2:18" s="62" customFormat="1" ht="30">
       <c r="B23" s="6">
         <v>16</v>
       </c>
@@ -3140,7 +3137,7 @@
       </c>
       <c r="P23" s="81"/>
     </row>
-    <row r="24" spans="2:18" s="62" customFormat="1" ht="90" hidden="1">
+    <row r="24" spans="2:18" s="62" customFormat="1" ht="90">
       <c r="B24" s="6">
         <v>17</v>
       </c>
@@ -3167,7 +3164,7 @@
       </c>
       <c r="P24" s="81"/>
     </row>
-    <row r="25" spans="2:18" s="49" customFormat="1" ht="45" hidden="1">
+    <row r="25" spans="2:18" s="49" customFormat="1" ht="45">
       <c r="B25" s="27">
         <v>18</v>
       </c>
@@ -3196,7 +3193,7 @@
       </c>
       <c r="P25" s="69"/>
     </row>
-    <row r="26" spans="2:18" s="62" customFormat="1" ht="90" hidden="1">
+    <row r="26" spans="2:18" s="62" customFormat="1" ht="90">
       <c r="B26" s="6">
         <v>19</v>
       </c>
@@ -3223,7 +3220,7 @@
       </c>
       <c r="P26" s="81"/>
     </row>
-    <row r="27" spans="2:18" s="49" customFormat="1" ht="60" hidden="1">
+    <row r="27" spans="2:18" s="49" customFormat="1" ht="60">
       <c r="B27" s="27">
         <v>20</v>
       </c>
@@ -3288,7 +3285,7 @@
       </c>
       <c r="R28" s="101"/>
     </row>
-    <row r="29" spans="2:18" s="90" customFormat="1" ht="30" hidden="1" customHeight="1">
+    <row r="29" spans="2:18" s="90" customFormat="1" ht="30" customHeight="1">
       <c r="B29" s="91">
         <v>22</v>
       </c>
@@ -3325,7 +3322,7 @@
       </c>
       <c r="P29" s="81"/>
     </row>
-    <row r="30" spans="2:18" s="90" customFormat="1" ht="30" hidden="1" customHeight="1">
+    <row r="30" spans="2:18" s="90" customFormat="1" ht="30" customHeight="1">
       <c r="B30" s="91">
         <v>23</v>
       </c>
@@ -3362,7 +3359,7 @@
       </c>
       <c r="P30" s="81"/>
     </row>
-    <row r="31" spans="2:18" s="35" customFormat="1" ht="30" hidden="1" customHeight="1">
+    <row r="31" spans="2:18" s="35" customFormat="1" ht="30" customHeight="1">
       <c r="B31" s="31">
         <v>24</v>
       </c>
@@ -3399,7 +3396,7 @@
       </c>
       <c r="P31" s="72"/>
     </row>
-    <row r="32" spans="2:18" s="30" customFormat="1" ht="30" hidden="1" customHeight="1">
+    <row r="32" spans="2:18" s="30" customFormat="1" ht="30" customHeight="1">
       <c r="B32" s="31">
         <v>25</v>
       </c>
@@ -3432,7 +3429,7 @@
       </c>
       <c r="P32" s="73"/>
     </row>
-    <row r="33" spans="2:19" s="30" customFormat="1" ht="30" hidden="1" customHeight="1">
+    <row r="33" spans="2:19" s="30" customFormat="1" ht="30" customHeight="1">
       <c r="B33" s="31">
         <v>26</v>
       </c>
@@ -3465,7 +3462,7 @@
       </c>
       <c r="P33" s="73"/>
     </row>
-    <row r="34" spans="2:19" s="51" customFormat="1" ht="30" hidden="1" customHeight="1">
+    <row r="34" spans="2:19" s="51" customFormat="1" ht="30" customHeight="1">
       <c r="B34" s="31">
         <v>27</v>
       </c>
@@ -3502,7 +3499,7 @@
       </c>
       <c r="P34" s="74"/>
     </row>
-    <row r="35" spans="2:19" s="51" customFormat="1" ht="30" hidden="1" customHeight="1">
+    <row r="35" spans="2:19" s="51" customFormat="1" ht="30" customHeight="1">
       <c r="B35" s="31">
         <v>28</v>
       </c>
@@ -3549,7 +3546,7 @@
       <c r="D36" s="83" t="s">
         <v>226</v>
       </c>
-      <c r="E36" s="113" t="s">
+      <c r="E36" s="104" t="s">
         <v>242</v>
       </c>
       <c r="F36" s="83" t="s">
@@ -3572,7 +3569,7 @@
       <c r="M36" s="46"/>
       <c r="N36" s="44"/>
       <c r="O36" s="28" t="s">
-        <v>205</v>
+        <v>223</v>
       </c>
       <c r="P36" s="69" t="s">
         <v>249</v>
@@ -3621,7 +3618,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="2:19" s="30" customFormat="1" ht="30" hidden="1" customHeight="1">
+    <row r="38" spans="2:19" s="30" customFormat="1" ht="30" customHeight="1">
       <c r="B38" s="31">
         <v>31</v>
       </c>
@@ -3692,7 +3689,7 @@
       <c r="P39" s="52"/>
       <c r="R39" s="102"/>
     </row>
-    <row r="40" spans="2:19" s="30" customFormat="1" ht="30" hidden="1" customHeight="1">
+    <row r="40" spans="2:19" s="30" customFormat="1" ht="30" customHeight="1">
       <c r="B40" s="31">
         <v>33</v>
       </c>
@@ -3723,7 +3720,7 @@
       </c>
       <c r="P40" s="73"/>
     </row>
-    <row r="41" spans="2:19" s="42" customFormat="1" ht="30" hidden="1" customHeight="1">
+    <row r="41" spans="2:19" s="42" customFormat="1" ht="30" customHeight="1">
       <c r="B41" s="43">
         <v>34</v>
       </c>
@@ -3798,7 +3795,7 @@
       <c r="P42" s="52"/>
       <c r="R42" s="102"/>
     </row>
-    <row r="43" spans="2:19" s="30" customFormat="1" ht="30" hidden="1" customHeight="1">
+    <row r="43" spans="2:19" s="30" customFormat="1" ht="30" customHeight="1">
       <c r="B43" s="31">
         <v>36</v>
       </c>
@@ -3829,7 +3826,7 @@
       </c>
       <c r="P43" s="73"/>
     </row>
-    <row r="44" spans="2:19" s="30" customFormat="1" ht="30" hidden="1" customHeight="1">
+    <row r="44" spans="2:19" s="30" customFormat="1" ht="30" customHeight="1">
       <c r="B44" s="31">
         <v>37</v>
       </c>
@@ -3860,7 +3857,7 @@
       </c>
       <c r="P44" s="73"/>
     </row>
-    <row r="45" spans="2:19" s="90" customFormat="1" ht="30" hidden="1" customHeight="1">
+    <row r="45" spans="2:19" s="90" customFormat="1" ht="30" customHeight="1">
       <c r="B45" s="91">
         <v>38</v>
       </c>
@@ -3891,7 +3888,7 @@
       </c>
       <c r="P45" s="81"/>
     </row>
-    <row r="46" spans="2:19" s="30" customFormat="1" ht="30" hidden="1" customHeight="1">
+    <row r="46" spans="2:19" s="30" customFormat="1" ht="30" customHeight="1">
       <c r="B46" s="31">
         <v>39</v>
       </c>
@@ -3922,7 +3919,7 @@
       </c>
       <c r="P46" s="73"/>
     </row>
-    <row r="47" spans="2:19" s="30" customFormat="1" ht="30" hidden="1" customHeight="1">
+    <row r="47" spans="2:19" s="30" customFormat="1" ht="30" customHeight="1">
       <c r="B47" s="31">
         <v>40</v>
       </c>
@@ -3953,7 +3950,7 @@
       </c>
       <c r="P47" s="73"/>
     </row>
-    <row r="48" spans="2:19" s="90" customFormat="1" ht="30" hidden="1" customHeight="1">
+    <row r="48" spans="2:19" s="90" customFormat="1" ht="30" customHeight="1">
       <c r="B48" s="91">
         <v>41</v>
       </c>
@@ -3984,7 +3981,7 @@
       </c>
       <c r="P48" s="81"/>
     </row>
-    <row r="49" spans="2:18" s="49" customFormat="1" ht="30" hidden="1">
+    <row r="49" spans="2:18" s="49" customFormat="1" ht="30">
       <c r="B49" s="27">
         <v>43</v>
       </c>
@@ -4036,7 +4033,7 @@
       </c>
       <c r="R50" s="103"/>
     </row>
-    <row r="51" spans="2:18" s="49" customFormat="1" ht="30" hidden="1">
+    <row r="51" spans="2:18" s="49" customFormat="1" ht="30">
       <c r="B51" s="27">
         <v>45</v>
       </c>
@@ -4060,7 +4057,7 @@
       <c r="P51" s="69"/>
       <c r="R51" s="103"/>
     </row>
-    <row r="52" spans="2:18" s="49" customFormat="1" ht="30" hidden="1">
+    <row r="52" spans="2:18" s="49" customFormat="1" ht="30">
       <c r="B52" s="27">
         <v>46</v>
       </c>
@@ -4107,13 +4104,13 @@
       <c r="K53" s="59"/>
       <c r="L53" s="28"/>
       <c r="M53" s="28"/>
-      <c r="N53" s="114"/>
+      <c r="N53" s="105"/>
       <c r="O53" s="7" t="s">
         <v>223</v>
       </c>
       <c r="P53" s="81"/>
     </row>
-    <row r="54" spans="2:18" s="48" customFormat="1" ht="15" hidden="1">
+    <row r="54" spans="2:18" s="48" customFormat="1" ht="15">
       <c r="B54" s="6">
         <v>48</v>
       </c>
@@ -4132,7 +4129,7 @@
       <c r="O54" s="99"/>
       <c r="P54" s="68"/>
     </row>
-    <row r="55" spans="2:18" s="48" customFormat="1" ht="15" hidden="1">
+    <row r="55" spans="2:18" s="48" customFormat="1" ht="15">
       <c r="B55" s="6"/>
       <c r="C55" s="80"/>
       <c r="D55" s="80"/>
@@ -4149,7 +4146,7 @@
       <c r="O55" s="76"/>
       <c r="P55" s="68"/>
     </row>
-    <row r="56" spans="2:18" s="48" customFormat="1" ht="15" hidden="1">
+    <row r="56" spans="2:18" s="48" customFormat="1" ht="15">
       <c r="B56" s="6"/>
       <c r="C56" s="80"/>
       <c r="D56" s="80"/>
@@ -4166,7 +4163,7 @@
       <c r="O56" s="76"/>
       <c r="P56" s="68"/>
     </row>
-    <row r="57" spans="2:18" s="48" customFormat="1" ht="15" hidden="1">
+    <row r="57" spans="2:18" s="48" customFormat="1" ht="15">
       <c r="B57" s="6"/>
       <c r="C57" s="80"/>
       <c r="D57" s="80"/>
@@ -4183,7 +4180,7 @@
       <c r="O57" s="76"/>
       <c r="P57" s="68"/>
     </row>
-    <row r="58" spans="2:18" s="48" customFormat="1" ht="15" hidden="1">
+    <row r="58" spans="2:18" s="48" customFormat="1" ht="15">
       <c r="B58" s="6"/>
       <c r="C58" s="80"/>
       <c r="D58" s="80"/>
@@ -4200,7 +4197,7 @@
       <c r="O58" s="76"/>
       <c r="P58" s="68"/>
     </row>
-    <row r="59" spans="2:18" s="48" customFormat="1" ht="15" hidden="1">
+    <row r="59" spans="2:18" s="48" customFormat="1" ht="15">
       <c r="B59" s="6"/>
       <c r="C59" s="80"/>
       <c r="D59" s="80"/>
@@ -4217,7 +4214,7 @@
       <c r="O59" s="76"/>
       <c r="P59" s="68"/>
     </row>
-    <row r="60" spans="2:18" ht="15.75" hidden="1" thickBot="1">
+    <row r="60" spans="2:18" ht="15.75" thickBot="1">
       <c r="B60" s="5"/>
       <c r="C60" s="64"/>
       <c r="D60" s="64"/>
@@ -4234,13 +4231,7 @@
       <c r="O60" s="65"/>
     </row>
   </sheetData>
-  <autoFilter ref="O2:O60">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="Active"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="O2:O60"/>
   <mergeCells count="7">
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="N4:N5"/>

--- a/Documentation/Buglist.xlsx
+++ b/Documentation/Buglist.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="265">
   <si>
     <t>ID</t>
   </si>
@@ -1211,6 +1211,54 @@
 康力
 </t>
     <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加销售订单时，需要有复制功能</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划排产界面中，可以分开填写排产日期和投产编号</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前填写排产日期时必须同时填入投产编号，现在希望分开填写</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划排产界面中，可以分开填写包装日期和出厂编号</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前填写包装日期时必须同时填入出厂编号，现在希望分开填写</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>关于自动生成投产编号</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>关于自动生产出厂编号</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划科人员需要编辑备注信息</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>开放备注编辑权限，可以在计划排产界面编辑备注</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加销售订单时，需要可以对过去的订单进行复制并修改，随后新增为新的销售订单，具体复制通过什么办法实现无要求。</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>出厂编号的规则为年份数字+月份数字+流水号，即1510001,其中15代表2015年，1代表1月份，0001是顺序号，其中月份10月要用A代替，11月要用B代替，12月要用C代替。同时也需要在自动生成后可以手动修改</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>投产编号的规则为字母+数字，即A00001,其中A代表2015年，B代表2016年以此类推，数字为五位顺序号，按排产时的先后顺序自动生成即可，另外，需要在自动生成后可以手动修改</t>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1343,7 +1391,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1392,8 +1440,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1426,21 +1480,6 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -1448,21 +1487,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -1570,6 +1594,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1580,7 +1619,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1594,10 +1633,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1609,7 +1645,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1632,13 +1668,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1650,7 +1686,7 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1662,7 +1698,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1686,10 +1722,10 @@
     <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1698,7 +1734,7 @@
     <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1761,12 +1797,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1794,124 +1824,127 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="15" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="15" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="6" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="15" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="15" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2271,31 +2304,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:S60"/>
+  <dimension ref="B2:S64"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A49" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F54" sqref="F54"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="1.875" style="50" customWidth="1"/>
+    <col min="1" max="1" width="1.875" style="49" customWidth="1"/>
     <col min="2" max="2" width="3.875" style="2" customWidth="1"/>
-    <col min="3" max="4" width="22.5" style="50" customWidth="1"/>
-    <col min="5" max="5" width="28" style="50" customWidth="1"/>
-    <col min="6" max="6" width="22.5" style="50" customWidth="1"/>
-    <col min="7" max="7" width="26.25" style="50" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="28.375" style="50" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="22.5" style="50" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="23.125" style="50" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="22.5" style="50" hidden="1" customWidth="1"/>
+    <col min="3" max="4" width="22.5" style="49" customWidth="1"/>
+    <col min="5" max="5" width="28" style="49" customWidth="1"/>
+    <col min="6" max="6" width="22.5" style="49" customWidth="1"/>
+    <col min="7" max="7" width="26.25" style="49" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="28.375" style="49" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="22.5" style="49" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="23.125" style="49" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="22.5" style="49" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="20.375" style="2" hidden="1" customWidth="1"/>
     <col min="13" max="14" width="29.375" style="2" hidden="1" customWidth="1"/>
     <col min="15" max="15" width="29.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.375" style="71" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9" style="50"/>
+    <col min="16" max="16" width="13.375" style="68" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="49"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" s="47" customFormat="1" ht="25.5">
-      <c r="B2" s="108"/>
+    <row r="2" spans="2:16" s="46" customFormat="1" ht="25.5">
+      <c r="B2" s="106"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -2309,10 +2344,10 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
-      <c r="P2" s="66"/>
-    </row>
-    <row r="3" spans="2:16" s="47" customFormat="1" ht="26.25" thickBot="1">
-      <c r="B3" s="109"/>
+      <c r="P2" s="63"/>
+    </row>
+    <row r="3" spans="2:16" s="46" customFormat="1" ht="26.25" thickBot="1">
+      <c r="B3" s="107"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
@@ -2326,1909 +2361,2012 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
-      <c r="P3" s="66"/>
+      <c r="P3" s="63"/>
     </row>
     <row r="4" spans="2:16" s="3" customFormat="1" ht="14.25">
-      <c r="B4" s="113" t="s">
+      <c r="B4" s="111" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="110" t="s">
+      <c r="C4" s="108" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="111"/>
-      <c r="E4" s="111"/>
-      <c r="F4" s="111"/>
-      <c r="G4" s="111"/>
-      <c r="H4" s="111"/>
-      <c r="I4" s="111"/>
-      <c r="J4" s="111"/>
-      <c r="K4" s="111"/>
-      <c r="L4" s="106" t="s">
+      <c r="D4" s="109"/>
+      <c r="E4" s="109"/>
+      <c r="F4" s="109"/>
+      <c r="G4" s="109"/>
+      <c r="H4" s="109"/>
+      <c r="I4" s="109"/>
+      <c r="J4" s="109"/>
+      <c r="K4" s="109"/>
+      <c r="L4" s="104" t="s">
         <v>22</v>
       </c>
-      <c r="M4" s="106" t="s">
+      <c r="M4" s="104" t="s">
         <v>10</v>
       </c>
-      <c r="N4" s="106" t="s">
+      <c r="N4" s="104" t="s">
         <v>45</v>
       </c>
-      <c r="O4" s="106" t="s">
+      <c r="O4" s="104" t="s">
         <v>151</v>
       </c>
-      <c r="P4" s="67"/>
+      <c r="P4" s="64"/>
     </row>
     <row r="5" spans="2:16" s="3" customFormat="1" ht="14.25">
-      <c r="B5" s="114"/>
-      <c r="C5" s="10" t="s">
+      <c r="B5" s="112"/>
+      <c r="C5" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="H5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="10" t="s">
+      <c r="I5" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="10" t="s">
+      <c r="J5" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="10" t="s">
+      <c r="K5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="L5" s="112"/>
-      <c r="M5" s="107"/>
-      <c r="N5" s="107"/>
-      <c r="O5" s="107"/>
-      <c r="P5" s="67"/>
-    </row>
-    <row r="6" spans="2:16" s="8" customFormat="1" ht="90">
-      <c r="B6" s="21" t="s">
+      <c r="L5" s="110"/>
+      <c r="M5" s="105"/>
+      <c r="N5" s="105"/>
+      <c r="O5" s="105"/>
+      <c r="P5" s="64"/>
+    </row>
+    <row r="6" spans="2:16" s="7" customFormat="1" ht="90">
+      <c r="B6" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="54" t="s">
+      <c r="C6" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="54" t="s">
+      <c r="D6" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="54" t="s">
+      <c r="E6" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="54" t="s">
+      <c r="F6" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="54" t="s">
+      <c r="G6" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="54" t="s">
+      <c r="H6" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="I6" s="54" t="s">
+      <c r="I6" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="J6" s="54" t="s">
+      <c r="J6" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="K6" s="54" t="s">
+      <c r="K6" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="L6" s="54" t="s">
+      <c r="L6" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="M6" s="54" t="s">
+      <c r="M6" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="N6" s="54" t="s">
+      <c r="N6" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="O6" s="54" t="s">
+      <c r="O6" s="53" t="s">
         <v>152</v>
       </c>
-      <c r="P6" s="68"/>
-    </row>
-    <row r="7" spans="2:16" s="8" customFormat="1" ht="135">
-      <c r="B7" s="19" t="s">
+      <c r="P6" s="65"/>
+    </row>
+    <row r="7" spans="2:16" s="7" customFormat="1" ht="135">
+      <c r="B7" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="55" t="s">
+      <c r="C7" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="55" t="s">
+      <c r="D7" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="55" t="s">
+      <c r="E7" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="55" t="s">
+      <c r="F7" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="G7" s="55" t="s">
+      <c r="G7" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="H7" s="55" t="s">
+      <c r="H7" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="I7" s="56" t="s">
+      <c r="I7" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="J7" s="55" t="s">
+      <c r="J7" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="K7" s="55" t="s">
+      <c r="K7" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="L7" s="20" t="s">
+      <c r="L7" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="M7" s="20" t="s">
+      <c r="M7" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="N7" s="22" t="s">
+      <c r="N7" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="O7" s="22" t="s">
+      <c r="O7" s="21" t="s">
         <v>154</v>
       </c>
-      <c r="P7" s="68"/>
-    </row>
-    <row r="8" spans="2:16" s="8" customFormat="1" ht="90">
-      <c r="B8" s="6">
+      <c r="P7" s="65"/>
+    </row>
+    <row r="8" spans="2:16" s="7" customFormat="1" ht="90">
+      <c r="B8" s="5">
         <v>1</v>
       </c>
-      <c r="C8" s="57" t="s">
+      <c r="C8" s="56" t="s">
         <v>149</v>
       </c>
-      <c r="D8" s="57" t="s">
+      <c r="D8" s="56" t="s">
         <v>53</v>
       </c>
-      <c r="E8" s="57" t="s">
+      <c r="E8" s="56" t="s">
         <v>54</v>
       </c>
-      <c r="F8" s="57" t="s">
+      <c r="F8" s="56" t="s">
         <v>56</v>
       </c>
-      <c r="G8" s="57" t="s">
+      <c r="G8" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="H8" s="57" t="s">
+      <c r="H8" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="I8" s="58">
+      <c r="I8" s="57">
         <v>1</v>
       </c>
-      <c r="J8" s="57" t="s">
+      <c r="J8" s="56" t="s">
         <v>66</v>
       </c>
-      <c r="K8" s="57" t="s">
+      <c r="K8" s="56" t="s">
         <v>67</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="L8" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="M8" s="26" t="s">
+      <c r="M8" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="N8" s="57"/>
-      <c r="O8" s="26" t="s">
+      <c r="N8" s="56"/>
+      <c r="O8" s="25" t="s">
         <v>223</v>
       </c>
-      <c r="P8" s="68"/>
-    </row>
-    <row r="9" spans="2:16" s="48" customFormat="1" ht="60">
-      <c r="B9" s="6">
+      <c r="P8" s="65"/>
+    </row>
+    <row r="9" spans="2:16" s="47" customFormat="1" ht="60">
+      <c r="B9" s="5">
         <v>2</v>
       </c>
-      <c r="C9" s="57" t="s">
+      <c r="C9" s="56" t="s">
         <v>150</v>
       </c>
-      <c r="D9" s="57" t="s">
+      <c r="D9" s="56" t="s">
         <v>61</v>
       </c>
-      <c r="E9" s="57" t="s">
+      <c r="E9" s="56" t="s">
         <v>71</v>
       </c>
-      <c r="F9" s="57" t="s">
+      <c r="F9" s="56" t="s">
         <v>62</v>
       </c>
-      <c r="G9" s="57" t="s">
+      <c r="G9" s="56" t="s">
         <v>63</v>
       </c>
-      <c r="H9" s="57" t="s">
+      <c r="H9" s="56" t="s">
         <v>64</v>
       </c>
-      <c r="I9" s="58">
+      <c r="I9" s="57">
         <v>1</v>
       </c>
-      <c r="J9" s="57" t="s">
+      <c r="J9" s="56" t="s">
         <v>66</v>
       </c>
-      <c r="K9" s="57" t="s">
+      <c r="K9" s="56" t="s">
         <v>68</v>
       </c>
-      <c r="L9" s="7" t="s">
+      <c r="L9" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="M9" s="26" t="s">
+      <c r="M9" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="N9" s="57"/>
-      <c r="O9" s="26" t="s">
+      <c r="N9" s="56"/>
+      <c r="O9" s="25" t="s">
         <v>223</v>
       </c>
-      <c r="P9" s="68"/>
-    </row>
-    <row r="10" spans="2:16" s="41" customFormat="1" ht="165">
-      <c r="B10" s="6">
+      <c r="P9" s="65"/>
+    </row>
+    <row r="10" spans="2:16" s="40" customFormat="1" ht="165">
+      <c r="B10" s="5">
         <v>3</v>
       </c>
-      <c r="C10" s="57" t="s">
+      <c r="C10" s="56" t="s">
         <v>69</v>
       </c>
-      <c r="D10" s="57" t="s">
+      <c r="D10" s="56" t="s">
         <v>70</v>
       </c>
-      <c r="E10" s="57" t="s">
+      <c r="E10" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="F10" s="57" t="s">
+      <c r="F10" s="56" t="s">
         <v>73</v>
       </c>
-      <c r="G10" s="57" t="s">
+      <c r="G10" s="56" t="s">
         <v>74</v>
       </c>
-      <c r="H10" s="57" t="s">
+      <c r="H10" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="I10" s="58">
+      <c r="I10" s="57">
         <v>1</v>
       </c>
-      <c r="J10" s="57" t="s">
+      <c r="J10" s="56" t="s">
         <v>76</v>
       </c>
-      <c r="K10" s="57" t="s">
+      <c r="K10" s="56" t="s">
         <v>68</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="L10" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="M10" s="7" t="s">
+      <c r="M10" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="N10" s="57"/>
-      <c r="O10" s="7" t="s">
+      <c r="N10" s="56"/>
+      <c r="O10" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="P10" s="81"/>
-    </row>
-    <row r="11" spans="2:16" s="9" customFormat="1" ht="105">
-      <c r="B11" s="19">
+      <c r="P10" s="73"/>
+    </row>
+    <row r="11" spans="2:16" s="8" customFormat="1" ht="105">
+      <c r="B11" s="18">
         <v>4</v>
       </c>
-      <c r="C11" s="55" t="s">
+      <c r="C11" s="54" t="s">
         <v>77</v>
       </c>
-      <c r="D11" s="55" t="s">
+      <c r="D11" s="54" t="s">
         <v>78</v>
       </c>
-      <c r="E11" s="55" t="s">
+      <c r="E11" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="F11" s="55" t="s">
+      <c r="F11" s="54" t="s">
         <v>81</v>
       </c>
-      <c r="G11" s="55" t="s">
+      <c r="G11" s="54" t="s">
         <v>79</v>
       </c>
-      <c r="H11" s="55" t="s">
+      <c r="H11" s="54" t="s">
         <v>80</v>
       </c>
-      <c r="I11" s="61">
+      <c r="I11" s="60">
         <v>1</v>
       </c>
-      <c r="J11" s="55" t="s">
+      <c r="J11" s="54" t="s">
         <v>76</v>
       </c>
-      <c r="K11" s="55" t="s">
+      <c r="K11" s="54" t="s">
         <v>68</v>
       </c>
-      <c r="L11" s="20" t="s">
+      <c r="L11" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="M11" s="20" t="s">
+      <c r="M11" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="N11" s="55"/>
-      <c r="O11" s="20" t="s">
+      <c r="N11" s="54"/>
+      <c r="O11" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="P11" s="70"/>
-    </row>
-    <row r="12" spans="2:16" s="48" customFormat="1" ht="60">
-      <c r="B12" s="19">
+      <c r="P11" s="67"/>
+    </row>
+    <row r="12" spans="2:16" s="47" customFormat="1" ht="60">
+      <c r="B12" s="18">
         <v>5</v>
       </c>
-      <c r="C12" s="55" t="s">
+      <c r="C12" s="54" t="s">
         <v>84</v>
       </c>
-      <c r="D12" s="55" t="s">
+      <c r="D12" s="54" t="s">
         <v>82</v>
       </c>
-      <c r="E12" s="55" t="s">
+      <c r="E12" s="54" t="s">
         <v>83</v>
       </c>
-      <c r="F12" s="55" t="s">
+      <c r="F12" s="54" t="s">
         <v>85</v>
       </c>
-      <c r="G12" s="55" t="s">
+      <c r="G12" s="54" t="s">
         <v>86</v>
       </c>
-      <c r="H12" s="55" t="s">
+      <c r="H12" s="54" t="s">
         <v>87</v>
       </c>
-      <c r="I12" s="61">
+      <c r="I12" s="60">
         <v>1</v>
       </c>
-      <c r="J12" s="55" t="s">
+      <c r="J12" s="54" t="s">
         <v>93</v>
       </c>
-      <c r="K12" s="55" t="s">
+      <c r="K12" s="54" t="s">
         <v>68</v>
       </c>
-      <c r="L12" s="20" t="s">
+      <c r="L12" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="M12" s="20" t="s">
+      <c r="M12" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="N12" s="55"/>
-      <c r="O12" s="20" t="s">
+      <c r="N12" s="54"/>
+      <c r="O12" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="P12" s="68"/>
-    </row>
-    <row r="13" spans="2:16" s="62" customFormat="1" ht="120">
-      <c r="B13" s="6">
+      <c r="P12" s="65"/>
+    </row>
+    <row r="13" spans="2:16" s="61" customFormat="1" ht="120">
+      <c r="B13" s="5">
         <v>6</v>
       </c>
-      <c r="C13" s="57" t="s">
+      <c r="C13" s="56" t="s">
         <v>94</v>
       </c>
-      <c r="D13" s="57" t="s">
+      <c r="D13" s="56" t="s">
         <v>156</v>
       </c>
-      <c r="E13" s="57" t="s">
+      <c r="E13" s="56" t="s">
         <v>90</v>
       </c>
-      <c r="F13" s="57" t="s">
+      <c r="F13" s="56" t="s">
         <v>97</v>
       </c>
-      <c r="G13" s="57" t="s">
+      <c r="G13" s="56" t="s">
         <v>91</v>
       </c>
-      <c r="H13" s="57" t="s">
+      <c r="H13" s="56" t="s">
         <v>92</v>
       </c>
-      <c r="I13" s="58">
+      <c r="I13" s="57">
         <v>1</v>
       </c>
-      <c r="J13" s="57" t="s">
+      <c r="J13" s="56" t="s">
         <v>93</v>
       </c>
-      <c r="K13" s="57" t="s">
+      <c r="K13" s="56" t="s">
         <v>68</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="L13" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="M13" s="7" t="s">
+      <c r="M13" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="N13" s="57"/>
-      <c r="O13" s="7" t="s">
+      <c r="N13" s="56"/>
+      <c r="O13" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="P13" s="81"/>
-    </row>
-    <row r="14" spans="2:16" s="62" customFormat="1" ht="120">
-      <c r="B14" s="6">
+      <c r="P13" s="73"/>
+    </row>
+    <row r="14" spans="2:16" s="61" customFormat="1" ht="120">
+      <c r="B14" s="5">
         <v>7</v>
       </c>
-      <c r="C14" s="57" t="s">
+      <c r="C14" s="56" t="s">
         <v>95</v>
       </c>
-      <c r="D14" s="57" t="s">
+      <c r="D14" s="56" t="s">
         <v>96</v>
       </c>
-      <c r="E14" s="57" t="s">
+      <c r="E14" s="56" t="s">
         <v>103</v>
       </c>
-      <c r="F14" s="57" t="s">
+      <c r="F14" s="56" t="s">
         <v>99</v>
       </c>
-      <c r="G14" s="58" t="s">
+      <c r="G14" s="57" t="s">
         <v>98</v>
       </c>
-      <c r="H14" s="57" t="s">
+      <c r="H14" s="56" t="s">
         <v>100</v>
       </c>
-      <c r="I14" s="58">
+      <c r="I14" s="57">
         <v>1</v>
       </c>
-      <c r="J14" s="57" t="s">
+      <c r="J14" s="56" t="s">
         <v>93</v>
       </c>
-      <c r="K14" s="57" t="s">
+      <c r="K14" s="56" t="s">
         <v>67</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="L14" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="M14" s="7" t="s">
+      <c r="M14" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="N14" s="57"/>
-      <c r="O14" s="7" t="s">
+      <c r="N14" s="56"/>
+      <c r="O14" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="P14" s="81"/>
-    </row>
-    <row r="15" spans="2:16" s="63" customFormat="1" ht="90">
-      <c r="B15" s="6">
+      <c r="P14" s="73"/>
+    </row>
+    <row r="15" spans="2:16" s="62" customFormat="1" ht="90">
+      <c r="B15" s="5">
         <v>8</v>
       </c>
-      <c r="C15" s="57" t="s">
+      <c r="C15" s="56" t="s">
         <v>102</v>
       </c>
-      <c r="D15" s="57" t="s">
+      <c r="D15" s="56" t="s">
         <v>105</v>
       </c>
-      <c r="E15" s="57" t="s">
+      <c r="E15" s="56" t="s">
         <v>104</v>
       </c>
-      <c r="F15" s="57" t="s">
+      <c r="F15" s="56" t="s">
         <v>109</v>
       </c>
-      <c r="G15" s="58" t="s">
+      <c r="G15" s="57" t="s">
         <v>106</v>
       </c>
-      <c r="H15" s="57" t="s">
+      <c r="H15" s="56" t="s">
         <v>107</v>
       </c>
-      <c r="I15" s="58">
+      <c r="I15" s="57">
         <v>1</v>
       </c>
-      <c r="J15" s="57" t="s">
+      <c r="J15" s="56" t="s">
         <v>93</v>
       </c>
-      <c r="K15" s="57" t="s">
+      <c r="K15" s="56" t="s">
         <v>67</v>
       </c>
-      <c r="L15" s="7" t="s">
+      <c r="L15" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="M15" s="7" t="s">
+      <c r="M15" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="N15" s="57"/>
-      <c r="O15" s="7" t="s">
+      <c r="N15" s="56"/>
+      <c r="O15" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="P15" s="82"/>
+      <c r="P15" s="74"/>
     </row>
     <row r="16" spans="2:16" ht="90">
-      <c r="B16" s="19">
+      <c r="B16" s="18">
         <v>9</v>
       </c>
-      <c r="C16" s="55" t="s">
+      <c r="C16" s="54" t="s">
         <v>108</v>
       </c>
-      <c r="D16" s="55" t="s">
+      <c r="D16" s="54" t="s">
         <v>108</v>
       </c>
-      <c r="E16" s="55" t="s">
+      <c r="E16" s="54" t="s">
         <v>113</v>
       </c>
-      <c r="F16" s="55" t="s">
+      <c r="F16" s="54" t="s">
         <v>115</v>
       </c>
-      <c r="G16" s="61" t="s">
+      <c r="G16" s="60" t="s">
         <v>110</v>
       </c>
-      <c r="H16" s="55" t="s">
+      <c r="H16" s="54" t="s">
         <v>111</v>
       </c>
-      <c r="I16" s="61">
+      <c r="I16" s="60">
         <v>1</v>
       </c>
-      <c r="J16" s="55" t="s">
+      <c r="J16" s="54" t="s">
         <v>93</v>
       </c>
-      <c r="K16" s="55" t="s">
+      <c r="K16" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="L16" s="20" t="s">
+      <c r="L16" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="M16" s="20" t="s">
+      <c r="M16" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="N16" s="55"/>
-      <c r="O16" s="20" t="s">
+      <c r="N16" s="54"/>
+      <c r="O16" s="19" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="17" spans="2:18" s="48" customFormat="1" ht="75">
-      <c r="B17" s="19">
+    <row r="17" spans="2:18" s="47" customFormat="1" ht="75">
+      <c r="B17" s="18">
         <v>10</v>
       </c>
-      <c r="C17" s="55" t="s">
+      <c r="C17" s="54" t="s">
         <v>112</v>
       </c>
-      <c r="D17" s="55" t="s">
+      <c r="D17" s="54" t="s">
         <v>114</v>
       </c>
-      <c r="E17" s="55" t="s">
+      <c r="E17" s="54" t="s">
         <v>127</v>
       </c>
-      <c r="F17" s="55" t="s">
+      <c r="F17" s="54" t="s">
         <v>118</v>
       </c>
-      <c r="G17" s="55" t="s">
+      <c r="G17" s="54" t="s">
         <v>116</v>
       </c>
-      <c r="H17" s="55" t="s">
+      <c r="H17" s="54" t="s">
         <v>117</v>
       </c>
-      <c r="I17" s="61">
+      <c r="I17" s="60">
         <v>1</v>
       </c>
-      <c r="J17" s="55" t="s">
+      <c r="J17" s="54" t="s">
         <v>93</v>
       </c>
-      <c r="K17" s="55" t="s">
+      <c r="K17" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="L17" s="20" t="s">
+      <c r="L17" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="M17" s="20" t="s">
+      <c r="M17" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="N17" s="55"/>
-      <c r="O17" s="20" t="s">
+      <c r="N17" s="54"/>
+      <c r="O17" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="P17" s="68"/>
-    </row>
-    <row r="18" spans="2:18" s="62" customFormat="1" ht="90">
-      <c r="B18" s="6">
+      <c r="P17" s="65"/>
+    </row>
+    <row r="18" spans="2:18" s="61" customFormat="1" ht="90">
+      <c r="B18" s="5">
         <v>11</v>
       </c>
-      <c r="C18" s="57" t="s">
+      <c r="C18" s="56" t="s">
         <v>119</v>
       </c>
-      <c r="D18" s="57" t="s">
+      <c r="D18" s="56" t="s">
         <v>122</v>
       </c>
-      <c r="E18" s="57" t="s">
+      <c r="E18" s="56" t="s">
         <v>120</v>
       </c>
-      <c r="F18" s="57" t="s">
+      <c r="F18" s="56" t="s">
         <v>121</v>
       </c>
-      <c r="G18" s="57" t="s">
+      <c r="G18" s="56" t="s">
         <v>123</v>
       </c>
-      <c r="H18" s="57" t="s">
+      <c r="H18" s="56" t="s">
         <v>124</v>
       </c>
-      <c r="I18" s="58">
+      <c r="I18" s="57">
         <v>1</v>
       </c>
-      <c r="J18" s="57" t="s">
+      <c r="J18" s="56" t="s">
         <v>93</v>
       </c>
-      <c r="K18" s="57" t="s">
+      <c r="K18" s="56" t="s">
         <v>67</v>
       </c>
-      <c r="L18" s="7" t="s">
+      <c r="L18" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="M18" s="7" t="s">
+      <c r="M18" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="N18" s="57"/>
-      <c r="O18" s="7" t="s">
+      <c r="N18" s="56"/>
+      <c r="O18" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="P18" s="81"/>
-    </row>
-    <row r="19" spans="2:18" s="48" customFormat="1" ht="75">
-      <c r="B19" s="19">
+      <c r="P18" s="73"/>
+    </row>
+    <row r="19" spans="2:18" s="47" customFormat="1" ht="75">
+      <c r="B19" s="18">
         <v>12</v>
       </c>
-      <c r="C19" s="55" t="s">
+      <c r="C19" s="54" t="s">
         <v>132</v>
       </c>
-      <c r="D19" s="55" t="s">
+      <c r="D19" s="54" t="s">
         <v>125</v>
       </c>
-      <c r="E19" s="55" t="s">
+      <c r="E19" s="54" t="s">
         <v>126</v>
       </c>
-      <c r="F19" s="55" t="s">
+      <c r="F19" s="54" t="s">
         <v>128</v>
       </c>
-      <c r="G19" s="55" t="s">
+      <c r="G19" s="54" t="s">
         <v>129</v>
       </c>
-      <c r="H19" s="55" t="s">
+      <c r="H19" s="54" t="s">
         <v>130</v>
       </c>
-      <c r="I19" s="61">
+      <c r="I19" s="60">
         <v>1</v>
       </c>
-      <c r="J19" s="55" t="s">
+      <c r="J19" s="54" t="s">
         <v>93</v>
       </c>
-      <c r="K19" s="55" t="s">
+      <c r="K19" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="L19" s="20" t="s">
+      <c r="L19" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="M19" s="20" t="s">
+      <c r="M19" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="N19" s="55"/>
-      <c r="O19" s="20" t="s">
+      <c r="N19" s="54"/>
+      <c r="O19" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="P19" s="68"/>
-    </row>
-    <row r="20" spans="2:18" s="48" customFormat="1" ht="90">
-      <c r="B20" s="19">
+      <c r="P19" s="65"/>
+    </row>
+    <row r="20" spans="2:18" s="47" customFormat="1" ht="90">
+      <c r="B20" s="18">
         <v>13</v>
       </c>
-      <c r="C20" s="55" t="s">
+      <c r="C20" s="54" t="s">
         <v>131</v>
       </c>
-      <c r="D20" s="55" t="s">
+      <c r="D20" s="54" t="s">
         <v>133</v>
       </c>
-      <c r="E20" s="55" t="s">
+      <c r="E20" s="54" t="s">
         <v>134</v>
       </c>
-      <c r="F20" s="55" t="s">
+      <c r="F20" s="54" t="s">
         <v>140</v>
       </c>
-      <c r="G20" s="55" t="s">
+      <c r="G20" s="54" t="s">
         <v>135</v>
       </c>
-      <c r="H20" s="55" t="s">
+      <c r="H20" s="54" t="s">
         <v>136</v>
       </c>
-      <c r="I20" s="61">
+      <c r="I20" s="60">
         <v>1</v>
       </c>
-      <c r="J20" s="55" t="s">
+      <c r="J20" s="54" t="s">
         <v>93</v>
       </c>
-      <c r="K20" s="55" t="s">
+      <c r="K20" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="L20" s="20" t="s">
+      <c r="L20" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="M20" s="20" t="s">
+      <c r="M20" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="N20" s="55"/>
-      <c r="O20" s="20" t="s">
+      <c r="N20" s="54"/>
+      <c r="O20" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="P20" s="68"/>
-    </row>
-    <row r="21" spans="2:18" s="62" customFormat="1" ht="165">
-      <c r="B21" s="6">
+      <c r="P20" s="65"/>
+    </row>
+    <row r="21" spans="2:18" s="61" customFormat="1" ht="165">
+      <c r="B21" s="5">
         <v>14</v>
       </c>
-      <c r="C21" s="57" t="s">
+      <c r="C21" s="56" t="s">
         <v>137</v>
       </c>
-      <c r="D21" s="57" t="s">
+      <c r="D21" s="56" t="s">
         <v>138</v>
       </c>
-      <c r="E21" s="57" t="s">
+      <c r="E21" s="56" t="s">
         <v>139</v>
       </c>
-      <c r="F21" s="57" t="s">
+      <c r="F21" s="56" t="s">
         <v>141</v>
       </c>
-      <c r="G21" s="57" t="s">
+      <c r="G21" s="56" t="s">
         <v>142</v>
       </c>
-      <c r="H21" s="57" t="s">
+      <c r="H21" s="56" t="s">
         <v>143</v>
       </c>
-      <c r="I21" s="58">
+      <c r="I21" s="57">
         <v>1</v>
       </c>
-      <c r="J21" s="57" t="s">
+      <c r="J21" s="56" t="s">
         <v>93</v>
       </c>
-      <c r="K21" s="57" t="s">
+      <c r="K21" s="56" t="s">
         <v>67</v>
       </c>
-      <c r="L21" s="7" t="s">
+      <c r="L21" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="M21" s="7" t="s">
+      <c r="M21" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="N21" s="57"/>
-      <c r="O21" s="7" t="s">
+      <c r="N21" s="56"/>
+      <c r="O21" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="P21" s="81"/>
-    </row>
-    <row r="22" spans="2:18" s="62" customFormat="1" ht="45">
-      <c r="B22" s="6">
+      <c r="P21" s="73"/>
+    </row>
+    <row r="22" spans="2:18" s="61" customFormat="1" ht="45">
+      <c r="B22" s="5">
         <v>15</v>
       </c>
-      <c r="C22" s="57" t="s">
+      <c r="C22" s="56" t="s">
         <v>145</v>
       </c>
-      <c r="D22" s="57"/>
-      <c r="E22" s="57"/>
-      <c r="F22" s="57"/>
-      <c r="G22" s="57"/>
-      <c r="H22" s="57"/>
-      <c r="I22" s="58"/>
-      <c r="J22" s="57"/>
-      <c r="K22" s="57"/>
-      <c r="L22" s="7" t="s">
+      <c r="D22" s="56"/>
+      <c r="E22" s="56"/>
+      <c r="F22" s="56"/>
+      <c r="G22" s="56"/>
+      <c r="H22" s="56"/>
+      <c r="I22" s="57"/>
+      <c r="J22" s="56"/>
+      <c r="K22" s="56"/>
+      <c r="L22" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="M22" s="7" t="s">
+      <c r="M22" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="N22" s="57"/>
-      <c r="O22" s="7" t="s">
+      <c r="N22" s="56"/>
+      <c r="O22" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="P22" s="81"/>
-    </row>
-    <row r="23" spans="2:18" s="62" customFormat="1" ht="30">
-      <c r="B23" s="6">
+      <c r="P22" s="73"/>
+    </row>
+    <row r="23" spans="2:18" s="61" customFormat="1" ht="30">
+      <c r="B23" s="5">
         <v>16</v>
       </c>
-      <c r="C23" s="57" t="s">
+      <c r="C23" s="56" t="s">
         <v>146</v>
       </c>
-      <c r="D23" s="57"/>
-      <c r="E23" s="57"/>
-      <c r="F23" s="57"/>
-      <c r="G23" s="57"/>
-      <c r="H23" s="57"/>
-      <c r="I23" s="58"/>
-      <c r="J23" s="57"/>
-      <c r="K23" s="57"/>
-      <c r="L23" s="7" t="s">
+      <c r="D23" s="56"/>
+      <c r="E23" s="56"/>
+      <c r="F23" s="56"/>
+      <c r="G23" s="56"/>
+      <c r="H23" s="56"/>
+      <c r="I23" s="57"/>
+      <c r="J23" s="56"/>
+      <c r="K23" s="56"/>
+      <c r="L23" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="M23" s="7" t="s">
+      <c r="M23" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="N23" s="57"/>
-      <c r="O23" s="7" t="s">
+      <c r="N23" s="56"/>
+      <c r="O23" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="P23" s="81"/>
-    </row>
-    <row r="24" spans="2:18" s="62" customFormat="1" ht="90">
-      <c r="B24" s="6">
+      <c r="P23" s="73"/>
+    </row>
+    <row r="24" spans="2:18" s="61" customFormat="1" ht="90">
+      <c r="B24" s="5">
         <v>17</v>
       </c>
-      <c r="C24" s="57" t="s">
+      <c r="C24" s="56" t="s">
         <v>148</v>
       </c>
-      <c r="D24" s="57"/>
-      <c r="E24" s="57"/>
-      <c r="F24" s="57"/>
-      <c r="G24" s="57"/>
-      <c r="H24" s="57"/>
-      <c r="I24" s="58"/>
-      <c r="J24" s="57"/>
-      <c r="K24" s="57"/>
-      <c r="L24" s="7" t="s">
+      <c r="D24" s="56"/>
+      <c r="E24" s="56"/>
+      <c r="F24" s="56"/>
+      <c r="G24" s="56"/>
+      <c r="H24" s="56"/>
+      <c r="I24" s="57"/>
+      <c r="J24" s="56"/>
+      <c r="K24" s="56"/>
+      <c r="L24" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="M24" s="7" t="s">
+      <c r="M24" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="N24" s="57"/>
-      <c r="O24" s="7" t="s">
+      <c r="N24" s="56"/>
+      <c r="O24" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="P24" s="81"/>
-    </row>
-    <row r="25" spans="2:18" s="49" customFormat="1" ht="45">
-      <c r="B25" s="27">
+      <c r="P24" s="73"/>
+    </row>
+    <row r="25" spans="2:18" s="48" customFormat="1" ht="45">
+      <c r="B25" s="26">
         <v>18</v>
       </c>
-      <c r="C25" s="59" t="s">
+      <c r="C25" s="58" t="s">
         <v>246</v>
       </c>
-      <c r="D25" s="59"/>
-      <c r="E25" s="84" t="s">
+      <c r="D25" s="58"/>
+      <c r="E25" s="76" t="s">
         <v>240</v>
       </c>
-      <c r="F25" s="59"/>
-      <c r="G25" s="59"/>
-      <c r="H25" s="59"/>
-      <c r="I25" s="60"/>
-      <c r="J25" s="59"/>
-      <c r="K25" s="59"/>
-      <c r="L25" s="28" t="s">
+      <c r="F25" s="58"/>
+      <c r="G25" s="58"/>
+      <c r="H25" s="58"/>
+      <c r="I25" s="59"/>
+      <c r="J25" s="58"/>
+      <c r="K25" s="58"/>
+      <c r="L25" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="M25" s="28" t="s">
+      <c r="M25" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="N25" s="59"/>
-      <c r="O25" s="28" t="s">
+      <c r="N25" s="58"/>
+      <c r="O25" s="27" t="s">
         <v>223</v>
       </c>
-      <c r="P25" s="69"/>
-    </row>
-    <row r="26" spans="2:18" s="62" customFormat="1" ht="90">
-      <c r="B26" s="6">
+      <c r="P25" s="66"/>
+    </row>
+    <row r="26" spans="2:18" s="61" customFormat="1" ht="90">
+      <c r="B26" s="5">
         <v>19</v>
       </c>
-      <c r="C26" s="57" t="s">
+      <c r="C26" s="56" t="s">
         <v>147</v>
       </c>
-      <c r="D26" s="57"/>
-      <c r="E26" s="57"/>
-      <c r="F26" s="57"/>
-      <c r="G26" s="57"/>
-      <c r="H26" s="57"/>
-      <c r="I26" s="58"/>
-      <c r="J26" s="57"/>
-      <c r="K26" s="57"/>
-      <c r="L26" s="7" t="s">
+      <c r="D26" s="56"/>
+      <c r="E26" s="56"/>
+      <c r="F26" s="56"/>
+      <c r="G26" s="56"/>
+      <c r="H26" s="56"/>
+      <c r="I26" s="57"/>
+      <c r="J26" s="56"/>
+      <c r="K26" s="56"/>
+      <c r="L26" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="M26" s="7" t="s">
+      <c r="M26" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="N26" s="57"/>
-      <c r="O26" s="7" t="s">
+      <c r="N26" s="56"/>
+      <c r="O26" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="P26" s="81"/>
-    </row>
-    <row r="27" spans="2:18" s="49" customFormat="1" ht="60">
-      <c r="B27" s="27">
+      <c r="P26" s="73"/>
+    </row>
+    <row r="27" spans="2:18" s="48" customFormat="1" ht="60">
+      <c r="B27" s="26">
         <v>20</v>
       </c>
-      <c r="C27" s="59" t="s">
+      <c r="C27" s="58" t="s">
         <v>157</v>
       </c>
-      <c r="D27" s="59"/>
-      <c r="E27" s="59" t="s">
+      <c r="D27" s="58"/>
+      <c r="E27" s="58" t="s">
         <v>241</v>
       </c>
-      <c r="F27" s="59"/>
-      <c r="G27" s="59"/>
-      <c r="H27" s="59"/>
-      <c r="I27" s="60"/>
-      <c r="J27" s="59"/>
-      <c r="K27" s="59"/>
-      <c r="L27" s="28"/>
-      <c r="M27" s="28"/>
-      <c r="N27" s="59"/>
-      <c r="O27" s="28" t="s">
+      <c r="F27" s="58"/>
+      <c r="G27" s="58"/>
+      <c r="H27" s="58"/>
+      <c r="I27" s="59"/>
+      <c r="J27" s="58"/>
+      <c r="K27" s="58"/>
+      <c r="L27" s="27"/>
+      <c r="M27" s="27"/>
+      <c r="N27" s="58"/>
+      <c r="O27" s="27" t="s">
         <v>223</v>
       </c>
-      <c r="P27" s="69"/>
-    </row>
-    <row r="28" spans="2:18" s="88" customFormat="1" ht="30" customHeight="1">
-      <c r="B28" s="85">
+      <c r="P27" s="66"/>
+    </row>
+    <row r="28" spans="2:18" s="80" customFormat="1" ht="30" customHeight="1">
+      <c r="B28" s="77">
         <v>21</v>
       </c>
-      <c r="C28" s="83" t="s">
+      <c r="C28" s="75" t="s">
         <v>225</v>
       </c>
-      <c r="D28" s="83" t="s">
+      <c r="D28" s="75" t="s">
         <v>158</v>
       </c>
-      <c r="E28" s="89" t="s">
+      <c r="E28" s="81" t="s">
         <v>233</v>
       </c>
-      <c r="F28" s="83" t="s">
+      <c r="F28" s="75" t="s">
         <v>160</v>
       </c>
-      <c r="G28" s="83" t="s">
+      <c r="G28" s="75" t="s">
         <v>161</v>
       </c>
-      <c r="H28" s="83" t="s">
+      <c r="H28" s="75" t="s">
         <v>162</v>
       </c>
-      <c r="I28" s="86">
+      <c r="I28" s="78">
         <v>0.3</v>
       </c>
-      <c r="J28" s="83"/>
-      <c r="K28" s="83"/>
-      <c r="L28" s="87" t="s">
+      <c r="J28" s="75"/>
+      <c r="K28" s="75"/>
+      <c r="L28" s="79" t="s">
         <v>59</v>
       </c>
-      <c r="M28" s="87"/>
-      <c r="N28" s="83"/>
-      <c r="O28" s="28" t="s">
+      <c r="M28" s="79"/>
+      <c r="N28" s="75"/>
+      <c r="O28" s="27" t="s">
         <v>205</v>
       </c>
-      <c r="P28" s="69" t="s">
+      <c r="P28" s="66" t="s">
         <v>248</v>
       </c>
-      <c r="R28" s="101"/>
-    </row>
-    <row r="29" spans="2:18" s="90" customFormat="1" ht="30" customHeight="1">
-      <c r="B29" s="91">
+      <c r="R28" s="92"/>
+    </row>
+    <row r="29" spans="2:18" s="82" customFormat="1" ht="30" customHeight="1">
+      <c r="B29" s="83">
         <v>22</v>
       </c>
-      <c r="C29" s="92" t="s">
+      <c r="C29" s="84" t="s">
         <v>163</v>
       </c>
-      <c r="D29" s="92" t="s">
+      <c r="D29" s="84" t="s">
         <v>164</v>
       </c>
-      <c r="E29" s="92" t="s">
+      <c r="E29" s="84" t="s">
         <v>165</v>
       </c>
-      <c r="F29" s="92" t="s">
+      <c r="F29" s="84" t="s">
         <v>166</v>
       </c>
-      <c r="G29" s="92" t="s">
+      <c r="G29" s="84" t="s">
         <v>167</v>
       </c>
-      <c r="H29" s="92" t="s">
+      <c r="H29" s="84" t="s">
         <v>168</v>
       </c>
-      <c r="I29" s="93">
+      <c r="I29" s="85">
         <v>1</v>
       </c>
-      <c r="J29" s="92"/>
-      <c r="K29" s="92"/>
-      <c r="L29" s="94" t="s">
+      <c r="J29" s="84"/>
+      <c r="K29" s="84"/>
+      <c r="L29" s="86" t="s">
         <v>59</v>
       </c>
-      <c r="M29" s="94"/>
-      <c r="N29" s="92"/>
-      <c r="O29" s="95" t="s">
+      <c r="M29" s="86"/>
+      <c r="N29" s="84"/>
+      <c r="O29" s="87" t="s">
         <v>155</v>
       </c>
-      <c r="P29" s="81"/>
-    </row>
-    <row r="30" spans="2:18" s="90" customFormat="1" ht="30" customHeight="1">
-      <c r="B30" s="91">
+      <c r="P29" s="73"/>
+    </row>
+    <row r="30" spans="2:18" s="82" customFormat="1" ht="30" customHeight="1">
+      <c r="B30" s="83">
         <v>23</v>
       </c>
-      <c r="C30" s="92" t="s">
+      <c r="C30" s="84" t="s">
         <v>167</v>
       </c>
-      <c r="D30" s="92" t="s">
+      <c r="D30" s="84" t="s">
         <v>169</v>
       </c>
-      <c r="E30" s="92" t="s">
+      <c r="E30" s="84" t="s">
         <v>159</v>
       </c>
-      <c r="F30" s="92" t="s">
+      <c r="F30" s="84" t="s">
         <v>170</v>
       </c>
-      <c r="G30" s="92" t="s">
+      <c r="G30" s="84" t="s">
         <v>171</v>
       </c>
-      <c r="H30" s="92" t="s">
+      <c r="H30" s="84" t="s">
         <v>172</v>
       </c>
-      <c r="I30" s="93">
+      <c r="I30" s="85">
         <v>1</v>
       </c>
-      <c r="J30" s="92"/>
-      <c r="K30" s="92"/>
-      <c r="L30" s="94" t="s">
+      <c r="J30" s="84"/>
+      <c r="K30" s="84"/>
+      <c r="L30" s="86" t="s">
         <v>59</v>
       </c>
-      <c r="M30" s="94"/>
-      <c r="N30" s="92"/>
-      <c r="O30" s="95" t="s">
+      <c r="M30" s="86"/>
+      <c r="N30" s="84"/>
+      <c r="O30" s="87" t="s">
         <v>155</v>
       </c>
-      <c r="P30" s="81"/>
-    </row>
-    <row r="31" spans="2:18" s="35" customFormat="1" ht="30" customHeight="1">
-      <c r="B31" s="31">
+      <c r="P30" s="73"/>
+    </row>
+    <row r="31" spans="2:18" s="34" customFormat="1" ht="30" customHeight="1">
+      <c r="B31" s="30">
         <v>24</v>
       </c>
-      <c r="C31" s="32" t="s">
+      <c r="C31" s="31" t="s">
         <v>206</v>
       </c>
-      <c r="D31" s="32" t="s">
+      <c r="D31" s="31" t="s">
         <v>207</v>
       </c>
-      <c r="E31" s="32" t="s">
+      <c r="E31" s="31" t="s">
         <v>165</v>
       </c>
-      <c r="F31" s="32" t="s">
+      <c r="F31" s="31" t="s">
         <v>165</v>
       </c>
-      <c r="G31" s="32" t="s">
+      <c r="G31" s="31" t="s">
         <v>173</v>
       </c>
-      <c r="H31" s="32" t="s">
+      <c r="H31" s="31" t="s">
         <v>174</v>
       </c>
-      <c r="I31" s="33">
+      <c r="I31" s="32">
         <v>1</v>
       </c>
-      <c r="J31" s="32"/>
-      <c r="K31" s="32"/>
-      <c r="L31" s="34" t="s">
+      <c r="J31" s="31"/>
+      <c r="K31" s="31"/>
+      <c r="L31" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="M31" s="34"/>
-      <c r="N31" s="32"/>
-      <c r="O31" s="26" t="s">
+      <c r="M31" s="33"/>
+      <c r="N31" s="31"/>
+      <c r="O31" s="25" t="s">
         <v>223</v>
       </c>
-      <c r="P31" s="72"/>
-    </row>
-    <row r="32" spans="2:18" s="30" customFormat="1" ht="30" customHeight="1">
-      <c r="B32" s="31">
+      <c r="P31" s="69"/>
+    </row>
+    <row r="32" spans="2:18" s="29" customFormat="1" ht="30" customHeight="1">
+      <c r="B32" s="30">
         <v>25</v>
       </c>
-      <c r="C32" s="32" t="s">
+      <c r="C32" s="31" t="s">
         <v>208</v>
       </c>
-      <c r="D32" s="32" t="s">
+      <c r="D32" s="31" t="s">
         <v>175</v>
       </c>
-      <c r="E32" s="32" t="s">
+      <c r="E32" s="31" t="s">
         <v>176</v>
       </c>
-      <c r="F32" s="32" t="s">
+      <c r="F32" s="31" t="s">
         <v>177</v>
       </c>
-      <c r="G32" s="32"/>
-      <c r="H32" s="32"/>
-      <c r="I32" s="33">
+      <c r="G32" s="31"/>
+      <c r="H32" s="31"/>
+      <c r="I32" s="32">
         <v>1</v>
       </c>
-      <c r="J32" s="32"/>
-      <c r="K32" s="32"/>
-      <c r="L32" s="34" t="s">
+      <c r="J32" s="31"/>
+      <c r="K32" s="31"/>
+      <c r="L32" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="M32" s="34"/>
-      <c r="N32" s="32"/>
-      <c r="O32" s="26" t="s">
+      <c r="M32" s="33"/>
+      <c r="N32" s="31"/>
+      <c r="O32" s="25" t="s">
         <v>223</v>
       </c>
-      <c r="P32" s="73"/>
-    </row>
-    <row r="33" spans="2:19" s="30" customFormat="1" ht="30" customHeight="1">
-      <c r="B33" s="31">
+      <c r="P32" s="70"/>
+    </row>
+    <row r="33" spans="2:19" s="29" customFormat="1" ht="30" customHeight="1">
+      <c r="B33" s="30">
         <v>26</v>
       </c>
-      <c r="C33" s="32" t="s">
+      <c r="C33" s="31" t="s">
         <v>212</v>
       </c>
-      <c r="D33" s="32" t="s">
+      <c r="D33" s="31" t="s">
         <v>178</v>
       </c>
-      <c r="E33" s="32" t="s">
+      <c r="E33" s="31" t="s">
         <v>159</v>
       </c>
-      <c r="F33" s="32" t="s">
+      <c r="F33" s="31" t="s">
         <v>165</v>
       </c>
-      <c r="G33" s="32"/>
-      <c r="H33" s="32"/>
-      <c r="I33" s="33">
+      <c r="G33" s="31"/>
+      <c r="H33" s="31"/>
+      <c r="I33" s="32">
         <v>1</v>
       </c>
-      <c r="J33" s="32"/>
-      <c r="K33" s="32"/>
-      <c r="L33" s="34" t="s">
+      <c r="J33" s="31"/>
+      <c r="K33" s="31"/>
+      <c r="L33" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="M33" s="34"/>
-      <c r="N33" s="32"/>
-      <c r="O33" s="26" t="s">
+      <c r="M33" s="33"/>
+      <c r="N33" s="31"/>
+      <c r="O33" s="25" t="s">
         <v>223</v>
       </c>
-      <c r="P33" s="73"/>
-    </row>
-    <row r="34" spans="2:19" s="51" customFormat="1" ht="30" customHeight="1">
-      <c r="B34" s="31">
+      <c r="P33" s="70"/>
+    </row>
+    <row r="34" spans="2:19" s="50" customFormat="1" ht="30" customHeight="1">
+      <c r="B34" s="30">
         <v>27</v>
       </c>
-      <c r="C34" s="36" t="s">
+      <c r="C34" s="35" t="s">
         <v>209</v>
       </c>
-      <c r="D34" s="36" t="s">
+      <c r="D34" s="35" t="s">
         <v>179</v>
       </c>
-      <c r="E34" s="36" t="s">
+      <c r="E34" s="35" t="s">
         <v>180</v>
       </c>
-      <c r="F34" s="36" t="s">
+      <c r="F34" s="35" t="s">
         <v>159</v>
       </c>
-      <c r="G34" s="36" t="s">
+      <c r="G34" s="35" t="s">
         <v>210</v>
       </c>
-      <c r="H34" s="36" t="s">
+      <c r="H34" s="35" t="s">
         <v>211</v>
       </c>
-      <c r="I34" s="37">
+      <c r="I34" s="36">
         <v>1</v>
       </c>
-      <c r="J34" s="36"/>
-      <c r="K34" s="36"/>
-      <c r="L34" s="38" t="s">
+      <c r="J34" s="35"/>
+      <c r="K34" s="35"/>
+      <c r="L34" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="M34" s="38"/>
-      <c r="N34" s="36"/>
-      <c r="O34" s="26" t="s">
+      <c r="M34" s="37"/>
+      <c r="N34" s="35"/>
+      <c r="O34" s="25" t="s">
         <v>223</v>
       </c>
-      <c r="P34" s="74"/>
-    </row>
-    <row r="35" spans="2:19" s="51" customFormat="1" ht="30" customHeight="1">
-      <c r="B35" s="31">
+      <c r="P34" s="71"/>
+    </row>
+    <row r="35" spans="2:19" s="50" customFormat="1" ht="30" customHeight="1">
+      <c r="B35" s="30">
         <v>28</v>
       </c>
-      <c r="C35" s="36" t="s">
+      <c r="C35" s="35" t="s">
         <v>213</v>
       </c>
-      <c r="D35" s="36" t="s">
+      <c r="D35" s="35" t="s">
         <v>181</v>
       </c>
-      <c r="E35" s="36" t="s">
+      <c r="E35" s="35" t="s">
         <v>176</v>
       </c>
-      <c r="F35" s="36" t="s">
+      <c r="F35" s="35" t="s">
         <v>159</v>
       </c>
-      <c r="G35" s="36" t="s">
+      <c r="G35" s="35" t="s">
         <v>182</v>
       </c>
-      <c r="H35" s="36" t="s">
+      <c r="H35" s="35" t="s">
         <v>183</v>
       </c>
-      <c r="I35" s="37">
+      <c r="I35" s="36">
         <v>1</v>
       </c>
-      <c r="J35" s="36"/>
-      <c r="K35" s="36"/>
-      <c r="L35" s="38" t="s">
+      <c r="J35" s="35"/>
+      <c r="K35" s="35"/>
+      <c r="L35" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="M35" s="38"/>
-      <c r="N35" s="36"/>
-      <c r="O35" s="26" t="s">
+      <c r="M35" s="37"/>
+      <c r="N35" s="35"/>
+      <c r="O35" s="25" t="s">
         <v>223</v>
       </c>
-      <c r="P35" s="74"/>
-    </row>
-    <row r="36" spans="2:19" s="88" customFormat="1" ht="30" customHeight="1">
-      <c r="B36" s="85">
+      <c r="P35" s="71"/>
+    </row>
+    <row r="36" spans="2:19" s="80" customFormat="1" ht="30" customHeight="1">
+      <c r="B36" s="77">
         <v>29</v>
       </c>
-      <c r="C36" s="83" t="s">
+      <c r="C36" s="75" t="s">
         <v>214</v>
       </c>
-      <c r="D36" s="83" t="s">
+      <c r="D36" s="75" t="s">
         <v>226</v>
       </c>
-      <c r="E36" s="104" t="s">
+      <c r="E36" s="95" t="s">
         <v>242</v>
       </c>
-      <c r="F36" s="83" t="s">
+      <c r="F36" s="75" t="s">
         <v>159</v>
       </c>
-      <c r="G36" s="44" t="s">
+      <c r="G36" s="43" t="s">
         <v>184</v>
       </c>
-      <c r="H36" s="44" t="s">
+      <c r="H36" s="43" t="s">
         <v>185</v>
       </c>
-      <c r="I36" s="45">
+      <c r="I36" s="44">
         <v>1</v>
       </c>
-      <c r="J36" s="44"/>
-      <c r="K36" s="44"/>
-      <c r="L36" s="46" t="s">
+      <c r="J36" s="43"/>
+      <c r="K36" s="43"/>
+      <c r="L36" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="M36" s="46"/>
-      <c r="N36" s="44"/>
-      <c r="O36" s="28" t="s">
+      <c r="M36" s="45"/>
+      <c r="N36" s="43"/>
+      <c r="O36" s="27" t="s">
         <v>223</v>
       </c>
-      <c r="P36" s="69" t="s">
+      <c r="P36" s="66" t="s">
         <v>249</v>
       </c>
-      <c r="R36" s="103" t="s">
+      <c r="R36" s="94" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="37" spans="2:19" s="88" customFormat="1" ht="30" customHeight="1">
-      <c r="B37" s="85">
+    <row r="37" spans="2:19" s="80" customFormat="1" ht="30" customHeight="1">
+      <c r="B37" s="77">
         <v>30</v>
       </c>
-      <c r="C37" s="83" t="s">
+      <c r="C37" s="75" t="s">
         <v>186</v>
       </c>
-      <c r="D37" s="83" t="s">
+      <c r="D37" s="75" t="s">
         <v>187</v>
       </c>
-      <c r="E37" s="89" t="s">
+      <c r="E37" s="81" t="s">
         <v>252</v>
       </c>
-      <c r="F37" s="83" t="s">
+      <c r="F37" s="75" t="s">
         <v>176</v>
       </c>
-      <c r="G37" s="44" t="s">
+      <c r="G37" s="43" t="s">
         <v>188</v>
       </c>
-      <c r="H37" s="44" t="s">
+      <c r="H37" s="43" t="s">
         <v>189</v>
       </c>
-      <c r="I37" s="44" t="s">
+      <c r="I37" s="43" t="s">
         <v>190</v>
       </c>
-      <c r="J37" s="44"/>
-      <c r="K37" s="44"/>
-      <c r="L37" s="46" t="s">
+      <c r="J37" s="43"/>
+      <c r="K37" s="43"/>
+      <c r="L37" s="45" t="s">
         <v>144</v>
       </c>
-      <c r="M37" s="46"/>
-      <c r="N37" s="44"/>
-      <c r="O37" s="28" t="s">
+      <c r="M37" s="45"/>
+      <c r="N37" s="43"/>
+      <c r="O37" s="27" t="s">
         <v>223</v>
       </c>
-      <c r="P37" s="69"/>
-      <c r="R37" s="101">
+      <c r="P37" s="66"/>
+      <c r="R37" s="92">
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="2:19" s="30" customFormat="1" ht="30" customHeight="1">
-      <c r="B38" s="31">
+    <row r="38" spans="2:19" s="29" customFormat="1" ht="30" customHeight="1">
+      <c r="B38" s="30">
         <v>31</v>
       </c>
-      <c r="C38" s="32" t="s">
+      <c r="C38" s="31" t="s">
         <v>215</v>
       </c>
-      <c r="D38" s="36" t="s">
+      <c r="D38" s="35" t="s">
         <v>191</v>
       </c>
-      <c r="E38" s="36" t="s">
+      <c r="E38" s="35" t="s">
         <v>159</v>
       </c>
-      <c r="F38" s="36" t="s">
+      <c r="F38" s="35" t="s">
         <v>176</v>
       </c>
-      <c r="G38" s="36"/>
-      <c r="H38" s="36" t="s">
+      <c r="G38" s="35"/>
+      <c r="H38" s="35" t="s">
         <v>192</v>
       </c>
-      <c r="I38" s="37">
+      <c r="I38" s="36">
         <v>1</v>
       </c>
-      <c r="J38" s="36"/>
-      <c r="K38" s="36"/>
-      <c r="L38" s="38" t="s">
+      <c r="J38" s="35"/>
+      <c r="K38" s="35"/>
+      <c r="L38" s="37" t="s">
         <v>144</v>
       </c>
-      <c r="M38" s="38"/>
-      <c r="N38" s="36"/>
-      <c r="O38" s="53" t="s">
+      <c r="M38" s="37"/>
+      <c r="N38" s="35"/>
+      <c r="O38" s="52" t="s">
         <v>224</v>
       </c>
-      <c r="P38" s="73"/>
-    </row>
-    <row r="39" spans="2:19" s="42" customFormat="1" ht="30" customHeight="1">
-      <c r="B39" s="43">
+      <c r="P38" s="70"/>
+    </row>
+    <row r="39" spans="2:19" s="41" customFormat="1" ht="30" customHeight="1">
+      <c r="B39" s="42">
         <v>32</v>
       </c>
-      <c r="C39" s="44" t="s">
+      <c r="C39" s="43" t="s">
         <v>193</v>
       </c>
-      <c r="D39" s="44" t="s">
+      <c r="D39" s="43" t="s">
         <v>216</v>
       </c>
-      <c r="E39" s="96" t="s">
+      <c r="E39" s="88" t="s">
         <v>234</v>
       </c>
-      <c r="F39" s="44" t="s">
+      <c r="F39" s="43" t="s">
         <v>159</v>
       </c>
-      <c r="G39" s="44" t="s">
+      <c r="G39" s="43" t="s">
         <v>194</v>
       </c>
-      <c r="H39" s="44" t="s">
+      <c r="H39" s="43" t="s">
         <v>195</v>
       </c>
-      <c r="I39" s="44" t="s">
+      <c r="I39" s="43" t="s">
         <v>190</v>
       </c>
-      <c r="J39" s="44"/>
-      <c r="K39" s="44"/>
-      <c r="L39" s="46" t="s">
+      <c r="J39" s="43"/>
+      <c r="K39" s="43"/>
+      <c r="L39" s="45" t="s">
         <v>144</v>
       </c>
-      <c r="M39" s="46"/>
-      <c r="N39" s="44"/>
-      <c r="O39" s="29"/>
-      <c r="P39" s="52"/>
-      <c r="R39" s="102"/>
-    </row>
-    <row r="40" spans="2:19" s="30" customFormat="1" ht="30" customHeight="1">
-      <c r="B40" s="31">
+      <c r="M39" s="45"/>
+      <c r="N39" s="43"/>
+      <c r="O39" s="28"/>
+      <c r="P39" s="51"/>
+      <c r="R39" s="93"/>
+    </row>
+    <row r="40" spans="2:19" s="29" customFormat="1" ht="30" customHeight="1">
+      <c r="B40" s="30">
         <v>33</v>
       </c>
-      <c r="C40" s="36" t="s">
+      <c r="C40" s="35" t="s">
         <v>196</v>
       </c>
-      <c r="D40" s="36" t="s">
+      <c r="D40" s="35" t="s">
         <v>197</v>
       </c>
-      <c r="E40" s="36" t="s">
+      <c r="E40" s="35" t="s">
         <v>176</v>
       </c>
-      <c r="F40" s="36" t="s">
+      <c r="F40" s="35" t="s">
         <v>176</v>
       </c>
-      <c r="G40" s="36"/>
-      <c r="H40" s="36"/>
-      <c r="I40" s="36"/>
-      <c r="J40" s="36"/>
-      <c r="K40" s="36"/>
-      <c r="L40" s="38" t="s">
+      <c r="G40" s="35"/>
+      <c r="H40" s="35"/>
+      <c r="I40" s="35"/>
+      <c r="J40" s="35"/>
+      <c r="K40" s="35"/>
+      <c r="L40" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="M40" s="38"/>
-      <c r="N40" s="36"/>
-      <c r="O40" s="26" t="s">
+      <c r="M40" s="37"/>
+      <c r="N40" s="35"/>
+      <c r="O40" s="25" t="s">
         <v>155</v>
       </c>
-      <c r="P40" s="73"/>
-    </row>
-    <row r="41" spans="2:19" s="42" customFormat="1" ht="30" customHeight="1">
-      <c r="B41" s="43">
+      <c r="P40" s="70"/>
+    </row>
+    <row r="41" spans="2:19" s="41" customFormat="1" ht="30" customHeight="1">
+      <c r="B41" s="42">
         <v>34</v>
       </c>
-      <c r="C41" s="44" t="s">
+      <c r="C41" s="43" t="s">
         <v>247</v>
       </c>
-      <c r="D41" s="44" t="s">
+      <c r="D41" s="43" t="s">
         <v>228</v>
       </c>
-      <c r="E41" s="44" t="s">
+      <c r="E41" s="43" t="s">
         <v>229</v>
       </c>
-      <c r="F41" s="44" t="s">
+      <c r="F41" s="43" t="s">
         <v>217</v>
       </c>
-      <c r="G41" s="44" t="s">
+      <c r="G41" s="43" t="s">
         <v>198</v>
       </c>
-      <c r="H41" s="44" t="s">
+      <c r="H41" s="43" t="s">
         <v>199</v>
       </c>
-      <c r="I41" s="45">
+      <c r="I41" s="44">
         <v>1</v>
       </c>
-      <c r="J41" s="44"/>
-      <c r="K41" s="44"/>
-      <c r="L41" s="46" t="s">
+      <c r="J41" s="43"/>
+      <c r="K41" s="43"/>
+      <c r="L41" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="M41" s="46"/>
-      <c r="N41" s="44"/>
-      <c r="O41" s="29" t="s">
+      <c r="M41" s="45"/>
+      <c r="N41" s="43"/>
+      <c r="O41" s="28" t="s">
         <v>223</v>
       </c>
-      <c r="P41" s="100" t="s">
+      <c r="P41" s="91" t="s">
         <v>245</v>
       </c>
-      <c r="R41" s="102"/>
-      <c r="S41" s="100"/>
-    </row>
-    <row r="42" spans="2:19" s="42" customFormat="1" ht="30" customHeight="1">
-      <c r="B42" s="43">
+      <c r="R41" s="93"/>
+      <c r="S41" s="91"/>
+    </row>
+    <row r="42" spans="2:19" s="41" customFormat="1" ht="30" customHeight="1">
+      <c r="B42" s="42">
         <v>35</v>
       </c>
-      <c r="C42" s="44" t="s">
+      <c r="C42" s="43" t="s">
         <v>230</v>
       </c>
-      <c r="D42" s="44" t="s">
+      <c r="D42" s="43" t="s">
         <v>200</v>
       </c>
-      <c r="E42" s="44" t="s">
+      <c r="E42" s="43" t="s">
         <v>231</v>
       </c>
-      <c r="F42" s="44" t="s">
+      <c r="F42" s="43" t="s">
         <v>159</v>
       </c>
-      <c r="G42" s="44" t="s">
+      <c r="G42" s="43" t="s">
         <v>201</v>
       </c>
-      <c r="H42" s="44"/>
-      <c r="I42" s="45">
+      <c r="H42" s="43"/>
+      <c r="I42" s="44">
         <v>1</v>
       </c>
-      <c r="J42" s="44"/>
-      <c r="K42" s="44"/>
-      <c r="L42" s="46" t="s">
+      <c r="J42" s="43"/>
+      <c r="K42" s="43"/>
+      <c r="L42" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="M42" s="46"/>
-      <c r="N42" s="44"/>
-      <c r="O42" s="29"/>
-      <c r="P42" s="52"/>
-      <c r="R42" s="102"/>
-    </row>
-    <row r="43" spans="2:19" s="30" customFormat="1" ht="30" customHeight="1">
-      <c r="B43" s="31">
+      <c r="M42" s="45"/>
+      <c r="N42" s="43"/>
+      <c r="O42" s="28"/>
+      <c r="P42" s="51"/>
+      <c r="R42" s="93"/>
+    </row>
+    <row r="43" spans="2:19" s="29" customFormat="1" ht="30" customHeight="1">
+      <c r="B43" s="30">
         <v>36</v>
       </c>
-      <c r="C43" s="36" t="s">
+      <c r="C43" s="35" t="s">
         <v>218</v>
       </c>
-      <c r="D43" s="36" t="s">
+      <c r="D43" s="35" t="s">
         <v>202</v>
       </c>
-      <c r="E43" s="39" t="s">
+      <c r="E43" s="38" t="s">
         <v>176</v>
       </c>
-      <c r="F43" s="36"/>
-      <c r="G43" s="36"/>
-      <c r="H43" s="36"/>
-      <c r="I43" s="37">
+      <c r="F43" s="35"/>
+      <c r="G43" s="35"/>
+      <c r="H43" s="35"/>
+      <c r="I43" s="36">
         <v>1</v>
       </c>
-      <c r="J43" s="36"/>
-      <c r="K43" s="36"/>
-      <c r="L43" s="38" t="s">
+      <c r="J43" s="35"/>
+      <c r="K43" s="35"/>
+      <c r="L43" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="M43" s="38"/>
-      <c r="N43" s="36"/>
-      <c r="O43" s="26" t="s">
+      <c r="M43" s="37"/>
+      <c r="N43" s="35"/>
+      <c r="O43" s="25" t="s">
         <v>223</v>
       </c>
-      <c r="P43" s="73"/>
-    </row>
-    <row r="44" spans="2:19" s="30" customFormat="1" ht="30" customHeight="1">
-      <c r="B44" s="31">
+      <c r="P43" s="70"/>
+    </row>
+    <row r="44" spans="2:19" s="29" customFormat="1" ht="30" customHeight="1">
+      <c r="B44" s="30">
         <v>37</v>
       </c>
-      <c r="C44" s="39" t="s">
+      <c r="C44" s="38" t="s">
         <v>219</v>
       </c>
-      <c r="D44" s="36" t="s">
+      <c r="D44" s="35" t="s">
         <v>202</v>
       </c>
-      <c r="E44" s="39" t="s">
+      <c r="E44" s="38" t="s">
         <v>176</v>
       </c>
-      <c r="F44" s="39"/>
-      <c r="G44" s="39"/>
-      <c r="H44" s="39"/>
-      <c r="I44" s="37">
+      <c r="F44" s="38"/>
+      <c r="G44" s="38"/>
+      <c r="H44" s="38"/>
+      <c r="I44" s="36">
         <v>1</v>
       </c>
-      <c r="J44" s="39"/>
-      <c r="K44" s="39"/>
-      <c r="L44" s="40" t="s">
+      <c r="J44" s="38"/>
+      <c r="K44" s="38"/>
+      <c r="L44" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="M44" s="40"/>
-      <c r="N44" s="39"/>
-      <c r="O44" s="26" t="s">
+      <c r="M44" s="39"/>
+      <c r="N44" s="38"/>
+      <c r="O44" s="25" t="s">
         <v>223</v>
       </c>
-      <c r="P44" s="73"/>
-    </row>
-    <row r="45" spans="2:19" s="90" customFormat="1" ht="30" customHeight="1">
-      <c r="B45" s="91">
+      <c r="P44" s="70"/>
+    </row>
+    <row r="45" spans="2:19" s="82" customFormat="1" ht="30" customHeight="1">
+      <c r="B45" s="83">
         <v>38</v>
       </c>
-      <c r="C45" s="97" t="s">
+      <c r="C45" s="89" t="s">
         <v>161</v>
       </c>
-      <c r="D45" s="97" t="s">
+      <c r="D45" s="89" t="s">
         <v>232</v>
       </c>
-      <c r="E45" s="97" t="s">
+      <c r="E45" s="89" t="s">
         <v>176</v>
       </c>
-      <c r="F45" s="97"/>
-      <c r="G45" s="97"/>
-      <c r="H45" s="97"/>
-      <c r="I45" s="93">
+      <c r="F45" s="89"/>
+      <c r="G45" s="89"/>
+      <c r="H45" s="89"/>
+      <c r="I45" s="85">
         <v>1</v>
       </c>
-      <c r="J45" s="97"/>
-      <c r="K45" s="97"/>
-      <c r="L45" s="98" t="s">
+      <c r="J45" s="89"/>
+      <c r="K45" s="89"/>
+      <c r="L45" s="90" t="s">
         <v>59</v>
       </c>
-      <c r="M45" s="98"/>
-      <c r="N45" s="97"/>
-      <c r="O45" s="95" t="s">
+      <c r="M45" s="90"/>
+      <c r="N45" s="89"/>
+      <c r="O45" s="87" t="s">
         <v>155</v>
       </c>
-      <c r="P45" s="81"/>
-    </row>
-    <row r="46" spans="2:19" s="30" customFormat="1" ht="30" customHeight="1">
-      <c r="B46" s="31">
+      <c r="P45" s="73"/>
+    </row>
+    <row r="46" spans="2:19" s="29" customFormat="1" ht="30" customHeight="1">
+      <c r="B46" s="30">
         <v>39</v>
       </c>
-      <c r="C46" s="75" t="s">
+      <c r="C46" s="72" t="s">
         <v>203</v>
       </c>
-      <c r="D46" s="39" t="s">
+      <c r="D46" s="38" t="s">
         <v>204</v>
       </c>
-      <c r="E46" s="39" t="s">
+      <c r="E46" s="38" t="s">
         <v>159</v>
       </c>
-      <c r="F46" s="39"/>
-      <c r="G46" s="39"/>
-      <c r="H46" s="39"/>
-      <c r="I46" s="37">
+      <c r="F46" s="38"/>
+      <c r="G46" s="38"/>
+      <c r="H46" s="38"/>
+      <c r="I46" s="36">
         <v>1</v>
       </c>
-      <c r="J46" s="39"/>
-      <c r="K46" s="39"/>
-      <c r="L46" s="40" t="s">
+      <c r="J46" s="38"/>
+      <c r="K46" s="38"/>
+      <c r="L46" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="M46" s="40"/>
-      <c r="N46" s="39"/>
-      <c r="O46" s="26" t="s">
+      <c r="M46" s="39"/>
+      <c r="N46" s="38"/>
+      <c r="O46" s="25" t="s">
         <v>223</v>
       </c>
-      <c r="P46" s="73"/>
-    </row>
-    <row r="47" spans="2:19" s="30" customFormat="1" ht="30" customHeight="1">
-      <c r="B47" s="31">
+      <c r="P46" s="70"/>
+    </row>
+    <row r="47" spans="2:19" s="29" customFormat="1" ht="30" customHeight="1">
+      <c r="B47" s="30">
         <v>40</v>
       </c>
-      <c r="C47" s="75" t="s">
+      <c r="C47" s="72" t="s">
         <v>220</v>
       </c>
-      <c r="D47" s="39" t="s">
+      <c r="D47" s="38" t="s">
         <v>221</v>
       </c>
-      <c r="E47" s="39" t="s">
+      <c r="E47" s="38" t="s">
         <v>159</v>
       </c>
-      <c r="F47" s="39"/>
-      <c r="G47" s="39"/>
-      <c r="H47" s="39"/>
-      <c r="I47" s="37">
+      <c r="F47" s="38"/>
+      <c r="G47" s="38"/>
+      <c r="H47" s="38"/>
+      <c r="I47" s="36">
         <v>1</v>
       </c>
-      <c r="J47" s="39"/>
-      <c r="K47" s="39"/>
-      <c r="L47" s="40" t="s">
+      <c r="J47" s="38"/>
+      <c r="K47" s="38"/>
+      <c r="L47" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="M47" s="40"/>
-      <c r="N47" s="39"/>
-      <c r="O47" s="26" t="s">
+      <c r="M47" s="39"/>
+      <c r="N47" s="38"/>
+      <c r="O47" s="25" t="s">
         <v>223</v>
       </c>
-      <c r="P47" s="73"/>
-    </row>
-    <row r="48" spans="2:19" s="90" customFormat="1" ht="30" customHeight="1">
-      <c r="B48" s="91">
+      <c r="P47" s="70"/>
+    </row>
+    <row r="48" spans="2:19" s="82" customFormat="1" ht="30" customHeight="1">
+      <c r="B48" s="83">
         <v>41</v>
       </c>
-      <c r="C48" s="97" t="s">
+      <c r="C48" s="89" t="s">
         <v>222</v>
       </c>
-      <c r="D48" s="92" t="s">
+      <c r="D48" s="84" t="s">
         <v>202</v>
       </c>
-      <c r="E48" s="97" t="s">
+      <c r="E48" s="89" t="s">
         <v>159</v>
       </c>
-      <c r="F48" s="97"/>
-      <c r="G48" s="97"/>
-      <c r="H48" s="97"/>
-      <c r="I48" s="93">
+      <c r="F48" s="89"/>
+      <c r="G48" s="89"/>
+      <c r="H48" s="89"/>
+      <c r="I48" s="85">
         <v>1</v>
       </c>
-      <c r="J48" s="97"/>
-      <c r="K48" s="97"/>
-      <c r="L48" s="98" t="s">
+      <c r="J48" s="89"/>
+      <c r="K48" s="89"/>
+      <c r="L48" s="90" t="s">
         <v>59</v>
       </c>
-      <c r="M48" s="98"/>
-      <c r="N48" s="97"/>
-      <c r="O48" s="95" t="s">
+      <c r="M48" s="90"/>
+      <c r="N48" s="89"/>
+      <c r="O48" s="87" t="s">
         <v>155</v>
       </c>
-      <c r="P48" s="81"/>
-    </row>
-    <row r="49" spans="2:18" s="49" customFormat="1" ht="30">
-      <c r="B49" s="27">
+      <c r="P48" s="73"/>
+    </row>
+    <row r="49" spans="2:18" s="48" customFormat="1" ht="30">
+      <c r="B49" s="26">
         <v>43</v>
       </c>
-      <c r="C49" s="59" t="s">
+      <c r="C49" s="58" t="s">
         <v>227</v>
       </c>
-      <c r="D49" s="59"/>
-      <c r="E49" s="59" t="s">
+      <c r="D49" s="58"/>
+      <c r="E49" s="58" t="s">
         <v>243</v>
       </c>
-      <c r="F49" s="59"/>
-      <c r="G49" s="59"/>
-      <c r="H49" s="59"/>
-      <c r="I49" s="60"/>
-      <c r="J49" s="59"/>
-      <c r="K49" s="59"/>
-      <c r="L49" s="28"/>
-      <c r="M49" s="28"/>
-      <c r="N49" s="59"/>
-      <c r="O49" s="28" t="s">
+      <c r="F49" s="58"/>
+      <c r="G49" s="58"/>
+      <c r="H49" s="58"/>
+      <c r="I49" s="59"/>
+      <c r="J49" s="58"/>
+      <c r="K49" s="58"/>
+      <c r="L49" s="27"/>
+      <c r="M49" s="27"/>
+      <c r="N49" s="58"/>
+      <c r="O49" s="27" t="s">
         <v>223</v>
       </c>
-      <c r="P49" s="69"/>
-      <c r="R49" s="103"/>
-    </row>
-    <row r="50" spans="2:18" s="49" customFormat="1" ht="45">
-      <c r="B50" s="27">
+      <c r="P49" s="66"/>
+      <c r="R49" s="94"/>
+    </row>
+    <row r="50" spans="2:18" s="48" customFormat="1" ht="45">
+      <c r="B50" s="26">
         <v>44</v>
       </c>
-      <c r="C50" s="59" t="s">
+      <c r="C50" s="58" t="s">
         <v>235</v>
       </c>
-      <c r="D50" s="59"/>
-      <c r="E50" s="59"/>
-      <c r="F50" s="59"/>
-      <c r="G50" s="59"/>
-      <c r="H50" s="59"/>
-      <c r="I50" s="60"/>
-      <c r="J50" s="59"/>
-      <c r="K50" s="59"/>
-      <c r="L50" s="28"/>
-      <c r="M50" s="28"/>
-      <c r="N50" s="59"/>
-      <c r="O50" s="28" t="s">
+      <c r="D50" s="58"/>
+      <c r="E50" s="58"/>
+      <c r="F50" s="58"/>
+      <c r="G50" s="58"/>
+      <c r="H50" s="58"/>
+      <c r="I50" s="59"/>
+      <c r="J50" s="58"/>
+      <c r="K50" s="58"/>
+      <c r="L50" s="27"/>
+      <c r="M50" s="27"/>
+      <c r="N50" s="58"/>
+      <c r="O50" s="27" t="s">
         <v>153</v>
       </c>
-      <c r="P50" s="69" t="s">
+      <c r="P50" s="66" t="s">
         <v>248</v>
       </c>
-      <c r="R50" s="103"/>
-    </row>
-    <row r="51" spans="2:18" s="49" customFormat="1" ht="30">
-      <c r="B51" s="27">
+      <c r="R50" s="94"/>
+    </row>
+    <row r="51" spans="2:18" s="48" customFormat="1" ht="30">
+      <c r="B51" s="26">
         <v>45</v>
       </c>
-      <c r="C51" s="59" t="s">
+      <c r="C51" s="58" t="s">
         <v>236</v>
       </c>
-      <c r="D51" s="59"/>
-      <c r="E51" s="59"/>
-      <c r="F51" s="59"/>
-      <c r="G51" s="59"/>
-      <c r="H51" s="59"/>
-      <c r="I51" s="60"/>
-      <c r="J51" s="59"/>
-      <c r="K51" s="59"/>
-      <c r="L51" s="28"/>
-      <c r="M51" s="28"/>
-      <c r="N51" s="59"/>
-      <c r="O51" s="28" t="s">
+      <c r="D51" s="58"/>
+      <c r="E51" s="58"/>
+      <c r="F51" s="58"/>
+      <c r="G51" s="58"/>
+      <c r="H51" s="58"/>
+      <c r="I51" s="59"/>
+      <c r="J51" s="58"/>
+      <c r="K51" s="58"/>
+      <c r="L51" s="27"/>
+      <c r="M51" s="27"/>
+      <c r="N51" s="58"/>
+      <c r="O51" s="27" t="s">
         <v>223</v>
       </c>
-      <c r="P51" s="69"/>
-      <c r="R51" s="103"/>
-    </row>
-    <row r="52" spans="2:18" s="49" customFormat="1" ht="30">
-      <c r="B52" s="27">
+      <c r="P51" s="66"/>
+      <c r="R51" s="94"/>
+    </row>
+    <row r="52" spans="2:18" s="48" customFormat="1" ht="30">
+      <c r="B52" s="26">
         <v>46</v>
       </c>
-      <c r="C52" s="59" t="s">
+      <c r="C52" s="58" t="s">
         <v>237</v>
       </c>
-      <c r="D52" s="59"/>
-      <c r="E52" s="59" t="s">
+      <c r="D52" s="58"/>
+      <c r="E52" s="58" t="s">
         <v>244</v>
       </c>
-      <c r="F52" s="59"/>
-      <c r="G52" s="59"/>
-      <c r="H52" s="59"/>
-      <c r="I52" s="60"/>
-      <c r="J52" s="59"/>
-      <c r="K52" s="59"/>
-      <c r="L52" s="28"/>
-      <c r="M52" s="28"/>
-      <c r="N52" s="59"/>
-      <c r="O52" s="28" t="s">
+      <c r="F52" s="58"/>
+      <c r="G52" s="58"/>
+      <c r="H52" s="58"/>
+      <c r="I52" s="59"/>
+      <c r="J52" s="58"/>
+      <c r="K52" s="58"/>
+      <c r="L52" s="27"/>
+      <c r="M52" s="27"/>
+      <c r="N52" s="58"/>
+      <c r="O52" s="27" t="s">
         <v>223</v>
       </c>
-      <c r="P52" s="69"/>
-      <c r="R52" s="103"/>
-    </row>
-    <row r="53" spans="2:18" s="62" customFormat="1" ht="30">
-      <c r="B53" s="7">
+      <c r="P52" s="66"/>
+      <c r="R52" s="94"/>
+    </row>
+    <row r="53" spans="2:18" s="61" customFormat="1" ht="30">
+      <c r="B53" s="97">
         <v>47</v>
       </c>
-      <c r="C53" s="57" t="s">
+      <c r="C53" s="56" t="s">
         <v>238</v>
       </c>
-      <c r="D53" s="57" t="s">
+      <c r="D53" s="56" t="s">
         <v>239</v>
       </c>
-      <c r="E53" s="57" t="s">
+      <c r="E53" s="56" t="s">
         <v>250</v>
       </c>
-      <c r="F53" s="57"/>
-      <c r="G53" s="59"/>
-      <c r="H53" s="59"/>
-      <c r="I53" s="60"/>
-      <c r="J53" s="59"/>
-      <c r="K53" s="59"/>
-      <c r="L53" s="28"/>
-      <c r="M53" s="28"/>
-      <c r="N53" s="105"/>
-      <c r="O53" s="7" t="s">
+      <c r="F53" s="56"/>
+      <c r="G53" s="58"/>
+      <c r="H53" s="58"/>
+      <c r="I53" s="59"/>
+      <c r="J53" s="58"/>
+      <c r="K53" s="58"/>
+      <c r="L53" s="27"/>
+      <c r="M53" s="27"/>
+      <c r="N53" s="96"/>
+      <c r="O53" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="P53" s="81"/>
-    </row>
-    <row r="54" spans="2:18" s="48" customFormat="1" ht="15">
-      <c r="B54" s="6">
+      <c r="P53" s="73"/>
+    </row>
+    <row r="54" spans="2:18" s="61" customFormat="1" ht="30" customHeight="1">
+      <c r="B54" s="98">
         <v>48</v>
       </c>
-      <c r="C54" s="99"/>
-      <c r="D54" s="99"/>
-      <c r="E54" s="99"/>
-      <c r="F54" s="99"/>
-      <c r="G54" s="99"/>
-      <c r="H54" s="99"/>
-      <c r="I54" s="99"/>
-      <c r="J54" s="99"/>
-      <c r="K54" s="99"/>
-      <c r="L54" s="99"/>
-      <c r="M54" s="99"/>
-      <c r="N54" s="99"/>
-      <c r="O54" s="99"/>
-      <c r="P54" s="68"/>
-    </row>
-    <row r="55" spans="2:18" s="48" customFormat="1" ht="15">
-      <c r="B55" s="6"/>
-      <c r="C55" s="80"/>
-      <c r="D55" s="80"/>
-      <c r="E55" s="76"/>
-      <c r="F55" s="76"/>
-      <c r="G55" s="76"/>
-      <c r="H55" s="76"/>
-      <c r="I55" s="77"/>
-      <c r="J55" s="76"/>
-      <c r="K55" s="76"/>
-      <c r="L55" s="78"/>
-      <c r="M55" s="79"/>
-      <c r="N55" s="76"/>
-      <c r="O55" s="76"/>
-      <c r="P55" s="68"/>
-    </row>
-    <row r="56" spans="2:18" s="48" customFormat="1" ht="15">
-      <c r="B56" s="6"/>
-      <c r="C56" s="80"/>
-      <c r="D56" s="80"/>
-      <c r="E56" s="76"/>
-      <c r="F56" s="76"/>
-      <c r="G56" s="76"/>
-      <c r="H56" s="76"/>
-      <c r="I56" s="77"/>
-      <c r="J56" s="76"/>
-      <c r="K56" s="76"/>
-      <c r="L56" s="78"/>
-      <c r="M56" s="79"/>
-      <c r="N56" s="76"/>
-      <c r="O56" s="76"/>
-      <c r="P56" s="68"/>
-    </row>
-    <row r="57" spans="2:18" s="48" customFormat="1" ht="15">
-      <c r="B57" s="6"/>
-      <c r="C57" s="80"/>
-      <c r="D57" s="80"/>
-      <c r="E57" s="76"/>
-      <c r="F57" s="76"/>
-      <c r="G57" s="76"/>
-      <c r="H57" s="76"/>
-      <c r="I57" s="77"/>
-      <c r="J57" s="76"/>
-      <c r="K57" s="76"/>
-      <c r="L57" s="78"/>
-      <c r="M57" s="79"/>
-      <c r="N57" s="76"/>
-      <c r="O57" s="76"/>
-      <c r="P57" s="68"/>
-    </row>
-    <row r="58" spans="2:18" s="48" customFormat="1" ht="15">
-      <c r="B58" s="6"/>
-      <c r="C58" s="80"/>
-      <c r="D58" s="80"/>
-      <c r="E58" s="76"/>
-      <c r="F58" s="76"/>
-      <c r="G58" s="76"/>
-      <c r="H58" s="76"/>
-      <c r="I58" s="77"/>
-      <c r="J58" s="76"/>
-      <c r="K58" s="76"/>
-      <c r="L58" s="78"/>
-      <c r="M58" s="79"/>
-      <c r="N58" s="76"/>
-      <c r="O58" s="76"/>
-      <c r="P58" s="68"/>
-    </row>
-    <row r="59" spans="2:18" s="48" customFormat="1" ht="15">
-      <c r="B59" s="6"/>
-      <c r="C59" s="80"/>
-      <c r="D59" s="80"/>
-      <c r="E59" s="76"/>
-      <c r="F59" s="76"/>
-      <c r="G59" s="76"/>
-      <c r="H59" s="76"/>
-      <c r="I59" s="77"/>
-      <c r="J59" s="76"/>
-      <c r="K59" s="76"/>
-      <c r="L59" s="78"/>
-      <c r="M59" s="79"/>
-      <c r="N59" s="76"/>
-      <c r="O59" s="76"/>
-      <c r="P59" s="68"/>
-    </row>
-    <row r="60" spans="2:18" ht="15.75" thickBot="1">
-      <c r="B60" s="5"/>
-      <c r="C60" s="64"/>
-      <c r="D60" s="64"/>
-      <c r="E60" s="64"/>
-      <c r="F60" s="64"/>
-      <c r="G60" s="64"/>
-      <c r="H60" s="64"/>
-      <c r="I60" s="64"/>
-      <c r="J60" s="64"/>
-      <c r="K60" s="64"/>
-      <c r="L60" s="65"/>
-      <c r="M60" s="65"/>
-      <c r="N60" s="65"/>
-      <c r="O60" s="65"/>
+      <c r="C54" s="99" t="s">
+        <v>253</v>
+      </c>
+      <c r="D54" s="100" t="s">
+        <v>262</v>
+      </c>
+      <c r="E54" s="100"/>
+      <c r="F54" s="100"/>
+      <c r="G54" s="100"/>
+      <c r="H54" s="100"/>
+      <c r="I54" s="101"/>
+      <c r="J54" s="100"/>
+      <c r="K54" s="100"/>
+      <c r="L54" s="102"/>
+      <c r="M54" s="102"/>
+      <c r="N54" s="103"/>
+      <c r="O54" s="102"/>
+      <c r="P54" s="73"/>
+    </row>
+    <row r="55" spans="2:18" s="61" customFormat="1" ht="30" customHeight="1">
+      <c r="B55" s="98">
+        <v>49</v>
+      </c>
+      <c r="C55" s="100" t="s">
+        <v>254</v>
+      </c>
+      <c r="D55" s="100" t="s">
+        <v>255</v>
+      </c>
+      <c r="E55" s="100"/>
+      <c r="F55" s="100"/>
+      <c r="G55" s="100"/>
+      <c r="H55" s="100"/>
+      <c r="I55" s="101"/>
+      <c r="J55" s="100"/>
+      <c r="K55" s="100"/>
+      <c r="L55" s="102"/>
+      <c r="M55" s="102"/>
+      <c r="N55" s="103"/>
+      <c r="O55" s="102"/>
+      <c r="P55" s="73"/>
+    </row>
+    <row r="56" spans="2:18" s="61" customFormat="1" ht="30" customHeight="1">
+      <c r="B56" s="98">
+        <v>50</v>
+      </c>
+      <c r="C56" s="100" t="s">
+        <v>256</v>
+      </c>
+      <c r="D56" s="100" t="s">
+        <v>257</v>
+      </c>
+      <c r="E56" s="100"/>
+      <c r="F56" s="100"/>
+      <c r="G56" s="100"/>
+      <c r="H56" s="100"/>
+      <c r="I56" s="101"/>
+      <c r="J56" s="100"/>
+      <c r="K56" s="100"/>
+      <c r="L56" s="102"/>
+      <c r="M56" s="102"/>
+      <c r="N56" s="103"/>
+      <c r="O56" s="102"/>
+      <c r="P56" s="73"/>
+    </row>
+    <row r="57" spans="2:18" s="61" customFormat="1" ht="30" customHeight="1">
+      <c r="B57" s="98">
+        <v>51</v>
+      </c>
+      <c r="C57" s="99" t="s">
+        <v>258</v>
+      </c>
+      <c r="D57" s="100" t="s">
+        <v>264</v>
+      </c>
+      <c r="E57" s="100"/>
+      <c r="F57" s="100"/>
+      <c r="G57" s="100"/>
+      <c r="H57" s="100"/>
+      <c r="I57" s="101"/>
+      <c r="J57" s="100"/>
+      <c r="K57" s="100"/>
+      <c r="L57" s="102"/>
+      <c r="M57" s="102"/>
+      <c r="N57" s="103"/>
+      <c r="O57" s="102"/>
+      <c r="P57" s="73"/>
+    </row>
+    <row r="58" spans="2:18" s="61" customFormat="1" ht="30" customHeight="1">
+      <c r="B58" s="98">
+        <v>52</v>
+      </c>
+      <c r="C58" s="99" t="s">
+        <v>259</v>
+      </c>
+      <c r="D58" s="100" t="s">
+        <v>263</v>
+      </c>
+      <c r="E58" s="100"/>
+      <c r="F58" s="100"/>
+      <c r="G58" s="100"/>
+      <c r="H58" s="100"/>
+      <c r="I58" s="101"/>
+      <c r="J58" s="100"/>
+      <c r="K58" s="100"/>
+      <c r="L58" s="102"/>
+      <c r="M58" s="102"/>
+      <c r="N58" s="103"/>
+      <c r="O58" s="102"/>
+      <c r="P58" s="73"/>
+    </row>
+    <row r="59" spans="2:18" s="61" customFormat="1" ht="30" customHeight="1">
+      <c r="B59" s="98">
+        <v>53</v>
+      </c>
+      <c r="C59" s="99" t="s">
+        <v>260</v>
+      </c>
+      <c r="D59" s="99" t="s">
+        <v>261</v>
+      </c>
+      <c r="E59" s="100"/>
+      <c r="F59" s="100"/>
+      <c r="G59" s="100"/>
+      <c r="H59" s="100"/>
+      <c r="I59" s="101"/>
+      <c r="J59" s="100"/>
+      <c r="K59" s="100"/>
+      <c r="L59" s="102"/>
+      <c r="M59" s="102"/>
+      <c r="N59" s="103"/>
+      <c r="O59" s="102"/>
+      <c r="P59" s="73"/>
+    </row>
+    <row r="60" spans="2:18" s="61" customFormat="1" ht="15">
+      <c r="B60" s="97"/>
+      <c r="C60" s="56"/>
+      <c r="D60" s="56"/>
+      <c r="E60" s="56"/>
+      <c r="F60" s="56"/>
+      <c r="G60" s="58"/>
+      <c r="H60" s="58"/>
+      <c r="I60" s="59"/>
+      <c r="J60" s="58"/>
+      <c r="K60" s="58"/>
+      <c r="L60" s="27"/>
+      <c r="M60" s="27"/>
+      <c r="N60" s="96"/>
+      <c r="O60" s="6"/>
+      <c r="P60" s="73"/>
+    </row>
+    <row r="61" spans="2:18" s="61" customFormat="1" ht="15">
+      <c r="B61" s="97"/>
+      <c r="C61" s="56"/>
+      <c r="D61" s="56"/>
+      <c r="E61" s="56"/>
+      <c r="F61" s="56"/>
+      <c r="G61" s="58"/>
+      <c r="H61" s="58"/>
+      <c r="I61" s="59"/>
+      <c r="J61" s="58"/>
+      <c r="K61" s="58"/>
+      <c r="L61" s="27"/>
+      <c r="M61" s="27"/>
+      <c r="N61" s="96"/>
+      <c r="O61" s="6"/>
+      <c r="P61" s="73"/>
+    </row>
+    <row r="62" spans="2:18" s="61" customFormat="1" ht="15">
+      <c r="B62" s="97"/>
+      <c r="C62" s="56"/>
+      <c r="D62" s="56"/>
+      <c r="E62" s="56"/>
+      <c r="F62" s="56"/>
+      <c r="G62" s="58"/>
+      <c r="H62" s="58"/>
+      <c r="I62" s="59"/>
+      <c r="J62" s="58"/>
+      <c r="K62" s="58"/>
+      <c r="L62" s="27"/>
+      <c r="M62" s="27"/>
+      <c r="N62" s="96"/>
+      <c r="O62" s="6"/>
+      <c r="P62" s="73"/>
+    </row>
+    <row r="63" spans="2:18" s="61" customFormat="1" ht="15">
+      <c r="B63" s="97"/>
+      <c r="C63" s="56"/>
+      <c r="D63" s="56"/>
+      <c r="E63" s="56"/>
+      <c r="F63" s="56"/>
+      <c r="G63" s="58"/>
+      <c r="H63" s="58"/>
+      <c r="I63" s="59"/>
+      <c r="J63" s="58"/>
+      <c r="K63" s="58"/>
+      <c r="L63" s="27"/>
+      <c r="M63" s="27"/>
+      <c r="N63" s="96"/>
+      <c r="O63" s="6"/>
+      <c r="P63" s="73"/>
+    </row>
+    <row r="64" spans="2:18" s="61" customFormat="1" ht="15">
+      <c r="B64" s="97"/>
+      <c r="C64" s="56"/>
+      <c r="D64" s="56"/>
+      <c r="E64" s="56"/>
+      <c r="F64" s="56"/>
+      <c r="G64" s="58"/>
+      <c r="H64" s="58"/>
+      <c r="I64" s="59"/>
+      <c r="J64" s="58"/>
+      <c r="K64" s="58"/>
+      <c r="L64" s="27"/>
+      <c r="M64" s="27"/>
+      <c r="N64" s="96"/>
+      <c r="O64" s="6"/>
+      <c r="P64" s="73"/>
     </row>
   </sheetData>
   <autoFilter ref="O2:O60"/>
@@ -4272,43 +4410,43 @@
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="22" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="24" customFormat="1">
-      <c r="A2" s="25" t="s">
+    <row r="2" spans="1:2" s="23" customFormat="1">
+      <c r="A2" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="24" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="24" customFormat="1"/>
-    <row r="4" spans="1:2" s="24" customFormat="1"/>
-    <row r="5" spans="1:2" s="24" customFormat="1"/>
-    <row r="6" spans="1:2" s="24" customFormat="1"/>
-    <row r="7" spans="1:2" s="24" customFormat="1"/>
-    <row r="8" spans="1:2" s="24" customFormat="1"/>
-    <row r="9" spans="1:2" s="24" customFormat="1"/>
-    <row r="10" spans="1:2" s="24" customFormat="1"/>
-    <row r="11" spans="1:2" s="24" customFormat="1"/>
-    <row r="12" spans="1:2" s="24" customFormat="1"/>
-    <row r="13" spans="1:2" s="24" customFormat="1"/>
-    <row r="14" spans="1:2" s="24" customFormat="1"/>
-    <row r="15" spans="1:2" s="24" customFormat="1"/>
-    <row r="16" spans="1:2" s="24" customFormat="1"/>
-    <row r="17" spans="1:1" s="24" customFormat="1"/>
-    <row r="18" spans="1:1" s="24" customFormat="1"/>
-    <row r="19" spans="1:1" s="24" customFormat="1"/>
-    <row r="20" spans="1:1" s="24" customFormat="1"/>
-    <row r="21" spans="1:1" s="24" customFormat="1"/>
-    <row r="22" spans="1:1" s="24" customFormat="1"/>
-    <row r="23" spans="1:1" s="24" customFormat="1"/>
-    <row r="24" spans="1:1" s="24" customFormat="1"/>
+    <row r="3" spans="1:2" s="23" customFormat="1"/>
+    <row r="4" spans="1:2" s="23" customFormat="1"/>
+    <row r="5" spans="1:2" s="23" customFormat="1"/>
+    <row r="6" spans="1:2" s="23" customFormat="1"/>
+    <row r="7" spans="1:2" s="23" customFormat="1"/>
+    <row r="8" spans="1:2" s="23" customFormat="1"/>
+    <row r="9" spans="1:2" s="23" customFormat="1"/>
+    <row r="10" spans="1:2" s="23" customFormat="1"/>
+    <row r="11" spans="1:2" s="23" customFormat="1"/>
+    <row r="12" spans="1:2" s="23" customFormat="1"/>
+    <row r="13" spans="1:2" s="23" customFormat="1"/>
+    <row r="14" spans="1:2" s="23" customFormat="1"/>
+    <row r="15" spans="1:2" s="23" customFormat="1"/>
+    <row r="16" spans="1:2" s="23" customFormat="1"/>
+    <row r="17" spans="1:1" s="23" customFormat="1"/>
+    <row r="18" spans="1:1" s="23" customFormat="1"/>
+    <row r="19" spans="1:1" s="23" customFormat="1"/>
+    <row r="20" spans="1:1" s="23" customFormat="1"/>
+    <row r="21" spans="1:1" s="23" customFormat="1"/>
+    <row r="22" spans="1:1" s="23" customFormat="1"/>
+    <row r="23" spans="1:1" s="23" customFormat="1"/>
+    <row r="24" spans="1:1" s="23" customFormat="1"/>
     <row r="25" spans="1:1">
       <c r="A25">
         <v>1</v>
@@ -4334,56 +4472,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:3">
-      <c r="B1" s="11"/>
+      <c r="B1" s="10"/>
     </row>
     <row r="2" spans="2:3">
-      <c r="B2" s="11"/>
+      <c r="B2" s="10"/>
     </row>
     <row r="3" spans="2:3" ht="25.5">
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="16" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="4" spans="2:3">
-      <c r="B4" s="11"/>
+      <c r="B4" s="10"/>
     </row>
     <row r="5" spans="2:3">
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="15" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="28.5">
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="13" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="7" spans="2:3">
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="12" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="8" spans="2:3" ht="28.5">
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="17" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="9" spans="2:3">
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="12" t="s">
         <v>34</v>
       </c>
     </row>

--- a/Documentation/Buglist.xlsx
+++ b/Documentation/Buglist.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="266">
   <si>
     <t>ID</t>
   </si>
@@ -1221,43 +1221,47 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
+    <t>计划排产界面中，可以分开填写包装日期和出厂编号</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前填写包装日期时必须同时填入出厂编号，现在希望分开填写</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>关于自动生成投产编号</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>关于自动生产出厂编号</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划科人员需要编辑备注信息</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>开放备注编辑权限，可以在计划排产界面编辑备注</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加销售订单时，需要可以对过去的订单进行复制并修改，随后新增为新的销售订单，具体复制通过什么办法实现无要求。</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>出厂编号的规则为年份数字+月份数字+流水号，即1510001,其中15代表2015年，1代表1月份，0001是顺序号，其中月份10月要用A代替，11月要用B代替，12月要用C代替。同时也需要在自动生成后可以手动修改</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>投产编号的规则为字母+数字，即A00001,其中A代表2015年，B代表2016年以此类推，数字为五位顺序号，按排产时的先后顺序自动生成即可，另外，需要在自动生成后可以手动修改</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加标记默认功能，需要记录到配置文件中，每次默认取得这个数据的信息，重新选择后，再次点击标记默认则更新本地记录的信息</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
     <t>目前填写排产日期时必须同时填入投产编号，现在希望分开填写</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>计划排产界面中，可以分开填写包装日期和出厂编号</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>目前填写包装日期时必须同时填入出厂编号，现在希望分开填写</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>关于自动生成投产编号</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>关于自动生产出厂编号</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>计划科人员需要编辑备注信息</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>开放备注编辑权限，可以在计划排产界面编辑备注</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加销售订单时，需要可以对过去的订单进行复制并修改，随后新增为新的销售订单，具体复制通过什么办法实现无要求。</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>出厂编号的规则为年份数字+月份数字+流水号，即1510001,其中15代表2015年，1代表1月份，0001是顺序号，其中月份10月要用A代替，11月要用B代替，12月要用C代替。同时也需要在自动生成后可以手动修改</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>投产编号的规则为字母+数字，即A00001,其中A代表2015年，B代表2016年以此类推，数字为五位顺序号，按排产时的先后顺序自动生成即可，另外，需要在自动生成后可以手动修改</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -1391,7 +1395,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1443,6 +1447,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1619,7 +1629,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1946,6 +1956,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2306,8 +2319,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:S64"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A49" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F54" sqref="F54"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A51" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E55" sqref="E55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4145,7 +4158,7 @@
       </c>
       <c r="P53" s="73"/>
     </row>
-    <row r="54" spans="2:18" s="61" customFormat="1" ht="30" customHeight="1">
+    <row r="54" spans="2:18" s="61" customFormat="1" ht="75">
       <c r="B54" s="98">
         <v>48</v>
       </c>
@@ -4153,9 +4166,11 @@
         <v>253</v>
       </c>
       <c r="D54" s="100" t="s">
-        <v>262</v>
-      </c>
-      <c r="E54" s="100"/>
+        <v>261</v>
+      </c>
+      <c r="E54" s="100" t="s">
+        <v>264</v>
+      </c>
       <c r="F54" s="100"/>
       <c r="G54" s="100"/>
       <c r="H54" s="100"/>
@@ -4172,11 +4187,11 @@
       <c r="B55" s="98">
         <v>49</v>
       </c>
-      <c r="C55" s="100" t="s">
+      <c r="C55" s="113" t="s">
         <v>254</v>
       </c>
-      <c r="D55" s="100" t="s">
-        <v>255</v>
+      <c r="D55" s="113" t="s">
+        <v>265</v>
       </c>
       <c r="E55" s="100"/>
       <c r="F55" s="100"/>
@@ -4195,11 +4210,11 @@
       <c r="B56" s="98">
         <v>50</v>
       </c>
-      <c r="C56" s="100" t="s">
+      <c r="C56" s="113" t="s">
+        <v>255</v>
+      </c>
+      <c r="D56" s="113" t="s">
         <v>256</v>
-      </c>
-      <c r="D56" s="100" t="s">
-        <v>257</v>
       </c>
       <c r="E56" s="100"/>
       <c r="F56" s="100"/>
@@ -4219,10 +4234,10 @@
         <v>51</v>
       </c>
       <c r="C57" s="99" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D57" s="100" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E57" s="100"/>
       <c r="F57" s="100"/>
@@ -4242,10 +4257,10 @@
         <v>52</v>
       </c>
       <c r="C58" s="99" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D58" s="100" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E58" s="100"/>
       <c r="F58" s="100"/>
@@ -4265,10 +4280,10 @@
         <v>53</v>
       </c>
       <c r="C59" s="99" t="s">
+        <v>259</v>
+      </c>
+      <c r="D59" s="99" t="s">
         <v>260</v>
-      </c>
-      <c r="D59" s="99" t="s">
-        <v>261</v>
       </c>
       <c r="E59" s="100"/>
       <c r="F59" s="100"/>

--- a/Documentation/Buglist.xlsx
+++ b/Documentation/Buglist.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="267">
   <si>
     <t>ID</t>
   </si>
@@ -1262,6 +1262,10 @@
   </si>
   <si>
     <t>目前填写排产日期时必须同时填入投产编号，现在希望分开填写</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Resolve</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -1395,7 +1399,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1447,12 +1451,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1629,7 +1627,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1957,8 +1955,17 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2320,7 +2327,7 @@
   <dimension ref="B2:S64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A51" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E55" sqref="E55"/>
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4154,7 +4161,7 @@
       <c r="M53" s="27"/>
       <c r="N53" s="96"/>
       <c r="O53" s="6" t="s">
-        <v>223</v>
+        <v>266</v>
       </c>
       <c r="P53" s="73"/>
     </row>
@@ -4193,17 +4200,19 @@
       <c r="D55" s="113" t="s">
         <v>265</v>
       </c>
-      <c r="E55" s="100"/>
-      <c r="F55" s="100"/>
-      <c r="G55" s="100"/>
-      <c r="H55" s="100"/>
-      <c r="I55" s="101"/>
-      <c r="J55" s="100"/>
-      <c r="K55" s="100"/>
-      <c r="L55" s="102"/>
-      <c r="M55" s="102"/>
-      <c r="N55" s="103"/>
-      <c r="O55" s="102"/>
+      <c r="E55" s="113"/>
+      <c r="F55" s="113"/>
+      <c r="G55" s="113"/>
+      <c r="H55" s="113"/>
+      <c r="I55" s="114"/>
+      <c r="J55" s="113"/>
+      <c r="K55" s="113"/>
+      <c r="L55" s="25"/>
+      <c r="M55" s="25"/>
+      <c r="N55" s="115"/>
+      <c r="O55" s="25" t="s">
+        <v>223</v>
+      </c>
       <c r="P55" s="73"/>
     </row>
     <row r="56" spans="2:18" s="61" customFormat="1" ht="30" customHeight="1">
@@ -4216,86 +4225,94 @@
       <c r="D56" s="113" t="s">
         <v>256</v>
       </c>
-      <c r="E56" s="100"/>
-      <c r="F56" s="100"/>
-      <c r="G56" s="100"/>
-      <c r="H56" s="100"/>
-      <c r="I56" s="101"/>
-      <c r="J56" s="100"/>
-      <c r="K56" s="100"/>
-      <c r="L56" s="102"/>
-      <c r="M56" s="102"/>
-      <c r="N56" s="103"/>
-      <c r="O56" s="102"/>
+      <c r="E56" s="113"/>
+      <c r="F56" s="113"/>
+      <c r="G56" s="113"/>
+      <c r="H56" s="113"/>
+      <c r="I56" s="114"/>
+      <c r="J56" s="113"/>
+      <c r="K56" s="113"/>
+      <c r="L56" s="25"/>
+      <c r="M56" s="25"/>
+      <c r="N56" s="115"/>
+      <c r="O56" s="25" t="s">
+        <v>223</v>
+      </c>
       <c r="P56" s="73"/>
     </row>
     <row r="57" spans="2:18" s="61" customFormat="1" ht="30" customHeight="1">
       <c r="B57" s="98">
         <v>51</v>
       </c>
-      <c r="C57" s="99" t="s">
+      <c r="C57" s="116" t="s">
         <v>257</v>
       </c>
-      <c r="D57" s="100" t="s">
+      <c r="D57" s="113" t="s">
         <v>263</v>
       </c>
-      <c r="E57" s="100"/>
-      <c r="F57" s="100"/>
-      <c r="G57" s="100"/>
-      <c r="H57" s="100"/>
-      <c r="I57" s="101"/>
-      <c r="J57" s="100"/>
-      <c r="K57" s="100"/>
-      <c r="L57" s="102"/>
-      <c r="M57" s="102"/>
-      <c r="N57" s="103"/>
-      <c r="O57" s="102"/>
+      <c r="E57" s="113"/>
+      <c r="F57" s="113"/>
+      <c r="G57" s="113"/>
+      <c r="H57" s="113"/>
+      <c r="I57" s="114"/>
+      <c r="J57" s="113"/>
+      <c r="K57" s="113"/>
+      <c r="L57" s="25"/>
+      <c r="M57" s="25"/>
+      <c r="N57" s="115"/>
+      <c r="O57" s="25" t="s">
+        <v>223</v>
+      </c>
       <c r="P57" s="73"/>
     </row>
     <row r="58" spans="2:18" s="61" customFormat="1" ht="30" customHeight="1">
       <c r="B58" s="98">
         <v>52</v>
       </c>
-      <c r="C58" s="99" t="s">
+      <c r="C58" s="116" t="s">
         <v>258</v>
       </c>
-      <c r="D58" s="100" t="s">
+      <c r="D58" s="113" t="s">
         <v>262</v>
       </c>
-      <c r="E58" s="100"/>
-      <c r="F58" s="100"/>
-      <c r="G58" s="100"/>
-      <c r="H58" s="100"/>
-      <c r="I58" s="101"/>
-      <c r="J58" s="100"/>
-      <c r="K58" s="100"/>
-      <c r="L58" s="102"/>
-      <c r="M58" s="102"/>
-      <c r="N58" s="103"/>
-      <c r="O58" s="102"/>
+      <c r="E58" s="113"/>
+      <c r="F58" s="113"/>
+      <c r="G58" s="113"/>
+      <c r="H58" s="113"/>
+      <c r="I58" s="114"/>
+      <c r="J58" s="113"/>
+      <c r="K58" s="113"/>
+      <c r="L58" s="25"/>
+      <c r="M58" s="25"/>
+      <c r="N58" s="115"/>
+      <c r="O58" s="25" t="s">
+        <v>223</v>
+      </c>
       <c r="P58" s="73"/>
     </row>
     <row r="59" spans="2:18" s="61" customFormat="1" ht="30" customHeight="1">
       <c r="B59" s="98">
         <v>53</v>
       </c>
-      <c r="C59" s="99" t="s">
+      <c r="C59" s="116" t="s">
         <v>259</v>
       </c>
-      <c r="D59" s="99" t="s">
+      <c r="D59" s="116" t="s">
         <v>260</v>
       </c>
-      <c r="E59" s="100"/>
-      <c r="F59" s="100"/>
-      <c r="G59" s="100"/>
-      <c r="H59" s="100"/>
-      <c r="I59" s="101"/>
-      <c r="J59" s="100"/>
-      <c r="K59" s="100"/>
-      <c r="L59" s="102"/>
-      <c r="M59" s="102"/>
-      <c r="N59" s="103"/>
-      <c r="O59" s="102"/>
+      <c r="E59" s="113"/>
+      <c r="F59" s="113"/>
+      <c r="G59" s="113"/>
+      <c r="H59" s="113"/>
+      <c r="I59" s="114"/>
+      <c r="J59" s="113"/>
+      <c r="K59" s="113"/>
+      <c r="L59" s="25"/>
+      <c r="M59" s="25"/>
+      <c r="N59" s="115"/>
+      <c r="O59" s="25" t="s">
+        <v>223</v>
+      </c>
       <c r="P59" s="73"/>
     </row>
     <row r="60" spans="2:18" s="61" customFormat="1" ht="15">

--- a/Documentation/Buglist.xlsx
+++ b/Documentation/Buglist.xlsx
@@ -1928,6 +1928,18 @@
     <xf numFmtId="0" fontId="6" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1954,18 +1966,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2350,7 +2350,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" s="46" customFormat="1" ht="25.5">
-      <c r="B2" s="106"/>
+      <c r="B2" s="110"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -2367,7 +2367,7 @@
       <c r="P2" s="63"/>
     </row>
     <row r="3" spans="2:16" s="46" customFormat="1" ht="26.25" thickBot="1">
-      <c r="B3" s="107"/>
+      <c r="B3" s="111"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
@@ -2384,36 +2384,36 @@
       <c r="P3" s="63"/>
     </row>
     <row r="4" spans="2:16" s="3" customFormat="1" ht="14.25">
-      <c r="B4" s="111" t="s">
+      <c r="B4" s="115" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="108" t="s">
+      <c r="C4" s="112" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="109"/>
-      <c r="E4" s="109"/>
-      <c r="F4" s="109"/>
-      <c r="G4" s="109"/>
-      <c r="H4" s="109"/>
-      <c r="I4" s="109"/>
-      <c r="J4" s="109"/>
-      <c r="K4" s="109"/>
-      <c r="L4" s="104" t="s">
+      <c r="D4" s="113"/>
+      <c r="E4" s="113"/>
+      <c r="F4" s="113"/>
+      <c r="G4" s="113"/>
+      <c r="H4" s="113"/>
+      <c r="I4" s="113"/>
+      <c r="J4" s="113"/>
+      <c r="K4" s="113"/>
+      <c r="L4" s="108" t="s">
         <v>22</v>
       </c>
-      <c r="M4" s="104" t="s">
+      <c r="M4" s="108" t="s">
         <v>10</v>
       </c>
-      <c r="N4" s="104" t="s">
+      <c r="N4" s="108" t="s">
         <v>45</v>
       </c>
-      <c r="O4" s="104" t="s">
+      <c r="O4" s="108" t="s">
         <v>151</v>
       </c>
       <c r="P4" s="64"/>
     </row>
     <row r="5" spans="2:16" s="3" customFormat="1" ht="14.25">
-      <c r="B5" s="112"/>
+      <c r="B5" s="116"/>
       <c r="C5" s="9" t="s">
         <v>1</v>
       </c>
@@ -2441,10 +2441,10 @@
       <c r="K5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="L5" s="110"/>
-      <c r="M5" s="105"/>
-      <c r="N5" s="105"/>
-      <c r="O5" s="105"/>
+      <c r="L5" s="114"/>
+      <c r="M5" s="109"/>
+      <c r="N5" s="109"/>
+      <c r="O5" s="109"/>
       <c r="P5" s="64"/>
     </row>
     <row r="6" spans="2:16" s="7" customFormat="1" ht="90">
@@ -4194,22 +4194,22 @@
       <c r="B55" s="98">
         <v>49</v>
       </c>
-      <c r="C55" s="113" t="s">
+      <c r="C55" s="104" t="s">
         <v>254</v>
       </c>
-      <c r="D55" s="113" t="s">
+      <c r="D55" s="104" t="s">
         <v>265</v>
       </c>
-      <c r="E55" s="113"/>
-      <c r="F55" s="113"/>
-      <c r="G55" s="113"/>
-      <c r="H55" s="113"/>
-      <c r="I55" s="114"/>
-      <c r="J55" s="113"/>
-      <c r="K55" s="113"/>
+      <c r="E55" s="104"/>
+      <c r="F55" s="104"/>
+      <c r="G55" s="104"/>
+      <c r="H55" s="104"/>
+      <c r="I55" s="105"/>
+      <c r="J55" s="104"/>
+      <c r="K55" s="104"/>
       <c r="L55" s="25"/>
       <c r="M55" s="25"/>
-      <c r="N55" s="115"/>
+      <c r="N55" s="106"/>
       <c r="O55" s="25" t="s">
         <v>223</v>
       </c>
@@ -4219,22 +4219,22 @@
       <c r="B56" s="98">
         <v>50</v>
       </c>
-      <c r="C56" s="113" t="s">
+      <c r="C56" s="104" t="s">
         <v>255</v>
       </c>
-      <c r="D56" s="113" t="s">
+      <c r="D56" s="104" t="s">
         <v>256</v>
       </c>
-      <c r="E56" s="113"/>
-      <c r="F56" s="113"/>
-      <c r="G56" s="113"/>
-      <c r="H56" s="113"/>
-      <c r="I56" s="114"/>
-      <c r="J56" s="113"/>
-      <c r="K56" s="113"/>
+      <c r="E56" s="104"/>
+      <c r="F56" s="104"/>
+      <c r="G56" s="104"/>
+      <c r="H56" s="104"/>
+      <c r="I56" s="105"/>
+      <c r="J56" s="104"/>
+      <c r="K56" s="104"/>
       <c r="L56" s="25"/>
       <c r="M56" s="25"/>
-      <c r="N56" s="115"/>
+      <c r="N56" s="106"/>
       <c r="O56" s="25" t="s">
         <v>223</v>
       </c>
@@ -4244,22 +4244,22 @@
       <c r="B57" s="98">
         <v>51</v>
       </c>
-      <c r="C57" s="116" t="s">
+      <c r="C57" s="107" t="s">
         <v>257</v>
       </c>
-      <c r="D57" s="113" t="s">
+      <c r="D57" s="104" t="s">
         <v>263</v>
       </c>
-      <c r="E57" s="113"/>
-      <c r="F57" s="113"/>
-      <c r="G57" s="113"/>
-      <c r="H57" s="113"/>
-      <c r="I57" s="114"/>
-      <c r="J57" s="113"/>
-      <c r="K57" s="113"/>
+      <c r="E57" s="104"/>
+      <c r="F57" s="104"/>
+      <c r="G57" s="104"/>
+      <c r="H57" s="104"/>
+      <c r="I57" s="105"/>
+      <c r="J57" s="104"/>
+      <c r="K57" s="104"/>
       <c r="L57" s="25"/>
       <c r="M57" s="25"/>
-      <c r="N57" s="115"/>
+      <c r="N57" s="106"/>
       <c r="O57" s="25" t="s">
         <v>223</v>
       </c>
@@ -4269,22 +4269,22 @@
       <c r="B58" s="98">
         <v>52</v>
       </c>
-      <c r="C58" s="116" t="s">
+      <c r="C58" s="107" t="s">
         <v>258</v>
       </c>
-      <c r="D58" s="113" t="s">
+      <c r="D58" s="104" t="s">
         <v>262</v>
       </c>
-      <c r="E58" s="113"/>
-      <c r="F58" s="113"/>
-      <c r="G58" s="113"/>
-      <c r="H58" s="113"/>
-      <c r="I58" s="114"/>
-      <c r="J58" s="113"/>
-      <c r="K58" s="113"/>
+      <c r="E58" s="104"/>
+      <c r="F58" s="104"/>
+      <c r="G58" s="104"/>
+      <c r="H58" s="104"/>
+      <c r="I58" s="105"/>
+      <c r="J58" s="104"/>
+      <c r="K58" s="104"/>
       <c r="L58" s="25"/>
       <c r="M58" s="25"/>
-      <c r="N58" s="115"/>
+      <c r="N58" s="106"/>
       <c r="O58" s="25" t="s">
         <v>223</v>
       </c>
@@ -4294,22 +4294,22 @@
       <c r="B59" s="98">
         <v>53</v>
       </c>
-      <c r="C59" s="116" t="s">
+      <c r="C59" s="107" t="s">
         <v>259</v>
       </c>
-      <c r="D59" s="116" t="s">
+      <c r="D59" s="107" t="s">
         <v>260</v>
       </c>
-      <c r="E59" s="113"/>
-      <c r="F59" s="113"/>
-      <c r="G59" s="113"/>
-      <c r="H59" s="113"/>
-      <c r="I59" s="114"/>
-      <c r="J59" s="113"/>
-      <c r="K59" s="113"/>
+      <c r="E59" s="104"/>
+      <c r="F59" s="104"/>
+      <c r="G59" s="104"/>
+      <c r="H59" s="104"/>
+      <c r="I59" s="105"/>
+      <c r="J59" s="104"/>
+      <c r="K59" s="104"/>
       <c r="L59" s="25"/>
       <c r="M59" s="25"/>
-      <c r="N59" s="115"/>
+      <c r="N59" s="106"/>
       <c r="O59" s="25" t="s">
         <v>223</v>
       </c>

--- a/Documentation/Buglist.xlsx
+++ b/Documentation/Buglist.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="266">
   <si>
     <t>ID</t>
   </si>
@@ -1221,6 +1221,10 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
+    <t>目前填写排产日期时必须同时填入投产编号，现在希望分开填写</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
     <t>计划排产界面中，可以分开填写包装日期和出厂编号</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
@@ -1257,15 +1261,7 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>添加标记默认功能，需要记录到配置文件中，每次默认取得这个数据的信息，重新选择后，再次点击标记默认则更新本地记录的信息</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>目前填写排产日期时必须同时填入投产编号，现在希望分开填写</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>Resolve</t>
+    <t>工号栏增加输入数据位数需要增加</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -1627,7 +1623,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1910,9 +1906,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1928,18 +1921,6 @@
     <xf numFmtId="0" fontId="6" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1966,6 +1947,12 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2326,8 +2313,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:S64"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A51" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A55" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E59" sqref="E59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2350,7 +2337,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" s="46" customFormat="1" ht="25.5">
-      <c r="B2" s="110"/>
+      <c r="B2" s="105"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -2367,7 +2354,7 @@
       <c r="P2" s="63"/>
     </row>
     <row r="3" spans="2:16" s="46" customFormat="1" ht="26.25" thickBot="1">
-      <c r="B3" s="111"/>
+      <c r="B3" s="106"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
@@ -2384,36 +2371,36 @@
       <c r="P3" s="63"/>
     </row>
     <row r="4" spans="2:16" s="3" customFormat="1" ht="14.25">
-      <c r="B4" s="115" t="s">
+      <c r="B4" s="110" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="112" t="s">
+      <c r="C4" s="107" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="113"/>
-      <c r="E4" s="113"/>
-      <c r="F4" s="113"/>
-      <c r="G4" s="113"/>
-      <c r="H4" s="113"/>
-      <c r="I4" s="113"/>
-      <c r="J4" s="113"/>
-      <c r="K4" s="113"/>
-      <c r="L4" s="108" t="s">
+      <c r="D4" s="108"/>
+      <c r="E4" s="108"/>
+      <c r="F4" s="108"/>
+      <c r="G4" s="108"/>
+      <c r="H4" s="108"/>
+      <c r="I4" s="108"/>
+      <c r="J4" s="108"/>
+      <c r="K4" s="108"/>
+      <c r="L4" s="103" t="s">
         <v>22</v>
       </c>
-      <c r="M4" s="108" t="s">
+      <c r="M4" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="N4" s="108" t="s">
+      <c r="N4" s="103" t="s">
         <v>45</v>
       </c>
-      <c r="O4" s="108" t="s">
+      <c r="O4" s="103" t="s">
         <v>151</v>
       </c>
       <c r="P4" s="64"/>
     </row>
     <row r="5" spans="2:16" s="3" customFormat="1" ht="14.25">
-      <c r="B5" s="116"/>
+      <c r="B5" s="111"/>
       <c r="C5" s="9" t="s">
         <v>1</v>
       </c>
@@ -2441,10 +2428,10 @@
       <c r="K5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="L5" s="114"/>
-      <c r="M5" s="109"/>
-      <c r="N5" s="109"/>
-      <c r="O5" s="109"/>
+      <c r="L5" s="109"/>
+      <c r="M5" s="104"/>
+      <c r="N5" s="104"/>
+      <c r="O5" s="104"/>
       <c r="P5" s="64"/>
     </row>
     <row r="6" spans="2:16" s="7" customFormat="1" ht="90">
@@ -4161,175 +4148,169 @@
       <c r="M53" s="27"/>
       <c r="N53" s="96"/>
       <c r="O53" s="6" t="s">
-        <v>266</v>
+        <v>223</v>
       </c>
       <c r="P53" s="73"/>
     </row>
-    <row r="54" spans="2:18" s="61" customFormat="1" ht="75">
-      <c r="B54" s="98">
+    <row r="54" spans="2:18" s="61" customFormat="1" ht="30" customHeight="1">
+      <c r="B54" s="97">
         <v>48</v>
       </c>
-      <c r="C54" s="99" t="s">
+      <c r="C54" s="112" t="s">
         <v>253</v>
       </c>
-      <c r="D54" s="100" t="s">
+      <c r="D54" s="56" t="s">
+        <v>262</v>
+      </c>
+      <c r="E54" s="56"/>
+      <c r="F54" s="56"/>
+      <c r="G54" s="56"/>
+      <c r="H54" s="56"/>
+      <c r="I54" s="57"/>
+      <c r="J54" s="56"/>
+      <c r="K54" s="56"/>
+      <c r="L54" s="6"/>
+      <c r="M54" s="6"/>
+      <c r="N54" s="113"/>
+      <c r="O54" s="6"/>
+      <c r="P54" s="73"/>
+    </row>
+    <row r="55" spans="2:18" s="61" customFormat="1" ht="30" customHeight="1">
+      <c r="B55" s="97">
+        <v>49</v>
+      </c>
+      <c r="C55" s="56" t="s">
+        <v>254</v>
+      </c>
+      <c r="D55" s="56" t="s">
+        <v>255</v>
+      </c>
+      <c r="E55" s="56"/>
+      <c r="F55" s="56"/>
+      <c r="G55" s="56"/>
+      <c r="H55" s="56"/>
+      <c r="I55" s="57"/>
+      <c r="J55" s="56"/>
+      <c r="K55" s="56"/>
+      <c r="L55" s="6"/>
+      <c r="M55" s="6"/>
+      <c r="N55" s="113"/>
+      <c r="O55" s="6"/>
+      <c r="P55" s="73"/>
+    </row>
+    <row r="56" spans="2:18" s="61" customFormat="1" ht="30" customHeight="1">
+      <c r="B56" s="97">
+        <v>50</v>
+      </c>
+      <c r="C56" s="56" t="s">
+        <v>256</v>
+      </c>
+      <c r="D56" s="56" t="s">
+        <v>257</v>
+      </c>
+      <c r="E56" s="56"/>
+      <c r="F56" s="56"/>
+      <c r="G56" s="56"/>
+      <c r="H56" s="56"/>
+      <c r="I56" s="57"/>
+      <c r="J56" s="56"/>
+      <c r="K56" s="56"/>
+      <c r="L56" s="6"/>
+      <c r="M56" s="6"/>
+      <c r="N56" s="113"/>
+      <c r="O56" s="6"/>
+      <c r="P56" s="73"/>
+    </row>
+    <row r="57" spans="2:18" s="61" customFormat="1" ht="30" customHeight="1">
+      <c r="B57" s="97">
+        <v>51</v>
+      </c>
+      <c r="C57" s="112" t="s">
+        <v>258</v>
+      </c>
+      <c r="D57" s="56" t="s">
+        <v>264</v>
+      </c>
+      <c r="E57" s="56"/>
+      <c r="F57" s="56"/>
+      <c r="G57" s="56"/>
+      <c r="H57" s="56"/>
+      <c r="I57" s="57"/>
+      <c r="J57" s="56"/>
+      <c r="K57" s="56"/>
+      <c r="L57" s="6"/>
+      <c r="M57" s="6"/>
+      <c r="N57" s="113"/>
+      <c r="O57" s="6"/>
+      <c r="P57" s="73"/>
+    </row>
+    <row r="58" spans="2:18" s="61" customFormat="1" ht="30" customHeight="1">
+      <c r="B58" s="97">
+        <v>52</v>
+      </c>
+      <c r="C58" s="112" t="s">
+        <v>259</v>
+      </c>
+      <c r="D58" s="56" t="s">
+        <v>263</v>
+      </c>
+      <c r="E58" s="56"/>
+      <c r="F58" s="56"/>
+      <c r="G58" s="56"/>
+      <c r="H58" s="56"/>
+      <c r="I58" s="57"/>
+      <c r="J58" s="56"/>
+      <c r="K58" s="56"/>
+      <c r="L58" s="6"/>
+      <c r="M58" s="6"/>
+      <c r="N58" s="113"/>
+      <c r="O58" s="6"/>
+      <c r="P58" s="73"/>
+    </row>
+    <row r="59" spans="2:18" s="61" customFormat="1" ht="30" customHeight="1">
+      <c r="B59" s="97">
+        <v>53</v>
+      </c>
+      <c r="C59" s="112" t="s">
+        <v>260</v>
+      </c>
+      <c r="D59" s="112" t="s">
         <v>261</v>
       </c>
-      <c r="E54" s="100" t="s">
-        <v>264</v>
-      </c>
-      <c r="F54" s="100"/>
-      <c r="G54" s="100"/>
-      <c r="H54" s="100"/>
-      <c r="I54" s="101"/>
-      <c r="J54" s="100"/>
-      <c r="K54" s="100"/>
-      <c r="L54" s="102"/>
-      <c r="M54" s="102"/>
-      <c r="N54" s="103"/>
-      <c r="O54" s="102"/>
-      <c r="P54" s="73"/>
-    </row>
-    <row r="55" spans="2:18" s="61" customFormat="1" ht="30" customHeight="1">
-      <c r="B55" s="98">
-        <v>49</v>
-      </c>
-      <c r="C55" s="104" t="s">
-        <v>254</v>
-      </c>
-      <c r="D55" s="104" t="s">
+      <c r="E59" s="56"/>
+      <c r="F59" s="56"/>
+      <c r="G59" s="56"/>
+      <c r="H59" s="56"/>
+      <c r="I59" s="57"/>
+      <c r="J59" s="56"/>
+      <c r="K59" s="56"/>
+      <c r="L59" s="6"/>
+      <c r="M59" s="6"/>
+      <c r="N59" s="113"/>
+      <c r="O59" s="6"/>
+      <c r="P59" s="73"/>
+    </row>
+    <row r="60" spans="2:18" s="61" customFormat="1" ht="30" customHeight="1">
+      <c r="B60" s="97">
+        <v>54</v>
+      </c>
+      <c r="C60" s="98" t="s">
         <v>265</v>
       </c>
-      <c r="E55" s="104"/>
-      <c r="F55" s="104"/>
-      <c r="G55" s="104"/>
-      <c r="H55" s="104"/>
-      <c r="I55" s="105"/>
-      <c r="J55" s="104"/>
-      <c r="K55" s="104"/>
-      <c r="L55" s="25"/>
-      <c r="M55" s="25"/>
-      <c r="N55" s="106"/>
-      <c r="O55" s="25" t="s">
-        <v>223</v>
-      </c>
-      <c r="P55" s="73"/>
-    </row>
-    <row r="56" spans="2:18" s="61" customFormat="1" ht="30" customHeight="1">
-      <c r="B56" s="98">
-        <v>50</v>
-      </c>
-      <c r="C56" s="104" t="s">
-        <v>255</v>
-      </c>
-      <c r="D56" s="104" t="s">
-        <v>256</v>
-      </c>
-      <c r="E56" s="104"/>
-      <c r="F56" s="104"/>
-      <c r="G56" s="104"/>
-      <c r="H56" s="104"/>
-      <c r="I56" s="105"/>
-      <c r="J56" s="104"/>
-      <c r="K56" s="104"/>
-      <c r="L56" s="25"/>
-      <c r="M56" s="25"/>
-      <c r="N56" s="106"/>
-      <c r="O56" s="25" t="s">
-        <v>223</v>
-      </c>
-      <c r="P56" s="73"/>
-    </row>
-    <row r="57" spans="2:18" s="61" customFormat="1" ht="30" customHeight="1">
-      <c r="B57" s="98">
-        <v>51</v>
-      </c>
-      <c r="C57" s="107" t="s">
-        <v>257</v>
-      </c>
-      <c r="D57" s="104" t="s">
-        <v>263</v>
-      </c>
-      <c r="E57" s="104"/>
-      <c r="F57" s="104"/>
-      <c r="G57" s="104"/>
-      <c r="H57" s="104"/>
-      <c r="I57" s="105"/>
-      <c r="J57" s="104"/>
-      <c r="K57" s="104"/>
-      <c r="L57" s="25"/>
-      <c r="M57" s="25"/>
-      <c r="N57" s="106"/>
-      <c r="O57" s="25" t="s">
-        <v>223</v>
-      </c>
-      <c r="P57" s="73"/>
-    </row>
-    <row r="58" spans="2:18" s="61" customFormat="1" ht="30" customHeight="1">
-      <c r="B58" s="98">
-        <v>52</v>
-      </c>
-      <c r="C58" s="107" t="s">
-        <v>258</v>
-      </c>
-      <c r="D58" s="104" t="s">
-        <v>262</v>
-      </c>
-      <c r="E58" s="104"/>
-      <c r="F58" s="104"/>
-      <c r="G58" s="104"/>
-      <c r="H58" s="104"/>
-      <c r="I58" s="105"/>
-      <c r="J58" s="104"/>
-      <c r="K58" s="104"/>
-      <c r="L58" s="25"/>
-      <c r="M58" s="25"/>
-      <c r="N58" s="106"/>
-      <c r="O58" s="25" t="s">
-        <v>223</v>
-      </c>
-      <c r="P58" s="73"/>
-    </row>
-    <row r="59" spans="2:18" s="61" customFormat="1" ht="30" customHeight="1">
-      <c r="B59" s="98">
-        <v>53</v>
-      </c>
-      <c r="C59" s="107" t="s">
-        <v>259</v>
-      </c>
-      <c r="D59" s="107" t="s">
-        <v>260</v>
-      </c>
-      <c r="E59" s="104"/>
-      <c r="F59" s="104"/>
-      <c r="G59" s="104"/>
-      <c r="H59" s="104"/>
-      <c r="I59" s="105"/>
-      <c r="J59" s="104"/>
-      <c r="K59" s="104"/>
-      <c r="L59" s="25"/>
-      <c r="M59" s="25"/>
-      <c r="N59" s="106"/>
-      <c r="O59" s="25" t="s">
-        <v>223</v>
-      </c>
-      <c r="P59" s="73"/>
-    </row>
-    <row r="60" spans="2:18" s="61" customFormat="1" ht="15">
-      <c r="B60" s="97"/>
-      <c r="C60" s="56"/>
-      <c r="D60" s="56"/>
-      <c r="E60" s="56"/>
-      <c r="F60" s="56"/>
-      <c r="G60" s="58"/>
-      <c r="H60" s="58"/>
-      <c r="I60" s="59"/>
-      <c r="J60" s="58"/>
-      <c r="K60" s="58"/>
-      <c r="L60" s="27"/>
-      <c r="M60" s="27"/>
-      <c r="N60" s="96"/>
-      <c r="O60" s="6"/>
+      <c r="D60" s="98" t="s">
+        <v>265</v>
+      </c>
+      <c r="E60" s="99"/>
+      <c r="F60" s="99"/>
+      <c r="G60" s="99"/>
+      <c r="H60" s="99"/>
+      <c r="I60" s="100"/>
+      <c r="J60" s="99"/>
+      <c r="K60" s="99"/>
+      <c r="L60" s="101"/>
+      <c r="M60" s="101"/>
+      <c r="N60" s="102"/>
+      <c r="O60" s="101"/>
       <c r="P60" s="73"/>
     </row>
     <row r="61" spans="2:18" s="61" customFormat="1" ht="15">

--- a/Documentation/Buglist.xlsx
+++ b/Documentation/Buglist.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="277">
   <si>
     <t>ID</t>
   </si>
@@ -1262,6 +1262,50 @@
   </si>
   <si>
     <t>工号栏增加输入数据位数需要增加</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加用户</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加用户王超和谭福进，计划科全部权限</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>已经解决</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>更改包装箱内容选项</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>由原来的很多选项变更为“蓝光标准包装箱”“特殊包装箱”“出口免熏蒸包装箱”“出口单层包装箱”“出口2层包装箱”</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>更改铭牌资料内容选项</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除原有内容，由填写人今后通过录入的办法完善数据</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>更改的内容需要在销售订单界面和销售订单审核界面高亮显示</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>在销售订单应用设置默认订单的办法添加订单后，如果其中默认的信息有更改的地方，需要在销售订单界面和销售订单审核界面高亮显示，当本条订单业务和计划审核后，就不用高亮显示了。</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售订单添加界面，下拉菜单自动显示</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>希望实现，在销售订单添加界面中的其中一项，录入内容会自动显示，例如：在销售订单中点添加，然后在包装箱和底拍的空白框中输入蓝光，后面小箭头的下拉菜单自动弹出，并且其中内容是都有蓝光的。</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -1921,6 +1965,12 @@
     <xf numFmtId="0" fontId="6" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1947,12 +1997,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2311,10 +2355,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:S64"/>
+  <dimension ref="B2:S68"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A55" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E59" sqref="E59"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A61" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D65" sqref="D65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2337,7 +2381,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" s="46" customFormat="1" ht="25.5">
-      <c r="B2" s="105"/>
+      <c r="B2" s="107"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -2354,7 +2398,7 @@
       <c r="P2" s="63"/>
     </row>
     <row r="3" spans="2:16" s="46" customFormat="1" ht="26.25" thickBot="1">
-      <c r="B3" s="106"/>
+      <c r="B3" s="108"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
@@ -2371,36 +2415,36 @@
       <c r="P3" s="63"/>
     </row>
     <row r="4" spans="2:16" s="3" customFormat="1" ht="14.25">
-      <c r="B4" s="110" t="s">
+      <c r="B4" s="112" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="107" t="s">
+      <c r="C4" s="109" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="108"/>
-      <c r="E4" s="108"/>
-      <c r="F4" s="108"/>
-      <c r="G4" s="108"/>
-      <c r="H4" s="108"/>
-      <c r="I4" s="108"/>
-      <c r="J4" s="108"/>
-      <c r="K4" s="108"/>
-      <c r="L4" s="103" t="s">
+      <c r="D4" s="110"/>
+      <c r="E4" s="110"/>
+      <c r="F4" s="110"/>
+      <c r="G4" s="110"/>
+      <c r="H4" s="110"/>
+      <c r="I4" s="110"/>
+      <c r="J4" s="110"/>
+      <c r="K4" s="110"/>
+      <c r="L4" s="105" t="s">
         <v>22</v>
       </c>
-      <c r="M4" s="103" t="s">
+      <c r="M4" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="N4" s="103" t="s">
+      <c r="N4" s="105" t="s">
         <v>45</v>
       </c>
-      <c r="O4" s="103" t="s">
+      <c r="O4" s="105" t="s">
         <v>151</v>
       </c>
       <c r="P4" s="64"/>
     </row>
     <row r="5" spans="2:16" s="3" customFormat="1" ht="14.25">
-      <c r="B5" s="111"/>
+      <c r="B5" s="113"/>
       <c r="C5" s="9" t="s">
         <v>1</v>
       </c>
@@ -2428,10 +2472,10 @@
       <c r="K5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="L5" s="109"/>
-      <c r="M5" s="104"/>
-      <c r="N5" s="104"/>
-      <c r="O5" s="104"/>
+      <c r="L5" s="111"/>
+      <c r="M5" s="106"/>
+      <c r="N5" s="106"/>
+      <c r="O5" s="106"/>
       <c r="P5" s="64"/>
     </row>
     <row r="6" spans="2:16" s="7" customFormat="1" ht="90">
@@ -4156,7 +4200,7 @@
       <c r="B54" s="97">
         <v>48</v>
       </c>
-      <c r="C54" s="112" t="s">
+      <c r="C54" s="103" t="s">
         <v>253</v>
       </c>
       <c r="D54" s="56" t="s">
@@ -4171,7 +4215,7 @@
       <c r="K54" s="56"/>
       <c r="L54" s="6"/>
       <c r="M54" s="6"/>
-      <c r="N54" s="113"/>
+      <c r="N54" s="104"/>
       <c r="O54" s="6"/>
       <c r="P54" s="73"/>
     </row>
@@ -4194,7 +4238,7 @@
       <c r="K55" s="56"/>
       <c r="L55" s="6"/>
       <c r="M55" s="6"/>
-      <c r="N55" s="113"/>
+      <c r="N55" s="104"/>
       <c r="O55" s="6"/>
       <c r="P55" s="73"/>
     </row>
@@ -4217,7 +4261,7 @@
       <c r="K56" s="56"/>
       <c r="L56" s="6"/>
       <c r="M56" s="6"/>
-      <c r="N56" s="113"/>
+      <c r="N56" s="104"/>
       <c r="O56" s="6"/>
       <c r="P56" s="73"/>
     </row>
@@ -4225,7 +4269,7 @@
       <c r="B57" s="97">
         <v>51</v>
       </c>
-      <c r="C57" s="112" t="s">
+      <c r="C57" s="103" t="s">
         <v>258</v>
       </c>
       <c r="D57" s="56" t="s">
@@ -4240,7 +4284,7 @@
       <c r="K57" s="56"/>
       <c r="L57" s="6"/>
       <c r="M57" s="6"/>
-      <c r="N57" s="113"/>
+      <c r="N57" s="104"/>
       <c r="O57" s="6"/>
       <c r="P57" s="73"/>
     </row>
@@ -4248,7 +4292,7 @@
       <c r="B58" s="97">
         <v>52</v>
       </c>
-      <c r="C58" s="112" t="s">
+      <c r="C58" s="103" t="s">
         <v>259</v>
       </c>
       <c r="D58" s="56" t="s">
@@ -4263,7 +4307,7 @@
       <c r="K58" s="56"/>
       <c r="L58" s="6"/>
       <c r="M58" s="6"/>
-      <c r="N58" s="113"/>
+      <c r="N58" s="104"/>
       <c r="O58" s="6"/>
       <c r="P58" s="73"/>
     </row>
@@ -4271,10 +4315,10 @@
       <c r="B59" s="97">
         <v>53</v>
       </c>
-      <c r="C59" s="112" t="s">
+      <c r="C59" s="103" t="s">
         <v>260</v>
       </c>
-      <c r="D59" s="112" t="s">
+      <c r="D59" s="103" t="s">
         <v>261</v>
       </c>
       <c r="E59" s="56"/>
@@ -4286,7 +4330,7 @@
       <c r="K59" s="56"/>
       <c r="L59" s="6"/>
       <c r="M59" s="6"/>
-      <c r="N59" s="113"/>
+      <c r="N59" s="104"/>
       <c r="O59" s="6"/>
       <c r="P59" s="73"/>
     </row>
@@ -4313,73 +4357,177 @@
       <c r="O60" s="101"/>
       <c r="P60" s="73"/>
     </row>
-    <row r="61" spans="2:18" s="61" customFormat="1" ht="15">
-      <c r="B61" s="97"/>
-      <c r="C61" s="56"/>
-      <c r="D61" s="56"/>
-      <c r="E61" s="56"/>
-      <c r="F61" s="56"/>
-      <c r="G61" s="58"/>
-      <c r="H61" s="58"/>
-      <c r="I61" s="59"/>
-      <c r="J61" s="58"/>
-      <c r="K61" s="58"/>
-      <c r="L61" s="27"/>
-      <c r="M61" s="27"/>
-      <c r="N61" s="96"/>
-      <c r="O61" s="6"/>
-      <c r="P61" s="73"/>
-    </row>
-    <row r="62" spans="2:18" s="61" customFormat="1" ht="15">
-      <c r="B62" s="97"/>
-      <c r="C62" s="56"/>
-      <c r="D62" s="56"/>
-      <c r="E62" s="56"/>
-      <c r="F62" s="56"/>
-      <c r="G62" s="58"/>
-      <c r="H62" s="58"/>
-      <c r="I62" s="59"/>
-      <c r="J62" s="58"/>
-      <c r="K62" s="58"/>
-      <c r="L62" s="27"/>
-      <c r="M62" s="27"/>
-      <c r="N62" s="96"/>
-      <c r="O62" s="6"/>
-      <c r="P62" s="73"/>
-    </row>
-    <row r="63" spans="2:18" s="61" customFormat="1" ht="15">
-      <c r="B63" s="97"/>
-      <c r="C63" s="56"/>
-      <c r="D63" s="56"/>
-      <c r="E63" s="56"/>
-      <c r="F63" s="56"/>
-      <c r="G63" s="58"/>
-      <c r="H63" s="58"/>
-      <c r="I63" s="59"/>
-      <c r="J63" s="58"/>
-      <c r="K63" s="58"/>
-      <c r="L63" s="27"/>
-      <c r="M63" s="27"/>
-      <c r="N63" s="96"/>
-      <c r="O63" s="6"/>
-      <c r="P63" s="73"/>
-    </row>
-    <row r="64" spans="2:18" s="61" customFormat="1" ht="15">
-      <c r="B64" s="97"/>
-      <c r="C64" s="56"/>
-      <c r="D64" s="56"/>
-      <c r="E64" s="56"/>
-      <c r="F64" s="56"/>
-      <c r="G64" s="58"/>
-      <c r="H64" s="58"/>
-      <c r="I64" s="59"/>
-      <c r="J64" s="58"/>
-      <c r="K64" s="58"/>
-      <c r="L64" s="27"/>
-      <c r="M64" s="27"/>
-      <c r="N64" s="96"/>
-      <c r="O64" s="6"/>
+    <row r="61" spans="2:18" s="61" customFormat="1" ht="30" customHeight="1">
+      <c r="B61" s="97">
+        <v>55</v>
+      </c>
+      <c r="C61" s="98" t="s">
+        <v>266</v>
+      </c>
+      <c r="D61" s="98" t="s">
+        <v>267</v>
+      </c>
+      <c r="E61" s="99"/>
+      <c r="F61" s="99"/>
+      <c r="G61" s="99"/>
+      <c r="H61" s="99"/>
+      <c r="I61" s="100"/>
+      <c r="J61" s="99"/>
+      <c r="K61" s="99"/>
+      <c r="L61" s="101"/>
+      <c r="M61" s="101"/>
+      <c r="N61" s="102"/>
+      <c r="O61" s="101"/>
+      <c r="P61" s="73" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="62" spans="2:18" s="61" customFormat="1" ht="30" customHeight="1">
+      <c r="B62" s="97">
+        <v>56</v>
+      </c>
+      <c r="C62" s="98" t="s">
+        <v>269</v>
+      </c>
+      <c r="D62" s="98" t="s">
+        <v>270</v>
+      </c>
+      <c r="E62" s="99"/>
+      <c r="F62" s="99"/>
+      <c r="G62" s="99"/>
+      <c r="H62" s="99"/>
+      <c r="I62" s="100"/>
+      <c r="J62" s="99"/>
+      <c r="K62" s="99"/>
+      <c r="L62" s="101"/>
+      <c r="M62" s="101"/>
+      <c r="N62" s="102"/>
+      <c r="O62" s="101"/>
+      <c r="P62" s="73" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="63" spans="2:18" s="61" customFormat="1" ht="30" customHeight="1">
+      <c r="B63" s="97">
+        <v>57</v>
+      </c>
+      <c r="C63" s="98" t="s">
+        <v>271</v>
+      </c>
+      <c r="D63" s="98" t="s">
+        <v>272</v>
+      </c>
+      <c r="E63" s="99"/>
+      <c r="F63" s="99"/>
+      <c r="G63" s="99"/>
+      <c r="H63" s="99"/>
+      <c r="I63" s="100"/>
+      <c r="J63" s="99"/>
+      <c r="K63" s="99"/>
+      <c r="L63" s="101"/>
+      <c r="M63" s="101"/>
+      <c r="N63" s="102"/>
+      <c r="O63" s="101"/>
+      <c r="P63" s="73" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="64" spans="2:18" s="61" customFormat="1" ht="30" customHeight="1">
+      <c r="B64" s="97">
+        <v>58</v>
+      </c>
+      <c r="C64" s="98" t="s">
+        <v>273</v>
+      </c>
+      <c r="D64" s="98" t="s">
+        <v>274</v>
+      </c>
+      <c r="E64" s="99"/>
+      <c r="F64" s="99"/>
+      <c r="G64" s="99"/>
+      <c r="H64" s="99"/>
+      <c r="I64" s="100"/>
+      <c r="J64" s="99"/>
+      <c r="K64" s="99"/>
+      <c r="L64" s="101"/>
+      <c r="M64" s="101"/>
+      <c r="N64" s="102"/>
+      <c r="O64" s="101"/>
       <c r="P64" s="73"/>
+    </row>
+    <row r="65" spans="2:16" s="61" customFormat="1" ht="30" customHeight="1">
+      <c r="B65" s="97">
+        <v>59</v>
+      </c>
+      <c r="C65" s="98" t="s">
+        <v>275</v>
+      </c>
+      <c r="D65" s="98" t="s">
+        <v>276</v>
+      </c>
+      <c r="E65" s="99"/>
+      <c r="F65" s="99"/>
+      <c r="G65" s="99"/>
+      <c r="H65" s="99"/>
+      <c r="I65" s="100"/>
+      <c r="J65" s="99"/>
+      <c r="K65" s="99"/>
+      <c r="L65" s="101"/>
+      <c r="M65" s="101"/>
+      <c r="N65" s="102"/>
+      <c r="O65" s="101"/>
+      <c r="P65" s="73"/>
+    </row>
+    <row r="66" spans="2:16" s="61" customFormat="1" ht="30" customHeight="1">
+      <c r="B66" s="97"/>
+      <c r="C66" s="98"/>
+      <c r="D66" s="98"/>
+      <c r="E66" s="99"/>
+      <c r="F66" s="99"/>
+      <c r="G66" s="99"/>
+      <c r="H66" s="99"/>
+      <c r="I66" s="100"/>
+      <c r="J66" s="99"/>
+      <c r="K66" s="99"/>
+      <c r="L66" s="101"/>
+      <c r="M66" s="101"/>
+      <c r="N66" s="102"/>
+      <c r="O66" s="101"/>
+      <c r="P66" s="73"/>
+    </row>
+    <row r="67" spans="2:16" s="61" customFormat="1" ht="30" customHeight="1">
+      <c r="B67" s="97"/>
+      <c r="C67" s="98"/>
+      <c r="D67" s="98"/>
+      <c r="E67" s="99"/>
+      <c r="F67" s="99"/>
+      <c r="G67" s="99"/>
+      <c r="H67" s="99"/>
+      <c r="I67" s="100"/>
+      <c r="J67" s="99"/>
+      <c r="K67" s="99"/>
+      <c r="L67" s="101"/>
+      <c r="M67" s="101"/>
+      <c r="N67" s="102"/>
+      <c r="O67" s="101"/>
+      <c r="P67" s="73"/>
+    </row>
+    <row r="68" spans="2:16" s="61" customFormat="1" ht="30" customHeight="1">
+      <c r="B68" s="97"/>
+      <c r="C68" s="98"/>
+      <c r="D68" s="98"/>
+      <c r="E68" s="99"/>
+      <c r="F68" s="99"/>
+      <c r="G68" s="99"/>
+      <c r="H68" s="99"/>
+      <c r="I68" s="100"/>
+      <c r="J68" s="99"/>
+      <c r="K68" s="99"/>
+      <c r="L68" s="101"/>
+      <c r="M68" s="101"/>
+      <c r="N68" s="102"/>
+      <c r="O68" s="101"/>
+      <c r="P68" s="73"/>
     </row>
   </sheetData>
   <autoFilter ref="O2:O60"/>

--- a/Documentation/Buglist.xlsx
+++ b/Documentation/Buglist.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="287">
   <si>
     <t>ID</t>
   </si>
@@ -1306,6 +1306,46 @@
   </si>
   <si>
     <t>希望实现，在销售订单添加界面中的其中一项，录入内容会自动显示，例如：在销售订单中点添加，然后在包装箱和底拍的空白框中输入蓝光，后面小箭头的下拉菜单自动弹出，并且其中内容是都有蓝光的。</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件崩溃</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用孙海龙账户登入，在待办事项中，审核销售订单，这时点击表格设置，不进行任何编辑，点确定，软件崩溃，使用电脑为WIN 7系统，崩溃率100%</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>在待办事项中添加筛选功能</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前在审核订单时，也需要进行筛选，请在待办事项中添加筛选功能。</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>提出新的要求，这条可以忽略</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>工号和合同号需要增加输入数据的最大位数</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>由于特殊客户的合同号比较长，现在需要把工号和合同号的最大输入位数调整到30位</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>导出的监控记录右上条形码不改变</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>排产计划用模版导出后，右上的条形码一直显示123456，未正确显示投产编号</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加用户商磊，计划科全部权限</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -2355,10 +2395,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:S68"/>
+  <dimension ref="B2:S74"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A61" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D65" sqref="D65"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A58" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C66" sqref="C66:E71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4355,29 +4395,31 @@
       <c r="M60" s="101"/>
       <c r="N60" s="102"/>
       <c r="O60" s="101"/>
-      <c r="P60" s="73"/>
+      <c r="P60" s="73" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="61" spans="2:18" s="61" customFormat="1" ht="30" customHeight="1">
       <c r="B61" s="97">
         <v>55</v>
       </c>
-      <c r="C61" s="98" t="s">
+      <c r="C61" s="103" t="s">
         <v>266</v>
       </c>
-      <c r="D61" s="98" t="s">
+      <c r="D61" s="103" t="s">
         <v>267</v>
       </c>
-      <c r="E61" s="99"/>
-      <c r="F61" s="99"/>
-      <c r="G61" s="99"/>
-      <c r="H61" s="99"/>
-      <c r="I61" s="100"/>
-      <c r="J61" s="99"/>
-      <c r="K61" s="99"/>
-      <c r="L61" s="101"/>
-      <c r="M61" s="101"/>
-      <c r="N61" s="102"/>
-      <c r="O61" s="101"/>
+      <c r="E61" s="56"/>
+      <c r="F61" s="56"/>
+      <c r="G61" s="56"/>
+      <c r="H61" s="56"/>
+      <c r="I61" s="57"/>
+      <c r="J61" s="56"/>
+      <c r="K61" s="56"/>
+      <c r="L61" s="6"/>
+      <c r="M61" s="6"/>
+      <c r="N61" s="104"/>
+      <c r="O61" s="6"/>
       <c r="P61" s="73" t="s">
         <v>268</v>
       </c>
@@ -4386,23 +4428,23 @@
       <c r="B62" s="97">
         <v>56</v>
       </c>
-      <c r="C62" s="98" t="s">
+      <c r="C62" s="103" t="s">
         <v>269</v>
       </c>
-      <c r="D62" s="98" t="s">
+      <c r="D62" s="103" t="s">
         <v>270</v>
       </c>
-      <c r="E62" s="99"/>
-      <c r="F62" s="99"/>
-      <c r="G62" s="99"/>
-      <c r="H62" s="99"/>
-      <c r="I62" s="100"/>
-      <c r="J62" s="99"/>
-      <c r="K62" s="99"/>
-      <c r="L62" s="101"/>
-      <c r="M62" s="101"/>
-      <c r="N62" s="102"/>
-      <c r="O62" s="101"/>
+      <c r="E62" s="56"/>
+      <c r="F62" s="56"/>
+      <c r="G62" s="56"/>
+      <c r="H62" s="56"/>
+      <c r="I62" s="57"/>
+      <c r="J62" s="56"/>
+      <c r="K62" s="56"/>
+      <c r="L62" s="6"/>
+      <c r="M62" s="6"/>
+      <c r="N62" s="104"/>
+      <c r="O62" s="6"/>
       <c r="P62" s="73" t="s">
         <v>268</v>
       </c>
@@ -4411,23 +4453,23 @@
       <c r="B63" s="97">
         <v>57</v>
       </c>
-      <c r="C63" s="98" t="s">
+      <c r="C63" s="103" t="s">
         <v>271</v>
       </c>
-      <c r="D63" s="98" t="s">
+      <c r="D63" s="103" t="s">
         <v>272</v>
       </c>
-      <c r="E63" s="99"/>
-      <c r="F63" s="99"/>
-      <c r="G63" s="99"/>
-      <c r="H63" s="99"/>
-      <c r="I63" s="100"/>
-      <c r="J63" s="99"/>
-      <c r="K63" s="99"/>
-      <c r="L63" s="101"/>
-      <c r="M63" s="101"/>
-      <c r="N63" s="102"/>
-      <c r="O63" s="101"/>
+      <c r="E63" s="56"/>
+      <c r="F63" s="56"/>
+      <c r="G63" s="56"/>
+      <c r="H63" s="56"/>
+      <c r="I63" s="57"/>
+      <c r="J63" s="56"/>
+      <c r="K63" s="56"/>
+      <c r="L63" s="6"/>
+      <c r="M63" s="6"/>
+      <c r="N63" s="104"/>
+      <c r="O63" s="6"/>
       <c r="P63" s="73" t="s">
         <v>268</v>
       </c>
@@ -4479,9 +4521,15 @@
       <c r="P65" s="73"/>
     </row>
     <row r="66" spans="2:16" s="61" customFormat="1" ht="30" customHeight="1">
-      <c r="B66" s="97"/>
-      <c r="C66" s="98"/>
-      <c r="D66" s="98"/>
+      <c r="B66" s="97">
+        <v>60</v>
+      </c>
+      <c r="C66" s="98" t="s">
+        <v>277</v>
+      </c>
+      <c r="D66" s="98" t="s">
+        <v>278</v>
+      </c>
       <c r="E66" s="99"/>
       <c r="F66" s="99"/>
       <c r="G66" s="99"/>
@@ -4496,9 +4544,15 @@
       <c r="P66" s="73"/>
     </row>
     <row r="67" spans="2:16" s="61" customFormat="1" ht="30" customHeight="1">
-      <c r="B67" s="97"/>
-      <c r="C67" s="98"/>
-      <c r="D67" s="98"/>
+      <c r="B67" s="97">
+        <v>61</v>
+      </c>
+      <c r="C67" s="98" t="s">
+        <v>279</v>
+      </c>
+      <c r="D67" s="98" t="s">
+        <v>280</v>
+      </c>
       <c r="E67" s="99"/>
       <c r="F67" s="99"/>
       <c r="G67" s="99"/>
@@ -4513,9 +4567,15 @@
       <c r="P67" s="73"/>
     </row>
     <row r="68" spans="2:16" s="61" customFormat="1" ht="30" customHeight="1">
-      <c r="B68" s="97"/>
-      <c r="C68" s="98"/>
-      <c r="D68" s="98"/>
+      <c r="B68" s="97">
+        <v>62</v>
+      </c>
+      <c r="C68" s="98" t="s">
+        <v>282</v>
+      </c>
+      <c r="D68" s="98" t="s">
+        <v>283</v>
+      </c>
       <c r="E68" s="99"/>
       <c r="F68" s="99"/>
       <c r="G68" s="99"/>
@@ -4528,6 +4588,120 @@
       <c r="N68" s="102"/>
       <c r="O68" s="101"/>
       <c r="P68" s="73"/>
+    </row>
+    <row r="69" spans="2:16" s="61" customFormat="1" ht="30" customHeight="1">
+      <c r="B69" s="97">
+        <v>63</v>
+      </c>
+      <c r="C69" s="98" t="s">
+        <v>284</v>
+      </c>
+      <c r="D69" s="98" t="s">
+        <v>285</v>
+      </c>
+      <c r="E69" s="99"/>
+      <c r="F69" s="99"/>
+      <c r="G69" s="99"/>
+      <c r="H69" s="99"/>
+      <c r="I69" s="100"/>
+      <c r="J69" s="99"/>
+      <c r="K69" s="99"/>
+      <c r="L69" s="101"/>
+      <c r="M69" s="101"/>
+      <c r="N69" s="102"/>
+      <c r="O69" s="101"/>
+      <c r="P69" s="73"/>
+    </row>
+    <row r="70" spans="2:16" s="61" customFormat="1" ht="30" customHeight="1">
+      <c r="B70" s="97">
+        <v>64</v>
+      </c>
+      <c r="C70" s="98" t="s">
+        <v>266</v>
+      </c>
+      <c r="D70" s="98" t="s">
+        <v>286</v>
+      </c>
+      <c r="E70" s="99"/>
+      <c r="F70" s="99"/>
+      <c r="G70" s="99"/>
+      <c r="H70" s="99"/>
+      <c r="I70" s="100"/>
+      <c r="J70" s="99"/>
+      <c r="K70" s="99"/>
+      <c r="L70" s="101"/>
+      <c r="M70" s="101"/>
+      <c r="N70" s="102"/>
+      <c r="O70" s="101"/>
+      <c r="P70" s="73"/>
+    </row>
+    <row r="71" spans="2:16" s="61" customFormat="1" ht="30" customHeight="1">
+      <c r="B71" s="97"/>
+      <c r="C71" s="98"/>
+      <c r="D71" s="98"/>
+      <c r="E71" s="99"/>
+      <c r="F71" s="99"/>
+      <c r="G71" s="99"/>
+      <c r="H71" s="99"/>
+      <c r="I71" s="100"/>
+      <c r="J71" s="99"/>
+      <c r="K71" s="99"/>
+      <c r="L71" s="101"/>
+      <c r="M71" s="101"/>
+      <c r="N71" s="102"/>
+      <c r="O71" s="101"/>
+      <c r="P71" s="73"/>
+    </row>
+    <row r="72" spans="2:16" s="61" customFormat="1" ht="30" customHeight="1">
+      <c r="B72" s="97"/>
+      <c r="C72" s="98"/>
+      <c r="D72" s="98"/>
+      <c r="E72" s="99"/>
+      <c r="F72" s="99"/>
+      <c r="G72" s="99"/>
+      <c r="H72" s="99"/>
+      <c r="I72" s="100"/>
+      <c r="J72" s="99"/>
+      <c r="K72" s="99"/>
+      <c r="L72" s="101"/>
+      <c r="M72" s="101"/>
+      <c r="N72" s="102"/>
+      <c r="O72" s="101"/>
+      <c r="P72" s="73"/>
+    </row>
+    <row r="73" spans="2:16" s="61" customFormat="1" ht="30" customHeight="1">
+      <c r="B73" s="97"/>
+      <c r="C73" s="98"/>
+      <c r="D73" s="98"/>
+      <c r="E73" s="99"/>
+      <c r="F73" s="99"/>
+      <c r="G73" s="99"/>
+      <c r="H73" s="99"/>
+      <c r="I73" s="100"/>
+      <c r="J73" s="99"/>
+      <c r="K73" s="99"/>
+      <c r="L73" s="101"/>
+      <c r="M73" s="101"/>
+      <c r="N73" s="102"/>
+      <c r="O73" s="101"/>
+      <c r="P73" s="73"/>
+    </row>
+    <row r="74" spans="2:16" s="61" customFormat="1" ht="30" customHeight="1">
+      <c r="B74" s="97"/>
+      <c r="C74" s="98"/>
+      <c r="D74" s="98"/>
+      <c r="E74" s="99"/>
+      <c r="F74" s="99"/>
+      <c r="G74" s="99"/>
+      <c r="H74" s="99"/>
+      <c r="I74" s="100"/>
+      <c r="J74" s="99"/>
+      <c r="K74" s="99"/>
+      <c r="L74" s="101"/>
+      <c r="M74" s="101"/>
+      <c r="N74" s="102"/>
+      <c r="O74" s="101"/>
+      <c r="P74" s="73"/>
     </row>
   </sheetData>
   <autoFilter ref="O2:O60"/>

--- a/Documentation/Buglist.xlsx
+++ b/Documentation/Buglist.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="289">
   <si>
     <t>ID</t>
   </si>
@@ -1182,6 +1182,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>2</t>
@@ -1346,6 +1347,14 @@
   </si>
   <si>
     <t>添加用户商磊，计划科全部权限</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>关于销售订单的审核</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售订单需要在业务审核后，才能进行计划审核，这个需要添加一个前后顺序</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -1451,6 +1460,7 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1463,6 +1473,7 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2397,8 +2408,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:S74"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A58" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C66" sqref="C66:E71"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A61" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D71" sqref="D71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4636,9 +4647,15 @@
       <c r="P70" s="73"/>
     </row>
     <row r="71" spans="2:16" s="61" customFormat="1" ht="30" customHeight="1">
-      <c r="B71" s="97"/>
-      <c r="C71" s="98"/>
-      <c r="D71" s="98"/>
+      <c r="B71" s="97">
+        <v>65</v>
+      </c>
+      <c r="C71" s="98" t="s">
+        <v>287</v>
+      </c>
+      <c r="D71" s="98" t="s">
+        <v>288</v>
+      </c>
       <c r="E71" s="99"/>
       <c r="F71" s="99"/>
       <c r="G71" s="99"/>

--- a/Documentation/Buglist.xlsx
+++ b/Documentation/Buglist.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="291">
   <si>
     <t>ID</t>
   </si>
@@ -1355,6 +1355,14 @@
   </si>
   <si>
     <t>销售订单需要在业务审核后，才能进行计划审核，这个需要添加一个前后顺序</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>填写后的出厂编号和投产编号在未审核状态无法删除</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划人员身份登入，无法删除已经填写的投产编号和出厂编号（合同处于未审核状态例如：15-0302合同）</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -2409,7 +2417,7 @@
   <dimension ref="B2:S74"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A61" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D71" sqref="D71"/>
+      <selection activeCell="E72" sqref="E72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4670,9 +4678,15 @@
       <c r="P71" s="73"/>
     </row>
     <row r="72" spans="2:16" s="61" customFormat="1" ht="30" customHeight="1">
-      <c r="B72" s="97"/>
-      <c r="C72" s="98"/>
-      <c r="D72" s="98"/>
+      <c r="B72" s="97">
+        <v>66</v>
+      </c>
+      <c r="C72" s="98" t="s">
+        <v>289</v>
+      </c>
+      <c r="D72" s="98" t="s">
+        <v>290</v>
+      </c>
       <c r="E72" s="99"/>
       <c r="F72" s="99"/>
       <c r="G72" s="99"/>

--- a/Documentation/Buglist.xlsx
+++ b/Documentation/Buglist.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="299">
   <si>
     <t>ID</t>
   </si>
@@ -1302,67 +1302,102 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
+    <t>希望实现，在销售订单添加界面中的其中一项，录入内容会自动显示，例如：在销售订单中点添加，然后在包装箱和底拍的空白框中输入蓝光，后面小箭头的下拉菜单自动弹出，并且其中内容是都有蓝光的。</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件崩溃</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用孙海龙账户登入，在待办事项中，审核销售订单，这时点击表格设置，不进行任何编辑，点确定，软件崩溃，使用电脑为WIN 7系统，崩溃率100%</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>在待办事项中添加筛选功能</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前在审核订单时，也需要进行筛选，请在待办事项中添加筛选功能。</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>提出新的要求，这条可以忽略</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>工号和合同号需要增加输入数据的最大位数</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>由于特殊客户的合同号比较长，现在需要把工号和合同号的最大输入位数调整到30位</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>导出的监控记录右上条形码不改变</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>排产计划用模版导出后，右上的条形码一直显示123456，未正确显示投产编号</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加用户商磊，计划科全部权限</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>关于销售订单的审核</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售订单需要在业务审核后，才能进行计划审核，这个需要添加一个前后顺序</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>填写后的出厂编号和投产编号在未审核状态无法删除</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划人员身份登入，无法删除已经填写的投产编号和出厂编号（合同处于未审核状态例如：15-0302合同）</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
     <t>销售订单添加界面，下拉菜单自动显示</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>希望实现，在销售订单添加界面中的其中一项，录入内容会自动显示，例如：在销售订单中点添加，然后在包装箱和底拍的空白框中输入蓝光，后面小箭头的下拉菜单自动弹出，并且其中内容是都有蓝光的。</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>软件崩溃</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用孙海龙账户登入，在待办事项中，审核销售订单，这时点击表格设置，不进行任何编辑，点确定，软件崩溃，使用电脑为WIN 7系统，崩溃率100%</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>在待办事项中添加筛选功能</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>目前在审核订单时，也需要进行筛选，请在待办事项中添加筛选功能。</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>提出新的要求，这条可以忽略</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>工号和合同号需要增加输入数据的最大位数</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>由于特殊客户的合同号比较长，现在需要把工号和合同号的最大输入位数调整到30位</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>导出的监控记录右上条形码不改变</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>排产计划用模版导出后，右上的条形码一直显示123456，未正确显示投产编号</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加用户商磊，计划科全部权限</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>关于销售订单的审核</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>销售订单需要在业务审核后，才能进行计划审核，这个需要添加一个前后顺序</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>填写后的出厂编号和投产编号在未审核状态无法删除</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>计划人员身份登入，无法删除已经填写的投产编号和出厂编号（合同处于未审核状态例如：15-0302合同）</t>
+    <t>每个人的默认订单都是不同的，如果用户更改了默认订单，如何处理。
+另外，目前订单信息没有和创建的用户关联，如果需要关联用户，工作量大。</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要技术调查，理论上可以实现，不过需要考虑性能和难度</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要调查</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以添加</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以修改</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>之前没有需求，是否需要由程序动态生成？ 这个技术上需要调查。
+是否依然使用一维码</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>在待办事项中，如果销售订单没有进行业务审核，在计划待审核订单中不予以显示，按此来控制顺序。
+是否可以？</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>待调查</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -2416,8 +2451,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:S74"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A61" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E72" sqref="E72"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A62" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="O73" sqref="O73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4415,7 +4450,7 @@
       <c r="N60" s="102"/>
       <c r="O60" s="101"/>
       <c r="P60" s="73" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="61" spans="2:18" s="61" customFormat="1" ht="30" customHeight="1">
@@ -4513,7 +4548,9 @@
       <c r="L64" s="101"/>
       <c r="M64" s="101"/>
       <c r="N64" s="102"/>
-      <c r="O64" s="101"/>
+      <c r="O64" s="98" t="s">
+        <v>291</v>
+      </c>
       <c r="P64" s="73"/>
     </row>
     <row r="65" spans="2:16" s="61" customFormat="1" ht="30" customHeight="1">
@@ -4521,10 +4558,10 @@
         <v>59</v>
       </c>
       <c r="C65" s="98" t="s">
+        <v>290</v>
+      </c>
+      <c r="D65" s="98" t="s">
         <v>275</v>
-      </c>
-      <c r="D65" s="98" t="s">
-        <v>276</v>
       </c>
       <c r="E65" s="99"/>
       <c r="F65" s="99"/>
@@ -4536,7 +4573,9 @@
       <c r="L65" s="101"/>
       <c r="M65" s="101"/>
       <c r="N65" s="102"/>
-      <c r="O65" s="101"/>
+      <c r="O65" s="98" t="s">
+        <v>292</v>
+      </c>
       <c r="P65" s="73"/>
     </row>
     <row r="66" spans="2:16" s="61" customFormat="1" ht="30" customHeight="1">
@@ -4544,10 +4583,10 @@
         <v>60</v>
       </c>
       <c r="C66" s="98" t="s">
+        <v>276</v>
+      </c>
+      <c r="D66" s="98" t="s">
         <v>277</v>
-      </c>
-      <c r="D66" s="98" t="s">
-        <v>278</v>
       </c>
       <c r="E66" s="99"/>
       <c r="F66" s="99"/>
@@ -4559,7 +4598,9 @@
       <c r="L66" s="101"/>
       <c r="M66" s="101"/>
       <c r="N66" s="102"/>
-      <c r="O66" s="101"/>
+      <c r="O66" s="101" t="s">
+        <v>293</v>
+      </c>
       <c r="P66" s="73"/>
     </row>
     <row r="67" spans="2:16" s="61" customFormat="1" ht="30" customHeight="1">
@@ -4567,10 +4608,10 @@
         <v>61</v>
       </c>
       <c r="C67" s="98" t="s">
+        <v>278</v>
+      </c>
+      <c r="D67" s="98" t="s">
         <v>279</v>
-      </c>
-      <c r="D67" s="98" t="s">
-        <v>280</v>
       </c>
       <c r="E67" s="99"/>
       <c r="F67" s="99"/>
@@ -4582,7 +4623,9 @@
       <c r="L67" s="101"/>
       <c r="M67" s="101"/>
       <c r="N67" s="102"/>
-      <c r="O67" s="101"/>
+      <c r="O67" s="101" t="s">
+        <v>294</v>
+      </c>
       <c r="P67" s="73"/>
     </row>
     <row r="68" spans="2:16" s="61" customFormat="1" ht="30" customHeight="1">
@@ -4590,10 +4633,10 @@
         <v>62</v>
       </c>
       <c r="C68" s="98" t="s">
+        <v>281</v>
+      </c>
+      <c r="D68" s="98" t="s">
         <v>282</v>
-      </c>
-      <c r="D68" s="98" t="s">
-        <v>283</v>
       </c>
       <c r="E68" s="99"/>
       <c r="F68" s="99"/>
@@ -4605,7 +4648,9 @@
       <c r="L68" s="101"/>
       <c r="M68" s="101"/>
       <c r="N68" s="102"/>
-      <c r="O68" s="101"/>
+      <c r="O68" s="101" t="s">
+        <v>295</v>
+      </c>
       <c r="P68" s="73"/>
     </row>
     <row r="69" spans="2:16" s="61" customFormat="1" ht="30" customHeight="1">
@@ -4613,10 +4658,10 @@
         <v>63</v>
       </c>
       <c r="C69" s="98" t="s">
+        <v>283</v>
+      </c>
+      <c r="D69" s="98" t="s">
         <v>284</v>
-      </c>
-      <c r="D69" s="98" t="s">
-        <v>285</v>
       </c>
       <c r="E69" s="99"/>
       <c r="F69" s="99"/>
@@ -4628,7 +4673,9 @@
       <c r="L69" s="101"/>
       <c r="M69" s="101"/>
       <c r="N69" s="102"/>
-      <c r="O69" s="101"/>
+      <c r="O69" s="98" t="s">
+        <v>296</v>
+      </c>
       <c r="P69" s="73"/>
     </row>
     <row r="70" spans="2:16" s="61" customFormat="1" ht="30" customHeight="1">
@@ -4639,7 +4686,7 @@
         <v>266</v>
       </c>
       <c r="D70" s="98" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E70" s="99"/>
       <c r="F70" s="99"/>
@@ -4651,7 +4698,9 @@
       <c r="L70" s="101"/>
       <c r="M70" s="101"/>
       <c r="N70" s="102"/>
-      <c r="O70" s="101"/>
+      <c r="O70" s="101" t="s">
+        <v>294</v>
+      </c>
       <c r="P70" s="73"/>
     </row>
     <row r="71" spans="2:16" s="61" customFormat="1" ht="30" customHeight="1">
@@ -4659,10 +4708,10 @@
         <v>65</v>
       </c>
       <c r="C71" s="98" t="s">
+        <v>286</v>
+      </c>
+      <c r="D71" s="98" t="s">
         <v>287</v>
-      </c>
-      <c r="D71" s="98" t="s">
-        <v>288</v>
       </c>
       <c r="E71" s="99"/>
       <c r="F71" s="99"/>
@@ -4674,7 +4723,9 @@
       <c r="L71" s="101"/>
       <c r="M71" s="101"/>
       <c r="N71" s="102"/>
-      <c r="O71" s="101"/>
+      <c r="O71" s="98" t="s">
+        <v>297</v>
+      </c>
       <c r="P71" s="73"/>
     </row>
     <row r="72" spans="2:16" s="61" customFormat="1" ht="30" customHeight="1">
@@ -4682,10 +4733,10 @@
         <v>66</v>
       </c>
       <c r="C72" s="98" t="s">
+        <v>288</v>
+      </c>
+      <c r="D72" s="98" t="s">
         <v>289</v>
-      </c>
-      <c r="D72" s="98" t="s">
-        <v>290</v>
       </c>
       <c r="E72" s="99"/>
       <c r="F72" s="99"/>
@@ -4697,7 +4748,9 @@
       <c r="L72" s="101"/>
       <c r="M72" s="101"/>
       <c r="N72" s="102"/>
-      <c r="O72" s="101"/>
+      <c r="O72" s="101" t="s">
+        <v>298</v>
+      </c>
       <c r="P72" s="73"/>
     </row>
     <row r="73" spans="2:16" s="61" customFormat="1" ht="30" customHeight="1">

--- a/Documentation/Buglist.xlsx
+++ b/Documentation/Buglist.xlsx
@@ -1294,14 +1294,6 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>更改的内容需要在销售订单界面和销售订单审核界面高亮显示</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>在销售订单应用设置默认订单的办法添加订单后，如果其中默认的信息有更改的地方，需要在销售订单界面和销售订单审核界面高亮显示，当本条订单业务和计划审核后，就不用高亮显示了。</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>希望实现，在销售订单添加界面中的其中一项，录入内容会自动显示，例如：在销售订单中点添加，然后在包装箱和底拍的空白框中输入蓝光，后面小箭头的下拉菜单自动弹出，并且其中内容是都有蓝光的。</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
@@ -1310,10 +1302,6 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>使用孙海龙账户登入，在待办事项中，审核销售订单，这时点击表格设置，不进行任何编辑，点确定，软件崩溃，使用电脑为WIN 7系统，崩溃率100%</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>在待办事项中添加筛选功能</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
@@ -1330,10 +1318,6 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>由于特殊客户的合同号比较长，现在需要把工号和合同号的最大输入位数调整到30位</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>导出的监控记录右上条形码不改变</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
@@ -1350,15 +1334,7 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>销售订单需要在业务审核后，才能进行计划审核，这个需要添加一个前后顺序</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>填写后的出厂编号和投产编号在未审核状态无法删除</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>计划人员身份登入，无法删除已经填写的投产编号和出厂编号（合同处于未审核状态例如：15-0302合同）</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
@@ -1397,7 +1373,33 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>待调查</t>
+    <t>使用孙海龙账户登入，在待办事项中，审核销售订单，这时点击表格设置，不进行任何编辑，点确定，软件崩溃，使用电脑为WIN 7系统，崩溃率100%</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>由于特殊客户的合同号比较长，现在需要把工号和合同号的最大输入位数调整到30位</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售订单需要在业务审核后，才能进行计划审核，这个需要添加一个前后顺序</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划人员身份登入，无法删除已经填写的投产编号和出厂编号（合同处于未审核状态例如：15-0302合同）</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>待调查
+什么叫删除？是说修改为空么？ 目前不允许空字符串的录入。
+有什么场景需要？如果可以支持空即删除，那么可以修改</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>更改的内容需要在销售订单界面和销售订单审核界面高亮显示</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>在销售订单应用设置默认订单的办法添加订单后，如果其中默认的信息有更改的地方，需要在销售订单界面和销售订单审核界面高亮显示，当本条订单业务和计划审核后，就不用高亮显示了。</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -1533,7 +1535,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1585,6 +1587,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1761,7 +1769,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2091,6 +2099,24 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2451,8 +2477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:S74"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A62" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="O73" sqref="O73"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4450,7 +4476,7 @@
       <c r="N60" s="102"/>
       <c r="O60" s="101"/>
       <c r="P60" s="73" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="61" spans="2:18" s="61" customFormat="1" ht="30" customHeight="1">
@@ -4533,10 +4559,10 @@
         <v>58</v>
       </c>
       <c r="C64" s="98" t="s">
-        <v>273</v>
+        <v>297</v>
       </c>
       <c r="D64" s="98" t="s">
-        <v>274</v>
+        <v>298</v>
       </c>
       <c r="E64" s="99"/>
       <c r="F64" s="99"/>
@@ -4549,7 +4575,7 @@
       <c r="M64" s="101"/>
       <c r="N64" s="102"/>
       <c r="O64" s="98" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="P64" s="73"/>
     </row>
@@ -4557,24 +4583,24 @@
       <c r="B65" s="97">
         <v>59</v>
       </c>
-      <c r="C65" s="98" t="s">
-        <v>290</v>
-      </c>
-      <c r="D65" s="98" t="s">
-        <v>275</v>
-      </c>
-      <c r="E65" s="99"/>
-      <c r="F65" s="99"/>
-      <c r="G65" s="99"/>
-      <c r="H65" s="99"/>
-      <c r="I65" s="100"/>
-      <c r="J65" s="99"/>
-      <c r="K65" s="99"/>
-      <c r="L65" s="101"/>
-      <c r="M65" s="101"/>
-      <c r="N65" s="102"/>
-      <c r="O65" s="98" t="s">
-        <v>292</v>
+      <c r="C65" s="115" t="s">
+        <v>284</v>
+      </c>
+      <c r="D65" s="115" t="s">
+        <v>273</v>
+      </c>
+      <c r="E65" s="116"/>
+      <c r="F65" s="116"/>
+      <c r="G65" s="116"/>
+      <c r="H65" s="116"/>
+      <c r="I65" s="117"/>
+      <c r="J65" s="116"/>
+      <c r="K65" s="116"/>
+      <c r="L65" s="118"/>
+      <c r="M65" s="118"/>
+      <c r="N65" s="119"/>
+      <c r="O65" s="115" t="s">
+        <v>286</v>
       </c>
       <c r="P65" s="73"/>
     </row>
@@ -4582,24 +4608,24 @@
       <c r="B66" s="97">
         <v>60</v>
       </c>
-      <c r="C66" s="98" t="s">
-        <v>276</v>
-      </c>
-      <c r="D66" s="98" t="s">
-        <v>277</v>
-      </c>
-      <c r="E66" s="99"/>
-      <c r="F66" s="99"/>
-      <c r="G66" s="99"/>
-      <c r="H66" s="99"/>
-      <c r="I66" s="100"/>
-      <c r="J66" s="99"/>
-      <c r="K66" s="99"/>
-      <c r="L66" s="101"/>
-      <c r="M66" s="101"/>
-      <c r="N66" s="102"/>
-      <c r="O66" s="101" t="s">
-        <v>293</v>
+      <c r="C66" s="115" t="s">
+        <v>274</v>
+      </c>
+      <c r="D66" s="115" t="s">
+        <v>292</v>
+      </c>
+      <c r="E66" s="116"/>
+      <c r="F66" s="116"/>
+      <c r="G66" s="116"/>
+      <c r="H66" s="116"/>
+      <c r="I66" s="117"/>
+      <c r="J66" s="116"/>
+      <c r="K66" s="116"/>
+      <c r="L66" s="118"/>
+      <c r="M66" s="118"/>
+      <c r="N66" s="119"/>
+      <c r="O66" s="118" t="s">
+        <v>287</v>
       </c>
       <c r="P66" s="73"/>
     </row>
@@ -4607,24 +4633,24 @@
       <c r="B67" s="97">
         <v>61</v>
       </c>
-      <c r="C67" s="98" t="s">
-        <v>278</v>
-      </c>
-      <c r="D67" s="98" t="s">
-        <v>279</v>
-      </c>
-      <c r="E67" s="99"/>
-      <c r="F67" s="99"/>
-      <c r="G67" s="99"/>
-      <c r="H67" s="99"/>
-      <c r="I67" s="100"/>
-      <c r="J67" s="99"/>
-      <c r="K67" s="99"/>
-      <c r="L67" s="101"/>
-      <c r="M67" s="101"/>
-      <c r="N67" s="102"/>
-      <c r="O67" s="101" t="s">
-        <v>294</v>
+      <c r="C67" s="114" t="s">
+        <v>275</v>
+      </c>
+      <c r="D67" s="114" t="s">
+        <v>276</v>
+      </c>
+      <c r="E67" s="58"/>
+      <c r="F67" s="58"/>
+      <c r="G67" s="58"/>
+      <c r="H67" s="58"/>
+      <c r="I67" s="59"/>
+      <c r="J67" s="58"/>
+      <c r="K67" s="58"/>
+      <c r="L67" s="27"/>
+      <c r="M67" s="27"/>
+      <c r="N67" s="96"/>
+      <c r="O67" s="27" t="s">
+        <v>288</v>
       </c>
       <c r="P67" s="73"/>
     </row>
@@ -4632,24 +4658,24 @@
       <c r="B68" s="97">
         <v>62</v>
       </c>
-      <c r="C68" s="98" t="s">
-        <v>281</v>
-      </c>
-      <c r="D68" s="98" t="s">
-        <v>282</v>
-      </c>
-      <c r="E68" s="99"/>
-      <c r="F68" s="99"/>
-      <c r="G68" s="99"/>
-      <c r="H68" s="99"/>
-      <c r="I68" s="100"/>
-      <c r="J68" s="99"/>
-      <c r="K68" s="99"/>
-      <c r="L68" s="101"/>
-      <c r="M68" s="101"/>
-      <c r="N68" s="102"/>
-      <c r="O68" s="101" t="s">
-        <v>295</v>
+      <c r="C68" s="115" t="s">
+        <v>278</v>
+      </c>
+      <c r="D68" s="115" t="s">
+        <v>293</v>
+      </c>
+      <c r="E68" s="116"/>
+      <c r="F68" s="116"/>
+      <c r="G68" s="116"/>
+      <c r="H68" s="116"/>
+      <c r="I68" s="117"/>
+      <c r="J68" s="116"/>
+      <c r="K68" s="116"/>
+      <c r="L68" s="118"/>
+      <c r="M68" s="118"/>
+      <c r="N68" s="119"/>
+      <c r="O68" s="118" t="s">
+        <v>289</v>
       </c>
       <c r="P68" s="73"/>
     </row>
@@ -4658,10 +4684,10 @@
         <v>63</v>
       </c>
       <c r="C69" s="98" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="D69" s="98" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="E69" s="99"/>
       <c r="F69" s="99"/>
@@ -4674,7 +4700,7 @@
       <c r="M69" s="101"/>
       <c r="N69" s="102"/>
       <c r="O69" s="98" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="P69" s="73"/>
     </row>
@@ -4682,24 +4708,24 @@
       <c r="B70" s="97">
         <v>64</v>
       </c>
-      <c r="C70" s="98" t="s">
+      <c r="C70" s="114" t="s">
         <v>266</v>
       </c>
-      <c r="D70" s="98" t="s">
-        <v>285</v>
-      </c>
-      <c r="E70" s="99"/>
-      <c r="F70" s="99"/>
-      <c r="G70" s="99"/>
-      <c r="H70" s="99"/>
-      <c r="I70" s="100"/>
-      <c r="J70" s="99"/>
-      <c r="K70" s="99"/>
-      <c r="L70" s="101"/>
-      <c r="M70" s="101"/>
-      <c r="N70" s="102"/>
-      <c r="O70" s="101" t="s">
-        <v>294</v>
+      <c r="D70" s="114" t="s">
+        <v>281</v>
+      </c>
+      <c r="E70" s="58"/>
+      <c r="F70" s="58"/>
+      <c r="G70" s="58"/>
+      <c r="H70" s="58"/>
+      <c r="I70" s="59"/>
+      <c r="J70" s="58"/>
+      <c r="K70" s="58"/>
+      <c r="L70" s="27"/>
+      <c r="M70" s="27"/>
+      <c r="N70" s="96"/>
+      <c r="O70" s="27" t="s">
+        <v>288</v>
       </c>
       <c r="P70" s="73"/>
     </row>
@@ -4707,24 +4733,24 @@
       <c r="B71" s="97">
         <v>65</v>
       </c>
-      <c r="C71" s="98" t="s">
-        <v>286</v>
-      </c>
-      <c r="D71" s="98" t="s">
-        <v>287</v>
-      </c>
-      <c r="E71" s="99"/>
-      <c r="F71" s="99"/>
-      <c r="G71" s="99"/>
-      <c r="H71" s="99"/>
-      <c r="I71" s="100"/>
-      <c r="J71" s="99"/>
-      <c r="K71" s="99"/>
-      <c r="L71" s="101"/>
-      <c r="M71" s="101"/>
-      <c r="N71" s="102"/>
-      <c r="O71" s="98" t="s">
-        <v>297</v>
+      <c r="C71" s="115" t="s">
+        <v>282</v>
+      </c>
+      <c r="D71" s="115" t="s">
+        <v>294</v>
+      </c>
+      <c r="E71" s="116"/>
+      <c r="F71" s="116"/>
+      <c r="G71" s="116"/>
+      <c r="H71" s="116"/>
+      <c r="I71" s="117"/>
+      <c r="J71" s="116"/>
+      <c r="K71" s="116"/>
+      <c r="L71" s="118"/>
+      <c r="M71" s="118"/>
+      <c r="N71" s="119"/>
+      <c r="O71" s="115" t="s">
+        <v>291</v>
       </c>
       <c r="P71" s="73"/>
     </row>
@@ -4733,10 +4759,10 @@
         <v>66</v>
       </c>
       <c r="C72" s="98" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="D72" s="98" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="E72" s="99"/>
       <c r="F72" s="99"/>
@@ -4748,8 +4774,8 @@
       <c r="L72" s="101"/>
       <c r="M72" s="101"/>
       <c r="N72" s="102"/>
-      <c r="O72" s="101" t="s">
-        <v>298</v>
+      <c r="O72" s="98" t="s">
+        <v>296</v>
       </c>
       <c r="P72" s="73"/>
     </row>

--- a/Documentation/Buglist.xlsx
+++ b/Documentation/Buglist.xlsx
@@ -1407,7 +1407,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="19">
+  <fonts count="21">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -1532,6 +1532,19 @@
       <color rgb="FFFF0000"/>
       <name val="Arial Unicode MS"/>
       <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial Unicode MS"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -1769,7 +1782,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="138">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2073,6 +2086,24 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2100,22 +2131,58 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="19" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="19" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="19" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2477,8 +2544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:S74"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B64" sqref="B64"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A63" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A68" sqref="A68:XFD68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2501,7 +2568,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" s="46" customFormat="1" ht="25.5">
-      <c r="B2" s="107"/>
+      <c r="B2" s="113"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -2518,7 +2585,7 @@
       <c r="P2" s="63"/>
     </row>
     <row r="3" spans="2:16" s="46" customFormat="1" ht="26.25" thickBot="1">
-      <c r="B3" s="108"/>
+      <c r="B3" s="114"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
@@ -2535,36 +2602,36 @@
       <c r="P3" s="63"/>
     </row>
     <row r="4" spans="2:16" s="3" customFormat="1" ht="14.25">
-      <c r="B4" s="112" t="s">
+      <c r="B4" s="118" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="109" t="s">
+      <c r="C4" s="115" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="110"/>
-      <c r="E4" s="110"/>
-      <c r="F4" s="110"/>
-      <c r="G4" s="110"/>
-      <c r="H4" s="110"/>
-      <c r="I4" s="110"/>
-      <c r="J4" s="110"/>
-      <c r="K4" s="110"/>
-      <c r="L4" s="105" t="s">
+      <c r="D4" s="116"/>
+      <c r="E4" s="116"/>
+      <c r="F4" s="116"/>
+      <c r="G4" s="116"/>
+      <c r="H4" s="116"/>
+      <c r="I4" s="116"/>
+      <c r="J4" s="116"/>
+      <c r="K4" s="116"/>
+      <c r="L4" s="111" t="s">
         <v>22</v>
       </c>
-      <c r="M4" s="105" t="s">
+      <c r="M4" s="111" t="s">
         <v>10</v>
       </c>
-      <c r="N4" s="105" t="s">
+      <c r="N4" s="111" t="s">
         <v>45</v>
       </c>
-      <c r="O4" s="105" t="s">
+      <c r="O4" s="111" t="s">
         <v>151</v>
       </c>
       <c r="P4" s="64"/>
     </row>
     <row r="5" spans="2:16" s="3" customFormat="1" ht="14.25">
-      <c r="B5" s="113"/>
+      <c r="B5" s="119"/>
       <c r="C5" s="9" t="s">
         <v>1</v>
       </c>
@@ -2592,10 +2659,10 @@
       <c r="K5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="L5" s="111"/>
-      <c r="M5" s="106"/>
-      <c r="N5" s="106"/>
-      <c r="O5" s="106"/>
+      <c r="L5" s="117"/>
+      <c r="M5" s="112"/>
+      <c r="N5" s="112"/>
+      <c r="O5" s="112"/>
       <c r="P5" s="64"/>
     </row>
     <row r="6" spans="2:16" s="7" customFormat="1" ht="90">
@@ -4583,23 +4650,23 @@
       <c r="B65" s="97">
         <v>59</v>
       </c>
-      <c r="C65" s="115" t="s">
+      <c r="C65" s="106" t="s">
         <v>284</v>
       </c>
-      <c r="D65" s="115" t="s">
+      <c r="D65" s="106" t="s">
         <v>273</v>
       </c>
-      <c r="E65" s="116"/>
-      <c r="F65" s="116"/>
-      <c r="G65" s="116"/>
-      <c r="H65" s="116"/>
-      <c r="I65" s="117"/>
-      <c r="J65" s="116"/>
-      <c r="K65" s="116"/>
-      <c r="L65" s="118"/>
-      <c r="M65" s="118"/>
-      <c r="N65" s="119"/>
-      <c r="O65" s="115" t="s">
+      <c r="E65" s="107"/>
+      <c r="F65" s="107"/>
+      <c r="G65" s="107"/>
+      <c r="H65" s="107"/>
+      <c r="I65" s="108"/>
+      <c r="J65" s="107"/>
+      <c r="K65" s="107"/>
+      <c r="L65" s="109"/>
+      <c r="M65" s="109"/>
+      <c r="N65" s="110"/>
+      <c r="O65" s="106" t="s">
         <v>286</v>
       </c>
       <c r="P65" s="73"/>
@@ -4608,110 +4675,110 @@
       <c r="B66" s="97">
         <v>60</v>
       </c>
-      <c r="C66" s="115" t="s">
+      <c r="C66" s="106" t="s">
         <v>274</v>
       </c>
-      <c r="D66" s="115" t="s">
+      <c r="D66" s="106" t="s">
         <v>292</v>
       </c>
-      <c r="E66" s="116"/>
-      <c r="F66" s="116"/>
-      <c r="G66" s="116"/>
-      <c r="H66" s="116"/>
-      <c r="I66" s="117"/>
-      <c r="J66" s="116"/>
-      <c r="K66" s="116"/>
-      <c r="L66" s="118"/>
-      <c r="M66" s="118"/>
-      <c r="N66" s="119"/>
-      <c r="O66" s="118" t="s">
+      <c r="E66" s="107"/>
+      <c r="F66" s="107"/>
+      <c r="G66" s="107"/>
+      <c r="H66" s="107"/>
+      <c r="I66" s="108"/>
+      <c r="J66" s="107"/>
+      <c r="K66" s="107"/>
+      <c r="L66" s="109"/>
+      <c r="M66" s="109"/>
+      <c r="N66" s="110"/>
+      <c r="O66" s="109" t="s">
         <v>287</v>
       </c>
       <c r="P66" s="73"/>
     </row>
-    <row r="67" spans="2:16" s="61" customFormat="1" ht="30" customHeight="1">
-      <c r="B67" s="97">
+    <row r="67" spans="2:16" s="127" customFormat="1" ht="30" customHeight="1">
+      <c r="B67" s="120">
         <v>61</v>
       </c>
-      <c r="C67" s="114" t="s">
+      <c r="C67" s="133" t="s">
         <v>275</v>
       </c>
-      <c r="D67" s="114" t="s">
+      <c r="D67" s="133" t="s">
         <v>276</v>
       </c>
-      <c r="E67" s="58"/>
-      <c r="F67" s="58"/>
-      <c r="G67" s="58"/>
-      <c r="H67" s="58"/>
-      <c r="I67" s="59"/>
-      <c r="J67" s="58"/>
-      <c r="K67" s="58"/>
-      <c r="L67" s="27"/>
-      <c r="M67" s="27"/>
-      <c r="N67" s="96"/>
-      <c r="O67" s="27" t="s">
+      <c r="E67" s="134"/>
+      <c r="F67" s="134"/>
+      <c r="G67" s="134"/>
+      <c r="H67" s="134"/>
+      <c r="I67" s="135"/>
+      <c r="J67" s="134"/>
+      <c r="K67" s="134"/>
+      <c r="L67" s="136"/>
+      <c r="M67" s="136"/>
+      <c r="N67" s="137"/>
+      <c r="O67" s="136" t="s">
         <v>288</v>
       </c>
-      <c r="P67" s="73"/>
-    </row>
-    <row r="68" spans="2:16" s="61" customFormat="1" ht="30" customHeight="1">
-      <c r="B68" s="97">
+      <c r="P67" s="126"/>
+    </row>
+    <row r="68" spans="2:16" s="127" customFormat="1" ht="30" customHeight="1">
+      <c r="B68" s="120">
         <v>62</v>
       </c>
-      <c r="C68" s="115" t="s">
+      <c r="C68" s="128" t="s">
         <v>278</v>
       </c>
-      <c r="D68" s="115" t="s">
+      <c r="D68" s="128" t="s">
         <v>293</v>
       </c>
-      <c r="E68" s="116"/>
-      <c r="F68" s="116"/>
-      <c r="G68" s="116"/>
-      <c r="H68" s="116"/>
-      <c r="I68" s="117"/>
-      <c r="J68" s="116"/>
-      <c r="K68" s="116"/>
-      <c r="L68" s="118"/>
-      <c r="M68" s="118"/>
-      <c r="N68" s="119"/>
-      <c r="O68" s="118" t="s">
+      <c r="E68" s="129"/>
+      <c r="F68" s="129"/>
+      <c r="G68" s="129"/>
+      <c r="H68" s="129"/>
+      <c r="I68" s="130"/>
+      <c r="J68" s="129"/>
+      <c r="K68" s="129"/>
+      <c r="L68" s="131"/>
+      <c r="M68" s="131"/>
+      <c r="N68" s="132"/>
+      <c r="O68" s="131" t="s">
         <v>289</v>
       </c>
-      <c r="P68" s="73"/>
-    </row>
-    <row r="69" spans="2:16" s="61" customFormat="1" ht="30" customHeight="1">
-      <c r="B69" s="97">
+      <c r="P68" s="126"/>
+    </row>
+    <row r="69" spans="2:16" s="127" customFormat="1" ht="30" customHeight="1">
+      <c r="B69" s="120">
         <v>63</v>
       </c>
-      <c r="C69" s="98" t="s">
+      <c r="C69" s="121" t="s">
         <v>279</v>
       </c>
-      <c r="D69" s="98" t="s">
+      <c r="D69" s="121" t="s">
         <v>280</v>
       </c>
-      <c r="E69" s="99"/>
-      <c r="F69" s="99"/>
-      <c r="G69" s="99"/>
-      <c r="H69" s="99"/>
-      <c r="I69" s="100"/>
-      <c r="J69" s="99"/>
-      <c r="K69" s="99"/>
-      <c r="L69" s="101"/>
-      <c r="M69" s="101"/>
-      <c r="N69" s="102"/>
-      <c r="O69" s="98" t="s">
+      <c r="E69" s="122"/>
+      <c r="F69" s="122"/>
+      <c r="G69" s="122"/>
+      <c r="H69" s="122"/>
+      <c r="I69" s="123"/>
+      <c r="J69" s="122"/>
+      <c r="K69" s="122"/>
+      <c r="L69" s="124"/>
+      <c r="M69" s="124"/>
+      <c r="N69" s="125"/>
+      <c r="O69" s="121" t="s">
         <v>290</v>
       </c>
-      <c r="P69" s="73"/>
+      <c r="P69" s="126"/>
     </row>
     <row r="70" spans="2:16" s="61" customFormat="1" ht="30" customHeight="1">
       <c r="B70" s="97">
         <v>64</v>
       </c>
-      <c r="C70" s="114" t="s">
+      <c r="C70" s="105" t="s">
         <v>266</v>
       </c>
-      <c r="D70" s="114" t="s">
+      <c r="D70" s="105" t="s">
         <v>281</v>
       </c>
       <c r="E70" s="58"/>
@@ -4729,30 +4796,30 @@
       </c>
       <c r="P70" s="73"/>
     </row>
-    <row r="71" spans="2:16" s="61" customFormat="1" ht="30" customHeight="1">
-      <c r="B71" s="97">
+    <row r="71" spans="2:16" s="127" customFormat="1" ht="30" customHeight="1">
+      <c r="B71" s="120">
         <v>65</v>
       </c>
-      <c r="C71" s="115" t="s">
+      <c r="C71" s="128" t="s">
         <v>282</v>
       </c>
-      <c r="D71" s="115" t="s">
+      <c r="D71" s="128" t="s">
         <v>294</v>
       </c>
-      <c r="E71" s="116"/>
-      <c r="F71" s="116"/>
-      <c r="G71" s="116"/>
-      <c r="H71" s="116"/>
-      <c r="I71" s="117"/>
-      <c r="J71" s="116"/>
-      <c r="K71" s="116"/>
-      <c r="L71" s="118"/>
-      <c r="M71" s="118"/>
-      <c r="N71" s="119"/>
-      <c r="O71" s="115" t="s">
+      <c r="E71" s="129"/>
+      <c r="F71" s="129"/>
+      <c r="G71" s="129"/>
+      <c r="H71" s="129"/>
+      <c r="I71" s="130"/>
+      <c r="J71" s="129"/>
+      <c r="K71" s="129"/>
+      <c r="L71" s="131"/>
+      <c r="M71" s="131"/>
+      <c r="N71" s="132"/>
+      <c r="O71" s="128" t="s">
         <v>291</v>
       </c>
-      <c r="P71" s="73"/>
+      <c r="P71" s="126"/>
     </row>
     <row r="72" spans="2:16" s="61" customFormat="1" ht="30" customHeight="1">
       <c r="B72" s="97">

--- a/Documentation/Buglist.xlsx
+++ b/Documentation/Buglist.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="307">
   <si>
     <t>ID</t>
   </si>
@@ -1400,6 +1400,38 @@
   </si>
   <si>
     <t>在销售订单应用设置默认订单的办法添加订单后，如果其中默认的信息有更改的地方，需要在销售订单界面和销售订单审核界面高亮显示，当本条订单业务和计划审核后，就不用高亮显示了。</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>重复合同号提示</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>在新添合同时，如果合同号重复时，需要进行提示，但仍然允许重复合同号的保存</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除权限增加</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要给周海月增加删除权限</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加合同的UI布局需要改变</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>参照订单式样表格进行修改</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 程序启动后长时间最小化，切换回来来后屏幕出现灰色花屏现象</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>一般需要最小化2个小时左右后才能再现，再现后重启程序现象消失</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -2104,6 +2136,60 @@
     <xf numFmtId="0" fontId="6" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="19" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="19" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="19" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2130,60 +2216,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="19" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="19" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="19" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2542,10 +2574,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:S74"/>
+  <dimension ref="B2:S79"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A63" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A68" sqref="A68:XFD68"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A66" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C72" sqref="C72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2568,7 +2600,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" s="46" customFormat="1" ht="25.5">
-      <c r="B2" s="113"/>
+      <c r="B2" s="131"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -2585,7 +2617,7 @@
       <c r="P2" s="63"/>
     </row>
     <row r="3" spans="2:16" s="46" customFormat="1" ht="26.25" thickBot="1">
-      <c r="B3" s="114"/>
+      <c r="B3" s="132"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
@@ -2602,36 +2634,36 @@
       <c r="P3" s="63"/>
     </row>
     <row r="4" spans="2:16" s="3" customFormat="1" ht="14.25">
-      <c r="B4" s="118" t="s">
+      <c r="B4" s="136" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="115" t="s">
+      <c r="C4" s="133" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="116"/>
-      <c r="E4" s="116"/>
-      <c r="F4" s="116"/>
-      <c r="G4" s="116"/>
-      <c r="H4" s="116"/>
-      <c r="I4" s="116"/>
-      <c r="J4" s="116"/>
-      <c r="K4" s="116"/>
-      <c r="L4" s="111" t="s">
+      <c r="D4" s="134"/>
+      <c r="E4" s="134"/>
+      <c r="F4" s="134"/>
+      <c r="G4" s="134"/>
+      <c r="H4" s="134"/>
+      <c r="I4" s="134"/>
+      <c r="J4" s="134"/>
+      <c r="K4" s="134"/>
+      <c r="L4" s="129" t="s">
         <v>22</v>
       </c>
-      <c r="M4" s="111" t="s">
+      <c r="M4" s="129" t="s">
         <v>10</v>
       </c>
-      <c r="N4" s="111" t="s">
+      <c r="N4" s="129" t="s">
         <v>45</v>
       </c>
-      <c r="O4" s="111" t="s">
+      <c r="O4" s="129" t="s">
         <v>151</v>
       </c>
       <c r="P4" s="64"/>
     </row>
     <row r="5" spans="2:16" s="3" customFormat="1" ht="14.25">
-      <c r="B5" s="119"/>
+      <c r="B5" s="137"/>
       <c r="C5" s="9" t="s">
         <v>1</v>
       </c>
@@ -2659,10 +2691,10 @@
       <c r="K5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="L5" s="117"/>
-      <c r="M5" s="112"/>
-      <c r="N5" s="112"/>
-      <c r="O5" s="112"/>
+      <c r="L5" s="135"/>
+      <c r="M5" s="130"/>
+      <c r="N5" s="130"/>
+      <c r="O5" s="130"/>
       <c r="P5" s="64"/>
     </row>
     <row r="6" spans="2:16" s="7" customFormat="1" ht="90">
@@ -4696,80 +4728,80 @@
       </c>
       <c r="P66" s="73"/>
     </row>
-    <row r="67" spans="2:16" s="127" customFormat="1" ht="30" customHeight="1">
-      <c r="B67" s="120">
+    <row r="67" spans="2:16" s="118" customFormat="1" ht="30" customHeight="1">
+      <c r="B67" s="111">
         <v>61</v>
       </c>
-      <c r="C67" s="133" t="s">
+      <c r="C67" s="124" t="s">
         <v>275</v>
       </c>
-      <c r="D67" s="133" t="s">
+      <c r="D67" s="124" t="s">
         <v>276</v>
       </c>
-      <c r="E67" s="134"/>
-      <c r="F67" s="134"/>
-      <c r="G67" s="134"/>
-      <c r="H67" s="134"/>
-      <c r="I67" s="135"/>
-      <c r="J67" s="134"/>
-      <c r="K67" s="134"/>
-      <c r="L67" s="136"/>
-      <c r="M67" s="136"/>
-      <c r="N67" s="137"/>
-      <c r="O67" s="136" t="s">
+      <c r="E67" s="125"/>
+      <c r="F67" s="125"/>
+      <c r="G67" s="125"/>
+      <c r="H67" s="125"/>
+      <c r="I67" s="126"/>
+      <c r="J67" s="125"/>
+      <c r="K67" s="125"/>
+      <c r="L67" s="127"/>
+      <c r="M67" s="127"/>
+      <c r="N67" s="128"/>
+      <c r="O67" s="127" t="s">
         <v>288</v>
       </c>
-      <c r="P67" s="126"/>
-    </row>
-    <row r="68" spans="2:16" s="127" customFormat="1" ht="30" customHeight="1">
-      <c r="B68" s="120">
+      <c r="P67" s="117"/>
+    </row>
+    <row r="68" spans="2:16" s="118" customFormat="1" ht="30" customHeight="1">
+      <c r="B68" s="111">
         <v>62</v>
       </c>
-      <c r="C68" s="128" t="s">
+      <c r="C68" s="119" t="s">
         <v>278</v>
       </c>
-      <c r="D68" s="128" t="s">
+      <c r="D68" s="119" t="s">
         <v>293</v>
       </c>
-      <c r="E68" s="129"/>
-      <c r="F68" s="129"/>
-      <c r="G68" s="129"/>
-      <c r="H68" s="129"/>
-      <c r="I68" s="130"/>
-      <c r="J68" s="129"/>
-      <c r="K68" s="129"/>
-      <c r="L68" s="131"/>
-      <c r="M68" s="131"/>
-      <c r="N68" s="132"/>
-      <c r="O68" s="131" t="s">
+      <c r="E68" s="120"/>
+      <c r="F68" s="120"/>
+      <c r="G68" s="120"/>
+      <c r="H68" s="120"/>
+      <c r="I68" s="121"/>
+      <c r="J68" s="120"/>
+      <c r="K68" s="120"/>
+      <c r="L68" s="122"/>
+      <c r="M68" s="122"/>
+      <c r="N68" s="123"/>
+      <c r="O68" s="122" t="s">
         <v>289</v>
       </c>
-      <c r="P68" s="126"/>
-    </row>
-    <row r="69" spans="2:16" s="127" customFormat="1" ht="30" customHeight="1">
-      <c r="B69" s="120">
+      <c r="P68" s="117"/>
+    </row>
+    <row r="69" spans="2:16" s="118" customFormat="1" ht="30" customHeight="1">
+      <c r="B69" s="111">
         <v>63</v>
       </c>
-      <c r="C69" s="121" t="s">
+      <c r="C69" s="112" t="s">
         <v>279</v>
       </c>
-      <c r="D69" s="121" t="s">
+      <c r="D69" s="112" t="s">
         <v>280</v>
       </c>
-      <c r="E69" s="122"/>
-      <c r="F69" s="122"/>
-      <c r="G69" s="122"/>
-      <c r="H69" s="122"/>
-      <c r="I69" s="123"/>
-      <c r="J69" s="122"/>
-      <c r="K69" s="122"/>
-      <c r="L69" s="124"/>
-      <c r="M69" s="124"/>
-      <c r="N69" s="125"/>
-      <c r="O69" s="121" t="s">
+      <c r="E69" s="113"/>
+      <c r="F69" s="113"/>
+      <c r="G69" s="113"/>
+      <c r="H69" s="113"/>
+      <c r="I69" s="114"/>
+      <c r="J69" s="113"/>
+      <c r="K69" s="113"/>
+      <c r="L69" s="115"/>
+      <c r="M69" s="115"/>
+      <c r="N69" s="116"/>
+      <c r="O69" s="112" t="s">
         <v>290</v>
       </c>
-      <c r="P69" s="126"/>
+      <c r="P69" s="117"/>
     </row>
     <row r="70" spans="2:16" s="61" customFormat="1" ht="30" customHeight="1">
       <c r="B70" s="97">
@@ -4796,30 +4828,30 @@
       </c>
       <c r="P70" s="73"/>
     </row>
-    <row r="71" spans="2:16" s="127" customFormat="1" ht="30" customHeight="1">
-      <c r="B71" s="120">
+    <row r="71" spans="2:16" s="118" customFormat="1" ht="30" customHeight="1">
+      <c r="B71" s="111">
         <v>65</v>
       </c>
-      <c r="C71" s="128" t="s">
+      <c r="C71" s="119" t="s">
         <v>282</v>
       </c>
-      <c r="D71" s="128" t="s">
+      <c r="D71" s="119" t="s">
         <v>294</v>
       </c>
-      <c r="E71" s="129"/>
-      <c r="F71" s="129"/>
-      <c r="G71" s="129"/>
-      <c r="H71" s="129"/>
-      <c r="I71" s="130"/>
-      <c r="J71" s="129"/>
-      <c r="K71" s="129"/>
-      <c r="L71" s="131"/>
-      <c r="M71" s="131"/>
-      <c r="N71" s="132"/>
-      <c r="O71" s="128" t="s">
+      <c r="E71" s="120"/>
+      <c r="F71" s="120"/>
+      <c r="G71" s="120"/>
+      <c r="H71" s="120"/>
+      <c r="I71" s="121"/>
+      <c r="J71" s="120"/>
+      <c r="K71" s="120"/>
+      <c r="L71" s="122"/>
+      <c r="M71" s="122"/>
+      <c r="N71" s="123"/>
+      <c r="O71" s="119" t="s">
         <v>291</v>
       </c>
-      <c r="P71" s="126"/>
+      <c r="P71" s="117"/>
     </row>
     <row r="72" spans="2:16" s="61" customFormat="1" ht="30" customHeight="1">
       <c r="B72" s="97">
@@ -4847,9 +4879,15 @@
       <c r="P72" s="73"/>
     </row>
     <row r="73" spans="2:16" s="61" customFormat="1" ht="30" customHeight="1">
-      <c r="B73" s="97"/>
-      <c r="C73" s="98"/>
-      <c r="D73" s="98"/>
+      <c r="B73" s="97">
+        <v>67</v>
+      </c>
+      <c r="C73" s="98" t="s">
+        <v>305</v>
+      </c>
+      <c r="D73" s="98" t="s">
+        <v>306</v>
+      </c>
       <c r="E73" s="99"/>
       <c r="F73" s="99"/>
       <c r="G73" s="99"/>
@@ -4860,13 +4898,19 @@
       <c r="L73" s="101"/>
       <c r="M73" s="101"/>
       <c r="N73" s="102"/>
-      <c r="O73" s="101"/>
+      <c r="O73" s="98"/>
       <c r="P73" s="73"/>
     </row>
     <row r="74" spans="2:16" s="61" customFormat="1" ht="30" customHeight="1">
-      <c r="B74" s="97"/>
-      <c r="C74" s="98"/>
-      <c r="D74" s="98"/>
+      <c r="B74" s="97">
+        <v>68</v>
+      </c>
+      <c r="C74" s="98" t="s">
+        <v>299</v>
+      </c>
+      <c r="D74" s="98" t="s">
+        <v>300</v>
+      </c>
       <c r="E74" s="99"/>
       <c r="F74" s="99"/>
       <c r="G74" s="99"/>
@@ -4877,8 +4921,105 @@
       <c r="L74" s="101"/>
       <c r="M74" s="101"/>
       <c r="N74" s="102"/>
-      <c r="O74" s="101"/>
+      <c r="O74" s="98"/>
       <c r="P74" s="73"/>
+    </row>
+    <row r="75" spans="2:16" s="61" customFormat="1" ht="30" customHeight="1">
+      <c r="B75" s="97">
+        <v>69</v>
+      </c>
+      <c r="C75" s="98" t="s">
+        <v>301</v>
+      </c>
+      <c r="D75" s="98" t="s">
+        <v>302</v>
+      </c>
+      <c r="E75" s="99"/>
+      <c r="F75" s="99"/>
+      <c r="G75" s="99"/>
+      <c r="H75" s="99"/>
+      <c r="I75" s="100"/>
+      <c r="J75" s="99"/>
+      <c r="K75" s="99"/>
+      <c r="L75" s="101"/>
+      <c r="M75" s="101"/>
+      <c r="N75" s="102"/>
+      <c r="O75" s="98"/>
+      <c r="P75" s="73"/>
+    </row>
+    <row r="76" spans="2:16" s="61" customFormat="1" ht="30" customHeight="1">
+      <c r="B76" s="97">
+        <v>70</v>
+      </c>
+      <c r="C76" s="98" t="s">
+        <v>303</v>
+      </c>
+      <c r="D76" s="98" t="s">
+        <v>304</v>
+      </c>
+      <c r="E76" s="99"/>
+      <c r="F76" s="99"/>
+      <c r="G76" s="99"/>
+      <c r="H76" s="99"/>
+      <c r="I76" s="100"/>
+      <c r="J76" s="99"/>
+      <c r="K76" s="99"/>
+      <c r="L76" s="101"/>
+      <c r="M76" s="101"/>
+      <c r="N76" s="102"/>
+      <c r="O76" s="98"/>
+      <c r="P76" s="73"/>
+    </row>
+    <row r="77" spans="2:16" s="61" customFormat="1" ht="30" customHeight="1">
+      <c r="B77" s="97"/>
+      <c r="C77" s="98"/>
+      <c r="D77" s="98"/>
+      <c r="E77" s="99"/>
+      <c r="F77" s="99"/>
+      <c r="G77" s="99"/>
+      <c r="H77" s="99"/>
+      <c r="I77" s="100"/>
+      <c r="J77" s="99"/>
+      <c r="K77" s="99"/>
+      <c r="L77" s="101"/>
+      <c r="M77" s="101"/>
+      <c r="N77" s="102"/>
+      <c r="O77" s="98"/>
+      <c r="P77" s="73"/>
+    </row>
+    <row r="78" spans="2:16" s="61" customFormat="1" ht="30" customHeight="1">
+      <c r="B78" s="97"/>
+      <c r="C78" s="98"/>
+      <c r="D78" s="98"/>
+      <c r="E78" s="99"/>
+      <c r="F78" s="99"/>
+      <c r="G78" s="99"/>
+      <c r="H78" s="99"/>
+      <c r="I78" s="100"/>
+      <c r="J78" s="99"/>
+      <c r="K78" s="99"/>
+      <c r="L78" s="101"/>
+      <c r="M78" s="101"/>
+      <c r="N78" s="102"/>
+      <c r="O78" s="101"/>
+      <c r="P78" s="73"/>
+    </row>
+    <row r="79" spans="2:16" s="61" customFormat="1" ht="30" customHeight="1">
+      <c r="B79" s="97"/>
+      <c r="C79" s="98"/>
+      <c r="D79" s="98"/>
+      <c r="E79" s="99"/>
+      <c r="F79" s="99"/>
+      <c r="G79" s="99"/>
+      <c r="H79" s="99"/>
+      <c r="I79" s="100"/>
+      <c r="J79" s="99"/>
+      <c r="K79" s="99"/>
+      <c r="L79" s="101"/>
+      <c r="M79" s="101"/>
+      <c r="N79" s="102"/>
+      <c r="O79" s="101"/>
+      <c r="P79" s="73"/>
     </row>
   </sheetData>
   <autoFilter ref="O2:O60"/>

--- a/Documentation/Buglist.xlsx
+++ b/Documentation/Buglist.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="309">
   <si>
     <t>ID</t>
   </si>
@@ -1432,6 +1432,14 @@
   </si>
   <si>
     <t>一般需要最小化2个小时左右后才能再现，再现后重启程序现象消失</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>筛选功能失效</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>在计划排产中的更多筛选中筛选供应商为佛山，结果显示为17页，当选择下一页的时候，筛选失效，变回总页数。这个希望保持筛选结果。</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -2577,7 +2585,7 @@
   <dimension ref="B2:S79"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A66" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C72" sqref="C72"/>
+      <selection activeCell="E76" sqref="E76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4971,9 +4979,15 @@
       <c r="P76" s="73"/>
     </row>
     <row r="77" spans="2:16" s="61" customFormat="1" ht="30" customHeight="1">
-      <c r="B77" s="97"/>
-      <c r="C77" s="98"/>
-      <c r="D77" s="98"/>
+      <c r="B77" s="97">
+        <v>71</v>
+      </c>
+      <c r="C77" s="98" t="s">
+        <v>307</v>
+      </c>
+      <c r="D77" s="98" t="s">
+        <v>308</v>
+      </c>
       <c r="E77" s="99"/>
       <c r="F77" s="99"/>
       <c r="G77" s="99"/>

--- a/Documentation/Buglist.xlsx
+++ b/Documentation/Buglist.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="299">
   <si>
     <t>ID</t>
   </si>
@@ -774,9 +774,6 @@
   </si>
   <si>
     <t>Active</t>
-  </si>
-  <si>
-    <t>Active</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
@@ -977,10 +974,6 @@
   <si>
     <t>在排产计划中，修改投产时间保存时，提示投产编号必须修改，投产编号不能重复的含义在于不同条目不能重复，并不是本身不能一样</t>
     <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>Active</t>
-    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>计划科人员需要查看销售订单</t>
@@ -1137,10 +1130,6 @@
   </si>
   <si>
     <t>在计划页面，增加一种排序，按照合同号排序</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>销售反审核 删除这个合同号对应的未审核的计划订单，如果对应的部分计划订单已经审核，则提示反审核失败</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
@@ -1274,10 +1263,6 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>已经解决</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>更改包装箱内容选项</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
@@ -1298,6 +1283,94 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
+    <t>目前在审核订单时，也需要进行筛选，请在待办事项中添加筛选功能。</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>排产计划用模版导出后，右上的条形码一直显示123456，未正确显示投产编号</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加用户商磊，计划科全部权限</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>关于销售订单的审核</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>填写后的出厂编号和投产编号在未审核状态无法删除</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售订单添加界面，下拉菜单自动显示</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用孙海龙账户登入，在待办事项中，审核销售订单，这时点击表格设置，不进行任何编辑，点确定，软件崩溃，使用电脑为WIN 7系统，崩溃率100%</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>由于特殊客户的合同号比较长，现在需要把工号和合同号的最大输入位数调整到30位</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划人员身份登入，无法删除已经填写的投产编号和出厂编号（合同处于未审核状态例如：15-0302合同）</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>更改的内容需要在销售订单界面和销售订单审核界面高亮显示</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>在销售订单应用设置默认订单的办法添加订单后，如果其中默认的信息有更改的地方，需要在销售订单界面和销售订单审核界面高亮显示，当本条订单业务和计划审核后，就不用高亮显示了。</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>重复合同号提示</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>在新添合同时，如果合同号重复时，需要进行提示，但仍然允许重复合同号的保存</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除权限增加</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要给周海月增加删除权限</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加合同的UI布局需要改变</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>参照订单式样表格进行修改</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 程序启动后长时间最小化，切换回来来后屏幕出现灰色花屏现象</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>一般需要最小化2个小时左右后才能再现，再现后重启程序现象消失</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>在计划排产中的更多筛选中筛选供应商为佛山，结果显示为17页，当选择下一页的时候，筛选失效，变回总页数。这个希望保持筛选结果。</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Resolve</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Drop</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
     <t>软件崩溃</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
@@ -1306,14 +1379,6 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>目前在审核订单时，也需要进行筛选，请在待办事项中添加筛选功能。</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>提出新的要求，这条可以忽略</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>工号和合同号需要增加输入数据的最大位数</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
@@ -1322,62 +1387,7 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>排产计划用模版导出后，右上的条形码一直显示123456，未正确显示投产编号</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加用户商磊，计划科全部权限</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>关于销售订单的审核</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>填写后的出厂编号和投产编号在未审核状态无法删除</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>销售订单添加界面，下拉菜单自动显示</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>每个人的默认订单都是不同的，如果用户更改了默认订单，如何处理。
-另外，目前订单信息没有和创建的用户关联，如果需要关联用户，工作量大。</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要技术调查，理论上可以实现，不过需要考虑性能和难度</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要调查</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>可以添加</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>可以修改</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>之前没有需求，是否需要由程序动态生成？ 这个技术上需要调查。
-是否依然使用一维码</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>在待办事项中，如果销售订单没有进行业务审核，在计划待审核订单中不予以显示，按此来控制顺序。
-是否可以？</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用孙海龙账户登入，在待办事项中，审核销售订单，这时点击表格设置，不进行任何编辑，点确定，软件崩溃，使用电脑为WIN 7系统，崩溃率100%</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>由于特殊客户的合同号比较长，现在需要把工号和合同号的最大输入位数调整到30位</t>
+    <t>增加用户</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
@@ -1385,61 +1395,7 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>计划人员身份登入，无法删除已经填写的投产编号和出厂编号（合同处于未审核状态例如：15-0302合同）</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>待调查
-什么叫删除？是说修改为空么？ 目前不允许空字符串的录入。
-有什么场景需要？如果可以支持空即删除，那么可以修改</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>更改的内容需要在销售订单界面和销售订单审核界面高亮显示</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>在销售订单应用设置默认订单的办法添加订单后，如果其中默认的信息有更改的地方，需要在销售订单界面和销售订单审核界面高亮显示，当本条订单业务和计划审核后，就不用高亮显示了。</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>重复合同号提示</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>在新添合同时，如果合同号重复时，需要进行提示，但仍然允许重复合同号的保存</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除权限增加</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要给周海月增加删除权限</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加合同的UI布局需要改变</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>参照订单式样表格进行修改</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 程序启动后长时间最小化，切换回来来后屏幕出现灰色花屏现象</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>一般需要最小化2个小时左右后才能再现，再现后重启程序现象消失</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>筛选功能失效</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>在计划排产中的更多筛选中筛选供应商为佛山，结果显示为17页，当选择下一页的时候，筛选失效，变回总页数。这个希望保持筛选结果。</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -1576,13 +1532,11 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FFFF0000"/>
       <name val="Arial Unicode MS"/>
       <family val="3"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -1822,7 +1776,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="138">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1889,9 +1843,6 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1955,9 +1906,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2009,9 +1957,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2036,27 +1981,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="15" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2085,19 +2009,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2126,9 +2038,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2144,60 +2053,6 @@
     <xf numFmtId="0" fontId="6" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="19" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="19" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="19" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2224,6 +2079,69 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="19" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2584,31 +2502,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:S79"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A66" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E76" sqref="E76"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O74" sqref="O74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="1.875" style="49" customWidth="1"/>
+    <col min="1" max="1" width="1.875" style="47" customWidth="1"/>
     <col min="2" max="2" width="3.875" style="2" customWidth="1"/>
-    <col min="3" max="4" width="22.5" style="49" customWidth="1"/>
-    <col min="5" max="5" width="28" style="49" customWidth="1"/>
-    <col min="6" max="6" width="22.5" style="49" customWidth="1"/>
-    <col min="7" max="7" width="26.25" style="49" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="28.375" style="49" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="22.5" style="49" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="23.125" style="49" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="22.5" style="49" hidden="1" customWidth="1"/>
+    <col min="3" max="4" width="22.5" style="47" customWidth="1"/>
+    <col min="5" max="5" width="28" style="47" customWidth="1"/>
+    <col min="6" max="6" width="22.5" style="47" customWidth="1"/>
+    <col min="7" max="7" width="26.25" style="47" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="28.375" style="47" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="22.5" style="47" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="23.125" style="47" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="22.5" style="47" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="20.375" style="2" hidden="1" customWidth="1"/>
     <col min="13" max="14" width="29.375" style="2" hidden="1" customWidth="1"/>
     <col min="15" max="15" width="29.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.375" style="68" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9" style="49"/>
+    <col min="16" max="16" width="13.375" style="65" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="47"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" s="46" customFormat="1" ht="25.5">
-      <c r="B2" s="131"/>
+    <row r="2" spans="2:16" s="45" customFormat="1" ht="25.5">
+      <c r="B2" s="98"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -2622,10 +2540,10 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
-      <c r="P2" s="63"/>
-    </row>
-    <row r="3" spans="2:16" s="46" customFormat="1" ht="26.25" thickBot="1">
-      <c r="B3" s="132"/>
+      <c r="P2" s="61"/>
+    </row>
+    <row r="3" spans="2:16" s="45" customFormat="1" ht="26.25" thickBot="1">
+      <c r="B3" s="99"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
@@ -2639,39 +2557,39 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
-      <c r="P3" s="63"/>
+      <c r="P3" s="61"/>
     </row>
     <row r="4" spans="2:16" s="3" customFormat="1" ht="14.25">
-      <c r="B4" s="136" t="s">
+      <c r="B4" s="103" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="133" t="s">
+      <c r="C4" s="100" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="134"/>
-      <c r="E4" s="134"/>
-      <c r="F4" s="134"/>
-      <c r="G4" s="134"/>
-      <c r="H4" s="134"/>
-      <c r="I4" s="134"/>
-      <c r="J4" s="134"/>
-      <c r="K4" s="134"/>
-      <c r="L4" s="129" t="s">
+      <c r="D4" s="101"/>
+      <c r="E4" s="101"/>
+      <c r="F4" s="101"/>
+      <c r="G4" s="101"/>
+      <c r="H4" s="101"/>
+      <c r="I4" s="101"/>
+      <c r="J4" s="101"/>
+      <c r="K4" s="101"/>
+      <c r="L4" s="96" t="s">
         <v>22</v>
       </c>
-      <c r="M4" s="129" t="s">
+      <c r="M4" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="N4" s="129" t="s">
+      <c r="N4" s="96" t="s">
         <v>45</v>
       </c>
-      <c r="O4" s="129" t="s">
+      <c r="O4" s="96" t="s">
         <v>151</v>
       </c>
-      <c r="P4" s="64"/>
+      <c r="P4" s="62"/>
     </row>
     <row r="5" spans="2:16" s="3" customFormat="1" ht="14.25">
-      <c r="B5" s="137"/>
+      <c r="B5" s="104"/>
       <c r="C5" s="9" t="s">
         <v>1</v>
       </c>
@@ -2699,86 +2617,86 @@
       <c r="K5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="L5" s="135"/>
-      <c r="M5" s="130"/>
-      <c r="N5" s="130"/>
-      <c r="O5" s="130"/>
-      <c r="P5" s="64"/>
+      <c r="L5" s="102"/>
+      <c r="M5" s="97"/>
+      <c r="N5" s="97"/>
+      <c r="O5" s="97"/>
+      <c r="P5" s="62"/>
     </row>
     <row r="6" spans="2:16" s="7" customFormat="1" ht="90">
       <c r="B6" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="53" t="s">
+      <c r="C6" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="53" t="s">
+      <c r="D6" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="53" t="s">
+      <c r="E6" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="53" t="s">
+      <c r="F6" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="53" t="s">
+      <c r="G6" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="53" t="s">
+      <c r="H6" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="I6" s="53" t="s">
+      <c r="I6" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="J6" s="53" t="s">
+      <c r="J6" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="K6" s="53" t="s">
+      <c r="K6" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="L6" s="53" t="s">
+      <c r="L6" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="M6" s="53" t="s">
+      <c r="M6" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="N6" s="53" t="s">
+      <c r="N6" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="O6" s="53" t="s">
+      <c r="O6" s="51" t="s">
         <v>152</v>
       </c>
-      <c r="P6" s="65"/>
+      <c r="P6" s="63"/>
     </row>
     <row r="7" spans="2:16" s="7" customFormat="1" ht="135">
       <c r="B7" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="54" t="s">
+      <c r="D7" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="54" t="s">
+      <c r="E7" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="54" t="s">
+      <c r="F7" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="G7" s="54" t="s">
+      <c r="G7" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="H7" s="54" t="s">
+      <c r="H7" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="I7" s="55" t="s">
+      <c r="I7" s="53" t="s">
         <v>65</v>
       </c>
-      <c r="J7" s="54" t="s">
+      <c r="J7" s="52" t="s">
         <v>58</v>
       </c>
-      <c r="K7" s="54" t="s">
+      <c r="K7" s="52" t="s">
         <v>42</v>
       </c>
       <c r="L7" s="19" t="s">
@@ -2791,39 +2709,39 @@
         <v>51</v>
       </c>
       <c r="O7" s="21" t="s">
-        <v>154</v>
-      </c>
-      <c r="P7" s="65"/>
+        <v>153</v>
+      </c>
+      <c r="P7" s="63"/>
     </row>
     <row r="8" spans="2:16" s="7" customFormat="1" ht="90">
       <c r="B8" s="5">
         <v>1</v>
       </c>
-      <c r="C8" s="56" t="s">
+      <c r="C8" s="54" t="s">
         <v>149</v>
       </c>
-      <c r="D8" s="56" t="s">
+      <c r="D8" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="E8" s="56" t="s">
+      <c r="E8" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="F8" s="56" t="s">
+      <c r="F8" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="G8" s="56" t="s">
+      <c r="G8" s="54" t="s">
         <v>57</v>
       </c>
-      <c r="H8" s="56" t="s">
+      <c r="H8" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="I8" s="57">
+      <c r="I8" s="55">
         <v>1</v>
       </c>
-      <c r="J8" s="56" t="s">
+      <c r="J8" s="54" t="s">
         <v>66</v>
       </c>
-      <c r="K8" s="56" t="s">
+      <c r="K8" s="54" t="s">
         <v>67</v>
       </c>
       <c r="L8" s="6" t="s">
@@ -2832,41 +2750,41 @@
       <c r="M8" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="N8" s="56"/>
+      <c r="N8" s="54"/>
       <c r="O8" s="25" t="s">
-        <v>223</v>
-      </c>
-      <c r="P8" s="65"/>
-    </row>
-    <row r="9" spans="2:16" s="47" customFormat="1" ht="60">
+        <v>221</v>
+      </c>
+      <c r="P8" s="63"/>
+    </row>
+    <row r="9" spans="2:16" s="46" customFormat="1" ht="60">
       <c r="B9" s="5">
         <v>2</v>
       </c>
-      <c r="C9" s="56" t="s">
+      <c r="C9" s="54" t="s">
         <v>150</v>
       </c>
-      <c r="D9" s="56" t="s">
+      <c r="D9" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="E9" s="56" t="s">
+      <c r="E9" s="54" t="s">
         <v>71</v>
       </c>
-      <c r="F9" s="56" t="s">
+      <c r="F9" s="54" t="s">
         <v>62</v>
       </c>
-      <c r="G9" s="56" t="s">
+      <c r="G9" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="H9" s="56" t="s">
+      <c r="H9" s="54" t="s">
         <v>64</v>
       </c>
-      <c r="I9" s="57">
+      <c r="I9" s="55">
         <v>1</v>
       </c>
-      <c r="J9" s="56" t="s">
+      <c r="J9" s="54" t="s">
         <v>66</v>
       </c>
-      <c r="K9" s="56" t="s">
+      <c r="K9" s="54" t="s">
         <v>68</v>
       </c>
       <c r="L9" s="6" t="s">
@@ -2875,41 +2793,41 @@
       <c r="M9" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="N9" s="56"/>
+      <c r="N9" s="54"/>
       <c r="O9" s="25" t="s">
-        <v>223</v>
-      </c>
-      <c r="P9" s="65"/>
-    </row>
-    <row r="10" spans="2:16" s="40" customFormat="1" ht="165">
+        <v>221</v>
+      </c>
+      <c r="P9" s="63"/>
+    </row>
+    <row r="10" spans="2:16" s="39" customFormat="1" ht="165">
       <c r="B10" s="5">
         <v>3</v>
       </c>
-      <c r="C10" s="56" t="s">
+      <c r="C10" s="54" t="s">
         <v>69</v>
       </c>
-      <c r="D10" s="56" t="s">
+      <c r="D10" s="54" t="s">
         <v>70</v>
       </c>
-      <c r="E10" s="56" t="s">
+      <c r="E10" s="54" t="s">
         <v>72</v>
       </c>
-      <c r="F10" s="56" t="s">
+      <c r="F10" s="54" t="s">
         <v>73</v>
       </c>
-      <c r="G10" s="56" t="s">
+      <c r="G10" s="54" t="s">
         <v>74</v>
       </c>
-      <c r="H10" s="56" t="s">
+      <c r="H10" s="54" t="s">
         <v>75</v>
       </c>
-      <c r="I10" s="57">
+      <c r="I10" s="55">
         <v>1</v>
       </c>
-      <c r="J10" s="56" t="s">
+      <c r="J10" s="54" t="s">
         <v>76</v>
       </c>
-      <c r="K10" s="56" t="s">
+      <c r="K10" s="54" t="s">
         <v>68</v>
       </c>
       <c r="L10" s="6" t="s">
@@ -2918,41 +2836,41 @@
       <c r="M10" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="N10" s="56"/>
+      <c r="N10" s="54"/>
       <c r="O10" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="P10" s="73"/>
+        <v>221</v>
+      </c>
+      <c r="P10" s="70"/>
     </row>
     <row r="11" spans="2:16" s="8" customFormat="1" ht="105">
       <c r="B11" s="18">
         <v>4</v>
       </c>
-      <c r="C11" s="54" t="s">
+      <c r="C11" s="52" t="s">
         <v>77</v>
       </c>
-      <c r="D11" s="54" t="s">
+      <c r="D11" s="52" t="s">
         <v>78</v>
       </c>
-      <c r="E11" s="54" t="s">
+      <c r="E11" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="F11" s="54" t="s">
+      <c r="F11" s="52" t="s">
         <v>81</v>
       </c>
-      <c r="G11" s="54" t="s">
+      <c r="G11" s="52" t="s">
         <v>79</v>
       </c>
-      <c r="H11" s="54" t="s">
+      <c r="H11" s="52" t="s">
         <v>80</v>
       </c>
-      <c r="I11" s="60">
+      <c r="I11" s="58">
         <v>1</v>
       </c>
-      <c r="J11" s="54" t="s">
+      <c r="J11" s="52" t="s">
         <v>76</v>
       </c>
-      <c r="K11" s="54" t="s">
+      <c r="K11" s="52" t="s">
         <v>68</v>
       </c>
       <c r="L11" s="19" t="s">
@@ -2961,41 +2879,41 @@
       <c r="M11" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="N11" s="54"/>
+      <c r="N11" s="52"/>
       <c r="O11" s="19" t="s">
-        <v>155</v>
-      </c>
-      <c r="P11" s="67"/>
-    </row>
-    <row r="12" spans="2:16" s="47" customFormat="1" ht="60">
+        <v>154</v>
+      </c>
+      <c r="P11" s="64"/>
+    </row>
+    <row r="12" spans="2:16" s="46" customFormat="1" ht="60">
       <c r="B12" s="18">
         <v>5</v>
       </c>
-      <c r="C12" s="54" t="s">
+      <c r="C12" s="52" t="s">
         <v>84</v>
       </c>
-      <c r="D12" s="54" t="s">
+      <c r="D12" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="E12" s="54" t="s">
+      <c r="E12" s="52" t="s">
         <v>83</v>
       </c>
-      <c r="F12" s="54" t="s">
+      <c r="F12" s="52" t="s">
         <v>85</v>
       </c>
-      <c r="G12" s="54" t="s">
+      <c r="G12" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="H12" s="54" t="s">
+      <c r="H12" s="52" t="s">
         <v>87</v>
       </c>
-      <c r="I12" s="60">
+      <c r="I12" s="58">
         <v>1</v>
       </c>
-      <c r="J12" s="54" t="s">
+      <c r="J12" s="52" t="s">
         <v>93</v>
       </c>
-      <c r="K12" s="54" t="s">
+      <c r="K12" s="52" t="s">
         <v>68</v>
       </c>
       <c r="L12" s="19" t="s">
@@ -3004,41 +2922,41 @@
       <c r="M12" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="N12" s="54"/>
+      <c r="N12" s="52"/>
       <c r="O12" s="19" t="s">
-        <v>155</v>
-      </c>
-      <c r="P12" s="65"/>
-    </row>
-    <row r="13" spans="2:16" s="61" customFormat="1" ht="120">
+        <v>154</v>
+      </c>
+      <c r="P12" s="63"/>
+    </row>
+    <row r="13" spans="2:16" s="59" customFormat="1" ht="120">
       <c r="B13" s="5">
         <v>6</v>
       </c>
-      <c r="C13" s="56" t="s">
+      <c r="C13" s="54" t="s">
         <v>94</v>
       </c>
-      <c r="D13" s="56" t="s">
-        <v>156</v>
-      </c>
-      <c r="E13" s="56" t="s">
+      <c r="D13" s="54" t="s">
+        <v>155</v>
+      </c>
+      <c r="E13" s="54" t="s">
         <v>90</v>
       </c>
-      <c r="F13" s="56" t="s">
+      <c r="F13" s="54" t="s">
         <v>97</v>
       </c>
-      <c r="G13" s="56" t="s">
+      <c r="G13" s="54" t="s">
         <v>91</v>
       </c>
-      <c r="H13" s="56" t="s">
+      <c r="H13" s="54" t="s">
         <v>92</v>
       </c>
-      <c r="I13" s="57">
+      <c r="I13" s="55">
         <v>1</v>
       </c>
-      <c r="J13" s="56" t="s">
+      <c r="J13" s="54" t="s">
         <v>93</v>
       </c>
-      <c r="K13" s="56" t="s">
+      <c r="K13" s="54" t="s">
         <v>68</v>
       </c>
       <c r="L13" s="6" t="s">
@@ -3047,41 +2965,41 @@
       <c r="M13" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="N13" s="56"/>
+      <c r="N13" s="54"/>
       <c r="O13" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="P13" s="73"/>
-    </row>
-    <row r="14" spans="2:16" s="61" customFormat="1" ht="120">
+        <v>221</v>
+      </c>
+      <c r="P13" s="70"/>
+    </row>
+    <row r="14" spans="2:16" s="59" customFormat="1" ht="120">
       <c r="B14" s="5">
         <v>7</v>
       </c>
-      <c r="C14" s="56" t="s">
+      <c r="C14" s="54" t="s">
         <v>95</v>
       </c>
-      <c r="D14" s="56" t="s">
+      <c r="D14" s="54" t="s">
         <v>96</v>
       </c>
-      <c r="E14" s="56" t="s">
+      <c r="E14" s="54" t="s">
         <v>103</v>
       </c>
-      <c r="F14" s="56" t="s">
+      <c r="F14" s="54" t="s">
         <v>99</v>
       </c>
-      <c r="G14" s="57" t="s">
+      <c r="G14" s="55" t="s">
         <v>98</v>
       </c>
-      <c r="H14" s="56" t="s">
+      <c r="H14" s="54" t="s">
         <v>100</v>
       </c>
-      <c r="I14" s="57">
+      <c r="I14" s="55">
         <v>1</v>
       </c>
-      <c r="J14" s="56" t="s">
+      <c r="J14" s="54" t="s">
         <v>93</v>
       </c>
-      <c r="K14" s="56" t="s">
+      <c r="K14" s="54" t="s">
         <v>67</v>
       </c>
       <c r="L14" s="6" t="s">
@@ -3090,41 +3008,41 @@
       <c r="M14" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="N14" s="56"/>
+      <c r="N14" s="54"/>
       <c r="O14" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="P14" s="73"/>
-    </row>
-    <row r="15" spans="2:16" s="62" customFormat="1" ht="90">
+        <v>221</v>
+      </c>
+      <c r="P14" s="70"/>
+    </row>
+    <row r="15" spans="2:16" s="60" customFormat="1" ht="90">
       <c r="B15" s="5">
         <v>8</v>
       </c>
-      <c r="C15" s="56" t="s">
+      <c r="C15" s="54" t="s">
         <v>102</v>
       </c>
-      <c r="D15" s="56" t="s">
+      <c r="D15" s="54" t="s">
         <v>105</v>
       </c>
-      <c r="E15" s="56" t="s">
+      <c r="E15" s="54" t="s">
         <v>104</v>
       </c>
-      <c r="F15" s="56" t="s">
+      <c r="F15" s="54" t="s">
         <v>109</v>
       </c>
-      <c r="G15" s="57" t="s">
+      <c r="G15" s="55" t="s">
         <v>106</v>
       </c>
-      <c r="H15" s="56" t="s">
+      <c r="H15" s="54" t="s">
         <v>107</v>
       </c>
-      <c r="I15" s="57">
+      <c r="I15" s="55">
         <v>1</v>
       </c>
-      <c r="J15" s="56" t="s">
+      <c r="J15" s="54" t="s">
         <v>93</v>
       </c>
-      <c r="K15" s="56" t="s">
+      <c r="K15" s="54" t="s">
         <v>67</v>
       </c>
       <c r="L15" s="6" t="s">
@@ -3133,41 +3051,41 @@
       <c r="M15" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="N15" s="56"/>
+      <c r="N15" s="54"/>
       <c r="O15" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="P15" s="74"/>
+        <v>221</v>
+      </c>
+      <c r="P15" s="71"/>
     </row>
     <row r="16" spans="2:16" ht="90">
       <c r="B16" s="18">
         <v>9</v>
       </c>
-      <c r="C16" s="54" t="s">
+      <c r="C16" s="52" t="s">
         <v>108</v>
       </c>
-      <c r="D16" s="54" t="s">
+      <c r="D16" s="52" t="s">
         <v>108</v>
       </c>
-      <c r="E16" s="54" t="s">
+      <c r="E16" s="52" t="s">
         <v>113</v>
       </c>
-      <c r="F16" s="54" t="s">
+      <c r="F16" s="52" t="s">
         <v>115</v>
       </c>
-      <c r="G16" s="60" t="s">
+      <c r="G16" s="58" t="s">
         <v>110</v>
       </c>
-      <c r="H16" s="54" t="s">
+      <c r="H16" s="52" t="s">
         <v>111</v>
       </c>
-      <c r="I16" s="60">
+      <c r="I16" s="58">
         <v>1</v>
       </c>
-      <c r="J16" s="54" t="s">
+      <c r="J16" s="52" t="s">
         <v>93</v>
       </c>
-      <c r="K16" s="54" t="s">
+      <c r="K16" s="52" t="s">
         <v>67</v>
       </c>
       <c r="L16" s="19" t="s">
@@ -3176,40 +3094,40 @@
       <c r="M16" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="N16" s="54"/>
+      <c r="N16" s="52"/>
       <c r="O16" s="19" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="17" spans="2:18" s="47" customFormat="1" ht="75">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="17" spans="2:18" s="46" customFormat="1" ht="75">
       <c r="B17" s="18">
         <v>10</v>
       </c>
-      <c r="C17" s="54" t="s">
+      <c r="C17" s="52" t="s">
         <v>112</v>
       </c>
-      <c r="D17" s="54" t="s">
+      <c r="D17" s="52" t="s">
         <v>114</v>
       </c>
-      <c r="E17" s="54" t="s">
+      <c r="E17" s="52" t="s">
         <v>127</v>
       </c>
-      <c r="F17" s="54" t="s">
+      <c r="F17" s="52" t="s">
         <v>118</v>
       </c>
-      <c r="G17" s="54" t="s">
+      <c r="G17" s="52" t="s">
         <v>116</v>
       </c>
-      <c r="H17" s="54" t="s">
+      <c r="H17" s="52" t="s">
         <v>117</v>
       </c>
-      <c r="I17" s="60">
+      <c r="I17" s="58">
         <v>1</v>
       </c>
-      <c r="J17" s="54" t="s">
+      <c r="J17" s="52" t="s">
         <v>93</v>
       </c>
-      <c r="K17" s="54" t="s">
+      <c r="K17" s="52" t="s">
         <v>67</v>
       </c>
       <c r="L17" s="19" t="s">
@@ -3218,41 +3136,41 @@
       <c r="M17" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="N17" s="54"/>
+      <c r="N17" s="52"/>
       <c r="O17" s="19" t="s">
-        <v>155</v>
-      </c>
-      <c r="P17" s="65"/>
-    </row>
-    <row r="18" spans="2:18" s="61" customFormat="1" ht="90">
+        <v>154</v>
+      </c>
+      <c r="P17" s="63"/>
+    </row>
+    <row r="18" spans="2:18" s="59" customFormat="1" ht="90">
       <c r="B18" s="5">
         <v>11</v>
       </c>
-      <c r="C18" s="56" t="s">
+      <c r="C18" s="54" t="s">
         <v>119</v>
       </c>
-      <c r="D18" s="56" t="s">
+      <c r="D18" s="54" t="s">
         <v>122</v>
       </c>
-      <c r="E18" s="56" t="s">
+      <c r="E18" s="54" t="s">
         <v>120</v>
       </c>
-      <c r="F18" s="56" t="s">
+      <c r="F18" s="54" t="s">
         <v>121</v>
       </c>
-      <c r="G18" s="56" t="s">
+      <c r="G18" s="54" t="s">
         <v>123</v>
       </c>
-      <c r="H18" s="56" t="s">
+      <c r="H18" s="54" t="s">
         <v>124</v>
       </c>
-      <c r="I18" s="57">
+      <c r="I18" s="55">
         <v>1</v>
       </c>
-      <c r="J18" s="56" t="s">
+      <c r="J18" s="54" t="s">
         <v>93</v>
       </c>
-      <c r="K18" s="56" t="s">
+      <c r="K18" s="54" t="s">
         <v>67</v>
       </c>
       <c r="L18" s="6" t="s">
@@ -3261,41 +3179,41 @@
       <c r="M18" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="N18" s="56"/>
+      <c r="N18" s="54"/>
       <c r="O18" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="P18" s="73"/>
-    </row>
-    <row r="19" spans="2:18" s="47" customFormat="1" ht="75">
+        <v>221</v>
+      </c>
+      <c r="P18" s="70"/>
+    </row>
+    <row r="19" spans="2:18" s="46" customFormat="1" ht="75">
       <c r="B19" s="18">
         <v>12</v>
       </c>
-      <c r="C19" s="54" t="s">
+      <c r="C19" s="52" t="s">
         <v>132</v>
       </c>
-      <c r="D19" s="54" t="s">
+      <c r="D19" s="52" t="s">
         <v>125</v>
       </c>
-      <c r="E19" s="54" t="s">
+      <c r="E19" s="52" t="s">
         <v>126</v>
       </c>
-      <c r="F19" s="54" t="s">
+      <c r="F19" s="52" t="s">
         <v>128</v>
       </c>
-      <c r="G19" s="54" t="s">
+      <c r="G19" s="52" t="s">
         <v>129</v>
       </c>
-      <c r="H19" s="54" t="s">
+      <c r="H19" s="52" t="s">
         <v>130</v>
       </c>
-      <c r="I19" s="60">
+      <c r="I19" s="58">
         <v>1</v>
       </c>
-      <c r="J19" s="54" t="s">
+      <c r="J19" s="52" t="s">
         <v>93</v>
       </c>
-      <c r="K19" s="54" t="s">
+      <c r="K19" s="52" t="s">
         <v>67</v>
       </c>
       <c r="L19" s="19" t="s">
@@ -3304,41 +3222,41 @@
       <c r="M19" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="N19" s="54"/>
+      <c r="N19" s="52"/>
       <c r="O19" s="19" t="s">
-        <v>155</v>
-      </c>
-      <c r="P19" s="65"/>
-    </row>
-    <row r="20" spans="2:18" s="47" customFormat="1" ht="90">
+        <v>154</v>
+      </c>
+      <c r="P19" s="63"/>
+    </row>
+    <row r="20" spans="2:18" s="46" customFormat="1" ht="90">
       <c r="B20" s="18">
         <v>13</v>
       </c>
-      <c r="C20" s="54" t="s">
+      <c r="C20" s="52" t="s">
         <v>131</v>
       </c>
-      <c r="D20" s="54" t="s">
+      <c r="D20" s="52" t="s">
         <v>133</v>
       </c>
-      <c r="E20" s="54" t="s">
+      <c r="E20" s="52" t="s">
         <v>134</v>
       </c>
-      <c r="F20" s="54" t="s">
+      <c r="F20" s="52" t="s">
         <v>140</v>
       </c>
-      <c r="G20" s="54" t="s">
+      <c r="G20" s="52" t="s">
         <v>135</v>
       </c>
-      <c r="H20" s="54" t="s">
+      <c r="H20" s="52" t="s">
         <v>136</v>
       </c>
-      <c r="I20" s="60">
+      <c r="I20" s="58">
         <v>1</v>
       </c>
-      <c r="J20" s="54" t="s">
+      <c r="J20" s="52" t="s">
         <v>93</v>
       </c>
-      <c r="K20" s="54" t="s">
+      <c r="K20" s="52" t="s">
         <v>67</v>
       </c>
       <c r="L20" s="19" t="s">
@@ -3347,41 +3265,41 @@
       <c r="M20" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="N20" s="54"/>
+      <c r="N20" s="52"/>
       <c r="O20" s="19" t="s">
-        <v>155</v>
-      </c>
-      <c r="P20" s="65"/>
-    </row>
-    <row r="21" spans="2:18" s="61" customFormat="1" ht="165">
+        <v>154</v>
+      </c>
+      <c r="P20" s="63"/>
+    </row>
+    <row r="21" spans="2:18" s="59" customFormat="1" ht="165">
       <c r="B21" s="5">
         <v>14</v>
       </c>
-      <c r="C21" s="56" t="s">
+      <c r="C21" s="54" t="s">
         <v>137</v>
       </c>
-      <c r="D21" s="56" t="s">
+      <c r="D21" s="54" t="s">
         <v>138</v>
       </c>
-      <c r="E21" s="56" t="s">
+      <c r="E21" s="54" t="s">
         <v>139</v>
       </c>
-      <c r="F21" s="56" t="s">
+      <c r="F21" s="54" t="s">
         <v>141</v>
       </c>
-      <c r="G21" s="56" t="s">
+      <c r="G21" s="54" t="s">
         <v>142</v>
       </c>
-      <c r="H21" s="56" t="s">
+      <c r="H21" s="54" t="s">
         <v>143</v>
       </c>
-      <c r="I21" s="57">
+      <c r="I21" s="55">
         <v>1</v>
       </c>
-      <c r="J21" s="56" t="s">
+      <c r="J21" s="54" t="s">
         <v>93</v>
       </c>
-      <c r="K21" s="56" t="s">
+      <c r="K21" s="54" t="s">
         <v>67</v>
       </c>
       <c r="L21" s="6" t="s">
@@ -3390,1650 +3308,1654 @@
       <c r="M21" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="N21" s="56"/>
+      <c r="N21" s="54"/>
       <c r="O21" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="P21" s="73"/>
-    </row>
-    <row r="22" spans="2:18" s="61" customFormat="1" ht="45">
+        <v>221</v>
+      </c>
+      <c r="P21" s="70"/>
+    </row>
+    <row r="22" spans="2:18" s="59" customFormat="1" ht="45">
       <c r="B22" s="5">
         <v>15</v>
       </c>
-      <c r="C22" s="56" t="s">
+      <c r="C22" s="54" t="s">
         <v>145</v>
       </c>
-      <c r="D22" s="56"/>
-      <c r="E22" s="56"/>
-      <c r="F22" s="56"/>
-      <c r="G22" s="56"/>
-      <c r="H22" s="56"/>
-      <c r="I22" s="57"/>
-      <c r="J22" s="56"/>
-      <c r="K22" s="56"/>
+      <c r="D22" s="54"/>
+      <c r="E22" s="54"/>
+      <c r="F22" s="54"/>
+      <c r="G22" s="54"/>
+      <c r="H22" s="54"/>
+      <c r="I22" s="55"/>
+      <c r="J22" s="54"/>
+      <c r="K22" s="54"/>
       <c r="L22" s="6" t="s">
         <v>144</v>
       </c>
       <c r="M22" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="N22" s="56"/>
+      <c r="N22" s="54"/>
       <c r="O22" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="P22" s="73"/>
-    </row>
-    <row r="23" spans="2:18" s="61" customFormat="1" ht="30">
+        <v>221</v>
+      </c>
+      <c r="P22" s="70"/>
+    </row>
+    <row r="23" spans="2:18" s="59" customFormat="1" ht="30">
       <c r="B23" s="5">
         <v>16</v>
       </c>
-      <c r="C23" s="56" t="s">
+      <c r="C23" s="54" t="s">
         <v>146</v>
       </c>
-      <c r="D23" s="56"/>
-      <c r="E23" s="56"/>
-      <c r="F23" s="56"/>
-      <c r="G23" s="56"/>
-      <c r="H23" s="56"/>
-      <c r="I23" s="57"/>
-      <c r="J23" s="56"/>
-      <c r="K23" s="56"/>
+      <c r="D23" s="54"/>
+      <c r="E23" s="54"/>
+      <c r="F23" s="54"/>
+      <c r="G23" s="54"/>
+      <c r="H23" s="54"/>
+      <c r="I23" s="55"/>
+      <c r="J23" s="54"/>
+      <c r="K23" s="54"/>
       <c r="L23" s="6" t="s">
         <v>144</v>
       </c>
       <c r="M23" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="N23" s="56"/>
+      <c r="N23" s="54"/>
       <c r="O23" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="P23" s="73"/>
-    </row>
-    <row r="24" spans="2:18" s="61" customFormat="1" ht="90">
+        <v>221</v>
+      </c>
+      <c r="P23" s="70"/>
+    </row>
+    <row r="24" spans="2:18" s="59" customFormat="1" ht="90">
       <c r="B24" s="5">
         <v>17</v>
       </c>
-      <c r="C24" s="56" t="s">
+      <c r="C24" s="54" t="s">
         <v>148</v>
       </c>
-      <c r="D24" s="56"/>
-      <c r="E24" s="56"/>
-      <c r="F24" s="56"/>
-      <c r="G24" s="56"/>
-      <c r="H24" s="56"/>
-      <c r="I24" s="57"/>
-      <c r="J24" s="56"/>
-      <c r="K24" s="56"/>
+      <c r="D24" s="54"/>
+      <c r="E24" s="54"/>
+      <c r="F24" s="54"/>
+      <c r="G24" s="54"/>
+      <c r="H24" s="54"/>
+      <c r="I24" s="55"/>
+      <c r="J24" s="54"/>
+      <c r="K24" s="54"/>
       <c r="L24" s="6" t="s">
         <v>144</v>
       </c>
       <c r="M24" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="N24" s="56"/>
+      <c r="N24" s="54"/>
       <c r="O24" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="P24" s="73"/>
-    </row>
-    <row r="25" spans="2:18" s="48" customFormat="1" ht="45">
-      <c r="B25" s="26">
+        <v>221</v>
+      </c>
+      <c r="P24" s="70"/>
+    </row>
+    <row r="25" spans="2:18" s="108" customFormat="1" ht="45">
+      <c r="B25" s="117">
         <v>18</v>
       </c>
-      <c r="C25" s="58" t="s">
-        <v>246</v>
-      </c>
-      <c r="D25" s="58"/>
-      <c r="E25" s="76" t="s">
-        <v>240</v>
-      </c>
-      <c r="F25" s="58"/>
-      <c r="G25" s="58"/>
-      <c r="H25" s="58"/>
-      <c r="I25" s="59"/>
-      <c r="J25" s="58"/>
-      <c r="K25" s="58"/>
-      <c r="L25" s="27" t="s">
+      <c r="C25" s="105" t="s">
+        <v>243</v>
+      </c>
+      <c r="D25" s="105"/>
+      <c r="E25" s="125" t="s">
+        <v>238</v>
+      </c>
+      <c r="F25" s="105"/>
+      <c r="G25" s="105"/>
+      <c r="H25" s="105"/>
+      <c r="I25" s="106"/>
+      <c r="J25" s="105"/>
+      <c r="K25" s="105"/>
+      <c r="L25" s="25" t="s">
         <v>144</v>
       </c>
-      <c r="M25" s="27" t="s">
+      <c r="M25" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="N25" s="58"/>
-      <c r="O25" s="27" t="s">
-        <v>223</v>
-      </c>
-      <c r="P25" s="66"/>
-    </row>
-    <row r="26" spans="2:18" s="61" customFormat="1" ht="90">
+      <c r="N25" s="105"/>
+      <c r="O25" s="25" t="s">
+        <v>221</v>
+      </c>
+      <c r="P25" s="107"/>
+    </row>
+    <row r="26" spans="2:18" s="59" customFormat="1" ht="90">
       <c r="B26" s="5">
         <v>19</v>
       </c>
-      <c r="C26" s="56" t="s">
+      <c r="C26" s="54" t="s">
         <v>147</v>
       </c>
-      <c r="D26" s="56"/>
-      <c r="E26" s="56"/>
-      <c r="F26" s="56"/>
-      <c r="G26" s="56"/>
-      <c r="H26" s="56"/>
-      <c r="I26" s="57"/>
-      <c r="J26" s="56"/>
-      <c r="K26" s="56"/>
+      <c r="D26" s="54"/>
+      <c r="E26" s="54"/>
+      <c r="F26" s="54"/>
+      <c r="G26" s="54"/>
+      <c r="H26" s="54"/>
+      <c r="I26" s="55"/>
+      <c r="J26" s="54"/>
+      <c r="K26" s="54"/>
       <c r="L26" s="6" t="s">
         <v>59</v>
       </c>
       <c r="M26" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="N26" s="56"/>
+      <c r="N26" s="54"/>
       <c r="O26" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="P26" s="70"/>
+    </row>
+    <row r="27" spans="2:18" s="108" customFormat="1" ht="60">
+      <c r="B27" s="117">
+        <v>20</v>
+      </c>
+      <c r="C27" s="105" t="s">
+        <v>156</v>
+      </c>
+      <c r="D27" s="105"/>
+      <c r="E27" s="105" t="s">
+        <v>239</v>
+      </c>
+      <c r="F27" s="105"/>
+      <c r="G27" s="105"/>
+      <c r="H27" s="105"/>
+      <c r="I27" s="106"/>
+      <c r="J27" s="105"/>
+      <c r="K27" s="105"/>
+      <c r="L27" s="25"/>
+      <c r="M27" s="25"/>
+      <c r="N27" s="105"/>
+      <c r="O27" s="25" t="s">
+        <v>290</v>
+      </c>
+      <c r="P27" s="107"/>
+    </row>
+    <row r="28" spans="2:18" s="121" customFormat="1" ht="30" customHeight="1">
+      <c r="B28" s="119">
+        <v>21</v>
+      </c>
+      <c r="C28" s="34" t="s">
         <v>223</v>
       </c>
-      <c r="P26" s="73"/>
-    </row>
-    <row r="27" spans="2:18" s="48" customFormat="1" ht="60">
-      <c r="B27" s="26">
-        <v>20</v>
-      </c>
-      <c r="C27" s="58" t="s">
+      <c r="D28" s="34" t="s">
         <v>157</v>
       </c>
-      <c r="D27" s="58"/>
-      <c r="E27" s="58" t="s">
+      <c r="E28" s="124" t="s">
+        <v>231</v>
+      </c>
+      <c r="F28" s="34" t="s">
+        <v>159</v>
+      </c>
+      <c r="G28" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="H28" s="34" t="s">
+        <v>161</v>
+      </c>
+      <c r="I28" s="35">
+        <v>0.3</v>
+      </c>
+      <c r="J28" s="34"/>
+      <c r="K28" s="34"/>
+      <c r="L28" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="M28" s="36"/>
+      <c r="N28" s="34"/>
+      <c r="O28" s="25" t="s">
+        <v>290</v>
+      </c>
+      <c r="P28" s="107" t="s">
+        <v>245</v>
+      </c>
+      <c r="R28" s="122"/>
+    </row>
+    <row r="29" spans="2:18" s="72" customFormat="1" ht="30" customHeight="1">
+      <c r="B29" s="73">
+        <v>22</v>
+      </c>
+      <c r="C29" s="74" t="s">
+        <v>162</v>
+      </c>
+      <c r="D29" s="74" t="s">
+        <v>163</v>
+      </c>
+      <c r="E29" s="74" t="s">
+        <v>164</v>
+      </c>
+      <c r="F29" s="74" t="s">
+        <v>165</v>
+      </c>
+      <c r="G29" s="74" t="s">
+        <v>166</v>
+      </c>
+      <c r="H29" s="74" t="s">
+        <v>167</v>
+      </c>
+      <c r="I29" s="75">
+        <v>1</v>
+      </c>
+      <c r="J29" s="74"/>
+      <c r="K29" s="74"/>
+      <c r="L29" s="76" t="s">
+        <v>59</v>
+      </c>
+      <c r="M29" s="76"/>
+      <c r="N29" s="74"/>
+      <c r="O29" s="77" t="s">
+        <v>154</v>
+      </c>
+      <c r="P29" s="70"/>
+    </row>
+    <row r="30" spans="2:18" s="72" customFormat="1" ht="30" customHeight="1">
+      <c r="B30" s="73">
+        <v>23</v>
+      </c>
+      <c r="C30" s="74" t="s">
+        <v>166</v>
+      </c>
+      <c r="D30" s="74" t="s">
+        <v>168</v>
+      </c>
+      <c r="E30" s="74" t="s">
+        <v>158</v>
+      </c>
+      <c r="F30" s="74" t="s">
+        <v>169</v>
+      </c>
+      <c r="G30" s="74" t="s">
+        <v>170</v>
+      </c>
+      <c r="H30" s="74" t="s">
+        <v>171</v>
+      </c>
+      <c r="I30" s="75">
+        <v>1</v>
+      </c>
+      <c r="J30" s="74"/>
+      <c r="K30" s="74"/>
+      <c r="L30" s="76" t="s">
+        <v>59</v>
+      </c>
+      <c r="M30" s="76"/>
+      <c r="N30" s="74"/>
+      <c r="O30" s="77" t="s">
+        <v>154</v>
+      </c>
+      <c r="P30" s="70"/>
+    </row>
+    <row r="31" spans="2:18" s="33" customFormat="1" ht="30" customHeight="1">
+      <c r="B31" s="29">
+        <v>24</v>
+      </c>
+      <c r="C31" s="30" t="s">
+        <v>204</v>
+      </c>
+      <c r="D31" s="30" t="s">
+        <v>205</v>
+      </c>
+      <c r="E31" s="30" t="s">
+        <v>164</v>
+      </c>
+      <c r="F31" s="30" t="s">
+        <v>164</v>
+      </c>
+      <c r="G31" s="30" t="s">
+        <v>172</v>
+      </c>
+      <c r="H31" s="30" t="s">
+        <v>173</v>
+      </c>
+      <c r="I31" s="31">
+        <v>1</v>
+      </c>
+      <c r="J31" s="30"/>
+      <c r="K31" s="30"/>
+      <c r="L31" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="M31" s="32"/>
+      <c r="N31" s="30"/>
+      <c r="O31" s="25" t="s">
+        <v>221</v>
+      </c>
+      <c r="P31" s="66"/>
+    </row>
+    <row r="32" spans="2:18" s="28" customFormat="1" ht="30" customHeight="1">
+      <c r="B32" s="29">
+        <v>25</v>
+      </c>
+      <c r="C32" s="30" t="s">
+        <v>206</v>
+      </c>
+      <c r="D32" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="E32" s="30" t="s">
+        <v>175</v>
+      </c>
+      <c r="F32" s="30" t="s">
+        <v>176</v>
+      </c>
+      <c r="G32" s="30"/>
+      <c r="H32" s="30"/>
+      <c r="I32" s="31">
+        <v>1</v>
+      </c>
+      <c r="J32" s="30"/>
+      <c r="K32" s="30"/>
+      <c r="L32" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="M32" s="32"/>
+      <c r="N32" s="30"/>
+      <c r="O32" s="25" t="s">
+        <v>221</v>
+      </c>
+      <c r="P32" s="67"/>
+    </row>
+    <row r="33" spans="2:19" s="28" customFormat="1" ht="30" customHeight="1">
+      <c r="B33" s="29">
+        <v>26</v>
+      </c>
+      <c r="C33" s="30" t="s">
+        <v>210</v>
+      </c>
+      <c r="D33" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="E33" s="30" t="s">
+        <v>158</v>
+      </c>
+      <c r="F33" s="30" t="s">
+        <v>164</v>
+      </c>
+      <c r="G33" s="30"/>
+      <c r="H33" s="30"/>
+      <c r="I33" s="31">
+        <v>1</v>
+      </c>
+      <c r="J33" s="30"/>
+      <c r="K33" s="30"/>
+      <c r="L33" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="M33" s="32"/>
+      <c r="N33" s="30"/>
+      <c r="O33" s="25" t="s">
+        <v>221</v>
+      </c>
+      <c r="P33" s="67"/>
+    </row>
+    <row r="34" spans="2:19" s="48" customFormat="1" ht="30" customHeight="1">
+      <c r="B34" s="29">
+        <v>27</v>
+      </c>
+      <c r="C34" s="34" t="s">
+        <v>207</v>
+      </c>
+      <c r="D34" s="34" t="s">
+        <v>178</v>
+      </c>
+      <c r="E34" s="34" t="s">
+        <v>179</v>
+      </c>
+      <c r="F34" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="G34" s="34" t="s">
+        <v>208</v>
+      </c>
+      <c r="H34" s="34" t="s">
+        <v>209</v>
+      </c>
+      <c r="I34" s="35">
+        <v>1</v>
+      </c>
+      <c r="J34" s="34"/>
+      <c r="K34" s="34"/>
+      <c r="L34" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="M34" s="36"/>
+      <c r="N34" s="34"/>
+      <c r="O34" s="25" t="s">
+        <v>221</v>
+      </c>
+      <c r="P34" s="68"/>
+    </row>
+    <row r="35" spans="2:19" s="48" customFormat="1" ht="30" customHeight="1">
+      <c r="B35" s="29">
+        <v>28</v>
+      </c>
+      <c r="C35" s="34" t="s">
+        <v>211</v>
+      </c>
+      <c r="D35" s="34" t="s">
+        <v>180</v>
+      </c>
+      <c r="E35" s="34" t="s">
+        <v>175</v>
+      </c>
+      <c r="F35" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="G35" s="34" t="s">
+        <v>181</v>
+      </c>
+      <c r="H35" s="34" t="s">
+        <v>182</v>
+      </c>
+      <c r="I35" s="35">
+        <v>1</v>
+      </c>
+      <c r="J35" s="34"/>
+      <c r="K35" s="34"/>
+      <c r="L35" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="M35" s="36"/>
+      <c r="N35" s="34"/>
+      <c r="O35" s="25" t="s">
+        <v>221</v>
+      </c>
+      <c r="P35" s="68"/>
+    </row>
+    <row r="36" spans="2:19" s="121" customFormat="1" ht="30" customHeight="1">
+      <c r="B36" s="119">
+        <v>29</v>
+      </c>
+      <c r="C36" s="34" t="s">
+        <v>212</v>
+      </c>
+      <c r="D36" s="34" t="s">
+        <v>224</v>
+      </c>
+      <c r="E36" s="123" t="s">
+        <v>240</v>
+      </c>
+      <c r="F36" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="G36" s="34" t="s">
+        <v>183</v>
+      </c>
+      <c r="H36" s="34" t="s">
+        <v>184</v>
+      </c>
+      <c r="I36" s="35">
+        <v>1</v>
+      </c>
+      <c r="J36" s="34"/>
+      <c r="K36" s="34"/>
+      <c r="L36" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="M36" s="36"/>
+      <c r="N36" s="34"/>
+      <c r="O36" s="25" t="s">
+        <v>221</v>
+      </c>
+      <c r="P36" s="107" t="s">
+        <v>246</v>
+      </c>
+      <c r="R36" s="118" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" s="121" customFormat="1" ht="30" customHeight="1">
+      <c r="B37" s="119">
+        <v>30</v>
+      </c>
+      <c r="C37" s="34" t="s">
+        <v>185</v>
+      </c>
+      <c r="D37" s="34" t="s">
+        <v>186</v>
+      </c>
+      <c r="E37" s="124" t="s">
+        <v>249</v>
+      </c>
+      <c r="F37" s="34" t="s">
+        <v>175</v>
+      </c>
+      <c r="G37" s="34" t="s">
+        <v>187</v>
+      </c>
+      <c r="H37" s="34" t="s">
+        <v>188</v>
+      </c>
+      <c r="I37" s="34" t="s">
+        <v>189</v>
+      </c>
+      <c r="J37" s="34"/>
+      <c r="K37" s="34"/>
+      <c r="L37" s="36" t="s">
+        <v>144</v>
+      </c>
+      <c r="M37" s="36"/>
+      <c r="N37" s="34"/>
+      <c r="O37" s="25" t="s">
+        <v>221</v>
+      </c>
+      <c r="P37" s="107"/>
+      <c r="R37" s="122">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="2:19" s="28" customFormat="1" ht="30" customHeight="1">
+      <c r="B38" s="29">
+        <v>31</v>
+      </c>
+      <c r="C38" s="30" t="s">
+        <v>213</v>
+      </c>
+      <c r="D38" s="34" t="s">
+        <v>190</v>
+      </c>
+      <c r="E38" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="F38" s="34" t="s">
+        <v>175</v>
+      </c>
+      <c r="G38" s="34"/>
+      <c r="H38" s="34" t="s">
+        <v>191</v>
+      </c>
+      <c r="I38" s="35">
+        <v>1</v>
+      </c>
+      <c r="J38" s="34"/>
+      <c r="K38" s="34"/>
+      <c r="L38" s="36" t="s">
+        <v>144</v>
+      </c>
+      <c r="M38" s="36"/>
+      <c r="N38" s="34"/>
+      <c r="O38" s="50" t="s">
+        <v>222</v>
+      </c>
+      <c r="P38" s="67"/>
+    </row>
+    <row r="39" spans="2:19" s="40" customFormat="1" ht="30" customHeight="1">
+      <c r="B39" s="41">
+        <v>32</v>
+      </c>
+      <c r="C39" s="42" t="s">
+        <v>192</v>
+      </c>
+      <c r="D39" s="42" t="s">
+        <v>214</v>
+      </c>
+      <c r="E39" s="78" t="s">
+        <v>232</v>
+      </c>
+      <c r="F39" s="42" t="s">
+        <v>158</v>
+      </c>
+      <c r="G39" s="42" t="s">
+        <v>193</v>
+      </c>
+      <c r="H39" s="42" t="s">
+        <v>194</v>
+      </c>
+      <c r="I39" s="42" t="s">
+        <v>189</v>
+      </c>
+      <c r="J39" s="42"/>
+      <c r="K39" s="42"/>
+      <c r="L39" s="44" t="s">
+        <v>144</v>
+      </c>
+      <c r="M39" s="44"/>
+      <c r="N39" s="42"/>
+      <c r="O39" s="27"/>
+      <c r="P39" s="49"/>
+      <c r="R39" s="81"/>
+    </row>
+    <row r="40" spans="2:19" s="28" customFormat="1" ht="30" customHeight="1">
+      <c r="B40" s="29">
+        <v>33</v>
+      </c>
+      <c r="C40" s="34" t="s">
+        <v>195</v>
+      </c>
+      <c r="D40" s="34" t="s">
+        <v>196</v>
+      </c>
+      <c r="E40" s="34" t="s">
+        <v>175</v>
+      </c>
+      <c r="F40" s="34" t="s">
+        <v>175</v>
+      </c>
+      <c r="G40" s="34"/>
+      <c r="H40" s="34"/>
+      <c r="I40" s="34"/>
+      <c r="J40" s="34"/>
+      <c r="K40" s="34"/>
+      <c r="L40" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="M40" s="36"/>
+      <c r="N40" s="34"/>
+      <c r="O40" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="P40" s="67"/>
+    </row>
+    <row r="41" spans="2:19" s="121" customFormat="1" ht="30" customHeight="1">
+      <c r="B41" s="119">
+        <v>34</v>
+      </c>
+      <c r="C41" s="34" t="s">
+        <v>244</v>
+      </c>
+      <c r="D41" s="34" t="s">
+        <v>226</v>
+      </c>
+      <c r="E41" s="34" t="s">
+        <v>227</v>
+      </c>
+      <c r="F41" s="34" t="s">
+        <v>215</v>
+      </c>
+      <c r="G41" s="34" t="s">
+        <v>197</v>
+      </c>
+      <c r="H41" s="34" t="s">
+        <v>198</v>
+      </c>
+      <c r="I41" s="35">
+        <v>1</v>
+      </c>
+      <c r="J41" s="34"/>
+      <c r="K41" s="34"/>
+      <c r="L41" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="M41" s="36"/>
+      <c r="N41" s="34"/>
+      <c r="O41" s="25" t="s">
+        <v>221</v>
+      </c>
+      <c r="P41" s="120"/>
+      <c r="R41" s="122"/>
+      <c r="S41" s="120"/>
+    </row>
+    <row r="42" spans="2:19" s="40" customFormat="1" ht="30" customHeight="1">
+      <c r="B42" s="41">
+        <v>35</v>
+      </c>
+      <c r="C42" s="42" t="s">
+        <v>228</v>
+      </c>
+      <c r="D42" s="42" t="s">
+        <v>199</v>
+      </c>
+      <c r="E42" s="42" t="s">
+        <v>229</v>
+      </c>
+      <c r="F42" s="42" t="s">
+        <v>158</v>
+      </c>
+      <c r="G42" s="42" t="s">
+        <v>200</v>
+      </c>
+      <c r="H42" s="42"/>
+      <c r="I42" s="43">
+        <v>1</v>
+      </c>
+      <c r="J42" s="42"/>
+      <c r="K42" s="42"/>
+      <c r="L42" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="M42" s="44"/>
+      <c r="N42" s="42"/>
+      <c r="O42" s="27"/>
+      <c r="P42" s="49"/>
+      <c r="R42" s="81"/>
+    </row>
+    <row r="43" spans="2:19" s="28" customFormat="1" ht="30" customHeight="1">
+      <c r="B43" s="29">
+        <v>36</v>
+      </c>
+      <c r="C43" s="34" t="s">
+        <v>216</v>
+      </c>
+      <c r="D43" s="34" t="s">
+        <v>201</v>
+      </c>
+      <c r="E43" s="37" t="s">
+        <v>175</v>
+      </c>
+      <c r="F43" s="34"/>
+      <c r="G43" s="34"/>
+      <c r="H43" s="34"/>
+      <c r="I43" s="35">
+        <v>1</v>
+      </c>
+      <c r="J43" s="34"/>
+      <c r="K43" s="34"/>
+      <c r="L43" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="M43" s="36"/>
+      <c r="N43" s="34"/>
+      <c r="O43" s="25" t="s">
+        <v>221</v>
+      </c>
+      <c r="P43" s="67"/>
+    </row>
+    <row r="44" spans="2:19" s="28" customFormat="1" ht="30" customHeight="1">
+      <c r="B44" s="29">
+        <v>37</v>
+      </c>
+      <c r="C44" s="37" t="s">
+        <v>217</v>
+      </c>
+      <c r="D44" s="34" t="s">
+        <v>201</v>
+      </c>
+      <c r="E44" s="37" t="s">
+        <v>175</v>
+      </c>
+      <c r="F44" s="37"/>
+      <c r="G44" s="37"/>
+      <c r="H44" s="37"/>
+      <c r="I44" s="35">
+        <v>1</v>
+      </c>
+      <c r="J44" s="37"/>
+      <c r="K44" s="37"/>
+      <c r="L44" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="M44" s="38"/>
+      <c r="N44" s="37"/>
+      <c r="O44" s="25" t="s">
+        <v>221</v>
+      </c>
+      <c r="P44" s="67"/>
+    </row>
+    <row r="45" spans="2:19" s="72" customFormat="1" ht="30" customHeight="1">
+      <c r="B45" s="73">
+        <v>38</v>
+      </c>
+      <c r="C45" s="79" t="s">
+        <v>160</v>
+      </c>
+      <c r="D45" s="79" t="s">
+        <v>230</v>
+      </c>
+      <c r="E45" s="79" t="s">
+        <v>175</v>
+      </c>
+      <c r="F45" s="79"/>
+      <c r="G45" s="79"/>
+      <c r="H45" s="79"/>
+      <c r="I45" s="75">
+        <v>1</v>
+      </c>
+      <c r="J45" s="79"/>
+      <c r="K45" s="79"/>
+      <c r="L45" s="80" t="s">
+        <v>59</v>
+      </c>
+      <c r="M45" s="80"/>
+      <c r="N45" s="79"/>
+      <c r="O45" s="77" t="s">
+        <v>154</v>
+      </c>
+      <c r="P45" s="70"/>
+    </row>
+    <row r="46" spans="2:19" s="28" customFormat="1" ht="30" customHeight="1">
+      <c r="B46" s="29">
+        <v>39</v>
+      </c>
+      <c r="C46" s="69" t="s">
+        <v>202</v>
+      </c>
+      <c r="D46" s="37" t="s">
+        <v>203</v>
+      </c>
+      <c r="E46" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="F46" s="37"/>
+      <c r="G46" s="37"/>
+      <c r="H46" s="37"/>
+      <c r="I46" s="35">
+        <v>1</v>
+      </c>
+      <c r="J46" s="37"/>
+      <c r="K46" s="37"/>
+      <c r="L46" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="M46" s="38"/>
+      <c r="N46" s="37"/>
+      <c r="O46" s="25" t="s">
+        <v>221</v>
+      </c>
+      <c r="P46" s="67"/>
+    </row>
+    <row r="47" spans="2:19" s="28" customFormat="1" ht="30" customHeight="1">
+      <c r="B47" s="29">
+        <v>40</v>
+      </c>
+      <c r="C47" s="69" t="s">
+        <v>218</v>
+      </c>
+      <c r="D47" s="37" t="s">
+        <v>219</v>
+      </c>
+      <c r="E47" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="F47" s="37"/>
+      <c r="G47" s="37"/>
+      <c r="H47" s="37"/>
+      <c r="I47" s="35">
+        <v>1</v>
+      </c>
+      <c r="J47" s="37"/>
+      <c r="K47" s="37"/>
+      <c r="L47" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="M47" s="38"/>
+      <c r="N47" s="37"/>
+      <c r="O47" s="25" t="s">
+        <v>221</v>
+      </c>
+      <c r="P47" s="67"/>
+    </row>
+    <row r="48" spans="2:19" s="72" customFormat="1" ht="30" customHeight="1">
+      <c r="B48" s="73">
+        <v>41</v>
+      </c>
+      <c r="C48" s="79" t="s">
+        <v>220</v>
+      </c>
+      <c r="D48" s="74" t="s">
+        <v>201</v>
+      </c>
+      <c r="E48" s="79" t="s">
+        <v>158</v>
+      </c>
+      <c r="F48" s="79"/>
+      <c r="G48" s="79"/>
+      <c r="H48" s="79"/>
+      <c r="I48" s="75">
+        <v>1</v>
+      </c>
+      <c r="J48" s="79"/>
+      <c r="K48" s="79"/>
+      <c r="L48" s="80" t="s">
+        <v>59</v>
+      </c>
+      <c r="M48" s="80"/>
+      <c r="N48" s="79"/>
+      <c r="O48" s="77" t="s">
+        <v>154</v>
+      </c>
+      <c r="P48" s="70"/>
+    </row>
+    <row r="49" spans="2:18" s="108" customFormat="1" ht="30">
+      <c r="B49" s="117">
+        <v>43</v>
+      </c>
+      <c r="C49" s="105" t="s">
+        <v>225</v>
+      </c>
+      <c r="D49" s="105"/>
+      <c r="E49" s="105" t="s">
         <v>241</v>
       </c>
-      <c r="F27" s="58"/>
-      <c r="G27" s="58"/>
-      <c r="H27" s="58"/>
-      <c r="I27" s="59"/>
-      <c r="J27" s="58"/>
-      <c r="K27" s="58"/>
-      <c r="L27" s="27"/>
-      <c r="M27" s="27"/>
-      <c r="N27" s="58"/>
-      <c r="O27" s="27" t="s">
-        <v>223</v>
-      </c>
-      <c r="P27" s="66"/>
-    </row>
-    <row r="28" spans="2:18" s="80" customFormat="1" ht="30" customHeight="1">
-      <c r="B28" s="77">
-        <v>21</v>
-      </c>
-      <c r="C28" s="75" t="s">
-        <v>225</v>
-      </c>
-      <c r="D28" s="75" t="s">
-        <v>158</v>
-      </c>
-      <c r="E28" s="81" t="s">
+      <c r="F49" s="105"/>
+      <c r="G49" s="105"/>
+      <c r="H49" s="105"/>
+      <c r="I49" s="106"/>
+      <c r="J49" s="105"/>
+      <c r="K49" s="105"/>
+      <c r="L49" s="25"/>
+      <c r="M49" s="25"/>
+      <c r="N49" s="105"/>
+      <c r="O49" s="25" t="s">
+        <v>221</v>
+      </c>
+      <c r="P49" s="107"/>
+      <c r="R49" s="118"/>
+    </row>
+    <row r="50" spans="2:18" s="108" customFormat="1" ht="45">
+      <c r="B50" s="117">
+        <v>44</v>
+      </c>
+      <c r="C50" s="105" t="s">
         <v>233</v>
       </c>
-      <c r="F28" s="75" t="s">
-        <v>160</v>
-      </c>
-      <c r="G28" s="75" t="s">
-        <v>161</v>
-      </c>
-      <c r="H28" s="75" t="s">
-        <v>162</v>
-      </c>
-      <c r="I28" s="78">
-        <v>0.3</v>
-      </c>
-      <c r="J28" s="75"/>
-      <c r="K28" s="75"/>
-      <c r="L28" s="79" t="s">
-        <v>59</v>
-      </c>
-      <c r="M28" s="79"/>
-      <c r="N28" s="75"/>
-      <c r="O28" s="27" t="s">
-        <v>205</v>
-      </c>
-      <c r="P28" s="66" t="s">
-        <v>248</v>
-      </c>
-      <c r="R28" s="92"/>
-    </row>
-    <row r="29" spans="2:18" s="82" customFormat="1" ht="30" customHeight="1">
-      <c r="B29" s="83">
-        <v>22</v>
-      </c>
-      <c r="C29" s="84" t="s">
-        <v>163</v>
-      </c>
-      <c r="D29" s="84" t="s">
-        <v>164</v>
-      </c>
-      <c r="E29" s="84" t="s">
-        <v>165</v>
-      </c>
-      <c r="F29" s="84" t="s">
-        <v>166</v>
-      </c>
-      <c r="G29" s="84" t="s">
-        <v>167</v>
-      </c>
-      <c r="H29" s="84" t="s">
-        <v>168</v>
-      </c>
-      <c r="I29" s="85">
-        <v>1</v>
-      </c>
-      <c r="J29" s="84"/>
-      <c r="K29" s="84"/>
-      <c r="L29" s="86" t="s">
-        <v>59</v>
-      </c>
-      <c r="M29" s="86"/>
-      <c r="N29" s="84"/>
-      <c r="O29" s="87" t="s">
-        <v>155</v>
-      </c>
-      <c r="P29" s="73"/>
-    </row>
-    <row r="30" spans="2:18" s="82" customFormat="1" ht="30" customHeight="1">
-      <c r="B30" s="83">
-        <v>23</v>
-      </c>
-      <c r="C30" s="84" t="s">
-        <v>167</v>
-      </c>
-      <c r="D30" s="84" t="s">
-        <v>169</v>
-      </c>
-      <c r="E30" s="84" t="s">
-        <v>159</v>
-      </c>
-      <c r="F30" s="84" t="s">
-        <v>170</v>
-      </c>
-      <c r="G30" s="84" t="s">
-        <v>171</v>
-      </c>
-      <c r="H30" s="84" t="s">
-        <v>172</v>
-      </c>
-      <c r="I30" s="85">
-        <v>1</v>
-      </c>
-      <c r="J30" s="84"/>
-      <c r="K30" s="84"/>
-      <c r="L30" s="86" t="s">
-        <v>59</v>
-      </c>
-      <c r="M30" s="86"/>
-      <c r="N30" s="84"/>
-      <c r="O30" s="87" t="s">
-        <v>155</v>
-      </c>
-      <c r="P30" s="73"/>
-    </row>
-    <row r="31" spans="2:18" s="34" customFormat="1" ht="30" customHeight="1">
-      <c r="B31" s="30">
-        <v>24</v>
-      </c>
-      <c r="C31" s="31" t="s">
-        <v>206</v>
-      </c>
-      <c r="D31" s="31" t="s">
-        <v>207</v>
-      </c>
-      <c r="E31" s="31" t="s">
-        <v>165</v>
-      </c>
-      <c r="F31" s="31" t="s">
-        <v>165</v>
-      </c>
-      <c r="G31" s="31" t="s">
-        <v>173</v>
-      </c>
-      <c r="H31" s="31" t="s">
-        <v>174</v>
-      </c>
-      <c r="I31" s="32">
-        <v>1</v>
-      </c>
-      <c r="J31" s="31"/>
-      <c r="K31" s="31"/>
-      <c r="L31" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="M31" s="33"/>
-      <c r="N31" s="31"/>
-      <c r="O31" s="25" t="s">
-        <v>223</v>
-      </c>
-      <c r="P31" s="69"/>
-    </row>
-    <row r="32" spans="2:18" s="29" customFormat="1" ht="30" customHeight="1">
-      <c r="B32" s="30">
-        <v>25</v>
-      </c>
-      <c r="C32" s="31" t="s">
-        <v>208</v>
-      </c>
-      <c r="D32" s="31" t="s">
-        <v>175</v>
-      </c>
-      <c r="E32" s="31" t="s">
-        <v>176</v>
-      </c>
-      <c r="F32" s="31" t="s">
-        <v>177</v>
-      </c>
-      <c r="G32" s="31"/>
-      <c r="H32" s="31"/>
-      <c r="I32" s="32">
-        <v>1</v>
-      </c>
-      <c r="J32" s="31"/>
-      <c r="K32" s="31"/>
-      <c r="L32" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="M32" s="33"/>
-      <c r="N32" s="31"/>
-      <c r="O32" s="25" t="s">
-        <v>223</v>
-      </c>
-      <c r="P32" s="70"/>
-    </row>
-    <row r="33" spans="2:19" s="29" customFormat="1" ht="30" customHeight="1">
-      <c r="B33" s="30">
-        <v>26</v>
-      </c>
-      <c r="C33" s="31" t="s">
-        <v>212</v>
-      </c>
-      <c r="D33" s="31" t="s">
-        <v>178</v>
-      </c>
-      <c r="E33" s="31" t="s">
-        <v>159</v>
-      </c>
-      <c r="F33" s="31" t="s">
-        <v>165</v>
-      </c>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="32">
-        <v>1</v>
-      </c>
-      <c r="J33" s="31"/>
-      <c r="K33" s="31"/>
-      <c r="L33" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="M33" s="33"/>
-      <c r="N33" s="31"/>
-      <c r="O33" s="25" t="s">
-        <v>223</v>
-      </c>
-      <c r="P33" s="70"/>
-    </row>
-    <row r="34" spans="2:19" s="50" customFormat="1" ht="30" customHeight="1">
-      <c r="B34" s="30">
-        <v>27</v>
-      </c>
-      <c r="C34" s="35" t="s">
-        <v>209</v>
-      </c>
-      <c r="D34" s="35" t="s">
-        <v>179</v>
-      </c>
-      <c r="E34" s="35" t="s">
-        <v>180</v>
-      </c>
-      <c r="F34" s="35" t="s">
-        <v>159</v>
-      </c>
-      <c r="G34" s="35" t="s">
-        <v>210</v>
-      </c>
-      <c r="H34" s="35" t="s">
-        <v>211</v>
-      </c>
-      <c r="I34" s="36">
-        <v>1</v>
-      </c>
-      <c r="J34" s="35"/>
-      <c r="K34" s="35"/>
-      <c r="L34" s="37" t="s">
-        <v>59</v>
-      </c>
-      <c r="M34" s="37"/>
-      <c r="N34" s="35"/>
-      <c r="O34" s="25" t="s">
-        <v>223</v>
-      </c>
-      <c r="P34" s="71"/>
-    </row>
-    <row r="35" spans="2:19" s="50" customFormat="1" ht="30" customHeight="1">
-      <c r="B35" s="30">
-        <v>28</v>
-      </c>
-      <c r="C35" s="35" t="s">
-        <v>213</v>
-      </c>
-      <c r="D35" s="35" t="s">
-        <v>181</v>
-      </c>
-      <c r="E35" s="35" t="s">
-        <v>176</v>
-      </c>
-      <c r="F35" s="35" t="s">
-        <v>159</v>
-      </c>
-      <c r="G35" s="35" t="s">
-        <v>182</v>
-      </c>
-      <c r="H35" s="35" t="s">
-        <v>183</v>
-      </c>
-      <c r="I35" s="36">
-        <v>1</v>
-      </c>
-      <c r="J35" s="35"/>
-      <c r="K35" s="35"/>
-      <c r="L35" s="37" t="s">
-        <v>59</v>
-      </c>
-      <c r="M35" s="37"/>
-      <c r="N35" s="35"/>
-      <c r="O35" s="25" t="s">
-        <v>223</v>
-      </c>
-      <c r="P35" s="71"/>
-    </row>
-    <row r="36" spans="2:19" s="80" customFormat="1" ht="30" customHeight="1">
-      <c r="B36" s="77">
-        <v>29</v>
-      </c>
-      <c r="C36" s="75" t="s">
-        <v>214</v>
-      </c>
-      <c r="D36" s="75" t="s">
-        <v>226</v>
-      </c>
-      <c r="E36" s="95" t="s">
+      <c r="D50" s="105"/>
+      <c r="E50" s="105"/>
+      <c r="F50" s="105"/>
+      <c r="G50" s="105"/>
+      <c r="H50" s="105"/>
+      <c r="I50" s="106"/>
+      <c r="J50" s="105"/>
+      <c r="K50" s="105"/>
+      <c r="L50" s="25"/>
+      <c r="M50" s="25"/>
+      <c r="N50" s="105"/>
+      <c r="O50" s="25" t="s">
+        <v>221</v>
+      </c>
+      <c r="P50" s="107"/>
+      <c r="R50" s="118"/>
+    </row>
+    <row r="51" spans="2:18" s="108" customFormat="1" ht="30">
+      <c r="B51" s="117">
+        <v>45</v>
+      </c>
+      <c r="C51" s="105" t="s">
+        <v>234</v>
+      </c>
+      <c r="D51" s="105"/>
+      <c r="E51" s="105"/>
+      <c r="F51" s="105"/>
+      <c r="G51" s="105"/>
+      <c r="H51" s="105"/>
+      <c r="I51" s="106"/>
+      <c r="J51" s="105"/>
+      <c r="K51" s="105"/>
+      <c r="L51" s="25"/>
+      <c r="M51" s="25"/>
+      <c r="N51" s="105"/>
+      <c r="O51" s="25" t="s">
+        <v>221</v>
+      </c>
+      <c r="P51" s="107"/>
+      <c r="R51" s="118"/>
+    </row>
+    <row r="52" spans="2:18" s="108" customFormat="1" ht="30">
+      <c r="B52" s="117">
+        <v>46</v>
+      </c>
+      <c r="C52" s="105" t="s">
+        <v>235</v>
+      </c>
+      <c r="D52" s="105"/>
+      <c r="E52" s="105" t="s">
         <v>242</v>
       </c>
-      <c r="F36" s="75" t="s">
-        <v>159</v>
-      </c>
-      <c r="G36" s="43" t="s">
-        <v>184</v>
-      </c>
-      <c r="H36" s="43" t="s">
-        <v>185</v>
-      </c>
-      <c r="I36" s="44">
-        <v>1</v>
-      </c>
-      <c r="J36" s="43"/>
-      <c r="K36" s="43"/>
-      <c r="L36" s="45" t="s">
-        <v>59</v>
-      </c>
-      <c r="M36" s="45"/>
-      <c r="N36" s="43"/>
-      <c r="O36" s="27" t="s">
-        <v>223</v>
-      </c>
-      <c r="P36" s="66" t="s">
-        <v>249</v>
-      </c>
-      <c r="R36" s="94" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="37" spans="2:19" s="80" customFormat="1" ht="30" customHeight="1">
-      <c r="B37" s="77">
-        <v>30</v>
-      </c>
-      <c r="C37" s="75" t="s">
-        <v>186</v>
-      </c>
-      <c r="D37" s="75" t="s">
-        <v>187</v>
-      </c>
-      <c r="E37" s="81" t="s">
-        <v>252</v>
-      </c>
-      <c r="F37" s="75" t="s">
-        <v>176</v>
-      </c>
-      <c r="G37" s="43" t="s">
-        <v>188</v>
-      </c>
-      <c r="H37" s="43" t="s">
-        <v>189</v>
-      </c>
-      <c r="I37" s="43" t="s">
-        <v>190</v>
-      </c>
-      <c r="J37" s="43"/>
-      <c r="K37" s="43"/>
-      <c r="L37" s="45" t="s">
-        <v>144</v>
-      </c>
-      <c r="M37" s="45"/>
-      <c r="N37" s="43"/>
-      <c r="O37" s="27" t="s">
-        <v>223</v>
-      </c>
-      <c r="P37" s="66"/>
-      <c r="R37" s="92">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="2:19" s="29" customFormat="1" ht="30" customHeight="1">
-      <c r="B38" s="30">
-        <v>31</v>
-      </c>
-      <c r="C38" s="31" t="s">
-        <v>215</v>
-      </c>
-      <c r="D38" s="35" t="s">
-        <v>191</v>
-      </c>
-      <c r="E38" s="35" t="s">
-        <v>159</v>
-      </c>
-      <c r="F38" s="35" t="s">
-        <v>176</v>
-      </c>
-      <c r="G38" s="35"/>
-      <c r="H38" s="35" t="s">
-        <v>192</v>
-      </c>
-      <c r="I38" s="36">
-        <v>1</v>
-      </c>
-      <c r="J38" s="35"/>
-      <c r="K38" s="35"/>
-      <c r="L38" s="37" t="s">
-        <v>144</v>
-      </c>
-      <c r="M38" s="37"/>
-      <c r="N38" s="35"/>
-      <c r="O38" s="52" t="s">
-        <v>224</v>
-      </c>
-      <c r="P38" s="70"/>
-    </row>
-    <row r="39" spans="2:19" s="41" customFormat="1" ht="30" customHeight="1">
-      <c r="B39" s="42">
-        <v>32</v>
-      </c>
-      <c r="C39" s="43" t="s">
-        <v>193</v>
-      </c>
-      <c r="D39" s="43" t="s">
-        <v>216</v>
-      </c>
-      <c r="E39" s="88" t="s">
-        <v>234</v>
-      </c>
-      <c r="F39" s="43" t="s">
-        <v>159</v>
-      </c>
-      <c r="G39" s="43" t="s">
-        <v>194</v>
-      </c>
-      <c r="H39" s="43" t="s">
-        <v>195</v>
-      </c>
-      <c r="I39" s="43" t="s">
-        <v>190</v>
-      </c>
-      <c r="J39" s="43"/>
-      <c r="K39" s="43"/>
-      <c r="L39" s="45" t="s">
-        <v>144</v>
-      </c>
-      <c r="M39" s="45"/>
-      <c r="N39" s="43"/>
-      <c r="O39" s="28"/>
-      <c r="P39" s="51"/>
-      <c r="R39" s="93"/>
-    </row>
-    <row r="40" spans="2:19" s="29" customFormat="1" ht="30" customHeight="1">
-      <c r="B40" s="30">
-        <v>33</v>
-      </c>
-      <c r="C40" s="35" t="s">
-        <v>196</v>
-      </c>
-      <c r="D40" s="35" t="s">
-        <v>197</v>
-      </c>
-      <c r="E40" s="35" t="s">
-        <v>176</v>
-      </c>
-      <c r="F40" s="35" t="s">
-        <v>176</v>
-      </c>
-      <c r="G40" s="35"/>
-      <c r="H40" s="35"/>
-      <c r="I40" s="35"/>
-      <c r="J40" s="35"/>
-      <c r="K40" s="35"/>
-      <c r="L40" s="37" t="s">
-        <v>59</v>
-      </c>
-      <c r="M40" s="37"/>
-      <c r="N40" s="35"/>
-      <c r="O40" s="25" t="s">
-        <v>155</v>
-      </c>
-      <c r="P40" s="70"/>
-    </row>
-    <row r="41" spans="2:19" s="41" customFormat="1" ht="30" customHeight="1">
-      <c r="B41" s="42">
-        <v>34</v>
-      </c>
-      <c r="C41" s="43" t="s">
+      <c r="F52" s="105"/>
+      <c r="G52" s="105"/>
+      <c r="H52" s="105"/>
+      <c r="I52" s="106"/>
+      <c r="J52" s="105"/>
+      <c r="K52" s="105"/>
+      <c r="L52" s="25"/>
+      <c r="M52" s="25"/>
+      <c r="N52" s="105"/>
+      <c r="O52" s="25" t="s">
+        <v>221</v>
+      </c>
+      <c r="P52" s="107"/>
+      <c r="R52" s="118"/>
+    </row>
+    <row r="53" spans="2:18" s="59" customFormat="1" ht="30">
+      <c r="B53" s="83">
+        <v>47</v>
+      </c>
+      <c r="C53" s="54" t="s">
+        <v>236</v>
+      </c>
+      <c r="D53" s="54" t="s">
+        <v>237</v>
+      </c>
+      <c r="E53" s="54" t="s">
         <v>247</v>
       </c>
-      <c r="D41" s="43" t="s">
-        <v>228</v>
-      </c>
-      <c r="E41" s="43" t="s">
-        <v>229</v>
-      </c>
-      <c r="F41" s="43" t="s">
-        <v>217</v>
-      </c>
-      <c r="G41" s="43" t="s">
-        <v>198</v>
-      </c>
-      <c r="H41" s="43" t="s">
-        <v>199</v>
-      </c>
-      <c r="I41" s="44">
-        <v>1</v>
-      </c>
-      <c r="J41" s="43"/>
-      <c r="K41" s="43"/>
-      <c r="L41" s="45" t="s">
-        <v>59</v>
-      </c>
-      <c r="M41" s="45"/>
-      <c r="N41" s="43"/>
-      <c r="O41" s="28" t="s">
-        <v>223</v>
-      </c>
-      <c r="P41" s="91" t="s">
-        <v>245</v>
-      </c>
-      <c r="R41" s="93"/>
-      <c r="S41" s="91"/>
-    </row>
-    <row r="42" spans="2:19" s="41" customFormat="1" ht="30" customHeight="1">
-      <c r="B42" s="42">
-        <v>35</v>
-      </c>
-      <c r="C42" s="43" t="s">
-        <v>230</v>
-      </c>
-      <c r="D42" s="43" t="s">
-        <v>200</v>
-      </c>
-      <c r="E42" s="43" t="s">
-        <v>231</v>
-      </c>
-      <c r="F42" s="43" t="s">
-        <v>159</v>
-      </c>
-      <c r="G42" s="43" t="s">
-        <v>201</v>
-      </c>
-      <c r="H42" s="43"/>
-      <c r="I42" s="44">
-        <v>1</v>
-      </c>
-      <c r="J42" s="43"/>
-      <c r="K42" s="43"/>
-      <c r="L42" s="45" t="s">
-        <v>59</v>
-      </c>
-      <c r="M42" s="45"/>
-      <c r="N42" s="43"/>
-      <c r="O42" s="28"/>
-      <c r="P42" s="51"/>
-      <c r="R42" s="93"/>
-    </row>
-    <row r="43" spans="2:19" s="29" customFormat="1" ht="30" customHeight="1">
-      <c r="B43" s="30">
-        <v>36</v>
-      </c>
-      <c r="C43" s="35" t="s">
-        <v>218</v>
-      </c>
-      <c r="D43" s="35" t="s">
-        <v>202</v>
-      </c>
-      <c r="E43" s="38" t="s">
-        <v>176</v>
-      </c>
-      <c r="F43" s="35"/>
-      <c r="G43" s="35"/>
-      <c r="H43" s="35"/>
-      <c r="I43" s="36">
-        <v>1</v>
-      </c>
-      <c r="J43" s="35"/>
-      <c r="K43" s="35"/>
-      <c r="L43" s="37" t="s">
-        <v>59</v>
-      </c>
-      <c r="M43" s="37"/>
-      <c r="N43" s="35"/>
-      <c r="O43" s="25" t="s">
-        <v>223</v>
-      </c>
-      <c r="P43" s="70"/>
-    </row>
-    <row r="44" spans="2:19" s="29" customFormat="1" ht="30" customHeight="1">
-      <c r="B44" s="30">
-        <v>37</v>
-      </c>
-      <c r="C44" s="38" t="s">
-        <v>219</v>
-      </c>
-      <c r="D44" s="35" t="s">
-        <v>202</v>
-      </c>
-      <c r="E44" s="38" t="s">
-        <v>176</v>
-      </c>
-      <c r="F44" s="38"/>
-      <c r="G44" s="38"/>
-      <c r="H44" s="38"/>
-      <c r="I44" s="36">
-        <v>1</v>
-      </c>
-      <c r="J44" s="38"/>
-      <c r="K44" s="38"/>
-      <c r="L44" s="39" t="s">
-        <v>59</v>
-      </c>
-      <c r="M44" s="39"/>
-      <c r="N44" s="38"/>
-      <c r="O44" s="25" t="s">
-        <v>223</v>
-      </c>
-      <c r="P44" s="70"/>
-    </row>
-    <row r="45" spans="2:19" s="82" customFormat="1" ht="30" customHeight="1">
-      <c r="B45" s="83">
-        <v>38</v>
-      </c>
-      <c r="C45" s="89" t="s">
-        <v>161</v>
-      </c>
-      <c r="D45" s="89" t="s">
-        <v>232</v>
-      </c>
-      <c r="E45" s="89" t="s">
-        <v>176</v>
-      </c>
-      <c r="F45" s="89"/>
-      <c r="G45" s="89"/>
-      <c r="H45" s="89"/>
-      <c r="I45" s="85">
-        <v>1</v>
-      </c>
-      <c r="J45" s="89"/>
-      <c r="K45" s="89"/>
-      <c r="L45" s="90" t="s">
-        <v>59</v>
-      </c>
-      <c r="M45" s="90"/>
-      <c r="N45" s="89"/>
-      <c r="O45" s="87" t="s">
-        <v>155</v>
-      </c>
-      <c r="P45" s="73"/>
-    </row>
-    <row r="46" spans="2:19" s="29" customFormat="1" ht="30" customHeight="1">
-      <c r="B46" s="30">
-        <v>39</v>
-      </c>
-      <c r="C46" s="72" t="s">
-        <v>203</v>
-      </c>
-      <c r="D46" s="38" t="s">
-        <v>204</v>
-      </c>
-      <c r="E46" s="38" t="s">
-        <v>159</v>
-      </c>
-      <c r="F46" s="38"/>
-      <c r="G46" s="38"/>
-      <c r="H46" s="38"/>
-      <c r="I46" s="36">
-        <v>1</v>
-      </c>
-      <c r="J46" s="38"/>
-      <c r="K46" s="38"/>
-      <c r="L46" s="39" t="s">
-        <v>59</v>
-      </c>
-      <c r="M46" s="39"/>
-      <c r="N46" s="38"/>
-      <c r="O46" s="25" t="s">
-        <v>223</v>
-      </c>
-      <c r="P46" s="70"/>
-    </row>
-    <row r="47" spans="2:19" s="29" customFormat="1" ht="30" customHeight="1">
-      <c r="B47" s="30">
-        <v>40</v>
-      </c>
-      <c r="C47" s="72" t="s">
-        <v>220</v>
-      </c>
-      <c r="D47" s="38" t="s">
-        <v>221</v>
-      </c>
-      <c r="E47" s="38" t="s">
-        <v>159</v>
-      </c>
-      <c r="F47" s="38"/>
-      <c r="G47" s="38"/>
-      <c r="H47" s="38"/>
-      <c r="I47" s="36">
-        <v>1</v>
-      </c>
-      <c r="J47" s="38"/>
-      <c r="K47" s="38"/>
-      <c r="L47" s="39" t="s">
-        <v>59</v>
-      </c>
-      <c r="M47" s="39"/>
-      <c r="N47" s="38"/>
-      <c r="O47" s="25" t="s">
-        <v>223</v>
-      </c>
-      <c r="P47" s="70"/>
-    </row>
-    <row r="48" spans="2:19" s="82" customFormat="1" ht="30" customHeight="1">
-      <c r="B48" s="83">
-        <v>41</v>
-      </c>
-      <c r="C48" s="89" t="s">
-        <v>222</v>
-      </c>
-      <c r="D48" s="84" t="s">
-        <v>202</v>
-      </c>
-      <c r="E48" s="89" t="s">
-        <v>159</v>
-      </c>
-      <c r="F48" s="89"/>
-      <c r="G48" s="89"/>
-      <c r="H48" s="89"/>
-      <c r="I48" s="85">
-        <v>1</v>
-      </c>
-      <c r="J48" s="89"/>
-      <c r="K48" s="89"/>
-      <c r="L48" s="90" t="s">
-        <v>59</v>
-      </c>
-      <c r="M48" s="90"/>
-      <c r="N48" s="89"/>
-      <c r="O48" s="87" t="s">
-        <v>155</v>
-      </c>
-      <c r="P48" s="73"/>
-    </row>
-    <row r="49" spans="2:18" s="48" customFormat="1" ht="30">
-      <c r="B49" s="26">
-        <v>43</v>
-      </c>
-      <c r="C49" s="58" t="s">
-        <v>227</v>
-      </c>
-      <c r="D49" s="58"/>
-      <c r="E49" s="58" t="s">
-        <v>243</v>
-      </c>
-      <c r="F49" s="58"/>
-      <c r="G49" s="58"/>
-      <c r="H49" s="58"/>
-      <c r="I49" s="59"/>
-      <c r="J49" s="58"/>
-      <c r="K49" s="58"/>
-      <c r="L49" s="27"/>
-      <c r="M49" s="27"/>
-      <c r="N49" s="58"/>
-      <c r="O49" s="27" t="s">
-        <v>223</v>
-      </c>
-      <c r="P49" s="66"/>
-      <c r="R49" s="94"/>
-    </row>
-    <row r="50" spans="2:18" s="48" customFormat="1" ht="45">
-      <c r="B50" s="26">
-        <v>44</v>
-      </c>
-      <c r="C50" s="58" t="s">
-        <v>235</v>
-      </c>
-      <c r="D50" s="58"/>
-      <c r="E50" s="58"/>
-      <c r="F50" s="58"/>
-      <c r="G50" s="58"/>
-      <c r="H50" s="58"/>
-      <c r="I50" s="59"/>
-      <c r="J50" s="58"/>
-      <c r="K50" s="58"/>
-      <c r="L50" s="27"/>
-      <c r="M50" s="27"/>
-      <c r="N50" s="58"/>
-      <c r="O50" s="27" t="s">
-        <v>153</v>
-      </c>
-      <c r="P50" s="66" t="s">
-        <v>248</v>
-      </c>
-      <c r="R50" s="94"/>
-    </row>
-    <row r="51" spans="2:18" s="48" customFormat="1" ht="30">
-      <c r="B51" s="26">
-        <v>45</v>
-      </c>
-      <c r="C51" s="58" t="s">
-        <v>236</v>
-      </c>
-      <c r="D51" s="58"/>
-      <c r="E51" s="58"/>
-      <c r="F51" s="58"/>
-      <c r="G51" s="58"/>
-      <c r="H51" s="58"/>
-      <c r="I51" s="59"/>
-      <c r="J51" s="58"/>
-      <c r="K51" s="58"/>
-      <c r="L51" s="27"/>
-      <c r="M51" s="27"/>
-      <c r="N51" s="58"/>
-      <c r="O51" s="27" t="s">
-        <v>223</v>
-      </c>
-      <c r="P51" s="66"/>
-      <c r="R51" s="94"/>
-    </row>
-    <row r="52" spans="2:18" s="48" customFormat="1" ht="30">
-      <c r="B52" s="26">
-        <v>46</v>
-      </c>
-      <c r="C52" s="58" t="s">
-        <v>237</v>
-      </c>
-      <c r="D52" s="58"/>
-      <c r="E52" s="58" t="s">
-        <v>244</v>
-      </c>
-      <c r="F52" s="58"/>
-      <c r="G52" s="58"/>
-      <c r="H52" s="58"/>
-      <c r="I52" s="59"/>
-      <c r="J52" s="58"/>
-      <c r="K52" s="58"/>
-      <c r="L52" s="27"/>
-      <c r="M52" s="27"/>
-      <c r="N52" s="58"/>
-      <c r="O52" s="27" t="s">
-        <v>223</v>
-      </c>
-      <c r="P52" s="66"/>
-      <c r="R52" s="94"/>
-    </row>
-    <row r="53" spans="2:18" s="61" customFormat="1" ht="30">
-      <c r="B53" s="97">
-        <v>47</v>
-      </c>
-      <c r="C53" s="56" t="s">
-        <v>238</v>
-      </c>
-      <c r="D53" s="56" t="s">
-        <v>239</v>
-      </c>
-      <c r="E53" s="56" t="s">
+      <c r="F53" s="54"/>
+      <c r="G53" s="56"/>
+      <c r="H53" s="56"/>
+      <c r="I53" s="57"/>
+      <c r="J53" s="56"/>
+      <c r="K53" s="56"/>
+      <c r="L53" s="26"/>
+      <c r="M53" s="26"/>
+      <c r="N53" s="82"/>
+      <c r="O53" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="P53" s="70"/>
+    </row>
+    <row r="54" spans="2:18" s="59" customFormat="1" ht="30" customHeight="1">
+      <c r="B54" s="83">
+        <v>48</v>
+      </c>
+      <c r="C54" s="89" t="s">
         <v>250</v>
       </c>
-      <c r="F53" s="56"/>
-      <c r="G53" s="58"/>
-      <c r="H53" s="58"/>
-      <c r="I53" s="59"/>
-      <c r="J53" s="58"/>
-      <c r="K53" s="58"/>
-      <c r="L53" s="27"/>
-      <c r="M53" s="27"/>
-      <c r="N53" s="96"/>
-      <c r="O53" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="P53" s="73"/>
-    </row>
-    <row r="54" spans="2:18" s="61" customFormat="1" ht="30" customHeight="1">
-      <c r="B54" s="97">
-        <v>48</v>
-      </c>
-      <c r="C54" s="103" t="s">
-        <v>253</v>
-      </c>
-      <c r="D54" s="56" t="s">
-        <v>262</v>
-      </c>
-      <c r="E54" s="56"/>
-      <c r="F54" s="56"/>
-      <c r="G54" s="56"/>
-      <c r="H54" s="56"/>
-      <c r="I54" s="57"/>
-      <c r="J54" s="56"/>
-      <c r="K54" s="56"/>
+      <c r="D54" s="54" t="s">
+        <v>259</v>
+      </c>
+      <c r="E54" s="54"/>
+      <c r="F54" s="54"/>
+      <c r="G54" s="54"/>
+      <c r="H54" s="54"/>
+      <c r="I54" s="55"/>
+      <c r="J54" s="54"/>
+      <c r="K54" s="54"/>
       <c r="L54" s="6"/>
       <c r="M54" s="6"/>
-      <c r="N54" s="104"/>
-      <c r="O54" s="6"/>
-      <c r="P54" s="73"/>
-    </row>
-    <row r="55" spans="2:18" s="61" customFormat="1" ht="30" customHeight="1">
-      <c r="B55" s="97">
+      <c r="N54" s="90"/>
+      <c r="O54" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="P54" s="70"/>
+    </row>
+    <row r="55" spans="2:18" s="59" customFormat="1" ht="30" customHeight="1">
+      <c r="B55" s="83">
         <v>49</v>
       </c>
-      <c r="C55" s="56" t="s">
-        <v>254</v>
-      </c>
-      <c r="D55" s="56" t="s">
-        <v>255</v>
-      </c>
-      <c r="E55" s="56"/>
-      <c r="F55" s="56"/>
-      <c r="G55" s="56"/>
-      <c r="H55" s="56"/>
-      <c r="I55" s="57"/>
-      <c r="J55" s="56"/>
-      <c r="K55" s="56"/>
+      <c r="C55" s="54" t="s">
+        <v>251</v>
+      </c>
+      <c r="D55" s="54" t="s">
+        <v>252</v>
+      </c>
+      <c r="E55" s="54"/>
+      <c r="F55" s="54"/>
+      <c r="G55" s="54"/>
+      <c r="H55" s="54"/>
+      <c r="I55" s="55"/>
+      <c r="J55" s="54"/>
+      <c r="K55" s="54"/>
       <c r="L55" s="6"/>
       <c r="M55" s="6"/>
-      <c r="N55" s="104"/>
-      <c r="O55" s="6"/>
-      <c r="P55" s="73"/>
-    </row>
-    <row r="56" spans="2:18" s="61" customFormat="1" ht="30" customHeight="1">
-      <c r="B56" s="97">
+      <c r="N55" s="90"/>
+      <c r="O55" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="P55" s="70"/>
+    </row>
+    <row r="56" spans="2:18" s="59" customFormat="1" ht="30" customHeight="1">
+      <c r="B56" s="83">
         <v>50</v>
       </c>
-      <c r="C56" s="56" t="s">
-        <v>256</v>
-      </c>
-      <c r="D56" s="56" t="s">
-        <v>257</v>
-      </c>
-      <c r="E56" s="56"/>
-      <c r="F56" s="56"/>
-      <c r="G56" s="56"/>
-      <c r="H56" s="56"/>
-      <c r="I56" s="57"/>
-      <c r="J56" s="56"/>
-      <c r="K56" s="56"/>
+      <c r="C56" s="54" t="s">
+        <v>253</v>
+      </c>
+      <c r="D56" s="54" t="s">
+        <v>254</v>
+      </c>
+      <c r="E56" s="54"/>
+      <c r="F56" s="54"/>
+      <c r="G56" s="54"/>
+      <c r="H56" s="54"/>
+      <c r="I56" s="55"/>
+      <c r="J56" s="54"/>
+      <c r="K56" s="54"/>
       <c r="L56" s="6"/>
       <c r="M56" s="6"/>
-      <c r="N56" s="104"/>
-      <c r="O56" s="6"/>
-      <c r="P56" s="73"/>
-    </row>
-    <row r="57" spans="2:18" s="61" customFormat="1" ht="30" customHeight="1">
-      <c r="B57" s="97">
+      <c r="N56" s="90"/>
+      <c r="O56" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="P56" s="70"/>
+    </row>
+    <row r="57" spans="2:18" s="59" customFormat="1" ht="30" customHeight="1">
+      <c r="B57" s="83">
         <v>51</v>
       </c>
-      <c r="C57" s="103" t="s">
-        <v>258</v>
-      </c>
-      <c r="D57" s="56" t="s">
-        <v>264</v>
-      </c>
-      <c r="E57" s="56"/>
-      <c r="F57" s="56"/>
-      <c r="G57" s="56"/>
-      <c r="H57" s="56"/>
-      <c r="I57" s="57"/>
-      <c r="J57" s="56"/>
-      <c r="K57" s="56"/>
+      <c r="C57" s="89" t="s">
+        <v>255</v>
+      </c>
+      <c r="D57" s="54" t="s">
+        <v>261</v>
+      </c>
+      <c r="E57" s="54"/>
+      <c r="F57" s="54"/>
+      <c r="G57" s="54"/>
+      <c r="H57" s="54"/>
+      <c r="I57" s="55"/>
+      <c r="J57" s="54"/>
+      <c r="K57" s="54"/>
       <c r="L57" s="6"/>
       <c r="M57" s="6"/>
-      <c r="N57" s="104"/>
-      <c r="O57" s="6"/>
-      <c r="P57" s="73"/>
-    </row>
-    <row r="58" spans="2:18" s="61" customFormat="1" ht="30" customHeight="1">
-      <c r="B58" s="97">
+      <c r="N57" s="90"/>
+      <c r="O57" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="P57" s="70"/>
+    </row>
+    <row r="58" spans="2:18" s="59" customFormat="1" ht="30" customHeight="1">
+      <c r="B58" s="83">
         <v>52</v>
       </c>
-      <c r="C58" s="103" t="s">
-        <v>259</v>
-      </c>
-      <c r="D58" s="56" t="s">
-        <v>263</v>
-      </c>
-      <c r="E58" s="56"/>
-      <c r="F58" s="56"/>
-      <c r="G58" s="56"/>
-      <c r="H58" s="56"/>
-      <c r="I58" s="57"/>
-      <c r="J58" s="56"/>
-      <c r="K58" s="56"/>
+      <c r="C58" s="89" t="s">
+        <v>256</v>
+      </c>
+      <c r="D58" s="54" t="s">
+        <v>260</v>
+      </c>
+      <c r="E58" s="54"/>
+      <c r="F58" s="54"/>
+      <c r="G58" s="54"/>
+      <c r="H58" s="54"/>
+      <c r="I58" s="55"/>
+      <c r="J58" s="54"/>
+      <c r="K58" s="54"/>
       <c r="L58" s="6"/>
       <c r="M58" s="6"/>
-      <c r="N58" s="104"/>
-      <c r="O58" s="6"/>
-      <c r="P58" s="73"/>
-    </row>
-    <row r="59" spans="2:18" s="61" customFormat="1" ht="30" customHeight="1">
-      <c r="B59" s="97">
+      <c r="N58" s="90"/>
+      <c r="O58" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="P58" s="70"/>
+    </row>
+    <row r="59" spans="2:18" s="59" customFormat="1" ht="30" customHeight="1">
+      <c r="B59" s="83">
         <v>53</v>
       </c>
-      <c r="C59" s="103" t="s">
-        <v>260</v>
-      </c>
-      <c r="D59" s="103" t="s">
-        <v>261</v>
-      </c>
-      <c r="E59" s="56"/>
-      <c r="F59" s="56"/>
-      <c r="G59" s="56"/>
-      <c r="H59" s="56"/>
-      <c r="I59" s="57"/>
-      <c r="J59" s="56"/>
-      <c r="K59" s="56"/>
+      <c r="C59" s="89" t="s">
+        <v>257</v>
+      </c>
+      <c r="D59" s="89" t="s">
+        <v>258</v>
+      </c>
+      <c r="E59" s="54"/>
+      <c r="F59" s="54"/>
+      <c r="G59" s="54"/>
+      <c r="H59" s="54"/>
+      <c r="I59" s="55"/>
+      <c r="J59" s="54"/>
+      <c r="K59" s="54"/>
       <c r="L59" s="6"/>
       <c r="M59" s="6"/>
-      <c r="N59" s="104"/>
-      <c r="O59" s="6"/>
-      <c r="P59" s="73"/>
-    </row>
-    <row r="60" spans="2:18" s="61" customFormat="1" ht="30" customHeight="1">
-      <c r="B60" s="97">
+      <c r="N59" s="90"/>
+      <c r="O59" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="P59" s="70"/>
+    </row>
+    <row r="60" spans="2:18" s="59" customFormat="1" ht="30" customHeight="1">
+      <c r="B60" s="83">
         <v>54</v>
       </c>
-      <c r="C60" s="98" t="s">
-        <v>265</v>
-      </c>
-      <c r="D60" s="98" t="s">
-        <v>265</v>
-      </c>
-      <c r="E60" s="99"/>
-      <c r="F60" s="99"/>
-      <c r="G60" s="99"/>
-      <c r="H60" s="99"/>
-      <c r="I60" s="100"/>
-      <c r="J60" s="99"/>
-      <c r="K60" s="99"/>
-      <c r="L60" s="101"/>
-      <c r="M60" s="101"/>
-      <c r="N60" s="102"/>
-      <c r="O60" s="101"/>
-      <c r="P60" s="73" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="61" spans="2:18" s="61" customFormat="1" ht="30" customHeight="1">
-      <c r="B61" s="97">
+      <c r="C60" s="84" t="s">
+        <v>262</v>
+      </c>
+      <c r="D60" s="84" t="s">
+        <v>262</v>
+      </c>
+      <c r="E60" s="85"/>
+      <c r="F60" s="85"/>
+      <c r="G60" s="85"/>
+      <c r="H60" s="85"/>
+      <c r="I60" s="86"/>
+      <c r="J60" s="85"/>
+      <c r="K60" s="85"/>
+      <c r="L60" s="87"/>
+      <c r="M60" s="87"/>
+      <c r="N60" s="88"/>
+      <c r="O60" s="87" t="s">
+        <v>291</v>
+      </c>
+      <c r="P60" s="70"/>
+    </row>
+    <row r="61" spans="2:18" s="59" customFormat="1" ht="30" customHeight="1">
+      <c r="B61" s="83">
         <v>55</v>
       </c>
-      <c r="C61" s="103" t="s">
-        <v>266</v>
-      </c>
-      <c r="D61" s="103" t="s">
-        <v>267</v>
-      </c>
-      <c r="E61" s="56"/>
-      <c r="F61" s="56"/>
-      <c r="G61" s="56"/>
-      <c r="H61" s="56"/>
-      <c r="I61" s="57"/>
-      <c r="J61" s="56"/>
-      <c r="K61" s="56"/>
+      <c r="C61" s="89" t="s">
+        <v>263</v>
+      </c>
+      <c r="D61" s="89" t="s">
+        <v>264</v>
+      </c>
+      <c r="E61" s="54"/>
+      <c r="F61" s="54"/>
+      <c r="G61" s="54"/>
+      <c r="H61" s="54"/>
+      <c r="I61" s="55"/>
+      <c r="J61" s="54"/>
+      <c r="K61" s="54"/>
       <c r="L61" s="6"/>
       <c r="M61" s="6"/>
-      <c r="N61" s="104"/>
-      <c r="O61" s="6"/>
-      <c r="P61" s="73" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="62" spans="2:18" s="61" customFormat="1" ht="30" customHeight="1">
-      <c r="B62" s="97">
+      <c r="N61" s="90"/>
+      <c r="O61" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="P61" s="70"/>
+    </row>
+    <row r="62" spans="2:18" s="59" customFormat="1" ht="30" customHeight="1">
+      <c r="B62" s="83">
         <v>56</v>
       </c>
-      <c r="C62" s="103" t="s">
-        <v>269</v>
-      </c>
-      <c r="D62" s="103" t="s">
-        <v>270</v>
-      </c>
-      <c r="E62" s="56"/>
-      <c r="F62" s="56"/>
-      <c r="G62" s="56"/>
-      <c r="H62" s="56"/>
-      <c r="I62" s="57"/>
-      <c r="J62" s="56"/>
-      <c r="K62" s="56"/>
+      <c r="C62" s="89" t="s">
+        <v>265</v>
+      </c>
+      <c r="D62" s="89" t="s">
+        <v>266</v>
+      </c>
+      <c r="E62" s="54"/>
+      <c r="F62" s="54"/>
+      <c r="G62" s="54"/>
+      <c r="H62" s="54"/>
+      <c r="I62" s="55"/>
+      <c r="J62" s="54"/>
+      <c r="K62" s="54"/>
       <c r="L62" s="6"/>
       <c r="M62" s="6"/>
-      <c r="N62" s="104"/>
-      <c r="O62" s="6"/>
-      <c r="P62" s="73" t="s">
+      <c r="N62" s="90"/>
+      <c r="O62" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="P62" s="70"/>
+    </row>
+    <row r="63" spans="2:18" s="59" customFormat="1" ht="30" customHeight="1">
+      <c r="B63" s="83">
+        <v>57</v>
+      </c>
+      <c r="C63" s="89" t="s">
+        <v>267</v>
+      </c>
+      <c r="D63" s="89" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="63" spans="2:18" s="61" customFormat="1" ht="30" customHeight="1">
-      <c r="B63" s="97">
-        <v>57</v>
-      </c>
-      <c r="C63" s="103" t="s">
-        <v>271</v>
-      </c>
-      <c r="D63" s="103" t="s">
-        <v>272</v>
-      </c>
-      <c r="E63" s="56"/>
-      <c r="F63" s="56"/>
-      <c r="G63" s="56"/>
-      <c r="H63" s="56"/>
-      <c r="I63" s="57"/>
-      <c r="J63" s="56"/>
-      <c r="K63" s="56"/>
+      <c r="E63" s="54"/>
+      <c r="F63" s="54"/>
+      <c r="G63" s="54"/>
+      <c r="H63" s="54"/>
+      <c r="I63" s="55"/>
+      <c r="J63" s="54"/>
+      <c r="K63" s="54"/>
       <c r="L63" s="6"/>
       <c r="M63" s="6"/>
-      <c r="N63" s="104"/>
-      <c r="O63" s="6"/>
-      <c r="P63" s="73" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="64" spans="2:18" s="61" customFormat="1" ht="30" customHeight="1">
-      <c r="B64" s="97">
+      <c r="N63" s="90"/>
+      <c r="O63" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="P63" s="70"/>
+    </row>
+    <row r="64" spans="2:18" s="59" customFormat="1" ht="30" customHeight="1">
+      <c r="B64" s="83">
         <v>58</v>
       </c>
-      <c r="C64" s="98" t="s">
+      <c r="C64" s="84" t="s">
+        <v>279</v>
+      </c>
+      <c r="D64" s="84" t="s">
+        <v>280</v>
+      </c>
+      <c r="E64" s="85"/>
+      <c r="F64" s="85"/>
+      <c r="G64" s="85"/>
+      <c r="H64" s="85"/>
+      <c r="I64" s="86"/>
+      <c r="J64" s="85"/>
+      <c r="K64" s="85"/>
+      <c r="L64" s="87"/>
+      <c r="M64" s="87"/>
+      <c r="N64" s="88"/>
+      <c r="O64" s="84"/>
+      <c r="P64" s="70"/>
+    </row>
+    <row r="65" spans="2:16" s="59" customFormat="1" ht="30" customHeight="1">
+      <c r="B65" s="83">
+        <v>59</v>
+      </c>
+      <c r="C65" s="91" t="s">
+        <v>275</v>
+      </c>
+      <c r="D65" s="91" t="s">
+        <v>269</v>
+      </c>
+      <c r="E65" s="92"/>
+      <c r="F65" s="92"/>
+      <c r="G65" s="92"/>
+      <c r="H65" s="92"/>
+      <c r="I65" s="93"/>
+      <c r="J65" s="92"/>
+      <c r="K65" s="92"/>
+      <c r="L65" s="94"/>
+      <c r="M65" s="94"/>
+      <c r="N65" s="95"/>
+      <c r="O65" s="91"/>
+      <c r="P65" s="70"/>
+    </row>
+    <row r="66" spans="2:16" s="116" customFormat="1" ht="30" customHeight="1">
+      <c r="B66" s="109">
+        <v>60</v>
+      </c>
+      <c r="C66" s="110" t="s">
+        <v>292</v>
+      </c>
+      <c r="D66" s="110" t="s">
+        <v>276</v>
+      </c>
+      <c r="E66" s="111"/>
+      <c r="F66" s="111"/>
+      <c r="G66" s="111"/>
+      <c r="H66" s="111"/>
+      <c r="I66" s="112"/>
+      <c r="J66" s="111"/>
+      <c r="K66" s="111"/>
+      <c r="L66" s="113"/>
+      <c r="M66" s="113"/>
+      <c r="N66" s="114"/>
+      <c r="O66" s="113" t="s">
+        <v>290</v>
+      </c>
+      <c r="P66" s="115"/>
+    </row>
+    <row r="67" spans="2:16" s="116" customFormat="1" ht="30" customHeight="1">
+      <c r="B67" s="109">
+        <v>61</v>
+      </c>
+      <c r="C67" s="110" t="s">
+        <v>293</v>
+      </c>
+      <c r="D67" s="110" t="s">
+        <v>270</v>
+      </c>
+      <c r="E67" s="111"/>
+      <c r="F67" s="111"/>
+      <c r="G67" s="111"/>
+      <c r="H67" s="111"/>
+      <c r="I67" s="112"/>
+      <c r="J67" s="111"/>
+      <c r="K67" s="111"/>
+      <c r="L67" s="113"/>
+      <c r="M67" s="113"/>
+      <c r="N67" s="114"/>
+      <c r="O67" s="113" t="s">
+        <v>290</v>
+      </c>
+      <c r="P67" s="115"/>
+    </row>
+    <row r="68" spans="2:16" s="116" customFormat="1" ht="30" customHeight="1">
+      <c r="B68" s="109">
+        <v>62</v>
+      </c>
+      <c r="C68" s="110" t="s">
+        <v>294</v>
+      </c>
+      <c r="D68" s="110" t="s">
+        <v>277</v>
+      </c>
+      <c r="E68" s="111"/>
+      <c r="F68" s="111"/>
+      <c r="G68" s="111"/>
+      <c r="H68" s="111"/>
+      <c r="I68" s="112"/>
+      <c r="J68" s="111"/>
+      <c r="K68" s="111"/>
+      <c r="L68" s="113"/>
+      <c r="M68" s="113"/>
+      <c r="N68" s="114"/>
+      <c r="O68" s="113" t="s">
+        <v>290</v>
+      </c>
+      <c r="P68" s="115"/>
+    </row>
+    <row r="69" spans="2:16" s="116" customFormat="1" ht="30" customHeight="1">
+      <c r="B69" s="109">
+        <v>63</v>
+      </c>
+      <c r="C69" s="110" t="s">
+        <v>295</v>
+      </c>
+      <c r="D69" s="110" t="s">
+        <v>271</v>
+      </c>
+      <c r="E69" s="111"/>
+      <c r="F69" s="111"/>
+      <c r="G69" s="111"/>
+      <c r="H69" s="111"/>
+      <c r="I69" s="112"/>
+      <c r="J69" s="111"/>
+      <c r="K69" s="111"/>
+      <c r="L69" s="113"/>
+      <c r="M69" s="113"/>
+      <c r="N69" s="114"/>
+      <c r="O69" s="110" t="s">
+        <v>290</v>
+      </c>
+      <c r="P69" s="115"/>
+    </row>
+    <row r="70" spans="2:16" s="116" customFormat="1" ht="30" customHeight="1">
+      <c r="B70" s="109">
+        <v>64</v>
+      </c>
+      <c r="C70" s="110" t="s">
+        <v>296</v>
+      </c>
+      <c r="D70" s="110" t="s">
+        <v>272</v>
+      </c>
+      <c r="E70" s="111"/>
+      <c r="F70" s="111"/>
+      <c r="G70" s="111"/>
+      <c r="H70" s="111"/>
+      <c r="I70" s="112"/>
+      <c r="J70" s="111"/>
+      <c r="K70" s="111"/>
+      <c r="L70" s="113"/>
+      <c r="M70" s="113"/>
+      <c r="N70" s="114"/>
+      <c r="O70" s="113" t="s">
+        <v>290</v>
+      </c>
+      <c r="P70" s="115"/>
+    </row>
+    <row r="71" spans="2:16" s="116" customFormat="1" ht="30" customHeight="1">
+      <c r="B71" s="109">
+        <v>65</v>
+      </c>
+      <c r="C71" s="110" t="s">
+        <v>273</v>
+      </c>
+      <c r="D71" s="110" t="s">
         <v>297</v>
       </c>
-      <c r="D64" s="98" t="s">
+      <c r="E71" s="111"/>
+      <c r="F71" s="111"/>
+      <c r="G71" s="111"/>
+      <c r="H71" s="111"/>
+      <c r="I71" s="112"/>
+      <c r="J71" s="111"/>
+      <c r="K71" s="111"/>
+      <c r="L71" s="113"/>
+      <c r="M71" s="113"/>
+      <c r="N71" s="114"/>
+      <c r="O71" s="110" t="s">
+        <v>290</v>
+      </c>
+      <c r="P71" s="115"/>
+    </row>
+    <row r="72" spans="2:16" s="59" customFormat="1" ht="30" customHeight="1">
+      <c r="B72" s="83">
+        <v>66</v>
+      </c>
+      <c r="C72" s="84" t="s">
+        <v>274</v>
+      </c>
+      <c r="D72" s="84" t="s">
+        <v>278</v>
+      </c>
+      <c r="E72" s="85"/>
+      <c r="F72" s="85"/>
+      <c r="G72" s="85"/>
+      <c r="H72" s="85"/>
+      <c r="I72" s="86"/>
+      <c r="J72" s="85"/>
+      <c r="K72" s="85"/>
+      <c r="L72" s="87"/>
+      <c r="M72" s="87"/>
+      <c r="N72" s="88"/>
+      <c r="O72" s="84"/>
+      <c r="P72" s="70"/>
+    </row>
+    <row r="73" spans="2:16" s="59" customFormat="1" ht="30" customHeight="1">
+      <c r="B73" s="83">
+        <v>67</v>
+      </c>
+      <c r="C73" s="84" t="s">
+        <v>287</v>
+      </c>
+      <c r="D73" s="84" t="s">
+        <v>288</v>
+      </c>
+      <c r="E73" s="85"/>
+      <c r="F73" s="85"/>
+      <c r="G73" s="85"/>
+      <c r="H73" s="85"/>
+      <c r="I73" s="86"/>
+      <c r="J73" s="85"/>
+      <c r="K73" s="85"/>
+      <c r="L73" s="87"/>
+      <c r="M73" s="87"/>
+      <c r="N73" s="88"/>
+      <c r="O73" s="84"/>
+      <c r="P73" s="70"/>
+    </row>
+    <row r="74" spans="2:16" s="59" customFormat="1" ht="30" customHeight="1">
+      <c r="B74" s="83">
+        <v>68</v>
+      </c>
+      <c r="C74" s="84" t="s">
+        <v>281</v>
+      </c>
+      <c r="D74" s="84" t="s">
+        <v>282</v>
+      </c>
+      <c r="E74" s="85"/>
+      <c r="F74" s="85"/>
+      <c r="G74" s="85"/>
+      <c r="H74" s="85"/>
+      <c r="I74" s="86"/>
+      <c r="J74" s="85"/>
+      <c r="K74" s="85"/>
+      <c r="L74" s="87"/>
+      <c r="M74" s="87"/>
+      <c r="N74" s="88"/>
+      <c r="O74" s="84"/>
+      <c r="P74" s="70"/>
+    </row>
+    <row r="75" spans="2:16" s="59" customFormat="1" ht="30" customHeight="1">
+      <c r="B75" s="83">
+        <v>69</v>
+      </c>
+      <c r="C75" s="84" t="s">
+        <v>283</v>
+      </c>
+      <c r="D75" s="84" t="s">
+        <v>284</v>
+      </c>
+      <c r="E75" s="85"/>
+      <c r="F75" s="85"/>
+      <c r="G75" s="85"/>
+      <c r="H75" s="85"/>
+      <c r="I75" s="86"/>
+      <c r="J75" s="85"/>
+      <c r="K75" s="85"/>
+      <c r="L75" s="87"/>
+      <c r="M75" s="87"/>
+      <c r="N75" s="88"/>
+      <c r="O75" s="84"/>
+      <c r="P75" s="70"/>
+    </row>
+    <row r="76" spans="2:16" s="59" customFormat="1" ht="30" customHeight="1">
+      <c r="B76" s="83">
+        <v>70</v>
+      </c>
+      <c r="C76" s="84" t="s">
+        <v>285</v>
+      </c>
+      <c r="D76" s="84" t="s">
+        <v>286</v>
+      </c>
+      <c r="E76" s="85"/>
+      <c r="F76" s="85"/>
+      <c r="G76" s="85"/>
+      <c r="H76" s="85"/>
+      <c r="I76" s="86"/>
+      <c r="J76" s="85"/>
+      <c r="K76" s="85"/>
+      <c r="L76" s="87"/>
+      <c r="M76" s="87"/>
+      <c r="N76" s="88"/>
+      <c r="O76" s="84"/>
+      <c r="P76" s="70"/>
+    </row>
+    <row r="77" spans="2:16" s="116" customFormat="1" ht="30" customHeight="1">
+      <c r="B77" s="109">
+        <v>71</v>
+      </c>
+      <c r="C77" s="110" t="s">
         <v>298</v>
       </c>
-      <c r="E64" s="99"/>
-      <c r="F64" s="99"/>
-      <c r="G64" s="99"/>
-      <c r="H64" s="99"/>
-      <c r="I64" s="100"/>
-      <c r="J64" s="99"/>
-      <c r="K64" s="99"/>
-      <c r="L64" s="101"/>
-      <c r="M64" s="101"/>
-      <c r="N64" s="102"/>
-      <c r="O64" s="98" t="s">
-        <v>285</v>
-      </c>
-      <c r="P64" s="73"/>
-    </row>
-    <row r="65" spans="2:16" s="61" customFormat="1" ht="30" customHeight="1">
-      <c r="B65" s="97">
-        <v>59</v>
-      </c>
-      <c r="C65" s="106" t="s">
-        <v>284</v>
-      </c>
-      <c r="D65" s="106" t="s">
-        <v>273</v>
-      </c>
-      <c r="E65" s="107"/>
-      <c r="F65" s="107"/>
-      <c r="G65" s="107"/>
-      <c r="H65" s="107"/>
-      <c r="I65" s="108"/>
-      <c r="J65" s="107"/>
-      <c r="K65" s="107"/>
-      <c r="L65" s="109"/>
-      <c r="M65" s="109"/>
-      <c r="N65" s="110"/>
-      <c r="O65" s="106" t="s">
-        <v>286</v>
-      </c>
-      <c r="P65" s="73"/>
-    </row>
-    <row r="66" spans="2:16" s="61" customFormat="1" ht="30" customHeight="1">
-      <c r="B66" s="97">
-        <v>60</v>
-      </c>
-      <c r="C66" s="106" t="s">
-        <v>274</v>
-      </c>
-      <c r="D66" s="106" t="s">
-        <v>292</v>
-      </c>
-      <c r="E66" s="107"/>
-      <c r="F66" s="107"/>
-      <c r="G66" s="107"/>
-      <c r="H66" s="107"/>
-      <c r="I66" s="108"/>
-      <c r="J66" s="107"/>
-      <c r="K66" s="107"/>
-      <c r="L66" s="109"/>
-      <c r="M66" s="109"/>
-      <c r="N66" s="110"/>
-      <c r="O66" s="109" t="s">
-        <v>287</v>
-      </c>
-      <c r="P66" s="73"/>
-    </row>
-    <row r="67" spans="2:16" s="118" customFormat="1" ht="30" customHeight="1">
-      <c r="B67" s="111">
-        <v>61</v>
-      </c>
-      <c r="C67" s="124" t="s">
-        <v>275</v>
-      </c>
-      <c r="D67" s="124" t="s">
-        <v>276</v>
-      </c>
-      <c r="E67" s="125"/>
-      <c r="F67" s="125"/>
-      <c r="G67" s="125"/>
-      <c r="H67" s="125"/>
-      <c r="I67" s="126"/>
-      <c r="J67" s="125"/>
-      <c r="K67" s="125"/>
-      <c r="L67" s="127"/>
-      <c r="M67" s="127"/>
-      <c r="N67" s="128"/>
-      <c r="O67" s="127" t="s">
-        <v>288</v>
-      </c>
-      <c r="P67" s="117"/>
-    </row>
-    <row r="68" spans="2:16" s="118" customFormat="1" ht="30" customHeight="1">
-      <c r="B68" s="111">
-        <v>62</v>
-      </c>
-      <c r="C68" s="119" t="s">
-        <v>278</v>
-      </c>
-      <c r="D68" s="119" t="s">
-        <v>293</v>
-      </c>
-      <c r="E68" s="120"/>
-      <c r="F68" s="120"/>
-      <c r="G68" s="120"/>
-      <c r="H68" s="120"/>
-      <c r="I68" s="121"/>
-      <c r="J68" s="120"/>
-      <c r="K68" s="120"/>
-      <c r="L68" s="122"/>
-      <c r="M68" s="122"/>
-      <c r="N68" s="123"/>
-      <c r="O68" s="122" t="s">
+      <c r="D77" s="110" t="s">
         <v>289</v>
       </c>
-      <c r="P68" s="117"/>
-    </row>
-    <row r="69" spans="2:16" s="118" customFormat="1" ht="30" customHeight="1">
-      <c r="B69" s="111">
-        <v>63</v>
-      </c>
-      <c r="C69" s="112" t="s">
-        <v>279</v>
-      </c>
-      <c r="D69" s="112" t="s">
-        <v>280</v>
-      </c>
-      <c r="E69" s="113"/>
-      <c r="F69" s="113"/>
-      <c r="G69" s="113"/>
-      <c r="H69" s="113"/>
-      <c r="I69" s="114"/>
-      <c r="J69" s="113"/>
-      <c r="K69" s="113"/>
-      <c r="L69" s="115"/>
-      <c r="M69" s="115"/>
-      <c r="N69" s="116"/>
-      <c r="O69" s="112" t="s">
+      <c r="E77" s="111"/>
+      <c r="F77" s="111"/>
+      <c r="G77" s="111"/>
+      <c r="H77" s="111"/>
+      <c r="I77" s="112"/>
+      <c r="J77" s="111"/>
+      <c r="K77" s="111"/>
+      <c r="L77" s="113"/>
+      <c r="M77" s="113"/>
+      <c r="N77" s="114"/>
+      <c r="O77" s="110" t="s">
         <v>290</v>
       </c>
-      <c r="P69" s="117"/>
-    </row>
-    <row r="70" spans="2:16" s="61" customFormat="1" ht="30" customHeight="1">
-      <c r="B70" s="97">
-        <v>64</v>
-      </c>
-      <c r="C70" s="105" t="s">
-        <v>266</v>
-      </c>
-      <c r="D70" s="105" t="s">
-        <v>281</v>
-      </c>
-      <c r="E70" s="58"/>
-      <c r="F70" s="58"/>
-      <c r="G70" s="58"/>
-      <c r="H70" s="58"/>
-      <c r="I70" s="59"/>
-      <c r="J70" s="58"/>
-      <c r="K70" s="58"/>
-      <c r="L70" s="27"/>
-      <c r="M70" s="27"/>
-      <c r="N70" s="96"/>
-      <c r="O70" s="27" t="s">
-        <v>288</v>
-      </c>
-      <c r="P70" s="73"/>
-    </row>
-    <row r="71" spans="2:16" s="118" customFormat="1" ht="30" customHeight="1">
-      <c r="B71" s="111">
-        <v>65</v>
-      </c>
-      <c r="C71" s="119" t="s">
-        <v>282</v>
-      </c>
-      <c r="D71" s="119" t="s">
-        <v>294</v>
-      </c>
-      <c r="E71" s="120"/>
-      <c r="F71" s="120"/>
-      <c r="G71" s="120"/>
-      <c r="H71" s="120"/>
-      <c r="I71" s="121"/>
-      <c r="J71" s="120"/>
-      <c r="K71" s="120"/>
-      <c r="L71" s="122"/>
-      <c r="M71" s="122"/>
-      <c r="N71" s="123"/>
-      <c r="O71" s="119" t="s">
-        <v>291</v>
-      </c>
-      <c r="P71" s="117"/>
-    </row>
-    <row r="72" spans="2:16" s="61" customFormat="1" ht="30" customHeight="1">
-      <c r="B72" s="97">
-        <v>66</v>
-      </c>
-      <c r="C72" s="98" t="s">
-        <v>283</v>
-      </c>
-      <c r="D72" s="98" t="s">
-        <v>295</v>
-      </c>
-      <c r="E72" s="99"/>
-      <c r="F72" s="99"/>
-      <c r="G72" s="99"/>
-      <c r="H72" s="99"/>
-      <c r="I72" s="100"/>
-      <c r="J72" s="99"/>
-      <c r="K72" s="99"/>
-      <c r="L72" s="101"/>
-      <c r="M72" s="101"/>
-      <c r="N72" s="102"/>
-      <c r="O72" s="98" t="s">
-        <v>296</v>
-      </c>
-      <c r="P72" s="73"/>
-    </row>
-    <row r="73" spans="2:16" s="61" customFormat="1" ht="30" customHeight="1">
-      <c r="B73" s="97">
-        <v>67</v>
-      </c>
-      <c r="C73" s="98" t="s">
-        <v>305</v>
-      </c>
-      <c r="D73" s="98" t="s">
-        <v>306</v>
-      </c>
-      <c r="E73" s="99"/>
-      <c r="F73" s="99"/>
-      <c r="G73" s="99"/>
-      <c r="H73" s="99"/>
-      <c r="I73" s="100"/>
-      <c r="J73" s="99"/>
-      <c r="K73" s="99"/>
-      <c r="L73" s="101"/>
-      <c r="M73" s="101"/>
-      <c r="N73" s="102"/>
-      <c r="O73" s="98"/>
-      <c r="P73" s="73"/>
-    </row>
-    <row r="74" spans="2:16" s="61" customFormat="1" ht="30" customHeight="1">
-      <c r="B74" s="97">
-        <v>68</v>
-      </c>
-      <c r="C74" s="98" t="s">
-        <v>299</v>
-      </c>
-      <c r="D74" s="98" t="s">
-        <v>300</v>
-      </c>
-      <c r="E74" s="99"/>
-      <c r="F74" s="99"/>
-      <c r="G74" s="99"/>
-      <c r="H74" s="99"/>
-      <c r="I74" s="100"/>
-      <c r="J74" s="99"/>
-      <c r="K74" s="99"/>
-      <c r="L74" s="101"/>
-      <c r="M74" s="101"/>
-      <c r="N74" s="102"/>
-      <c r="O74" s="98"/>
-      <c r="P74" s="73"/>
-    </row>
-    <row r="75" spans="2:16" s="61" customFormat="1" ht="30" customHeight="1">
-      <c r="B75" s="97">
-        <v>69</v>
-      </c>
-      <c r="C75" s="98" t="s">
-        <v>301</v>
-      </c>
-      <c r="D75" s="98" t="s">
-        <v>302</v>
-      </c>
-      <c r="E75" s="99"/>
-      <c r="F75" s="99"/>
-      <c r="G75" s="99"/>
-      <c r="H75" s="99"/>
-      <c r="I75" s="100"/>
-      <c r="J75" s="99"/>
-      <c r="K75" s="99"/>
-      <c r="L75" s="101"/>
-      <c r="M75" s="101"/>
-      <c r="N75" s="102"/>
-      <c r="O75" s="98"/>
-      <c r="P75" s="73"/>
-    </row>
-    <row r="76" spans="2:16" s="61" customFormat="1" ht="30" customHeight="1">
-      <c r="B76" s="97">
-        <v>70</v>
-      </c>
-      <c r="C76" s="98" t="s">
-        <v>303</v>
-      </c>
-      <c r="D76" s="98" t="s">
-        <v>304</v>
-      </c>
-      <c r="E76" s="99"/>
-      <c r="F76" s="99"/>
-      <c r="G76" s="99"/>
-      <c r="H76" s="99"/>
-      <c r="I76" s="100"/>
-      <c r="J76" s="99"/>
-      <c r="K76" s="99"/>
-      <c r="L76" s="101"/>
-      <c r="M76" s="101"/>
-      <c r="N76" s="102"/>
-      <c r="O76" s="98"/>
-      <c r="P76" s="73"/>
-    </row>
-    <row r="77" spans="2:16" s="61" customFormat="1" ht="30" customHeight="1">
-      <c r="B77" s="97">
-        <v>71</v>
-      </c>
-      <c r="C77" s="98" t="s">
-        <v>307</v>
-      </c>
-      <c r="D77" s="98" t="s">
-        <v>308</v>
-      </c>
-      <c r="E77" s="99"/>
-      <c r="F77" s="99"/>
-      <c r="G77" s="99"/>
-      <c r="H77" s="99"/>
-      <c r="I77" s="100"/>
-      <c r="J77" s="99"/>
-      <c r="K77" s="99"/>
-      <c r="L77" s="101"/>
-      <c r="M77" s="101"/>
-      <c r="N77" s="102"/>
-      <c r="O77" s="98"/>
-      <c r="P77" s="73"/>
-    </row>
-    <row r="78" spans="2:16" s="61" customFormat="1" ht="30" customHeight="1">
-      <c r="B78" s="97"/>
-      <c r="C78" s="98"/>
-      <c r="D78" s="98"/>
-      <c r="E78" s="99"/>
-      <c r="F78" s="99"/>
-      <c r="G78" s="99"/>
-      <c r="H78" s="99"/>
-      <c r="I78" s="100"/>
-      <c r="J78" s="99"/>
-      <c r="K78" s="99"/>
-      <c r="L78" s="101"/>
-      <c r="M78" s="101"/>
-      <c r="N78" s="102"/>
-      <c r="O78" s="101"/>
-      <c r="P78" s="73"/>
-    </row>
-    <row r="79" spans="2:16" s="61" customFormat="1" ht="30" customHeight="1">
-      <c r="B79" s="97"/>
-      <c r="C79" s="98"/>
-      <c r="D79" s="98"/>
-      <c r="E79" s="99"/>
-      <c r="F79" s="99"/>
-      <c r="G79" s="99"/>
-      <c r="H79" s="99"/>
-      <c r="I79" s="100"/>
-      <c r="J79" s="99"/>
-      <c r="K79" s="99"/>
-      <c r="L79" s="101"/>
-      <c r="M79" s="101"/>
-      <c r="N79" s="102"/>
-      <c r="O79" s="101"/>
-      <c r="P79" s="73"/>
+      <c r="P77" s="115"/>
+    </row>
+    <row r="78" spans="2:16" s="59" customFormat="1" ht="30" customHeight="1">
+      <c r="B78" s="83"/>
+      <c r="C78" s="84"/>
+      <c r="D78" s="84"/>
+      <c r="E78" s="85"/>
+      <c r="F78" s="85"/>
+      <c r="G78" s="85"/>
+      <c r="H78" s="85"/>
+      <c r="I78" s="86"/>
+      <c r="J78" s="85"/>
+      <c r="K78" s="85"/>
+      <c r="L78" s="87"/>
+      <c r="M78" s="87"/>
+      <c r="N78" s="88"/>
+      <c r="O78" s="87"/>
+      <c r="P78" s="70"/>
+    </row>
+    <row r="79" spans="2:16" s="59" customFormat="1" ht="30" customHeight="1">
+      <c r="B79" s="83"/>
+      <c r="C79" s="84"/>
+      <c r="D79" s="84"/>
+      <c r="E79" s="85"/>
+      <c r="F79" s="85"/>
+      <c r="G79" s="85"/>
+      <c r="H79" s="85"/>
+      <c r="I79" s="86"/>
+      <c r="J79" s="85"/>
+      <c r="K79" s="85"/>
+      <c r="L79" s="87"/>
+      <c r="M79" s="87"/>
+      <c r="N79" s="88"/>
+      <c r="O79" s="87"/>
+      <c r="P79" s="70"/>
     </row>
   </sheetData>
   <autoFilter ref="O2:O60"/>

--- a/Documentation/Buglist.xlsx
+++ b/Documentation/Buglist.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="302">
   <si>
     <t>ID</t>
   </si>
@@ -1141,41 +1141,7 @@
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
-    <t>不再现</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>轴承</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>目前仅支持Y U S TA</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>&amp;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>2</t>
-    </r>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
@@ -1396,6 +1362,30 @@
   </si>
   <si>
     <t>筛选功能失效</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>筛选默认值应该为空</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前在业务和计划两个页面的筛选功能中存在默认值，希望每次点击都能清空所有筛选项目</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>导出的数据太多</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>在业务和计划的导出的时候，选择特定的数据导出，导出结果和选中的不符，大大多于选中的条目</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>导出后的文件显示</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前导出比较大的数据的时候，文件本身会先出现，而里面的数据其实还没有导完，这个时候如果打开文件，会提示文件已经损坏，要等到全部导完后，才可以打开，用以造成误解。所以希望最后能够全部导入后再将文件显示，另外需要在倒入过程中增加一个进度条或者缓冲标识</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -2053,6 +2043,69 @@
     <xf numFmtId="0" fontId="6" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="19" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2079,69 +2132,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="19" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2500,10 +2490,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:S79"/>
+  <dimension ref="B2:S85"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O74" sqref="O74"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A67" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C80" sqref="C80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2526,7 +2516,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" s="45" customFormat="1" ht="25.5">
-      <c r="B2" s="98"/>
+      <c r="B2" s="119"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -2543,7 +2533,7 @@
       <c r="P2" s="61"/>
     </row>
     <row r="3" spans="2:16" s="45" customFormat="1" ht="26.25" thickBot="1">
-      <c r="B3" s="99"/>
+      <c r="B3" s="120"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
@@ -2560,36 +2550,36 @@
       <c r="P3" s="61"/>
     </row>
     <row r="4" spans="2:16" s="3" customFormat="1" ht="14.25">
-      <c r="B4" s="103" t="s">
+      <c r="B4" s="124" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="100" t="s">
+      <c r="C4" s="121" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="101"/>
-      <c r="E4" s="101"/>
-      <c r="F4" s="101"/>
-      <c r="G4" s="101"/>
-      <c r="H4" s="101"/>
-      <c r="I4" s="101"/>
-      <c r="J4" s="101"/>
-      <c r="K4" s="101"/>
-      <c r="L4" s="96" t="s">
+      <c r="D4" s="122"/>
+      <c r="E4" s="122"/>
+      <c r="F4" s="122"/>
+      <c r="G4" s="122"/>
+      <c r="H4" s="122"/>
+      <c r="I4" s="122"/>
+      <c r="J4" s="122"/>
+      <c r="K4" s="122"/>
+      <c r="L4" s="117" t="s">
         <v>22</v>
       </c>
-      <c r="M4" s="96" t="s">
+      <c r="M4" s="117" t="s">
         <v>10</v>
       </c>
-      <c r="N4" s="96" t="s">
+      <c r="N4" s="117" t="s">
         <v>45</v>
       </c>
-      <c r="O4" s="96" t="s">
+      <c r="O4" s="117" t="s">
         <v>151</v>
       </c>
       <c r="P4" s="62"/>
     </row>
     <row r="5" spans="2:16" s="3" customFormat="1" ht="14.25">
-      <c r="B5" s="104"/>
+      <c r="B5" s="125"/>
       <c r="C5" s="9" t="s">
         <v>1</v>
       </c>
@@ -2617,10 +2607,10 @@
       <c r="K5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="L5" s="102"/>
-      <c r="M5" s="97"/>
-      <c r="N5" s="97"/>
-      <c r="O5" s="97"/>
+      <c r="L5" s="123"/>
+      <c r="M5" s="118"/>
+      <c r="N5" s="118"/>
+      <c r="O5" s="118"/>
       <c r="P5" s="62"/>
     </row>
     <row r="6" spans="2:16" s="7" customFormat="1" ht="90">
@@ -3395,34 +3385,34 @@
       </c>
       <c r="P24" s="70"/>
     </row>
-    <row r="25" spans="2:18" s="108" customFormat="1" ht="45">
-      <c r="B25" s="117">
+    <row r="25" spans="2:18" s="99" customFormat="1" ht="45">
+      <c r="B25" s="108">
         <v>18</v>
       </c>
-      <c r="C25" s="105" t="s">
+      <c r="C25" s="96" t="s">
         <v>243</v>
       </c>
-      <c r="D25" s="105"/>
-      <c r="E25" s="125" t="s">
+      <c r="D25" s="96"/>
+      <c r="E25" s="116" t="s">
         <v>238</v>
       </c>
-      <c r="F25" s="105"/>
-      <c r="G25" s="105"/>
-      <c r="H25" s="105"/>
-      <c r="I25" s="106"/>
-      <c r="J25" s="105"/>
-      <c r="K25" s="105"/>
+      <c r="F25" s="96"/>
+      <c r="G25" s="96"/>
+      <c r="H25" s="96"/>
+      <c r="I25" s="97"/>
+      <c r="J25" s="96"/>
+      <c r="K25" s="96"/>
       <c r="L25" s="25" t="s">
         <v>144</v>
       </c>
       <c r="M25" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="N25" s="105"/>
+      <c r="N25" s="96"/>
       <c r="O25" s="25" t="s">
         <v>221</v>
       </c>
-      <c r="P25" s="107"/>
+      <c r="P25" s="98"/>
     </row>
     <row r="26" spans="2:18" s="59" customFormat="1" ht="90">
       <c r="B26" s="5">
@@ -3451,33 +3441,33 @@
       </c>
       <c r="P26" s="70"/>
     </row>
-    <row r="27" spans="2:18" s="108" customFormat="1" ht="60">
-      <c r="B27" s="117">
+    <row r="27" spans="2:18" s="99" customFormat="1" ht="60">
+      <c r="B27" s="108">
         <v>20</v>
       </c>
-      <c r="C27" s="105" t="s">
+      <c r="C27" s="96" t="s">
         <v>156</v>
       </c>
-      <c r="D27" s="105"/>
-      <c r="E27" s="105" t="s">
+      <c r="D27" s="96"/>
+      <c r="E27" s="96" t="s">
         <v>239</v>
       </c>
-      <c r="F27" s="105"/>
-      <c r="G27" s="105"/>
-      <c r="H27" s="105"/>
-      <c r="I27" s="106"/>
-      <c r="J27" s="105"/>
-      <c r="K27" s="105"/>
+      <c r="F27" s="96"/>
+      <c r="G27" s="96"/>
+      <c r="H27" s="96"/>
+      <c r="I27" s="97"/>
+      <c r="J27" s="96"/>
+      <c r="K27" s="96"/>
       <c r="L27" s="25"/>
       <c r="M27" s="25"/>
-      <c r="N27" s="105"/>
+      <c r="N27" s="96"/>
       <c r="O27" s="25" t="s">
-        <v>290</v>
-      </c>
-      <c r="P27" s="107"/>
-    </row>
-    <row r="28" spans="2:18" s="121" customFormat="1" ht="30" customHeight="1">
-      <c r="B28" s="119">
+        <v>287</v>
+      </c>
+      <c r="P27" s="98"/>
+    </row>
+    <row r="28" spans="2:18" s="112" customFormat="1" ht="30" customHeight="1">
+      <c r="B28" s="110">
         <v>21</v>
       </c>
       <c r="C28" s="34" t="s">
@@ -3486,7 +3476,7 @@
       <c r="D28" s="34" t="s">
         <v>157</v>
       </c>
-      <c r="E28" s="124" t="s">
+      <c r="E28" s="115" t="s">
         <v>231</v>
       </c>
       <c r="F28" s="34" t="s">
@@ -3509,12 +3499,10 @@
       <c r="M28" s="36"/>
       <c r="N28" s="34"/>
       <c r="O28" s="25" t="s">
-        <v>290</v>
-      </c>
-      <c r="P28" s="107" t="s">
-        <v>245</v>
-      </c>
-      <c r="R28" s="122"/>
+        <v>287</v>
+      </c>
+      <c r="P28" s="98"/>
+      <c r="R28" s="113"/>
     </row>
     <row r="29" spans="2:18" s="72" customFormat="1" ht="30" customHeight="1">
       <c r="B29" s="73">
@@ -3767,8 +3755,8 @@
       </c>
       <c r="P35" s="68"/>
     </row>
-    <row r="36" spans="2:19" s="121" customFormat="1" ht="30" customHeight="1">
-      <c r="B36" s="119">
+    <row r="36" spans="2:19" s="112" customFormat="1" ht="30" customHeight="1">
+      <c r="B36" s="110">
         <v>29</v>
       </c>
       <c r="C36" s="34" t="s">
@@ -3777,7 +3765,7 @@
       <c r="D36" s="34" t="s">
         <v>224</v>
       </c>
-      <c r="E36" s="123" t="s">
+      <c r="E36" s="114" t="s">
         <v>240</v>
       </c>
       <c r="F36" s="34" t="s">
@@ -3802,15 +3790,11 @@
       <c r="O36" s="25" t="s">
         <v>221</v>
       </c>
-      <c r="P36" s="107" t="s">
-        <v>246</v>
-      </c>
-      <c r="R36" s="118" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="37" spans="2:19" s="121" customFormat="1" ht="30" customHeight="1">
-      <c r="B37" s="119">
+      <c r="P36" s="98"/>
+      <c r="R36" s="109"/>
+    </row>
+    <row r="37" spans="2:19" s="112" customFormat="1" ht="30" customHeight="1">
+      <c r="B37" s="110">
         <v>30</v>
       </c>
       <c r="C37" s="34" t="s">
@@ -3819,8 +3803,8 @@
       <c r="D37" s="34" t="s">
         <v>186</v>
       </c>
-      <c r="E37" s="124" t="s">
-        <v>249</v>
+      <c r="E37" s="115" t="s">
+        <v>246</v>
       </c>
       <c r="F37" s="34" t="s">
         <v>175</v>
@@ -3844,10 +3828,8 @@
       <c r="O37" s="25" t="s">
         <v>221</v>
       </c>
-      <c r="P37" s="107"/>
-      <c r="R37" s="122">
-        <v>2</v>
-      </c>
+      <c r="P37" s="98"/>
+      <c r="R37" s="113"/>
     </row>
     <row r="38" spans="2:19" s="28" customFormat="1" ht="30" customHeight="1">
       <c r="B38" s="29">
@@ -3951,8 +3933,8 @@
       </c>
       <c r="P40" s="67"/>
     </row>
-    <row r="41" spans="2:19" s="121" customFormat="1" ht="30" customHeight="1">
-      <c r="B41" s="119">
+    <row r="41" spans="2:19" s="112" customFormat="1" ht="30" customHeight="1">
+      <c r="B41" s="110">
         <v>34</v>
       </c>
       <c r="C41" s="34" t="s">
@@ -3986,9 +3968,9 @@
       <c r="O41" s="25" t="s">
         <v>221</v>
       </c>
-      <c r="P41" s="120"/>
-      <c r="R41" s="122"/>
-      <c r="S41" s="120"/>
+      <c r="P41" s="111"/>
+      <c r="R41" s="113"/>
+      <c r="S41" s="111"/>
     </row>
     <row r="42" spans="2:19" s="40" customFormat="1" ht="30" customHeight="1">
       <c r="B42" s="41">
@@ -4210,105 +4192,105 @@
       </c>
       <c r="P48" s="70"/>
     </row>
-    <row r="49" spans="2:18" s="108" customFormat="1" ht="30">
-      <c r="B49" s="117">
+    <row r="49" spans="2:18" s="99" customFormat="1" ht="30">
+      <c r="B49" s="108">
         <v>43</v>
       </c>
-      <c r="C49" s="105" t="s">
+      <c r="C49" s="96" t="s">
         <v>225</v>
       </c>
-      <c r="D49" s="105"/>
-      <c r="E49" s="105" t="s">
+      <c r="D49" s="96"/>
+      <c r="E49" s="96" t="s">
         <v>241</v>
       </c>
-      <c r="F49" s="105"/>
-      <c r="G49" s="105"/>
-      <c r="H49" s="105"/>
-      <c r="I49" s="106"/>
-      <c r="J49" s="105"/>
-      <c r="K49" s="105"/>
+      <c r="F49" s="96"/>
+      <c r="G49" s="96"/>
+      <c r="H49" s="96"/>
+      <c r="I49" s="97"/>
+      <c r="J49" s="96"/>
+      <c r="K49" s="96"/>
       <c r="L49" s="25"/>
       <c r="M49" s="25"/>
-      <c r="N49" s="105"/>
+      <c r="N49" s="96"/>
       <c r="O49" s="25" t="s">
         <v>221</v>
       </c>
-      <c r="P49" s="107"/>
-      <c r="R49" s="118"/>
-    </row>
-    <row r="50" spans="2:18" s="108" customFormat="1" ht="45">
-      <c r="B50" s="117">
+      <c r="P49" s="98"/>
+      <c r="R49" s="109"/>
+    </row>
+    <row r="50" spans="2:18" s="99" customFormat="1" ht="45">
+      <c r="B50" s="108">
         <v>44</v>
       </c>
-      <c r="C50" s="105" t="s">
+      <c r="C50" s="96" t="s">
         <v>233</v>
       </c>
-      <c r="D50" s="105"/>
-      <c r="E50" s="105"/>
-      <c r="F50" s="105"/>
-      <c r="G50" s="105"/>
-      <c r="H50" s="105"/>
-      <c r="I50" s="106"/>
-      <c r="J50" s="105"/>
-      <c r="K50" s="105"/>
+      <c r="D50" s="96"/>
+      <c r="E50" s="96"/>
+      <c r="F50" s="96"/>
+      <c r="G50" s="96"/>
+      <c r="H50" s="96"/>
+      <c r="I50" s="97"/>
+      <c r="J50" s="96"/>
+      <c r="K50" s="96"/>
       <c r="L50" s="25"/>
       <c r="M50" s="25"/>
-      <c r="N50" s="105"/>
+      <c r="N50" s="96"/>
       <c r="O50" s="25" t="s">
         <v>221</v>
       </c>
-      <c r="P50" s="107"/>
-      <c r="R50" s="118"/>
-    </row>
-    <row r="51" spans="2:18" s="108" customFormat="1" ht="30">
-      <c r="B51" s="117">
+      <c r="P50" s="98"/>
+      <c r="R50" s="109"/>
+    </row>
+    <row r="51" spans="2:18" s="99" customFormat="1" ht="30">
+      <c r="B51" s="108">
         <v>45</v>
       </c>
-      <c r="C51" s="105" t="s">
+      <c r="C51" s="96" t="s">
         <v>234</v>
       </c>
-      <c r="D51" s="105"/>
-      <c r="E51" s="105"/>
-      <c r="F51" s="105"/>
-      <c r="G51" s="105"/>
-      <c r="H51" s="105"/>
-      <c r="I51" s="106"/>
-      <c r="J51" s="105"/>
-      <c r="K51" s="105"/>
+      <c r="D51" s="96"/>
+      <c r="E51" s="96"/>
+      <c r="F51" s="96"/>
+      <c r="G51" s="96"/>
+      <c r="H51" s="96"/>
+      <c r="I51" s="97"/>
+      <c r="J51" s="96"/>
+      <c r="K51" s="96"/>
       <c r="L51" s="25"/>
       <c r="M51" s="25"/>
-      <c r="N51" s="105"/>
+      <c r="N51" s="96"/>
       <c r="O51" s="25" t="s">
         <v>221</v>
       </c>
-      <c r="P51" s="107"/>
-      <c r="R51" s="118"/>
-    </row>
-    <row r="52" spans="2:18" s="108" customFormat="1" ht="30">
-      <c r="B52" s="117">
+      <c r="P51" s="98"/>
+      <c r="R51" s="109"/>
+    </row>
+    <row r="52" spans="2:18" s="99" customFormat="1" ht="30">
+      <c r="B52" s="108">
         <v>46</v>
       </c>
-      <c r="C52" s="105" t="s">
+      <c r="C52" s="96" t="s">
         <v>235</v>
       </c>
-      <c r="D52" s="105"/>
-      <c r="E52" s="105" t="s">
+      <c r="D52" s="96"/>
+      <c r="E52" s="96" t="s">
         <v>242</v>
       </c>
-      <c r="F52" s="105"/>
-      <c r="G52" s="105"/>
-      <c r="H52" s="105"/>
-      <c r="I52" s="106"/>
-      <c r="J52" s="105"/>
-      <c r="K52" s="105"/>
+      <c r="F52" s="96"/>
+      <c r="G52" s="96"/>
+      <c r="H52" s="96"/>
+      <c r="I52" s="97"/>
+      <c r="J52" s="96"/>
+      <c r="K52" s="96"/>
       <c r="L52" s="25"/>
       <c r="M52" s="25"/>
-      <c r="N52" s="105"/>
+      <c r="N52" s="96"/>
       <c r="O52" s="25" t="s">
         <v>221</v>
       </c>
-      <c r="P52" s="107"/>
-      <c r="R52" s="118"/>
+      <c r="P52" s="98"/>
+      <c r="R52" s="109"/>
     </row>
     <row r="53" spans="2:18" s="59" customFormat="1" ht="30">
       <c r="B53" s="83">
@@ -4321,7 +4303,7 @@
         <v>237</v>
       </c>
       <c r="E53" s="54" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F53" s="54"/>
       <c r="G53" s="56"/>
@@ -4333,7 +4315,7 @@
       <c r="M53" s="26"/>
       <c r="N53" s="82"/>
       <c r="O53" s="6" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="P53" s="70"/>
     </row>
@@ -4342,10 +4324,10 @@
         <v>48</v>
       </c>
       <c r="C54" s="89" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D54" s="54" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="E54" s="54"/>
       <c r="F54" s="54"/>
@@ -4367,10 +4349,10 @@
         <v>49</v>
       </c>
       <c r="C55" s="54" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D55" s="54" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E55" s="54"/>
       <c r="F55" s="54"/>
@@ -4392,10 +4374,10 @@
         <v>50</v>
       </c>
       <c r="C56" s="54" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D56" s="54" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="E56" s="54"/>
       <c r="F56" s="54"/>
@@ -4417,10 +4399,10 @@
         <v>51</v>
       </c>
       <c r="C57" s="89" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D57" s="54" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E57" s="54"/>
       <c r="F57" s="54"/>
@@ -4442,10 +4424,10 @@
         <v>52</v>
       </c>
       <c r="C58" s="89" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D58" s="54" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="E58" s="54"/>
       <c r="F58" s="54"/>
@@ -4467,10 +4449,10 @@
         <v>53</v>
       </c>
       <c r="C59" s="89" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D59" s="89" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="E59" s="54"/>
       <c r="F59" s="54"/>
@@ -4492,10 +4474,10 @@
         <v>54</v>
       </c>
       <c r="C60" s="84" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D60" s="84" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E60" s="85"/>
       <c r="F60" s="85"/>
@@ -4508,7 +4490,7 @@
       <c r="M60" s="87"/>
       <c r="N60" s="88"/>
       <c r="O60" s="87" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="P60" s="70"/>
     </row>
@@ -4517,10 +4499,10 @@
         <v>55</v>
       </c>
       <c r="C61" s="89" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D61" s="89" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="E61" s="54"/>
       <c r="F61" s="54"/>
@@ -4533,7 +4515,7 @@
       <c r="M61" s="6"/>
       <c r="N61" s="90"/>
       <c r="O61" s="6" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="P61" s="70"/>
     </row>
@@ -4542,10 +4524,10 @@
         <v>56</v>
       </c>
       <c r="C62" s="89" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D62" s="89" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="E62" s="54"/>
       <c r="F62" s="54"/>
@@ -4558,7 +4540,7 @@
       <c r="M62" s="6"/>
       <c r="N62" s="90"/>
       <c r="O62" s="6" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="P62" s="70"/>
     </row>
@@ -4567,10 +4549,10 @@
         <v>57</v>
       </c>
       <c r="C63" s="89" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D63" s="89" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="E63" s="54"/>
       <c r="F63" s="54"/>
@@ -4583,7 +4565,7 @@
       <c r="M63" s="6"/>
       <c r="N63" s="90"/>
       <c r="O63" s="6" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="P63" s="70"/>
     </row>
@@ -4592,10 +4574,10 @@
         <v>58</v>
       </c>
       <c r="C64" s="84" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D64" s="84" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E64" s="85"/>
       <c r="F64" s="85"/>
@@ -4615,10 +4597,10 @@
         <v>59</v>
       </c>
       <c r="C65" s="91" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D65" s="91" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="E65" s="92"/>
       <c r="F65" s="92"/>
@@ -4633,165 +4615,165 @@
       <c r="O65" s="91"/>
       <c r="P65" s="70"/>
     </row>
-    <row r="66" spans="2:16" s="116" customFormat="1" ht="30" customHeight="1">
-      <c r="B66" s="109">
+    <row r="66" spans="2:16" s="107" customFormat="1" ht="30" customHeight="1">
+      <c r="B66" s="100">
         <v>60</v>
       </c>
-      <c r="C66" s="110" t="s">
+      <c r="C66" s="101" t="s">
+        <v>289</v>
+      </c>
+      <c r="D66" s="101" t="s">
+        <v>273</v>
+      </c>
+      <c r="E66" s="102"/>
+      <c r="F66" s="102"/>
+      <c r="G66" s="102"/>
+      <c r="H66" s="102"/>
+      <c r="I66" s="103"/>
+      <c r="J66" s="102"/>
+      <c r="K66" s="102"/>
+      <c r="L66" s="104"/>
+      <c r="M66" s="104"/>
+      <c r="N66" s="105"/>
+      <c r="O66" s="104" t="s">
+        <v>287</v>
+      </c>
+      <c r="P66" s="106"/>
+    </row>
+    <row r="67" spans="2:16" s="107" customFormat="1" ht="30" customHeight="1">
+      <c r="B67" s="100">
+        <v>61</v>
+      </c>
+      <c r="C67" s="101" t="s">
+        <v>290</v>
+      </c>
+      <c r="D67" s="101" t="s">
+        <v>267</v>
+      </c>
+      <c r="E67" s="102"/>
+      <c r="F67" s="102"/>
+      <c r="G67" s="102"/>
+      <c r="H67" s="102"/>
+      <c r="I67" s="103"/>
+      <c r="J67" s="102"/>
+      <c r="K67" s="102"/>
+      <c r="L67" s="104"/>
+      <c r="M67" s="104"/>
+      <c r="N67" s="105"/>
+      <c r="O67" s="104" t="s">
+        <v>287</v>
+      </c>
+      <c r="P67" s="106"/>
+    </row>
+    <row r="68" spans="2:16" s="107" customFormat="1" ht="30" customHeight="1">
+      <c r="B68" s="100">
+        <v>62</v>
+      </c>
+      <c r="C68" s="101" t="s">
+        <v>291</v>
+      </c>
+      <c r="D68" s="101" t="s">
+        <v>274</v>
+      </c>
+      <c r="E68" s="102"/>
+      <c r="F68" s="102"/>
+      <c r="G68" s="102"/>
+      <c r="H68" s="102"/>
+      <c r="I68" s="103"/>
+      <c r="J68" s="102"/>
+      <c r="K68" s="102"/>
+      <c r="L68" s="104"/>
+      <c r="M68" s="104"/>
+      <c r="N68" s="105"/>
+      <c r="O68" s="104" t="s">
+        <v>287</v>
+      </c>
+      <c r="P68" s="106"/>
+    </row>
+    <row r="69" spans="2:16" s="107" customFormat="1" ht="30" customHeight="1">
+      <c r="B69" s="100">
+        <v>63</v>
+      </c>
+      <c r="C69" s="101" t="s">
         <v>292</v>
       </c>
-      <c r="D66" s="110" t="s">
-        <v>276</v>
-      </c>
-      <c r="E66" s="111"/>
-      <c r="F66" s="111"/>
-      <c r="G66" s="111"/>
-      <c r="H66" s="111"/>
-      <c r="I66" s="112"/>
-      <c r="J66" s="111"/>
-      <c r="K66" s="111"/>
-      <c r="L66" s="113"/>
-      <c r="M66" s="113"/>
-      <c r="N66" s="114"/>
-      <c r="O66" s="113" t="s">
-        <v>290</v>
-      </c>
-      <c r="P66" s="115"/>
-    </row>
-    <row r="67" spans="2:16" s="116" customFormat="1" ht="30" customHeight="1">
-      <c r="B67" s="109">
-        <v>61</v>
-      </c>
-      <c r="C67" s="110" t="s">
+      <c r="D69" s="101" t="s">
+        <v>268</v>
+      </c>
+      <c r="E69" s="102"/>
+      <c r="F69" s="102"/>
+      <c r="G69" s="102"/>
+      <c r="H69" s="102"/>
+      <c r="I69" s="103"/>
+      <c r="J69" s="102"/>
+      <c r="K69" s="102"/>
+      <c r="L69" s="104"/>
+      <c r="M69" s="104"/>
+      <c r="N69" s="105"/>
+      <c r="O69" s="101" t="s">
+        <v>287</v>
+      </c>
+      <c r="P69" s="106"/>
+    </row>
+    <row r="70" spans="2:16" s="107" customFormat="1" ht="30" customHeight="1">
+      <c r="B70" s="100">
+        <v>64</v>
+      </c>
+      <c r="C70" s="101" t="s">
         <v>293</v>
       </c>
-      <c r="D67" s="110" t="s">
+      <c r="D70" s="101" t="s">
+        <v>269</v>
+      </c>
+      <c r="E70" s="102"/>
+      <c r="F70" s="102"/>
+      <c r="G70" s="102"/>
+      <c r="H70" s="102"/>
+      <c r="I70" s="103"/>
+      <c r="J70" s="102"/>
+      <c r="K70" s="102"/>
+      <c r="L70" s="104"/>
+      <c r="M70" s="104"/>
+      <c r="N70" s="105"/>
+      <c r="O70" s="104" t="s">
+        <v>287</v>
+      </c>
+      <c r="P70" s="106"/>
+    </row>
+    <row r="71" spans="2:16" s="107" customFormat="1" ht="30" customHeight="1">
+      <c r="B71" s="100">
+        <v>65</v>
+      </c>
+      <c r="C71" s="101" t="s">
         <v>270</v>
       </c>
-      <c r="E67" s="111"/>
-      <c r="F67" s="111"/>
-      <c r="G67" s="111"/>
-      <c r="H67" s="111"/>
-      <c r="I67" s="112"/>
-      <c r="J67" s="111"/>
-      <c r="K67" s="111"/>
-      <c r="L67" s="113"/>
-      <c r="M67" s="113"/>
-      <c r="N67" s="114"/>
-      <c r="O67" s="113" t="s">
-        <v>290</v>
-      </c>
-      <c r="P67" s="115"/>
-    </row>
-    <row r="68" spans="2:16" s="116" customFormat="1" ht="30" customHeight="1">
-      <c r="B68" s="109">
-        <v>62</v>
-      </c>
-      <c r="C68" s="110" t="s">
+      <c r="D71" s="101" t="s">
         <v>294</v>
       </c>
-      <c r="D68" s="110" t="s">
-        <v>277</v>
-      </c>
-      <c r="E68" s="111"/>
-      <c r="F68" s="111"/>
-      <c r="G68" s="111"/>
-      <c r="H68" s="111"/>
-      <c r="I68" s="112"/>
-      <c r="J68" s="111"/>
-      <c r="K68" s="111"/>
-      <c r="L68" s="113"/>
-      <c r="M68" s="113"/>
-      <c r="N68" s="114"/>
-      <c r="O68" s="113" t="s">
-        <v>290</v>
-      </c>
-      <c r="P68" s="115"/>
-    </row>
-    <row r="69" spans="2:16" s="116" customFormat="1" ht="30" customHeight="1">
-      <c r="B69" s="109">
-        <v>63</v>
-      </c>
-      <c r="C69" s="110" t="s">
-        <v>295</v>
-      </c>
-      <c r="D69" s="110" t="s">
-        <v>271</v>
-      </c>
-      <c r="E69" s="111"/>
-      <c r="F69" s="111"/>
-      <c r="G69" s="111"/>
-      <c r="H69" s="111"/>
-      <c r="I69" s="112"/>
-      <c r="J69" s="111"/>
-      <c r="K69" s="111"/>
-      <c r="L69" s="113"/>
-      <c r="M69" s="113"/>
-      <c r="N69" s="114"/>
-      <c r="O69" s="110" t="s">
-        <v>290</v>
-      </c>
-      <c r="P69" s="115"/>
-    </row>
-    <row r="70" spans="2:16" s="116" customFormat="1" ht="30" customHeight="1">
-      <c r="B70" s="109">
-        <v>64</v>
-      </c>
-      <c r="C70" s="110" t="s">
-        <v>296</v>
-      </c>
-      <c r="D70" s="110" t="s">
-        <v>272</v>
-      </c>
-      <c r="E70" s="111"/>
-      <c r="F70" s="111"/>
-      <c r="G70" s="111"/>
-      <c r="H70" s="111"/>
-      <c r="I70" s="112"/>
-      <c r="J70" s="111"/>
-      <c r="K70" s="111"/>
-      <c r="L70" s="113"/>
-      <c r="M70" s="113"/>
-      <c r="N70" s="114"/>
-      <c r="O70" s="113" t="s">
-        <v>290</v>
-      </c>
-      <c r="P70" s="115"/>
-    </row>
-    <row r="71" spans="2:16" s="116" customFormat="1" ht="30" customHeight="1">
-      <c r="B71" s="109">
-        <v>65</v>
-      </c>
-      <c r="C71" s="110" t="s">
-        <v>273</v>
-      </c>
-      <c r="D71" s="110" t="s">
-        <v>297</v>
-      </c>
-      <c r="E71" s="111"/>
-      <c r="F71" s="111"/>
-      <c r="G71" s="111"/>
-      <c r="H71" s="111"/>
-      <c r="I71" s="112"/>
-      <c r="J71" s="111"/>
-      <c r="K71" s="111"/>
-      <c r="L71" s="113"/>
-      <c r="M71" s="113"/>
-      <c r="N71" s="114"/>
-      <c r="O71" s="110" t="s">
-        <v>290</v>
-      </c>
-      <c r="P71" s="115"/>
+      <c r="E71" s="102"/>
+      <c r="F71" s="102"/>
+      <c r="G71" s="102"/>
+      <c r="H71" s="102"/>
+      <c r="I71" s="103"/>
+      <c r="J71" s="102"/>
+      <c r="K71" s="102"/>
+      <c r="L71" s="104"/>
+      <c r="M71" s="104"/>
+      <c r="N71" s="105"/>
+      <c r="O71" s="101" t="s">
+        <v>287</v>
+      </c>
+      <c r="P71" s="106"/>
     </row>
     <row r="72" spans="2:16" s="59" customFormat="1" ht="30" customHeight="1">
       <c r="B72" s="83">
         <v>66</v>
       </c>
       <c r="C72" s="84" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D72" s="84" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="E72" s="85"/>
       <c r="F72" s="85"/>
@@ -4811,10 +4793,10 @@
         <v>67</v>
       </c>
       <c r="C73" s="84" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D73" s="84" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="E73" s="85"/>
       <c r="F73" s="85"/>
@@ -4834,10 +4816,10 @@
         <v>68</v>
       </c>
       <c r="C74" s="84" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D74" s="84" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="E74" s="85"/>
       <c r="F74" s="85"/>
@@ -4857,10 +4839,10 @@
         <v>69</v>
       </c>
       <c r="C75" s="84" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D75" s="84" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="E75" s="85"/>
       <c r="F75" s="85"/>
@@ -4880,10 +4862,10 @@
         <v>70</v>
       </c>
       <c r="C76" s="84" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D76" s="84" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="E76" s="85"/>
       <c r="F76" s="85"/>
@@ -4898,35 +4880,41 @@
       <c r="O76" s="84"/>
       <c r="P76" s="70"/>
     </row>
-    <row r="77" spans="2:16" s="116" customFormat="1" ht="30" customHeight="1">
-      <c r="B77" s="109">
+    <row r="77" spans="2:16" s="107" customFormat="1" ht="30" customHeight="1">
+      <c r="B77" s="100">
         <v>71</v>
       </c>
-      <c r="C77" s="110" t="s">
-        <v>298</v>
-      </c>
-      <c r="D77" s="110" t="s">
-        <v>289</v>
-      </c>
-      <c r="E77" s="111"/>
-      <c r="F77" s="111"/>
-      <c r="G77" s="111"/>
-      <c r="H77" s="111"/>
-      <c r="I77" s="112"/>
-      <c r="J77" s="111"/>
-      <c r="K77" s="111"/>
-      <c r="L77" s="113"/>
-      <c r="M77" s="113"/>
-      <c r="N77" s="114"/>
-      <c r="O77" s="110" t="s">
-        <v>290</v>
-      </c>
-      <c r="P77" s="115"/>
+      <c r="C77" s="101" t="s">
+        <v>295</v>
+      </c>
+      <c r="D77" s="101" t="s">
+        <v>286</v>
+      </c>
+      <c r="E77" s="102"/>
+      <c r="F77" s="102"/>
+      <c r="G77" s="102"/>
+      <c r="H77" s="102"/>
+      <c r="I77" s="103"/>
+      <c r="J77" s="102"/>
+      <c r="K77" s="102"/>
+      <c r="L77" s="104"/>
+      <c r="M77" s="104"/>
+      <c r="N77" s="105"/>
+      <c r="O77" s="101" t="s">
+        <v>287</v>
+      </c>
+      <c r="P77" s="106"/>
     </row>
     <row r="78" spans="2:16" s="59" customFormat="1" ht="30" customHeight="1">
-      <c r="B78" s="83"/>
-      <c r="C78" s="84"/>
-      <c r="D78" s="84"/>
+      <c r="B78" s="83">
+        <v>72</v>
+      </c>
+      <c r="C78" s="84" t="s">
+        <v>296</v>
+      </c>
+      <c r="D78" s="84" t="s">
+        <v>297</v>
+      </c>
       <c r="E78" s="85"/>
       <c r="F78" s="85"/>
       <c r="G78" s="85"/>
@@ -4941,9 +4929,15 @@
       <c r="P78" s="70"/>
     </row>
     <row r="79" spans="2:16" s="59" customFormat="1" ht="30" customHeight="1">
-      <c r="B79" s="83"/>
-      <c r="C79" s="84"/>
-      <c r="D79" s="84"/>
+      <c r="B79" s="83">
+        <v>73</v>
+      </c>
+      <c r="C79" s="84" t="s">
+        <v>298</v>
+      </c>
+      <c r="D79" s="84" t="s">
+        <v>299</v>
+      </c>
       <c r="E79" s="85"/>
       <c r="F79" s="85"/>
       <c r="G79" s="85"/>
@@ -4956,6 +4950,114 @@
       <c r="N79" s="88"/>
       <c r="O79" s="87"/>
       <c r="P79" s="70"/>
+    </row>
+    <row r="80" spans="2:16" s="59" customFormat="1" ht="30" customHeight="1">
+      <c r="B80" s="83">
+        <v>74</v>
+      </c>
+      <c r="C80" s="84" t="s">
+        <v>300</v>
+      </c>
+      <c r="D80" s="84" t="s">
+        <v>301</v>
+      </c>
+      <c r="E80" s="85"/>
+      <c r="F80" s="85"/>
+      <c r="G80" s="85"/>
+      <c r="H80" s="85"/>
+      <c r="I80" s="86"/>
+      <c r="J80" s="85"/>
+      <c r="K80" s="85"/>
+      <c r="L80" s="87"/>
+      <c r="M80" s="87"/>
+      <c r="N80" s="88"/>
+      <c r="O80" s="87"/>
+      <c r="P80" s="70"/>
+    </row>
+    <row r="81" spans="2:16" s="59" customFormat="1" ht="30" customHeight="1">
+      <c r="B81" s="83"/>
+      <c r="C81" s="84"/>
+      <c r="D81" s="84"/>
+      <c r="E81" s="85"/>
+      <c r="F81" s="85"/>
+      <c r="G81" s="85"/>
+      <c r="H81" s="85"/>
+      <c r="I81" s="86"/>
+      <c r="J81" s="85"/>
+      <c r="K81" s="85"/>
+      <c r="L81" s="87"/>
+      <c r="M81" s="87"/>
+      <c r="N81" s="88"/>
+      <c r="O81" s="87"/>
+      <c r="P81" s="70"/>
+    </row>
+    <row r="82" spans="2:16" s="59" customFormat="1" ht="30" customHeight="1">
+      <c r="B82" s="83"/>
+      <c r="C82" s="84"/>
+      <c r="D82" s="84"/>
+      <c r="E82" s="85"/>
+      <c r="F82" s="85"/>
+      <c r="G82" s="85"/>
+      <c r="H82" s="85"/>
+      <c r="I82" s="86"/>
+      <c r="J82" s="85"/>
+      <c r="K82" s="85"/>
+      <c r="L82" s="87"/>
+      <c r="M82" s="87"/>
+      <c r="N82" s="88"/>
+      <c r="O82" s="87"/>
+      <c r="P82" s="70"/>
+    </row>
+    <row r="83" spans="2:16" s="59" customFormat="1" ht="30" customHeight="1">
+      <c r="B83" s="83"/>
+      <c r="C83" s="84"/>
+      <c r="D83" s="84"/>
+      <c r="E83" s="85"/>
+      <c r="F83" s="85"/>
+      <c r="G83" s="85"/>
+      <c r="H83" s="85"/>
+      <c r="I83" s="86"/>
+      <c r="J83" s="85"/>
+      <c r="K83" s="85"/>
+      <c r="L83" s="87"/>
+      <c r="M83" s="87"/>
+      <c r="N83" s="88"/>
+      <c r="O83" s="87"/>
+      <c r="P83" s="70"/>
+    </row>
+    <row r="84" spans="2:16" s="59" customFormat="1" ht="30" customHeight="1">
+      <c r="B84" s="83"/>
+      <c r="C84" s="84"/>
+      <c r="D84" s="84"/>
+      <c r="E84" s="85"/>
+      <c r="F84" s="85"/>
+      <c r="G84" s="85"/>
+      <c r="H84" s="85"/>
+      <c r="I84" s="86"/>
+      <c r="J84" s="85"/>
+      <c r="K84" s="85"/>
+      <c r="L84" s="87"/>
+      <c r="M84" s="87"/>
+      <c r="N84" s="88"/>
+      <c r="O84" s="87"/>
+      <c r="P84" s="70"/>
+    </row>
+    <row r="85" spans="2:16" s="59" customFormat="1" ht="30" customHeight="1">
+      <c r="B85" s="83"/>
+      <c r="C85" s="84"/>
+      <c r="D85" s="84"/>
+      <c r="E85" s="85"/>
+      <c r="F85" s="85"/>
+      <c r="G85" s="85"/>
+      <c r="H85" s="85"/>
+      <c r="I85" s="86"/>
+      <c r="J85" s="85"/>
+      <c r="K85" s="85"/>
+      <c r="L85" s="87"/>
+      <c r="M85" s="87"/>
+      <c r="N85" s="88"/>
+      <c r="O85" s="87"/>
+      <c r="P85" s="70"/>
     </row>
   </sheetData>
   <autoFilter ref="O2:O60"/>

--- a/Documentation/Buglist.xlsx
+++ b/Documentation/Buglist.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="304">
   <si>
     <t>ID</t>
   </si>
@@ -1245,23 +1245,143 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
+    <t>目前在审核订单时，也需要进行筛选，请在待办事项中添加筛选功能。</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>排产计划用模版导出后，右上的条形码一直显示123456，未正确显示投产编号</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加用户商磊，计划科全部权限</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>关于销售订单的审核</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售订单添加界面，下拉菜单自动显示</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用孙海龙账户登入，在待办事项中，审核销售订单，这时点击表格设置，不进行任何编辑，点确定，软件崩溃，使用电脑为WIN 7系统，崩溃率100%</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>由于特殊客户的合同号比较长，现在需要把工号和合同号的最大输入位数调整到30位</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>更改的内容需要在销售订单界面和销售订单审核界面高亮显示</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>在销售订单应用设置默认订单的办法添加订单后，如果其中默认的信息有更改的地方，需要在销售订单界面和销售订单审核界面高亮显示，当本条订单业务和计划审核后，就不用高亮显示了。</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>重复合同号提示</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要给周海月增加删除权限</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加合同的UI布局需要改变</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>参照订单式样表格进行修改</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 程序启动后长时间最小化，切换回来来后屏幕出现灰色花屏现象</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>在计划排产中的更多筛选中筛选供应商为佛山，结果显示为17页，当选择下一页的时候，筛选失效，变回总页数。这个希望保持筛选结果。</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Resolve</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Drop</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件崩溃</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>在待办事项中添加筛选功能</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>工号和合同号需要增加输入数据的最大位数</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>导出的监控记录右上条形码不改变</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加用户</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售订单需要在业务审核后，才能进行计划审核，这个需要添加一个前后顺序</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>筛选功能失效</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>导出的数据太多</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>导出后的文件显示</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前导出比较大的数据的时候，文件本身会先出现，而里面的数据其实还没有导完，这个时候如果打开文件，会提示文件已经损坏，要等到全部导完后，才可以打开，用以造成误解。所以希望最后能够全部导入后再将文件显示，另外需要在倒入过程中增加一个进度条或者缓冲标识</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除权限增加</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>筛选默认值应该为空</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前在业务和计划两个页面的筛选功能中存在默认值，希望每次点击都能清空所有筛选项目</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
     <t>希望实现，在销售订单添加界面中的其中一项，录入内容会自动显示，例如：在销售订单中点添加，然后在包装箱和底拍的空白框中输入蓝光，后面小箭头的下拉菜单自动弹出，并且其中内容是都有蓝光的。</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>目前在审核订单时，也需要进行筛选，请在待办事项中添加筛选功能。</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>排产计划用模版导出后，右上的条形码一直显示123456，未正确显示投产编号</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加用户商磊，计划科全部权限</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>关于销售订单的审核</t>
+    <t>Suspend</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>在业务和计划的导出的时候，选择特定的数据导出，导出结果和选中的不符，大大多于选中的条目</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>一般需要最小化2个小时左右后才能再现，再现后重启程序现象消失</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>在新添合同时，如果合同号重复时，需要进行提示，但仍然允许重复合同号的保存</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
@@ -1269,123 +1389,11 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>销售订单添加界面，下拉菜单自动显示</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用孙海龙账户登入，在待办事项中，审核销售订单，这时点击表格设置，不进行任何编辑，点确定，软件崩溃，使用电脑为WIN 7系统，崩溃率100%</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>由于特殊客户的合同号比较长，现在需要把工号和合同号的最大输入位数调整到30位</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>计划人员身份登入，无法删除已经填写的投产编号和出厂编号（合同处于未审核状态例如：15-0302合同）</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>更改的内容需要在销售订单界面和销售订单审核界面高亮显示</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>在销售订单应用设置默认订单的办法添加订单后，如果其中默认的信息有更改的地方，需要在销售订单界面和销售订单审核界面高亮显示，当本条订单业务和计划审核后，就不用高亮显示了。</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>重复合同号提示</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>在新添合同时，如果合同号重复时，需要进行提示，但仍然允许重复合同号的保存</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除权限增加</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要给周海月增加删除权限</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加合同的UI布局需要改变</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>参照订单式样表格进行修改</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 程序启动后长时间最小化，切换回来来后屏幕出现灰色花屏现象</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>一般需要最小化2个小时左右后才能再现，再现后重启程序现象消失</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>在计划排产中的更多筛选中筛选供应商为佛山，结果显示为17页，当选择下一页的时候，筛选失效，变回总页数。这个希望保持筛选结果。</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>Resolve</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>Drop</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>软件崩溃</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>在待办事项中添加筛选功能</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>工号和合同号需要增加输入数据的最大位数</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>导出的监控记录右上条形码不改变</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>增加用户</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>销售订单需要在业务审核后，才能进行计划审核，这个需要添加一个前后顺序</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>筛选功能失效</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>筛选默认值应该为空</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>目前在业务和计划两个页面的筛选功能中存在默认值，希望每次点击都能清空所有筛选项目</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>导出的数据太多</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>在业务和计划的导出的时候，选择特定的数据导出，导出结果和选中的不符，大大多于选中的条目</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>导出后的文件显示</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>目前导出比较大的数据的时候，文件本身会先出现，而里面的数据其实还没有导完，这个时候如果打开文件，会提示文件已经损坏，要等到全部导完后，才可以打开，用以造成误解。所以希望最后能够全部导入后再将文件显示，另外需要在倒入过程中增加一个进度条或者缓冲标识</t>
+    <t>Suspend</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -1532,7 +1540,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1590,6 +1598,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1766,7 +1786,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="126">
+  <cellXfs count="138">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2132,6 +2152,42 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2492,8 +2548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:S85"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A67" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C80" sqref="C80"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A64" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T74" sqref="T74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3462,7 +3518,7 @@
       <c r="M27" s="25"/>
       <c r="N27" s="96"/>
       <c r="O27" s="25" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="P27" s="98"/>
     </row>
@@ -3499,7 +3555,7 @@
       <c r="M28" s="36"/>
       <c r="N28" s="34"/>
       <c r="O28" s="25" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="P28" s="98"/>
       <c r="R28" s="113"/>
@@ -4315,7 +4371,7 @@
       <c r="M53" s="26"/>
       <c r="N53" s="82"/>
       <c r="O53" s="6" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="P53" s="70"/>
     </row>
@@ -4490,7 +4546,7 @@
       <c r="M60" s="87"/>
       <c r="N60" s="88"/>
       <c r="O60" s="87" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="P60" s="70"/>
     </row>
@@ -4515,7 +4571,7 @@
       <c r="M61" s="6"/>
       <c r="N61" s="90"/>
       <c r="O61" s="6" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="P61" s="70"/>
     </row>
@@ -4540,7 +4596,7 @@
       <c r="M62" s="6"/>
       <c r="N62" s="90"/>
       <c r="O62" s="6" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="P62" s="70"/>
     </row>
@@ -4565,7 +4621,7 @@
       <c r="M63" s="6"/>
       <c r="N63" s="90"/>
       <c r="O63" s="6" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="P63" s="70"/>
     </row>
@@ -4573,23 +4629,25 @@
       <c r="B64" s="83">
         <v>58</v>
       </c>
-      <c r="C64" s="84" t="s">
-        <v>276</v>
-      </c>
-      <c r="D64" s="84" t="s">
-        <v>277</v>
-      </c>
-      <c r="E64" s="85"/>
-      <c r="F64" s="85"/>
-      <c r="G64" s="85"/>
-      <c r="H64" s="85"/>
-      <c r="I64" s="86"/>
-      <c r="J64" s="85"/>
-      <c r="K64" s="85"/>
-      <c r="L64" s="87"/>
-      <c r="M64" s="87"/>
-      <c r="N64" s="88"/>
-      <c r="O64" s="84"/>
+      <c r="C64" s="126" t="s">
+        <v>273</v>
+      </c>
+      <c r="D64" s="126" t="s">
+        <v>274</v>
+      </c>
+      <c r="E64" s="127"/>
+      <c r="F64" s="127"/>
+      <c r="G64" s="127"/>
+      <c r="H64" s="127"/>
+      <c r="I64" s="128"/>
+      <c r="J64" s="127"/>
+      <c r="K64" s="127"/>
+      <c r="L64" s="129"/>
+      <c r="M64" s="129"/>
+      <c r="N64" s="130"/>
+      <c r="O64" s="126" t="s">
+        <v>303</v>
+      </c>
       <c r="P64" s="70"/>
     </row>
     <row r="65" spans="2:16" s="59" customFormat="1" ht="30" customHeight="1">
@@ -4597,10 +4655,10 @@
         <v>59</v>
       </c>
       <c r="C65" s="91" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D65" s="91" t="s">
-        <v>266</v>
+        <v>296</v>
       </c>
       <c r="E65" s="92"/>
       <c r="F65" s="92"/>
@@ -4620,10 +4678,10 @@
         <v>60</v>
       </c>
       <c r="C66" s="101" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="D66" s="101" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E66" s="102"/>
       <c r="F66" s="102"/>
@@ -4636,7 +4694,7 @@
       <c r="M66" s="104"/>
       <c r="N66" s="105"/>
       <c r="O66" s="104" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="P66" s="106"/>
     </row>
@@ -4645,10 +4703,10 @@
         <v>61</v>
       </c>
       <c r="C67" s="101" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="D67" s="101" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E67" s="102"/>
       <c r="F67" s="102"/>
@@ -4661,7 +4719,7 @@
       <c r="M67" s="104"/>
       <c r="N67" s="105"/>
       <c r="O67" s="104" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="P67" s="106"/>
     </row>
@@ -4670,10 +4728,10 @@
         <v>62</v>
       </c>
       <c r="C68" s="101" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="D68" s="101" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E68" s="102"/>
       <c r="F68" s="102"/>
@@ -4686,7 +4744,7 @@
       <c r="M68" s="104"/>
       <c r="N68" s="105"/>
       <c r="O68" s="104" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="P68" s="106"/>
     </row>
@@ -4695,10 +4753,10 @@
         <v>63</v>
       </c>
       <c r="C69" s="101" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="D69" s="101" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E69" s="102"/>
       <c r="F69" s="102"/>
@@ -4711,7 +4769,7 @@
       <c r="M69" s="104"/>
       <c r="N69" s="105"/>
       <c r="O69" s="101" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="P69" s="106"/>
     </row>
@@ -4720,10 +4778,10 @@
         <v>64</v>
       </c>
       <c r="C70" s="101" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="D70" s="101" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E70" s="102"/>
       <c r="F70" s="102"/>
@@ -4736,7 +4794,7 @@
       <c r="M70" s="104"/>
       <c r="N70" s="105"/>
       <c r="O70" s="104" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="P70" s="106"/>
     </row>
@@ -4745,10 +4803,10 @@
         <v>65</v>
       </c>
       <c r="C71" s="101" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D71" s="101" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="E71" s="102"/>
       <c r="F71" s="102"/>
@@ -4761,7 +4819,7 @@
       <c r="M71" s="104"/>
       <c r="N71" s="105"/>
       <c r="O71" s="101" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="P71" s="106"/>
     </row>
@@ -4770,10 +4828,10 @@
         <v>66</v>
       </c>
       <c r="C72" s="84" t="s">
-        <v>271</v>
+        <v>301</v>
       </c>
       <c r="D72" s="84" t="s">
-        <v>275</v>
+        <v>302</v>
       </c>
       <c r="E72" s="85"/>
       <c r="F72" s="85"/>
@@ -4793,10 +4851,10 @@
         <v>67</v>
       </c>
       <c r="C73" s="84" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="D73" s="84" t="s">
-        <v>285</v>
+        <v>299</v>
       </c>
       <c r="E73" s="85"/>
       <c r="F73" s="85"/>
@@ -4815,46 +4873,48 @@
       <c r="B74" s="83">
         <v>68</v>
       </c>
-      <c r="C74" s="84" t="s">
-        <v>278</v>
-      </c>
-      <c r="D74" s="84" t="s">
-        <v>279</v>
-      </c>
-      <c r="E74" s="85"/>
-      <c r="F74" s="85"/>
-      <c r="G74" s="85"/>
-      <c r="H74" s="85"/>
-      <c r="I74" s="86"/>
-      <c r="J74" s="85"/>
-      <c r="K74" s="85"/>
-      <c r="L74" s="87"/>
-      <c r="M74" s="87"/>
-      <c r="N74" s="88"/>
-      <c r="O74" s="84"/>
+      <c r="C74" s="133" t="s">
+        <v>275</v>
+      </c>
+      <c r="D74" s="133" t="s">
+        <v>300</v>
+      </c>
+      <c r="E74" s="134"/>
+      <c r="F74" s="134"/>
+      <c r="G74" s="134"/>
+      <c r="H74" s="134"/>
+      <c r="I74" s="135"/>
+      <c r="J74" s="134"/>
+      <c r="K74" s="134"/>
+      <c r="L74" s="136"/>
+      <c r="M74" s="136"/>
+      <c r="N74" s="137"/>
+      <c r="O74" s="133"/>
       <c r="P74" s="70"/>
     </row>
     <row r="75" spans="2:16" s="59" customFormat="1" ht="30" customHeight="1">
       <c r="B75" s="83">
         <v>69</v>
       </c>
-      <c r="C75" s="84" t="s">
-        <v>280</v>
-      </c>
-      <c r="D75" s="84" t="s">
-        <v>281</v>
-      </c>
-      <c r="E75" s="85"/>
-      <c r="F75" s="85"/>
-      <c r="G75" s="85"/>
-      <c r="H75" s="85"/>
-      <c r="I75" s="86"/>
-      <c r="J75" s="85"/>
-      <c r="K75" s="85"/>
-      <c r="L75" s="87"/>
-      <c r="M75" s="87"/>
-      <c r="N75" s="88"/>
-      <c r="O75" s="84"/>
+      <c r="C75" s="126" t="s">
+        <v>293</v>
+      </c>
+      <c r="D75" s="126" t="s">
+        <v>276</v>
+      </c>
+      <c r="E75" s="127"/>
+      <c r="F75" s="127"/>
+      <c r="G75" s="127"/>
+      <c r="H75" s="127"/>
+      <c r="I75" s="128"/>
+      <c r="J75" s="127"/>
+      <c r="K75" s="127"/>
+      <c r="L75" s="129"/>
+      <c r="M75" s="129"/>
+      <c r="N75" s="130"/>
+      <c r="O75" s="126" t="s">
+        <v>297</v>
+      </c>
       <c r="P75" s="70"/>
     </row>
     <row r="76" spans="2:16" s="59" customFormat="1" ht="30" customHeight="1">
@@ -4862,10 +4922,10 @@
         <v>70</v>
       </c>
       <c r="C76" s="84" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="D76" s="84" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="E76" s="85"/>
       <c r="F76" s="85"/>
@@ -4885,10 +4945,10 @@
         <v>71</v>
       </c>
       <c r="C77" s="101" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="D77" s="101" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="E77" s="102"/>
       <c r="F77" s="102"/>
@@ -4901,7 +4961,7 @@
       <c r="M77" s="104"/>
       <c r="N77" s="105"/>
       <c r="O77" s="101" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="P77" s="106"/>
     </row>
@@ -4909,23 +4969,25 @@
       <c r="B78" s="83">
         <v>72</v>
       </c>
-      <c r="C78" s="84" t="s">
-        <v>296</v>
-      </c>
-      <c r="D78" s="84" t="s">
-        <v>297</v>
-      </c>
-      <c r="E78" s="85"/>
-      <c r="F78" s="85"/>
-      <c r="G78" s="85"/>
-      <c r="H78" s="85"/>
-      <c r="I78" s="86"/>
-      <c r="J78" s="85"/>
-      <c r="K78" s="85"/>
-      <c r="L78" s="87"/>
-      <c r="M78" s="87"/>
-      <c r="N78" s="88"/>
-      <c r="O78" s="87"/>
+      <c r="C78" s="131" t="s">
+        <v>294</v>
+      </c>
+      <c r="D78" s="131" t="s">
+        <v>295</v>
+      </c>
+      <c r="E78" s="96"/>
+      <c r="F78" s="96"/>
+      <c r="G78" s="96"/>
+      <c r="H78" s="96"/>
+      <c r="I78" s="97"/>
+      <c r="J78" s="96"/>
+      <c r="K78" s="96"/>
+      <c r="L78" s="25"/>
+      <c r="M78" s="25"/>
+      <c r="N78" s="132"/>
+      <c r="O78" s="25" t="s">
+        <v>281</v>
+      </c>
       <c r="P78" s="70"/>
     </row>
     <row r="79" spans="2:16" s="59" customFormat="1" ht="30" customHeight="1">
@@ -4933,10 +4995,10 @@
         <v>73</v>
       </c>
       <c r="C79" s="84" t="s">
+        <v>290</v>
+      </c>
+      <c r="D79" s="84" t="s">
         <v>298</v>
-      </c>
-      <c r="D79" s="84" t="s">
-        <v>299</v>
       </c>
       <c r="E79" s="85"/>
       <c r="F79" s="85"/>
@@ -4956,10 +5018,10 @@
         <v>74</v>
       </c>
       <c r="C80" s="84" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="D80" s="84" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="E80" s="85"/>
       <c r="F80" s="85"/>

--- a/Documentation/Buglist.xlsx
+++ b/Documentation/Buglist.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="375" yWindow="1155" windowWidth="8505" windowHeight="7335"/>
+    <workbookView xWindow="375" yWindow="1155" windowWidth="8505" windowHeight="6600"/>
   </bookViews>
   <sheets>
     <sheet name="Buglist" sheetId="8" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="308">
   <si>
     <t>ID</t>
   </si>
@@ -1365,35 +1365,51 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
+    <t>Suspend</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>在业务和计划的导出的时候，选择特定的数据导出，导出结果和选中的不符，大大多于选中的条目</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>一般需要最小化2个小时左右后才能再现，再现后重启程序现象消失</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>在新添合同时，如果合同号重复时，需要进行提示，但仍然允许重复合同号的保存</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>填写后的出厂编号和投产编号在未审核状态无法删除</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划人员身份登入，无法删除已经填写的投产编号和出厂编号（合同处于未审核状态例如：15-0302合同）</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Suspend</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
     <t>希望实现，在销售订单添加界面中的其中一项，录入内容会自动显示，例如：在销售订单中点添加，然后在包装箱和底拍的空白框中输入蓝光，后面小箭头的下拉菜单自动弹出，并且其中内容是都有蓝光的。</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>Suspend</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>在业务和计划的导出的时候，选择特定的数据导出，导出结果和选中的不符，大大多于选中的条目</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>一般需要最小化2个小时左右后才能再现，再现后重启程序现象消失</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>在新添合同时，如果合同号重复时，需要进行提示，但仍然允许重复合同号的保存</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>填写后的出厂编号和投产编号在未审核状态无法删除</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>计划人员身份登入，无法删除已经填写的投产编号和出厂编号（合同处于未审核状态例如：15-0302合同）</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>Suspend</t>
+    <t>弹出窗口</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>无用字段</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>单复绕可以去掉</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加，修改等弹出的窗口需要增大尺寸，现在太密集了</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -2126,6 +2142,42 @@
     <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2152,42 +2204,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2548,8 +2564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:S85"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A64" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T74" sqref="T74"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A65" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F81" sqref="F81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2572,7 +2588,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" s="45" customFormat="1" ht="25.5">
-      <c r="B2" s="119"/>
+      <c r="B2" s="131"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -2589,7 +2605,7 @@
       <c r="P2" s="61"/>
     </row>
     <row r="3" spans="2:16" s="45" customFormat="1" ht="26.25" thickBot="1">
-      <c r="B3" s="120"/>
+      <c r="B3" s="132"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
@@ -2606,36 +2622,36 @@
       <c r="P3" s="61"/>
     </row>
     <row r="4" spans="2:16" s="3" customFormat="1" ht="14.25">
-      <c r="B4" s="124" t="s">
+      <c r="B4" s="136" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="121" t="s">
+      <c r="C4" s="133" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="122"/>
-      <c r="E4" s="122"/>
-      <c r="F4" s="122"/>
-      <c r="G4" s="122"/>
-      <c r="H4" s="122"/>
-      <c r="I4" s="122"/>
-      <c r="J4" s="122"/>
-      <c r="K4" s="122"/>
-      <c r="L4" s="117" t="s">
+      <c r="D4" s="134"/>
+      <c r="E4" s="134"/>
+      <c r="F4" s="134"/>
+      <c r="G4" s="134"/>
+      <c r="H4" s="134"/>
+      <c r="I4" s="134"/>
+      <c r="J4" s="134"/>
+      <c r="K4" s="134"/>
+      <c r="L4" s="129" t="s">
         <v>22</v>
       </c>
-      <c r="M4" s="117" t="s">
+      <c r="M4" s="129" t="s">
         <v>10</v>
       </c>
-      <c r="N4" s="117" t="s">
+      <c r="N4" s="129" t="s">
         <v>45</v>
       </c>
-      <c r="O4" s="117" t="s">
+      <c r="O4" s="129" t="s">
         <v>151</v>
       </c>
       <c r="P4" s="62"/>
     </row>
     <row r="5" spans="2:16" s="3" customFormat="1" ht="14.25">
-      <c r="B5" s="125"/>
+      <c r="B5" s="137"/>
       <c r="C5" s="9" t="s">
         <v>1</v>
       </c>
@@ -2663,10 +2679,10 @@
       <c r="K5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="L5" s="123"/>
-      <c r="M5" s="118"/>
-      <c r="N5" s="118"/>
-      <c r="O5" s="118"/>
+      <c r="L5" s="135"/>
+      <c r="M5" s="130"/>
+      <c r="N5" s="130"/>
+      <c r="O5" s="130"/>
       <c r="P5" s="62"/>
     </row>
     <row r="6" spans="2:16" s="7" customFormat="1" ht="90">
@@ -4629,24 +4645,24 @@
       <c r="B64" s="83">
         <v>58</v>
       </c>
-      <c r="C64" s="126" t="s">
+      <c r="C64" s="117" t="s">
         <v>273</v>
       </c>
-      <c r="D64" s="126" t="s">
+      <c r="D64" s="117" t="s">
         <v>274</v>
       </c>
-      <c r="E64" s="127"/>
-      <c r="F64" s="127"/>
-      <c r="G64" s="127"/>
-      <c r="H64" s="127"/>
-      <c r="I64" s="128"/>
-      <c r="J64" s="127"/>
-      <c r="K64" s="127"/>
-      <c r="L64" s="129"/>
-      <c r="M64" s="129"/>
-      <c r="N64" s="130"/>
-      <c r="O64" s="126" t="s">
-        <v>303</v>
+      <c r="E64" s="118"/>
+      <c r="F64" s="118"/>
+      <c r="G64" s="118"/>
+      <c r="H64" s="118"/>
+      <c r="I64" s="119"/>
+      <c r="J64" s="118"/>
+      <c r="K64" s="118"/>
+      <c r="L64" s="120"/>
+      <c r="M64" s="120"/>
+      <c r="N64" s="121"/>
+      <c r="O64" s="117" t="s">
+        <v>302</v>
       </c>
       <c r="P64" s="70"/>
     </row>
@@ -4658,7 +4674,7 @@
         <v>270</v>
       </c>
       <c r="D65" s="91" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="E65" s="92"/>
       <c r="F65" s="92"/>
@@ -4828,10 +4844,10 @@
         <v>66</v>
       </c>
       <c r="C72" s="84" t="s">
+        <v>300</v>
+      </c>
+      <c r="D72" s="84" t="s">
         <v>301</v>
-      </c>
-      <c r="D72" s="84" t="s">
-        <v>302</v>
       </c>
       <c r="E72" s="85"/>
       <c r="F72" s="85"/>
@@ -4854,7 +4870,7 @@
         <v>279</v>
       </c>
       <c r="D73" s="84" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E73" s="85"/>
       <c r="F73" s="85"/>
@@ -4873,47 +4889,47 @@
       <c r="B74" s="83">
         <v>68</v>
       </c>
-      <c r="C74" s="133" t="s">
+      <c r="C74" s="124" t="s">
         <v>275</v>
       </c>
-      <c r="D74" s="133" t="s">
-        <v>300</v>
-      </c>
-      <c r="E74" s="134"/>
-      <c r="F74" s="134"/>
-      <c r="G74" s="134"/>
-      <c r="H74" s="134"/>
-      <c r="I74" s="135"/>
-      <c r="J74" s="134"/>
-      <c r="K74" s="134"/>
-      <c r="L74" s="136"/>
-      <c r="M74" s="136"/>
-      <c r="N74" s="137"/>
-      <c r="O74" s="133"/>
+      <c r="D74" s="124" t="s">
+        <v>299</v>
+      </c>
+      <c r="E74" s="125"/>
+      <c r="F74" s="125"/>
+      <c r="G74" s="125"/>
+      <c r="H74" s="125"/>
+      <c r="I74" s="126"/>
+      <c r="J74" s="125"/>
+      <c r="K74" s="125"/>
+      <c r="L74" s="127"/>
+      <c r="M74" s="127"/>
+      <c r="N74" s="128"/>
+      <c r="O74" s="124"/>
       <c r="P74" s="70"/>
     </row>
     <row r="75" spans="2:16" s="59" customFormat="1" ht="30" customHeight="1">
       <c r="B75" s="83">
         <v>69</v>
       </c>
-      <c r="C75" s="126" t="s">
+      <c r="C75" s="117" t="s">
         <v>293</v>
       </c>
-      <c r="D75" s="126" t="s">
+      <c r="D75" s="117" t="s">
         <v>276</v>
       </c>
-      <c r="E75" s="127"/>
-      <c r="F75" s="127"/>
-      <c r="G75" s="127"/>
-      <c r="H75" s="127"/>
-      <c r="I75" s="128"/>
-      <c r="J75" s="127"/>
-      <c r="K75" s="127"/>
-      <c r="L75" s="129"/>
-      <c r="M75" s="129"/>
-      <c r="N75" s="130"/>
-      <c r="O75" s="126" t="s">
-        <v>297</v>
+      <c r="E75" s="118"/>
+      <c r="F75" s="118"/>
+      <c r="G75" s="118"/>
+      <c r="H75" s="118"/>
+      <c r="I75" s="119"/>
+      <c r="J75" s="118"/>
+      <c r="K75" s="118"/>
+      <c r="L75" s="120"/>
+      <c r="M75" s="120"/>
+      <c r="N75" s="121"/>
+      <c r="O75" s="117" t="s">
+        <v>296</v>
       </c>
       <c r="P75" s="70"/>
     </row>
@@ -4969,10 +4985,10 @@
       <c r="B78" s="83">
         <v>72</v>
       </c>
-      <c r="C78" s="131" t="s">
+      <c r="C78" s="122" t="s">
         <v>294</v>
       </c>
-      <c r="D78" s="131" t="s">
+      <c r="D78" s="122" t="s">
         <v>295</v>
       </c>
       <c r="E78" s="96"/>
@@ -4984,7 +5000,7 @@
       <c r="K78" s="96"/>
       <c r="L78" s="25"/>
       <c r="M78" s="25"/>
-      <c r="N78" s="132"/>
+      <c r="N78" s="123"/>
       <c r="O78" s="25" t="s">
         <v>281</v>
       </c>
@@ -4998,7 +5014,7 @@
         <v>290</v>
       </c>
       <c r="D79" s="84" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E79" s="85"/>
       <c r="F79" s="85"/>
@@ -5037,9 +5053,15 @@
       <c r="P80" s="70"/>
     </row>
     <row r="81" spans="2:16" s="59" customFormat="1" ht="30" customHeight="1">
-      <c r="B81" s="83"/>
-      <c r="C81" s="84"/>
-      <c r="D81" s="84"/>
+      <c r="B81" s="83">
+        <v>75</v>
+      </c>
+      <c r="C81" s="84" t="s">
+        <v>305</v>
+      </c>
+      <c r="D81" s="84" t="s">
+        <v>306</v>
+      </c>
       <c r="E81" s="85"/>
       <c r="F81" s="85"/>
       <c r="G81" s="85"/>
@@ -5054,9 +5076,15 @@
       <c r="P81" s="70"/>
     </row>
     <row r="82" spans="2:16" s="59" customFormat="1" ht="30" customHeight="1">
-      <c r="B82" s="83"/>
-      <c r="C82" s="84"/>
-      <c r="D82" s="84"/>
+      <c r="B82" s="83">
+        <v>76</v>
+      </c>
+      <c r="C82" s="84" t="s">
+        <v>304</v>
+      </c>
+      <c r="D82" s="84" t="s">
+        <v>307</v>
+      </c>
       <c r="E82" s="85"/>
       <c r="F82" s="85"/>
       <c r="G82" s="85"/>
